--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\BigHitGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8343E8E0-8AEF-439A-AE44-C07B68F2136C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1D1F87-C5ED-4E2C-8BA5-BAF3F184E977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="5955" windowWidth="35040" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6000" yWindow="3675" windowWidth="29130" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="72">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,24 @@
   <si>
     <t>stage7</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5300000</t>
+  </si>
+  <si>
+    <t>5400000</t>
+  </si>
+  <si>
+    <t>5500000</t>
+  </si>
+  <si>
+    <t>5600000</t>
+  </si>
+  <si>
+    <t>5700000</t>
+  </si>
+  <si>
+    <t>5800000</t>
   </si>
 </sst>
 </file>
@@ -691,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2986,7 +3004,7 @@
         <v>16</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -3022,7 +3040,7 @@
         <v>16</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3058,7 +3076,7 @@
         <v>16</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3094,7 +3112,7 @@
         <v>16</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3130,7 +3148,7 @@
         <v>16</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3166,7 +3184,7 @@
         <v>16</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1D1F87-C5ED-4E2C-8BA5-BAF3F184E977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F457318E-6921-49C2-9C07-AB9B7624E3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="3675" windowWidth="29130" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -277,10 +277,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,42 +293,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -339,62 +310,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
-    <cellStyle name="보통" xfId="2" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -707,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AX50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -726,7 +653,7 @@
     <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -783,275 +710,236 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-    </row>
-    <row r="3" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <f>A3^1.7</f>
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <f t="shared" ref="H4:H44" si="0">A4^1.7</f>
         <v>3.2490095854249419</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>11</v>
       </c>
-      <c r="D5" s="2">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>6.4730078399237803</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>10.556063286183152</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>11</v>
       </c>
-      <c r="D7" s="2">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>15.425846568000235</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>11</v>
       </c>
-      <c r="D8" s="2">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>21.030864518443156</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1068,65 +956,26 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>27.331701439859053</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="6" t="s">
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
         <v>32</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9"/>
-      <c r="AQ9"/>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9"/>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9"/>
-      <c r="AX9"/>
-    </row>
-    <row r="10" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1143,65 +992,26 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>34.296750801161366</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
         <v>33</v>
       </c>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-    </row>
-    <row r="11" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1218,65 +1028,26 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>41.899830495714724</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="6" t="s">
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
         <v>34</v>
       </c>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-      <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11"/>
-      <c r="AK11"/>
-      <c r="AL11"/>
-      <c r="AM11"/>
-      <c r="AN11"/>
-      <c r="AO11"/>
-      <c r="AP11"/>
-      <c r="AQ11"/>
-      <c r="AR11"/>
-      <c r="AS11"/>
-      <c r="AT11"/>
-      <c r="AU11"/>
-      <c r="AV11"/>
-      <c r="AW11"/>
-      <c r="AX11"/>
-    </row>
-    <row r="12" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1293,65 +1064,26 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>9</v>
-      </c>
-      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>50.118723362727238</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="6" t="s">
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
         <v>25</v>
       </c>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-      <c r="AG12"/>
-      <c r="AH12"/>
-      <c r="AI12"/>
-      <c r="AJ12"/>
-      <c r="AK12"/>
-      <c r="AL12"/>
-      <c r="AM12"/>
-      <c r="AN12"/>
-      <c r="AO12"/>
-      <c r="AP12"/>
-      <c r="AQ12"/>
-      <c r="AR12"/>
-      <c r="AS12"/>
-      <c r="AT12"/>
-      <c r="AU12"/>
-      <c r="AV12"/>
-      <c r="AW12"/>
-      <c r="AX12"/>
-    </row>
-    <row r="13" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1368,65 +1100,26 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>58.93422336432527</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="6" t="s">
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
         <v>35</v>
       </c>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-      <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13"/>
-      <c r="AK13"/>
-      <c r="AL13"/>
-      <c r="AM13"/>
-      <c r="AN13"/>
-      <c r="AO13"/>
-      <c r="AP13"/>
-      <c r="AQ13"/>
-      <c r="AR13"/>
-      <c r="AS13"/>
-      <c r="AT13"/>
-      <c r="AU13"/>
-      <c r="AV13"/>
-      <c r="AW13"/>
-      <c r="AX13"/>
-    </row>
-    <row r="14" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1443,437 +1136,242 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>11</v>
-      </c>
-      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>68.329480410195131</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="6" t="s">
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
         <v>36</v>
       </c>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
-      <c r="AH14"/>
-      <c r="AI14"/>
-      <c r="AJ14"/>
-      <c r="AK14"/>
-      <c r="AL14"/>
-      <c r="AM14"/>
-      <c r="AN14"/>
-      <c r="AO14"/>
-      <c r="AP14"/>
-      <c r="AQ14"/>
-      <c r="AR14"/>
-      <c r="AS14"/>
-      <c r="AT14"/>
-      <c r="AU14"/>
-      <c r="AV14"/>
-      <c r="AW14"/>
-      <c r="AX14"/>
-    </row>
-    <row r="15" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15" s="2">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" s="2">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2">
-        <v>12</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>78.289532356812032</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>13</v>
       </c>
-      <c r="D16" s="2">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>88.800959964074735</v>
+      </c>
+      <c r="I16" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="2">
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>13</v>
       </c>
-      <c r="H16" s="5">
-        <f t="shared" si="0"/>
-        <v>88.800959964074735</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>99.851625772126908</v>
+      </c>
+      <c r="I17" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18">
         <v>13</v>
       </c>
-      <c r="D17" s="2">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
         <v>2</v>
       </c>
-      <c r="F17" s="2">
-        <v>14</v>
-      </c>
-      <c r="G17" s="2">
-        <v>14</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="0"/>
-        <v>99.851625772126908</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>111.43047210190386</v>
+      </c>
+      <c r="I18" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="2"/>
-      <c r="AP17" s="2"/>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
-      <c r="AS17" s="2"/>
-      <c r="AT17" s="2"/>
-      <c r="AU17" s="2"/>
-      <c r="AV17" s="2"/>
-      <c r="AW17" s="2"/>
-      <c r="AX17" s="2"/>
-    </row>
-    <row r="18" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
         <v>3</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19">
         <v>13</v>
       </c>
-      <c r="D18" s="2">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="F18" s="2">
-        <v>15</v>
-      </c>
-      <c r="G18" s="2">
-        <v>15</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="0"/>
-        <v>111.43047210190386</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>123.52736184080699</v>
+      </c>
+      <c r="I19" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="2"/>
-      <c r="AP18" s="2"/>
-      <c r="AQ18" s="2"/>
-      <c r="AR18" s="2"/>
-      <c r="AS18" s="2"/>
-      <c r="AT18" s="2"/>
-      <c r="AU18" s="2"/>
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
-      <c r="AX18" s="2"/>
-    </row>
-    <row r="19" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20">
         <v>13</v>
       </c>
-      <c r="D19" s="2">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
         <v>2</v>
       </c>
-      <c r="F19" s="2">
-        <v>16</v>
-      </c>
-      <c r="G19" s="2">
-        <v>16</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="0"/>
-        <v>123.52736184080699</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>136.13295090825736</v>
+      </c>
+      <c r="I20" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="2"/>
-      <c r="AP19" s="2"/>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
-    </row>
-    <row r="20" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2">
-        <v>15</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2">
-        <v>17</v>
-      </c>
-      <c r="G20" s="2">
-        <v>17</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="0"/>
-        <v>136.13295090825736</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="6" t="s">
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
-      <c r="AN20" s="2"/>
-      <c r="AO20" s="2"/>
-      <c r="AP20" s="2"/>
-      <c r="AQ20" s="2"/>
-      <c r="AR20" s="2"/>
-      <c r="AS20" s="2"/>
-      <c r="AT20" s="2"/>
-      <c r="AU20" s="2"/>
-      <c r="AV20" s="2"/>
-      <c r="AW20" s="2"/>
-      <c r="AX20" s="2"/>
-    </row>
-    <row r="21" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1890,65 +1388,26 @@
         <v>3</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>18</v>
-      </c>
-      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>149.23858464887533</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="6" t="s">
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
         <v>42</v>
       </c>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
-      <c r="AG21"/>
-      <c r="AH21"/>
-      <c r="AI21"/>
-      <c r="AJ21"/>
-      <c r="AK21"/>
-      <c r="AL21"/>
-      <c r="AM21"/>
-      <c r="AN21"/>
-      <c r="AO21"/>
-      <c r="AP21"/>
-      <c r="AQ21"/>
-      <c r="AR21"/>
-      <c r="AS21"/>
-      <c r="AT21"/>
-      <c r="AU21"/>
-      <c r="AV21"/>
-      <c r="AW21"/>
-      <c r="AX21"/>
-    </row>
-    <row r="22" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1965,65 +1424,26 @@
         <v>3</v>
       </c>
       <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>162.83621261476173</v>
+      </c>
+      <c r="I22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
         <v>19</v>
       </c>
-      <c r="G22">
-        <v>19</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="0"/>
-        <v>162.83621261476173</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AC22"/>
-      <c r="AD22"/>
-      <c r="AE22"/>
-      <c r="AF22"/>
-      <c r="AG22"/>
-      <c r="AH22"/>
-      <c r="AI22"/>
-      <c r="AJ22"/>
-      <c r="AK22"/>
-      <c r="AL22"/>
-      <c r="AM22"/>
-      <c r="AN22"/>
-      <c r="AO22"/>
-      <c r="AP22"/>
-      <c r="AQ22"/>
-      <c r="AR22"/>
-      <c r="AS22"/>
-      <c r="AT22"/>
-      <c r="AU22"/>
-      <c r="AV22"/>
-      <c r="AW22"/>
-      <c r="AX22"/>
-    </row>
-    <row r="23" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2040,65 +1460,26 @@
         <v>3</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>20</v>
-      </c>
-      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>176.91831769866374</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="6" t="s">
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AC23"/>
-      <c r="AD23"/>
-      <c r="AE23"/>
-      <c r="AF23"/>
-      <c r="AG23"/>
-      <c r="AH23"/>
-      <c r="AI23"/>
-      <c r="AJ23"/>
-      <c r="AK23"/>
-      <c r="AL23"/>
-      <c r="AM23"/>
-      <c r="AN23"/>
-      <c r="AO23"/>
-      <c r="AP23"/>
-      <c r="AQ23"/>
-      <c r="AR23"/>
-      <c r="AS23"/>
-      <c r="AT23"/>
-      <c r="AU23"/>
-      <c r="AV23"/>
-      <c r="AW23"/>
-      <c r="AX23"/>
-    </row>
-    <row r="24" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2115,65 +1496,26 @@
         <v>3</v>
       </c>
       <c r="F24">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>21</v>
-      </c>
-      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="0"/>
         <v>191.47785662026743</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="6" t="s">
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
         <v>44</v>
       </c>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
-      <c r="AD24"/>
-      <c r="AE24"/>
-      <c r="AF24"/>
-      <c r="AG24"/>
-      <c r="AH24"/>
-      <c r="AI24"/>
-      <c r="AJ24"/>
-      <c r="AK24"/>
-      <c r="AL24"/>
-      <c r="AM24"/>
-      <c r="AN24"/>
-      <c r="AO24"/>
-      <c r="AP24"/>
-      <c r="AQ24"/>
-      <c r="AR24"/>
-      <c r="AS24"/>
-      <c r="AT24"/>
-      <c r="AU24"/>
-      <c r="AV24"/>
-      <c r="AW24"/>
-      <c r="AX24"/>
-    </row>
-    <row r="25" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2190,65 +1532,26 @@
         <v>3</v>
       </c>
       <c r="F25">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>22</v>
-      </c>
-      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>206.50820950428542</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="6" t="s">
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
         <v>45</v>
       </c>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
-      <c r="AE25"/>
-      <c r="AF25"/>
-      <c r="AG25"/>
-      <c r="AH25"/>
-      <c r="AI25"/>
-      <c r="AJ25"/>
-      <c r="AK25"/>
-      <c r="AL25"/>
-      <c r="AM25"/>
-      <c r="AN25"/>
-      <c r="AO25"/>
-      <c r="AP25"/>
-      <c r="AQ25"/>
-      <c r="AR25"/>
-      <c r="AS25"/>
-      <c r="AT25"/>
-      <c r="AU25"/>
-      <c r="AV25"/>
-      <c r="AW25"/>
-      <c r="AX25"/>
-    </row>
-    <row r="26" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2265,277 +1568,238 @@
         <v>3</v>
       </c>
       <c r="F26">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>23</v>
-      </c>
-      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="0"/>
         <v>222.00313681982982</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" t="s">
         <v>61</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="6" t="s">
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
         <v>46</v>
       </c>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-      <c r="AE26"/>
-      <c r="AF26"/>
-      <c r="AG26"/>
-      <c r="AH26"/>
-      <c r="AI26"/>
-      <c r="AJ26"/>
-      <c r="AK26"/>
-      <c r="AL26"/>
-      <c r="AM26"/>
-      <c r="AN26"/>
-      <c r="AO26"/>
-      <c r="AP26"/>
-      <c r="AQ26"/>
-      <c r="AR26"/>
-      <c r="AS26"/>
-      <c r="AT26"/>
-      <c r="AU26"/>
-      <c r="AV26"/>
-      <c r="AW26"/>
-      <c r="AX26"/>
-    </row>
-    <row r="27" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27" s="2">
-        <v>15</v>
-      </c>
-      <c r="D27" s="2">
-        <v>15</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
         <v>4</v>
       </c>
-      <c r="F27" s="2">
-        <v>24</v>
-      </c>
-      <c r="G27" s="2">
-        <v>24</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="0"/>
         <v>237.95674233948461</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="6" t="s">
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>5</v>
       </c>
-      <c r="C28" s="2">
-        <v>15</v>
-      </c>
-      <c r="D28" s="2">
-        <v>15</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
         <v>4</v>
       </c>
-      <c r="F28" s="2">
-        <v>25</v>
-      </c>
-      <c r="G28" s="2">
-        <v>25</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="0"/>
         <v>254.36344106571849</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" t="s">
         <v>62</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="6" t="s">
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>5</v>
       </c>
-      <c r="C29" s="2">
-        <v>15</v>
-      </c>
-      <c r="D29" s="2">
-        <v>15</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
         <v>4</v>
       </c>
-      <c r="F29" s="2">
-        <v>26</v>
-      </c>
-      <c r="G29" s="2">
-        <v>26</v>
-      </c>
-      <c r="H29" s="5">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="0"/>
         <v>271.21793129023882</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="6" t="s">
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="2">
-        <v>15</v>
-      </c>
-      <c r="D30" s="2">
-        <v>15</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
         <v>4</v>
       </c>
-      <c r="F30" s="2">
-        <v>27</v>
-      </c>
-      <c r="G30" s="2">
-        <v>27</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="0"/>
         <v>288.51517011821539</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" t="s">
         <v>62</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="6" t="s">
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31" s="2">
-        <v>15</v>
-      </c>
-      <c r="D31" s="2">
-        <v>15</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
         <v>4</v>
       </c>
-      <c r="F31" s="2">
-        <v>28</v>
-      </c>
-      <c r="G31" s="2">
-        <v>28</v>
-      </c>
-      <c r="H31" s="5">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="0"/>
         <v>306.250351917611</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" t="s">
         <v>62</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="6" t="s">
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="2">
-        <v>15</v>
-      </c>
-      <c r="D32" s="2">
-        <v>15</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32">
         <v>4</v>
       </c>
-      <c r="F32" s="2">
-        <v>29</v>
-      </c>
-      <c r="G32" s="2">
-        <v>29</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="0"/>
         <v>324.41888925390452</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" t="s">
         <v>62</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="6" t="s">
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2556,22 +1820,22 @@
         <v>5</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>30</v>
-      </c>
-      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="0"/>
         <v>343.01639594923512</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" t="s">
         <v>63</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="6" t="s">
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2592,22 +1856,22 @@
         <v>5</v>
       </c>
       <c r="F34">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>31</v>
-      </c>
-      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="0"/>
         <v>362.0386719675123</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" t="s">
         <v>63</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="6" t="s">
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2628,22 +1892,22 @@
         <v>5</v>
       </c>
       <c r="F35">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>32</v>
-      </c>
-      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="0"/>
         <v>381.48168987709653</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" t="s">
         <v>63</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="6" t="s">
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2664,22 +1928,22 @@
         <v>5</v>
       </c>
       <c r="F36">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>33</v>
-      </c>
-      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="0"/>
         <v>401.34158268303719</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" t="s">
         <v>63</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="6" t="s">
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2700,22 +1964,22 @@
         <v>5</v>
       </c>
       <c r="F37">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>34</v>
-      </c>
-      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="0"/>
         <v>421.6146328536567</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="6" t="s">
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2736,238 +2000,238 @@
         <v>5</v>
       </c>
       <c r="F38">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>35</v>
-      </c>
-      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="0"/>
         <v>442.29726239311128</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" t="s">
         <v>63</v>
       </c>
-      <c r="J38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="6" t="s">
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>7</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>17</v>
       </c>
-      <c r="D39" s="2">
-        <v>15</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="E39">
         <v>6</v>
       </c>
-      <c r="F39" s="2">
-        <v>36</v>
-      </c>
-      <c r="G39" s="2">
-        <v>36</v>
-      </c>
-      <c r="H39" s="5">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="0"/>
         <v>463.38602383363093</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" t="s">
         <v>64</v>
       </c>
-      <c r="J39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="6" t="s">
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>7</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>17</v>
       </c>
-      <c r="D40" s="2">
-        <v>15</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
         <v>6</v>
       </c>
-      <c r="F40" s="2">
-        <v>37</v>
-      </c>
-      <c r="G40" s="2">
-        <v>37</v>
-      </c>
-      <c r="H40" s="5">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="0"/>
         <v>484.87759203944762</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" s="6" t="s">
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>7</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>17</v>
       </c>
-      <c r="D41" s="2">
-        <v>15</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41">
         <v>6</v>
       </c>
-      <c r="F41" s="2">
-        <v>38</v>
-      </c>
-      <c r="G41" s="2">
-        <v>38</v>
-      </c>
-      <c r="H41" s="5">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="0"/>
         <v>506.76875672961057</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="6" t="s">
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>7</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>17</v>
       </c>
-      <c r="D42" s="2">
-        <v>15</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="D42">
+        <v>15</v>
+      </c>
+      <c r="E42">
         <v>6</v>
       </c>
-      <c r="F42" s="2">
-        <v>39</v>
-      </c>
-      <c r="G42" s="2">
-        <v>39</v>
-      </c>
-      <c r="H42" s="5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="0"/>
         <v>529.0564156396548</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" t="s">
         <v>11</v>
       </c>
-      <c r="J42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" s="6" t="s">
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>7</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>17</v>
       </c>
-      <c r="D43" s="2">
-        <v>15</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43">
         <v>6</v>
       </c>
-      <c r="F43" s="2">
-        <v>40</v>
-      </c>
-      <c r="G43" s="2">
-        <v>40</v>
-      </c>
-      <c r="H43" s="5">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="0"/>
         <v>551.73756825277371</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="6" t="s">
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>7</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>17</v>
       </c>
-      <c r="D44" s="2">
-        <v>15</v>
-      </c>
-      <c r="E44" s="2">
+      <c r="D44">
+        <v>15</v>
+      </c>
+      <c r="E44">
         <v>6</v>
       </c>
-      <c r="F44" s="2">
-        <v>41</v>
-      </c>
-      <c r="G44" s="2">
-        <v>41</v>
-      </c>
-      <c r="H44" s="5">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="0"/>
         <v>574.80931004021375</v>
       </c>
       <c r="I44" t="s">
         <v>11</v>
       </c>
-      <c r="J44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="6" t="s">
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2988,22 +2252,22 @@
         <v>7</v>
       </c>
       <c r="F45">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>42</v>
-      </c>
-      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <f t="shared" ref="H45:H50" si="1">A45^1.7</f>
         <v>598.26882715827799</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" t="s">
         <v>65</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="6" t="s">
+      <c r="J45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3024,22 +2288,22 @@
         <v>7</v>
       </c>
       <c r="F46">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>43</v>
-      </c>
-      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="1"/>
         <v>622.11339155587109</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" t="s">
         <v>65</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="6" t="s">
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3060,22 +2324,22 @@
         <v>7</v>
       </c>
       <c r="F47">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>44</v>
-      </c>
-      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="1"/>
         <v>646.34035645211259</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" t="s">
         <v>65</v>
       </c>
-      <c r="J47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="6" t="s">
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3096,22 +2360,22 @@
         <v>7</v>
       </c>
       <c r="F48">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>45</v>
-      </c>
-      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="1"/>
         <v>670.9471521483656</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" t="s">
         <v>65</v>
       </c>
-      <c r="J48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" s="6" t="s">
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3132,22 +2396,22 @@
         <v>7</v>
       </c>
       <c r="F49">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>46</v>
-      </c>
-      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="1"/>
         <v>695.93128214315311</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" t="s">
         <v>65</v>
       </c>
-      <c r="J49" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K49" s="6" t="s">
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3168,22 +2432,22 @@
         <v>7</v>
       </c>
       <c r="F50">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>47</v>
-      </c>
-      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="1"/>
         <v>721.29031952203206</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" t="s">
         <v>65</v>
       </c>
-      <c r="J50" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" s="6" t="s">
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
         <v>71</v>
       </c>
     </row>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F457318E-6921-49C2-9C07-AB9B7624E3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE6572A-1F36-4E13-B6D6-E0370EAE25CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="3675" windowWidth="29130" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5430" yWindow="3690" windowWidth="30660" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,26 @@
   </si>
   <si>
     <t>5800000</t>
+  </si>
+  <si>
+    <t>EnemyHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossPowerRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyAttackPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossHpRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -634,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -649,11 +669,13 @@
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="18.125" customWidth="1"/>
     <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,8 +709,23 @@
       <c r="K1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -722,8 +759,23 @@
       <c r="K2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -758,8 +810,23 @@
       <c r="K3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>200</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -794,8 +861,23 @@
       <c r="K4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>300</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -830,8 +912,23 @@
       <c r="K5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>400</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -866,8 +963,23 @@
       <c r="K6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>500</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>14</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -902,8 +1014,23 @@
       <c r="K7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>600</v>
+      </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+      <c r="N7">
+        <v>15</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -938,8 +1065,23 @@
       <c r="K8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>700</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>16</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -974,8 +1116,23 @@
       <c r="K9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>800</v>
+      </c>
+      <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="N9">
+        <v>17</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1010,8 +1167,23 @@
       <c r="K10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>900</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>18</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1046,8 +1218,23 @@
       <c r="K11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>1000</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1082,8 +1269,23 @@
       <c r="K12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>1100</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1118,8 +1320,23 @@
       <c r="K13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>1200</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <v>21</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1154,8 +1371,23 @@
       <c r="K14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>1300</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>22</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1190,8 +1422,23 @@
       <c r="K15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>1400</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>23</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1226,8 +1473,23 @@
       <c r="K16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>1500</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>24</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1262,8 +1524,23 @@
       <c r="K17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>1600</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17">
+        <v>25</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1298,8 +1575,23 @@
       <c r="K18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>1700</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>26</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1334,8 +1626,23 @@
       <c r="K19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>1800</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>27</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1370,8 +1677,23 @@
       <c r="K20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>1900</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+      <c r="N20">
+        <v>28</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1406,8 +1728,23 @@
       <c r="K21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>2000</v>
+      </c>
+      <c r="M21">
+        <v>100</v>
+      </c>
+      <c r="N21">
+        <v>29</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1442,8 +1779,23 @@
       <c r="K22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>2100</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22">
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1478,8 +1830,23 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>2200</v>
+      </c>
+      <c r="M23">
+        <v>100</v>
+      </c>
+      <c r="N23">
+        <v>31</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1514,8 +1881,23 @@
       <c r="K24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>2300</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+      <c r="N24">
+        <v>32</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1550,8 +1932,23 @@
       <c r="K25" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>2400</v>
+      </c>
+      <c r="M25">
+        <v>100</v>
+      </c>
+      <c r="N25">
+        <v>33</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1586,8 +1983,23 @@
       <c r="K26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>2500</v>
+      </c>
+      <c r="M26">
+        <v>100</v>
+      </c>
+      <c r="N26">
+        <v>34</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1622,8 +2034,23 @@
       <c r="K27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>2600</v>
+      </c>
+      <c r="M27">
+        <v>100</v>
+      </c>
+      <c r="N27">
+        <v>35</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1658,8 +2085,23 @@
       <c r="K28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>2700</v>
+      </c>
+      <c r="M28">
+        <v>100</v>
+      </c>
+      <c r="N28">
+        <v>36</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1694,8 +2136,23 @@
       <c r="K29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>2800</v>
+      </c>
+      <c r="M29">
+        <v>100</v>
+      </c>
+      <c r="N29">
+        <v>37</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1730,8 +2187,23 @@
       <c r="K30" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>2900</v>
+      </c>
+      <c r="M30">
+        <v>100</v>
+      </c>
+      <c r="N30">
+        <v>38</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1766,8 +2238,23 @@
       <c r="K31" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>3000</v>
+      </c>
+      <c r="M31">
+        <v>100</v>
+      </c>
+      <c r="N31">
+        <v>39</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1802,8 +2289,23 @@
       <c r="K32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>3100</v>
+      </c>
+      <c r="M32">
+        <v>100</v>
+      </c>
+      <c r="N32">
+        <v>40</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1838,8 +2340,23 @@
       <c r="K33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>3200</v>
+      </c>
+      <c r="M33">
+        <v>100</v>
+      </c>
+      <c r="N33">
+        <v>41</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1874,8 +2391,23 @@
       <c r="K34" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>3300</v>
+      </c>
+      <c r="M34">
+        <v>100</v>
+      </c>
+      <c r="N34">
+        <v>42</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1910,8 +2442,23 @@
       <c r="K35" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>3400</v>
+      </c>
+      <c r="M35">
+        <v>100</v>
+      </c>
+      <c r="N35">
+        <v>43</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1946,8 +2493,23 @@
       <c r="K36" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>3500</v>
+      </c>
+      <c r="M36">
+        <v>100</v>
+      </c>
+      <c r="N36">
+        <v>44</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1982,8 +2544,23 @@
       <c r="K37" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>3600</v>
+      </c>
+      <c r="M37">
+        <v>100</v>
+      </c>
+      <c r="N37">
+        <v>45</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2018,8 +2595,23 @@
       <c r="K38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>3700</v>
+      </c>
+      <c r="M38">
+        <v>100</v>
+      </c>
+      <c r="N38">
+        <v>46</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2054,8 +2646,23 @@
       <c r="K39" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>3800</v>
+      </c>
+      <c r="M39">
+        <v>100</v>
+      </c>
+      <c r="N39">
+        <v>47</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2090,8 +2697,23 @@
       <c r="K40" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>3900</v>
+      </c>
+      <c r="M40">
+        <v>100</v>
+      </c>
+      <c r="N40">
+        <v>48</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2126,8 +2748,23 @@
       <c r="K41" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>4000</v>
+      </c>
+      <c r="M41">
+        <v>100</v>
+      </c>
+      <c r="N41">
+        <v>49</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2162,8 +2799,23 @@
       <c r="K42" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>4100</v>
+      </c>
+      <c r="M42">
+        <v>100</v>
+      </c>
+      <c r="N42">
+        <v>50</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2198,8 +2850,23 @@
       <c r="K43" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>4200</v>
+      </c>
+      <c r="M43">
+        <v>100</v>
+      </c>
+      <c r="N43">
+        <v>51</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2234,8 +2901,23 @@
       <c r="K44" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>4300</v>
+      </c>
+      <c r="M44">
+        <v>100</v>
+      </c>
+      <c r="N44">
+        <v>52</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2270,8 +2952,23 @@
       <c r="K45" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>4400</v>
+      </c>
+      <c r="M45">
+        <v>100</v>
+      </c>
+      <c r="N45">
+        <v>53</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2306,8 +3003,23 @@
       <c r="K46" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>4500</v>
+      </c>
+      <c r="M46">
+        <v>100</v>
+      </c>
+      <c r="N46">
+        <v>54</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2342,8 +3054,23 @@
       <c r="K47" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>4600</v>
+      </c>
+      <c r="M47">
+        <v>100</v>
+      </c>
+      <c r="N47">
+        <v>55</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2378,8 +3105,23 @@
       <c r="K48" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <v>4700</v>
+      </c>
+      <c r="M48">
+        <v>100</v>
+      </c>
+      <c r="N48">
+        <v>56</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2414,8 +3156,23 @@
       <c r="K49" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>4800</v>
+      </c>
+      <c r="M49">
+        <v>100</v>
+      </c>
+      <c r="N49">
+        <v>57</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2449,6 +3206,21 @@
       </c>
       <c r="K50" t="s">
         <v>71</v>
+      </c>
+      <c r="L50">
+        <v>4900</v>
+      </c>
+      <c r="M50">
+        <v>100</v>
+      </c>
+      <c r="N50">
+        <v>58</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A0A0AE-6F87-42BB-8E0B-1DDC6A3CA4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3106BE-0A0D-40C6-A2D1-916B66EFC31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="3690" windowWidth="30660" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-33090" yWindow="1215" windowWidth="30660" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="216">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,24 +101,601 @@
     <t>1200000</t>
   </si>
   <si>
-    <t>EnemyHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BossPowerRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyAttackPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BossHpRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>stage0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1300000</t>
+  </si>
+  <si>
+    <t>1400000</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>1600000</t>
+  </si>
+  <si>
+    <t>1700000</t>
+  </si>
+  <si>
+    <t>1800000</t>
+  </si>
+  <si>
+    <t>1900000</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>2100000</t>
+  </si>
+  <si>
+    <t>2200000</t>
+  </si>
+  <si>
+    <t>2300000</t>
+  </si>
+  <si>
+    <t>2400000</t>
+  </si>
+  <si>
+    <t>2500000</t>
+  </si>
+  <si>
+    <t>2600000</t>
+  </si>
+  <si>
+    <t>2700000</t>
+  </si>
+  <si>
+    <t>2800000</t>
+  </si>
+  <si>
+    <t>2900000</t>
+  </si>
+  <si>
+    <t>3000000</t>
+  </si>
+  <si>
+    <t>3100000</t>
+  </si>
+  <si>
+    <t>3200000</t>
+  </si>
+  <si>
+    <t>3300000</t>
+  </si>
+  <si>
+    <t>3400000</t>
+  </si>
+  <si>
+    <t>3500000</t>
+  </si>
+  <si>
+    <t>3600000</t>
+  </si>
+  <si>
+    <t>3700000</t>
+  </si>
+  <si>
+    <t>3800000</t>
+  </si>
+  <si>
+    <t>3900000</t>
+  </si>
+  <si>
+    <t>4000000</t>
+  </si>
+  <si>
+    <t>4100000</t>
+  </si>
+  <si>
+    <t>4200000</t>
+  </si>
+  <si>
+    <t>4300000</t>
+  </si>
+  <si>
+    <t>4400000</t>
+  </si>
+  <si>
+    <t>4500000</t>
+  </si>
+  <si>
+    <t>4600000</t>
+  </si>
+  <si>
+    <t>4700000</t>
+  </si>
+  <si>
+    <t>4800000</t>
+  </si>
+  <si>
+    <t>4900000</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>5100000</t>
+  </si>
+  <si>
+    <t>5200000</t>
+  </si>
+  <si>
+    <t>5300000</t>
+  </si>
+  <si>
+    <t>5400000</t>
+  </si>
+  <si>
+    <t>5500000</t>
+  </si>
+  <si>
+    <t>5600000</t>
+  </si>
+  <si>
+    <t>5700000</t>
+  </si>
+  <si>
+    <t>5800000</t>
+  </si>
+  <si>
+    <t>5900000</t>
+  </si>
+  <si>
+    <t>6000000</t>
+  </si>
+  <si>
+    <t>6100000</t>
+  </si>
+  <si>
+    <t>6200000</t>
+  </si>
+  <si>
+    <t>6300000</t>
+  </si>
+  <si>
+    <t>6400000</t>
+  </si>
+  <si>
+    <t>6500000</t>
+  </si>
+  <si>
+    <t>6600000</t>
+  </si>
+  <si>
+    <t>6700000</t>
+  </si>
+  <si>
+    <t>6800000</t>
+  </si>
+  <si>
+    <t>6900000</t>
+  </si>
+  <si>
+    <t>7000000</t>
+  </si>
+  <si>
+    <t>7100000</t>
+  </si>
+  <si>
+    <t>7200000</t>
+  </si>
+  <si>
+    <t>7300000</t>
+  </si>
+  <si>
+    <t>7400000</t>
+  </si>
+  <si>
+    <t>7500000</t>
+  </si>
+  <si>
+    <t>7600000</t>
+  </si>
+  <si>
+    <t>7700000</t>
+  </si>
+  <si>
+    <t>7800000</t>
+  </si>
+  <si>
+    <t>7900000</t>
+  </si>
+  <si>
+    <t>8000000</t>
+  </si>
+  <si>
+    <t>8100000</t>
+  </si>
+  <si>
+    <t>8200000</t>
+  </si>
+  <si>
+    <t>8300000</t>
+  </si>
+  <si>
+    <t>8400000</t>
+  </si>
+  <si>
+    <t>8500000</t>
+  </si>
+  <si>
+    <t>8600000</t>
+  </si>
+  <si>
+    <t>8700000</t>
+  </si>
+  <si>
+    <t>8800000</t>
+  </si>
+  <si>
+    <t>8900000</t>
+  </si>
+  <si>
+    <t>9000000</t>
+  </si>
+  <si>
+    <t>9100000</t>
+  </si>
+  <si>
+    <t>9200000</t>
+  </si>
+  <si>
+    <t>9300000</t>
+  </si>
+  <si>
+    <t>9400000</t>
+  </si>
+  <si>
+    <t>9500000</t>
+  </si>
+  <si>
+    <t>9600000</t>
+  </si>
+  <si>
+    <t>9700000</t>
+  </si>
+  <si>
+    <t>9800000</t>
+  </si>
+  <si>
+    <t>9900000</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>10100000</t>
+  </si>
+  <si>
+    <t>10200000</t>
+  </si>
+  <si>
+    <t>10300000</t>
+  </si>
+  <si>
+    <t>10400000</t>
+  </si>
+  <si>
+    <t>10500000</t>
+  </si>
+  <si>
+    <t>10600000</t>
+  </si>
+  <si>
+    <t>10700000</t>
+  </si>
+  <si>
+    <t>10800000</t>
+  </si>
+  <si>
+    <t>10900000</t>
+  </si>
+  <si>
+    <t>11000000</t>
+  </si>
+  <si>
+    <t>11100000</t>
+  </si>
+  <si>
+    <t>11200000</t>
+  </si>
+  <si>
+    <t>11300000</t>
+  </si>
+  <si>
+    <t>11400000</t>
+  </si>
+  <si>
+    <t>11500000</t>
+  </si>
+  <si>
+    <t>11600000</t>
+  </si>
+  <si>
+    <t>11700000</t>
+  </si>
+  <si>
+    <t>11800000</t>
+  </si>
+  <si>
+    <t>11900000</t>
+  </si>
+  <si>
+    <t>12000000</t>
+  </si>
+  <si>
+    <t>12100000</t>
+  </si>
+  <si>
+    <t>12200000</t>
+  </si>
+  <si>
+    <t>12300000</t>
+  </si>
+  <si>
+    <t>12400000</t>
+  </si>
+  <si>
+    <t>12500000</t>
+  </si>
+  <si>
+    <t>12600000</t>
+  </si>
+  <si>
+    <t>12700000</t>
+  </si>
+  <si>
+    <t>12800000</t>
+  </si>
+  <si>
+    <t>12900000</t>
+  </si>
+  <si>
+    <t>13000000</t>
+  </si>
+  <si>
+    <t>13100000</t>
+  </si>
+  <si>
+    <t>13200000</t>
+  </si>
+  <si>
+    <t>13300000</t>
+  </si>
+  <si>
+    <t>13400000</t>
+  </si>
+  <si>
+    <t>13500000</t>
+  </si>
+  <si>
+    <t>13600000</t>
+  </si>
+  <si>
+    <t>13700000</t>
+  </si>
+  <si>
+    <t>13800000</t>
+  </si>
+  <si>
+    <t>13900000</t>
+  </si>
+  <si>
+    <t>14000000</t>
+  </si>
+  <si>
+    <t>14100000</t>
+  </si>
+  <si>
+    <t>14200000</t>
+  </si>
+  <si>
+    <t>14300000</t>
+  </si>
+  <si>
+    <t>14400000</t>
+  </si>
+  <si>
+    <t>14500000</t>
+  </si>
+  <si>
+    <t>14600000</t>
+  </si>
+  <si>
+    <t>14700000</t>
+  </si>
+  <si>
+    <t>14800000</t>
+  </si>
+  <si>
+    <t>14900000</t>
+  </si>
+  <si>
+    <t>15000000</t>
+  </si>
+  <si>
+    <t>15100000</t>
+  </si>
+  <si>
+    <t>15200000</t>
+  </si>
+  <si>
+    <t>15300000</t>
+  </si>
+  <si>
+    <t>15400000</t>
+  </si>
+  <si>
+    <t>15500000</t>
+  </si>
+  <si>
+    <t>15600000</t>
+  </si>
+  <si>
+    <t>15700000</t>
+  </si>
+  <si>
+    <t>15800000</t>
+  </si>
+  <si>
+    <t>15900000</t>
+  </si>
+  <si>
+    <t>16000000</t>
+  </si>
+  <si>
+    <t>16100000</t>
+  </si>
+  <si>
+    <t>16200000</t>
+  </si>
+  <si>
+    <t>16300000</t>
+  </si>
+  <si>
+    <t>16400000</t>
+  </si>
+  <si>
+    <t>16500000</t>
+  </si>
+  <si>
+    <t>16600000</t>
+  </si>
+  <si>
+    <t>16700000</t>
+  </si>
+  <si>
+    <t>16800000</t>
+  </si>
+  <si>
+    <t>16900000</t>
+  </si>
+  <si>
+    <t>17000000</t>
+  </si>
+  <si>
+    <t>17100000</t>
+  </si>
+  <si>
+    <t>17200000</t>
+  </si>
+  <si>
+    <t>17300000</t>
+  </si>
+  <si>
+    <t>17400000</t>
+  </si>
+  <si>
+    <t>17500000</t>
+  </si>
+  <si>
+    <t>17600000</t>
+  </si>
+  <si>
+    <t>17700000</t>
+  </si>
+  <si>
+    <t>17800000</t>
+  </si>
+  <si>
+    <t>17900000</t>
+  </si>
+  <si>
+    <t>18000000</t>
+  </si>
+  <si>
+    <t>18100000</t>
+  </si>
+  <si>
+    <t>18200000</t>
+  </si>
+  <si>
+    <t>18300000</t>
+  </si>
+  <si>
+    <t>18400000</t>
+  </si>
+  <si>
+    <t>18500000</t>
+  </si>
+  <si>
+    <t>18600000</t>
+  </si>
+  <si>
+    <t>18700000</t>
+  </si>
+  <si>
+    <t>18800000</t>
+  </si>
+  <si>
+    <t>18900000</t>
+  </si>
+  <si>
+    <t>19000000</t>
+  </si>
+  <si>
+    <t>19100000</t>
+  </si>
+  <si>
+    <t>19200000</t>
+  </si>
+  <si>
+    <t>19300000</t>
+  </si>
+  <si>
+    <t>19400000</t>
+  </si>
+  <si>
+    <t>19500000</t>
+  </si>
+  <si>
+    <t>19600000</t>
+  </si>
+  <si>
+    <t>19700000</t>
+  </si>
+  <si>
+    <t>19800000</t>
+  </si>
+  <si>
+    <t>19900000</t>
+  </si>
+  <si>
+    <t>20000000</t>
+  </si>
+  <si>
+    <t>20100000</t>
+  </si>
+  <si>
+    <t>20200000</t>
+  </si>
+  <si>
+    <t>20300000</t>
+  </si>
+  <si>
+    <t>20400000</t>
+  </si>
+  <si>
+    <t>20500000</t>
+  </si>
+  <si>
+    <t>20600000</t>
+  </si>
+  <si>
+    <t>20700000</t>
+  </si>
+  <si>
+    <t>20800000</t>
+  </si>
+  <si>
+    <t>20900000</t>
   </si>
 </sst>
 </file>
@@ -482,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="F4" sqref="F4:F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -500,11 +1077,9 @@
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,23 +1113,8 @@
       <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -588,23 +1148,8 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -639,23 +1184,8 @@
       <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="L3">
-        <v>200</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>11</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -672,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -690,20 +1220,7031 @@
       <c r="K4" t="s">
         <v>16</v>
       </c>
-      <c r="L4">
-        <v>300</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H7" si="1">A6^1.7</f>
+        <v>10.556063286183152</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>15.425846568000235</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H10" si="2">A9^1.7</f>
+        <v>27.331701439859053</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>34.296750801161366</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H13" si="3">A12^1.7</f>
+        <v>50.118723362727238</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>58.93422336432527</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H16" si="4">A15^1.7</f>
+        <v>78.289532356812032</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>88.800959964074735</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H19" si="5">A18^1.7</f>
+        <v>111.43047210190386</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>123.52736184080699</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H22" si="6">A21^1.7</f>
+        <v>149.23858464887533</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>162.83621261476173</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H25" si="7">A24^1.7</f>
+        <v>191.47785662026743</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>206.50820950428542</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H28" si="8">A27^1.7</f>
+        <v>237.95674233948461</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="8"/>
+        <v>254.36344106571849</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>26</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>27</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H31" si="9">A30^1.7</f>
+        <v>288.51517011821539</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>28</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="9"/>
+        <v>306.250351917611</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>29</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H34" si="10">A33^1.7</f>
+        <v>343.01639594923512</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>31</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="10"/>
+        <v>362.0386719675123</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H37" si="11">A36^1.7</f>
+        <v>401.34158268303719</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>34</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>421.6146328536567</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>35</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>36</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H40" si="12">A39^1.7</f>
+        <v>463.38602383363093</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>37</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="12"/>
+        <v>484.87759203944762</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>38</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>39</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42:H43" si="13">A42^1.7</f>
+        <v>529.0564156396548</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>40</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="13"/>
+        <v>551.73756825277371</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>41</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>42</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45:H46" si="14">A45^1.7</f>
+        <v>598.26882715827799</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>43</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="14"/>
+        <v>622.11339155587109</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>44</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>45</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48:H49" si="15">A48^1.7</f>
+        <v>670.9471521483656</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>46</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="15"/>
+        <v>695.93128214315311</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>47</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>48</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ref="H51:H52" si="16">A51^1.7</f>
+        <v>747.02190359759345</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>49</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="16"/>
+        <v>773.12373677747883</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>50</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>51</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ref="H54:H55" si="17">A54^1.7</f>
+        <v>826.42925820419191</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>52</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="17"/>
+        <v>853.62864136488804</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>53</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>15</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>54</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ref="H57:H58" si="18">A57^1.7</f>
+        <v>909.1102872223363</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>55</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="18"/>
+        <v>937.38855325459053</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>15</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>56</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>15</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>57</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ref="H60:H61" si="19">A60^1.7</f>
+        <v>995.01032892007913</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>15</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>58</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="19"/>
+        <v>1024.3501132567671</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>59</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>60</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" ref="H63:H64" si="20">A63^1.7</f>
+        <v>1084.0784704511104</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>61</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="20"/>
+        <v>1114.4635583969823</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>15</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>62</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>15</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>63</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ref="H66:H67" si="21">A66^1.7</f>
+        <v>1176.2671155169628</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>64</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="21"/>
+        <v>1207.6823140166723</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>15</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>65</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>15</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>66</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ref="H69:H70" si="22">A69^1.7</f>
+        <v>1271.5316201854528</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>15</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>67</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="22"/>
+        <v>1303.962649166805</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>15</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>68</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>69</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ref="H72:H73" si="23">A72^1.7</f>
+        <v>1369.8299834969496</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>11</v>
+      </c>
+      <c r="D73">
+        <v>15</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>70</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="23"/>
+        <v>1403.2633830666468</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>11</v>
+      </c>
+      <c r="D74">
+        <v>15</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>71</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>11</v>
+      </c>
+      <c r="D75">
+        <v>15</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>72</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ref="H75:H76" si="24">A75^1.7</f>
+        <v>1471.1225825823592</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>73</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="24"/>
+        <v>1505.5456331874191</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>15</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>74</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>11</v>
+      </c>
+      <c r="D78">
+        <v>15</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>75</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ref="H78:H79" si="25">A78^1.7</f>
+        <v>1575.3719442939303</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>15</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>76</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="25"/>
+        <v>1610.7725975837034</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>15</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>77</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>15</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>78</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" ref="H81:H82" si="26">A81^1.7</f>
+        <v>1682.5425470512334</v>
+      </c>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>15</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>79</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="26"/>
+        <v>1718.9093656437994</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>11</v>
+      </c>
+      <c r="D83">
+        <v>15</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>80</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>15</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>81</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ref="H84:H85" si="27">A84^1.7</f>
+        <v>1792.6006478923086</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>15</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>82</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="27"/>
+        <v>1829.9227526067309</v>
+      </c>
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>15</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>83</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>11</v>
+      </c>
+      <c r="D87">
+        <v>15</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>84</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ref="H87:H88" si="28">A87^1.7</f>
+        <v>1905.5141307061374</v>
+      </c>
+      <c r="I87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>15</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>85</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="28"/>
+        <v>1943.7811540981818</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>15</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>86</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>11</v>
+      </c>
+      <c r="D90">
+        <v>15</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>87</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ref="H90:H91" si="29">A90^1.7</f>
+        <v>2021.2523723862475</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>15</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>88</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="29"/>
+        <v>2060.4544176405534</v>
+      </c>
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>11</v>
+      </c>
+      <c r="D92">
+        <v>15</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>89</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>11</v>
+      </c>
+      <c r="D93">
+        <v>15</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>90</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ref="H93:H94" si="30">A93^1.7</f>
+        <v>2139.7861242425706</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>11</v>
+      </c>
+      <c r="D94">
+        <v>15</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>91</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="30"/>
+        <v>2179.9137286436071</v>
+      </c>
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>11</v>
+      </c>
+      <c r="D95">
+        <v>15</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>92</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>15</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>93</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ref="H96:H97" si="31">A96^1.7</f>
+        <v>2261.0874064801746</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>11</v>
+      </c>
+      <c r="D97">
+        <v>15</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>94</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="31"/>
+        <v>2302.1315088190681</v>
+      </c>
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>15</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>95</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>11</v>
+      </c>
+      <c r="D99">
+        <v>15</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>96</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f t="shared" ref="H99:H100" si="32">A99^1.7</f>
+        <v>2385.129413928918</v>
+      </c>
+      <c r="I99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>11</v>
+      </c>
+      <c r="D100">
+        <v>15</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>97</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="32"/>
+        <v>2427.0813253109686</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>11</v>
+      </c>
+      <c r="D101">
+        <v>15</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>98</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102">
+        <v>15</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>99</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f t="shared" ref="H102:H103" si="33">A102^1.7</f>
+        <v>2511.8864315095811</v>
+      </c>
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>11</v>
+      </c>
+      <c r="D103">
+        <v>15</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>100</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="33"/>
+        <v>2554.73780911419</v>
+      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>11</v>
+      </c>
+      <c r="D104">
+        <v>15</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>101</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>11</v>
+      </c>
+      <c r="D105">
+        <v>15</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>102</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <f t="shared" ref="H105:H106" si="34">A105^1.7</f>
+        <v>2641.3337581655501</v>
+      </c>
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>11</v>
+      </c>
+      <c r="D106">
+        <v>15</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>103</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="34"/>
+        <v>2685.0765815810419</v>
+      </c>
+      <c r="I106" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106" t="s">
+        <v>18</v>
+      </c>
+      <c r="K106" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>11</v>
+      </c>
+      <c r="D107">
+        <v>15</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>104</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107" t="s">
+        <v>18</v>
+      </c>
+      <c r="K107" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>11</v>
+      </c>
+      <c r="D108">
+        <v>15</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>105</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f t="shared" ref="H108:H109" si="35">A108^1.7</f>
+        <v>2773.4476381877894</v>
+      </c>
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>11</v>
+      </c>
+      <c r="D109">
+        <v>15</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>106</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="35"/>
+        <v>2818.0741880013366</v>
+      </c>
+      <c r="I109" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>11</v>
+      </c>
+      <c r="D110">
+        <v>15</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>107</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>11</v>
+      </c>
+      <c r="D111">
+        <v>15</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>108</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <f t="shared" ref="H111:H112" si="36">A111^1.7</f>
+        <v>2908.2051990233308</v>
+      </c>
+      <c r="I111" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111" t="s">
+        <v>18</v>
+      </c>
+      <c r="K111" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>11</v>
+      </c>
+      <c r="D112">
+        <v>15</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>109</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="36"/>
+        <v>2953.7080373937933</v>
+      </c>
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" t="s">
+        <v>18</v>
+      </c>
+      <c r="K112" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>11</v>
+      </c>
+      <c r="D113">
+        <v>15</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>110</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" t="s">
+        <v>18</v>
+      </c>
+      <c r="K113" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>11</v>
+      </c>
+      <c r="D114">
+        <v>15</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>111</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <f t="shared" ref="H114:H115" si="37">A114^1.7</f>
+        <v>3045.5843947917783</v>
+      </c>
+      <c r="I114" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" t="s">
+        <v>18</v>
+      </c>
+      <c r="K114" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>11</v>
+      </c>
+      <c r="D115">
+        <v>15</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>112</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="37"/>
+        <v>3091.9563477726774</v>
+      </c>
+      <c r="I115" t="s">
+        <v>17</v>
+      </c>
+      <c r="J115" t="s">
+        <v>18</v>
+      </c>
+      <c r="K115" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>11</v>
+      </c>
+      <c r="D116">
+        <v>15</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>113</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116" t="s">
+        <v>18</v>
+      </c>
+      <c r="K116" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>11</v>
+      </c>
+      <c r="D117">
+        <v>15</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>114</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f t="shared" ref="H117:H118" si="38">A117^1.7</f>
+        <v>3185.5639548455547</v>
+      </c>
+      <c r="I117" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117" t="s">
+        <v>18</v>
+      </c>
+      <c r="K117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>11</v>
+      </c>
+      <c r="D118">
+        <v>15</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>115</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="38"/>
+        <v>3232.7980962581623</v>
+      </c>
+      <c r="I118" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>11</v>
+      </c>
+      <c r="D119">
+        <v>15</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>116</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119" t="s">
+        <v>18</v>
+      </c>
+      <c r="K119" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>11</v>
+      </c>
+      <c r="D120">
+        <v>15</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>117</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <f t="shared" ref="H120:H121" si="39">A120^1.7</f>
+        <v>3328.1233368023618</v>
+      </c>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120" t="s">
+        <v>18</v>
+      </c>
+      <c r="K120" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>11</v>
+      </c>
+      <c r="D121">
+        <v>15</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>118</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="39"/>
+        <v>3376.2129734863765</v>
+      </c>
+      <c r="I121" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>11</v>
+      </c>
+      <c r="D122">
+        <v>15</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>119</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" t="s">
+        <v>18</v>
+      </c>
+      <c r="K122" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>11</v>
+      </c>
+      <c r="D123">
+        <v>15</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>120</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <f t="shared" ref="H123:H124" si="40">A123^1.7</f>
+        <v>3473.2426835561828</v>
+      </c>
+      <c r="I123" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123" t="s">
+        <v>18</v>
+      </c>
+      <c r="K123" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>11</v>
+      </c>
+      <c r="D124">
+        <v>15</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>121</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="40"/>
+        <v>3522.181341848468</v>
+      </c>
+      <c r="I124" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>11</v>
+      </c>
+      <c r="D125">
+        <v>15</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>122</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125" t="s">
+        <v>18</v>
+      </c>
+      <c r="K125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>11</v>
+      </c>
+      <c r="D126">
+        <v>15</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>123</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <f t="shared" ref="H126:H127" si="41">A126^1.7</f>
+        <v>3620.9027838385891</v>
+      </c>
+      <c r="I126" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126" t="s">
+        <v>18</v>
+      </c>
+      <c r="K126" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>11</v>
+      </c>
+      <c r="D127">
+        <v>15</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>124</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="41"/>
+        <v>3670.684197150058</v>
+      </c>
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" t="s">
+        <v>18</v>
+      </c>
+      <c r="K127" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>11</v>
+      </c>
+      <c r="D128">
+        <v>15</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>125</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" t="s">
+        <v>18</v>
+      </c>
+      <c r="K128" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>11</v>
+      </c>
+      <c r="D129">
+        <v>15</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>126</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f t="shared" ref="H129:H130" si="42">A129^1.7</f>
+        <v>3771.0850359575875</v>
+      </c>
+      <c r="I129" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129" t="s">
+        <v>18</v>
+      </c>
+      <c r="K129" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>11</v>
+      </c>
+      <c r="D130">
+        <v>15</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>127</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="42"/>
+        <v>3821.7031333347636</v>
+      </c>
+      <c r="I130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" t="s">
+        <v>18</v>
+      </c>
+      <c r="K130" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>11</v>
+      </c>
+      <c r="D131">
+        <v>15</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>128</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" t="s">
+        <v>18</v>
+      </c>
+      <c r="K131" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>11</v>
+      </c>
+      <c r="D132">
+        <v>15</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>129</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <f t="shared" ref="H132:H133" si="43">A132^1.7</f>
+        <v>3923.7714143883404</v>
+      </c>
+      <c r="I132" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132" t="s">
+        <v>18</v>
+      </c>
+      <c r="K132" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>11</v>
+      </c>
+      <c r="D133">
+        <v>15</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>130</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="43"/>
+        <v>3975.2203099602521</v>
+      </c>
+      <c r="I133" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133" t="s">
+        <v>18</v>
+      </c>
+      <c r="K133" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>11</v>
+      </c>
+      <c r="D134">
+        <v>15</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>131</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134" t="s">
+        <v>18</v>
+      </c>
+      <c r="K134" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>11</v>
+      </c>
+      <c r="D135">
+        <v>15</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>132</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <f t="shared" ref="H135:H136" si="44">A135^1.7</f>
+        <v>4078.9444389301948</v>
+      </c>
+      <c r="I135" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135" t="s">
+        <v>18</v>
+      </c>
+      <c r="K135" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>11</v>
+      </c>
+      <c r="D136">
+        <v>15</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>133</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="44"/>
+        <v>4131.2184221534435</v>
+      </c>
+      <c r="I136" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136" t="s">
+        <v>18</v>
+      </c>
+      <c r="K136" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>11</v>
+      </c>
+      <c r="D137">
+        <v>15</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>134</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137" t="s">
+        <v>18</v>
+      </c>
+      <c r="K137" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>11</v>
+      </c>
+      <c r="D138">
+        <v>15</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>135</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <f t="shared" ref="H138:H139" si="45">A138^1.7</f>
+        <v>4236.5871461790475</v>
+      </c>
+      <c r="I138" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138" t="s">
+        <v>18</v>
+      </c>
+      <c r="K138" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>11</v>
+      </c>
+      <c r="D139">
+        <v>15</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>136</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="45"/>
+        <v>4289.6806728040556</v>
+      </c>
+      <c r="I139" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139" t="s">
+        <v>18</v>
+      </c>
+      <c r="K139" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>11</v>
+      </c>
+      <c r="D140">
+        <v>15</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>137</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140" t="s">
+        <v>18</v>
+      </c>
+      <c r="K140" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>11</v>
+      </c>
+      <c r="D141">
+        <v>15</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>138</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <f t="shared" ref="H141:H142" si="46">A141^1.7</f>
+        <v>4396.6830630935829</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141" t="s">
+        <v>18</v>
+      </c>
+      <c r="K141" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>11</v>
+      </c>
+      <c r="D142">
+        <v>15</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>139</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="46"/>
+        <v>4450.5907467840761</v>
+      </c>
+      <c r="I142" t="s">
+        <v>17</v>
+      </c>
+      <c r="J142" t="s">
+        <v>18</v>
+      </c>
+      <c r="K142" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>11</v>
+      </c>
+      <c r="D143">
+        <v>15</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>140</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143" t="s">
+        <v>17</v>
+      </c>
+      <c r="J143" t="s">
+        <v>18</v>
+      </c>
+      <c r="K143" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>11</v>
+      </c>
+      <c r="D144">
+        <v>15</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>141</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <f t="shared" ref="H144:H145" si="47">A144^1.7</f>
+        <v>4559.2161824593722</v>
+      </c>
+      <c r="I144" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144" t="s">
+        <v>18</v>
+      </c>
+      <c r="K144" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>11</v>
+      </c>
+      <c r="D145">
+        <v>15</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>142</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="47"/>
+        <v>4613.9327870049274</v>
+      </c>
+      <c r="I145" t="s">
+        <v>17</v>
+      </c>
+      <c r="J145" t="s">
+        <v>18</v>
+      </c>
+      <c r="K145" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>11</v>
+      </c>
+      <c r="D146">
+        <v>15</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>143</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146" t="s">
+        <v>18</v>
+      </c>
+      <c r="K146" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>11</v>
+      </c>
+      <c r="D147">
+        <v>15</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>144</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <f t="shared" ref="H147:H148" si="48">A147^1.7</f>
+        <v>4724.1709400771433</v>
+      </c>
+      <c r="I147" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147" t="s">
+        <v>18</v>
+      </c>
+      <c r="K147" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>11</v>
+      </c>
+      <c r="D148">
+        <v>15</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>145</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="48"/>
+        <v>4779.691372145182</v>
+      </c>
+      <c r="I148" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148" t="s">
+        <v>18</v>
+      </c>
+      <c r="K148" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>11</v>
+      </c>
+      <c r="D149">
+        <v>15</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>146</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149" t="s">
+        <v>18</v>
+      </c>
+      <c r="K149" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>11</v>
+      </c>
+      <c r="D150">
+        <v>15</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>147</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <f t="shared" ref="H150:H151" si="49">A150^1.7</f>
+        <v>4891.5321935205848</v>
+      </c>
+      <c r="I150" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150" t="s">
+        <v>18</v>
+      </c>
+      <c r="K150" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>11</v>
+      </c>
+      <c r="D151">
+        <v>15</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>148</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="49"/>
+        <v>4947.8514959001413</v>
+      </c>
+      <c r="I151" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151" t="s">
+        <v>18</v>
+      </c>
+      <c r="K151" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>11</v>
+      </c>
+      <c r="D152">
+        <v>15</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>149</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152" t="s">
+        <v>18</v>
+      </c>
+      <c r="K152" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>11</v>
+      </c>
+      <c r="D153">
+        <v>15</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>150</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <f t="shared" ref="H153:H154" si="50">A153^1.7</f>
+        <v>5061.2852023258092</v>
+      </c>
+      <c r="I153" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" t="s">
+        <v>18</v>
+      </c>
+      <c r="K153" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>11</v>
+      </c>
+      <c r="D154">
+        <v>15</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>151</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="50"/>
+        <v>5118.3985476205035</v>
+      </c>
+      <c r="I154" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154" t="s">
+        <v>18</v>
+      </c>
+      <c r="K154" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>11</v>
+      </c>
+      <c r="D155">
+        <v>15</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>152</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155" t="s">
+        <v>17</v>
+      </c>
+      <c r="J155" t="s">
+        <v>18</v>
+      </c>
+      <c r="K155" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>11</v>
+      </c>
+      <c r="D156">
+        <v>15</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>153</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <f t="shared" ref="H156:H157" si="51">A156^1.7</f>
+        <v>5233.415609489286</v>
+      </c>
+      <c r="I156" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156" t="s">
+        <v>18</v>
+      </c>
+      <c r="K156" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>11</v>
+      </c>
+      <c r="D157">
+        <v>15</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>154</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="51"/>
+        <v>5291.3182942213189</v>
+      </c>
+      <c r="I157" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157" t="s">
+        <v>18</v>
+      </c>
+      <c r="K157" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>11</v>
+      </c>
+      <c r="D158">
+        <v>15</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>155</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158" t="s">
+        <v>18</v>
+      </c>
+      <c r="K158" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>11</v>
+      </c>
+      <c r="D159">
+        <v>15</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>156</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <f t="shared" ref="H159:H160" si="52">A159^1.7</f>
+        <v>5407.909424163814</v>
+      </c>
+      <c r="I159" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" t="s">
+        <v>18</v>
+      </c>
+      <c r="K159" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>11</v>
+      </c>
+      <c r="D160">
+        <v>15</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>157</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="52"/>
+        <v>5466.5968632547547</v>
+      </c>
+      <c r="I160" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160" t="s">
+        <v>18</v>
+      </c>
+      <c r="K160" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>11</v>
+      </c>
+      <c r="D161">
+        <v>15</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>158</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161" t="s">
+        <v>18</v>
+      </c>
+      <c r="K161" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>11</v>
+      </c>
+      <c r="D162">
+        <v>15</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>159</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <f t="shared" ref="H162:H163" si="53">A162^1.7</f>
+        <v>5584.7530054534072</v>
+      </c>
+      <c r="I162" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162" t="s">
+        <v>18</v>
+      </c>
+      <c r="K162" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>11</v>
+      </c>
+      <c r="D163">
+        <v>15</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>160</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="53"/>
+        <v>5644.2207270509907</v>
+      </c>
+      <c r="I163" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163" t="s">
+        <v>18</v>
+      </c>
+      <c r="K163" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>11</v>
+      </c>
+      <c r="D164">
+        <v>15</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>161</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" t="s">
+        <v>18</v>
+      </c>
+      <c r="K164" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>11</v>
+      </c>
+      <c r="D165">
+        <v>15</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>162</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <f t="shared" ref="H165:H166" si="54">A165^1.7</f>
+        <v>5763.9330472178581</v>
+      </c>
+      <c r="I165" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165" t="s">
+        <v>18</v>
+      </c>
+      <c r="K165" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>11</v>
+      </c>
+      <c r="D166">
+        <v>15</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>163</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="54"/>
+        <v>5824.1766878410735</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166" t="s">
+        <v>18</v>
+      </c>
+      <c r="K166" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>11</v>
+      </c>
+      <c r="D167">
+        <v>15</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>164</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167" t="s">
+        <v>18</v>
+      </c>
+      <c r="K167" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>11</v>
+      </c>
+      <c r="D168">
+        <v>15</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>165</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <f t="shared" ref="H168:H169" si="55">A168^1.7</f>
+        <v>5945.4365638064592</v>
+      </c>
+      <c r="I168" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168" t="s">
+        <v>18</v>
+      </c>
+      <c r="K168" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>11</v>
+      </c>
+      <c r="D169">
+        <v>15</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>166</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="55"/>
+        <v>6006.4518637838619</v>
+      </c>
+      <c r="I169" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169" t="s">
+        <v>18</v>
+      </c>
+      <c r="K169" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>11</v>
+      </c>
+      <c r="D170">
+        <v>15</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>167</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170" t="s">
+        <v>18</v>
+      </c>
+      <c r="K170" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>11</v>
+      </c>
+      <c r="D171">
+        <v>15</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>168</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <f t="shared" ref="H171:H172" si="56">A171^1.7</f>
+        <v>6129.2508766483188</v>
+      </c>
+      <c r="I171" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171" t="s">
+        <v>18</v>
+      </c>
+      <c r="K171" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>11</v>
+      </c>
+      <c r="D172">
+        <v>15</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>169</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="56"/>
+        <v>6191.0336758269123</v>
+      </c>
+      <c r="I172" t="s">
+        <v>17</v>
+      </c>
+      <c r="J172" t="s">
+        <v>18</v>
+      </c>
+      <c r="K172" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>11</v>
+      </c>
+      <c r="D173">
+        <v>15</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>170</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173" t="s">
+        <v>18</v>
+      </c>
+      <c r="K173" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>11</v>
+      </c>
+      <c r="D174">
+        <v>15</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>171</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <f t="shared" ref="H174:H175" si="57">A174^1.7</f>
+        <v>6315.3636016333558</v>
+      </c>
+      <c r="I174" t="s">
+        <v>17</v>
+      </c>
+      <c r="J174" t="s">
+        <v>18</v>
+      </c>
+      <c r="K174" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>11</v>
+      </c>
+      <c r="D175">
+        <v>15</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>172</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="57"/>
+        <v>6377.9098353374702</v>
+      </c>
+      <c r="I175" t="s">
+        <v>17</v>
+      </c>
+      <c r="J175" t="s">
+        <v>18</v>
+      </c>
+      <c r="K175" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>11</v>
+      </c>
+      <c r="D176">
+        <v>15</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>173</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176" t="s">
+        <v>17</v>
+      </c>
+      <c r="J176" t="s">
+        <v>18</v>
+      </c>
+      <c r="K176" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>11</v>
+      </c>
+      <c r="D177">
+        <v>15</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>174</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <f t="shared" ref="H177:H178" si="58">A177^1.7</f>
+        <v>6503.7626372242648</v>
+      </c>
+      <c r="I177" t="s">
+        <v>17</v>
+      </c>
+      <c r="J177" t="s">
+        <v>18</v>
+      </c>
+      <c r="K177" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>11</v>
+      </c>
+      <c r="D178">
+        <v>15</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>175</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="58"/>
+        <v>6567.0683324458123</v>
+      </c>
+      <c r="I178" t="s">
+        <v>17</v>
+      </c>
+      <c r="J178" t="s">
+        <v>18</v>
+      </c>
+      <c r="K178" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>11</v>
+      </c>
+      <c r="D179">
+        <v>15</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>176</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179" t="s">
+        <v>17</v>
+      </c>
+      <c r="J179" t="s">
+        <v>18</v>
+      </c>
+      <c r="K179" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>11</v>
+      </c>
+      <c r="D180">
+        <v>15</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>177</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <f t="shared" ref="H180:H181" si="59">A180^1.7</f>
+        <v>6694.4361532453249</v>
+      </c>
+      <c r="I180" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180" t="s">
+        <v>18</v>
+      </c>
+      <c r="K180" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>11</v>
+      </c>
+      <c r="D181">
+        <v>15</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>178</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="59"/>
+        <v>6758.4974250484856</v>
+      </c>
+      <c r="I181" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181" t="s">
+        <v>18</v>
+      </c>
+      <c r="K181" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>11</v>
+      </c>
+      <c r="D182">
+        <v>15</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>179</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182" t="s">
+        <v>18</v>
+      </c>
+      <c r="K182" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>11</v>
+      </c>
+      <c r="D183">
+        <v>15</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>180</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <f t="shared" ref="H183:H184" si="60">A183^1.7</f>
+        <v>6887.3725802985846</v>
+      </c>
+      <c r="I183" t="s">
+        <v>17</v>
+      </c>
+      <c r="J183" t="s">
+        <v>18</v>
+      </c>
+      <c r="K183" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>11</v>
+      </c>
+      <c r="D184">
+        <v>15</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>181</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="60"/>
+        <v>6952.1856284233927</v>
+      </c>
+      <c r="I184" t="s">
+        <v>17</v>
+      </c>
+      <c r="J184" t="s">
+        <v>18</v>
+      </c>
+      <c r="K184" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>11</v>
+      </c>
+      <c r="D185">
+        <v>15</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>182</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185" t="s">
+        <v>17</v>
+      </c>
+      <c r="J185" t="s">
+        <v>18</v>
+      </c>
+      <c r="K185" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>11</v>
+      </c>
+      <c r="D186">
+        <v>15</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>183</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <f t="shared" ref="H186:H187" si="61">A186^1.7</f>
+        <v>7082.5605997625062</v>
+      </c>
+      <c r="I186" t="s">
+        <v>17</v>
+      </c>
+      <c r="J186" t="s">
+        <v>18</v>
+      </c>
+      <c r="K186" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>11</v>
+      </c>
+      <c r="D187">
+        <v>15</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>184</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="61"/>
+        <v>7148.1217054132967</v>
+      </c>
+      <c r="I187" t="s">
+        <v>17</v>
+      </c>
+      <c r="J187" t="s">
+        <v>18</v>
+      </c>
+      <c r="K187" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>11</v>
+      </c>
+      <c r="D188">
+        <v>15</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>185</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188" t="s">
+        <v>17</v>
+      </c>
+      <c r="J188" t="s">
+        <v>18</v>
+      </c>
+      <c r="K188" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>11</v>
+      </c>
+      <c r="D189">
+        <v>15</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>186</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <f t="shared" ref="H189:H190" si="62">A189^1.7</f>
+        <v>7279.9891343319496</v>
+      </c>
+      <c r="I189" t="s">
+        <v>17</v>
+      </c>
+      <c r="J189" t="s">
+        <v>18</v>
+      </c>
+      <c r="K189" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>11</v>
+      </c>
+      <c r="D190">
+        <v>15</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>187</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="62"/>
+        <v>7346.2946571377115</v>
+      </c>
+      <c r="I190" t="s">
+        <v>17</v>
+      </c>
+      <c r="J190" t="s">
+        <v>18</v>
+      </c>
+      <c r="K190" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>11</v>
+      </c>
+      <c r="D191">
+        <v>15</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>188</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191" t="s">
+        <v>17</v>
+      </c>
+      <c r="J191" t="s">
+        <v>18</v>
+      </c>
+      <c r="K191" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>11</v>
+      </c>
+      <c r="D192">
+        <v>15</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>189</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <f t="shared" ref="H192:H193" si="63">A192^1.7</f>
+        <v>7479.6473390619312</v>
+      </c>
+      <c r="I192" t="s">
+        <v>17</v>
+      </c>
+      <c r="J192" t="s">
+        <v>18</v>
+      </c>
+      <c r="K192" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>11</v>
+      </c>
+      <c r="D193">
+        <v>15</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>190</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="63"/>
+        <v>7546.6937141968347</v>
+      </c>
+      <c r="I193" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193" t="s">
+        <v>18</v>
+      </c>
+      <c r="K193" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>11</v>
+      </c>
+      <c r="D194">
+        <v>15</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>191</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194" t="s">
+        <v>17</v>
+      </c>
+      <c r="J194" t="s">
+        <v>18</v>
+      </c>
+      <c r="K194" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>11</v>
+      </c>
+      <c r="D195">
+        <v>15</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>192</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <f t="shared" ref="H195:H196" si="64">A195^1.7</f>
+        <v>7681.5245928808208</v>
+      </c>
+      <c r="I195" t="s">
+        <v>17</v>
+      </c>
+      <c r="J195" t="s">
+        <v>18</v>
+      </c>
+      <c r="K195" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>11</v>
+      </c>
+      <c r="D196">
+        <v>15</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>193</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="64"/>
+        <v>7749.3083283340302</v>
+      </c>
+      <c r="I196" t="s">
+        <v>17</v>
+      </c>
+      <c r="J196" t="s">
+        <v>18</v>
+      </c>
+      <c r="K196" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>11</v>
+      </c>
+      <c r="D197">
+        <v>15</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>194</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197" t="s">
+        <v>17</v>
+      </c>
+      <c r="J197" t="s">
+        <v>18</v>
+      </c>
+      <c r="K197" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>11</v>
+      </c>
+      <c r="D198">
+        <v>15</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>195</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <f t="shared" ref="H198:H199" si="65">A198^1.7</f>
+        <v>7885.610490541203</v>
+      </c>
+      <c r="I198" t="s">
+        <v>17</v>
+      </c>
+      <c r="J198" t="s">
+        <v>18</v>
+      </c>
+      <c r="K198" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>11</v>
+      </c>
+      <c r="D199">
+        <v>15</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>196</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="65"/>
+        <v>7954.1281645261133</v>
+      </c>
+      <c r="I199" t="s">
+        <v>17</v>
+      </c>
+      <c r="J199" t="s">
+        <v>18</v>
+      </c>
+      <c r="K199" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>11</v>
+      </c>
+      <c r="D200">
+        <v>15</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>197</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200" t="s">
+        <v>17</v>
+      </c>
+      <c r="J200" t="s">
+        <v>18</v>
+      </c>
+      <c r="K200" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>11</v>
+      </c>
+      <c r="D201">
+        <v>15</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>198</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <f t="shared" ref="H201" si="66">A201^1.7</f>
+        <v>8091.8948349798275</v>
+      </c>
+      <c r="I201" t="s">
+        <v>17</v>
+      </c>
+      <c r="J201" t="s">
+        <v>18</v>
+      </c>
+      <c r="K201" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3106BE-0A0D-40C6-A2D1-916B66EFC31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E3CEF7-E534-448F-90BC-A7367863B0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33090" yWindow="1215" windowWidth="30660" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2520" yWindow="525" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F201"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1371,10 +1371,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1443,10 +1443,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1478,10 +1478,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1550,10 +1550,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1692,10 +1692,10 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1728,10 +1728,10 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1799,10 +1799,10 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1835,10 +1835,10 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1871,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1942,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2085,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2120,10 +2120,10 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2192,10 +2192,10 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2227,10 +2227,10 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2263,10 +2263,10 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2334,10 +2334,10 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2406,10 +2406,10 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2441,10 +2441,10 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2477,10 +2477,10 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2513,10 +2513,10 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2548,10 +2548,10 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2584,10 +2584,10 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2655,10 +2655,10 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2691,10 +2691,10 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2762,10 +2762,10 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2798,10 +2798,10 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2834,10 +2834,10 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2905,10 +2905,10 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2941,10 +2941,10 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2976,10 +2976,10 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3048,10 +3048,10 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D60">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3226,10 +3226,10 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3297,10 +3297,10 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3333,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3404,10 +3404,10 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3440,10 +3440,10 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3476,10 +3476,10 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D68">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D69">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3547,10 +3547,10 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D70">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3618,10 +3618,10 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D72">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3654,10 +3654,10 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D73">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3690,10 +3690,10 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D74">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3725,10 +3725,10 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D75">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3761,10 +3761,10 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3797,10 +3797,10 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D77">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3832,10 +3832,10 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D78">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3868,10 +3868,10 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D79">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3904,10 +3904,10 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D80">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D81">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3975,10 +3975,10 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D82">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4011,10 +4011,10 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D83">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4046,10 +4046,10 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D84">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4082,10 +4082,10 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D85">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4118,10 +4118,10 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D86">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4153,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D87">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4189,10 +4189,10 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D88">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D89">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D90">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4296,10 +4296,10 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D91">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4332,10 +4332,10 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D92">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4367,10 +4367,10 @@
         <v>1</v>
       </c>
       <c r="C93">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D93">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4403,10 +4403,10 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D94">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4439,10 +4439,10 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D95">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4474,10 +4474,10 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D96">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4510,10 +4510,10 @@
         <v>1</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D97">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -4546,10 +4546,10 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D98">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4581,10 +4581,10 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D99">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4617,10 +4617,10 @@
         <v>1</v>
       </c>
       <c r="C100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D100">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4653,10 +4653,10 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D101">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4688,10 +4688,10 @@
         <v>1</v>
       </c>
       <c r="C102">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D102">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4724,10 +4724,10 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D103">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4760,10 +4760,10 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D104">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4795,10 +4795,10 @@
         <v>1</v>
       </c>
       <c r="C105">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D105">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4831,10 +4831,10 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D106">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4867,10 +4867,10 @@
         <v>1</v>
       </c>
       <c r="C107">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D107">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4902,10 +4902,10 @@
         <v>1</v>
       </c>
       <c r="C108">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D108">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4938,10 +4938,10 @@
         <v>1</v>
       </c>
       <c r="C109">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D109">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4974,10 +4974,10 @@
         <v>1</v>
       </c>
       <c r="C110">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D110">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -5009,10 +5009,10 @@
         <v>1</v>
       </c>
       <c r="C111">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D111">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -5045,10 +5045,10 @@
         <v>1</v>
       </c>
       <c r="C112">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D112">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D113">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -5116,10 +5116,10 @@
         <v>1</v>
       </c>
       <c r="C114">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D114">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D115">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -5188,10 +5188,10 @@
         <v>1</v>
       </c>
       <c r="C116">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D116">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -5223,10 +5223,10 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D117">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -5259,10 +5259,10 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D118">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -5295,10 +5295,10 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D119">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -5330,10 +5330,10 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D120">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -5366,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D121">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -5402,10 +5402,10 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D122">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -5437,10 +5437,10 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D123">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -5473,10 +5473,10 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D124">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -5509,10 +5509,10 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D125">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -5544,10 +5544,10 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D126">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -5580,10 +5580,10 @@
         <v>1</v>
       </c>
       <c r="C127">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D127">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -5616,10 +5616,10 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D128">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -5651,10 +5651,10 @@
         <v>1</v>
       </c>
       <c r="C129">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D129">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -5687,10 +5687,10 @@
         <v>1</v>
       </c>
       <c r="C130">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D130">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -5723,10 +5723,10 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D131">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -5758,10 +5758,10 @@
         <v>1</v>
       </c>
       <c r="C132">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D132">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -5794,10 +5794,10 @@
         <v>1</v>
       </c>
       <c r="C133">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D133">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -5830,10 +5830,10 @@
         <v>1</v>
       </c>
       <c r="C134">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D134">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>1</v>
       </c>
       <c r="C135">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D135">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -5901,10 +5901,10 @@
         <v>1</v>
       </c>
       <c r="C136">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D136">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -5937,10 +5937,10 @@
         <v>1</v>
       </c>
       <c r="C137">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D137">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -5972,10 +5972,10 @@
         <v>1</v>
       </c>
       <c r="C138">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D138">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -6008,10 +6008,10 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D139">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -6044,10 +6044,10 @@
         <v>1</v>
       </c>
       <c r="C140">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D140">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -6079,10 +6079,10 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D141">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -6115,10 +6115,10 @@
         <v>1</v>
       </c>
       <c r="C142">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D142">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -6151,10 +6151,10 @@
         <v>1</v>
       </c>
       <c r="C143">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D143">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -6186,10 +6186,10 @@
         <v>1</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D144">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -6222,10 +6222,10 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D145">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -6258,10 +6258,10 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D146">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -6293,10 +6293,10 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D147">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -6329,10 +6329,10 @@
         <v>1</v>
       </c>
       <c r="C148">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D148">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -6365,10 +6365,10 @@
         <v>1</v>
       </c>
       <c r="C149">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D149">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -6400,10 +6400,10 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D150">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -6436,10 +6436,10 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D151">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -6472,10 +6472,10 @@
         <v>1</v>
       </c>
       <c r="C152">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D152">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -6507,10 +6507,10 @@
         <v>1</v>
       </c>
       <c r="C153">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D153">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -6543,10 +6543,10 @@
         <v>1</v>
       </c>
       <c r="C154">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D154">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -6579,10 +6579,10 @@
         <v>1</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D155">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -6614,10 +6614,10 @@
         <v>1</v>
       </c>
       <c r="C156">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D156">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -6650,10 +6650,10 @@
         <v>1</v>
       </c>
       <c r="C157">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D157">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -6686,10 +6686,10 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D158">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -6721,10 +6721,10 @@
         <v>1</v>
       </c>
       <c r="C159">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D159">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -6757,10 +6757,10 @@
         <v>1</v>
       </c>
       <c r="C160">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D160">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -6793,10 +6793,10 @@
         <v>1</v>
       </c>
       <c r="C161">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D161">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -6828,10 +6828,10 @@
         <v>1</v>
       </c>
       <c r="C162">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D162">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -6864,10 +6864,10 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D163">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -6900,10 +6900,10 @@
         <v>1</v>
       </c>
       <c r="C164">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D164">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -6935,10 +6935,10 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D165">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -6971,10 +6971,10 @@
         <v>1</v>
       </c>
       <c r="C166">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D166">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -7007,10 +7007,10 @@
         <v>1</v>
       </c>
       <c r="C167">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D167">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -7042,10 +7042,10 @@
         <v>1</v>
       </c>
       <c r="C168">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D168">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -7078,10 +7078,10 @@
         <v>1</v>
       </c>
       <c r="C169">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D169">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -7114,10 +7114,10 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D170">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -7149,10 +7149,10 @@
         <v>1</v>
       </c>
       <c r="C171">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D171">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -7185,10 +7185,10 @@
         <v>1</v>
       </c>
       <c r="C172">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D172">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -7221,10 +7221,10 @@
         <v>1</v>
       </c>
       <c r="C173">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D173">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -7256,10 +7256,10 @@
         <v>1</v>
       </c>
       <c r="C174">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D174">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -7292,10 +7292,10 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D175">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -7328,10 +7328,10 @@
         <v>1</v>
       </c>
       <c r="C176">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D176">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -7363,10 +7363,10 @@
         <v>1</v>
       </c>
       <c r="C177">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D177">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -7399,10 +7399,10 @@
         <v>1</v>
       </c>
       <c r="C178">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D178">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -7435,10 +7435,10 @@
         <v>1</v>
       </c>
       <c r="C179">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D179">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -7470,10 +7470,10 @@
         <v>1</v>
       </c>
       <c r="C180">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D180">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -7506,10 +7506,10 @@
         <v>1</v>
       </c>
       <c r="C181">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D181">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -7542,10 +7542,10 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D182">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -7577,10 +7577,10 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D183">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -7613,10 +7613,10 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D184">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -7649,10 +7649,10 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D185">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -7684,10 +7684,10 @@
         <v>1</v>
       </c>
       <c r="C186">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D186">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -7720,10 +7720,10 @@
         <v>1</v>
       </c>
       <c r="C187">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D187">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -7756,10 +7756,10 @@
         <v>1</v>
       </c>
       <c r="C188">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D188">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>1</v>
       </c>
       <c r="C189">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D189">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -7827,10 +7827,10 @@
         <v>1</v>
       </c>
       <c r="C190">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D190">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -7863,10 +7863,10 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D191">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -7898,10 +7898,10 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D192">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -7934,10 +7934,10 @@
         <v>1</v>
       </c>
       <c r="C193">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D193">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>1</v>
       </c>
       <c r="C194">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D195">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -8041,10 +8041,10 @@
         <v>1</v>
       </c>
       <c r="C196">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D196">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -8077,10 +8077,10 @@
         <v>1</v>
       </c>
       <c r="C197">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D197">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8112,10 +8112,10 @@
         <v>1</v>
       </c>
       <c r="C198">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D198">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -8148,10 +8148,10 @@
         <v>1</v>
       </c>
       <c r="C199">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D199">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -8184,10 +8184,10 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D200">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -8219,10 +8219,10 @@
         <v>1</v>
       </c>
       <c r="C201">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D201">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E201">
         <v>0</v>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E3CEF7-E534-448F-90BC-A7367863B0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310CAFFF-2AF7-452A-92B4-E9C81DB57277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="525" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1160,7 +1160,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>9</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>9</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>9</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>9</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>9</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>9</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>9</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>9</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1945,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>9</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>9</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>9</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>9</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>9</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>9</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>9</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>9</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>9</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>9</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>9</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>9</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>9</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>9</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2516,7 +2516,7 @@
         <v>9</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>9</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>9</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>9</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>9</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2694,7 +2694,7 @@
         <v>9</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>9</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>9</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>9</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>9</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>9</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2944,7 +2944,7 @@
         <v>9</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>9</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>9</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>9</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>9</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>9</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>9</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>9</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>9</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3300,7 +3300,7 @@
         <v>9</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>9</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>9</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>9</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>9</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>9</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>9</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>9</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>9</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3621,7 +3621,7 @@
         <v>9</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>9</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>9</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3728,7 +3728,7 @@
         <v>9</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3764,7 +3764,7 @@
         <v>9</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>9</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>9</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3871,7 +3871,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>9</v>
       </c>
       <c r="D80">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>9</v>
       </c>
       <c r="D81">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3978,7 +3978,7 @@
         <v>9</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>9</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4049,7 +4049,7 @@
         <v>9</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4085,7 +4085,7 @@
         <v>9</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4121,7 +4121,7 @@
         <v>9</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>9</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>9</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>9</v>
       </c>
       <c r="D89">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>9</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>9</v>
       </c>
       <c r="D91">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>9</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4370,7 +4370,7 @@
         <v>9</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>9</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4442,7 +4442,7 @@
         <v>9</v>
       </c>
       <c r="D95">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>9</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>9</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>9</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4584,7 +4584,7 @@
         <v>9</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4620,7 +4620,7 @@
         <v>9</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>9</v>
       </c>
       <c r="D101">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4691,7 +4691,7 @@
         <v>9</v>
       </c>
       <c r="D102">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>9</v>
       </c>
       <c r="D103">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4763,7 +4763,7 @@
         <v>9</v>
       </c>
       <c r="D104">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>9</v>
       </c>
       <c r="D105">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>9</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         <v>9</v>
       </c>
       <c r="D107">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4905,7 +4905,7 @@
         <v>9</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>9</v>
       </c>
       <c r="D109">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>9</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -5012,7 +5012,7 @@
         <v>9</v>
       </c>
       <c r="D111">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -5048,7 +5048,7 @@
         <v>9</v>
       </c>
       <c r="D112">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>9</v>
       </c>
       <c r="D113">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -5119,7 +5119,7 @@
         <v>9</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>9</v>
       </c>
       <c r="D115">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -5191,7 +5191,7 @@
         <v>9</v>
       </c>
       <c r="D116">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -5226,7 +5226,7 @@
         <v>9</v>
       </c>
       <c r="D117">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>9</v>
       </c>
       <c r="D118">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -5298,7 +5298,7 @@
         <v>9</v>
       </c>
       <c r="D119">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>9</v>
       </c>
       <c r="D120">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>9</v>
       </c>
       <c r="D121">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -5405,7 +5405,7 @@
         <v>9</v>
       </c>
       <c r="D122">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         <v>9</v>
       </c>
       <c r="D123">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>9</v>
       </c>
       <c r="D124">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -5512,7 +5512,7 @@
         <v>9</v>
       </c>
       <c r="D125">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>9</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -5583,7 +5583,7 @@
         <v>9</v>
       </c>
       <c r="D127">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>9</v>
       </c>
       <c r="D128">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>9</v>
       </c>
       <c r="D129">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -5690,7 +5690,7 @@
         <v>9</v>
       </c>
       <c r="D130">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>9</v>
       </c>
       <c r="D131">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -5761,7 +5761,7 @@
         <v>9</v>
       </c>
       <c r="D132">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -5797,7 +5797,7 @@
         <v>9</v>
       </c>
       <c r="D133">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -5833,7 +5833,7 @@
         <v>9</v>
       </c>
       <c r="D134">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -5868,7 +5868,7 @@
         <v>9</v>
       </c>
       <c r="D135">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -5904,7 +5904,7 @@
         <v>9</v>
       </c>
       <c r="D136">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>9</v>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>9</v>
       </c>
       <c r="D138">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -6011,7 +6011,7 @@
         <v>9</v>
       </c>
       <c r="D139">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -6047,7 +6047,7 @@
         <v>9</v>
       </c>
       <c r="D140">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>9</v>
       </c>
       <c r="D141">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>9</v>
       </c>
       <c r="D142">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -6154,7 +6154,7 @@
         <v>9</v>
       </c>
       <c r="D143">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -6189,7 +6189,7 @@
         <v>9</v>
       </c>
       <c r="D144">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -6225,7 +6225,7 @@
         <v>9</v>
       </c>
       <c r="D145">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>9</v>
       </c>
       <c r="D146">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>9</v>
       </c>
       <c r="D147">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -6332,7 +6332,7 @@
         <v>9</v>
       </c>
       <c r="D148">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -6368,7 +6368,7 @@
         <v>9</v>
       </c>
       <c r="D149">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -6403,7 +6403,7 @@
         <v>9</v>
       </c>
       <c r="D150">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -6439,7 +6439,7 @@
         <v>9</v>
       </c>
       <c r="D151">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>9</v>
       </c>
       <c r="D152">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>9</v>
       </c>
       <c r="D153">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -6546,7 +6546,7 @@
         <v>9</v>
       </c>
       <c r="D154">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -6582,7 +6582,7 @@
         <v>9</v>
       </c>
       <c r="D155">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -6617,7 +6617,7 @@
         <v>9</v>
       </c>
       <c r="D156">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -6653,7 +6653,7 @@
         <v>9</v>
       </c>
       <c r="D157">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -6689,7 +6689,7 @@
         <v>9</v>
       </c>
       <c r="D158">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -6724,7 +6724,7 @@
         <v>9</v>
       </c>
       <c r="D159">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -6760,7 +6760,7 @@
         <v>9</v>
       </c>
       <c r="D160">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -6796,7 +6796,7 @@
         <v>9</v>
       </c>
       <c r="D161">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>9</v>
       </c>
       <c r="D162">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>9</v>
       </c>
       <c r="D163">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>9</v>
       </c>
       <c r="D164">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>9</v>
       </c>
       <c r="D165">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>9</v>
       </c>
       <c r="D166">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -7010,7 +7010,7 @@
         <v>9</v>
       </c>
       <c r="D167">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>9</v>
       </c>
       <c r="D168">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -7081,7 +7081,7 @@
         <v>9</v>
       </c>
       <c r="D169">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -7117,7 +7117,7 @@
         <v>9</v>
       </c>
       <c r="D170">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -7152,7 +7152,7 @@
         <v>9</v>
       </c>
       <c r="D171">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>9</v>
       </c>
       <c r="D172">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -7224,7 +7224,7 @@
         <v>9</v>
       </c>
       <c r="D173">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -7259,7 +7259,7 @@
         <v>9</v>
       </c>
       <c r="D174">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -7295,7 +7295,7 @@
         <v>9</v>
       </c>
       <c r="D175">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>9</v>
       </c>
       <c r="D176">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -7366,7 +7366,7 @@
         <v>9</v>
       </c>
       <c r="D177">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -7402,7 +7402,7 @@
         <v>9</v>
       </c>
       <c r="D178">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -7438,7 +7438,7 @@
         <v>9</v>
       </c>
       <c r="D179">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>9</v>
       </c>
       <c r="D180">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -7509,7 +7509,7 @@
         <v>9</v>
       </c>
       <c r="D181">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -7545,7 +7545,7 @@
         <v>9</v>
       </c>
       <c r="D182">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>9</v>
       </c>
       <c r="D183">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -7616,7 +7616,7 @@
         <v>9</v>
       </c>
       <c r="D184">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>9</v>
       </c>
       <c r="D185">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -7687,7 +7687,7 @@
         <v>9</v>
       </c>
       <c r="D186">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -7723,7 +7723,7 @@
         <v>9</v>
       </c>
       <c r="D187">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>9</v>
       </c>
       <c r="D188">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -7794,7 +7794,7 @@
         <v>9</v>
       </c>
       <c r="D189">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -7830,7 +7830,7 @@
         <v>9</v>
       </c>
       <c r="D190">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -7866,7 +7866,7 @@
         <v>9</v>
       </c>
       <c r="D191">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -7901,7 +7901,7 @@
         <v>9</v>
       </c>
       <c r="D192">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -7937,7 +7937,7 @@
         <v>9</v>
       </c>
       <c r="D193">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -7973,7 +7973,7 @@
         <v>9</v>
       </c>
       <c r="D194">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>9</v>
       </c>
       <c r="D195">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -8044,7 +8044,7 @@
         <v>9</v>
       </c>
       <c r="D196">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -8080,7 +8080,7 @@
         <v>9</v>
       </c>
       <c r="D197">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8115,7 +8115,7 @@
         <v>9</v>
       </c>
       <c r="D198">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>9</v>
       </c>
       <c r="D199">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -8187,7 +8187,7 @@
         <v>9</v>
       </c>
       <c r="D200">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>9</v>
       </c>
       <c r="D201">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E201">
         <v>0</v>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310CAFFF-2AF7-452A-92B4-E9C81DB57277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE35E95C-F3B2-4895-A262-4337239F7076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="525" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1190,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -1261,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -1333,7 +1333,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -1404,7 +1404,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>9</v>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE35E95C-F3B2-4895-A262-4337239F7076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AA1CFA-D465-463F-B30A-2C00F8BAF77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="525" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3360" yWindow="705" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="16">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,612 +90,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200000</t>
-  </si>
-  <si>
     <t>stage0</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>1300000</t>
-  </si>
-  <si>
-    <t>1400000</t>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>1600000</t>
-  </si>
-  <si>
-    <t>1700000</t>
-  </si>
-  <si>
-    <t>1800000</t>
-  </si>
-  <si>
-    <t>1900000</t>
-  </si>
-  <si>
-    <t>2000000</t>
-  </si>
-  <si>
-    <t>2100000</t>
-  </si>
-  <si>
-    <t>2200000</t>
-  </si>
-  <si>
-    <t>2300000</t>
-  </si>
-  <si>
-    <t>2400000</t>
-  </si>
-  <si>
-    <t>2500000</t>
-  </si>
-  <si>
-    <t>2600000</t>
-  </si>
-  <si>
-    <t>2700000</t>
-  </si>
-  <si>
-    <t>2800000</t>
-  </si>
-  <si>
-    <t>2900000</t>
-  </si>
-  <si>
-    <t>3000000</t>
-  </si>
-  <si>
-    <t>3100000</t>
-  </si>
-  <si>
-    <t>3200000</t>
-  </si>
-  <si>
-    <t>3300000</t>
-  </si>
-  <si>
-    <t>3400000</t>
-  </si>
-  <si>
-    <t>3500000</t>
-  </si>
-  <si>
-    <t>3600000</t>
-  </si>
-  <si>
-    <t>3700000</t>
-  </si>
-  <si>
-    <t>3800000</t>
-  </si>
-  <si>
-    <t>3900000</t>
-  </si>
-  <si>
-    <t>4000000</t>
-  </si>
-  <si>
-    <t>4100000</t>
-  </si>
-  <si>
-    <t>4200000</t>
-  </si>
-  <si>
-    <t>4300000</t>
-  </si>
-  <si>
-    <t>4400000</t>
-  </si>
-  <si>
-    <t>4500000</t>
-  </si>
-  <si>
-    <t>4600000</t>
-  </si>
-  <si>
-    <t>4700000</t>
-  </si>
-  <si>
-    <t>4800000</t>
-  </si>
-  <si>
-    <t>4900000</t>
-  </si>
-  <si>
-    <t>5000000</t>
-  </si>
-  <si>
-    <t>5100000</t>
-  </si>
-  <si>
-    <t>5200000</t>
-  </si>
-  <si>
-    <t>5300000</t>
-  </si>
-  <si>
-    <t>5400000</t>
-  </si>
-  <si>
-    <t>5500000</t>
-  </si>
-  <si>
-    <t>5600000</t>
-  </si>
-  <si>
-    <t>5700000</t>
-  </si>
-  <si>
-    <t>5800000</t>
-  </si>
-  <si>
-    <t>5900000</t>
-  </si>
-  <si>
-    <t>6000000</t>
-  </si>
-  <si>
-    <t>6100000</t>
-  </si>
-  <si>
-    <t>6200000</t>
-  </si>
-  <si>
-    <t>6300000</t>
-  </si>
-  <si>
-    <t>6400000</t>
-  </si>
-  <si>
-    <t>6500000</t>
-  </si>
-  <si>
-    <t>6600000</t>
-  </si>
-  <si>
-    <t>6700000</t>
-  </si>
-  <si>
-    <t>6800000</t>
-  </si>
-  <si>
-    <t>6900000</t>
-  </si>
-  <si>
-    <t>7000000</t>
-  </si>
-  <si>
-    <t>7100000</t>
-  </si>
-  <si>
-    <t>7200000</t>
-  </si>
-  <si>
-    <t>7300000</t>
-  </si>
-  <si>
-    <t>7400000</t>
-  </si>
-  <si>
-    <t>7500000</t>
-  </si>
-  <si>
-    <t>7600000</t>
-  </si>
-  <si>
-    <t>7700000</t>
-  </si>
-  <si>
-    <t>7800000</t>
-  </si>
-  <si>
-    <t>7900000</t>
-  </si>
-  <si>
-    <t>8000000</t>
-  </si>
-  <si>
-    <t>8100000</t>
-  </si>
-  <si>
-    <t>8200000</t>
-  </si>
-  <si>
-    <t>8300000</t>
-  </si>
-  <si>
-    <t>8400000</t>
-  </si>
-  <si>
-    <t>8500000</t>
-  </si>
-  <si>
-    <t>8600000</t>
-  </si>
-  <si>
-    <t>8700000</t>
-  </si>
-  <si>
-    <t>8800000</t>
-  </si>
-  <si>
-    <t>8900000</t>
-  </si>
-  <si>
-    <t>9000000</t>
-  </si>
-  <si>
-    <t>9100000</t>
-  </si>
-  <si>
-    <t>9200000</t>
-  </si>
-  <si>
-    <t>9300000</t>
-  </si>
-  <si>
-    <t>9400000</t>
-  </si>
-  <si>
-    <t>9500000</t>
-  </si>
-  <si>
-    <t>9600000</t>
-  </si>
-  <si>
-    <t>9700000</t>
-  </si>
-  <si>
-    <t>9800000</t>
-  </si>
-  <si>
-    <t>9900000</t>
-  </si>
-  <si>
-    <t>10000000</t>
-  </si>
-  <si>
-    <t>10100000</t>
-  </si>
-  <si>
-    <t>10200000</t>
-  </si>
-  <si>
-    <t>10300000</t>
-  </si>
-  <si>
-    <t>10400000</t>
-  </si>
-  <si>
-    <t>10500000</t>
-  </si>
-  <si>
-    <t>10600000</t>
-  </si>
-  <si>
-    <t>10700000</t>
-  </si>
-  <si>
-    <t>10800000</t>
-  </si>
-  <si>
-    <t>10900000</t>
-  </si>
-  <si>
-    <t>11000000</t>
-  </si>
-  <si>
-    <t>11100000</t>
-  </si>
-  <si>
-    <t>11200000</t>
-  </si>
-  <si>
-    <t>11300000</t>
-  </si>
-  <si>
-    <t>11400000</t>
-  </si>
-  <si>
-    <t>11500000</t>
-  </si>
-  <si>
-    <t>11600000</t>
-  </si>
-  <si>
-    <t>11700000</t>
-  </si>
-  <si>
-    <t>11800000</t>
-  </si>
-  <si>
-    <t>11900000</t>
-  </si>
-  <si>
-    <t>12000000</t>
-  </si>
-  <si>
-    <t>12100000</t>
-  </si>
-  <si>
-    <t>12200000</t>
-  </si>
-  <si>
-    <t>12300000</t>
-  </si>
-  <si>
-    <t>12400000</t>
-  </si>
-  <si>
-    <t>12500000</t>
-  </si>
-  <si>
-    <t>12600000</t>
-  </si>
-  <si>
-    <t>12700000</t>
-  </si>
-  <si>
-    <t>12800000</t>
-  </si>
-  <si>
-    <t>12900000</t>
-  </si>
-  <si>
-    <t>13000000</t>
-  </si>
-  <si>
-    <t>13100000</t>
-  </si>
-  <si>
-    <t>13200000</t>
-  </si>
-  <si>
-    <t>13300000</t>
-  </si>
-  <si>
-    <t>13400000</t>
-  </si>
-  <si>
-    <t>13500000</t>
-  </si>
-  <si>
-    <t>13600000</t>
-  </si>
-  <si>
-    <t>13700000</t>
-  </si>
-  <si>
-    <t>13800000</t>
-  </si>
-  <si>
-    <t>13900000</t>
-  </si>
-  <si>
-    <t>14000000</t>
-  </si>
-  <si>
-    <t>14100000</t>
-  </si>
-  <si>
-    <t>14200000</t>
-  </si>
-  <si>
-    <t>14300000</t>
-  </si>
-  <si>
-    <t>14400000</t>
-  </si>
-  <si>
-    <t>14500000</t>
-  </si>
-  <si>
-    <t>14600000</t>
-  </si>
-  <si>
-    <t>14700000</t>
-  </si>
-  <si>
-    <t>14800000</t>
-  </si>
-  <si>
-    <t>14900000</t>
-  </si>
-  <si>
-    <t>15000000</t>
-  </si>
-  <si>
-    <t>15100000</t>
-  </si>
-  <si>
-    <t>15200000</t>
-  </si>
-  <si>
-    <t>15300000</t>
-  </si>
-  <si>
-    <t>15400000</t>
-  </si>
-  <si>
-    <t>15500000</t>
-  </si>
-  <si>
-    <t>15600000</t>
-  </si>
-  <si>
-    <t>15700000</t>
-  </si>
-  <si>
-    <t>15800000</t>
-  </si>
-  <si>
-    <t>15900000</t>
-  </si>
-  <si>
-    <t>16000000</t>
-  </si>
-  <si>
-    <t>16100000</t>
-  </si>
-  <si>
-    <t>16200000</t>
-  </si>
-  <si>
-    <t>16300000</t>
-  </si>
-  <si>
-    <t>16400000</t>
-  </si>
-  <si>
-    <t>16500000</t>
-  </si>
-  <si>
-    <t>16600000</t>
-  </si>
-  <si>
-    <t>16700000</t>
-  </si>
-  <si>
-    <t>16800000</t>
-  </si>
-  <si>
-    <t>16900000</t>
-  </si>
-  <si>
-    <t>17000000</t>
-  </si>
-  <si>
-    <t>17100000</t>
-  </si>
-  <si>
-    <t>17200000</t>
-  </si>
-  <si>
-    <t>17300000</t>
-  </si>
-  <si>
-    <t>17400000</t>
-  </si>
-  <si>
-    <t>17500000</t>
-  </si>
-  <si>
-    <t>17600000</t>
-  </si>
-  <si>
-    <t>17700000</t>
-  </si>
-  <si>
-    <t>17800000</t>
-  </si>
-  <si>
-    <t>17900000</t>
-  </si>
-  <si>
-    <t>18000000</t>
-  </si>
-  <si>
-    <t>18100000</t>
-  </si>
-  <si>
-    <t>18200000</t>
-  </si>
-  <si>
-    <t>18300000</t>
-  </si>
-  <si>
-    <t>18400000</t>
-  </si>
-  <si>
-    <t>18500000</t>
-  </si>
-  <si>
-    <t>18600000</t>
-  </si>
-  <si>
-    <t>18700000</t>
-  </si>
-  <si>
-    <t>18800000</t>
-  </si>
-  <si>
-    <t>18900000</t>
-  </si>
-  <si>
-    <t>19000000</t>
-  </si>
-  <si>
-    <t>19100000</t>
-  </si>
-  <si>
-    <t>19200000</t>
-  </si>
-  <si>
-    <t>19300000</t>
-  </si>
-  <si>
-    <t>19400000</t>
-  </si>
-  <si>
-    <t>19500000</t>
-  </si>
-  <si>
-    <t>19600000</t>
-  </si>
-  <si>
-    <t>19700000</t>
-  </si>
-  <si>
-    <t>19800000</t>
-  </si>
-  <si>
-    <t>19900000</t>
-  </si>
-  <si>
-    <t>20000000</t>
-  </si>
-  <si>
-    <t>20100000</t>
-  </si>
-  <si>
-    <t>20200000</t>
-  </si>
-  <si>
-    <t>20300000</t>
-  </si>
-  <si>
-    <t>20400000</t>
-  </si>
-  <si>
-    <t>20500000</t>
-  </si>
-  <si>
-    <t>20600000</t>
-  </si>
-  <si>
-    <t>20700000</t>
-  </si>
-  <si>
-    <t>20800000</t>
-  </si>
-  <si>
-    <t>20900000</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1114,15 +512,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -1137,6 +535,7 @@
         <v>0</v>
       </c>
       <c r="H2">
+        <f>A2^1.7</f>
         <v>0</v>
       </c>
       <c r="I2" t="s">
@@ -1145,8 +544,8 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
+      <c r="K2">
+        <v>110000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1166,13 +565,13 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <f>A3^1.7</f>
+        <f t="shared" ref="H3" si="0">A3^1.7</f>
         <v>1</v>
       </c>
       <c r="I3" t="s">
@@ -1181,8 +580,8 @@
       <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
-        <v>15</v>
+      <c r="K3">
+        <v>120000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1190,35 +589,34 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4" si="0">A4^1.7</f>
-        <v>3.2490095854249419</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>130000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1238,22 +636,23 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <f t="shared" ref="H5:H6" si="1">A5^1.7</f>
+        <v>6.4730078399237803</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>140000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1261,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -1273,23 +672,23 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H7" si="1">A6^1.7</f>
+        <f t="shared" si="1"/>
         <v>10.556063286183152</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>150000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1309,23 +708,22 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>15.425846568000235</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>160000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1333,7 +731,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -1345,22 +743,23 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <f t="shared" ref="H8:H9" si="2">A8^1.7</f>
+        <v>21.030864518443156</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>170000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1380,23 +779,23 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:H10" si="2">A9^1.7</f>
+        <f t="shared" si="2"/>
         <v>27.331701439859053</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>180000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1404,7 +803,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1416,23 +815,22 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>34.296750801161366</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>190000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1452,22 +850,23 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <f t="shared" ref="H11:H12" si="3">A11^1.7</f>
+        <v>41.899830495714724</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>200000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1475,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -1487,23 +886,23 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H13" si="3">A12^1.7</f>
+        <f t="shared" si="3"/>
         <v>50.118723362727238</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>210000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1511,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -1523,23 +922,22 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
-        <v>58.93422336432527</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="K13">
+        <v>220000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1547,7 +945,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -1559,22 +957,23 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <f t="shared" ref="H14:H15" si="4">A14^1.7</f>
+        <v>68.329480410195131</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>230000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1582,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -1594,23 +993,23 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H16" si="4">A15^1.7</f>
+        <f t="shared" si="4"/>
         <v>78.289532356812032</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>240000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1618,7 +1017,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -1630,23 +1029,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" si="4"/>
-        <v>88.800959964074735</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>250000</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1654,7 +1052,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>9</v>
@@ -1666,22 +1064,23 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <f t="shared" ref="H17:H18" si="5">A17^1.7</f>
+        <v>99.851625772126908</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>260000</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1689,7 +1088,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -1701,23 +1100,23 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:H19" si="5">A18^1.7</f>
+        <f t="shared" si="5"/>
         <v>111.43047210190386</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <v>270000</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1725,7 +1124,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -1737,23 +1136,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" si="5"/>
-        <v>123.52736184080699</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>280000</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1761,7 +1159,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -1773,22 +1171,23 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <f t="shared" ref="H20:H21" si="6">A20^1.7</f>
+        <v>136.13295090825736</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="K20">
+        <v>290000</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1796,7 +1195,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -1808,23 +1207,23 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:H22" si="6">A21^1.7</f>
+        <f t="shared" si="6"/>
         <v>149.23858464887533</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <v>300000</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1832,7 +1231,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -1844,23 +1243,22 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" si="6"/>
-        <v>162.83621261476173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="K22">
+        <v>310000</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1868,7 +1266,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -1880,22 +1278,23 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <f t="shared" ref="H23:H24" si="7">A23^1.7</f>
+        <v>176.91831769866374</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="K23">
+        <v>320000</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1903,7 +1302,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -1915,23 +1314,23 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24:H25" si="7">A24^1.7</f>
+        <f t="shared" si="7"/>
         <v>191.47785662026743</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="K24">
+        <v>330000</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1939,7 +1338,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -1951,23 +1350,22 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <f t="shared" si="7"/>
-        <v>206.50820950428542</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="K25">
+        <v>340000</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1975,7 +1373,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -1987,22 +1385,23 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <f t="shared" ref="H26:H27" si="8">A26^1.7</f>
+        <v>222.00313681982982</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="K26">
+        <v>350000</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2010,7 +1409,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>9</v>
@@ -2022,23 +1421,23 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27:H28" si="8">A27^1.7</f>
+        <f t="shared" si="8"/>
         <v>237.95674233948461</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="K27">
+        <v>360000</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2046,7 +1445,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -2058,23 +1457,22 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="8"/>
-        <v>254.36344106571849</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="K28">
+        <v>370000</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2082,7 +1480,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>9</v>
@@ -2094,22 +1492,23 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <f t="shared" ref="H29:H30" si="9">A29^1.7</f>
+        <v>271.21793129023882</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="K29">
+        <v>380000</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2117,7 +1516,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -2129,23 +1528,23 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H31" si="9">A30^1.7</f>
+        <f t="shared" si="9"/>
         <v>288.51517011821539</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="K30">
+        <v>390000</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2153,7 +1552,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>9</v>
@@ -2165,23 +1564,22 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="9"/>
-        <v>306.250351917611</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="K31">
+        <v>400000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2189,7 +1587,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -2201,22 +1599,23 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <f t="shared" ref="H32:H33" si="10">A32^1.7</f>
+        <v>324.41888925390452</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="K32">
+        <v>410000</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2224,7 +1623,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -2236,23 +1635,23 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="H33:H34" si="10">A33^1.7</f>
+        <f t="shared" si="10"/>
         <v>343.01639594923512</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="K33">
+        <v>420000</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2260,7 +1659,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>9</v>
@@ -2272,23 +1671,22 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" si="10"/>
-        <v>362.0386719675123</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="K34">
+        <v>430000</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2296,7 +1694,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -2308,22 +1706,23 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <f t="shared" ref="H35:H36" si="11">A35^1.7</f>
+        <v>381.48168987709653</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="K35">
+        <v>440000</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2331,7 +1730,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -2343,23 +1742,23 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H37" si="11">A36^1.7</f>
+        <f t="shared" si="11"/>
         <v>401.34158268303719</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="K36">
+        <v>450000</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2367,7 +1766,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>9</v>
@@ -2379,23 +1778,22 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="11"/>
-        <v>421.6146328536567</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="K37">
+        <v>460000</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2403,7 +1801,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>9</v>
@@ -2415,22 +1813,23 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <f t="shared" ref="H38:H39" si="12">A38^1.7</f>
+        <v>442.29726239311128</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="K38">
+        <v>470000</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2438,7 +1837,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>9</v>
@@ -2450,23 +1849,23 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" ref="H39:H40" si="12">A39^1.7</f>
+        <f t="shared" si="12"/>
         <v>463.38602383363093</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="K39">
+        <v>480000</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2474,7 +1873,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>9</v>
@@ -2486,23 +1885,22 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" si="12"/>
-        <v>484.87759203944762</v>
+        <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" t="s">
-        <v>54</v>
+        <v>15</v>
+      </c>
+      <c r="K40">
+        <v>490000</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2510,7 +1908,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>9</v>
@@ -2522,22 +1920,23 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <f t="shared" ref="H41:H42" si="13">A41^1.7</f>
+        <v>506.76875672961057</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" t="s">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="K41">
+        <v>500000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2545,7 +1944,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -2557,23 +1956,23 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H42:H43" si="13">A42^1.7</f>
+        <f t="shared" si="13"/>
         <v>529.0564156396548</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="K42">
+        <v>510000</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2581,7 +1980,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>9</v>
@@ -2593,23 +1992,22 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <f t="shared" si="13"/>
-        <v>551.73756825277371</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" t="s">
-        <v>57</v>
+        <v>15</v>
+      </c>
+      <c r="K43">
+        <v>520000</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2617,7 +2015,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>9</v>
@@ -2629,22 +2027,23 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <f t="shared" ref="H44:H45" si="14">A44^1.7</f>
+        <v>574.80931004021375</v>
       </c>
       <c r="I44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="K44">
+        <v>530000</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2652,7 +2051,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>9</v>
@@ -2664,23 +2063,23 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <f t="shared" ref="H45:H46" si="14">A45^1.7</f>
+        <f t="shared" si="14"/>
         <v>598.26882715827799</v>
       </c>
       <c r="I45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="K45">
+        <v>540000</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2688,7 +2087,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>9</v>
@@ -2700,23 +2099,22 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <f t="shared" si="14"/>
-        <v>622.11339155587109</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" t="s">
-        <v>60</v>
+        <v>15</v>
+      </c>
+      <c r="K46">
+        <v>550000</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2724,7 +2122,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>9</v>
@@ -2736,22 +2134,23 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <f t="shared" ref="H47:H48" si="15">A47^1.7</f>
+        <v>646.34035645211259</v>
       </c>
       <c r="I47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" t="s">
-        <v>61</v>
+        <v>15</v>
+      </c>
+      <c r="K47">
+        <v>560000</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2759,7 +2158,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>9</v>
@@ -2771,23 +2170,23 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <f t="shared" ref="H48:H49" si="15">A48^1.7</f>
+        <f t="shared" si="15"/>
         <v>670.9471521483656</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" t="s">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="K48">
+        <v>570000</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2795,7 +2194,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>9</v>
@@ -2807,23 +2206,22 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <f t="shared" si="15"/>
-        <v>695.93128214315311</v>
+        <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" t="s">
-        <v>63</v>
+        <v>15</v>
+      </c>
+      <c r="K49">
+        <v>580000</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -2831,7 +2229,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <v>9</v>
@@ -2843,22 +2241,23 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <f t="shared" ref="H50:H51" si="16">A50^1.7</f>
+        <v>721.29031952203206</v>
       </c>
       <c r="I50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" t="s">
-        <v>64</v>
+        <v>15</v>
+      </c>
+      <c r="K50">
+        <v>590000</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2866,7 +2265,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>9</v>
@@ -2878,23 +2277,23 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <f t="shared" ref="H51:H52" si="16">A51^1.7</f>
+        <f t="shared" si="16"/>
         <v>747.02190359759345</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" t="s">
-        <v>65</v>
+        <v>15</v>
+      </c>
+      <c r="K51">
+        <v>600000</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2902,7 +2301,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52">
         <v>9</v>
@@ -2914,23 +2313,22 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <f t="shared" si="16"/>
-        <v>773.12373677747883</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>18</v>
-      </c>
-      <c r="K52" t="s">
-        <v>66</v>
+        <v>15</v>
+      </c>
+      <c r="K52">
+        <v>610000</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2938,7 +2336,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>9</v>
@@ -2950,22 +2348,23 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <f t="shared" ref="H53:H54" si="17">A53^1.7</f>
+        <v>799.59358164064497</v>
       </c>
       <c r="I53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" t="s">
-        <v>67</v>
+        <v>15</v>
+      </c>
+      <c r="K53">
+        <v>620000</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -2973,7 +2372,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>9</v>
@@ -2985,23 +2384,23 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" ref="H54:H55" si="17">A54^1.7</f>
+        <f t="shared" si="17"/>
         <v>826.42925820419191</v>
       </c>
       <c r="I54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" t="s">
-        <v>68</v>
+        <v>15</v>
+      </c>
+      <c r="K54">
+        <v>630000</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3009,7 +2408,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>9</v>
@@ -3021,23 +2420,22 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <f t="shared" si="17"/>
-        <v>853.62864136488804</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" t="s">
-        <v>69</v>
+        <v>15</v>
+      </c>
+      <c r="K55">
+        <v>640000</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -3045,7 +2443,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>9</v>
@@ -3057,22 +2455,23 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <f t="shared" ref="H56:H57" si="18">A56^1.7</f>
+        <v>881.18965850110931</v>
       </c>
       <c r="I56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" t="s">
-        <v>70</v>
+        <v>15</v>
+      </c>
+      <c r="K56">
+        <v>650000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3080,7 +2479,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57">
         <v>9</v>
@@ -3092,23 +2491,23 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <f t="shared" ref="H57:H58" si="18">A57^1.7</f>
+        <f t="shared" si="18"/>
         <v>909.1102872223363</v>
       </c>
       <c r="I57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" t="s">
-        <v>71</v>
+        <v>15</v>
+      </c>
+      <c r="K57">
+        <v>660000</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -3116,7 +2515,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>9</v>
@@ -3128,23 +2527,22 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <f t="shared" si="18"/>
-        <v>937.38855325459053</v>
+        <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>18</v>
-      </c>
-      <c r="K58" t="s">
-        <v>72</v>
+        <v>15</v>
+      </c>
+      <c r="K58">
+        <v>670000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3152,7 +2550,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>9</v>
@@ -3164,22 +2562,23 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <f t="shared" ref="H59:H60" si="19">A59^1.7</f>
+        <v>966.02252845129919</v>
       </c>
       <c r="I59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>18</v>
-      </c>
-      <c r="K59" t="s">
-        <v>73</v>
+        <v>15</v>
+      </c>
+      <c r="K59">
+        <v>680000</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3187,7 +2586,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60">
         <v>9</v>
@@ -3199,23 +2598,23 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <f t="shared" ref="H60:H61" si="19">A60^1.7</f>
+        <f t="shared" si="19"/>
         <v>995.01032892007913</v>
       </c>
       <c r="I60" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>18</v>
-      </c>
-      <c r="K60" t="s">
-        <v>74</v>
+        <v>15</v>
+      </c>
+      <c r="K60">
+        <v>690000</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3223,7 +2622,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61">
         <v>9</v>
@@ -3235,23 +2634,22 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <f t="shared" si="19"/>
-        <v>1024.3501132567671</v>
+        <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>18</v>
-      </c>
-      <c r="K61" t="s">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="K61">
+        <v>700000</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3259,7 +2657,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>9</v>
@@ -3271,22 +2669,23 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <f t="shared" ref="H62:H63" si="20">A62^1.7</f>
+        <v>1054.0400808788479</v>
       </c>
       <c r="I62" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>18</v>
-      </c>
-      <c r="K62" t="s">
-        <v>76</v>
+        <v>15</v>
+      </c>
+      <c r="K62">
+        <v>710000</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3294,7 +2693,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <v>9</v>
@@ -3306,23 +2705,23 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <f t="shared" ref="H63:H64" si="20">A63^1.7</f>
+        <f t="shared" si="20"/>
         <v>1084.0784704511104</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>18</v>
-      </c>
-      <c r="K63" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="K63">
+        <v>720000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3330,7 +2729,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C64">
         <v>9</v>
@@ -3342,23 +2741,22 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <f t="shared" si="20"/>
-        <v>1114.4635583969823</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" t="s">
-        <v>78</v>
+        <v>15</v>
+      </c>
+      <c r="K64">
+        <v>730000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3366,7 +2764,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>9</v>
@@ -3378,22 +2776,23 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <f t="shared" ref="H65:H66" si="21">A65^1.7</f>
+        <v>1145.193657489576</v>
       </c>
       <c r="I65" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>18</v>
-      </c>
-      <c r="K65" t="s">
-        <v>79</v>
+        <v>15</v>
+      </c>
+      <c r="K65">
+        <v>740000</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3401,7 +2800,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <v>9</v>
@@ -3413,23 +2812,23 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H67" si="21">A66^1.7</f>
+        <f t="shared" si="21"/>
         <v>1176.2671155169628</v>
       </c>
       <c r="I66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>18</v>
-      </c>
-      <c r="K66" t="s">
-        <v>80</v>
+        <v>15</v>
+      </c>
+      <c r="K66">
+        <v>750000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3437,7 +2836,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>9</v>
@@ -3449,23 +2848,22 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" si="21"/>
-        <v>1207.6823140166723</v>
+        <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>18</v>
-      </c>
-      <c r="K67" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="K67">
+        <v>760000</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3473,7 +2871,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68">
         <v>9</v>
@@ -3485,22 +2883,23 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <f t="shared" ref="H68:H69" si="22">A68^1.7</f>
+        <v>1239.4376670747909</v>
       </c>
       <c r="I68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>18</v>
-      </c>
-      <c r="K68" t="s">
-        <v>82</v>
+        <v>15</v>
+      </c>
+      <c r="K68">
+        <v>770000</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3508,7 +2907,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69">
         <v>9</v>
@@ -3520,23 +2919,23 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <f t="shared" ref="H69:H70" si="22">A69^1.7</f>
+        <f t="shared" si="22"/>
         <v>1271.5316201854528</v>
       </c>
       <c r="I69" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>18</v>
-      </c>
-      <c r="K69" t="s">
-        <v>83</v>
+        <v>15</v>
+      </c>
+      <c r="K69">
+        <v>780000</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -3544,7 +2943,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70">
         <v>9</v>
@@ -3556,23 +2955,22 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <f t="shared" si="22"/>
-        <v>1303.962649166805</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>18</v>
-      </c>
-      <c r="K70" t="s">
-        <v>84</v>
+        <v>15</v>
+      </c>
+      <c r="K70">
+        <v>790000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -3580,7 +2978,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71">
         <v>9</v>
@@ -3592,22 +2990,23 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <f t="shared" ref="H71:H72" si="23">A71^1.7</f>
+        <v>1336.7292591298626</v>
       </c>
       <c r="I71" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>18</v>
-      </c>
-      <c r="K71" t="s">
-        <v>85</v>
+        <v>15</v>
+      </c>
+      <c r="K71">
+        <v>800000</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -3615,7 +3014,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72">
         <v>9</v>
@@ -3627,23 +3026,23 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" ref="H72:H73" si="23">A72^1.7</f>
+        <f t="shared" si="23"/>
         <v>1369.8299834969496</v>
       </c>
       <c r="I72" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>18</v>
-      </c>
-      <c r="K72" t="s">
-        <v>86</v>
+        <v>15</v>
+      </c>
+      <c r="K72">
+        <v>810000</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3651,7 +3050,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73">
         <v>9</v>
@@ -3663,23 +3062,22 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" si="23"/>
-        <v>1403.2633830666468</v>
+        <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>18</v>
-      </c>
-      <c r="K73" t="s">
-        <v>87</v>
+        <v>15</v>
+      </c>
+      <c r="K73">
+        <v>820000</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -3687,7 +3085,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74">
         <v>9</v>
@@ -3699,22 +3097,23 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <f t="shared" ref="H74:H75" si="24">A74^1.7</f>
+        <v>1437.0280451224294</v>
       </c>
       <c r="I74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>18</v>
-      </c>
-      <c r="K74" t="s">
-        <v>88</v>
+        <v>15</v>
+      </c>
+      <c r="K74">
+        <v>830000</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -3722,7 +3121,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>9</v>
@@ -3734,23 +3133,23 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <f t="shared" ref="H75:H76" si="24">A75^1.7</f>
+        <f t="shared" si="24"/>
         <v>1471.1225825823592</v>
       </c>
       <c r="I75" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>18</v>
-      </c>
-      <c r="K75" t="s">
-        <v>89</v>
+        <v>15</v>
+      </c>
+      <c r="K75">
+        <v>840000</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -3758,7 +3157,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76">
         <v>9</v>
@@ -3770,23 +3169,22 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" si="24"/>
-        <v>1505.5456331874191</v>
+        <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>18</v>
-      </c>
-      <c r="K76" t="s">
-        <v>90</v>
+        <v>15</v>
+      </c>
+      <c r="K76">
+        <v>850000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -3794,7 +3192,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C77">
         <v>9</v>
@@ -3806,22 +3204,23 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <f t="shared" ref="H77:H78" si="25">A77^1.7</f>
+        <v>1540.2958587262062</v>
       </c>
       <c r="I77" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>18</v>
-      </c>
-      <c r="K77" t="s">
-        <v>91</v>
+        <v>15</v>
+      </c>
+      <c r="K77">
+        <v>860000</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -3829,7 +3228,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78">
         <v>9</v>
@@ -3841,23 +3240,23 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" ref="H78:H79" si="25">A78^1.7</f>
+        <f t="shared" si="25"/>
         <v>1575.3719442939303</v>
       </c>
       <c r="I78" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>18</v>
-      </c>
-      <c r="K78" t="s">
-        <v>92</v>
+        <v>15</v>
+      </c>
+      <c r="K78">
+        <v>870000</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -3865,7 +3264,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79">
         <v>9</v>
@@ -3877,23 +3276,22 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" si="25"/>
-        <v>1610.7725975837034</v>
+        <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>18</v>
-      </c>
-      <c r="K79" t="s">
-        <v>93</v>
+        <v>15</v>
+      </c>
+      <c r="K79">
+        <v>880000</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -3901,7 +3299,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C80">
         <v>9</v>
@@ -3913,22 +3311,23 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <f t="shared" ref="H80:H81" si="26">A80^1.7</f>
+        <v>1646.4965482083855</v>
       </c>
       <c r="I80" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>18</v>
-      </c>
-      <c r="K80" t="s">
-        <v>94</v>
+        <v>15</v>
+      </c>
+      <c r="K80">
+        <v>890000</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -3936,7 +3335,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C81">
         <v>9</v>
@@ -3948,23 +3347,23 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" ref="H81:H82" si="26">A81^1.7</f>
+        <f t="shared" si="26"/>
         <v>1682.5425470512334</v>
       </c>
       <c r="I81" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>18</v>
-      </c>
-      <c r="K81" t="s">
-        <v>95</v>
+        <v>15</v>
+      </c>
+      <c r="K81">
+        <v>900000</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -3972,7 +3371,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C82">
         <v>9</v>
@@ -3984,23 +3383,22 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="26"/>
-        <v>1718.9093656437994</v>
+        <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>18</v>
-      </c>
-      <c r="K82" t="s">
-        <v>96</v>
+        <v>15</v>
+      </c>
+      <c r="K82">
+        <v>910000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4008,7 +3406,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C83">
         <v>9</v>
@@ -4020,22 +3418,23 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <f t="shared" ref="H83:H84" si="27">A83^1.7</f>
+        <v>1755.5957955696258</v>
       </c>
       <c r="I83" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>18</v>
-      </c>
-      <c r="K83" t="s">
-        <v>97</v>
+        <v>15</v>
+      </c>
+      <c r="K83">
+        <v>920000</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -4043,7 +3442,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>9</v>
@@ -4055,23 +3454,23 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" ref="H84:H85" si="27">A84^1.7</f>
+        <f t="shared" si="27"/>
         <v>1792.6006478923086</v>
       </c>
       <c r="I84" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K84" t="s">
-        <v>98</v>
+        <v>15</v>
+      </c>
+      <c r="K84">
+        <v>930000</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -4079,7 +3478,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C85">
         <v>9</v>
@@ -4091,23 +3490,22 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" si="27"/>
-        <v>1829.9227526067309</v>
+        <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>18</v>
-      </c>
-      <c r="K85" t="s">
-        <v>99</v>
+        <v>15</v>
+      </c>
+      <c r="K85">
+        <v>940000</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -4115,7 +3513,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86">
         <v>9</v>
@@ -4127,22 +3525,23 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <f t="shared" ref="H86:H87" si="28">A86^1.7</f>
+        <v>1867.5609581121505</v>
       </c>
       <c r="I86" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>18</v>
-      </c>
-      <c r="K86" t="s">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="K86">
+        <v>950000</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -4150,7 +3549,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87">
         <v>9</v>
@@ -4162,23 +3561,23 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <f t="shared" ref="H87:H88" si="28">A87^1.7</f>
+        <f t="shared" si="28"/>
         <v>1905.5141307061374</v>
       </c>
       <c r="I87" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>18</v>
-      </c>
-      <c r="K87" t="s">
-        <v>101</v>
+        <v>15</v>
+      </c>
+      <c r="K87">
+        <v>960000</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -4186,7 +3585,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88">
         <v>9</v>
@@ -4198,23 +3597,22 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
-        <f t="shared" si="28"/>
-        <v>1943.7811540981818</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>18</v>
-      </c>
-      <c r="K88" t="s">
-        <v>102</v>
+        <v>15</v>
+      </c>
+      <c r="K88">
+        <v>970000</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -4222,7 +3620,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89">
         <v>9</v>
@@ -4234,22 +3632,23 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <f t="shared" ref="H89:H90" si="29">A89^1.7</f>
+        <v>1982.3609289421117</v>
       </c>
       <c r="I89" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>18</v>
-      </c>
-      <c r="K89" t="s">
-        <v>103</v>
+        <v>15</v>
+      </c>
+      <c r="K89">
+        <v>980000</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -4257,7 +3656,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90">
         <v>9</v>
@@ -4269,23 +3668,23 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <f t="shared" ref="H90:H91" si="29">A90^1.7</f>
+        <f t="shared" si="29"/>
         <v>2021.2523723862475</v>
       </c>
       <c r="I90" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>18</v>
-      </c>
-      <c r="K90" t="s">
-        <v>104</v>
+        <v>15</v>
+      </c>
+      <c r="K90">
+        <v>990000</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -4293,7 +3692,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91">
         <v>9</v>
@@ -4305,23 +3704,22 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <f t="shared" si="29"/>
-        <v>2060.4544176405534</v>
+        <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>18</v>
-      </c>
-      <c r="K91" t="s">
-        <v>105</v>
+        <v>15</v>
+      </c>
+      <c r="K91">
+        <v>1000000</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -4329,7 +3727,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92">
         <v>9</v>
@@ -4341,22 +3739,23 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <f t="shared" ref="H92:H93" si="30">A92^1.7</f>
+        <v>2099.9660135598879</v>
       </c>
       <c r="I92" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>18</v>
-      </c>
-      <c r="K92" t="s">
-        <v>106</v>
+        <v>15</v>
+      </c>
+      <c r="K92">
+        <v>1010000</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -4364,7 +3763,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93">
         <v>9</v>
@@ -4376,23 +3775,23 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" ref="H93:H94" si="30">A93^1.7</f>
+        <f t="shared" si="30"/>
         <v>2139.7861242425706</v>
       </c>
       <c r="I93" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>18</v>
-      </c>
-      <c r="K93" t="s">
-        <v>107</v>
+        <v>15</v>
+      </c>
+      <c r="K93">
+        <v>1020000</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -4400,7 +3799,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C94">
         <v>9</v>
@@ -4412,23 +3811,22 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <f t="shared" si="30"/>
-        <v>2179.9137286436071</v>
+        <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>18</v>
-      </c>
-      <c r="K94" t="s">
-        <v>108</v>
+        <v>15</v>
+      </c>
+      <c r="K94">
+        <v>1030000</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -4436,7 +3834,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C95">
         <v>9</v>
@@ -4448,22 +3846,23 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <f t="shared" ref="H95:H96" si="31">A95^1.7</f>
+        <v>2220.3478202017995</v>
       </c>
       <c r="I95" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>18</v>
-      </c>
-      <c r="K95" t="s">
-        <v>109</v>
+        <v>15</v>
+      </c>
+      <c r="K95">
+        <v>1040000</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -4471,7 +3870,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C96">
         <v>9</v>
@@ -4483,23 +3882,23 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <f t="shared" ref="H96:H97" si="31">A96^1.7</f>
+        <f t="shared" si="31"/>
         <v>2261.0874064801746</v>
       </c>
       <c r="I96" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>18</v>
-      </c>
-      <c r="K96" t="s">
-        <v>110</v>
+        <v>15</v>
+      </c>
+      <c r="K96">
+        <v>1050000</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -4507,7 +3906,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C97">
         <v>9</v>
@@ -4519,23 +3918,22 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <f t="shared" si="31"/>
-        <v>2302.1315088190681</v>
+        <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>18</v>
-      </c>
-      <c r="K97" t="s">
-        <v>111</v>
+        <v>15</v>
+      </c>
+      <c r="K97">
+        <v>1060000</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -4543,7 +3941,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C98">
         <v>9</v>
@@ -4555,22 +3953,23 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <f t="shared" ref="H98:H99" si="32">A98^1.7</f>
+        <v>2343.4791620012998</v>
       </c>
       <c r="I98" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>18</v>
-      </c>
-      <c r="K98" t="s">
-        <v>112</v>
+        <v>15</v>
+      </c>
+      <c r="K98">
+        <v>1070000</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -4578,7 +3977,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C99">
         <v>9</v>
@@ -4590,23 +3989,23 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <f t="shared" ref="H99:H100" si="32">A99^1.7</f>
+        <f t="shared" si="32"/>
         <v>2385.129413928918</v>
       </c>
       <c r="I99" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>18</v>
-      </c>
-      <c r="K99" t="s">
-        <v>113</v>
+        <v>15</v>
+      </c>
+      <c r="K99">
+        <v>1080000</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -4614,7 +4013,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100">
         <v>9</v>
@@ -4626,23 +4025,22 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <f t="shared" si="32"/>
-        <v>2427.0813253109686</v>
+        <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>18</v>
-      </c>
-      <c r="K100" t="s">
-        <v>114</v>
+        <v>15</v>
+      </c>
+      <c r="K100">
+        <v>1090000</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -4650,7 +4048,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C101">
         <v>9</v>
@@ -4662,22 +4060,23 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <f t="shared" ref="H101:H102" si="33">A101^1.7</f>
+        <v>2469.3339693618173</v>
       </c>
       <c r="I101" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>18</v>
-      </c>
-      <c r="K101" t="s">
-        <v>115</v>
+        <v>15</v>
+      </c>
+      <c r="K101">
+        <v>1100000</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -4685,7 +4084,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C102">
         <v>9</v>
@@ -4697,23 +4096,23 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <f t="shared" ref="H102:H103" si="33">A102^1.7</f>
+        <f t="shared" si="33"/>
         <v>2511.8864315095811</v>
       </c>
       <c r="I102" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>18</v>
-      </c>
-      <c r="K102" t="s">
-        <v>116</v>
+        <v>15</v>
+      </c>
+      <c r="K102">
+        <v>1110000</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -4721,7 +4120,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C103">
         <v>9</v>
@@ -4733,23 +4132,22 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <f t="shared" si="33"/>
-        <v>2554.73780911419</v>
+        <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>18</v>
-      </c>
-      <c r="K103" t="s">
-        <v>117</v>
+        <v>15</v>
+      </c>
+      <c r="K103">
+        <v>1120000</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
@@ -4757,7 +4155,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C104">
         <v>9</v>
@@ -4769,22 +4167,23 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <f t="shared" ref="H104:H105" si="34">A104^1.7</f>
+        <v>2597.8872111947144</v>
       </c>
       <c r="I104" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>18</v>
-      </c>
-      <c r="K104" t="s">
-        <v>118</v>
+        <v>15</v>
+      </c>
+      <c r="K104">
+        <v>1130000</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -4792,7 +4191,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C105">
         <v>9</v>
@@ -4804,23 +4203,23 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <f t="shared" ref="H105:H106" si="34">A105^1.7</f>
+        <f t="shared" si="34"/>
         <v>2641.3337581655501</v>
       </c>
       <c r="I105" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>18</v>
-      </c>
-      <c r="K105" t="s">
-        <v>119</v>
+        <v>15</v>
+      </c>
+      <c r="K105">
+        <v>1140000</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
@@ -4828,7 +4227,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -4840,23 +4239,22 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <f t="shared" si="34"/>
-        <v>2685.0765815810419</v>
+        <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>18</v>
-      </c>
-      <c r="K106" t="s">
-        <v>120</v>
+        <v>15</v>
+      </c>
+      <c r="K106">
+        <v>1150000</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -4864,7 +4262,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C107">
         <v>9</v>
@@ -4876,22 +4274,23 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <f t="shared" ref="H107:H108" si="35">A107^1.7</f>
+        <v>2729.1148238883047</v>
       </c>
       <c r="I107" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>18</v>
-      </c>
-      <c r="K107" t="s">
-        <v>121</v>
+        <v>15</v>
+      </c>
+      <c r="K107">
+        <v>1160000</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -4899,7 +4298,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C108">
         <v>9</v>
@@ -4911,23 +4310,23 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <f t="shared" ref="H108:H109" si="35">A108^1.7</f>
+        <f t="shared" si="35"/>
         <v>2773.4476381877894</v>
       </c>
       <c r="I108" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>18</v>
-      </c>
-      <c r="K108" t="s">
-        <v>122</v>
+        <v>15</v>
+      </c>
+      <c r="K108">
+        <v>1170000</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -4935,7 +4334,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C109">
         <v>9</v>
@@ -4947,23 +4346,22 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <f t="shared" si="35"/>
-        <v>2818.0741880013366</v>
+        <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>18</v>
-      </c>
-      <c r="K109" t="s">
-        <v>123</v>
+        <v>15</v>
+      </c>
+      <c r="K109">
+        <v>1180000</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -4971,7 +4369,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C110">
         <v>9</v>
@@ -4983,22 +4381,23 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <f t="shared" ref="H110:H111" si="36">A110^1.7</f>
+        <v>2862.9936470474358</v>
       </c>
       <c r="I110" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>18</v>
-      </c>
-      <c r="K110" t="s">
-        <v>124</v>
+        <v>15</v>
+      </c>
+      <c r="K110">
+        <v>1190000</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -5006,7 +4405,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C111">
         <v>9</v>
@@ -5018,23 +4417,23 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <f t="shared" ref="H111:H112" si="36">A111^1.7</f>
+        <f t="shared" si="36"/>
         <v>2908.2051990233308</v>
       </c>
       <c r="I111" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>18</v>
-      </c>
-      <c r="K111" t="s">
-        <v>125</v>
+        <v>15</v>
+      </c>
+      <c r="K111">
+        <v>1200000</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -5042,7 +4441,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C112">
         <v>9</v>
@@ -5054,23 +4453,22 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <f t="shared" si="36"/>
-        <v>2953.7080373937933</v>
+        <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>18</v>
-      </c>
-      <c r="K112" t="s">
-        <v>126</v>
+        <v>15</v>
+      </c>
+      <c r="K112">
+        <v>1210000</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -5078,7 +4476,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C113">
         <v>9</v>
@@ -5090,22 +4488,23 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <f t="shared" ref="H113:H114" si="37">A113^1.7</f>
+        <v>2999.5013651862023</v>
       </c>
       <c r="I113" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>18</v>
-      </c>
-      <c r="K113" t="s">
-        <v>127</v>
+        <v>15</v>
+      </c>
+      <c r="K113">
+        <v>1220000</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -5113,7 +4512,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C114">
         <v>9</v>
@@ -5125,23 +4524,23 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <f t="shared" ref="H114:H115" si="37">A114^1.7</f>
+        <f t="shared" si="37"/>
         <v>3045.5843947917783</v>
       </c>
       <c r="I114" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>18</v>
-      </c>
-      <c r="K114" t="s">
-        <v>128</v>
+        <v>15</v>
+      </c>
+      <c r="K114">
+        <v>1230000</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
@@ -5149,7 +4548,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C115">
         <v>9</v>
@@ -5161,23 +4560,22 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <f t="shared" si="37"/>
-        <v>3091.9563477726774</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>18</v>
-      </c>
-      <c r="K115" t="s">
-        <v>129</v>
+        <v>15</v>
+      </c>
+      <c r="K115">
+        <v>1240000</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
@@ -5185,7 +4583,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>9</v>
@@ -5197,22 +4595,23 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <f t="shared" ref="H116:H117" si="38">A116^1.7</f>
+        <v>3138.6164546747077</v>
       </c>
       <c r="I116" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>18</v>
-      </c>
-      <c r="K116" t="s">
-        <v>130</v>
+        <v>15</v>
+      </c>
+      <c r="K116">
+        <v>1250000</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
@@ -5220,7 +4619,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C117">
         <v>9</v>
@@ -5232,23 +4631,23 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <f t="shared" ref="H117:H118" si="38">A117^1.7</f>
+        <f t="shared" si="38"/>
         <v>3185.5639548455547</v>
       </c>
       <c r="I117" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>18</v>
-      </c>
-      <c r="K117" t="s">
-        <v>131</v>
+        <v>15</v>
+      </c>
+      <c r="K117">
+        <v>1260000</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -5256,7 +4655,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C118">
         <v>9</v>
@@ -5268,23 +4667,22 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <f t="shared" si="38"/>
-        <v>3232.7980962581623</v>
+        <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J118" t="s">
-        <v>18</v>
-      </c>
-      <c r="K118" t="s">
-        <v>132</v>
+        <v>15</v>
+      </c>
+      <c r="K118">
+        <v>1270000</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
@@ -5292,7 +4690,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C119">
         <v>9</v>
@@ -5304,22 +4702,23 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <f t="shared" ref="H119:H120" si="39">A119^1.7</f>
+        <v>3280.3181353391979</v>
       </c>
       <c r="I119" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>18</v>
-      </c>
-      <c r="K119" t="s">
-        <v>133</v>
+        <v>15</v>
+      </c>
+      <c r="K119">
+        <v>1280000</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -5327,7 +4726,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C120">
         <v>9</v>
@@ -5339,23 +4738,23 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <f t="shared" ref="H120:H121" si="39">A120^1.7</f>
+        <f t="shared" si="39"/>
         <v>3328.1233368023618</v>
       </c>
       <c r="I120" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>18</v>
-      </c>
-      <c r="K120" t="s">
-        <v>134</v>
+        <v>15</v>
+      </c>
+      <c r="K120">
+        <v>1290000</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -5363,7 +4762,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C121">
         <v>9</v>
@@ -5375,23 +4774,22 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <f t="shared" si="39"/>
-        <v>3376.2129734863765</v>
+        <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>18</v>
-      </c>
-      <c r="K121" t="s">
-        <v>135</v>
+        <v>15</v>
+      </c>
+      <c r="K121">
+        <v>1300000</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -5399,7 +4797,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C122">
         <v>9</v>
@@ -5411,22 +4809,23 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <f t="shared" ref="H122:H123" si="40">A122^1.7</f>
+        <v>3424.5863261974555</v>
       </c>
       <c r="I122" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J122" t="s">
-        <v>18</v>
-      </c>
-      <c r="K122" t="s">
-        <v>136</v>
+        <v>15</v>
+      </c>
+      <c r="K122">
+        <v>1310000</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
@@ -5434,7 +4833,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C123">
         <v>9</v>
@@ -5446,23 +4845,23 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
-        <f t="shared" ref="H123:H124" si="40">A123^1.7</f>
+        <f t="shared" si="40"/>
         <v>3473.2426835561828</v>
       </c>
       <c r="I123" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>18</v>
-      </c>
-      <c r="K123" t="s">
-        <v>137</v>
+        <v>15</v>
+      </c>
+      <c r="K123">
+        <v>1320000</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
@@ -5470,7 +4869,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C124">
         <v>9</v>
@@ -5482,23 +4881,22 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124">
-        <f t="shared" si="40"/>
-        <v>3522.181341848468</v>
+        <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J124" t="s">
-        <v>18</v>
-      </c>
-      <c r="K124" t="s">
-        <v>138</v>
+        <v>15</v>
+      </c>
+      <c r="K124">
+        <v>1330000</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
@@ -5506,7 +4904,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C125">
         <v>9</v>
@@ -5518,22 +4916,23 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <f t="shared" ref="H125:H126" si="41">A125^1.7</f>
+        <v>3571.4016048806784</v>
       </c>
       <c r="I125" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>18</v>
-      </c>
-      <c r="K125" t="s">
-        <v>139</v>
+        <v>15</v>
+      </c>
+      <c r="K125">
+        <v>1340000</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -5541,7 +4940,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C126">
         <v>9</v>
@@ -5553,23 +4952,23 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126">
-        <f t="shared" ref="H126:H127" si="41">A126^1.7</f>
+        <f t="shared" si="41"/>
         <v>3620.9027838385891</v>
       </c>
       <c r="I126" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J126" t="s">
-        <v>18</v>
-      </c>
-      <c r="K126" t="s">
-        <v>140</v>
+        <v>15</v>
+      </c>
+      <c r="K126">
+        <v>1350000</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
@@ -5577,7 +4976,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C127">
         <v>9</v>
@@ -5589,23 +4988,22 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <f t="shared" si="41"/>
-        <v>3670.684197150058</v>
+        <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>18</v>
-      </c>
-      <c r="K127" t="s">
-        <v>141</v>
+        <v>15</v>
+      </c>
+      <c r="K127">
+        <v>1360000</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
@@ -5613,7 +5011,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C128">
         <v>9</v>
@@ -5625,22 +5023,23 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <f t="shared" ref="H128:H129" si="42">A128^1.7</f>
+        <v>3720.7451703514776</v>
       </c>
       <c r="I128" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J128" t="s">
-        <v>18</v>
-      </c>
-      <c r="K128" t="s">
-        <v>142</v>
+        <v>15</v>
+      </c>
+      <c r="K128">
+        <v>1370000</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -5648,7 +5047,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C129">
         <v>9</v>
@@ -5660,23 +5059,23 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129">
-        <f t="shared" ref="H129:H130" si="42">A129^1.7</f>
+        <f t="shared" si="42"/>
         <v>3771.0850359575875</v>
       </c>
       <c r="I129" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>18</v>
-      </c>
-      <c r="K129" t="s">
-        <v>143</v>
+        <v>15</v>
+      </c>
+      <c r="K129">
+        <v>1380000</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -5684,7 +5083,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C130">
         <v>9</v>
@@ -5696,23 +5095,22 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
-        <f t="shared" si="42"/>
-        <v>3821.7031333347636</v>
+        <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J130" t="s">
-        <v>18</v>
-      </c>
-      <c r="K130" t="s">
-        <v>144</v>
+        <v>15</v>
+      </c>
+      <c r="K130">
+        <v>1390000</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -5720,7 +5118,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C131">
         <v>9</v>
@@ -5732,22 +5130,23 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <f t="shared" ref="H131:H132" si="43">A131^1.7</f>
+        <v>3872.5988085775407</v>
       </c>
       <c r="I131" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J131" t="s">
-        <v>18</v>
-      </c>
-      <c r="K131" t="s">
-        <v>145</v>
+        <v>15</v>
+      </c>
+      <c r="K131">
+        <v>1400000</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -5755,7 +5154,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C132">
         <v>9</v>
@@ -5767,23 +5166,23 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <f t="shared" ref="H132:H133" si="43">A132^1.7</f>
+        <f t="shared" si="43"/>
         <v>3923.7714143883404</v>
       </c>
       <c r="I132" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J132" t="s">
-        <v>18</v>
-      </c>
-      <c r="K132" t="s">
-        <v>146</v>
+        <v>15</v>
+      </c>
+      <c r="K132">
+        <v>1410000</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -5791,7 +5190,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C133">
         <v>9</v>
@@ -5803,23 +5202,22 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <f t="shared" si="43"/>
-        <v>3975.2203099602521</v>
+        <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J133" t="s">
-        <v>18</v>
-      </c>
-      <c r="K133" t="s">
-        <v>147</v>
+        <v>15</v>
+      </c>
+      <c r="K133">
+        <v>1420000</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -5827,7 +5225,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C134">
         <v>9</v>
@@ -5839,22 +5237,23 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <f t="shared" ref="H134:H135" si="44">A134^1.7</f>
+        <v>4026.9448608627245</v>
       </c>
       <c r="I134" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J134" t="s">
-        <v>18</v>
-      </c>
-      <c r="K134" t="s">
-        <v>148</v>
+        <v>15</v>
+      </c>
+      <c r="K134">
+        <v>1430000</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -5862,7 +5261,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C135">
         <v>9</v>
@@ -5874,23 +5273,23 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <f t="shared" ref="H135:H136" si="44">A135^1.7</f>
+        <f t="shared" si="44"/>
         <v>4078.9444389301948</v>
       </c>
       <c r="I135" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J135" t="s">
-        <v>18</v>
-      </c>
-      <c r="K135" t="s">
-        <v>149</v>
+        <v>15</v>
+      </c>
+      <c r="K135">
+        <v>1440000</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -5898,7 +5297,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C136">
         <v>9</v>
@@ -5910,23 +5309,22 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <f t="shared" si="44"/>
-        <v>4131.2184221534435</v>
+        <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J136" t="s">
-        <v>18</v>
-      </c>
-      <c r="K136" t="s">
-        <v>150</v>
+        <v>15</v>
+      </c>
+      <c r="K136">
+        <v>1450000</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -5934,7 +5332,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C137">
         <v>9</v>
@@ -5946,22 +5344,23 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <f t="shared" ref="H137:H138" si="45">A137^1.7</f>
+        <v>4183.7661945736572</v>
       </c>
       <c r="I137" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J137" t="s">
-        <v>18</v>
-      </c>
-      <c r="K137" t="s">
-        <v>151</v>
+        <v>15</v>
+      </c>
+      <c r="K137">
+        <v>1460000</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -5969,7 +5368,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C138">
         <v>9</v>
@@ -5981,23 +5380,23 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138">
-        <f t="shared" ref="H138:H139" si="45">A138^1.7</f>
+        <f t="shared" si="45"/>
         <v>4236.5871461790475</v>
       </c>
       <c r="I138" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J138" t="s">
-        <v>18</v>
-      </c>
-      <c r="K138" t="s">
-        <v>152</v>
+        <v>15</v>
+      </c>
+      <c r="K138">
+        <v>1470000</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -6005,7 +5404,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C139">
         <v>9</v>
@@ -6017,23 +5416,22 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139">
-        <f t="shared" si="45"/>
-        <v>4289.6806728040556</v>
+        <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J139" t="s">
-        <v>18</v>
-      </c>
-      <c r="K139" t="s">
-        <v>153</v>
+        <v>15</v>
+      </c>
+      <c r="K139">
+        <v>1480000</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -6041,7 +5439,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140">
         <v>9</v>
@@ -6053,22 +5451,23 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <f t="shared" ref="H140:H141" si="46">A140^1.7</f>
+        <v>4343.0461760309054</v>
       </c>
       <c r="I140" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J140" t="s">
-        <v>18</v>
-      </c>
-      <c r="K140" t="s">
-        <v>154</v>
+        <v>15</v>
+      </c>
+      <c r="K140">
+        <v>1490000</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -6076,7 +5475,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C141">
         <v>9</v>
@@ -6088,23 +5487,23 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141">
-        <f t="shared" ref="H141:H142" si="46">A141^1.7</f>
+        <f t="shared" si="46"/>
         <v>4396.6830630935829</v>
       </c>
       <c r="I141" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J141" t="s">
-        <v>18</v>
-      </c>
-      <c r="K141" t="s">
-        <v>155</v>
+        <v>15</v>
+      </c>
+      <c r="K141">
+        <v>1500000</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -6112,7 +5511,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C142">
         <v>9</v>
@@ -6124,23 +5523,22 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142">
-        <f t="shared" si="46"/>
-        <v>4450.5907467840761</v>
+        <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J142" t="s">
-        <v>18</v>
-      </c>
-      <c r="K142" t="s">
-        <v>156</v>
+        <v>15</v>
+      </c>
+      <c r="K142">
+        <v>1510000</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -6148,7 +5546,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C143">
         <v>9</v>
@@ -6160,22 +5558,23 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <f t="shared" ref="H143:H144" si="47">A143^1.7</f>
+        <v>4504.7686453608412</v>
       </c>
       <c r="I143" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>18</v>
-      </c>
-      <c r="K143" t="s">
-        <v>157</v>
+        <v>15</v>
+      </c>
+      <c r="K143">
+        <v>1520000</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -6183,7 +5582,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C144">
         <v>9</v>
@@ -6195,23 +5594,23 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <f t="shared" ref="H144:H145" si="47">A144^1.7</f>
+        <f t="shared" si="47"/>
         <v>4559.2161824593722</v>
       </c>
       <c r="I144" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J144" t="s">
-        <v>18</v>
-      </c>
-      <c r="K144" t="s">
-        <v>158</v>
+        <v>15</v>
+      </c>
+      <c r="K144">
+        <v>1530000</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -6219,7 +5618,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C145">
         <v>9</v>
@@ -6231,23 +5630,22 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145">
-        <f t="shared" si="47"/>
-        <v>4613.9327870049274</v>
+        <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J145" t="s">
-        <v>18</v>
-      </c>
-      <c r="K145" t="s">
-        <v>159</v>
+        <v>15</v>
+      </c>
+      <c r="K145">
+        <v>1540000</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -6255,7 +5653,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C146">
         <v>9</v>
@@ -6267,22 +5665,23 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <f t="shared" ref="H146:H147" si="48">A146^1.7</f>
+        <v>4668.9178931272399</v>
       </c>
       <c r="I146" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J146" t="s">
-        <v>18</v>
-      </c>
-      <c r="K146" t="s">
-        <v>160</v>
+        <v>15</v>
+      </c>
+      <c r="K146">
+        <v>1550000</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -6290,7 +5689,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C147">
         <v>9</v>
@@ -6302,23 +5701,23 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147">
-        <f t="shared" ref="H147:H148" si="48">A147^1.7</f>
+        <f t="shared" si="48"/>
         <v>4724.1709400771433</v>
       </c>
       <c r="I147" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J147" t="s">
-        <v>18</v>
-      </c>
-      <c r="K147" t="s">
-        <v>161</v>
+        <v>15</v>
+      </c>
+      <c r="K147">
+        <v>1560000</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -6326,7 +5725,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C148">
         <v>9</v>
@@ -6338,23 +5737,22 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <f t="shared" si="48"/>
-        <v>4779.691372145182</v>
+        <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J148" t="s">
-        <v>18</v>
-      </c>
-      <c r="K148" t="s">
-        <v>162</v>
+        <v>15</v>
+      </c>
+      <c r="K148">
+        <v>1570000</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -6362,7 +5760,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C149">
         <v>9</v>
@@ -6374,22 +5772,23 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <f t="shared" ref="H149:H150" si="49">A149^1.7</f>
+        <v>4835.4786385820071</v>
       </c>
       <c r="I149" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J149" t="s">
-        <v>18</v>
-      </c>
-      <c r="K149" t="s">
-        <v>163</v>
+        <v>15</v>
+      </c>
+      <c r="K149">
+        <v>1580000</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -6397,7 +5796,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C150">
         <v>9</v>
@@ -6409,23 +5808,23 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <f t="shared" ref="H150:H151" si="49">A150^1.7</f>
+        <f t="shared" si="49"/>
         <v>4891.5321935205848</v>
       </c>
       <c r="I150" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>18</v>
-      </c>
-      <c r="K150" t="s">
-        <v>164</v>
+        <v>15</v>
+      </c>
+      <c r="K150">
+        <v>1590000</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -6433,7 +5832,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C151">
         <v>9</v>
@@ -6445,23 +5844,22 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151">
-        <f t="shared" si="49"/>
-        <v>4947.8514959001413</v>
+        <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J151" t="s">
-        <v>18</v>
-      </c>
-      <c r="K151" t="s">
-        <v>165</v>
+        <v>15</v>
+      </c>
+      <c r="K151">
+        <v>1600000</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -6469,7 +5867,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C152">
         <v>9</v>
@@ -6481,22 +5879,23 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <f t="shared" ref="H152:H153" si="50">A152^1.7</f>
+        <v>5004.4360093917876</v>
       </c>
       <c r="I152" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J152" t="s">
-        <v>18</v>
-      </c>
-      <c r="K152" t="s">
-        <v>166</v>
+        <v>15</v>
+      </c>
+      <c r="K152">
+        <v>1610000</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -6504,7 +5903,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C153">
         <v>9</v>
@@ -6516,23 +5915,23 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G153">
         <v>0</v>
       </c>
       <c r="H153">
-        <f t="shared" ref="H153:H154" si="50">A153^1.7</f>
+        <f t="shared" si="50"/>
         <v>5061.2852023258092</v>
       </c>
       <c r="I153" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J153" t="s">
-        <v>18</v>
-      </c>
-      <c r="K153" t="s">
-        <v>167</v>
+        <v>15</v>
+      </c>
+      <c r="K153">
+        <v>1620000</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -6540,7 +5939,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C154">
         <v>9</v>
@@ -6552,23 +5951,22 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G154">
         <v>0</v>
       </c>
       <c r="H154">
-        <f t="shared" si="50"/>
-        <v>5118.3985476205035</v>
+        <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J154" t="s">
-        <v>18</v>
-      </c>
-      <c r="K154" t="s">
-        <v>168</v>
+        <v>15</v>
+      </c>
+      <c r="K154">
+        <v>1630000</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -6576,7 +5974,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C155">
         <v>9</v>
@@ -6588,22 +5986,23 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <f t="shared" ref="H155:H156" si="51">A155^1.7</f>
+        <v>5175.7755227126281</v>
       </c>
       <c r="I155" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J155" t="s">
-        <v>18</v>
-      </c>
-      <c r="K155" t="s">
-        <v>169</v>
+        <v>15</v>
+      </c>
+      <c r="K155">
+        <v>1640000</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -6611,7 +6010,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C156">
         <v>9</v>
@@ -6623,23 +6022,23 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G156">
         <v>0</v>
       </c>
       <c r="H156">
-        <f t="shared" ref="H156:H157" si="51">A156^1.7</f>
+        <f t="shared" si="51"/>
         <v>5233.415609489286</v>
       </c>
       <c r="I156" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J156" t="s">
-        <v>18</v>
-      </c>
-      <c r="K156" t="s">
-        <v>170</v>
+        <v>15</v>
+      </c>
+      <c r="K156">
+        <v>1650000</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -6647,7 +6046,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C157">
         <v>9</v>
@@ -6659,23 +6058,22 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
       <c r="H157">
-        <f t="shared" si="51"/>
-        <v>5291.3182942213189</v>
+        <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J157" t="s">
-        <v>18</v>
-      </c>
-      <c r="K157" t="s">
-        <v>171</v>
+        <v>15</v>
+      </c>
+      <c r="K157">
+        <v>1660000</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -6683,7 +6081,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C158">
         <v>9</v>
@@ -6695,22 +6093,23 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <f t="shared" ref="H158:H159" si="52">A158^1.7</f>
+        <v>5349.4830674981258</v>
       </c>
       <c r="I158" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J158" t="s">
-        <v>18</v>
-      </c>
-      <c r="K158" t="s">
-        <v>172</v>
+        <v>15</v>
+      </c>
+      <c r="K158">
+        <v>1670000</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -6718,7 +6117,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C159">
         <v>9</v>
@@ -6730,23 +6129,23 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
-        <f t="shared" ref="H159:H160" si="52">A159^1.7</f>
+        <f t="shared" si="52"/>
         <v>5407.909424163814</v>
       </c>
       <c r="I159" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J159" t="s">
-        <v>18</v>
-      </c>
-      <c r="K159" t="s">
-        <v>173</v>
+        <v>15</v>
+      </c>
+      <c r="K159">
+        <v>1680000</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -6754,7 +6153,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C160">
         <v>9</v>
@@ -6766,23 +6165,22 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
-        <f t="shared" si="52"/>
-        <v>5466.5968632547547</v>
+        <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J160" t="s">
-        <v>18</v>
-      </c>
-      <c r="K160" t="s">
-        <v>174</v>
+        <v>15</v>
+      </c>
+      <c r="K160">
+        <v>1690000</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -6790,7 +6188,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C161">
         <v>9</v>
@@ -6802,22 +6200,23 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <f t="shared" ref="H161:H162" si="53">A161^1.7</f>
+        <v>5525.5448879383985</v>
       </c>
       <c r="I161" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J161" t="s">
-        <v>18</v>
-      </c>
-      <c r="K161" t="s">
-        <v>175</v>
+        <v>15</v>
+      </c>
+      <c r="K161">
+        <v>1700000</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
@@ -6825,7 +6224,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C162">
         <v>9</v>
@@ -6837,23 +6236,23 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
       <c r="H162">
-        <f t="shared" ref="H162:H163" si="53">A162^1.7</f>
+        <f t="shared" si="53"/>
         <v>5584.7530054534072</v>
       </c>
       <c r="I162" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J162" t="s">
-        <v>18</v>
-      </c>
-      <c r="K162" t="s">
-        <v>176</v>
+        <v>15</v>
+      </c>
+      <c r="K162">
+        <v>1710000</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
@@ -6861,7 +6260,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C163">
         <v>9</v>
@@ -6873,23 +6272,22 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
-        <f t="shared" si="53"/>
-        <v>5644.2207270509907</v>
+        <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J163" t="s">
-        <v>18</v>
-      </c>
-      <c r="K163" t="s">
-        <v>177</v>
+        <v>15</v>
+      </c>
+      <c r="K163">
+        <v>1720000</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -6897,7 +6295,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C164">
         <v>9</v>
@@ -6909,22 +6307,23 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <f t="shared" ref="H164:H165" si="54">A164^1.7</f>
+        <v>5703.9475679374264</v>
       </c>
       <c r="I164" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J164" t="s">
-        <v>18</v>
-      </c>
-      <c r="K164" t="s">
-        <v>178</v>
+        <v>15</v>
+      </c>
+      <c r="K164">
+        <v>1730000</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -6932,7 +6331,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C165">
         <v>9</v>
@@ -6944,23 +6343,23 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165">
-        <f t="shared" ref="H165:H166" si="54">A165^1.7</f>
+        <f t="shared" si="54"/>
         <v>5763.9330472178581</v>
       </c>
       <c r="I165" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J165" t="s">
-        <v>18</v>
-      </c>
-      <c r="K165" t="s">
-        <v>179</v>
+        <v>15</v>
+      </c>
+      <c r="K165">
+        <v>1740000</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
@@ -6968,7 +6367,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C166">
         <v>9</v>
@@ -6980,23 +6379,22 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G166">
         <v>0</v>
       </c>
       <c r="H166">
-        <f t="shared" si="54"/>
-        <v>5824.1766878410735</v>
+        <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J166" t="s">
-        <v>18</v>
-      </c>
-      <c r="K166" t="s">
-        <v>180</v>
+        <v>15</v>
+      </c>
+      <c r="K166">
+        <v>1750000</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
@@ -7004,7 +6402,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C167">
         <v>9</v>
@@ -7016,22 +6414,23 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <f t="shared" ref="H167:H168" si="55">A167^1.7</f>
+        <v>5884.6780165455402</v>
       </c>
       <c r="I167" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J167" t="s">
-        <v>18</v>
-      </c>
-      <c r="K167" t="s">
-        <v>181</v>
+        <v>15</v>
+      </c>
+      <c r="K167">
+        <v>1760000</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
@@ -7039,7 +6438,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C168">
         <v>9</v>
@@ -7051,23 +6450,23 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G168">
         <v>0</v>
       </c>
       <c r="H168">
-        <f t="shared" ref="H168:H169" si="55">A168^1.7</f>
+        <f t="shared" si="55"/>
         <v>5945.4365638064592</v>
       </c>
       <c r="I168" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J168" t="s">
-        <v>18</v>
-      </c>
-      <c r="K168" t="s">
-        <v>182</v>
+        <v>15</v>
+      </c>
+      <c r="K168">
+        <v>1770000</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
@@ -7075,7 +6474,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C169">
         <v>9</v>
@@ -7087,23 +6486,22 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169">
-        <f t="shared" si="55"/>
-        <v>6006.4518637838619</v>
+        <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J169" t="s">
-        <v>18</v>
-      </c>
-      <c r="K169" t="s">
-        <v>183</v>
+        <v>15</v>
+      </c>
+      <c r="K169">
+        <v>1780000</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
@@ -7111,7 +6509,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C170">
         <v>9</v>
@@ -7123,22 +6521,23 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G170">
         <v>0</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <f t="shared" ref="H170:H171" si="56">A170^1.7</f>
+        <v>6067.7234542717615</v>
       </c>
       <c r="I170" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J170" t="s">
-        <v>18</v>
-      </c>
-      <c r="K170" t="s">
-        <v>184</v>
+        <v>15</v>
+      </c>
+      <c r="K170">
+        <v>1790000</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
@@ -7146,7 +6545,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C171">
         <v>9</v>
@@ -7158,23 +6557,23 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171">
-        <f t="shared" ref="H171:H172" si="56">A171^1.7</f>
+        <f t="shared" si="56"/>
         <v>6129.2508766483188</v>
       </c>
       <c r="I171" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J171" t="s">
-        <v>18</v>
-      </c>
-      <c r="K171" t="s">
-        <v>185</v>
+        <v>15</v>
+      </c>
+      <c r="K171">
+        <v>1800000</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
@@ -7182,7 +6581,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C172">
         <v>9</v>
@@ -7194,23 +6593,22 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
       <c r="H172">
-        <f t="shared" si="56"/>
-        <v>6191.0336758269123</v>
+        <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J172" t="s">
-        <v>18</v>
-      </c>
-      <c r="K172" t="s">
-        <v>186</v>
+        <v>15</v>
+      </c>
+      <c r="K172">
+        <v>1810000</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
@@ -7218,7 +6616,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C173">
         <v>9</v>
@@ -7230,22 +6628,23 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G173">
         <v>0</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <f t="shared" ref="H173:H174" si="57">A173^1.7</f>
+        <v>6253.0714002082559</v>
       </c>
       <c r="I173" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J173" t="s">
-        <v>18</v>
-      </c>
-      <c r="K173" t="s">
-        <v>187</v>
+        <v>15</v>
+      </c>
+      <c r="K173">
+        <v>1820000</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -7253,7 +6652,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C174">
         <v>9</v>
@@ -7265,23 +6664,23 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G174">
         <v>0</v>
       </c>
       <c r="H174">
-        <f t="shared" ref="H174:H175" si="57">A174^1.7</f>
+        <f t="shared" si="57"/>
         <v>6315.3636016333558</v>
       </c>
       <c r="I174" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J174" t="s">
-        <v>18</v>
-      </c>
-      <c r="K174" t="s">
-        <v>188</v>
+        <v>15</v>
+      </c>
+      <c r="K174">
+        <v>1830000</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
@@ -7289,7 +6688,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C175">
         <v>9</v>
@@ -7301,23 +6700,22 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G175">
         <v>0</v>
       </c>
       <c r="H175">
-        <f t="shared" si="57"/>
-        <v>6377.9098353374702</v>
+        <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J175" t="s">
-        <v>18</v>
-      </c>
-      <c r="K175" t="s">
-        <v>189</v>
+        <v>15</v>
+      </c>
+      <c r="K175">
+        <v>1840000</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -7325,7 +6723,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C176">
         <v>9</v>
@@ -7337,22 +6735,23 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G176">
         <v>0</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <f t="shared" ref="H176:H177" si="58">A176^1.7</f>
+        <v>6440.7096599048091</v>
       </c>
       <c r="I176" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J176" t="s">
-        <v>18</v>
-      </c>
-      <c r="K176" t="s">
-        <v>190</v>
+        <v>15</v>
+      </c>
+      <c r="K176">
+        <v>1850000</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -7360,7 +6759,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C177">
         <v>9</v>
@@ -7372,23 +6771,23 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G177">
         <v>0</v>
       </c>
       <c r="H177">
-        <f t="shared" ref="H177:H178" si="58">A177^1.7</f>
+        <f t="shared" si="58"/>
         <v>6503.7626372242648</v>
       </c>
       <c r="I177" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J177" t="s">
-        <v>18</v>
-      </c>
-      <c r="K177" t="s">
-        <v>191</v>
+        <v>15</v>
+      </c>
+      <c r="K177">
+        <v>1860000</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -7396,7 +6795,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C178">
         <v>9</v>
@@ -7408,23 +6807,22 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
       <c r="H178">
-        <f t="shared" si="58"/>
-        <v>6567.0683324458123</v>
+        <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J178" t="s">
-        <v>18</v>
-      </c>
-      <c r="K178" t="s">
-        <v>192</v>
+        <v>15</v>
+      </c>
+      <c r="K178">
+        <v>1870000</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -7432,7 +6830,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C179">
         <v>9</v>
@@ -7444,22 +6842,23 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <f t="shared" ref="H179:H180" si="59">A179^1.7</f>
+        <v>6630.6263139378634</v>
       </c>
       <c r="I179" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J179" t="s">
-        <v>18</v>
-      </c>
-      <c r="K179" t="s">
-        <v>193</v>
+        <v>15</v>
+      </c>
+      <c r="K179">
+        <v>1880000</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -7467,7 +6866,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C180">
         <v>9</v>
@@ -7479,23 +6878,23 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
       <c r="H180">
-        <f t="shared" ref="H180:H181" si="59">A180^1.7</f>
+        <f t="shared" si="59"/>
         <v>6694.4361532453249</v>
       </c>
       <c r="I180" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J180" t="s">
-        <v>18</v>
-      </c>
-      <c r="K180" t="s">
-        <v>194</v>
+        <v>15</v>
+      </c>
+      <c r="K180">
+        <v>1890000</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -7503,7 +6902,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C181">
         <v>9</v>
@@ -7515,23 +6914,22 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
-        <f t="shared" si="59"/>
-        <v>6758.4974250484856</v>
+        <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J181" t="s">
-        <v>18</v>
-      </c>
-      <c r="K181" t="s">
-        <v>195</v>
+        <v>15</v>
+      </c>
+      <c r="K181">
+        <v>1900000</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
@@ -7539,7 +6937,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C182">
         <v>9</v>
@@ -7551,22 +6949,23 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <f t="shared" ref="H182:H183" si="60">A182^1.7</f>
+        <v>6822.8097071226812</v>
       </c>
       <c r="I182" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J182" t="s">
-        <v>18</v>
-      </c>
-      <c r="K182" t="s">
-        <v>196</v>
+        <v>15</v>
+      </c>
+      <c r="K182">
+        <v>1910000</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -7574,7 +6973,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C183">
         <v>9</v>
@@ -7586,23 +6985,23 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G183">
         <v>0</v>
       </c>
       <c r="H183">
-        <f t="shared" ref="H183:H184" si="60">A183^1.7</f>
+        <f t="shared" si="60"/>
         <v>6887.3725802985846</v>
       </c>
       <c r="I183" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J183" t="s">
-        <v>18</v>
-      </c>
-      <c r="K183" t="s">
-        <v>197</v>
+        <v>15</v>
+      </c>
+      <c r="K183">
+        <v>1920000</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -7610,7 +7009,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C184">
         <v>9</v>
@@ -7622,23 +7021,22 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G184">
         <v>0</v>
       </c>
       <c r="H184">
-        <f t="shared" si="60"/>
-        <v>6952.1856284233927</v>
+        <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J184" t="s">
-        <v>18</v>
-      </c>
-      <c r="K184" t="s">
-        <v>198</v>
+        <v>15</v>
+      </c>
+      <c r="K184">
+        <v>1930000</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
@@ -7646,7 +7044,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C185">
         <v>9</v>
@@ -7658,22 +7056,23 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G185">
         <v>0</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <f t="shared" ref="H185:H186" si="61">A185^1.7</f>
+        <v>7017.2484383226147</v>
       </c>
       <c r="I185" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J185" t="s">
-        <v>18</v>
-      </c>
-      <c r="K185" t="s">
-        <v>199</v>
+        <v>15</v>
+      </c>
+      <c r="K185">
+        <v>1940000</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -7681,7 +7080,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C186">
         <v>9</v>
@@ -7693,23 +7092,23 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G186">
         <v>0</v>
       </c>
       <c r="H186">
-        <f t="shared" ref="H186:H187" si="61">A186^1.7</f>
+        <f t="shared" si="61"/>
         <v>7082.5605997625062</v>
       </c>
       <c r="I186" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J186" t="s">
-        <v>18</v>
-      </c>
-      <c r="K186" t="s">
-        <v>200</v>
+        <v>15</v>
+      </c>
+      <c r="K186">
+        <v>1950000</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
@@ -7717,7 +7116,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C187">
         <v>9</v>
@@ -7729,23 +7128,22 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <f t="shared" si="61"/>
-        <v>7148.1217054132967</v>
+        <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J187" t="s">
-        <v>18</v>
-      </c>
-      <c r="K187" t="s">
-        <v>201</v>
+        <v>15</v>
+      </c>
+      <c r="K187">
+        <v>1960000</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
@@ -7753,7 +7151,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C188">
         <v>9</v>
@@ -7765,22 +7163,23 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G188">
         <v>0</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <f t="shared" ref="H188:H189" si="62">A188^1.7</f>
+        <v>7213.9313508130244</v>
       </c>
       <c r="I188" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J188" t="s">
-        <v>18</v>
-      </c>
-      <c r="K188" t="s">
-        <v>202</v>
+        <v>15</v>
+      </c>
+      <c r="K188">
+        <v>1970000</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
@@ -7788,7 +7187,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C189">
         <v>9</v>
@@ -7800,23 +7199,23 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G189">
         <v>0</v>
       </c>
       <c r="H189">
-        <f t="shared" ref="H189:H190" si="62">A189^1.7</f>
+        <f t="shared" si="62"/>
         <v>7279.9891343319496</v>
       </c>
       <c r="I189" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J189" t="s">
-        <v>18</v>
-      </c>
-      <c r="K189" t="s">
-        <v>203</v>
+        <v>15</v>
+      </c>
+      <c r="K189">
+        <v>1980000</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
@@ -7824,7 +7223,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C190">
         <v>9</v>
@@ -7836,23 +7235,22 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G190">
         <v>0</v>
       </c>
       <c r="H190">
-        <f t="shared" si="62"/>
-        <v>7346.2946571377115</v>
+        <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J190" t="s">
-        <v>18</v>
-      </c>
-      <c r="K190" t="s">
-        <v>204</v>
+        <v>15</v>
+      </c>
+      <c r="K190">
+        <v>1990000</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
@@ -7860,7 +7258,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C191">
         <v>9</v>
@@ -7872,22 +7270,23 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G191">
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <f t="shared" ref="H191:H192" si="63">A191^1.7</f>
+        <v>7412.8475231610173</v>
       </c>
       <c r="I191" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J191" t="s">
-        <v>18</v>
-      </c>
-      <c r="K191" t="s">
-        <v>205</v>
+        <v>15</v>
+      </c>
+      <c r="K191">
+        <v>2000000</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
@@ -7895,7 +7294,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C192">
         <v>9</v>
@@ -7907,23 +7306,23 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G192">
         <v>0</v>
       </c>
       <c r="H192">
-        <f t="shared" ref="H192:H193" si="63">A192^1.7</f>
+        <f t="shared" si="63"/>
         <v>7479.6473390619312</v>
       </c>
       <c r="I192" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J192" t="s">
-        <v>18</v>
-      </c>
-      <c r="K192" t="s">
-        <v>206</v>
+        <v>15</v>
+      </c>
+      <c r="K192">
+        <v>2010000</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
@@ -7931,7 +7330,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C193">
         <v>9</v>
@@ -7943,23 +7342,22 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193">
-        <f t="shared" si="63"/>
-        <v>7546.6937141968347</v>
+        <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J193" t="s">
-        <v>18</v>
-      </c>
-      <c r="K193" t="s">
-        <v>207</v>
+        <v>15</v>
+      </c>
+      <c r="K193">
+        <v>2020000</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
@@ -7967,7 +7365,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C194">
         <v>9</v>
@@ -7979,22 +7377,23 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G194">
         <v>0</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <f t="shared" ref="H194:H195" si="64">A194^1.7</f>
+        <v>7613.9862605858343</v>
       </c>
       <c r="I194" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J194" t="s">
-        <v>18</v>
-      </c>
-      <c r="K194" t="s">
-        <v>208</v>
+        <v>15</v>
+      </c>
+      <c r="K194">
+        <v>2030000</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
@@ -8002,7 +7401,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C195">
         <v>9</v>
@@ -8014,23 +7413,23 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G195">
         <v>0</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H196" si="64">A195^1.7</f>
+        <f t="shared" si="64"/>
         <v>7681.5245928808208</v>
       </c>
       <c r="I195" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J195" t="s">
-        <v>18</v>
-      </c>
-      <c r="K195" t="s">
-        <v>209</v>
+        <v>15</v>
+      </c>
+      <c r="K195">
+        <v>2040000</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
@@ -8038,7 +7437,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C196">
         <v>9</v>
@@ -8050,23 +7449,22 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G196">
         <v>0</v>
       </c>
       <c r="H196">
-        <f t="shared" si="64"/>
-        <v>7749.3083283340302</v>
+        <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J196" t="s">
-        <v>18</v>
-      </c>
-      <c r="K196" t="s">
-        <v>210</v>
+        <v>15</v>
+      </c>
+      <c r="K196">
+        <v>2050000</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
@@ -8074,7 +7472,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C197">
         <v>9</v>
@@ -8086,22 +7484,23 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G197">
         <v>0</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <f t="shared" ref="H197:H198" si="65">A197^1.7</f>
+        <v>7817.3370867672156</v>
       </c>
       <c r="I197" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J197" t="s">
-        <v>18</v>
-      </c>
-      <c r="K197" t="s">
-        <v>211</v>
+        <v>15</v>
+      </c>
+      <c r="K197">
+        <v>2060000</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
@@ -8109,7 +7508,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C198">
         <v>9</v>
@@ -8121,23 +7520,23 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G198">
         <v>0</v>
       </c>
       <c r="H198">
-        <f t="shared" ref="H198:H199" si="65">A198^1.7</f>
+        <f t="shared" si="65"/>
         <v>7885.610490541203</v>
       </c>
       <c r="I198" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J198" t="s">
-        <v>18</v>
-      </c>
-      <c r="K198" t="s">
-        <v>212</v>
+        <v>15</v>
+      </c>
+      <c r="K198">
+        <v>2070000</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
@@ -8145,7 +7544,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C199">
         <v>9</v>
@@ -8157,23 +7556,22 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G199">
         <v>0</v>
       </c>
       <c r="H199">
-        <f t="shared" si="65"/>
-        <v>7954.1281645261133</v>
+        <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J199" t="s">
-        <v>18</v>
-      </c>
-      <c r="K199" t="s">
-        <v>213</v>
+        <v>15</v>
+      </c>
+      <c r="K199">
+        <v>2080000</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
@@ -8181,7 +7579,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C200">
         <v>9</v>
@@ -8193,58 +7591,23 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G200">
         <v>0</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <f t="shared" ref="H200" si="66">A200^1.7</f>
+        <v>8022.8897360719584</v>
       </c>
       <c r="I200" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J200" t="s">
-        <v>18</v>
-      </c>
-      <c r="K200" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A201">
-        <v>199</v>
-      </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-      <c r="C201">
-        <v>9</v>
-      </c>
-      <c r="D201">
-        <v>8</v>
-      </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-      <c r="F201">
-        <v>198</v>
-      </c>
-      <c r="G201">
-        <v>0</v>
-      </c>
-      <c r="H201">
-        <f t="shared" ref="H201" si="66">A201^1.7</f>
-        <v>8091.8948349798275</v>
-      </c>
-      <c r="I201" t="s">
-        <v>17</v>
-      </c>
-      <c r="J201" t="s">
-        <v>18</v>
-      </c>
-      <c r="K201" t="s">
-        <v>215</v>
+        <v>15</v>
+      </c>
+      <c r="K200">
+        <v>2090000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AA1CFA-D465-463F-B30A-2C00F8BAF77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E9E80D-0AA7-4626-A4CB-4A9BA68B5B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="705" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4485" yWindow="945" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -535,8 +535,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>A2^1.7</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -571,8 +570,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3" si="0">A3^1.7</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -607,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -642,8 +640,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H6" si="1">A5^1.7</f>
-        <v>6.4730078399237803</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -678,8 +675,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>10.556063286183152</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
@@ -714,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -749,8 +745,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H9" si="2">A8^1.7</f>
-        <v>21.030864518443156</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -785,8 +780,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
-        <v>27.331701439859053</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -821,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -856,8 +850,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H12" si="3">A11^1.7</f>
-        <v>41.899830495714724</v>
+        <v>100</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -892,8 +885,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
-        <v>50.118723362727238</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
@@ -928,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -963,8 +955,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H15" si="4">A14^1.7</f>
-        <v>68.329480410195131</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
@@ -999,8 +990,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="4"/>
-        <v>78.289532356812032</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -1035,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
         <v>14</v>
@@ -1070,8 +1060,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H18" si="5">A17^1.7</f>
-        <v>99.851625772126908</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
@@ -1106,8 +1095,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" si="5"/>
-        <v>111.43047210190386</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
         <v>14</v>
@@ -1142,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
         <v>14</v>
@@ -1177,8 +1165,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:H21" si="6">A20^1.7</f>
-        <v>136.13295090825736</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
         <v>14</v>
@@ -1213,8 +1200,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
-        <v>149.23858464887533</v>
+        <v>100</v>
       </c>
       <c r="I21" t="s">
         <v>14</v>
@@ -1249,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" t="s">
         <v>14</v>
@@ -1284,8 +1270,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H24" si="7">A23^1.7</f>
-        <v>176.91831769866374</v>
+        <v>100</v>
       </c>
       <c r="I23" t="s">
         <v>14</v>
@@ -1320,8 +1305,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <f t="shared" si="7"/>
-        <v>191.47785662026743</v>
+        <v>100</v>
       </c>
       <c r="I24" t="s">
         <v>14</v>
@@ -1356,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I25" t="s">
         <v>14</v>
@@ -1391,8 +1375,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H27" si="8">A26^1.7</f>
-        <v>222.00313681982982</v>
+        <v>100</v>
       </c>
       <c r="I26" t="s">
         <v>14</v>
@@ -1427,8 +1410,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="8"/>
-        <v>237.95674233948461</v>
+        <v>100</v>
       </c>
       <c r="I27" t="s">
         <v>14</v>
@@ -1463,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I28" t="s">
         <v>14</v>
@@ -1498,8 +1480,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:H30" si="9">A29^1.7</f>
-        <v>271.21793129023882</v>
+        <v>100</v>
       </c>
       <c r="I29" t="s">
         <v>14</v>
@@ -1534,8 +1515,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="9"/>
-        <v>288.51517011821539</v>
+        <v>100</v>
       </c>
       <c r="I30" t="s">
         <v>14</v>
@@ -1570,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I31" t="s">
         <v>14</v>
@@ -1605,8 +1585,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32:H33" si="10">A32^1.7</f>
-        <v>324.41888925390452</v>
+        <v>100</v>
       </c>
       <c r="I32" t="s">
         <v>14</v>
@@ -1641,8 +1620,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="10"/>
-        <v>343.01639594923512</v>
+        <v>100</v>
       </c>
       <c r="I33" t="s">
         <v>14</v>
@@ -1677,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I34" t="s">
         <v>14</v>
@@ -1712,8 +1690,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:H36" si="11">A35^1.7</f>
-        <v>381.48168987709653</v>
+        <v>100</v>
       </c>
       <c r="I35" t="s">
         <v>14</v>
@@ -1748,8 +1725,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="11"/>
-        <v>401.34158268303719</v>
+        <v>100</v>
       </c>
       <c r="I36" t="s">
         <v>14</v>
@@ -1784,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I37" t="s">
         <v>14</v>
@@ -1819,8 +1795,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H39" si="12">A38^1.7</f>
-        <v>442.29726239311128</v>
+        <v>100</v>
       </c>
       <c r="I38" t="s">
         <v>14</v>
@@ -1855,8 +1830,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="12"/>
-        <v>463.38602383363093</v>
+        <v>100</v>
       </c>
       <c r="I39" t="s">
         <v>14</v>
@@ -1891,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I40" t="s">
         <v>14</v>
@@ -1926,8 +1900,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41:H42" si="13">A41^1.7</f>
-        <v>506.76875672961057</v>
+        <v>100</v>
       </c>
       <c r="I41" t="s">
         <v>14</v>
@@ -1962,8 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" si="13"/>
-        <v>529.0564156396548</v>
+        <v>100</v>
       </c>
       <c r="I42" t="s">
         <v>14</v>
@@ -1998,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" t="s">
         <v>14</v>
@@ -2033,8 +2005,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <f t="shared" ref="H44:H45" si="14">A44^1.7</f>
-        <v>574.80931004021375</v>
+        <v>100</v>
       </c>
       <c r="I44" t="s">
         <v>14</v>
@@ -2069,8 +2040,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <f t="shared" si="14"/>
-        <v>598.26882715827799</v>
+        <v>100</v>
       </c>
       <c r="I45" t="s">
         <v>14</v>
@@ -2105,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" t="s">
         <v>14</v>
@@ -2140,8 +2110,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47:H48" si="15">A47^1.7</f>
-        <v>646.34035645211259</v>
+        <v>100</v>
       </c>
       <c r="I47" t="s">
         <v>14</v>
@@ -2176,8 +2145,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <f t="shared" si="15"/>
-        <v>670.9471521483656</v>
+        <v>100</v>
       </c>
       <c r="I48" t="s">
         <v>14</v>
@@ -2212,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I49" t="s">
         <v>14</v>
@@ -2247,8 +2215,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <f t="shared" ref="H50:H51" si="16">A50^1.7</f>
-        <v>721.29031952203206</v>
+        <v>100</v>
       </c>
       <c r="I50" t="s">
         <v>14</v>
@@ -2283,8 +2250,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <f t="shared" si="16"/>
-        <v>747.02190359759345</v>
+        <v>100</v>
       </c>
       <c r="I51" t="s">
         <v>14</v>
@@ -2319,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" t="s">
         <v>14</v>
@@ -2354,8 +2320,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <f t="shared" ref="H53:H54" si="17">A53^1.7</f>
-        <v>799.59358164064497</v>
+        <v>100</v>
       </c>
       <c r="I53" t="s">
         <v>14</v>
@@ -2390,8 +2355,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" si="17"/>
-        <v>826.42925820419191</v>
+        <v>100</v>
       </c>
       <c r="I54" t="s">
         <v>14</v>
@@ -2426,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I55" t="s">
         <v>14</v>
@@ -2461,8 +2425,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <f t="shared" ref="H56:H57" si="18">A56^1.7</f>
-        <v>881.18965850110931</v>
+        <v>100</v>
       </c>
       <c r="I56" t="s">
         <v>14</v>
@@ -2497,8 +2460,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <f t="shared" si="18"/>
-        <v>909.1102872223363</v>
+        <v>100</v>
       </c>
       <c r="I57" t="s">
         <v>14</v>
@@ -2533,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" t="s">
         <v>14</v>
@@ -2568,8 +2530,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <f t="shared" ref="H59:H60" si="19">A59^1.7</f>
-        <v>966.02252845129919</v>
+        <v>100</v>
       </c>
       <c r="I59" t="s">
         <v>14</v>
@@ -2604,8 +2565,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <f t="shared" si="19"/>
-        <v>995.01032892007913</v>
+        <v>100</v>
       </c>
       <c r="I60" t="s">
         <v>14</v>
@@ -2640,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" t="s">
         <v>14</v>
@@ -2675,8 +2635,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <f t="shared" ref="H62:H63" si="20">A62^1.7</f>
-        <v>1054.0400808788479</v>
+        <v>100</v>
       </c>
       <c r="I62" t="s">
         <v>14</v>
@@ -2711,8 +2670,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <f t="shared" si="20"/>
-        <v>1084.0784704511104</v>
+        <v>100</v>
       </c>
       <c r="I63" t="s">
         <v>14</v>
@@ -2747,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I64" t="s">
         <v>14</v>
@@ -2782,8 +2740,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <f t="shared" ref="H65:H66" si="21">A65^1.7</f>
-        <v>1145.193657489576</v>
+        <v>100</v>
       </c>
       <c r="I65" t="s">
         <v>14</v>
@@ -2818,8 +2775,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" si="21"/>
-        <v>1176.2671155169628</v>
+        <v>100</v>
       </c>
       <c r="I66" t="s">
         <v>14</v>
@@ -2854,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I67" t="s">
         <v>14</v>
@@ -2889,8 +2845,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H69" si="22">A68^1.7</f>
-        <v>1239.4376670747909</v>
+        <v>100</v>
       </c>
       <c r="I68" t="s">
         <v>14</v>
@@ -2925,8 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <f t="shared" si="22"/>
-        <v>1271.5316201854528</v>
+        <v>100</v>
       </c>
       <c r="I69" t="s">
         <v>14</v>
@@ -2961,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I70" t="s">
         <v>14</v>
@@ -2996,8 +2950,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" ref="H71:H72" si="23">A71^1.7</f>
-        <v>1336.7292591298626</v>
+        <v>100</v>
       </c>
       <c r="I71" t="s">
         <v>14</v>
@@ -3032,8 +2985,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" si="23"/>
-        <v>1369.8299834969496</v>
+        <v>100</v>
       </c>
       <c r="I72" t="s">
         <v>14</v>
@@ -3068,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I73" t="s">
         <v>14</v>
@@ -3103,8 +3055,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <f t="shared" ref="H74:H75" si="24">A74^1.7</f>
-        <v>1437.0280451224294</v>
+        <v>100</v>
       </c>
       <c r="I74" t="s">
         <v>14</v>
@@ -3139,8 +3090,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <f t="shared" si="24"/>
-        <v>1471.1225825823592</v>
+        <v>100</v>
       </c>
       <c r="I75" t="s">
         <v>14</v>
@@ -3175,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I76" t="s">
         <v>14</v>
@@ -3210,8 +3160,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" ref="H77:H78" si="25">A77^1.7</f>
-        <v>1540.2958587262062</v>
+        <v>100</v>
       </c>
       <c r="I77" t="s">
         <v>14</v>
@@ -3246,8 +3195,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" si="25"/>
-        <v>1575.3719442939303</v>
+        <v>100</v>
       </c>
       <c r="I78" t="s">
         <v>14</v>
@@ -3282,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I79" t="s">
         <v>14</v>
@@ -3317,8 +3265,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" ref="H80:H81" si="26">A80^1.7</f>
-        <v>1646.4965482083855</v>
+        <v>100</v>
       </c>
       <c r="I80" t="s">
         <v>14</v>
@@ -3353,8 +3300,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" si="26"/>
-        <v>1682.5425470512334</v>
+        <v>100</v>
       </c>
       <c r="I81" t="s">
         <v>14</v>
@@ -3389,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I82" t="s">
         <v>14</v>
@@ -3424,8 +3370,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" ref="H83:H84" si="27">A83^1.7</f>
-        <v>1755.5957955696258</v>
+        <v>100</v>
       </c>
       <c r="I83" t="s">
         <v>14</v>
@@ -3460,8 +3405,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" si="27"/>
-        <v>1792.6006478923086</v>
+        <v>100</v>
       </c>
       <c r="I84" t="s">
         <v>14</v>
@@ -3496,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I85" t="s">
         <v>14</v>
@@ -3531,8 +3475,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <f t="shared" ref="H86:H87" si="28">A86^1.7</f>
-        <v>1867.5609581121505</v>
+        <v>100</v>
       </c>
       <c r="I86" t="s">
         <v>14</v>
@@ -3567,8 +3510,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <f t="shared" si="28"/>
-        <v>1905.5141307061374</v>
+        <v>100</v>
       </c>
       <c r="I87" t="s">
         <v>14</v>
@@ -3603,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I88" t="s">
         <v>14</v>
@@ -3638,8 +3580,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <f t="shared" ref="H89:H90" si="29">A89^1.7</f>
-        <v>1982.3609289421117</v>
+        <v>100</v>
       </c>
       <c r="I89" t="s">
         <v>14</v>
@@ -3674,8 +3615,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <f t="shared" si="29"/>
-        <v>2021.2523723862475</v>
+        <v>100</v>
       </c>
       <c r="I90" t="s">
         <v>14</v>
@@ -3710,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I91" t="s">
         <v>14</v>
@@ -3745,8 +3685,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <f t="shared" ref="H92:H93" si="30">A92^1.7</f>
-        <v>2099.9660135598879</v>
+        <v>100</v>
       </c>
       <c r="I92" t="s">
         <v>14</v>
@@ -3781,8 +3720,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" si="30"/>
-        <v>2139.7861242425706</v>
+        <v>100</v>
       </c>
       <c r="I93" t="s">
         <v>14</v>
@@ -3817,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I94" t="s">
         <v>14</v>
@@ -3852,8 +3790,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <f t="shared" ref="H95:H96" si="31">A95^1.7</f>
-        <v>2220.3478202017995</v>
+        <v>100</v>
       </c>
       <c r="I95" t="s">
         <v>14</v>
@@ -3888,8 +3825,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <f t="shared" si="31"/>
-        <v>2261.0874064801746</v>
+        <v>100</v>
       </c>
       <c r="I96" t="s">
         <v>14</v>
@@ -3924,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I97" t="s">
         <v>14</v>
@@ -3959,8 +3895,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <f t="shared" ref="H98:H99" si="32">A98^1.7</f>
-        <v>2343.4791620012998</v>
+        <v>100</v>
       </c>
       <c r="I98" t="s">
         <v>14</v>
@@ -3995,8 +3930,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <f t="shared" si="32"/>
-        <v>2385.129413928918</v>
+        <v>100</v>
       </c>
       <c r="I99" t="s">
         <v>14</v>
@@ -4031,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" t="s">
         <v>14</v>
@@ -4066,8 +4000,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <f t="shared" ref="H101:H102" si="33">A101^1.7</f>
-        <v>2469.3339693618173</v>
+        <v>100</v>
       </c>
       <c r="I101" t="s">
         <v>14</v>
@@ -4102,8 +4035,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <f t="shared" si="33"/>
-        <v>2511.8864315095811</v>
+        <v>100</v>
       </c>
       <c r="I102" t="s">
         <v>14</v>
@@ -4138,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I103" t="s">
         <v>14</v>
@@ -4173,8 +4105,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <f t="shared" ref="H104:H105" si="34">A104^1.7</f>
-        <v>2597.8872111947144</v>
+        <v>100</v>
       </c>
       <c r="I104" t="s">
         <v>14</v>
@@ -4209,8 +4140,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <f t="shared" si="34"/>
-        <v>2641.3337581655501</v>
+        <v>100</v>
       </c>
       <c r="I105" t="s">
         <v>14</v>
@@ -4245,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I106" t="s">
         <v>14</v>
@@ -4280,8 +4210,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <f t="shared" ref="H107:H108" si="35">A107^1.7</f>
-        <v>2729.1148238883047</v>
+        <v>100</v>
       </c>
       <c r="I107" t="s">
         <v>14</v>
@@ -4316,8 +4245,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <f t="shared" si="35"/>
-        <v>2773.4476381877894</v>
+        <v>100</v>
       </c>
       <c r="I108" t="s">
         <v>14</v>
@@ -4352,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I109" t="s">
         <v>14</v>
@@ -4387,8 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <f t="shared" ref="H110:H111" si="36">A110^1.7</f>
-        <v>2862.9936470474358</v>
+        <v>100</v>
       </c>
       <c r="I110" t="s">
         <v>14</v>
@@ -4423,8 +4350,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <f t="shared" si="36"/>
-        <v>2908.2051990233308</v>
+        <v>100</v>
       </c>
       <c r="I111" t="s">
         <v>14</v>
@@ -4459,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I112" t="s">
         <v>14</v>
@@ -4494,8 +4420,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <f t="shared" ref="H113:H114" si="37">A113^1.7</f>
-        <v>2999.5013651862023</v>
+        <v>100</v>
       </c>
       <c r="I113" t="s">
         <v>14</v>
@@ -4530,8 +4455,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <f t="shared" si="37"/>
-        <v>3045.5843947917783</v>
+        <v>100</v>
       </c>
       <c r="I114" t="s">
         <v>14</v>
@@ -4566,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I115" t="s">
         <v>14</v>
@@ -4601,8 +4525,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <f t="shared" ref="H116:H117" si="38">A116^1.7</f>
-        <v>3138.6164546747077</v>
+        <v>100</v>
       </c>
       <c r="I116" t="s">
         <v>14</v>
@@ -4637,8 +4560,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <f t="shared" si="38"/>
-        <v>3185.5639548455547</v>
+        <v>100</v>
       </c>
       <c r="I117" t="s">
         <v>14</v>
@@ -4673,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I118" t="s">
         <v>14</v>
@@ -4708,8 +4630,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <f t="shared" ref="H119:H120" si="39">A119^1.7</f>
-        <v>3280.3181353391979</v>
+        <v>100</v>
       </c>
       <c r="I119" t="s">
         <v>14</v>
@@ -4744,8 +4665,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <f t="shared" si="39"/>
-        <v>3328.1233368023618</v>
+        <v>100</v>
       </c>
       <c r="I120" t="s">
         <v>14</v>
@@ -4780,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I121" t="s">
         <v>14</v>
@@ -4815,8 +4735,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <f t="shared" ref="H122:H123" si="40">A122^1.7</f>
-        <v>3424.5863261974555</v>
+        <v>100</v>
       </c>
       <c r="I122" t="s">
         <v>14</v>
@@ -4851,8 +4770,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <f t="shared" si="40"/>
-        <v>3473.2426835561828</v>
+        <v>100</v>
       </c>
       <c r="I123" t="s">
         <v>14</v>
@@ -4887,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I124" t="s">
         <v>14</v>
@@ -4922,8 +4840,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <f t="shared" ref="H125:H126" si="41">A125^1.7</f>
-        <v>3571.4016048806784</v>
+        <v>100</v>
       </c>
       <c r="I125" t="s">
         <v>14</v>
@@ -4958,8 +4875,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <f t="shared" si="41"/>
-        <v>3620.9027838385891</v>
+        <v>100</v>
       </c>
       <c r="I126" t="s">
         <v>14</v>
@@ -4994,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I127" t="s">
         <v>14</v>
@@ -5029,8 +4945,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <f t="shared" ref="H128:H129" si="42">A128^1.7</f>
-        <v>3720.7451703514776</v>
+        <v>100</v>
       </c>
       <c r="I128" t="s">
         <v>14</v>
@@ -5065,8 +4980,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <f t="shared" si="42"/>
-        <v>3771.0850359575875</v>
+        <v>100</v>
       </c>
       <c r="I129" t="s">
         <v>14</v>
@@ -5101,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I130" t="s">
         <v>14</v>
@@ -5136,8 +5050,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H132" si="43">A131^1.7</f>
-        <v>3872.5988085775407</v>
+        <v>100</v>
       </c>
       <c r="I131" t="s">
         <v>14</v>
@@ -5172,8 +5085,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <f t="shared" si="43"/>
-        <v>3923.7714143883404</v>
+        <v>100</v>
       </c>
       <c r="I132" t="s">
         <v>14</v>
@@ -5208,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I133" t="s">
         <v>14</v>
@@ -5243,8 +5155,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <f t="shared" ref="H134:H135" si="44">A134^1.7</f>
-        <v>4026.9448608627245</v>
+        <v>100</v>
       </c>
       <c r="I134" t="s">
         <v>14</v>
@@ -5279,8 +5190,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <f t="shared" si="44"/>
-        <v>4078.9444389301948</v>
+        <v>100</v>
       </c>
       <c r="I135" t="s">
         <v>14</v>
@@ -5315,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I136" t="s">
         <v>14</v>
@@ -5350,8 +5260,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <f t="shared" ref="H137:H138" si="45">A137^1.7</f>
-        <v>4183.7661945736572</v>
+        <v>100</v>
       </c>
       <c r="I137" t="s">
         <v>14</v>
@@ -5386,8 +5295,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <f t="shared" si="45"/>
-        <v>4236.5871461790475</v>
+        <v>100</v>
       </c>
       <c r="I138" t="s">
         <v>14</v>
@@ -5422,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I139" t="s">
         <v>14</v>
@@ -5457,8 +5365,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <f t="shared" ref="H140:H141" si="46">A140^1.7</f>
-        <v>4343.0461760309054</v>
+        <v>100</v>
       </c>
       <c r="I140" t="s">
         <v>14</v>
@@ -5493,8 +5400,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <f t="shared" si="46"/>
-        <v>4396.6830630935829</v>
+        <v>100</v>
       </c>
       <c r="I141" t="s">
         <v>14</v>
@@ -5529,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I142" t="s">
         <v>14</v>
@@ -5564,8 +5470,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <f t="shared" ref="H143:H144" si="47">A143^1.7</f>
-        <v>4504.7686453608412</v>
+        <v>100</v>
       </c>
       <c r="I143" t="s">
         <v>14</v>
@@ -5600,8 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <f t="shared" si="47"/>
-        <v>4559.2161824593722</v>
+        <v>100</v>
       </c>
       <c r="I144" t="s">
         <v>14</v>
@@ -5636,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I145" t="s">
         <v>14</v>
@@ -5671,8 +5575,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <f t="shared" ref="H146:H147" si="48">A146^1.7</f>
-        <v>4668.9178931272399</v>
+        <v>100</v>
       </c>
       <c r="I146" t="s">
         <v>14</v>
@@ -5707,8 +5610,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <f t="shared" si="48"/>
-        <v>4724.1709400771433</v>
+        <v>100</v>
       </c>
       <c r="I147" t="s">
         <v>14</v>
@@ -5743,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I148" t="s">
         <v>14</v>
@@ -5778,8 +5680,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <f t="shared" ref="H149:H150" si="49">A149^1.7</f>
-        <v>4835.4786385820071</v>
+        <v>100</v>
       </c>
       <c r="I149" t="s">
         <v>14</v>
@@ -5814,8 +5715,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <f t="shared" si="49"/>
-        <v>4891.5321935205848</v>
+        <v>100</v>
       </c>
       <c r="I150" t="s">
         <v>14</v>
@@ -5850,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I151" t="s">
         <v>14</v>
@@ -5885,8 +5785,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <f t="shared" ref="H152:H153" si="50">A152^1.7</f>
-        <v>5004.4360093917876</v>
+        <v>100</v>
       </c>
       <c r="I152" t="s">
         <v>14</v>
@@ -5921,8 +5820,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <f t="shared" si="50"/>
-        <v>5061.2852023258092</v>
+        <v>100</v>
       </c>
       <c r="I153" t="s">
         <v>14</v>
@@ -5957,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I154" t="s">
         <v>14</v>
@@ -5992,8 +5890,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <f t="shared" ref="H155:H156" si="51">A155^1.7</f>
-        <v>5175.7755227126281</v>
+        <v>100</v>
       </c>
       <c r="I155" t="s">
         <v>14</v>
@@ -6028,8 +5925,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <f t="shared" si="51"/>
-        <v>5233.415609489286</v>
+        <v>100</v>
       </c>
       <c r="I156" t="s">
         <v>14</v>
@@ -6064,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I157" t="s">
         <v>14</v>
@@ -6099,8 +5995,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <f t="shared" ref="H158:H159" si="52">A158^1.7</f>
-        <v>5349.4830674981258</v>
+        <v>100</v>
       </c>
       <c r="I158" t="s">
         <v>14</v>
@@ -6135,8 +6030,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <f t="shared" si="52"/>
-        <v>5407.909424163814</v>
+        <v>100</v>
       </c>
       <c r="I159" t="s">
         <v>14</v>
@@ -6171,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I160" t="s">
         <v>14</v>
@@ -6206,8 +6100,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <f t="shared" ref="H161:H162" si="53">A161^1.7</f>
-        <v>5525.5448879383985</v>
+        <v>100</v>
       </c>
       <c r="I161" t="s">
         <v>14</v>
@@ -6242,8 +6135,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <f t="shared" si="53"/>
-        <v>5584.7530054534072</v>
+        <v>100</v>
       </c>
       <c r="I162" t="s">
         <v>14</v>
@@ -6278,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I163" t="s">
         <v>14</v>
@@ -6313,8 +6205,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <f t="shared" ref="H164:H165" si="54">A164^1.7</f>
-        <v>5703.9475679374264</v>
+        <v>100</v>
       </c>
       <c r="I164" t="s">
         <v>14</v>
@@ -6349,8 +6240,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <f t="shared" si="54"/>
-        <v>5763.9330472178581</v>
+        <v>100</v>
       </c>
       <c r="I165" t="s">
         <v>14</v>
@@ -6385,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I166" t="s">
         <v>14</v>
@@ -6420,8 +6310,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <f t="shared" ref="H167:H168" si="55">A167^1.7</f>
-        <v>5884.6780165455402</v>
+        <v>100</v>
       </c>
       <c r="I167" t="s">
         <v>14</v>
@@ -6456,8 +6345,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <f t="shared" si="55"/>
-        <v>5945.4365638064592</v>
+        <v>100</v>
       </c>
       <c r="I168" t="s">
         <v>14</v>
@@ -6492,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I169" t="s">
         <v>14</v>
@@ -6527,8 +6415,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <f t="shared" ref="H170:H171" si="56">A170^1.7</f>
-        <v>6067.7234542717615</v>
+        <v>100</v>
       </c>
       <c r="I170" t="s">
         <v>14</v>
@@ -6563,8 +6450,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <f t="shared" si="56"/>
-        <v>6129.2508766483188</v>
+        <v>100</v>
       </c>
       <c r="I171" t="s">
         <v>14</v>
@@ -6599,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I172" t="s">
         <v>14</v>
@@ -6634,8 +6520,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <f t="shared" ref="H173:H174" si="57">A173^1.7</f>
-        <v>6253.0714002082559</v>
+        <v>100</v>
       </c>
       <c r="I173" t="s">
         <v>14</v>
@@ -6670,8 +6555,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <f t="shared" si="57"/>
-        <v>6315.3636016333558</v>
+        <v>100</v>
       </c>
       <c r="I174" t="s">
         <v>14</v>
@@ -6706,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I175" t="s">
         <v>14</v>
@@ -6741,8 +6625,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <f t="shared" ref="H176:H177" si="58">A176^1.7</f>
-        <v>6440.7096599048091</v>
+        <v>100</v>
       </c>
       <c r="I176" t="s">
         <v>14</v>
@@ -6777,8 +6660,7 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <f t="shared" si="58"/>
-        <v>6503.7626372242648</v>
+        <v>100</v>
       </c>
       <c r="I177" t="s">
         <v>14</v>
@@ -6813,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I178" t="s">
         <v>14</v>
@@ -6848,8 +6730,7 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <f t="shared" ref="H179:H180" si="59">A179^1.7</f>
-        <v>6630.6263139378634</v>
+        <v>100</v>
       </c>
       <c r="I179" t="s">
         <v>14</v>
@@ -6884,8 +6765,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <f t="shared" si="59"/>
-        <v>6694.4361532453249</v>
+        <v>100</v>
       </c>
       <c r="I180" t="s">
         <v>14</v>
@@ -6920,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I181" t="s">
         <v>14</v>
@@ -6955,8 +6835,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <f t="shared" ref="H182:H183" si="60">A182^1.7</f>
-        <v>6822.8097071226812</v>
+        <v>100</v>
       </c>
       <c r="I182" t="s">
         <v>14</v>
@@ -6991,8 +6870,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <f t="shared" si="60"/>
-        <v>6887.3725802985846</v>
+        <v>100</v>
       </c>
       <c r="I183" t="s">
         <v>14</v>
@@ -7027,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I184" t="s">
         <v>14</v>
@@ -7062,8 +6940,7 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <f t="shared" ref="H185:H186" si="61">A185^1.7</f>
-        <v>7017.2484383226147</v>
+        <v>100</v>
       </c>
       <c r="I185" t="s">
         <v>14</v>
@@ -7098,8 +6975,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <f t="shared" si="61"/>
-        <v>7082.5605997625062</v>
+        <v>100</v>
       </c>
       <c r="I186" t="s">
         <v>14</v>
@@ -7134,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I187" t="s">
         <v>14</v>
@@ -7169,8 +7045,7 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <f t="shared" ref="H188:H189" si="62">A188^1.7</f>
-        <v>7213.9313508130244</v>
+        <v>100</v>
       </c>
       <c r="I188" t="s">
         <v>14</v>
@@ -7205,8 +7080,7 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <f t="shared" si="62"/>
-        <v>7279.9891343319496</v>
+        <v>100</v>
       </c>
       <c r="I189" t="s">
         <v>14</v>
@@ -7241,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I190" t="s">
         <v>14</v>
@@ -7276,8 +7150,7 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <f t="shared" ref="H191:H192" si="63">A191^1.7</f>
-        <v>7412.8475231610173</v>
+        <v>100</v>
       </c>
       <c r="I191" t="s">
         <v>14</v>
@@ -7312,8 +7185,7 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <f t="shared" si="63"/>
-        <v>7479.6473390619312</v>
+        <v>100</v>
       </c>
       <c r="I192" t="s">
         <v>14</v>
@@ -7348,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I193" t="s">
         <v>14</v>
@@ -7383,8 +7255,7 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <f t="shared" ref="H194:H195" si="64">A194^1.7</f>
-        <v>7613.9862605858343</v>
+        <v>100</v>
       </c>
       <c r="I194" t="s">
         <v>14</v>
@@ -7419,8 +7290,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <f t="shared" si="64"/>
-        <v>7681.5245928808208</v>
+        <v>100</v>
       </c>
       <c r="I195" t="s">
         <v>14</v>
@@ -7455,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I196" t="s">
         <v>14</v>
@@ -7490,8 +7360,7 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <f t="shared" ref="H197:H198" si="65">A197^1.7</f>
-        <v>7817.3370867672156</v>
+        <v>100</v>
       </c>
       <c r="I197" t="s">
         <v>14</v>
@@ -7526,8 +7395,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <f t="shared" si="65"/>
-        <v>7885.610490541203</v>
+        <v>100</v>
       </c>
       <c r="I198" t="s">
         <v>14</v>
@@ -7562,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I199" t="s">
         <v>14</v>
@@ -7597,8 +7465,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <f t="shared" ref="H200" si="66">A200^1.7</f>
-        <v>8022.8897360719584</v>
+        <v>100</v>
       </c>
       <c r="I200" t="s">
         <v>14</v>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E9E80D-0AA7-4626-A4CB-4A9BA68B5B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ADD7CC-7501-4D8C-85B4-54D465319CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="945" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="16">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +116,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,17 +147,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K200"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -496,7 +516,7 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
@@ -520,7 +540,8 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <f>B2+5</f>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -555,13 +576,14 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <f t="shared" ref="C3:C66" si="0">B3+5</f>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -590,13 +612,14 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -625,13 +648,14 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -660,13 +684,14 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -695,13 +720,14 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -730,13 +756,14 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -765,13 +792,14 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -800,13 +828,14 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -835,13 +864,14 @@
         <v>1</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
         <v>9</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -867,16 +897,17 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -902,16 +933,17 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>8</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>11</v>
@@ -937,16 +969,17 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>8</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F14">
         <v>12</v>
@@ -972,16 +1005,17 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>13</v>
@@ -1007,16 +1041,17 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>8</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>14</v>
@@ -1045,13 +1080,14 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>15</v>
@@ -1080,13 +1116,14 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>8</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>16</v>
@@ -1115,13 +1152,14 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>8</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F19">
         <v>17</v>
@@ -1150,13 +1188,14 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>8</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F20">
         <v>18</v>
@@ -1185,13 +1224,14 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>8</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F21">
         <v>19</v>
@@ -1220,13 +1260,14 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>8</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F22">
         <v>20</v>
@@ -1252,16 +1293,17 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F23">
         <v>21</v>
@@ -1287,16 +1329,17 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F24">
         <v>22</v>
@@ -1322,16 +1365,17 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>8</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F25">
         <v>23</v>
@@ -1357,16 +1401,17 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>8</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F26">
         <v>24</v>
@@ -1392,16 +1437,17 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F27">
         <v>25</v>
@@ -1427,16 +1473,17 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>8</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F28">
         <v>26</v>
@@ -1462,16 +1509,17 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>8</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F29">
         <v>27</v>
@@ -1497,16 +1545,17 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F30">
         <v>28</v>
@@ -1532,16 +1581,17 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>8</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F31">
         <v>29</v>
@@ -1570,13 +1620,14 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F32">
         <v>30</v>
@@ -1605,13 +1656,14 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F33">
         <v>31</v>
@@ -1640,13 +1692,14 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D34">
         <v>8</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F34">
         <v>32</v>
@@ -1675,13 +1728,14 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F35">
         <v>33</v>
@@ -1710,13 +1764,14 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D36">
         <v>8</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F36">
         <v>34</v>
@@ -1745,13 +1800,14 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D37">
         <v>8</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F37">
         <v>35</v>
@@ -1780,13 +1836,14 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D38">
         <v>8</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -1815,13 +1872,14 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D39">
         <v>8</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F39">
         <v>37</v>
@@ -1850,13 +1908,14 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D40">
         <v>8</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F40">
         <v>38</v>
@@ -1885,13 +1944,14 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D41">
         <v>8</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F41">
         <v>39</v>
@@ -1920,13 +1980,14 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D42">
         <v>8</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F42">
         <v>40</v>
@@ -1955,13 +2016,14 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D43">
         <v>8</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F43">
         <v>41</v>
@@ -1990,13 +2052,14 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D44">
         <v>8</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F44">
         <v>42</v>
@@ -2025,13 +2088,14 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D45">
         <v>8</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F45">
         <v>43</v>
@@ -2060,13 +2124,14 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D46">
         <v>8</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F46">
         <v>44</v>
@@ -2092,16 +2157,17 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D47">
         <v>8</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F47">
         <v>45</v>
@@ -2127,16 +2193,17 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D48">
         <v>8</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F48">
         <v>46</v>
@@ -2162,16 +2229,17 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D49">
         <v>8</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F49">
         <v>47</v>
@@ -2197,16 +2265,17 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D50">
         <v>8</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F50">
         <v>48</v>
@@ -2232,16 +2301,17 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D51">
         <v>8</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F51">
         <v>49</v>
@@ -2267,16 +2337,17 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D52">
         <v>8</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F52">
         <v>50</v>
@@ -2302,16 +2373,17 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D53">
         <v>8</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F53">
         <v>51</v>
@@ -2337,16 +2409,17 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D54">
         <v>8</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F54">
         <v>52</v>
@@ -2372,16 +2445,17 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D55">
         <v>8</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F55">
         <v>53</v>
@@ -2407,16 +2481,17 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D56">
         <v>8</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F56">
         <v>54</v>
@@ -2442,16 +2517,17 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D57">
         <v>8</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F57">
         <v>55</v>
@@ -2477,16 +2553,17 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D58">
         <v>8</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F58">
         <v>56</v>
@@ -2504,7 +2581,7 @@
         <v>15</v>
       </c>
       <c r="K58">
-        <v>670000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -2512,16 +2589,17 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D59">
         <v>8</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F59">
         <v>57</v>
@@ -2539,7 +2617,7 @@
         <v>15</v>
       </c>
       <c r="K59">
-        <v>680000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -2547,16 +2625,17 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D60">
         <v>8</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F60">
         <v>58</v>
@@ -2574,7 +2653,7 @@
         <v>15</v>
       </c>
       <c r="K60">
-        <v>690000</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -2582,16 +2661,17 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D61">
         <v>8</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F61">
         <v>59</v>
@@ -2609,7 +2689,7 @@
         <v>15</v>
       </c>
       <c r="K61">
-        <v>700000</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -2617,16 +2697,17 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="D62">
         <v>8</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F62">
         <v>60</v>
@@ -2644,7 +2725,7 @@
         <v>15</v>
       </c>
       <c r="K62">
-        <v>710000</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -2652,16 +2733,17 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C63">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="D63">
         <v>8</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F63">
         <v>61</v>
@@ -2679,7 +2761,7 @@
         <v>15</v>
       </c>
       <c r="K63">
-        <v>720000</v>
+        <v>570000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -2687,16 +2769,17 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C64">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="D64">
         <v>8</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F64">
         <v>62</v>
@@ -2714,7 +2797,7 @@
         <v>15</v>
       </c>
       <c r="K64">
-        <v>730000</v>
+        <v>580000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -2722,16 +2805,17 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C65">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="D65">
         <v>8</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F65">
         <v>63</v>
@@ -2749,7 +2833,7 @@
         <v>15</v>
       </c>
       <c r="K65">
-        <v>740000</v>
+        <v>590000</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -2757,16 +2841,17 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="D66">
         <v>8</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F66">
         <v>64</v>
@@ -2784,7 +2869,7 @@
         <v>15</v>
       </c>
       <c r="K66">
-        <v>750000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -2792,16 +2877,17 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>9</v>
+        <f t="shared" ref="C67:C91" si="1">B67+5</f>
+        <v>10</v>
       </c>
       <c r="D67">
         <v>8</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F67">
         <v>65</v>
@@ -2819,7 +2905,7 @@
         <v>15</v>
       </c>
       <c r="K67">
-        <v>760000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -2827,16 +2913,17 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C68">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="D68">
         <v>8</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F68">
         <v>66</v>
@@ -2854,7 +2941,7 @@
         <v>15</v>
       </c>
       <c r="K68">
-        <v>770000</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -2862,16 +2949,17 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="D69">
         <v>8</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F69">
         <v>67</v>
@@ -2889,7 +2977,7 @@
         <v>15</v>
       </c>
       <c r="K69">
-        <v>780000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -2897,16 +2985,17 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="D70">
         <v>8</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F70">
         <v>68</v>
@@ -2924,7 +3013,7 @@
         <v>15</v>
       </c>
       <c r="K70">
-        <v>790000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -2932,16 +3021,17 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="D71">
         <v>8</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F71">
         <v>69</v>
@@ -2959,7 +3049,7 @@
         <v>15</v>
       </c>
       <c r="K71">
-        <v>800000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -2967,16 +3057,17 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="D72">
         <v>8</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F72">
         <v>70</v>
@@ -2994,7 +3085,7 @@
         <v>15</v>
       </c>
       <c r="K72">
-        <v>810000</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3002,16 +3093,17 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C73">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="D73">
         <v>8</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F73">
         <v>71</v>
@@ -3029,7 +3121,7 @@
         <v>15</v>
       </c>
       <c r="K73">
-        <v>820000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -3037,16 +3129,17 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C74">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="D74">
         <v>8</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F74">
         <v>72</v>
@@ -3064,7 +3157,7 @@
         <v>15</v>
       </c>
       <c r="K74">
-        <v>830000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -3072,16 +3165,17 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C75">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="D75">
         <v>8</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F75">
         <v>73</v>
@@ -3099,7 +3193,7 @@
         <v>15</v>
       </c>
       <c r="K75">
-        <v>840000</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -3107,16 +3201,17 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="D76">
         <v>8</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F76">
         <v>74</v>
@@ -3134,7 +3229,7 @@
         <v>15</v>
       </c>
       <c r="K76">
-        <v>850000</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -3142,16 +3237,17 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C77">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="D77">
         <v>8</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F77">
         <v>75</v>
@@ -3169,7 +3265,7 @@
         <v>15</v>
       </c>
       <c r="K77">
-        <v>860000</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -3177,16 +3273,17 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C78">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>8</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F78">
         <v>76</v>
@@ -3204,7 +3301,7 @@
         <v>15</v>
       </c>
       <c r="K78">
-        <v>870000</v>
+        <v>570000</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -3212,16 +3309,17 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C79">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="D79">
         <v>8</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F79">
         <v>77</v>
@@ -3239,7 +3337,7 @@
         <v>15</v>
       </c>
       <c r="K79">
-        <v>880000</v>
+        <v>580000</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -3247,16 +3345,17 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>8</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F80">
         <v>78</v>
@@ -3274,7 +3373,7 @@
         <v>15</v>
       </c>
       <c r="K80">
-        <v>890000</v>
+        <v>590000</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -3282,16 +3381,17 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="D81">
         <v>8</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F81">
         <v>79</v>
@@ -3309,7 +3409,7 @@
         <v>15</v>
       </c>
       <c r="K81">
-        <v>900000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -3317,16 +3417,17 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C82">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>8</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F82">
         <v>80</v>
@@ -3344,7 +3445,7 @@
         <v>15</v>
       </c>
       <c r="K82">
-        <v>910000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -3352,16 +3453,17 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C83">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="D83">
         <v>8</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="F83">
         <v>81</v>
@@ -3379,7 +3481,7 @@
         <v>15</v>
       </c>
       <c r="K83">
-        <v>920000</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -3387,16 +3489,17 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C84">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="D84">
         <v>8</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="F84">
         <v>82</v>
@@ -3414,7 +3517,7 @@
         <v>15</v>
       </c>
       <c r="K84">
-        <v>930000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -3422,16 +3525,17 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C85">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="D85">
         <v>8</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="F85">
         <v>83</v>
@@ -3449,7 +3553,7 @@
         <v>15</v>
       </c>
       <c r="K85">
-        <v>940000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -3457,16 +3561,17 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="D86">
         <v>8</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F86">
         <v>84</v>
@@ -3484,7 +3589,7 @@
         <v>15</v>
       </c>
       <c r="K86">
-        <v>950000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -3492,16 +3597,17 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C87">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="D87">
         <v>8</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F87">
         <v>85</v>
@@ -3519,7 +3625,7 @@
         <v>15</v>
       </c>
       <c r="K87">
-        <v>960000</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -3527,16 +3633,17 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C88">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="D88">
         <v>8</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F88">
         <v>86</v>
@@ -3554,7 +3661,7 @@
         <v>15</v>
       </c>
       <c r="K88">
-        <v>970000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -3562,16 +3669,17 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="D89">
         <v>8</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F89">
         <v>87</v>
@@ -3589,7 +3697,7 @@
         <v>15</v>
       </c>
       <c r="K89">
-        <v>980000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -3597,16 +3705,17 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C90">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="D90">
         <v>8</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F90">
         <v>88</v>
@@ -3624,7 +3733,7 @@
         <v>15</v>
       </c>
       <c r="K90">
-        <v>990000</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -3632,16 +3741,17 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C91">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="D91">
         <v>8</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="F91">
         <v>89</v>
@@ -3659,3822 +3769,7 @@
         <v>15</v>
       </c>
       <c r="K91">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>3</v>
-      </c>
-      <c r="C92">
-        <v>9</v>
-      </c>
-      <c r="D92">
-        <v>8</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>90</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>100</v>
-      </c>
-      <c r="I92" t="s">
-        <v>14</v>
-      </c>
-      <c r="J92" t="s">
-        <v>15</v>
-      </c>
-      <c r="K92">
-        <v>1010000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>3</v>
-      </c>
-      <c r="C93">
-        <v>9</v>
-      </c>
-      <c r="D93">
-        <v>8</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>91</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>100</v>
-      </c>
-      <c r="I93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J93" t="s">
-        <v>15</v>
-      </c>
-      <c r="K93">
-        <v>1020000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>3</v>
-      </c>
-      <c r="C94">
-        <v>9</v>
-      </c>
-      <c r="D94">
-        <v>8</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>92</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>100</v>
-      </c>
-      <c r="I94" t="s">
-        <v>14</v>
-      </c>
-      <c r="J94" t="s">
-        <v>15</v>
-      </c>
-      <c r="K94">
-        <v>1030000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>3</v>
-      </c>
-      <c r="C95">
-        <v>9</v>
-      </c>
-      <c r="D95">
-        <v>8</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>93</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>100</v>
-      </c>
-      <c r="I95" t="s">
-        <v>14</v>
-      </c>
-      <c r="J95" t="s">
-        <v>15</v>
-      </c>
-      <c r="K95">
-        <v>1040000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>3</v>
-      </c>
-      <c r="C96">
-        <v>9</v>
-      </c>
-      <c r="D96">
-        <v>8</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>94</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>100</v>
-      </c>
-      <c r="I96" t="s">
-        <v>14</v>
-      </c>
-      <c r="J96" t="s">
-        <v>15</v>
-      </c>
-      <c r="K96">
-        <v>1050000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>3</v>
-      </c>
-      <c r="C97">
-        <v>9</v>
-      </c>
-      <c r="D97">
-        <v>8</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>95</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>100</v>
-      </c>
-      <c r="I97" t="s">
-        <v>14</v>
-      </c>
-      <c r="J97" t="s">
-        <v>15</v>
-      </c>
-      <c r="K97">
-        <v>1060000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-      <c r="C98">
-        <v>9</v>
-      </c>
-      <c r="D98">
-        <v>8</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>96</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>100</v>
-      </c>
-      <c r="I98" t="s">
-        <v>14</v>
-      </c>
-      <c r="J98" t="s">
-        <v>15</v>
-      </c>
-      <c r="K98">
-        <v>1070000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>3</v>
-      </c>
-      <c r="C99">
-        <v>9</v>
-      </c>
-      <c r="D99">
-        <v>8</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>97</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>100</v>
-      </c>
-      <c r="I99" t="s">
-        <v>14</v>
-      </c>
-      <c r="J99" t="s">
-        <v>15</v>
-      </c>
-      <c r="K99">
-        <v>1080000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>3</v>
-      </c>
-      <c r="C100">
-        <v>9</v>
-      </c>
-      <c r="D100">
-        <v>8</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>98</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>100</v>
-      </c>
-      <c r="I100" t="s">
-        <v>14</v>
-      </c>
-      <c r="J100" t="s">
-        <v>15</v>
-      </c>
-      <c r="K100">
-        <v>1090000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>3</v>
-      </c>
-      <c r="C101">
-        <v>9</v>
-      </c>
-      <c r="D101">
-        <v>8</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>99</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>100</v>
-      </c>
-      <c r="I101" t="s">
-        <v>14</v>
-      </c>
-      <c r="J101" t="s">
-        <v>15</v>
-      </c>
-      <c r="K101">
-        <v>1100000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102">
-        <v>9</v>
-      </c>
-      <c r="D102">
-        <v>8</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>100</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>100</v>
-      </c>
-      <c r="I102" t="s">
-        <v>14</v>
-      </c>
-      <c r="J102" t="s">
-        <v>15</v>
-      </c>
-      <c r="K102">
-        <v>1110000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>3</v>
-      </c>
-      <c r="C103">
-        <v>9</v>
-      </c>
-      <c r="D103">
-        <v>8</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>101</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>100</v>
-      </c>
-      <c r="I103" t="s">
-        <v>14</v>
-      </c>
-      <c r="J103" t="s">
-        <v>15</v>
-      </c>
-      <c r="K103">
-        <v>1120000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>3</v>
-      </c>
-      <c r="C104">
-        <v>9</v>
-      </c>
-      <c r="D104">
-        <v>8</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>102</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>100</v>
-      </c>
-      <c r="I104" t="s">
-        <v>14</v>
-      </c>
-      <c r="J104" t="s">
-        <v>15</v>
-      </c>
-      <c r="K104">
-        <v>1130000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>3</v>
-      </c>
-      <c r="C105">
-        <v>9</v>
-      </c>
-      <c r="D105">
-        <v>8</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>103</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>100</v>
-      </c>
-      <c r="I105" t="s">
-        <v>14</v>
-      </c>
-      <c r="J105" t="s">
-        <v>15</v>
-      </c>
-      <c r="K105">
-        <v>1140000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>3</v>
-      </c>
-      <c r="C106">
-        <v>9</v>
-      </c>
-      <c r="D106">
-        <v>8</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>104</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>100</v>
-      </c>
-      <c r="I106" t="s">
-        <v>14</v>
-      </c>
-      <c r="J106" t="s">
-        <v>15</v>
-      </c>
-      <c r="K106">
-        <v>1150000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>3</v>
-      </c>
-      <c r="C107">
-        <v>9</v>
-      </c>
-      <c r="D107">
-        <v>8</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>105</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>100</v>
-      </c>
-      <c r="I107" t="s">
-        <v>14</v>
-      </c>
-      <c r="J107" t="s">
-        <v>15</v>
-      </c>
-      <c r="K107">
-        <v>1160000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>3</v>
-      </c>
-      <c r="C108">
-        <v>9</v>
-      </c>
-      <c r="D108">
-        <v>8</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>106</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>100</v>
-      </c>
-      <c r="I108" t="s">
-        <v>14</v>
-      </c>
-      <c r="J108" t="s">
-        <v>15</v>
-      </c>
-      <c r="K108">
-        <v>1170000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>3</v>
-      </c>
-      <c r="C109">
-        <v>9</v>
-      </c>
-      <c r="D109">
-        <v>8</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>107</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>100</v>
-      </c>
-      <c r="I109" t="s">
-        <v>14</v>
-      </c>
-      <c r="J109" t="s">
-        <v>15</v>
-      </c>
-      <c r="K109">
-        <v>1180000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>3</v>
-      </c>
-      <c r="C110">
-        <v>9</v>
-      </c>
-      <c r="D110">
-        <v>8</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>108</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>100</v>
-      </c>
-      <c r="I110" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110" t="s">
-        <v>15</v>
-      </c>
-      <c r="K110">
-        <v>1190000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>3</v>
-      </c>
-      <c r="C111">
-        <v>9</v>
-      </c>
-      <c r="D111">
-        <v>8</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>109</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>100</v>
-      </c>
-      <c r="I111" t="s">
-        <v>14</v>
-      </c>
-      <c r="J111" t="s">
-        <v>15</v>
-      </c>
-      <c r="K111">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>3</v>
-      </c>
-      <c r="C112">
-        <v>9</v>
-      </c>
-      <c r="D112">
-        <v>8</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>110</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>100</v>
-      </c>
-      <c r="I112" t="s">
-        <v>14</v>
-      </c>
-      <c r="J112" t="s">
-        <v>15</v>
-      </c>
-      <c r="K112">
-        <v>1210000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>3</v>
-      </c>
-      <c r="C113">
-        <v>9</v>
-      </c>
-      <c r="D113">
-        <v>8</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>111</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>100</v>
-      </c>
-      <c r="I113" t="s">
-        <v>14</v>
-      </c>
-      <c r="J113" t="s">
-        <v>15</v>
-      </c>
-      <c r="K113">
-        <v>1220000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>3</v>
-      </c>
-      <c r="C114">
-        <v>9</v>
-      </c>
-      <c r="D114">
-        <v>8</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>112</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>100</v>
-      </c>
-      <c r="I114" t="s">
-        <v>14</v>
-      </c>
-      <c r="J114" t="s">
-        <v>15</v>
-      </c>
-      <c r="K114">
-        <v>1230000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>3</v>
-      </c>
-      <c r="C115">
-        <v>9</v>
-      </c>
-      <c r="D115">
-        <v>8</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>113</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>100</v>
-      </c>
-      <c r="I115" t="s">
-        <v>14</v>
-      </c>
-      <c r="J115" t="s">
-        <v>15</v>
-      </c>
-      <c r="K115">
-        <v>1240000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>3</v>
-      </c>
-      <c r="C116">
-        <v>9</v>
-      </c>
-      <c r="D116">
-        <v>8</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>114</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>100</v>
-      </c>
-      <c r="I116" t="s">
-        <v>14</v>
-      </c>
-      <c r="J116" t="s">
-        <v>15</v>
-      </c>
-      <c r="K116">
-        <v>1250000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>3</v>
-      </c>
-      <c r="C117">
-        <v>9</v>
-      </c>
-      <c r="D117">
-        <v>8</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>115</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>100</v>
-      </c>
-      <c r="I117" t="s">
-        <v>14</v>
-      </c>
-      <c r="J117" t="s">
-        <v>15</v>
-      </c>
-      <c r="K117">
-        <v>1260000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>3</v>
-      </c>
-      <c r="C118">
-        <v>9</v>
-      </c>
-      <c r="D118">
-        <v>8</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>116</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>100</v>
-      </c>
-      <c r="I118" t="s">
-        <v>14</v>
-      </c>
-      <c r="J118" t="s">
-        <v>15</v>
-      </c>
-      <c r="K118">
-        <v>1270000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>3</v>
-      </c>
-      <c r="C119">
-        <v>9</v>
-      </c>
-      <c r="D119">
-        <v>8</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>117</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>100</v>
-      </c>
-      <c r="I119" t="s">
-        <v>14</v>
-      </c>
-      <c r="J119" t="s">
-        <v>15</v>
-      </c>
-      <c r="K119">
-        <v>1280000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>3</v>
-      </c>
-      <c r="C120">
-        <v>9</v>
-      </c>
-      <c r="D120">
-        <v>8</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>118</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>100</v>
-      </c>
-      <c r="I120" t="s">
-        <v>14</v>
-      </c>
-      <c r="J120" t="s">
-        <v>15</v>
-      </c>
-      <c r="K120">
-        <v>1290000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>3</v>
-      </c>
-      <c r="C121">
-        <v>9</v>
-      </c>
-      <c r="D121">
-        <v>8</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>119</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>100</v>
-      </c>
-      <c r="I121" t="s">
-        <v>14</v>
-      </c>
-      <c r="J121" t="s">
-        <v>15</v>
-      </c>
-      <c r="K121">
-        <v>1300000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>3</v>
-      </c>
-      <c r="C122">
-        <v>9</v>
-      </c>
-      <c r="D122">
-        <v>8</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>120</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>100</v>
-      </c>
-      <c r="I122" t="s">
-        <v>14</v>
-      </c>
-      <c r="J122" t="s">
-        <v>15</v>
-      </c>
-      <c r="K122">
-        <v>1310000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>3</v>
-      </c>
-      <c r="C123">
-        <v>9</v>
-      </c>
-      <c r="D123">
-        <v>8</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>121</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>100</v>
-      </c>
-      <c r="I123" t="s">
-        <v>14</v>
-      </c>
-      <c r="J123" t="s">
-        <v>15</v>
-      </c>
-      <c r="K123">
-        <v>1320000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>3</v>
-      </c>
-      <c r="C124">
-        <v>9</v>
-      </c>
-      <c r="D124">
-        <v>8</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>122</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>100</v>
-      </c>
-      <c r="I124" t="s">
-        <v>14</v>
-      </c>
-      <c r="J124" t="s">
-        <v>15</v>
-      </c>
-      <c r="K124">
-        <v>1330000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>3</v>
-      </c>
-      <c r="C125">
-        <v>9</v>
-      </c>
-      <c r="D125">
-        <v>8</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>123</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>100</v>
-      </c>
-      <c r="I125" t="s">
-        <v>14</v>
-      </c>
-      <c r="J125" t="s">
-        <v>15</v>
-      </c>
-      <c r="K125">
-        <v>1340000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>3</v>
-      </c>
-      <c r="C126">
-        <v>9</v>
-      </c>
-      <c r="D126">
-        <v>8</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>124</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>100</v>
-      </c>
-      <c r="I126" t="s">
-        <v>14</v>
-      </c>
-      <c r="J126" t="s">
-        <v>15</v>
-      </c>
-      <c r="K126">
-        <v>1350000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>3</v>
-      </c>
-      <c r="C127">
-        <v>9</v>
-      </c>
-      <c r="D127">
-        <v>8</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>125</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>100</v>
-      </c>
-      <c r="I127" t="s">
-        <v>14</v>
-      </c>
-      <c r="J127" t="s">
-        <v>15</v>
-      </c>
-      <c r="K127">
-        <v>1360000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>3</v>
-      </c>
-      <c r="C128">
-        <v>9</v>
-      </c>
-      <c r="D128">
-        <v>8</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>126</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>100</v>
-      </c>
-      <c r="I128" t="s">
-        <v>14</v>
-      </c>
-      <c r="J128" t="s">
-        <v>15</v>
-      </c>
-      <c r="K128">
-        <v>1370000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>3</v>
-      </c>
-      <c r="C129">
-        <v>9</v>
-      </c>
-      <c r="D129">
-        <v>8</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>127</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>100</v>
-      </c>
-      <c r="I129" t="s">
-        <v>14</v>
-      </c>
-      <c r="J129" t="s">
-        <v>15</v>
-      </c>
-      <c r="K129">
-        <v>1380000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>3</v>
-      </c>
-      <c r="C130">
-        <v>9</v>
-      </c>
-      <c r="D130">
-        <v>8</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>128</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>100</v>
-      </c>
-      <c r="I130" t="s">
-        <v>14</v>
-      </c>
-      <c r="J130" t="s">
-        <v>15</v>
-      </c>
-      <c r="K130">
-        <v>1390000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>3</v>
-      </c>
-      <c r="C131">
-        <v>9</v>
-      </c>
-      <c r="D131">
-        <v>8</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>129</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>100</v>
-      </c>
-      <c r="I131" t="s">
-        <v>14</v>
-      </c>
-      <c r="J131" t="s">
-        <v>15</v>
-      </c>
-      <c r="K131">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>3</v>
-      </c>
-      <c r="C132">
-        <v>9</v>
-      </c>
-      <c r="D132">
-        <v>8</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>130</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>100</v>
-      </c>
-      <c r="I132" t="s">
-        <v>14</v>
-      </c>
-      <c r="J132" t="s">
-        <v>15</v>
-      </c>
-      <c r="K132">
-        <v>1410000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>3</v>
-      </c>
-      <c r="C133">
-        <v>9</v>
-      </c>
-      <c r="D133">
-        <v>8</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>131</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>100</v>
-      </c>
-      <c r="I133" t="s">
-        <v>14</v>
-      </c>
-      <c r="J133" t="s">
-        <v>15</v>
-      </c>
-      <c r="K133">
-        <v>1420000</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>3</v>
-      </c>
-      <c r="C134">
-        <v>9</v>
-      </c>
-      <c r="D134">
-        <v>8</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>132</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>100</v>
-      </c>
-      <c r="I134" t="s">
-        <v>14</v>
-      </c>
-      <c r="J134" t="s">
-        <v>15</v>
-      </c>
-      <c r="K134">
-        <v>1430000</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>3</v>
-      </c>
-      <c r="C135">
-        <v>9</v>
-      </c>
-      <c r="D135">
-        <v>8</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>133</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>100</v>
-      </c>
-      <c r="I135" t="s">
-        <v>14</v>
-      </c>
-      <c r="J135" t="s">
-        <v>15</v>
-      </c>
-      <c r="K135">
-        <v>1440000</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>3</v>
-      </c>
-      <c r="C136">
-        <v>9</v>
-      </c>
-      <c r="D136">
-        <v>8</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>134</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>100</v>
-      </c>
-      <c r="I136" t="s">
-        <v>14</v>
-      </c>
-      <c r="J136" t="s">
-        <v>15</v>
-      </c>
-      <c r="K136">
-        <v>1450000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>3</v>
-      </c>
-      <c r="C137">
-        <v>9</v>
-      </c>
-      <c r="D137">
-        <v>8</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>135</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>100</v>
-      </c>
-      <c r="I137" t="s">
-        <v>14</v>
-      </c>
-      <c r="J137" t="s">
-        <v>15</v>
-      </c>
-      <c r="K137">
-        <v>1460000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>3</v>
-      </c>
-      <c r="C138">
-        <v>9</v>
-      </c>
-      <c r="D138">
-        <v>8</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>136</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>100</v>
-      </c>
-      <c r="I138" t="s">
-        <v>14</v>
-      </c>
-      <c r="J138" t="s">
-        <v>15</v>
-      </c>
-      <c r="K138">
-        <v>1470000</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>3</v>
-      </c>
-      <c r="C139">
-        <v>9</v>
-      </c>
-      <c r="D139">
-        <v>8</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>137</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>100</v>
-      </c>
-      <c r="I139" t="s">
-        <v>14</v>
-      </c>
-      <c r="J139" t="s">
-        <v>15</v>
-      </c>
-      <c r="K139">
-        <v>1480000</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>3</v>
-      </c>
-      <c r="C140">
-        <v>9</v>
-      </c>
-      <c r="D140">
-        <v>8</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>138</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>100</v>
-      </c>
-      <c r="I140" t="s">
-        <v>14</v>
-      </c>
-      <c r="J140" t="s">
-        <v>15</v>
-      </c>
-      <c r="K140">
-        <v>1490000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>3</v>
-      </c>
-      <c r="C141">
-        <v>9</v>
-      </c>
-      <c r="D141">
-        <v>8</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>139</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>100</v>
-      </c>
-      <c r="I141" t="s">
-        <v>14</v>
-      </c>
-      <c r="J141" t="s">
-        <v>15</v>
-      </c>
-      <c r="K141">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>3</v>
-      </c>
-      <c r="C142">
-        <v>9</v>
-      </c>
-      <c r="D142">
-        <v>8</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>140</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>100</v>
-      </c>
-      <c r="I142" t="s">
-        <v>14</v>
-      </c>
-      <c r="J142" t="s">
-        <v>15</v>
-      </c>
-      <c r="K142">
-        <v>1510000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>3</v>
-      </c>
-      <c r="C143">
-        <v>9</v>
-      </c>
-      <c r="D143">
-        <v>8</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>141</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>100</v>
-      </c>
-      <c r="I143" t="s">
-        <v>14</v>
-      </c>
-      <c r="J143" t="s">
-        <v>15</v>
-      </c>
-      <c r="K143">
-        <v>1520000</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>3</v>
-      </c>
-      <c r="C144">
-        <v>9</v>
-      </c>
-      <c r="D144">
-        <v>8</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>142</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>100</v>
-      </c>
-      <c r="I144" t="s">
-        <v>14</v>
-      </c>
-      <c r="J144" t="s">
-        <v>15</v>
-      </c>
-      <c r="K144">
-        <v>1530000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>3</v>
-      </c>
-      <c r="C145">
-        <v>9</v>
-      </c>
-      <c r="D145">
-        <v>8</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>143</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>100</v>
-      </c>
-      <c r="I145" t="s">
-        <v>14</v>
-      </c>
-      <c r="J145" t="s">
-        <v>15</v>
-      </c>
-      <c r="K145">
-        <v>1540000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>144</v>
-      </c>
-      <c r="B146">
-        <v>3</v>
-      </c>
-      <c r="C146">
-        <v>9</v>
-      </c>
-      <c r="D146">
-        <v>8</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>144</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>100</v>
-      </c>
-      <c r="I146" t="s">
-        <v>14</v>
-      </c>
-      <c r="J146" t="s">
-        <v>15</v>
-      </c>
-      <c r="K146">
-        <v>1550000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>3</v>
-      </c>
-      <c r="C147">
-        <v>9</v>
-      </c>
-      <c r="D147">
-        <v>8</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>145</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>100</v>
-      </c>
-      <c r="I147" t="s">
-        <v>14</v>
-      </c>
-      <c r="J147" t="s">
-        <v>15</v>
-      </c>
-      <c r="K147">
-        <v>1560000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>3</v>
-      </c>
-      <c r="C148">
-        <v>9</v>
-      </c>
-      <c r="D148">
-        <v>8</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>146</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>100</v>
-      </c>
-      <c r="I148" t="s">
-        <v>14</v>
-      </c>
-      <c r="J148" t="s">
-        <v>15</v>
-      </c>
-      <c r="K148">
-        <v>1570000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>3</v>
-      </c>
-      <c r="C149">
-        <v>9</v>
-      </c>
-      <c r="D149">
-        <v>8</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>147</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>100</v>
-      </c>
-      <c r="I149" t="s">
-        <v>14</v>
-      </c>
-      <c r="J149" t="s">
-        <v>15</v>
-      </c>
-      <c r="K149">
-        <v>1580000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>3</v>
-      </c>
-      <c r="C150">
-        <v>9</v>
-      </c>
-      <c r="D150">
-        <v>8</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>148</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>100</v>
-      </c>
-      <c r="I150" t="s">
-        <v>14</v>
-      </c>
-      <c r="J150" t="s">
-        <v>15</v>
-      </c>
-      <c r="K150">
-        <v>1590000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>3</v>
-      </c>
-      <c r="C151">
-        <v>9</v>
-      </c>
-      <c r="D151">
-        <v>8</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>149</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>100</v>
-      </c>
-      <c r="I151" t="s">
-        <v>14</v>
-      </c>
-      <c r="J151" t="s">
-        <v>15</v>
-      </c>
-      <c r="K151">
-        <v>1600000</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>3</v>
-      </c>
-      <c r="C152">
-        <v>9</v>
-      </c>
-      <c r="D152">
-        <v>8</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>150</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>100</v>
-      </c>
-      <c r="I152" t="s">
-        <v>14</v>
-      </c>
-      <c r="J152" t="s">
-        <v>15</v>
-      </c>
-      <c r="K152">
-        <v>1610000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>3</v>
-      </c>
-      <c r="C153">
-        <v>9</v>
-      </c>
-      <c r="D153">
-        <v>8</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>151</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>100</v>
-      </c>
-      <c r="I153" t="s">
-        <v>14</v>
-      </c>
-      <c r="J153" t="s">
-        <v>15</v>
-      </c>
-      <c r="K153">
-        <v>1620000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>3</v>
-      </c>
-      <c r="C154">
-        <v>9</v>
-      </c>
-      <c r="D154">
-        <v>8</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>152</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>100</v>
-      </c>
-      <c r="I154" t="s">
-        <v>14</v>
-      </c>
-      <c r="J154" t="s">
-        <v>15</v>
-      </c>
-      <c r="K154">
-        <v>1630000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>3</v>
-      </c>
-      <c r="C155">
-        <v>9</v>
-      </c>
-      <c r="D155">
-        <v>8</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>153</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-      <c r="H155">
-        <v>100</v>
-      </c>
-      <c r="I155" t="s">
-        <v>14</v>
-      </c>
-      <c r="J155" t="s">
-        <v>15</v>
-      </c>
-      <c r="K155">
-        <v>1640000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>3</v>
-      </c>
-      <c r="C156">
-        <v>9</v>
-      </c>
-      <c r="D156">
-        <v>8</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>154</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>100</v>
-      </c>
-      <c r="I156" t="s">
-        <v>14</v>
-      </c>
-      <c r="J156" t="s">
-        <v>15</v>
-      </c>
-      <c r="K156">
-        <v>1650000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>3</v>
-      </c>
-      <c r="C157">
-        <v>9</v>
-      </c>
-      <c r="D157">
-        <v>8</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
-        <v>155</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>100</v>
-      </c>
-      <c r="I157" t="s">
-        <v>14</v>
-      </c>
-      <c r="J157" t="s">
-        <v>15</v>
-      </c>
-      <c r="K157">
-        <v>1660000</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>3</v>
-      </c>
-      <c r="C158">
-        <v>9</v>
-      </c>
-      <c r="D158">
-        <v>8</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>156</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>100</v>
-      </c>
-      <c r="I158" t="s">
-        <v>14</v>
-      </c>
-      <c r="J158" t="s">
-        <v>15</v>
-      </c>
-      <c r="K158">
-        <v>1670000</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>3</v>
-      </c>
-      <c r="C159">
-        <v>9</v>
-      </c>
-      <c r="D159">
-        <v>8</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
-        <v>157</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>100</v>
-      </c>
-      <c r="I159" t="s">
-        <v>14</v>
-      </c>
-      <c r="J159" t="s">
-        <v>15</v>
-      </c>
-      <c r="K159">
-        <v>1680000</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>3</v>
-      </c>
-      <c r="C160">
-        <v>9</v>
-      </c>
-      <c r="D160">
-        <v>8</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>158</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>100</v>
-      </c>
-      <c r="I160" t="s">
-        <v>14</v>
-      </c>
-      <c r="J160" t="s">
-        <v>15</v>
-      </c>
-      <c r="K160">
-        <v>1690000</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>3</v>
-      </c>
-      <c r="C161">
-        <v>9</v>
-      </c>
-      <c r="D161">
-        <v>8</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
-        <v>159</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>100</v>
-      </c>
-      <c r="I161" t="s">
-        <v>14</v>
-      </c>
-      <c r="J161" t="s">
-        <v>15</v>
-      </c>
-      <c r="K161">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>3</v>
-      </c>
-      <c r="C162">
-        <v>9</v>
-      </c>
-      <c r="D162">
-        <v>8</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
-        <v>160</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>100</v>
-      </c>
-      <c r="I162" t="s">
-        <v>14</v>
-      </c>
-      <c r="J162" t="s">
-        <v>15</v>
-      </c>
-      <c r="K162">
-        <v>1710000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>3</v>
-      </c>
-      <c r="C163">
-        <v>9</v>
-      </c>
-      <c r="D163">
-        <v>8</v>
-      </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163">
-        <v>161</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-      <c r="H163">
-        <v>100</v>
-      </c>
-      <c r="I163" t="s">
-        <v>14</v>
-      </c>
-      <c r="J163" t="s">
-        <v>15</v>
-      </c>
-      <c r="K163">
-        <v>1720000</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>3</v>
-      </c>
-      <c r="C164">
-        <v>9</v>
-      </c>
-      <c r="D164">
-        <v>8</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>162</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="H164">
-        <v>100</v>
-      </c>
-      <c r="I164" t="s">
-        <v>14</v>
-      </c>
-      <c r="J164" t="s">
-        <v>15</v>
-      </c>
-      <c r="K164">
-        <v>1730000</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>3</v>
-      </c>
-      <c r="C165">
-        <v>9</v>
-      </c>
-      <c r="D165">
-        <v>8</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>163</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165">
-        <v>100</v>
-      </c>
-      <c r="I165" t="s">
-        <v>14</v>
-      </c>
-      <c r="J165" t="s">
-        <v>15</v>
-      </c>
-      <c r="K165">
-        <v>1740000</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>3</v>
-      </c>
-      <c r="C166">
-        <v>9</v>
-      </c>
-      <c r="D166">
-        <v>8</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>164</v>
-      </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="H166">
-        <v>100</v>
-      </c>
-      <c r="I166" t="s">
-        <v>14</v>
-      </c>
-      <c r="J166" t="s">
-        <v>15</v>
-      </c>
-      <c r="K166">
-        <v>1750000</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>3</v>
-      </c>
-      <c r="C167">
-        <v>9</v>
-      </c>
-      <c r="D167">
-        <v>8</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
-        <v>165</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>100</v>
-      </c>
-      <c r="I167" t="s">
-        <v>14</v>
-      </c>
-      <c r="J167" t="s">
-        <v>15</v>
-      </c>
-      <c r="K167">
-        <v>1760000</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>3</v>
-      </c>
-      <c r="C168">
-        <v>9</v>
-      </c>
-      <c r="D168">
-        <v>8</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>166</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <v>100</v>
-      </c>
-      <c r="I168" t="s">
-        <v>14</v>
-      </c>
-      <c r="J168" t="s">
-        <v>15</v>
-      </c>
-      <c r="K168">
-        <v>1770000</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>3</v>
-      </c>
-      <c r="C169">
-        <v>9</v>
-      </c>
-      <c r="D169">
-        <v>8</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>167</v>
-      </c>
-      <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>100</v>
-      </c>
-      <c r="I169" t="s">
-        <v>14</v>
-      </c>
-      <c r="J169" t="s">
-        <v>15</v>
-      </c>
-      <c r="K169">
-        <v>1780000</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>3</v>
-      </c>
-      <c r="C170">
-        <v>9</v>
-      </c>
-      <c r="D170">
-        <v>8</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170">
-        <v>168</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-      <c r="H170">
-        <v>100</v>
-      </c>
-      <c r="I170" t="s">
-        <v>14</v>
-      </c>
-      <c r="J170" t="s">
-        <v>15</v>
-      </c>
-      <c r="K170">
-        <v>1790000</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>3</v>
-      </c>
-      <c r="C171">
-        <v>9</v>
-      </c>
-      <c r="D171">
-        <v>8</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
-        <v>169</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171">
-        <v>100</v>
-      </c>
-      <c r="I171" t="s">
-        <v>14</v>
-      </c>
-      <c r="J171" t="s">
-        <v>15</v>
-      </c>
-      <c r="K171">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>170</v>
-      </c>
-      <c r="B172">
-        <v>3</v>
-      </c>
-      <c r="C172">
-        <v>9</v>
-      </c>
-      <c r="D172">
-        <v>8</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172">
-        <v>170</v>
-      </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-      <c r="H172">
-        <v>100</v>
-      </c>
-      <c r="I172" t="s">
-        <v>14</v>
-      </c>
-      <c r="J172" t="s">
-        <v>15</v>
-      </c>
-      <c r="K172">
-        <v>1810000</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>3</v>
-      </c>
-      <c r="C173">
-        <v>9</v>
-      </c>
-      <c r="D173">
-        <v>8</v>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
-        <v>171</v>
-      </c>
-      <c r="G173">
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <v>100</v>
-      </c>
-      <c r="I173" t="s">
-        <v>14</v>
-      </c>
-      <c r="J173" t="s">
-        <v>15</v>
-      </c>
-      <c r="K173">
-        <v>1820000</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>3</v>
-      </c>
-      <c r="C174">
-        <v>9</v>
-      </c>
-      <c r="D174">
-        <v>8</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>172</v>
-      </c>
-      <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <v>100</v>
-      </c>
-      <c r="I174" t="s">
-        <v>14</v>
-      </c>
-      <c r="J174" t="s">
-        <v>15</v>
-      </c>
-      <c r="K174">
-        <v>1830000</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>3</v>
-      </c>
-      <c r="C175">
-        <v>9</v>
-      </c>
-      <c r="D175">
-        <v>8</v>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175">
-        <v>173</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <v>100</v>
-      </c>
-      <c r="I175" t="s">
-        <v>14</v>
-      </c>
-      <c r="J175" t="s">
-        <v>15</v>
-      </c>
-      <c r="K175">
-        <v>1840000</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>3</v>
-      </c>
-      <c r="C176">
-        <v>9</v>
-      </c>
-      <c r="D176">
-        <v>8</v>
-      </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176">
-        <v>174</v>
-      </c>
-      <c r="G176">
-        <v>0</v>
-      </c>
-      <c r="H176">
-        <v>100</v>
-      </c>
-      <c r="I176" t="s">
-        <v>14</v>
-      </c>
-      <c r="J176" t="s">
-        <v>15</v>
-      </c>
-      <c r="K176">
-        <v>1850000</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>3</v>
-      </c>
-      <c r="C177">
-        <v>9</v>
-      </c>
-      <c r="D177">
-        <v>8</v>
-      </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177">
-        <v>175</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>100</v>
-      </c>
-      <c r="I177" t="s">
-        <v>14</v>
-      </c>
-      <c r="J177" t="s">
-        <v>15</v>
-      </c>
-      <c r="K177">
-        <v>1860000</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>3</v>
-      </c>
-      <c r="C178">
-        <v>9</v>
-      </c>
-      <c r="D178">
-        <v>8</v>
-      </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178">
-        <v>176</v>
-      </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>100</v>
-      </c>
-      <c r="I178" t="s">
-        <v>14</v>
-      </c>
-      <c r="J178" t="s">
-        <v>15</v>
-      </c>
-      <c r="K178">
-        <v>1870000</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>3</v>
-      </c>
-      <c r="C179">
-        <v>9</v>
-      </c>
-      <c r="D179">
-        <v>8</v>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179">
-        <v>177</v>
-      </c>
-      <c r="G179">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>100</v>
-      </c>
-      <c r="I179" t="s">
-        <v>14</v>
-      </c>
-      <c r="J179" t="s">
-        <v>15</v>
-      </c>
-      <c r="K179">
-        <v>1880000</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <v>178</v>
-      </c>
-      <c r="B180">
-        <v>3</v>
-      </c>
-      <c r="C180">
-        <v>9</v>
-      </c>
-      <c r="D180">
-        <v>8</v>
-      </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>178</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
-      </c>
-      <c r="H180">
-        <v>100</v>
-      </c>
-      <c r="I180" t="s">
-        <v>14</v>
-      </c>
-      <c r="J180" t="s">
-        <v>15</v>
-      </c>
-      <c r="K180">
-        <v>1890000</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <v>179</v>
-      </c>
-      <c r="B181">
-        <v>3</v>
-      </c>
-      <c r="C181">
-        <v>9</v>
-      </c>
-      <c r="D181">
-        <v>8</v>
-      </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181">
-        <v>179</v>
-      </c>
-      <c r="G181">
-        <v>0</v>
-      </c>
-      <c r="H181">
-        <v>100</v>
-      </c>
-      <c r="I181" t="s">
-        <v>14</v>
-      </c>
-      <c r="J181" t="s">
-        <v>15</v>
-      </c>
-      <c r="K181">
-        <v>1900000</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A182">
-        <v>180</v>
-      </c>
-      <c r="B182">
-        <v>3</v>
-      </c>
-      <c r="C182">
-        <v>9</v>
-      </c>
-      <c r="D182">
-        <v>8</v>
-      </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182">
-        <v>180</v>
-      </c>
-      <c r="G182">
-        <v>0</v>
-      </c>
-      <c r="H182">
-        <v>100</v>
-      </c>
-      <c r="I182" t="s">
-        <v>14</v>
-      </c>
-      <c r="J182" t="s">
-        <v>15</v>
-      </c>
-      <c r="K182">
-        <v>1910000</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A183">
-        <v>181</v>
-      </c>
-      <c r="B183">
-        <v>3</v>
-      </c>
-      <c r="C183">
-        <v>9</v>
-      </c>
-      <c r="D183">
-        <v>8</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <v>181</v>
-      </c>
-      <c r="G183">
-        <v>0</v>
-      </c>
-      <c r="H183">
-        <v>100</v>
-      </c>
-      <c r="I183" t="s">
-        <v>14</v>
-      </c>
-      <c r="J183" t="s">
-        <v>15</v>
-      </c>
-      <c r="K183">
-        <v>1920000</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>182</v>
-      </c>
-      <c r="B184">
-        <v>3</v>
-      </c>
-      <c r="C184">
-        <v>9</v>
-      </c>
-      <c r="D184">
-        <v>8</v>
-      </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-      <c r="F184">
-        <v>182</v>
-      </c>
-      <c r="G184">
-        <v>0</v>
-      </c>
-      <c r="H184">
-        <v>100</v>
-      </c>
-      <c r="I184" t="s">
-        <v>14</v>
-      </c>
-      <c r="J184" t="s">
-        <v>15</v>
-      </c>
-      <c r="K184">
-        <v>1930000</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>183</v>
-      </c>
-      <c r="B185">
-        <v>3</v>
-      </c>
-      <c r="C185">
-        <v>9</v>
-      </c>
-      <c r="D185">
-        <v>8</v>
-      </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185">
-        <v>183</v>
-      </c>
-      <c r="G185">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>100</v>
-      </c>
-      <c r="I185" t="s">
-        <v>14</v>
-      </c>
-      <c r="J185" t="s">
-        <v>15</v>
-      </c>
-      <c r="K185">
-        <v>1940000</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>3</v>
-      </c>
-      <c r="C186">
-        <v>9</v>
-      </c>
-      <c r="D186">
-        <v>8</v>
-      </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186">
-        <v>184</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <v>100</v>
-      </c>
-      <c r="I186" t="s">
-        <v>14</v>
-      </c>
-      <c r="J186" t="s">
-        <v>15</v>
-      </c>
-      <c r="K186">
-        <v>1950000</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <v>185</v>
-      </c>
-      <c r="B187">
-        <v>3</v>
-      </c>
-      <c r="C187">
-        <v>9</v>
-      </c>
-      <c r="D187">
-        <v>8</v>
-      </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-      <c r="F187">
-        <v>185</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
-      </c>
-      <c r="H187">
-        <v>100</v>
-      </c>
-      <c r="I187" t="s">
-        <v>14</v>
-      </c>
-      <c r="J187" t="s">
-        <v>15</v>
-      </c>
-      <c r="K187">
-        <v>1960000</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>186</v>
-      </c>
-      <c r="B188">
-        <v>3</v>
-      </c>
-      <c r="C188">
-        <v>9</v>
-      </c>
-      <c r="D188">
-        <v>8</v>
-      </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188">
-        <v>186</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <v>100</v>
-      </c>
-      <c r="I188" t="s">
-        <v>14</v>
-      </c>
-      <c r="J188" t="s">
-        <v>15</v>
-      </c>
-      <c r="K188">
-        <v>1970000</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>3</v>
-      </c>
-      <c r="C189">
-        <v>9</v>
-      </c>
-      <c r="D189">
-        <v>8</v>
-      </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
-        <v>187</v>
-      </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>100</v>
-      </c>
-      <c r="I189" t="s">
-        <v>14</v>
-      </c>
-      <c r="J189" t="s">
-        <v>15</v>
-      </c>
-      <c r="K189">
-        <v>1980000</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>3</v>
-      </c>
-      <c r="C190">
-        <v>9</v>
-      </c>
-      <c r="D190">
-        <v>8</v>
-      </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-      <c r="F190">
-        <v>188</v>
-      </c>
-      <c r="G190">
-        <v>0</v>
-      </c>
-      <c r="H190">
-        <v>100</v>
-      </c>
-      <c r="I190" t="s">
-        <v>14</v>
-      </c>
-      <c r="J190" t="s">
-        <v>15</v>
-      </c>
-      <c r="K190">
-        <v>1990000</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>189</v>
-      </c>
-      <c r="B191">
-        <v>3</v>
-      </c>
-      <c r="C191">
-        <v>9</v>
-      </c>
-      <c r="D191">
-        <v>8</v>
-      </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-      <c r="F191">
-        <v>189</v>
-      </c>
-      <c r="G191">
-        <v>0</v>
-      </c>
-      <c r="H191">
-        <v>100</v>
-      </c>
-      <c r="I191" t="s">
-        <v>14</v>
-      </c>
-      <c r="J191" t="s">
-        <v>15</v>
-      </c>
-      <c r="K191">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <v>190</v>
-      </c>
-      <c r="B192">
-        <v>3</v>
-      </c>
-      <c r="C192">
-        <v>9</v>
-      </c>
-      <c r="D192">
-        <v>8</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <v>190</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
-      </c>
-      <c r="H192">
-        <v>100</v>
-      </c>
-      <c r="I192" t="s">
-        <v>14</v>
-      </c>
-      <c r="J192" t="s">
-        <v>15</v>
-      </c>
-      <c r="K192">
-        <v>2010000</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <v>191</v>
-      </c>
-      <c r="B193">
-        <v>3</v>
-      </c>
-      <c r="C193">
-        <v>9</v>
-      </c>
-      <c r="D193">
-        <v>8</v>
-      </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-      <c r="F193">
-        <v>191</v>
-      </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <v>100</v>
-      </c>
-      <c r="I193" t="s">
-        <v>14</v>
-      </c>
-      <c r="J193" t="s">
-        <v>15</v>
-      </c>
-      <c r="K193">
-        <v>2020000</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <v>192</v>
-      </c>
-      <c r="B194">
-        <v>3</v>
-      </c>
-      <c r="C194">
-        <v>9</v>
-      </c>
-      <c r="D194">
-        <v>8</v>
-      </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194">
-        <v>192</v>
-      </c>
-      <c r="G194">
-        <v>0</v>
-      </c>
-      <c r="H194">
-        <v>100</v>
-      </c>
-      <c r="I194" t="s">
-        <v>14</v>
-      </c>
-      <c r="J194" t="s">
-        <v>15</v>
-      </c>
-      <c r="K194">
-        <v>2030000</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A195">
-        <v>193</v>
-      </c>
-      <c r="B195">
-        <v>3</v>
-      </c>
-      <c r="C195">
-        <v>9</v>
-      </c>
-      <c r="D195">
-        <v>8</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <v>193</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <v>100</v>
-      </c>
-      <c r="I195" t="s">
-        <v>14</v>
-      </c>
-      <c r="J195" t="s">
-        <v>15</v>
-      </c>
-      <c r="K195">
-        <v>2040000</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A196">
-        <v>194</v>
-      </c>
-      <c r="B196">
-        <v>3</v>
-      </c>
-      <c r="C196">
-        <v>9</v>
-      </c>
-      <c r="D196">
-        <v>8</v>
-      </c>
-      <c r="E196">
-        <v>0</v>
-      </c>
-      <c r="F196">
-        <v>194</v>
-      </c>
-      <c r="G196">
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <v>100</v>
-      </c>
-      <c r="I196" t="s">
-        <v>14</v>
-      </c>
-      <c r="J196" t="s">
-        <v>15</v>
-      </c>
-      <c r="K196">
-        <v>2050000</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A197">
-        <v>195</v>
-      </c>
-      <c r="B197">
-        <v>3</v>
-      </c>
-      <c r="C197">
-        <v>9</v>
-      </c>
-      <c r="D197">
-        <v>8</v>
-      </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-      <c r="F197">
-        <v>195</v>
-      </c>
-      <c r="G197">
-        <v>0</v>
-      </c>
-      <c r="H197">
-        <v>100</v>
-      </c>
-      <c r="I197" t="s">
-        <v>14</v>
-      </c>
-      <c r="J197" t="s">
-        <v>15</v>
-      </c>
-      <c r="K197">
-        <v>2060000</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A198">
-        <v>196</v>
-      </c>
-      <c r="B198">
-        <v>3</v>
-      </c>
-      <c r="C198">
-        <v>9</v>
-      </c>
-      <c r="D198">
-        <v>8</v>
-      </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-      <c r="F198">
-        <v>196</v>
-      </c>
-      <c r="G198">
-        <v>0</v>
-      </c>
-      <c r="H198">
-        <v>100</v>
-      </c>
-      <c r="I198" t="s">
-        <v>14</v>
-      </c>
-      <c r="J198" t="s">
-        <v>15</v>
-      </c>
-      <c r="K198">
-        <v>2070000</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A199">
-        <v>197</v>
-      </c>
-      <c r="B199">
-        <v>3</v>
-      </c>
-      <c r="C199">
-        <v>9</v>
-      </c>
-      <c r="D199">
-        <v>8</v>
-      </c>
-      <c r="E199">
-        <v>0</v>
-      </c>
-      <c r="F199">
-        <v>197</v>
-      </c>
-      <c r="G199">
-        <v>0</v>
-      </c>
-      <c r="H199">
-        <v>100</v>
-      </c>
-      <c r="I199" t="s">
-        <v>14</v>
-      </c>
-      <c r="J199" t="s">
-        <v>15</v>
-      </c>
-      <c r="K199">
-        <v>2080000</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A200">
-        <v>198</v>
-      </c>
-      <c r="B200">
-        <v>3</v>
-      </c>
-      <c r="C200">
-        <v>9</v>
-      </c>
-      <c r="D200">
-        <v>8</v>
-      </c>
-      <c r="E200">
-        <v>0</v>
-      </c>
-      <c r="F200">
-        <v>198</v>
-      </c>
-      <c r="G200">
-        <v>0</v>
-      </c>
-      <c r="H200">
-        <v>100</v>
-      </c>
-      <c r="I200" t="s">
-        <v>14</v>
-      </c>
-      <c r="J200" t="s">
-        <v>15</v>
-      </c>
-      <c r="K200">
-        <v>2090000</v>
+        <v>660000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ADD7CC-7501-4D8C-85B4-54D465319CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1759D963-0548-4D96-A62F-173658781521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4170" yWindow="5190" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="20">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,22 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Pre_BossRewardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_BossRewardValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_BossRewardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad_BossRewardValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -477,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="N2" sqref="N2:N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -497,7 +513,7 @@
     <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,8 +547,20 @@
       <c r="K1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -567,8 +595,20 @@
       <c r="K2">
         <v>110000</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>10000</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -603,8 +643,20 @@
       <c r="K3">
         <v>120000</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>10000</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -639,8 +691,20 @@
       <c r="K4">
         <v>130000</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>10000</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -675,8 +739,20 @@
       <c r="K5">
         <v>140000</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>10000</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -711,8 +787,20 @@
       <c r="K6">
         <v>150000</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>10000</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -747,8 +835,20 @@
       <c r="K7">
         <v>160000</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10000</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -783,8 +883,20 @@
       <c r="K8">
         <v>170000</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10000</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -819,8 +931,20 @@
       <c r="K9">
         <v>180000</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10000</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -855,8 +979,20 @@
       <c r="K10">
         <v>190000</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10000</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -891,8 +1027,20 @@
       <c r="K11">
         <v>200000</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10000</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -927,8 +1075,20 @@
       <c r="K12">
         <v>210000</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10000</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -963,8 +1123,20 @@
       <c r="K13">
         <v>220000</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10000</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -999,8 +1171,20 @@
       <c r="K14">
         <v>230000</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10000</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1035,8 +1219,20 @@
       <c r="K15">
         <v>240000</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10000</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1071,8 +1267,20 @@
       <c r="K16">
         <v>250000</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10000</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1107,8 +1315,20 @@
       <c r="K17">
         <v>260000</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10000</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1143,8 +1363,20 @@
       <c r="K18">
         <v>270000</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10000</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1179,8 +1411,20 @@
       <c r="K19">
         <v>280000</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10000</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1215,8 +1459,20 @@
       <c r="K20">
         <v>290000</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10000</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1251,8 +1507,20 @@
       <c r="K21">
         <v>300000</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10000</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1287,8 +1555,20 @@
       <c r="K22">
         <v>310000</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10000</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1323,8 +1603,20 @@
       <c r="K23">
         <v>320000</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10000</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1359,8 +1651,20 @@
       <c r="K24">
         <v>330000</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>10000</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1395,8 +1699,20 @@
       <c r="K25">
         <v>340000</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10000</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1431,8 +1747,20 @@
       <c r="K26">
         <v>350000</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10000</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1467,8 +1795,20 @@
       <c r="K27">
         <v>360000</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>10000</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1503,8 +1843,20 @@
       <c r="K28">
         <v>370000</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>10000</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1539,8 +1891,20 @@
       <c r="K29">
         <v>380000</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>10000</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1575,8 +1939,20 @@
       <c r="K30">
         <v>390000</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>10000</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1611,8 +1987,20 @@
       <c r="K31">
         <v>400000</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>10000</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1647,8 +2035,20 @@
       <c r="K32">
         <v>410000</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10000</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1683,8 +2083,20 @@
       <c r="K33">
         <v>420000</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>10000</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1719,8 +2131,20 @@
       <c r="K34">
         <v>430000</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>10000</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1755,8 +2179,20 @@
       <c r="K35">
         <v>440000</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>10000</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1791,8 +2227,20 @@
       <c r="K36">
         <v>450000</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>10000</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1827,8 +2275,20 @@
       <c r="K37">
         <v>460000</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>10000</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1863,8 +2323,20 @@
       <c r="K38">
         <v>470000</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>10000</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1899,8 +2371,20 @@
       <c r="K39">
         <v>480000</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>10000</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1935,8 +2419,20 @@
       <c r="K40">
         <v>490000</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>10000</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1971,8 +2467,20 @@
       <c r="K41">
         <v>500000</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>10000</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2007,8 +2515,20 @@
       <c r="K42">
         <v>510000</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>10000</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2043,8 +2563,20 @@
       <c r="K43">
         <v>520000</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>10000</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2079,8 +2611,20 @@
       <c r="K44">
         <v>530000</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>10000</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2115,8 +2659,20 @@
       <c r="K45">
         <v>540000</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>10000</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2151,8 +2707,20 @@
       <c r="K46">
         <v>550000</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>10000</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2187,8 +2755,20 @@
       <c r="K47">
         <v>560000</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>10000</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2223,8 +2803,20 @@
       <c r="K48">
         <v>570000</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>10000</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2259,8 +2851,20 @@
       <c r="K49">
         <v>580000</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>10000</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2295,8 +2899,20 @@
       <c r="K50">
         <v>590000</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>10000</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2331,8 +2947,20 @@
       <c r="K51">
         <v>600000</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>10000</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2367,8 +2995,20 @@
       <c r="K52">
         <v>610000</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>10000</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2403,8 +3043,20 @@
       <c r="K53">
         <v>620000</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>10000</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2439,8 +3091,20 @@
       <c r="K54">
         <v>630000</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>10000</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2475,8 +3139,20 @@
       <c r="K55">
         <v>640000</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>10000</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2511,8 +3187,20 @@
       <c r="K56">
         <v>650000</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>10000</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2547,8 +3235,20 @@
       <c r="K57">
         <v>660000</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>10000</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2583,8 +3283,20 @@
       <c r="K58">
         <v>640000</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>10000</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2619,8 +3331,20 @@
       <c r="K59">
         <v>650000</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>10000</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2655,8 +3379,20 @@
       <c r="K60">
         <v>660000</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>10000</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2691,8 +3427,20 @@
       <c r="K61">
         <v>660000</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>10000</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2727,8 +3475,20 @@
       <c r="K62">
         <v>560000</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>10000</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2763,8 +3523,20 @@
       <c r="K63">
         <v>570000</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>10000</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2799,8 +3571,20 @@
       <c r="K64">
         <v>580000</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>10000</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2835,8 +3619,20 @@
       <c r="K65">
         <v>590000</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>10000</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2871,8 +3667,20 @@
       <c r="K66">
         <v>600000</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>10000</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2907,8 +3715,20 @@
       <c r="K67">
         <v>610000</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>10000</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2943,8 +3763,20 @@
       <c r="K68">
         <v>620000</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>10000</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2979,8 +3811,20 @@
       <c r="K69">
         <v>630000</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>10000</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3015,8 +3859,20 @@
       <c r="K70">
         <v>640000</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>10000</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3051,8 +3907,20 @@
       <c r="K71">
         <v>650000</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>10000</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3087,8 +3955,20 @@
       <c r="K72">
         <v>660000</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>10000</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3123,8 +4003,20 @@
       <c r="K73">
         <v>640000</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>10000</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3159,8 +4051,20 @@
       <c r="K74">
         <v>650000</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>10000</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3195,8 +4099,20 @@
       <c r="K75">
         <v>660000</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>10000</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3231,8 +4147,20 @@
       <c r="K76">
         <v>660000</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>10000</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3267,8 +4195,20 @@
       <c r="K77">
         <v>560000</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>10000</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3303,8 +4243,20 @@
       <c r="K78">
         <v>570000</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>10000</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3339,8 +4291,20 @@
       <c r="K79">
         <v>580000</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>10000</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3375,8 +4339,20 @@
       <c r="K80">
         <v>590000</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>10000</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3411,8 +4387,20 @@
       <c r="K81">
         <v>600000</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>10000</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3447,8 +4435,20 @@
       <c r="K82">
         <v>610000</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>10000</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3483,8 +4483,20 @@
       <c r="K83">
         <v>620000</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>10000</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3519,8 +4531,20 @@
       <c r="K84">
         <v>630000</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>10000</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3555,8 +4579,20 @@
       <c r="K85">
         <v>640000</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>10000</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3591,8 +4627,20 @@
       <c r="K86">
         <v>650000</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>10000</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3627,8 +4675,20 @@
       <c r="K87">
         <v>660000</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>10000</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3663,8 +4723,20 @@
       <c r="K88">
         <v>640000</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>10000</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3699,8 +4771,20 @@
       <c r="K89">
         <v>650000</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>10000</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3735,8 +4819,20 @@
       <c r="K90">
         <v>660000</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>10000</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3770,6 +4866,18 @@
       </c>
       <c r="K91">
         <v>660000</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>10000</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1759D963-0548-4D96-A62F-173658781521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CB9028-E1E6-44CA-AE15-7A2EC030BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4170" yWindow="5190" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="21">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>Ad_BossRewardValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarbleAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N91"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -513,7 +517,7 @@
     <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,8 +563,11 @@
       <c r="O1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -607,8 +614,11 @@
       <c r="O2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -655,8 +665,11 @@
       <c r="O3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -703,8 +716,11 @@
       <c r="O4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -751,8 +767,11 @@
       <c r="O5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -799,8 +818,11 @@
       <c r="O6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -847,8 +869,11 @@
       <c r="O7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -895,8 +920,11 @@
       <c r="O8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -943,8 +971,11 @@
       <c r="O9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -991,8 +1022,11 @@
       <c r="O10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1039,8 +1073,11 @@
       <c r="O11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1087,8 +1124,11 @@
       <c r="O12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1135,8 +1175,11 @@
       <c r="O13">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1183,8 +1226,11 @@
       <c r="O14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1231,8 +1277,11 @@
       <c r="O15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1279,8 +1328,11 @@
       <c r="O16">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1327,8 +1379,11 @@
       <c r="O17">
         <v>1000</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1375,8 +1430,11 @@
       <c r="O18">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1423,8 +1481,11 @@
       <c r="O19">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1471,8 +1532,11 @@
       <c r="O20">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1519,8 +1583,11 @@
       <c r="O21">
         <v>1000</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="O22">
         <v>1000</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1615,8 +1685,11 @@
       <c r="O23">
         <v>1000</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1663,8 +1736,11 @@
       <c r="O24">
         <v>1000</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1711,8 +1787,11 @@
       <c r="O25">
         <v>1000</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1759,8 +1838,11 @@
       <c r="O26">
         <v>1000</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1807,8 +1889,11 @@
       <c r="O27">
         <v>1000</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1855,8 +1940,11 @@
       <c r="O28">
         <v>1000</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1903,8 +1991,11 @@
       <c r="O29">
         <v>1000</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1951,8 +2042,11 @@
       <c r="O30">
         <v>1000</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1999,8 +2093,11 @@
       <c r="O31">
         <v>1000</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2047,8 +2144,11 @@
       <c r="O32">
         <v>1000</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2095,8 +2195,11 @@
       <c r="O33">
         <v>1000</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2143,8 +2246,11 @@
       <c r="O34">
         <v>1000</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2191,8 +2297,11 @@
       <c r="O35">
         <v>1000</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2239,8 +2348,11 @@
       <c r="O36">
         <v>1000</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2287,8 +2399,11 @@
       <c r="O37">
         <v>1000</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2335,8 +2450,11 @@
       <c r="O38">
         <v>1000</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2383,8 +2501,11 @@
       <c r="O39">
         <v>1000</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2431,8 +2552,11 @@
       <c r="O40">
         <v>1000</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2479,8 +2603,11 @@
       <c r="O41">
         <v>1000</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2527,8 +2654,11 @@
       <c r="O42">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2575,8 +2705,11 @@
       <c r="O43">
         <v>1000</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2623,8 +2756,11 @@
       <c r="O44">
         <v>1000</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2671,8 +2807,11 @@
       <c r="O45">
         <v>1000</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2719,8 +2858,11 @@
       <c r="O46">
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2767,8 +2909,11 @@
       <c r="O47">
         <v>1000</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2815,8 +2960,11 @@
       <c r="O48">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2863,8 +3011,11 @@
       <c r="O49">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2911,8 +3062,11 @@
       <c r="O50">
         <v>1000</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2959,8 +3113,11 @@
       <c r="O51">
         <v>1000</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3007,8 +3164,11 @@
       <c r="O52">
         <v>1000</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3055,8 +3215,11 @@
       <c r="O53">
         <v>1000</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3103,8 +3266,11 @@
       <c r="O54">
         <v>1000</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3151,8 +3317,11 @@
       <c r="O55">
         <v>1000</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3199,8 +3368,11 @@
       <c r="O56">
         <v>1000</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3247,8 +3419,11 @@
       <c r="O57">
         <v>1000</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3295,8 +3470,11 @@
       <c r="O58">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3343,8 +3521,11 @@
       <c r="O59">
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3391,8 +3572,11 @@
       <c r="O60">
         <v>1000</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3439,8 +3623,11 @@
       <c r="O61">
         <v>1000</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3487,8 +3674,11 @@
       <c r="O62">
         <v>1000</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3535,8 +3725,11 @@
       <c r="O63">
         <v>1000</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3583,8 +3776,11 @@
       <c r="O64">
         <v>1000</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3631,8 +3827,11 @@
       <c r="O65">
         <v>1000</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3679,8 +3878,11 @@
       <c r="O66">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3727,8 +3929,11 @@
       <c r="O67">
         <v>1000</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3775,8 +3980,11 @@
       <c r="O68">
         <v>1000</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3823,8 +4031,11 @@
       <c r="O69">
         <v>1000</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3871,8 +4082,11 @@
       <c r="O70">
         <v>1000</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3919,8 +4133,11 @@
       <c r="O71">
         <v>1000</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3967,8 +4184,11 @@
       <c r="O72">
         <v>1000</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4015,8 +4235,11 @@
       <c r="O73">
         <v>1000</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4063,8 +4286,11 @@
       <c r="O74">
         <v>1000</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4111,8 +4337,11 @@
       <c r="O75">
         <v>1000</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4159,8 +4388,11 @@
       <c r="O76">
         <v>1000</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4207,8 +4439,11 @@
       <c r="O77">
         <v>1000</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4255,8 +4490,11 @@
       <c r="O78">
         <v>1000</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4303,8 +4541,11 @@
       <c r="O79">
         <v>1000</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4351,8 +4592,11 @@
       <c r="O80">
         <v>1000</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4399,8 +4643,11 @@
       <c r="O81">
         <v>1000</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4447,8 +4694,11 @@
       <c r="O82">
         <v>1000</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4495,8 +4745,11 @@
       <c r="O83">
         <v>1000</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4543,8 +4796,11 @@
       <c r="O84">
         <v>1000</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4591,8 +4847,11 @@
       <c r="O85">
         <v>1000</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4639,8 +4898,11 @@
       <c r="O86">
         <v>1000</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4687,8 +4949,11 @@
       <c r="O87">
         <v>1000</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4735,8 +5000,11 @@
       <c r="O88">
         <v>1000</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4783,8 +5051,11 @@
       <c r="O89">
         <v>1000</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4831,8 +5102,11 @@
       <c r="O90">
         <v>1000</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4878,6 +5152,9 @@
       </c>
       <c r="O91">
         <v>1000</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CB9028-E1E6-44CA-AE15-7A2EC030BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF88523-EFBC-4A2D-9288-4CB3F85BAEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="5190" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,14 +86,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stage0</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Pre_BossRewardType</t>
@@ -500,7 +493,7 @@
   <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="J2" sqref="J2:J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -552,19 +545,19 @@
         <v>12</v>
       </c>
       <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -596,11 +589,11 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
+      <c r="J2">
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>110000</v>
+        <v>50000</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -647,11 +640,11 @@
       <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
-        <v>13</v>
+      <c r="J3">
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -696,13 +689,13 @@
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>130000</v>
+        <v>70000</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -747,13 +740,13 @@
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>140000</v>
+        <v>80000</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -798,13 +791,13 @@
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -849,13 +842,13 @@
         <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>160000</v>
+        <v>100000</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -900,13 +893,13 @@
         <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>170000</v>
+        <v>110000</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -951,13 +944,13 @@
         <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1002,13 +995,13 @@
         <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>190000</v>
+        <v>130000</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1053,13 +1046,13 @@
         <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>200000</v>
+        <v>140000</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1104,13 +1097,13 @@
         <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1155,13 +1148,13 @@
         <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>220000</v>
+        <v>160000</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1206,13 +1199,13 @@
         <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>230000</v>
+        <v>170000</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1257,13 +1250,13 @@
         <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>240000</v>
+        <v>180000</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1308,13 +1301,13 @@
         <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>250000</v>
+        <v>190000</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1359,13 +1352,13 @@
         <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>260000</v>
+        <v>200000</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1410,13 +1403,13 @@
         <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>270000</v>
+        <v>210000</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1461,13 +1454,13 @@
         <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>280000</v>
+        <v>220000</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1512,13 +1505,13 @@
         <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>290000</v>
+        <v>230000</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -1563,13 +1556,13 @@
         <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>300000</v>
+        <v>240000</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -1614,13 +1607,13 @@
         <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>310000</v>
+        <v>250000</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -1665,13 +1658,13 @@
         <v>100</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1716,13 +1709,13 @@
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>330000</v>
+        <v>270000</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -1767,13 +1760,13 @@
         <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>340000</v>
+        <v>280000</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -1818,13 +1811,13 @@
         <v>100</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>350000</v>
+        <v>290000</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -1869,13 +1862,13 @@
         <v>100</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>360000</v>
+        <v>300000</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -1920,13 +1913,13 @@
         <v>100</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>370000</v>
+        <v>310000</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -1971,13 +1964,13 @@
         <v>100</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>380000</v>
+        <v>320000</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2022,13 +2015,13 @@
         <v>100</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>390000</v>
+        <v>330000</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2073,13 +2066,13 @@
         <v>100</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>400000</v>
+        <v>340000</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -2124,13 +2117,13 @@
         <v>100</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>410000</v>
+        <v>350000</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2175,13 +2168,13 @@
         <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>420000</v>
+        <v>360000</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -2226,13 +2219,13 @@
         <v>100</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>430000</v>
+        <v>370000</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -2277,13 +2270,13 @@
         <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>440000</v>
+        <v>380000</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -2328,13 +2321,13 @@
         <v>100</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>450000</v>
+        <v>390000</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -2379,13 +2372,13 @@
         <v>100</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>460000</v>
+        <v>400000</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -2430,13 +2423,13 @@
         <v>100</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>470000</v>
+        <v>410000</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2481,13 +2474,13 @@
         <v>100</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>480000</v>
+        <v>420000</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -2532,13 +2525,13 @@
         <v>100</v>
       </c>
       <c r="I40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>490000</v>
+        <v>430000</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -2583,13 +2576,13 @@
         <v>100</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>500000</v>
+        <v>440000</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -2634,13 +2627,13 @@
         <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>510000</v>
+        <v>450000</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -2685,13 +2678,13 @@
         <v>100</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>520000</v>
+        <v>460000</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -2736,13 +2729,13 @@
         <v>100</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>530000</v>
+        <v>470000</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -2787,13 +2780,13 @@
         <v>100</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>540000</v>
+        <v>480000</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -2838,13 +2831,13 @@
         <v>100</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>550000</v>
+        <v>490000</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -2889,13 +2882,13 @@
         <v>100</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>560000</v>
+        <v>500000</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -2940,13 +2933,13 @@
         <v>100</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>570000</v>
+        <v>510000</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -2991,13 +2984,13 @@
         <v>100</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>580000</v>
+        <v>520000</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -3042,13 +3035,13 @@
         <v>100</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>590000</v>
+        <v>530000</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -3093,13 +3086,13 @@
         <v>100</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>600000</v>
+        <v>540000</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -3144,13 +3137,13 @@
         <v>100</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>610000</v>
+        <v>550000</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -3195,13 +3188,13 @@
         <v>100</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>620000</v>
+        <v>560000</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3246,13 +3239,13 @@
         <v>100</v>
       </c>
       <c r="I54" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>630000</v>
+        <v>570000</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -3297,13 +3290,13 @@
         <v>100</v>
       </c>
       <c r="I55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>640000</v>
+        <v>580000</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -3348,13 +3341,13 @@
         <v>100</v>
       </c>
       <c r="I56" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>650000</v>
+        <v>590000</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -3399,13 +3392,13 @@
         <v>100</v>
       </c>
       <c r="I57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>660000</v>
+        <v>600000</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -3450,13 +3443,13 @@
         <v>100</v>
       </c>
       <c r="I58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>640000</v>
+        <v>610000</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -3501,13 +3494,13 @@
         <v>100</v>
       </c>
       <c r="I59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>650000</v>
+        <v>620000</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -3552,13 +3545,13 @@
         <v>100</v>
       </c>
       <c r="I60" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>660000</v>
+        <v>630000</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -3603,13 +3596,13 @@
         <v>100</v>
       </c>
       <c r="I61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>660000</v>
+        <v>640000</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -3654,13 +3647,13 @@
         <v>100</v>
       </c>
       <c r="I62" t="s">
-        <v>14</v>
-      </c>
-      <c r="J62" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>560000</v>
+        <v>650000</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -3705,13 +3698,13 @@
         <v>100</v>
       </c>
       <c r="I63" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>570000</v>
+        <v>660000</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -3756,13 +3749,13 @@
         <v>100</v>
       </c>
       <c r="I64" t="s">
-        <v>14</v>
-      </c>
-      <c r="J64" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>580000</v>
+        <v>670000</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -3807,13 +3800,13 @@
         <v>100</v>
       </c>
       <c r="I65" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>590000</v>
+        <v>680000</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -3858,13 +3851,13 @@
         <v>100</v>
       </c>
       <c r="I66" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>600000</v>
+        <v>690000</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -3909,13 +3902,13 @@
         <v>100</v>
       </c>
       <c r="I67" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>610000</v>
+        <v>700000</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -3960,13 +3953,13 @@
         <v>100</v>
       </c>
       <c r="I68" t="s">
-        <v>14</v>
-      </c>
-      <c r="J68" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>620000</v>
+        <v>710000</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4011,13 +4004,13 @@
         <v>100</v>
       </c>
       <c r="I69" t="s">
-        <v>14</v>
-      </c>
-      <c r="J69" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
       </c>
       <c r="K69">
-        <v>630000</v>
+        <v>720000</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4062,13 +4055,13 @@
         <v>100</v>
       </c>
       <c r="I70" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>640000</v>
+        <v>730000</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -4113,13 +4106,13 @@
         <v>100</v>
       </c>
       <c r="I71" t="s">
-        <v>14</v>
-      </c>
-      <c r="J71" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
       </c>
       <c r="K71">
-        <v>650000</v>
+        <v>740000</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -4164,13 +4157,13 @@
         <v>100</v>
       </c>
       <c r="I72" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
       </c>
       <c r="K72">
-        <v>660000</v>
+        <v>750000</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4215,13 +4208,13 @@
         <v>100</v>
       </c>
       <c r="I73" t="s">
-        <v>14</v>
-      </c>
-      <c r="J73" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>640000</v>
+        <v>760000</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4266,13 +4259,13 @@
         <v>100</v>
       </c>
       <c r="I74" t="s">
-        <v>14</v>
-      </c>
-      <c r="J74" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>650000</v>
+        <v>770000</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -4317,13 +4310,13 @@
         <v>100</v>
       </c>
       <c r="I75" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>660000</v>
+        <v>780000</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -4368,13 +4361,13 @@
         <v>100</v>
       </c>
       <c r="I76" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
       </c>
       <c r="K76">
-        <v>660000</v>
+        <v>790000</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -4419,13 +4412,13 @@
         <v>100</v>
       </c>
       <c r="I77" t="s">
-        <v>14</v>
-      </c>
-      <c r="J77" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
       </c>
       <c r="K77">
-        <v>560000</v>
+        <v>800000</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -4470,13 +4463,13 @@
         <v>100</v>
       </c>
       <c r="I78" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>570000</v>
+        <v>810000</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -4521,13 +4514,13 @@
         <v>100</v>
       </c>
       <c r="I79" t="s">
-        <v>14</v>
-      </c>
-      <c r="J79" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
       </c>
       <c r="K79">
-        <v>580000</v>
+        <v>820000</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -4572,13 +4565,13 @@
         <v>100</v>
       </c>
       <c r="I80" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>590000</v>
+        <v>830000</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -4623,13 +4616,13 @@
         <v>100</v>
       </c>
       <c r="I81" t="s">
-        <v>14</v>
-      </c>
-      <c r="J81" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
       </c>
       <c r="K81">
-        <v>600000</v>
+        <v>840000</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -4674,13 +4667,13 @@
         <v>100</v>
       </c>
       <c r="I82" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>610000</v>
+        <v>850000</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -4725,13 +4718,13 @@
         <v>100</v>
       </c>
       <c r="I83" t="s">
-        <v>14</v>
-      </c>
-      <c r="J83" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>620000</v>
+        <v>860000</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -4776,13 +4769,13 @@
         <v>100</v>
       </c>
       <c r="I84" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
       </c>
       <c r="K84">
-        <v>630000</v>
+        <v>870000</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -4827,13 +4820,13 @@
         <v>100</v>
       </c>
       <c r="I85" t="s">
-        <v>14</v>
-      </c>
-      <c r="J85" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
       </c>
       <c r="K85">
-        <v>640000</v>
+        <v>880000</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -4878,13 +4871,13 @@
         <v>100</v>
       </c>
       <c r="I86" t="s">
-        <v>14</v>
-      </c>
-      <c r="J86" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>650000</v>
+        <v>890000</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -4929,13 +4922,13 @@
         <v>100</v>
       </c>
       <c r="I87" t="s">
-        <v>14</v>
-      </c>
-      <c r="J87" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>660000</v>
+        <v>900000</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -4980,13 +4973,13 @@
         <v>100</v>
       </c>
       <c r="I88" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>640000</v>
+        <v>910000</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -5031,13 +5024,13 @@
         <v>100</v>
       </c>
       <c r="I89" t="s">
-        <v>14</v>
-      </c>
-      <c r="J89" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>650000</v>
+        <v>920000</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -5082,13 +5075,13 @@
         <v>100</v>
       </c>
       <c r="I90" t="s">
-        <v>14</v>
-      </c>
-      <c r="J90" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
       </c>
       <c r="K90">
-        <v>660000</v>
+        <v>930000</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -5133,13 +5126,13 @@
         <v>100</v>
       </c>
       <c r="I91" t="s">
-        <v>14</v>
-      </c>
-      <c r="J91" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
       </c>
       <c r="K91">
-        <v>660000</v>
+        <v>940000</v>
       </c>
       <c r="L91">
         <v>1</v>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF88523-EFBC-4A2D-9288-4CB3F85BAEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2871FC-3A0C-466A-B392-805794D19885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J91"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -674,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -725,7 +725,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -776,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -827,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -878,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -929,7 +929,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -980,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -1031,7 +1031,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -1082,7 +1082,7 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1133,7 +1133,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -1184,7 +1184,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -1235,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -1337,7 +1337,7 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>15</v>
@@ -1388,7 +1388,7 @@
         <v>7</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -1439,7 +1439,7 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>17</v>
@@ -1490,7 +1490,7 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>18</v>
@@ -1541,7 +1541,7 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>19</v>
@@ -1592,7 +1592,7 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -1643,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>21</v>
@@ -1694,7 +1694,7 @@
         <v>7</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>22</v>
@@ -1745,7 +1745,7 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>23</v>
@@ -1796,7 +1796,7 @@
         <v>7</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>24</v>
@@ -1847,7 +1847,7 @@
         <v>7</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>25</v>
@@ -1898,7 +1898,7 @@
         <v>7</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>26</v>
@@ -1949,7 +1949,7 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>27</v>
@@ -2000,7 +2000,7 @@
         <v>7</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>28</v>
@@ -2051,7 +2051,7 @@
         <v>7</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>29</v>
@@ -2102,7 +2102,7 @@
         <v>8</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>30</v>
@@ -2153,7 +2153,7 @@
         <v>8</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>31</v>
@@ -2204,7 +2204,7 @@
         <v>8</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <v>32</v>
@@ -2255,7 +2255,7 @@
         <v>8</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <v>33</v>
@@ -2306,7 +2306,7 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E36">
         <v>34</v>
@@ -2357,7 +2357,7 @@
         <v>8</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>35</v>
@@ -2408,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E38">
         <v>36</v>
@@ -2459,7 +2459,7 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E39">
         <v>37</v>
@@ -2510,7 +2510,7 @@
         <v>8</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E40">
         <v>38</v>
@@ -2561,7 +2561,7 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E41">
         <v>39</v>
@@ -2612,7 +2612,7 @@
         <v>8</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E42">
         <v>40</v>
@@ -2663,7 +2663,7 @@
         <v>8</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E43">
         <v>41</v>
@@ -2714,7 +2714,7 @@
         <v>8</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E44">
         <v>42</v>
@@ -2765,7 +2765,7 @@
         <v>8</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E45">
         <v>43</v>
@@ -2816,7 +2816,7 @@
         <v>8</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <v>44</v>
@@ -2867,7 +2867,7 @@
         <v>9</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E47">
         <v>45</v>
@@ -2918,7 +2918,7 @@
         <v>9</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E48">
         <v>46</v>
@@ -2969,7 +2969,7 @@
         <v>9</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E49">
         <v>47</v>
@@ -3020,7 +3020,7 @@
         <v>9</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E50">
         <v>48</v>
@@ -3071,7 +3071,7 @@
         <v>9</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E51">
         <v>49</v>
@@ -3122,7 +3122,7 @@
         <v>9</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E52">
         <v>50</v>
@@ -3173,7 +3173,7 @@
         <v>9</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E53">
         <v>51</v>
@@ -3224,7 +3224,7 @@
         <v>9</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E54">
         <v>52</v>
@@ -3275,7 +3275,7 @@
         <v>9</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E55">
         <v>53</v>
@@ -3326,7 +3326,7 @@
         <v>9</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E56">
         <v>54</v>
@@ -3377,7 +3377,7 @@
         <v>9</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E57">
         <v>55</v>
@@ -3428,7 +3428,7 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E58">
         <v>56</v>
@@ -3479,7 +3479,7 @@
         <v>9</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E59">
         <v>57</v>
@@ -3530,7 +3530,7 @@
         <v>9</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E60">
         <v>58</v>
@@ -3581,7 +3581,7 @@
         <v>9</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E61">
         <v>59</v>
@@ -3632,7 +3632,7 @@
         <v>10</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E62">
         <v>60</v>
@@ -3683,7 +3683,7 @@
         <v>10</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E63">
         <v>61</v>
@@ -3734,7 +3734,7 @@
         <v>10</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E64">
         <v>62</v>
@@ -3785,7 +3785,7 @@
         <v>10</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E65">
         <v>63</v>
@@ -3836,7 +3836,7 @@
         <v>10</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E66">
         <v>64</v>
@@ -3887,7 +3887,7 @@
         <v>10</v>
       </c>
       <c r="D67">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E67">
         <v>65</v>
@@ -3938,7 +3938,7 @@
         <v>10</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E68">
         <v>66</v>
@@ -3989,7 +3989,7 @@
         <v>10</v>
       </c>
       <c r="D69">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E69">
         <v>67</v>
@@ -4040,7 +4040,7 @@
         <v>10</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E70">
         <v>68</v>
@@ -4091,7 +4091,7 @@
         <v>10</v>
       </c>
       <c r="D71">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E71">
         <v>69</v>
@@ -4142,7 +4142,7 @@
         <v>10</v>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E72">
         <v>70</v>
@@ -4193,7 +4193,7 @@
         <v>10</v>
       </c>
       <c r="D73">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E73">
         <v>71</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E74">
         <v>72</v>
@@ -4295,7 +4295,7 @@
         <v>10</v>
       </c>
       <c r="D75">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E75">
         <v>73</v>
@@ -4346,7 +4346,7 @@
         <v>10</v>
       </c>
       <c r="D76">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E76">
         <v>74</v>
@@ -4397,7 +4397,7 @@
         <v>11</v>
       </c>
       <c r="D77">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E77">
         <v>75</v>
@@ -4448,7 +4448,7 @@
         <v>11</v>
       </c>
       <c r="D78">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E78">
         <v>76</v>
@@ -4499,7 +4499,7 @@
         <v>11</v>
       </c>
       <c r="D79">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E79">
         <v>77</v>
@@ -4550,7 +4550,7 @@
         <v>11</v>
       </c>
       <c r="D80">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E80">
         <v>78</v>
@@ -4601,7 +4601,7 @@
         <v>11</v>
       </c>
       <c r="D81">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E81">
         <v>79</v>
@@ -4652,7 +4652,7 @@
         <v>11</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E82">
         <v>80</v>
@@ -4703,7 +4703,7 @@
         <v>11</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E83">
         <v>81</v>
@@ -4754,7 +4754,7 @@
         <v>11</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E84">
         <v>82</v>
@@ -4805,7 +4805,7 @@
         <v>11</v>
       </c>
       <c r="D85">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E85">
         <v>83</v>
@@ -4856,7 +4856,7 @@
         <v>11</v>
       </c>
       <c r="D86">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E86">
         <v>84</v>
@@ -4907,7 +4907,7 @@
         <v>11</v>
       </c>
       <c r="D87">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E87">
         <v>85</v>
@@ -4958,7 +4958,7 @@
         <v>11</v>
       </c>
       <c r="D88">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E88">
         <v>86</v>
@@ -5009,7 +5009,7 @@
         <v>11</v>
       </c>
       <c r="D89">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E89">
         <v>87</v>
@@ -5060,7 +5060,7 @@
         <v>11</v>
       </c>
       <c r="D90">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E90">
         <v>88</v>
@@ -5111,7 +5111,7 @@
         <v>11</v>
       </c>
       <c r="D91">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E91">
         <v>89</v>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2871FC-3A0C-466A-B392-805794D19885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E890ACF9-445A-4855-B034-D53327031AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1050" yWindow="4320" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,7 +575,8 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <f>B2</f>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -626,6 +627,7 @@
         <v>12</v>
       </c>
       <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">B3</f>
         <v>1</v>
       </c>
       <c r="F3">
@@ -677,7 +679,8 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -728,7 +731,8 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -779,7 +783,8 @@
         <v>12</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -830,7 +835,8 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -881,7 +887,8 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -932,7 +939,8 @@
         <v>12</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -983,7 +991,8 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -1034,7 +1043,8 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -1085,7 +1095,8 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -1136,7 +1147,8 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>11</v>
@@ -1187,7 +1199,8 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>12</v>
@@ -1238,7 +1251,8 @@
         <v>12</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>13</v>
@@ -1289,7 +1303,8 @@
         <v>12</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>14</v>
@@ -1340,7 +1355,8 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>15</v>
@@ -1391,7 +1407,8 @@
         <v>12</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>16</v>
@@ -1442,7 +1459,8 @@
         <v>12</v>
       </c>
       <c r="E19">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>17</v>
@@ -1493,7 +1511,8 @@
         <v>12</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>18</v>
@@ -1544,7 +1563,8 @@
         <v>12</v>
       </c>
       <c r="E21">
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>19</v>
@@ -1595,7 +1615,8 @@
         <v>12</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>20</v>
@@ -1646,7 +1667,8 @@
         <v>12</v>
       </c>
       <c r="E23">
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>21</v>
@@ -1697,7 +1719,8 @@
         <v>12</v>
       </c>
       <c r="E24">
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>22</v>
@@ -1748,7 +1771,8 @@
         <v>12</v>
       </c>
       <c r="E25">
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>23</v>
@@ -1799,7 +1823,8 @@
         <v>12</v>
       </c>
       <c r="E26">
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>24</v>
@@ -1850,7 +1875,8 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>25</v>
@@ -1901,7 +1927,8 @@
         <v>12</v>
       </c>
       <c r="E28">
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>26</v>
@@ -1952,7 +1979,8 @@
         <v>12</v>
       </c>
       <c r="E29">
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>27</v>
@@ -2003,7 +2031,8 @@
         <v>12</v>
       </c>
       <c r="E30">
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>28</v>
@@ -2054,7 +2083,8 @@
         <v>12</v>
       </c>
       <c r="E31">
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>29</v>
@@ -2105,7 +2135,8 @@
         <v>12</v>
       </c>
       <c r="E32">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>30</v>
@@ -2156,7 +2187,8 @@
         <v>12</v>
       </c>
       <c r="E33">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>31</v>
@@ -2207,7 +2239,8 @@
         <v>12</v>
       </c>
       <c r="E34">
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>32</v>
@@ -2258,7 +2291,8 @@
         <v>12</v>
       </c>
       <c r="E35">
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>33</v>
@@ -2309,7 +2343,8 @@
         <v>12</v>
       </c>
       <c r="E36">
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>34</v>
@@ -2360,7 +2395,8 @@
         <v>12</v>
       </c>
       <c r="E37">
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>35</v>
@@ -2411,7 +2447,8 @@
         <v>12</v>
       </c>
       <c r="E38">
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F38">
         <v>36</v>
@@ -2462,7 +2499,8 @@
         <v>12</v>
       </c>
       <c r="E39">
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F39">
         <v>37</v>
@@ -2513,7 +2551,8 @@
         <v>12</v>
       </c>
       <c r="E40">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F40">
         <v>38</v>
@@ -2564,7 +2603,8 @@
         <v>12</v>
       </c>
       <c r="E41">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F41">
         <v>39</v>
@@ -2615,7 +2655,8 @@
         <v>12</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F42">
         <v>40</v>
@@ -2666,7 +2707,8 @@
         <v>12</v>
       </c>
       <c r="E43">
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F43">
         <v>41</v>
@@ -2717,7 +2759,8 @@
         <v>12</v>
       </c>
       <c r="E44">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F44">
         <v>42</v>
@@ -2768,7 +2811,8 @@
         <v>12</v>
       </c>
       <c r="E45">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F45">
         <v>43</v>
@@ -2819,7 +2863,8 @@
         <v>12</v>
       </c>
       <c r="E46">
-        <v>44</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F46">
         <v>44</v>
@@ -2870,7 +2915,8 @@
         <v>12</v>
       </c>
       <c r="E47">
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F47">
         <v>45</v>
@@ -2921,7 +2967,8 @@
         <v>12</v>
       </c>
       <c r="E48">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F48">
         <v>46</v>
@@ -2972,7 +3019,8 @@
         <v>12</v>
       </c>
       <c r="E49">
-        <v>47</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F49">
         <v>47</v>
@@ -3023,7 +3071,8 @@
         <v>12</v>
       </c>
       <c r="E50">
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F50">
         <v>48</v>
@@ -3074,7 +3123,8 @@
         <v>12</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F51">
         <v>49</v>
@@ -3125,7 +3175,8 @@
         <v>12</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F52">
         <v>50</v>
@@ -3176,7 +3227,8 @@
         <v>12</v>
       </c>
       <c r="E53">
-        <v>51</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F53">
         <v>51</v>
@@ -3227,7 +3279,8 @@
         <v>12</v>
       </c>
       <c r="E54">
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F54">
         <v>52</v>
@@ -3278,7 +3331,8 @@
         <v>12</v>
       </c>
       <c r="E55">
-        <v>53</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F55">
         <v>53</v>
@@ -3329,7 +3383,8 @@
         <v>12</v>
       </c>
       <c r="E56">
-        <v>54</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F56">
         <v>54</v>
@@ -3380,7 +3435,8 @@
         <v>12</v>
       </c>
       <c r="E57">
-        <v>55</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F57">
         <v>55</v>
@@ -3431,7 +3487,8 @@
         <v>12</v>
       </c>
       <c r="E58">
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F58">
         <v>56</v>
@@ -3482,7 +3539,8 @@
         <v>12</v>
       </c>
       <c r="E59">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F59">
         <v>57</v>
@@ -3533,7 +3591,8 @@
         <v>12</v>
       </c>
       <c r="E60">
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F60">
         <v>58</v>
@@ -3584,7 +3643,8 @@
         <v>12</v>
       </c>
       <c r="E61">
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F61">
         <v>59</v>
@@ -3635,7 +3695,8 @@
         <v>12</v>
       </c>
       <c r="E62">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F62">
         <v>60</v>
@@ -3686,7 +3747,8 @@
         <v>12</v>
       </c>
       <c r="E63">
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F63">
         <v>61</v>
@@ -3737,7 +3799,8 @@
         <v>12</v>
       </c>
       <c r="E64">
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F64">
         <v>62</v>
@@ -3788,7 +3851,8 @@
         <v>12</v>
       </c>
       <c r="E65">
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F65">
         <v>63</v>
@@ -3839,7 +3903,8 @@
         <v>12</v>
       </c>
       <c r="E66">
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F66">
         <v>64</v>
@@ -3883,14 +3948,15 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C91" si="1">B67+5</f>
+        <f t="shared" ref="C67:C91" si="2">B67+5</f>
         <v>10</v>
       </c>
       <c r="D67">
         <v>12</v>
       </c>
       <c r="E67">
-        <v>65</v>
+        <f t="shared" ref="E67:E91" si="3">B67</f>
+        <v>5</v>
       </c>
       <c r="F67">
         <v>65</v>
@@ -3934,14 +4000,15 @@
         <v>5</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D68">
         <v>12</v>
       </c>
       <c r="E68">
-        <v>66</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F68">
         <v>66</v>
@@ -3985,14 +4052,15 @@
         <v>5</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D69">
         <v>12</v>
       </c>
       <c r="E69">
-        <v>67</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F69">
         <v>67</v>
@@ -4036,14 +4104,15 @@
         <v>5</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D70">
         <v>12</v>
       </c>
       <c r="E70">
-        <v>68</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F70">
         <v>68</v>
@@ -4087,14 +4156,15 @@
         <v>5</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D71">
         <v>12</v>
       </c>
       <c r="E71">
-        <v>69</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F71">
         <v>69</v>
@@ -4138,14 +4208,15 @@
         <v>5</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D72">
         <v>12</v>
       </c>
       <c r="E72">
-        <v>70</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F72">
         <v>70</v>
@@ -4189,14 +4260,15 @@
         <v>5</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D73">
         <v>12</v>
       </c>
       <c r="E73">
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F73">
         <v>71</v>
@@ -4240,14 +4312,15 @@
         <v>5</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D74">
         <v>12</v>
       </c>
       <c r="E74">
-        <v>72</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F74">
         <v>72</v>
@@ -4291,14 +4364,15 @@
         <v>5</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D75">
         <v>12</v>
       </c>
       <c r="E75">
-        <v>73</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F75">
         <v>73</v>
@@ -4342,14 +4416,15 @@
         <v>5</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D76">
         <v>12</v>
       </c>
       <c r="E76">
-        <v>74</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="F76">
         <v>74</v>
@@ -4393,14 +4468,15 @@
         <v>6</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D77">
         <v>12</v>
       </c>
       <c r="E77">
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F77">
         <v>75</v>
@@ -4444,14 +4520,15 @@
         <v>6</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D78">
         <v>12</v>
       </c>
       <c r="E78">
-        <v>76</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F78">
         <v>76</v>
@@ -4495,14 +4572,15 @@
         <v>6</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D79">
         <v>12</v>
       </c>
       <c r="E79">
-        <v>77</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F79">
         <v>77</v>
@@ -4546,14 +4624,15 @@
         <v>6</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D80">
         <v>12</v>
       </c>
       <c r="E80">
-        <v>78</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F80">
         <v>78</v>
@@ -4597,14 +4676,15 @@
         <v>6</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D81">
         <v>12</v>
       </c>
       <c r="E81">
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F81">
         <v>79</v>
@@ -4648,14 +4728,15 @@
         <v>6</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D82">
         <v>12</v>
       </c>
       <c r="E82">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F82">
         <v>80</v>
@@ -4699,14 +4780,15 @@
         <v>6</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D83">
         <v>12</v>
       </c>
       <c r="E83">
-        <v>81</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F83">
         <v>81</v>
@@ -4750,14 +4832,15 @@
         <v>6</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D84">
         <v>12</v>
       </c>
       <c r="E84">
-        <v>82</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F84">
         <v>82</v>
@@ -4801,14 +4884,15 @@
         <v>6</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D85">
         <v>12</v>
       </c>
       <c r="E85">
-        <v>83</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F85">
         <v>83</v>
@@ -4852,14 +4936,15 @@
         <v>6</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D86">
         <v>12</v>
       </c>
       <c r="E86">
-        <v>84</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F86">
         <v>84</v>
@@ -4903,14 +4988,15 @@
         <v>6</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D87">
         <v>12</v>
       </c>
       <c r="E87">
-        <v>85</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F87">
         <v>85</v>
@@ -4954,14 +5040,15 @@
         <v>6</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D88">
         <v>12</v>
       </c>
       <c r="E88">
-        <v>86</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F88">
         <v>86</v>
@@ -5005,14 +5092,15 @@
         <v>6</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D89">
         <v>12</v>
       </c>
       <c r="E89">
-        <v>87</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F89">
         <v>87</v>
@@ -5056,14 +5144,15 @@
         <v>6</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D90">
         <v>12</v>
       </c>
       <c r="E90">
-        <v>88</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F90">
         <v>88</v>
@@ -5107,14 +5196,15 @@
         <v>6</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D91">
         <v>12</v>
       </c>
       <c r="E91">
-        <v>89</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F91">
         <v>89</v>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E890ACF9-445A-4855-B034-D53327031AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA44813A-37C6-4C2F-A8C4-41F16CEE1A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="4320" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1395" yWindow="4665" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,6 +508,10 @@
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="18.75" customWidth="1"/>
+    <col min="13" max="13" width="23.375" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -594,21 +598,25 @@
         <v>1</v>
       </c>
       <c r="K2">
+        <f>50000+A2*1000</f>
         <v>50000</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10000</v>
+        <f>K2*2</f>
+        <v>100000</v>
       </c>
       <c r="N2">
         <v>2</v>
       </c>
       <c r="O2">
-        <v>1000</v>
+        <f>1000000+A2*10000</f>
+        <v>1000000</v>
       </c>
       <c r="P2">
+        <f>B2</f>
         <v>1</v>
       </c>
     </row>
@@ -646,21 +654,25 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>60000</v>
+        <f t="shared" ref="K3:K66" si="2">50000+A3*1000</f>
+        <v>51000</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10000</v>
+        <f t="shared" ref="M3:M66" si="3">K3*2</f>
+        <v>102000</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3">
-        <v>1000</v>
+        <f t="shared" ref="O3:O66" si="4">1000000+A3*10000</f>
+        <v>1010000</v>
       </c>
       <c r="P3">
+        <f t="shared" ref="P3:P66" si="5">B3</f>
         <v>1</v>
       </c>
     </row>
@@ -698,21 +710,25 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>70000</v>
+        <f t="shared" si="2"/>
+        <v>52000</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>104000</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1020000</v>
       </c>
       <c r="P4">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -750,21 +766,25 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>80000</v>
+        <f t="shared" si="2"/>
+        <v>53000</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>106000</v>
       </c>
       <c r="N5">
         <v>2</v>
       </c>
       <c r="O5">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1030000</v>
       </c>
       <c r="P5">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -802,21 +822,25 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>90000</v>
+        <f t="shared" si="2"/>
+        <v>54000</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>108000</v>
       </c>
       <c r="N6">
         <v>2</v>
       </c>
       <c r="O6">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1040000</v>
       </c>
       <c r="P6">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -854,21 +878,25 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>100000</v>
+        <f t="shared" si="2"/>
+        <v>55000</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>110000</v>
       </c>
       <c r="N7">
         <v>2</v>
       </c>
       <c r="O7">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1050000</v>
       </c>
       <c r="P7">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -906,21 +934,25 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>110000</v>
+        <f t="shared" si="2"/>
+        <v>56000</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>112000</v>
       </c>
       <c r="N8">
         <v>2</v>
       </c>
       <c r="O8">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1060000</v>
       </c>
       <c r="P8">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -958,21 +990,25 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>120000</v>
+        <f t="shared" si="2"/>
+        <v>57000</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>114000</v>
       </c>
       <c r="N9">
         <v>2</v>
       </c>
       <c r="O9">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1070000</v>
       </c>
       <c r="P9">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1010,21 +1046,25 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>130000</v>
+        <f t="shared" si="2"/>
+        <v>58000</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>116000</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1080000</v>
       </c>
       <c r="P10">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1062,21 +1102,25 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>140000</v>
+        <f t="shared" si="2"/>
+        <v>59000</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>118000</v>
       </c>
       <c r="N11">
         <v>2</v>
       </c>
       <c r="O11">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1090000</v>
       </c>
       <c r="P11">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1114,21 +1158,25 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>150000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>120000</v>
       </c>
       <c r="N12">
         <v>2</v>
       </c>
       <c r="O12">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1100000</v>
       </c>
       <c r="P12">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1166,21 +1214,25 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>160000</v>
+        <f t="shared" si="2"/>
+        <v>61000</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>122000</v>
       </c>
       <c r="N13">
         <v>2</v>
       </c>
       <c r="O13">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1110000</v>
       </c>
       <c r="P13">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1218,21 +1270,25 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>170000</v>
+        <f t="shared" si="2"/>
+        <v>62000</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>124000</v>
       </c>
       <c r="N14">
         <v>2</v>
       </c>
       <c r="O14">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1120000</v>
       </c>
       <c r="P14">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1270,21 +1326,25 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>180000</v>
+        <f t="shared" si="2"/>
+        <v>63000</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>126000</v>
       </c>
       <c r="N15">
         <v>2</v>
       </c>
       <c r="O15">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1130000</v>
       </c>
       <c r="P15">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1322,21 +1382,25 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>190000</v>
+        <f t="shared" si="2"/>
+        <v>64000</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>128000</v>
       </c>
       <c r="N16">
         <v>2</v>
       </c>
       <c r="O16">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1140000</v>
       </c>
       <c r="P16">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1374,22 +1438,26 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>200000</v>
+        <f t="shared" si="2"/>
+        <v>65000</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>130000</v>
       </c>
       <c r="N17">
         <v>2</v>
       </c>
       <c r="O17">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1150000</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1426,22 +1494,26 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>210000</v>
+        <f t="shared" si="2"/>
+        <v>66000</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>132000</v>
       </c>
       <c r="N18">
         <v>2</v>
       </c>
       <c r="O18">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1160000</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1478,22 +1550,26 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>220000</v>
+        <f t="shared" si="2"/>
+        <v>67000</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>134000</v>
       </c>
       <c r="N19">
         <v>2</v>
       </c>
       <c r="O19">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1170000</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1530,22 +1606,26 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>230000</v>
+        <f t="shared" si="2"/>
+        <v>68000</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>136000</v>
       </c>
       <c r="N20">
         <v>2</v>
       </c>
       <c r="O20">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1180000</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -1582,22 +1662,26 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>240000</v>
+        <f t="shared" si="2"/>
+        <v>69000</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>138000</v>
       </c>
       <c r="N21">
         <v>2</v>
       </c>
       <c r="O21">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1190000</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1634,22 +1718,26 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <v>250000</v>
+        <f t="shared" si="2"/>
+        <v>70000</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>140000</v>
       </c>
       <c r="N22">
         <v>2</v>
       </c>
       <c r="O22">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1200000</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -1686,22 +1774,26 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>260000</v>
+        <f t="shared" si="2"/>
+        <v>71000</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>142000</v>
       </c>
       <c r="N23">
         <v>2</v>
       </c>
       <c r="O23">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1210000</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -1738,22 +1830,26 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>270000</v>
+        <f t="shared" si="2"/>
+        <v>72000</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>144000</v>
       </c>
       <c r="N24">
         <v>2</v>
       </c>
       <c r="O24">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1220000</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -1790,22 +1886,26 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>280000</v>
+        <f t="shared" si="2"/>
+        <v>73000</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>146000</v>
       </c>
       <c r="N25">
         <v>2</v>
       </c>
       <c r="O25">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1230000</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -1842,22 +1942,26 @@
         <v>1</v>
       </c>
       <c r="K26">
-        <v>290000</v>
+        <f t="shared" si="2"/>
+        <v>74000</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>148000</v>
       </c>
       <c r="N26">
         <v>2</v>
       </c>
       <c r="O26">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1240000</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -1894,22 +1998,26 @@
         <v>1</v>
       </c>
       <c r="K27">
-        <v>300000</v>
+        <f t="shared" si="2"/>
+        <v>75000</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>150000</v>
       </c>
       <c r="N27">
         <v>2</v>
       </c>
       <c r="O27">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1250000</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -1946,22 +2054,26 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>310000</v>
+        <f t="shared" si="2"/>
+        <v>76000</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>152000</v>
       </c>
       <c r="N28">
         <v>2</v>
       </c>
       <c r="O28">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1260000</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -1998,22 +2110,26 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>320000</v>
+        <f t="shared" si="2"/>
+        <v>77000</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>154000</v>
       </c>
       <c r="N29">
         <v>2</v>
       </c>
       <c r="O29">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1270000</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2050,22 +2166,26 @@
         <v>1</v>
       </c>
       <c r="K30">
-        <v>330000</v>
+        <f t="shared" si="2"/>
+        <v>78000</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>156000</v>
       </c>
       <c r="N30">
         <v>2</v>
       </c>
       <c r="O30">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1280000</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2102,22 +2222,26 @@
         <v>1</v>
       </c>
       <c r="K31">
-        <v>340000</v>
+        <f t="shared" si="2"/>
+        <v>79000</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>158000</v>
       </c>
       <c r="N31">
         <v>2</v>
       </c>
       <c r="O31">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1290000</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2154,22 +2278,26 @@
         <v>1</v>
       </c>
       <c r="K32">
-        <v>350000</v>
+        <f t="shared" si="2"/>
+        <v>80000</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>160000</v>
       </c>
       <c r="N32">
         <v>2</v>
       </c>
       <c r="O32">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1300000</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2206,22 +2334,26 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>360000</v>
+        <f t="shared" si="2"/>
+        <v>81000</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>162000</v>
       </c>
       <c r="N33">
         <v>2</v>
       </c>
       <c r="O33">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1310000</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -2258,22 +2390,26 @@
         <v>1</v>
       </c>
       <c r="K34">
-        <v>370000</v>
+        <f t="shared" si="2"/>
+        <v>82000</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>164000</v>
       </c>
       <c r="N34">
         <v>2</v>
       </c>
       <c r="O34">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1320000</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2310,22 +2446,26 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>380000</v>
+        <f t="shared" si="2"/>
+        <v>83000</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>166000</v>
       </c>
       <c r="N35">
         <v>2</v>
       </c>
       <c r="O35">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1330000</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2362,22 +2502,26 @@
         <v>1</v>
       </c>
       <c r="K36">
-        <v>390000</v>
+        <f t="shared" si="2"/>
+        <v>84000</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>168000</v>
       </c>
       <c r="N36">
         <v>2</v>
       </c>
       <c r="O36">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1340000</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2414,22 +2558,26 @@
         <v>1</v>
       </c>
       <c r="K37">
-        <v>400000</v>
+        <f t="shared" si="2"/>
+        <v>85000</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>170000</v>
       </c>
       <c r="N37">
         <v>2</v>
       </c>
       <c r="O37">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1350000</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -2466,22 +2614,26 @@
         <v>1</v>
       </c>
       <c r="K38">
-        <v>410000</v>
+        <f t="shared" si="2"/>
+        <v>86000</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>172000</v>
       </c>
       <c r="N38">
         <v>2</v>
       </c>
       <c r="O38">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1360000</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -2518,22 +2670,26 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <v>420000</v>
+        <f t="shared" si="2"/>
+        <v>87000</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>174000</v>
       </c>
       <c r="N39">
         <v>2</v>
       </c>
       <c r="O39">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1370000</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -2570,22 +2726,26 @@
         <v>1</v>
       </c>
       <c r="K40">
-        <v>430000</v>
+        <f t="shared" si="2"/>
+        <v>88000</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>176000</v>
       </c>
       <c r="N40">
         <v>2</v>
       </c>
       <c r="O40">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1380000</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -2622,22 +2782,26 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>440000</v>
+        <f t="shared" si="2"/>
+        <v>89000</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>178000</v>
       </c>
       <c r="N41">
         <v>2</v>
       </c>
       <c r="O41">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1390000</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -2674,22 +2838,26 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>450000</v>
+        <f t="shared" si="2"/>
+        <v>90000</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>180000</v>
       </c>
       <c r="N42">
         <v>2</v>
       </c>
       <c r="O42">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1400000</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -2726,22 +2894,26 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <v>460000</v>
+        <f t="shared" si="2"/>
+        <v>91000</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>182000</v>
       </c>
       <c r="N43">
         <v>2</v>
       </c>
       <c r="O43">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1410000</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -2778,22 +2950,26 @@
         <v>1</v>
       </c>
       <c r="K44">
-        <v>470000</v>
+        <f t="shared" si="2"/>
+        <v>92000</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>184000</v>
       </c>
       <c r="N44">
         <v>2</v>
       </c>
       <c r="O44">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1420000</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -2830,22 +3006,26 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <v>480000</v>
+        <f t="shared" si="2"/>
+        <v>93000</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>186000</v>
       </c>
       <c r="N45">
         <v>2</v>
       </c>
       <c r="O45">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1430000</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -2882,22 +3062,26 @@
         <v>1</v>
       </c>
       <c r="K46">
-        <v>490000</v>
+        <f t="shared" si="2"/>
+        <v>94000</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>188000</v>
       </c>
       <c r="N46">
         <v>2</v>
       </c>
       <c r="O46">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1440000</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -2934,22 +3118,26 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <v>500000</v>
+        <f t="shared" si="2"/>
+        <v>95000</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>190000</v>
       </c>
       <c r="N47">
         <v>2</v>
       </c>
       <c r="O47">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1450000</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -2986,22 +3174,26 @@
         <v>1</v>
       </c>
       <c r="K48">
-        <v>510000</v>
+        <f t="shared" si="2"/>
+        <v>96000</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>192000</v>
       </c>
       <c r="N48">
         <v>2</v>
       </c>
       <c r="O48">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1460000</v>
       </c>
       <c r="P48">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3038,22 +3230,26 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>520000</v>
+        <f t="shared" si="2"/>
+        <v>97000</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>194000</v>
       </c>
       <c r="N49">
         <v>2</v>
       </c>
       <c r="O49">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1470000</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -3090,22 +3286,26 @@
         <v>1</v>
       </c>
       <c r="K50">
-        <v>530000</v>
+        <f t="shared" si="2"/>
+        <v>98000</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>196000</v>
       </c>
       <c r="N50">
         <v>2</v>
       </c>
       <c r="O50">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1480000</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -3142,22 +3342,26 @@
         <v>1</v>
       </c>
       <c r="K51">
-        <v>540000</v>
+        <f t="shared" si="2"/>
+        <v>99000</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>198000</v>
       </c>
       <c r="N51">
         <v>2</v>
       </c>
       <c r="O51">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1490000</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -3194,22 +3398,26 @@
         <v>1</v>
       </c>
       <c r="K52">
-        <v>550000</v>
+        <f t="shared" si="2"/>
+        <v>100000</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
       <c r="N52">
         <v>2</v>
       </c>
       <c r="O52">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1500000</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3246,22 +3454,26 @@
         <v>1</v>
       </c>
       <c r="K53">
-        <v>560000</v>
+        <f t="shared" si="2"/>
+        <v>101000</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>202000</v>
       </c>
       <c r="N53">
         <v>2</v>
       </c>
       <c r="O53">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1510000</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -3298,22 +3510,26 @@
         <v>1</v>
       </c>
       <c r="K54">
-        <v>570000</v>
+        <f t="shared" si="2"/>
+        <v>102000</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>204000</v>
       </c>
       <c r="N54">
         <v>2</v>
       </c>
       <c r="O54">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1520000</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -3350,22 +3566,26 @@
         <v>1</v>
       </c>
       <c r="K55">
-        <v>580000</v>
+        <f t="shared" si="2"/>
+        <v>103000</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>206000</v>
       </c>
       <c r="N55">
         <v>2</v>
       </c>
       <c r="O55">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1530000</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -3402,22 +3622,26 @@
         <v>1</v>
       </c>
       <c r="K56">
-        <v>590000</v>
+        <f t="shared" si="2"/>
+        <v>104000</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>208000</v>
       </c>
       <c r="N56">
         <v>2</v>
       </c>
       <c r="O56">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1540000</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -3454,22 +3678,26 @@
         <v>1</v>
       </c>
       <c r="K57">
-        <v>600000</v>
+        <f t="shared" si="2"/>
+        <v>105000</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>210000</v>
       </c>
       <c r="N57">
         <v>2</v>
       </c>
       <c r="O57">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1550000</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -3506,22 +3734,26 @@
         <v>1</v>
       </c>
       <c r="K58">
-        <v>610000</v>
+        <f t="shared" si="2"/>
+        <v>106000</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>212000</v>
       </c>
       <c r="N58">
         <v>2</v>
       </c>
       <c r="O58">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1560000</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -3558,22 +3790,26 @@
         <v>1</v>
       </c>
       <c r="K59">
-        <v>620000</v>
+        <f t="shared" si="2"/>
+        <v>107000</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>214000</v>
       </c>
       <c r="N59">
         <v>2</v>
       </c>
       <c r="O59">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1570000</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -3610,22 +3846,26 @@
         <v>1</v>
       </c>
       <c r="K60">
-        <v>630000</v>
+        <f t="shared" si="2"/>
+        <v>108000</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>216000</v>
       </c>
       <c r="N60">
         <v>2</v>
       </c>
       <c r="O60">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1580000</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -3662,22 +3902,26 @@
         <v>1</v>
       </c>
       <c r="K61">
-        <v>640000</v>
+        <f t="shared" si="2"/>
+        <v>109000</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>218000</v>
       </c>
       <c r="N61">
         <v>2</v>
       </c>
       <c r="O61">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1590000</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -3714,22 +3958,26 @@
         <v>1</v>
       </c>
       <c r="K62">
-        <v>650000</v>
+        <f t="shared" si="2"/>
+        <v>110000</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>220000</v>
       </c>
       <c r="N62">
         <v>2</v>
       </c>
       <c r="O62">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1600000</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -3766,22 +4014,26 @@
         <v>1</v>
       </c>
       <c r="K63">
-        <v>660000</v>
+        <f t="shared" si="2"/>
+        <v>111000</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>222000</v>
       </c>
       <c r="N63">
         <v>2</v>
       </c>
       <c r="O63">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1610000</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -3818,22 +4070,26 @@
         <v>1</v>
       </c>
       <c r="K64">
-        <v>670000</v>
+        <f t="shared" si="2"/>
+        <v>112000</v>
       </c>
       <c r="L64">
         <v>1</v>
       </c>
       <c r="M64">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>224000</v>
       </c>
       <c r="N64">
         <v>2</v>
       </c>
       <c r="O64">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1620000</v>
       </c>
       <c r="P64">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -3870,22 +4126,26 @@
         <v>1</v>
       </c>
       <c r="K65">
-        <v>680000</v>
+        <f t="shared" si="2"/>
+        <v>113000</v>
       </c>
       <c r="L65">
         <v>1</v>
       </c>
       <c r="M65">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>226000</v>
       </c>
       <c r="N65">
         <v>2</v>
       </c>
       <c r="O65">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1630000</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -3922,22 +4182,26 @@
         <v>1</v>
       </c>
       <c r="K66">
-        <v>690000</v>
+        <f t="shared" si="2"/>
+        <v>114000</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
       <c r="M66">
-        <v>10000</v>
+        <f t="shared" si="3"/>
+        <v>228000</v>
       </c>
       <c r="N66">
         <v>2</v>
       </c>
       <c r="O66">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1640000</v>
       </c>
       <c r="P66">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -3948,14 +4212,14 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C91" si="2">B67+5</f>
+        <f t="shared" ref="C67:C91" si="6">B67+5</f>
         <v>10</v>
       </c>
       <c r="D67">
         <v>12</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E91" si="3">B67</f>
+        <f t="shared" ref="E67:E91" si="7">B67</f>
         <v>5</v>
       </c>
       <c r="F67">
@@ -3974,22 +4238,26 @@
         <v>1</v>
       </c>
       <c r="K67">
-        <v>700000</v>
+        <f t="shared" ref="K67:K91" si="8">50000+A67*1000</f>
+        <v>115000</v>
       </c>
       <c r="L67">
         <v>1</v>
       </c>
       <c r="M67">
-        <v>10000</v>
+        <f t="shared" ref="M67:M91" si="9">K67*2</f>
+        <v>230000</v>
       </c>
       <c r="N67">
         <v>2</v>
       </c>
       <c r="O67">
-        <v>1000</v>
+        <f t="shared" ref="O67:O91" si="10">1000000+A67*10000</f>
+        <v>1650000</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <f t="shared" ref="P67:P91" si="11">B67</f>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4000,14 +4268,14 @@
         <v>5</v>
       </c>
       <c r="C68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D68">
         <v>12</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F68">
@@ -4026,22 +4294,26 @@
         <v>1</v>
       </c>
       <c r="K68">
-        <v>710000</v>
+        <f t="shared" si="8"/>
+        <v>116000</v>
       </c>
       <c r="L68">
         <v>1</v>
       </c>
       <c r="M68">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>232000</v>
       </c>
       <c r="N68">
         <v>2</v>
       </c>
       <c r="O68">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1660000</v>
       </c>
       <c r="P68">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4052,14 +4324,14 @@
         <v>5</v>
       </c>
       <c r="C69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D69">
         <v>12</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F69">
@@ -4078,22 +4350,26 @@
         <v>1</v>
       </c>
       <c r="K69">
-        <v>720000</v>
+        <f t="shared" si="8"/>
+        <v>117000</v>
       </c>
       <c r="L69">
         <v>1</v>
       </c>
       <c r="M69">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>234000</v>
       </c>
       <c r="N69">
         <v>2</v>
       </c>
       <c r="O69">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1670000</v>
       </c>
       <c r="P69">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -4104,14 +4380,14 @@
         <v>5</v>
       </c>
       <c r="C70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D70">
         <v>12</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F70">
@@ -4130,22 +4406,26 @@
         <v>1</v>
       </c>
       <c r="K70">
-        <v>730000</v>
+        <f t="shared" si="8"/>
+        <v>118000</v>
       </c>
       <c r="L70">
         <v>1</v>
       </c>
       <c r="M70">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>236000</v>
       </c>
       <c r="N70">
         <v>2</v>
       </c>
       <c r="O70">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1680000</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4156,14 +4436,14 @@
         <v>5</v>
       </c>
       <c r="C71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D71">
         <v>12</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F71">
@@ -4182,22 +4462,26 @@
         <v>1</v>
       </c>
       <c r="K71">
-        <v>740000</v>
+        <f t="shared" si="8"/>
+        <v>119000</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
       <c r="M71">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>238000</v>
       </c>
       <c r="N71">
         <v>2</v>
       </c>
       <c r="O71">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1690000</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4208,14 +4492,14 @@
         <v>5</v>
       </c>
       <c r="C72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D72">
         <v>12</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F72">
@@ -4234,22 +4518,26 @@
         <v>1</v>
       </c>
       <c r="K72">
-        <v>750000</v>
+        <f t="shared" si="8"/>
+        <v>120000</v>
       </c>
       <c r="L72">
         <v>1</v>
       </c>
       <c r="M72">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>240000</v>
       </c>
       <c r="N72">
         <v>2</v>
       </c>
       <c r="O72">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1700000</v>
       </c>
       <c r="P72">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -4260,14 +4548,14 @@
         <v>5</v>
       </c>
       <c r="C73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D73">
         <v>12</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F73">
@@ -4286,22 +4574,26 @@
         <v>1</v>
       </c>
       <c r="K73">
-        <v>760000</v>
+        <f t="shared" si="8"/>
+        <v>121000</v>
       </c>
       <c r="L73">
         <v>1</v>
       </c>
       <c r="M73">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>242000</v>
       </c>
       <c r="N73">
         <v>2</v>
       </c>
       <c r="O73">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1710000</v>
       </c>
       <c r="P73">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -4312,14 +4604,14 @@
         <v>5</v>
       </c>
       <c r="C74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D74">
         <v>12</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F74">
@@ -4338,22 +4630,26 @@
         <v>1</v>
       </c>
       <c r="K74">
-        <v>770000</v>
+        <f t="shared" si="8"/>
+        <v>122000</v>
       </c>
       <c r="L74">
         <v>1</v>
       </c>
       <c r="M74">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>244000</v>
       </c>
       <c r="N74">
         <v>2</v>
       </c>
       <c r="O74">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1720000</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -4364,14 +4660,14 @@
         <v>5</v>
       </c>
       <c r="C75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D75">
         <v>12</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F75">
@@ -4390,22 +4686,26 @@
         <v>1</v>
       </c>
       <c r="K75">
-        <v>780000</v>
+        <f t="shared" si="8"/>
+        <v>123000</v>
       </c>
       <c r="L75">
         <v>1</v>
       </c>
       <c r="M75">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>246000</v>
       </c>
       <c r="N75">
         <v>2</v>
       </c>
       <c r="O75">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1730000</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -4416,14 +4716,14 @@
         <v>5</v>
       </c>
       <c r="C76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D76">
         <v>12</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F76">
@@ -4442,22 +4742,26 @@
         <v>1</v>
       </c>
       <c r="K76">
-        <v>790000</v>
+        <f t="shared" si="8"/>
+        <v>124000</v>
       </c>
       <c r="L76">
         <v>1</v>
       </c>
       <c r="M76">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>248000</v>
       </c>
       <c r="N76">
         <v>2</v>
       </c>
       <c r="O76">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1740000</v>
       </c>
       <c r="P76">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -4468,14 +4772,14 @@
         <v>6</v>
       </c>
       <c r="C77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D77">
         <v>12</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F77">
@@ -4494,22 +4798,26 @@
         <v>1</v>
       </c>
       <c r="K77">
-        <v>800000</v>
+        <f t="shared" si="8"/>
+        <v>125000</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="M77">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>250000</v>
       </c>
       <c r="N77">
         <v>2</v>
       </c>
       <c r="O77">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1750000</v>
       </c>
       <c r="P77">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -4520,14 +4828,14 @@
         <v>6</v>
       </c>
       <c r="C78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D78">
         <v>12</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F78">
@@ -4546,22 +4854,26 @@
         <v>1</v>
       </c>
       <c r="K78">
-        <v>810000</v>
+        <f t="shared" si="8"/>
+        <v>126000</v>
       </c>
       <c r="L78">
         <v>1</v>
       </c>
       <c r="M78">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>252000</v>
       </c>
       <c r="N78">
         <v>2</v>
       </c>
       <c r="O78">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1760000</v>
       </c>
       <c r="P78">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -4572,14 +4884,14 @@
         <v>6</v>
       </c>
       <c r="C79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D79">
         <v>12</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F79">
@@ -4598,22 +4910,26 @@
         <v>1</v>
       </c>
       <c r="K79">
-        <v>820000</v>
+        <f t="shared" si="8"/>
+        <v>127000</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>254000</v>
       </c>
       <c r="N79">
         <v>2</v>
       </c>
       <c r="O79">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1770000</v>
       </c>
       <c r="P79">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -4624,14 +4940,14 @@
         <v>6</v>
       </c>
       <c r="C80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D80">
         <v>12</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F80">
@@ -4650,22 +4966,26 @@
         <v>1</v>
       </c>
       <c r="K80">
-        <v>830000</v>
+        <f t="shared" si="8"/>
+        <v>128000</v>
       </c>
       <c r="L80">
         <v>1</v>
       </c>
       <c r="M80">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>256000</v>
       </c>
       <c r="N80">
         <v>2</v>
       </c>
       <c r="O80">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1780000</v>
       </c>
       <c r="P80">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -4676,14 +4996,14 @@
         <v>6</v>
       </c>
       <c r="C81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D81">
         <v>12</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F81">
@@ -4702,22 +5022,26 @@
         <v>1</v>
       </c>
       <c r="K81">
-        <v>840000</v>
+        <f t="shared" si="8"/>
+        <v>129000</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
       <c r="M81">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>258000</v>
       </c>
       <c r="N81">
         <v>2</v>
       </c>
       <c r="O81">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1790000</v>
       </c>
       <c r="P81">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -4728,14 +5052,14 @@
         <v>6</v>
       </c>
       <c r="C82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D82">
         <v>12</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F82">
@@ -4754,22 +5078,26 @@
         <v>1</v>
       </c>
       <c r="K82">
-        <v>850000</v>
+        <f t="shared" si="8"/>
+        <v>130000</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
       <c r="M82">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>260000</v>
       </c>
       <c r="N82">
         <v>2</v>
       </c>
       <c r="O82">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1800000</v>
       </c>
       <c r="P82">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -4780,14 +5108,14 @@
         <v>6</v>
       </c>
       <c r="C83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D83">
         <v>12</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F83">
@@ -4806,22 +5134,26 @@
         <v>1</v>
       </c>
       <c r="K83">
-        <v>860000</v>
+        <f t="shared" si="8"/>
+        <v>131000</v>
       </c>
       <c r="L83">
         <v>1</v>
       </c>
       <c r="M83">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>262000</v>
       </c>
       <c r="N83">
         <v>2</v>
       </c>
       <c r="O83">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1810000</v>
       </c>
       <c r="P83">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -4832,14 +5164,14 @@
         <v>6</v>
       </c>
       <c r="C84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D84">
         <v>12</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F84">
@@ -4858,22 +5190,26 @@
         <v>1</v>
       </c>
       <c r="K84">
-        <v>870000</v>
+        <f t="shared" si="8"/>
+        <v>132000</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
       <c r="M84">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>264000</v>
       </c>
       <c r="N84">
         <v>2</v>
       </c>
       <c r="O84">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1820000</v>
       </c>
       <c r="P84">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -4884,14 +5220,14 @@
         <v>6</v>
       </c>
       <c r="C85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D85">
         <v>12</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F85">
@@ -4910,22 +5246,26 @@
         <v>1</v>
       </c>
       <c r="K85">
-        <v>880000</v>
+        <f t="shared" si="8"/>
+        <v>133000</v>
       </c>
       <c r="L85">
         <v>1</v>
       </c>
       <c r="M85">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>266000</v>
       </c>
       <c r="N85">
         <v>2</v>
       </c>
       <c r="O85">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1830000</v>
       </c>
       <c r="P85">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -4936,14 +5276,14 @@
         <v>6</v>
       </c>
       <c r="C86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D86">
         <v>12</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F86">
@@ -4962,22 +5302,26 @@
         <v>1</v>
       </c>
       <c r="K86">
-        <v>890000</v>
+        <f t="shared" si="8"/>
+        <v>134000</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
       <c r="M86">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>268000</v>
       </c>
       <c r="N86">
         <v>2</v>
       </c>
       <c r="O86">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1840000</v>
       </c>
       <c r="P86">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -4988,14 +5332,14 @@
         <v>6</v>
       </c>
       <c r="C87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D87">
         <v>12</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F87">
@@ -5014,22 +5358,26 @@
         <v>1</v>
       </c>
       <c r="K87">
-        <v>900000</v>
+        <f t="shared" si="8"/>
+        <v>135000</v>
       </c>
       <c r="L87">
         <v>1</v>
       </c>
       <c r="M87">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>270000</v>
       </c>
       <c r="N87">
         <v>2</v>
       </c>
       <c r="O87">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1850000</v>
       </c>
       <c r="P87">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
@@ -5040,14 +5388,14 @@
         <v>6</v>
       </c>
       <c r="C88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D88">
         <v>12</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F88">
@@ -5066,22 +5414,26 @@
         <v>1</v>
       </c>
       <c r="K88">
-        <v>910000</v>
+        <f t="shared" si="8"/>
+        <v>136000</v>
       </c>
       <c r="L88">
         <v>1</v>
       </c>
       <c r="M88">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>272000</v>
       </c>
       <c r="N88">
         <v>2</v>
       </c>
       <c r="O88">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1860000</v>
       </c>
       <c r="P88">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -5092,14 +5444,14 @@
         <v>6</v>
       </c>
       <c r="C89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D89">
         <v>12</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F89">
@@ -5118,22 +5470,26 @@
         <v>1</v>
       </c>
       <c r="K89">
-        <v>920000</v>
+        <f t="shared" si="8"/>
+        <v>137000</v>
       </c>
       <c r="L89">
         <v>1</v>
       </c>
       <c r="M89">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>274000</v>
       </c>
       <c r="N89">
         <v>2</v>
       </c>
       <c r="O89">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1870000</v>
       </c>
       <c r="P89">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -5144,14 +5500,14 @@
         <v>6</v>
       </c>
       <c r="C90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D90">
         <v>12</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F90">
@@ -5170,22 +5526,26 @@
         <v>1</v>
       </c>
       <c r="K90">
-        <v>930000</v>
+        <f t="shared" si="8"/>
+        <v>138000</v>
       </c>
       <c r="L90">
         <v>1</v>
       </c>
       <c r="M90">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>276000</v>
       </c>
       <c r="N90">
         <v>2</v>
       </c>
       <c r="O90">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1880000</v>
       </c>
       <c r="P90">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -5196,14 +5556,14 @@
         <v>6</v>
       </c>
       <c r="C91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D91">
         <v>12</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F91">
@@ -5222,22 +5582,26 @@
         <v>1</v>
       </c>
       <c r="K91">
-        <v>940000</v>
+        <f t="shared" si="8"/>
+        <v>139000</v>
       </c>
       <c r="L91">
         <v>1</v>
       </c>
       <c r="M91">
-        <v>10000</v>
+        <f t="shared" si="9"/>
+        <v>278000</v>
       </c>
       <c r="N91">
         <v>2</v>
       </c>
       <c r="O91">
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>1890000</v>
       </c>
       <c r="P91">
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA44813A-37C6-4C2F-A8C4-41F16CEE1A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B807D421-6ADB-49B9-87D4-10B2059B6073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="4665" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -576,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <f>B2</f>
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="1">B3</f>
@@ -688,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
@@ -744,7 +744,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
@@ -800,7 +800,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -856,7 +856,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
@@ -912,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
@@ -968,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
@@ -1024,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -1080,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
@@ -1136,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
@@ -1192,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
@@ -1248,7 +1248,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -1304,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
@@ -1360,7 +1360,7 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
@@ -1416,7 +1416,7 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
@@ -1472,7 +1472,7 @@
         <v>7</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
@@ -1528,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
@@ -1584,7 +1584,7 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
@@ -1640,7 +1640,7 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
@@ -1696,7 +1696,7 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
@@ -1752,7 +1752,7 @@
         <v>7</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
@@ -1808,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
@@ -1864,7 +1864,7 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
@@ -1920,7 +1920,7 @@
         <v>7</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
@@ -1976,7 +1976,7 @@
         <v>7</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
@@ -2032,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
@@ -2088,7 +2088,7 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
@@ -2144,7 +2144,7 @@
         <v>7</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
@@ -2200,7 +2200,7 @@
         <v>7</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
@@ -2256,7 +2256,7 @@
         <v>8</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
@@ -2312,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
@@ -2368,7 +2368,7 @@
         <v>8</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
@@ -2424,7 +2424,7 @@
         <v>8</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
@@ -2480,7 +2480,7 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
@@ -2536,7 +2536,7 @@
         <v>8</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
@@ -2592,7 +2592,7 @@
         <v>8</v>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
@@ -2648,7 +2648,7 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
@@ -2704,7 +2704,7 @@
         <v>8</v>
       </c>
       <c r="D40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
@@ -2760,7 +2760,7 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
@@ -2816,7 +2816,7 @@
         <v>8</v>
       </c>
       <c r="D42">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
@@ -2872,7 +2872,7 @@
         <v>8</v>
       </c>
       <c r="D43">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
@@ -2928,7 +2928,7 @@
         <v>8</v>
       </c>
       <c r="D44">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
@@ -2984,7 +2984,7 @@
         <v>8</v>
       </c>
       <c r="D45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
@@ -3040,7 +3040,7 @@
         <v>8</v>
       </c>
       <c r="D46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
@@ -3096,7 +3096,7 @@
         <v>9</v>
       </c>
       <c r="D47">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
@@ -3152,7 +3152,7 @@
         <v>9</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
@@ -3208,7 +3208,7 @@
         <v>9</v>
       </c>
       <c r="D49">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
@@ -3264,7 +3264,7 @@
         <v>9</v>
       </c>
       <c r="D50">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
@@ -3320,7 +3320,7 @@
         <v>9</v>
       </c>
       <c r="D51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51">
         <f t="shared" si="1"/>
@@ -3376,7 +3376,7 @@
         <v>9</v>
       </c>
       <c r="D52">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E52">
         <f t="shared" si="1"/>
@@ -3432,7 +3432,7 @@
         <v>9</v>
       </c>
       <c r="D53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53">
         <f t="shared" si="1"/>
@@ -3488,7 +3488,7 @@
         <v>9</v>
       </c>
       <c r="D54">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54">
         <f t="shared" si="1"/>
@@ -3544,7 +3544,7 @@
         <v>9</v>
       </c>
       <c r="D55">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E55">
         <f t="shared" si="1"/>
@@ -3600,7 +3600,7 @@
         <v>9</v>
       </c>
       <c r="D56">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56">
         <f t="shared" si="1"/>
@@ -3656,7 +3656,7 @@
         <v>9</v>
       </c>
       <c r="D57">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E57">
         <f t="shared" si="1"/>
@@ -3712,7 +3712,7 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58">
         <f t="shared" si="1"/>
@@ -3768,7 +3768,7 @@
         <v>9</v>
       </c>
       <c r="D59">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E59">
         <f t="shared" si="1"/>
@@ -3824,7 +3824,7 @@
         <v>9</v>
       </c>
       <c r="D60">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60">
         <f t="shared" si="1"/>
@@ -3880,7 +3880,7 @@
         <v>9</v>
       </c>
       <c r="D61">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E61">
         <f t="shared" si="1"/>
@@ -3936,7 +3936,7 @@
         <v>10</v>
       </c>
       <c r="D62">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E62">
         <f t="shared" si="1"/>
@@ -3992,7 +3992,7 @@
         <v>10</v>
       </c>
       <c r="D63">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63">
         <f t="shared" si="1"/>
@@ -4048,7 +4048,7 @@
         <v>10</v>
       </c>
       <c r="D64">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64">
         <f t="shared" si="1"/>
@@ -4104,7 +4104,7 @@
         <v>10</v>
       </c>
       <c r="D65">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E65">
         <f t="shared" si="1"/>
@@ -4160,7 +4160,7 @@
         <v>10</v>
       </c>
       <c r="D66">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E66">
         <f t="shared" si="1"/>
@@ -4216,7 +4216,7 @@
         <v>10</v>
       </c>
       <c r="D67">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E91" si="7">B67</f>
@@ -4272,7 +4272,7 @@
         <v>10</v>
       </c>
       <c r="D68">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68">
         <f t="shared" si="7"/>
@@ -4328,7 +4328,7 @@
         <v>10</v>
       </c>
       <c r="D69">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E69">
         <f t="shared" si="7"/>
@@ -4384,7 +4384,7 @@
         <v>10</v>
       </c>
       <c r="D70">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70">
         <f t="shared" si="7"/>
@@ -4440,7 +4440,7 @@
         <v>10</v>
       </c>
       <c r="D71">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E71">
         <f t="shared" si="7"/>
@@ -4496,7 +4496,7 @@
         <v>10</v>
       </c>
       <c r="D72">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E72">
         <f t="shared" si="7"/>
@@ -4552,7 +4552,7 @@
         <v>10</v>
       </c>
       <c r="D73">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E73">
         <f t="shared" si="7"/>
@@ -4608,7 +4608,7 @@
         <v>10</v>
       </c>
       <c r="D74">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E74">
         <f t="shared" si="7"/>
@@ -4664,7 +4664,7 @@
         <v>10</v>
       </c>
       <c r="D75">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E75">
         <f t="shared" si="7"/>
@@ -4720,7 +4720,7 @@
         <v>10</v>
       </c>
       <c r="D76">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E76">
         <f t="shared" si="7"/>
@@ -4776,7 +4776,7 @@
         <v>11</v>
       </c>
       <c r="D77">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E77">
         <f t="shared" si="7"/>
@@ -4832,7 +4832,7 @@
         <v>11</v>
       </c>
       <c r="D78">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E78">
         <f t="shared" si="7"/>
@@ -4888,7 +4888,7 @@
         <v>11</v>
       </c>
       <c r="D79">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E79">
         <f t="shared" si="7"/>
@@ -4944,7 +4944,7 @@
         <v>11</v>
       </c>
       <c r="D80">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80">
         <f t="shared" si="7"/>
@@ -5000,7 +5000,7 @@
         <v>11</v>
       </c>
       <c r="D81">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E81">
         <f t="shared" si="7"/>
@@ -5056,7 +5056,7 @@
         <v>11</v>
       </c>
       <c r="D82">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E82">
         <f t="shared" si="7"/>
@@ -5112,7 +5112,7 @@
         <v>11</v>
       </c>
       <c r="D83">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E83">
         <f t="shared" si="7"/>
@@ -5168,7 +5168,7 @@
         <v>11</v>
       </c>
       <c r="D84">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E84">
         <f t="shared" si="7"/>
@@ -5224,7 +5224,7 @@
         <v>11</v>
       </c>
       <c r="D85">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E85">
         <f t="shared" si="7"/>
@@ -5280,7 +5280,7 @@
         <v>11</v>
       </c>
       <c r="D86">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E86">
         <f t="shared" si="7"/>
@@ -5336,7 +5336,7 @@
         <v>11</v>
       </c>
       <c r="D87">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E87">
         <f t="shared" si="7"/>
@@ -5392,7 +5392,7 @@
         <v>11</v>
       </c>
       <c r="D88">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E88">
         <f t="shared" si="7"/>
@@ -5448,7 +5448,7 @@
         <v>11</v>
       </c>
       <c r="D89">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E89">
         <f t="shared" si="7"/>
@@ -5504,7 +5504,7 @@
         <v>11</v>
       </c>
       <c r="D90">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E90">
         <f t="shared" si="7"/>
@@ -5560,7 +5560,7 @@
         <v>11</v>
       </c>
       <c r="D91">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E91">
         <f t="shared" si="7"/>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B807D421-6ADB-49B9-87D4-10B2059B6073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DFEF67-4011-4622-BF28-32AAEE865D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3180" yWindow="2730" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,15 +598,15 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <f>50000+A2*1000</f>
-        <v>50000</v>
+        <f>10000+A2*2000</f>
+        <v>10000</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
         <f>K2*2</f>
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -654,15 +654,15 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="2">50000+A3*1000</f>
-        <v>51000</v>
+        <f t="shared" ref="K3:K66" si="2">10000+A3*2000</f>
+        <v>12000</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M66" si="3">K3*2</f>
-        <v>102000</v>
+        <v>24000</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -711,14 +711,14 @@
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
-        <v>52000</v>
+        <v>14000</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
         <f t="shared" si="3"/>
-        <v>104000</v>
+        <v>28000</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -767,14 +767,14 @@
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
-        <v>53000</v>
+        <v>16000</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
         <f t="shared" si="3"/>
-        <v>106000</v>
+        <v>32000</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -823,14 +823,14 @@
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
-        <v>54000</v>
+        <v>18000</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
-        <v>108000</v>
+        <v>36000</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -879,14 +879,14 @@
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>55000</v>
+        <v>20000</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
         <f t="shared" si="3"/>
-        <v>110000</v>
+        <v>40000</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -935,14 +935,14 @@
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
-        <v>56000</v>
+        <v>22000</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
-        <v>112000</v>
+        <v>44000</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -991,14 +991,14 @@
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>57000</v>
+        <v>24000</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
         <f t="shared" si="3"/>
-        <v>114000</v>
+        <v>48000</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>58000</v>
+        <v>26000</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
         <f t="shared" si="3"/>
-        <v>116000</v>
+        <v>52000</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1103,14 +1103,14 @@
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>59000</v>
+        <v>28000</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
         <f t="shared" si="3"/>
-        <v>118000</v>
+        <v>56000</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1159,14 +1159,14 @@
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1215,14 +1215,14 @@
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>61000</v>
+        <v>32000</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
         <f t="shared" si="3"/>
-        <v>122000</v>
+        <v>64000</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1271,14 +1271,14 @@
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>62000</v>
+        <v>34000</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
         <f t="shared" si="3"/>
-        <v>124000</v>
+        <v>68000</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1327,14 +1327,14 @@
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>63000</v>
+        <v>36000</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
         <f t="shared" si="3"/>
-        <v>126000</v>
+        <v>72000</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1383,14 +1383,14 @@
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>64000</v>
+        <v>38000</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
         <f t="shared" si="3"/>
-        <v>128000</v>
+        <v>76000</v>
       </c>
       <c r="N16">
         <v>2</v>
@@ -1439,14 +1439,14 @@
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>65000</v>
+        <v>40000</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
         <f t="shared" si="3"/>
-        <v>130000</v>
+        <v>80000</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -1495,14 +1495,14 @@
       </c>
       <c r="K18">
         <f t="shared" si="2"/>
-        <v>66000</v>
+        <v>42000</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
         <f t="shared" si="3"/>
-        <v>132000</v>
+        <v>84000</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1551,14 +1551,14 @@
       </c>
       <c r="K19">
         <f t="shared" si="2"/>
-        <v>67000</v>
+        <v>44000</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
         <f t="shared" si="3"/>
-        <v>134000</v>
+        <v>88000</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -1607,14 +1607,14 @@
       </c>
       <c r="K20">
         <f t="shared" si="2"/>
-        <v>68000</v>
+        <v>46000</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
         <f t="shared" si="3"/>
-        <v>136000</v>
+        <v>92000</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -1663,14 +1663,14 @@
       </c>
       <c r="K21">
         <f t="shared" si="2"/>
-        <v>69000</v>
+        <v>48000</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
         <f t="shared" si="3"/>
-        <v>138000</v>
+        <v>96000</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1719,14 +1719,14 @@
       </c>
       <c r="K22">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
         <f t="shared" si="3"/>
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -1775,14 +1775,14 @@
       </c>
       <c r="K23">
         <f t="shared" si="2"/>
-        <v>71000</v>
+        <v>52000</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
         <f t="shared" si="3"/>
-        <v>142000</v>
+        <v>104000</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -1831,14 +1831,14 @@
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>72000</v>
+        <v>54000</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
         <f t="shared" si="3"/>
-        <v>144000</v>
+        <v>108000</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1887,14 +1887,14 @@
       </c>
       <c r="K25">
         <f t="shared" si="2"/>
-        <v>73000</v>
+        <v>56000</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
         <f t="shared" si="3"/>
-        <v>146000</v>
+        <v>112000</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1943,14 +1943,14 @@
       </c>
       <c r="K26">
         <f t="shared" si="2"/>
-        <v>74000</v>
+        <v>58000</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
         <f t="shared" si="3"/>
-        <v>148000</v>
+        <v>116000</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -1999,14 +1999,14 @@
       </c>
       <c r="K27">
         <f t="shared" si="2"/>
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
         <f t="shared" si="3"/>
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2055,14 +2055,14 @@
       </c>
       <c r="K28">
         <f t="shared" si="2"/>
-        <v>76000</v>
+        <v>62000</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
         <f t="shared" si="3"/>
-        <v>152000</v>
+        <v>124000</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -2111,14 +2111,14 @@
       </c>
       <c r="K29">
         <f t="shared" si="2"/>
-        <v>77000</v>
+        <v>64000</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
         <f t="shared" si="3"/>
-        <v>154000</v>
+        <v>128000</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -2167,14 +2167,14 @@
       </c>
       <c r="K30">
         <f t="shared" si="2"/>
-        <v>78000</v>
+        <v>66000</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
         <f t="shared" si="3"/>
-        <v>156000</v>
+        <v>132000</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -2223,14 +2223,14 @@
       </c>
       <c r="K31">
         <f t="shared" si="2"/>
-        <v>79000</v>
+        <v>68000</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
         <f t="shared" si="3"/>
-        <v>158000</v>
+        <v>136000</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -2279,14 +2279,14 @@
       </c>
       <c r="K32">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
         <f t="shared" si="3"/>
-        <v>160000</v>
+        <v>140000</v>
       </c>
       <c r="N32">
         <v>2</v>
@@ -2335,14 +2335,14 @@
       </c>
       <c r="K33">
         <f t="shared" si="2"/>
-        <v>81000</v>
+        <v>72000</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
         <f t="shared" si="3"/>
-        <v>162000</v>
+        <v>144000</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2391,14 +2391,14 @@
       </c>
       <c r="K34">
         <f t="shared" si="2"/>
-        <v>82000</v>
+        <v>74000</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
         <f t="shared" si="3"/>
-        <v>164000</v>
+        <v>148000</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -2447,14 +2447,14 @@
       </c>
       <c r="K35">
         <f t="shared" si="2"/>
-        <v>83000</v>
+        <v>76000</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
         <f t="shared" si="3"/>
-        <v>166000</v>
+        <v>152000</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2503,14 +2503,14 @@
       </c>
       <c r="K36">
         <f t="shared" si="2"/>
-        <v>84000</v>
+        <v>78000</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
         <f t="shared" si="3"/>
-        <v>168000</v>
+        <v>156000</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -2559,14 +2559,14 @@
       </c>
       <c r="K37">
         <f t="shared" si="2"/>
-        <v>85000</v>
+        <v>80000</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
         <f t="shared" si="3"/>
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="N37">
         <v>2</v>
@@ -2615,14 +2615,14 @@
       </c>
       <c r="K38">
         <f t="shared" si="2"/>
-        <v>86000</v>
+        <v>82000</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38">
         <f t="shared" si="3"/>
-        <v>172000</v>
+        <v>164000</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -2671,14 +2671,14 @@
       </c>
       <c r="K39">
         <f t="shared" si="2"/>
-        <v>87000</v>
+        <v>84000</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
         <f t="shared" si="3"/>
-        <v>174000</v>
+        <v>168000</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -2727,14 +2727,14 @@
       </c>
       <c r="K40">
         <f t="shared" si="2"/>
-        <v>88000</v>
+        <v>86000</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40">
         <f t="shared" si="3"/>
-        <v>176000</v>
+        <v>172000</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -2783,14 +2783,14 @@
       </c>
       <c r="K41">
         <f t="shared" si="2"/>
-        <v>89000</v>
+        <v>88000</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41">
         <f t="shared" si="3"/>
-        <v>178000</v>
+        <v>176000</v>
       </c>
       <c r="N41">
         <v>2</v>
@@ -2895,14 +2895,14 @@
       </c>
       <c r="K43">
         <f t="shared" si="2"/>
-        <v>91000</v>
+        <v>92000</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43">
         <f t="shared" si="3"/>
-        <v>182000</v>
+        <v>184000</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2951,14 +2951,14 @@
       </c>
       <c r="K44">
         <f t="shared" si="2"/>
-        <v>92000</v>
+        <v>94000</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44">
         <f t="shared" si="3"/>
-        <v>184000</v>
+        <v>188000</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -3007,14 +3007,14 @@
       </c>
       <c r="K45">
         <f t="shared" si="2"/>
-        <v>93000</v>
+        <v>96000</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45">
         <f t="shared" si="3"/>
-        <v>186000</v>
+        <v>192000</v>
       </c>
       <c r="N45">
         <v>2</v>
@@ -3063,14 +3063,14 @@
       </c>
       <c r="K46">
         <f t="shared" si="2"/>
-        <v>94000</v>
+        <v>98000</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46">
         <f t="shared" si="3"/>
-        <v>188000</v>
+        <v>196000</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -3119,14 +3119,14 @@
       </c>
       <c r="K47">
         <f t="shared" si="2"/>
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47">
         <f t="shared" si="3"/>
-        <v>190000</v>
+        <v>200000</v>
       </c>
       <c r="N47">
         <v>2</v>
@@ -3175,14 +3175,14 @@
       </c>
       <c r="K48">
         <f t="shared" si="2"/>
-        <v>96000</v>
+        <v>102000</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48">
         <f t="shared" si="3"/>
-        <v>192000</v>
+        <v>204000</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -3231,14 +3231,14 @@
       </c>
       <c r="K49">
         <f t="shared" si="2"/>
-        <v>97000</v>
+        <v>104000</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49">
         <f t="shared" si="3"/>
-        <v>194000</v>
+        <v>208000</v>
       </c>
       <c r="N49">
         <v>2</v>
@@ -3287,14 +3287,14 @@
       </c>
       <c r="K50">
         <f t="shared" si="2"/>
-        <v>98000</v>
+        <v>106000</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50">
         <f t="shared" si="3"/>
-        <v>196000</v>
+        <v>212000</v>
       </c>
       <c r="N50">
         <v>2</v>
@@ -3343,14 +3343,14 @@
       </c>
       <c r="K51">
         <f t="shared" si="2"/>
-        <v>99000</v>
+        <v>108000</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51">
         <f t="shared" si="3"/>
-        <v>198000</v>
+        <v>216000</v>
       </c>
       <c r="N51">
         <v>2</v>
@@ -3399,14 +3399,14 @@
       </c>
       <c r="K52">
         <f t="shared" si="2"/>
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52">
         <f t="shared" si="3"/>
-        <v>200000</v>
+        <v>220000</v>
       </c>
       <c r="N52">
         <v>2</v>
@@ -3455,14 +3455,14 @@
       </c>
       <c r="K53">
         <f t="shared" si="2"/>
-        <v>101000</v>
+        <v>112000</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53">
         <f t="shared" si="3"/>
-        <v>202000</v>
+        <v>224000</v>
       </c>
       <c r="N53">
         <v>2</v>
@@ -3511,14 +3511,14 @@
       </c>
       <c r="K54">
         <f t="shared" si="2"/>
-        <v>102000</v>
+        <v>114000</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54">
         <f t="shared" si="3"/>
-        <v>204000</v>
+        <v>228000</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -3567,14 +3567,14 @@
       </c>
       <c r="K55">
         <f t="shared" si="2"/>
-        <v>103000</v>
+        <v>116000</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55">
         <f t="shared" si="3"/>
-        <v>206000</v>
+        <v>232000</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -3623,14 +3623,14 @@
       </c>
       <c r="K56">
         <f t="shared" si="2"/>
-        <v>104000</v>
+        <v>118000</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56">
         <f t="shared" si="3"/>
-        <v>208000</v>
+        <v>236000</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -3679,14 +3679,14 @@
       </c>
       <c r="K57">
         <f t="shared" si="2"/>
-        <v>105000</v>
+        <v>120000</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57">
         <f t="shared" si="3"/>
-        <v>210000</v>
+        <v>240000</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -3735,14 +3735,14 @@
       </c>
       <c r="K58">
         <f t="shared" si="2"/>
-        <v>106000</v>
+        <v>122000</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58">
         <f t="shared" si="3"/>
-        <v>212000</v>
+        <v>244000</v>
       </c>
       <c r="N58">
         <v>2</v>
@@ -3791,14 +3791,14 @@
       </c>
       <c r="K59">
         <f t="shared" si="2"/>
-        <v>107000</v>
+        <v>124000</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59">
         <f t="shared" si="3"/>
-        <v>214000</v>
+        <v>248000</v>
       </c>
       <c r="N59">
         <v>2</v>
@@ -3847,14 +3847,14 @@
       </c>
       <c r="K60">
         <f t="shared" si="2"/>
-        <v>108000</v>
+        <v>126000</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60">
         <f t="shared" si="3"/>
-        <v>216000</v>
+        <v>252000</v>
       </c>
       <c r="N60">
         <v>2</v>
@@ -3903,14 +3903,14 @@
       </c>
       <c r="K61">
         <f t="shared" si="2"/>
-        <v>109000</v>
+        <v>128000</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61">
         <f t="shared" si="3"/>
-        <v>218000</v>
+        <v>256000</v>
       </c>
       <c r="N61">
         <v>2</v>
@@ -3959,14 +3959,14 @@
       </c>
       <c r="K62">
         <f t="shared" si="2"/>
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62">
         <f t="shared" si="3"/>
-        <v>220000</v>
+        <v>260000</v>
       </c>
       <c r="N62">
         <v>2</v>
@@ -4015,14 +4015,14 @@
       </c>
       <c r="K63">
         <f t="shared" si="2"/>
-        <v>111000</v>
+        <v>132000</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63">
         <f t="shared" si="3"/>
-        <v>222000</v>
+        <v>264000</v>
       </c>
       <c r="N63">
         <v>2</v>
@@ -4071,14 +4071,14 @@
       </c>
       <c r="K64">
         <f t="shared" si="2"/>
-        <v>112000</v>
+        <v>134000</v>
       </c>
       <c r="L64">
         <v>1</v>
       </c>
       <c r="M64">
         <f t="shared" si="3"/>
-        <v>224000</v>
+        <v>268000</v>
       </c>
       <c r="N64">
         <v>2</v>
@@ -4127,14 +4127,14 @@
       </c>
       <c r="K65">
         <f t="shared" si="2"/>
-        <v>113000</v>
+        <v>136000</v>
       </c>
       <c r="L65">
         <v>1</v>
       </c>
       <c r="M65">
         <f t="shared" si="3"/>
-        <v>226000</v>
+        <v>272000</v>
       </c>
       <c r="N65">
         <v>2</v>
@@ -4183,14 +4183,14 @@
       </c>
       <c r="K66">
         <f t="shared" si="2"/>
-        <v>114000</v>
+        <v>138000</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
       <c r="M66">
         <f t="shared" si="3"/>
-        <v>228000</v>
+        <v>276000</v>
       </c>
       <c r="N66">
         <v>2</v>
@@ -4238,15 +4238,15 @@
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K91" si="8">50000+A67*1000</f>
-        <v>115000</v>
+        <f t="shared" ref="K67:K91" si="8">10000+A67*2000</f>
+        <v>140000</v>
       </c>
       <c r="L67">
         <v>1</v>
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M91" si="9">K67*2</f>
-        <v>230000</v>
+        <v>280000</v>
       </c>
       <c r="N67">
         <v>2</v>
@@ -4295,14 +4295,14 @@
       </c>
       <c r="K68">
         <f t="shared" si="8"/>
-        <v>116000</v>
+        <v>142000</v>
       </c>
       <c r="L68">
         <v>1</v>
       </c>
       <c r="M68">
         <f t="shared" si="9"/>
-        <v>232000</v>
+        <v>284000</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -4351,14 +4351,14 @@
       </c>
       <c r="K69">
         <f t="shared" si="8"/>
-        <v>117000</v>
+        <v>144000</v>
       </c>
       <c r="L69">
         <v>1</v>
       </c>
       <c r="M69">
         <f t="shared" si="9"/>
-        <v>234000</v>
+        <v>288000</v>
       </c>
       <c r="N69">
         <v>2</v>
@@ -4407,14 +4407,14 @@
       </c>
       <c r="K70">
         <f t="shared" si="8"/>
-        <v>118000</v>
+        <v>146000</v>
       </c>
       <c r="L70">
         <v>1</v>
       </c>
       <c r="M70">
         <f t="shared" si="9"/>
-        <v>236000</v>
+        <v>292000</v>
       </c>
       <c r="N70">
         <v>2</v>
@@ -4463,14 +4463,14 @@
       </c>
       <c r="K71">
         <f t="shared" si="8"/>
-        <v>119000</v>
+        <v>148000</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
       <c r="M71">
         <f t="shared" si="9"/>
-        <v>238000</v>
+        <v>296000</v>
       </c>
       <c r="N71">
         <v>2</v>
@@ -4519,14 +4519,14 @@
       </c>
       <c r="K72">
         <f t="shared" si="8"/>
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="L72">
         <v>1</v>
       </c>
       <c r="M72">
         <f t="shared" si="9"/>
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="N72">
         <v>2</v>
@@ -4575,14 +4575,14 @@
       </c>
       <c r="K73">
         <f t="shared" si="8"/>
-        <v>121000</v>
+        <v>152000</v>
       </c>
       <c r="L73">
         <v>1</v>
       </c>
       <c r="M73">
         <f t="shared" si="9"/>
-        <v>242000</v>
+        <v>304000</v>
       </c>
       <c r="N73">
         <v>2</v>
@@ -4631,14 +4631,14 @@
       </c>
       <c r="K74">
         <f t="shared" si="8"/>
-        <v>122000</v>
+        <v>154000</v>
       </c>
       <c r="L74">
         <v>1</v>
       </c>
       <c r="M74">
         <f t="shared" si="9"/>
-        <v>244000</v>
+        <v>308000</v>
       </c>
       <c r="N74">
         <v>2</v>
@@ -4687,14 +4687,14 @@
       </c>
       <c r="K75">
         <f t="shared" si="8"/>
-        <v>123000</v>
+        <v>156000</v>
       </c>
       <c r="L75">
         <v>1</v>
       </c>
       <c r="M75">
         <f t="shared" si="9"/>
-        <v>246000</v>
+        <v>312000</v>
       </c>
       <c r="N75">
         <v>2</v>
@@ -4743,14 +4743,14 @@
       </c>
       <c r="K76">
         <f t="shared" si="8"/>
-        <v>124000</v>
+        <v>158000</v>
       </c>
       <c r="L76">
         <v>1</v>
       </c>
       <c r="M76">
         <f t="shared" si="9"/>
-        <v>248000</v>
+        <v>316000</v>
       </c>
       <c r="N76">
         <v>2</v>
@@ -4799,14 +4799,14 @@
       </c>
       <c r="K77">
         <f t="shared" si="8"/>
-        <v>125000</v>
+        <v>160000</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="M77">
         <f t="shared" si="9"/>
-        <v>250000</v>
+        <v>320000</v>
       </c>
       <c r="N77">
         <v>2</v>
@@ -4855,14 +4855,14 @@
       </c>
       <c r="K78">
         <f t="shared" si="8"/>
-        <v>126000</v>
+        <v>162000</v>
       </c>
       <c r="L78">
         <v>1</v>
       </c>
       <c r="M78">
         <f t="shared" si="9"/>
-        <v>252000</v>
+        <v>324000</v>
       </c>
       <c r="N78">
         <v>2</v>
@@ -4911,14 +4911,14 @@
       </c>
       <c r="K79">
         <f t="shared" si="8"/>
-        <v>127000</v>
+        <v>164000</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79">
         <f t="shared" si="9"/>
-        <v>254000</v>
+        <v>328000</v>
       </c>
       <c r="N79">
         <v>2</v>
@@ -4967,14 +4967,14 @@
       </c>
       <c r="K80">
         <f t="shared" si="8"/>
-        <v>128000</v>
+        <v>166000</v>
       </c>
       <c r="L80">
         <v>1</v>
       </c>
       <c r="M80">
         <f t="shared" si="9"/>
-        <v>256000</v>
+        <v>332000</v>
       </c>
       <c r="N80">
         <v>2</v>
@@ -5023,14 +5023,14 @@
       </c>
       <c r="K81">
         <f t="shared" si="8"/>
-        <v>129000</v>
+        <v>168000</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
       <c r="M81">
         <f t="shared" si="9"/>
-        <v>258000</v>
+        <v>336000</v>
       </c>
       <c r="N81">
         <v>2</v>
@@ -5079,14 +5079,14 @@
       </c>
       <c r="K82">
         <f t="shared" si="8"/>
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
       <c r="M82">
         <f t="shared" si="9"/>
-        <v>260000</v>
+        <v>340000</v>
       </c>
       <c r="N82">
         <v>2</v>
@@ -5135,14 +5135,14 @@
       </c>
       <c r="K83">
         <f t="shared" si="8"/>
-        <v>131000</v>
+        <v>172000</v>
       </c>
       <c r="L83">
         <v>1</v>
       </c>
       <c r="M83">
         <f t="shared" si="9"/>
-        <v>262000</v>
+        <v>344000</v>
       </c>
       <c r="N83">
         <v>2</v>
@@ -5191,14 +5191,14 @@
       </c>
       <c r="K84">
         <f t="shared" si="8"/>
-        <v>132000</v>
+        <v>174000</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
       <c r="M84">
         <f t="shared" si="9"/>
-        <v>264000</v>
+        <v>348000</v>
       </c>
       <c r="N84">
         <v>2</v>
@@ -5247,14 +5247,14 @@
       </c>
       <c r="K85">
         <f t="shared" si="8"/>
-        <v>133000</v>
+        <v>176000</v>
       </c>
       <c r="L85">
         <v>1</v>
       </c>
       <c r="M85">
         <f t="shared" si="9"/>
-        <v>266000</v>
+        <v>352000</v>
       </c>
       <c r="N85">
         <v>2</v>
@@ -5303,14 +5303,14 @@
       </c>
       <c r="K86">
         <f t="shared" si="8"/>
-        <v>134000</v>
+        <v>178000</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
       <c r="M86">
         <f t="shared" si="9"/>
-        <v>268000</v>
+        <v>356000</v>
       </c>
       <c r="N86">
         <v>2</v>
@@ -5359,14 +5359,14 @@
       </c>
       <c r="K87">
         <f t="shared" si="8"/>
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="L87">
         <v>1</v>
       </c>
       <c r="M87">
         <f t="shared" si="9"/>
-        <v>270000</v>
+        <v>360000</v>
       </c>
       <c r="N87">
         <v>2</v>
@@ -5415,14 +5415,14 @@
       </c>
       <c r="K88">
         <f t="shared" si="8"/>
-        <v>136000</v>
+        <v>182000</v>
       </c>
       <c r="L88">
         <v>1</v>
       </c>
       <c r="M88">
         <f t="shared" si="9"/>
-        <v>272000</v>
+        <v>364000</v>
       </c>
       <c r="N88">
         <v>2</v>
@@ -5471,14 +5471,14 @@
       </c>
       <c r="K89">
         <f t="shared" si="8"/>
-        <v>137000</v>
+        <v>184000</v>
       </c>
       <c r="L89">
         <v>1</v>
       </c>
       <c r="M89">
         <f t="shared" si="9"/>
-        <v>274000</v>
+        <v>368000</v>
       </c>
       <c r="N89">
         <v>2</v>
@@ -5527,14 +5527,14 @@
       </c>
       <c r="K90">
         <f t="shared" si="8"/>
-        <v>138000</v>
+        <v>186000</v>
       </c>
       <c r="L90">
         <v>1</v>
       </c>
       <c r="M90">
         <f t="shared" si="9"/>
-        <v>276000</v>
+        <v>372000</v>
       </c>
       <c r="N90">
         <v>2</v>
@@ -5583,14 +5583,14 @@
       </c>
       <c r="K91">
         <f t="shared" si="8"/>
-        <v>139000</v>
+        <v>188000</v>
       </c>
       <c r="L91">
         <v>1</v>
       </c>
       <c r="M91">
         <f t="shared" si="9"/>
-        <v>278000</v>
+        <v>376000</v>
       </c>
       <c r="N91">
         <v>2</v>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DFEF67-4011-4622-BF28-32AAEE865D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3E5613-5244-46F7-A3B1-678A6CA4EC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2730" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -616,8 +616,7 @@
         <v>1000000</v>
       </c>
       <c r="P2">
-        <f>B2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -672,8 +671,7 @@
         <v>1010000</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="5">B3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -728,8 +726,7 @@
         <v>1020000</v>
       </c>
       <c r="P4">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -784,8 +781,7 @@
         <v>1030000</v>
       </c>
       <c r="P5">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -840,8 +836,7 @@
         <v>1040000</v>
       </c>
       <c r="P6">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -896,8 +891,7 @@
         <v>1050000</v>
       </c>
       <c r="P7">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -952,8 +946,7 @@
         <v>1060000</v>
       </c>
       <c r="P8">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1008,8 +1001,7 @@
         <v>1070000</v>
       </c>
       <c r="P9">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1064,8 +1056,7 @@
         <v>1080000</v>
       </c>
       <c r="P10">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1120,8 +1111,7 @@
         <v>1090000</v>
       </c>
       <c r="P11">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1176,8 +1166,7 @@
         <v>1100000</v>
       </c>
       <c r="P12">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1232,8 +1221,7 @@
         <v>1110000</v>
       </c>
       <c r="P13">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1288,8 +1276,7 @@
         <v>1120000</v>
       </c>
       <c r="P14">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1344,8 +1331,7 @@
         <v>1130000</v>
       </c>
       <c r="P15">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1400,8 +1386,7 @@
         <v>1140000</v>
       </c>
       <c r="P16">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1456,8 +1441,7 @@
         <v>1150000</v>
       </c>
       <c r="P17">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1512,8 +1496,7 @@
         <v>1160000</v>
       </c>
       <c r="P18">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1568,8 +1551,7 @@
         <v>1170000</v>
       </c>
       <c r="P19">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1624,8 +1606,7 @@
         <v>1180000</v>
       </c>
       <c r="P20">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -1680,8 +1661,7 @@
         <v>1190000</v>
       </c>
       <c r="P21">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1736,8 +1716,7 @@
         <v>1200000</v>
       </c>
       <c r="P22">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -1792,8 +1771,7 @@
         <v>1210000</v>
       </c>
       <c r="P23">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -1848,8 +1826,7 @@
         <v>1220000</v>
       </c>
       <c r="P24">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -1904,8 +1881,7 @@
         <v>1230000</v>
       </c>
       <c r="P25">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -1960,8 +1936,7 @@
         <v>1240000</v>
       </c>
       <c r="P26">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2016,8 +1991,7 @@
         <v>1250000</v>
       </c>
       <c r="P27">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2072,8 +2046,7 @@
         <v>1260000</v>
       </c>
       <c r="P28">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2128,8 +2101,7 @@
         <v>1270000</v>
       </c>
       <c r="P29">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2184,8 +2156,7 @@
         <v>1280000</v>
       </c>
       <c r="P30">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2240,8 +2211,7 @@
         <v>1290000</v>
       </c>
       <c r="P31">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2296,8 +2266,7 @@
         <v>1300000</v>
       </c>
       <c r="P32">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2352,8 +2321,7 @@
         <v>1310000</v>
       </c>
       <c r="P33">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -2408,8 +2376,7 @@
         <v>1320000</v>
       </c>
       <c r="P34">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2464,8 +2431,7 @@
         <v>1330000</v>
       </c>
       <c r="P35">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2520,8 +2486,7 @@
         <v>1340000</v>
       </c>
       <c r="P36">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2576,8 +2541,7 @@
         <v>1350000</v>
       </c>
       <c r="P37">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -2632,8 +2596,7 @@
         <v>1360000</v>
       </c>
       <c r="P38">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -2688,8 +2651,7 @@
         <v>1370000</v>
       </c>
       <c r="P39">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -2744,8 +2706,7 @@
         <v>1380000</v>
       </c>
       <c r="P40">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -2800,8 +2761,7 @@
         <v>1390000</v>
       </c>
       <c r="P41">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -2856,8 +2816,7 @@
         <v>1400000</v>
       </c>
       <c r="P42">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -2912,8 +2871,7 @@
         <v>1410000</v>
       </c>
       <c r="P43">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -2968,8 +2926,7 @@
         <v>1420000</v>
       </c>
       <c r="P44">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3024,8 +2981,7 @@
         <v>1430000</v>
       </c>
       <c r="P45">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -3080,8 +3036,7 @@
         <v>1440000</v>
       </c>
       <c r="P46">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -3136,8 +3091,7 @@
         <v>1450000</v>
       </c>
       <c r="P47">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3192,8 +3146,7 @@
         <v>1460000</v>
       </c>
       <c r="P48">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3248,8 +3201,7 @@
         <v>1470000</v>
       </c>
       <c r="P49">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -3304,8 +3256,7 @@
         <v>1480000</v>
       </c>
       <c r="P50">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -3360,8 +3311,7 @@
         <v>1490000</v>
       </c>
       <c r="P51">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -3416,8 +3366,7 @@
         <v>1500000</v>
       </c>
       <c r="P52">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3472,8 +3421,7 @@
         <v>1510000</v>
       </c>
       <c r="P53">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -3528,8 +3476,7 @@
         <v>1520000</v>
       </c>
       <c r="P54">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -3584,8 +3531,7 @@
         <v>1530000</v>
       </c>
       <c r="P55">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -3640,8 +3586,7 @@
         <v>1540000</v>
       </c>
       <c r="P56">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -3696,8 +3641,7 @@
         <v>1550000</v>
       </c>
       <c r="P57">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -3752,8 +3696,7 @@
         <v>1560000</v>
       </c>
       <c r="P58">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -3808,8 +3751,7 @@
         <v>1570000</v>
       </c>
       <c r="P59">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -3864,8 +3806,7 @@
         <v>1580000</v>
       </c>
       <c r="P60">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -3920,8 +3861,7 @@
         <v>1590000</v>
       </c>
       <c r="P61">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -3976,8 +3916,7 @@
         <v>1600000</v>
       </c>
       <c r="P62">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -4032,8 +3971,7 @@
         <v>1610000</v>
       </c>
       <c r="P63">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -4088,8 +4026,7 @@
         <v>1620000</v>
       </c>
       <c r="P64">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -4144,8 +4081,7 @@
         <v>1630000</v>
       </c>
       <c r="P65">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -4200,8 +4136,7 @@
         <v>1640000</v>
       </c>
       <c r="P66">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -4212,14 +4147,14 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C91" si="6">B67+5</f>
+        <f t="shared" ref="C67:C91" si="5">B67+5</f>
         <v>10</v>
       </c>
       <c r="D67">
         <v>13</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E91" si="7">B67</f>
+        <f t="shared" ref="E67:E91" si="6">B67</f>
         <v>5</v>
       </c>
       <c r="F67">
@@ -4238,26 +4173,25 @@
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K91" si="8">10000+A67*2000</f>
+        <f t="shared" ref="K67:K91" si="7">10000+A67*2000</f>
         <v>140000</v>
       </c>
       <c r="L67">
         <v>1</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M91" si="9">K67*2</f>
+        <f t="shared" ref="M67:M91" si="8">K67*2</f>
         <v>280000</v>
       </c>
       <c r="N67">
         <v>2</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O91" si="10">1000000+A67*10000</f>
+        <f t="shared" ref="O67:O91" si="9">1000000+A67*10000</f>
         <v>1650000</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P91" si="11">B67</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4268,14 +4202,14 @@
         <v>5</v>
       </c>
       <c r="C68">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>13</v>
+      </c>
+      <c r="E68">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="D68">
-        <v>13</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F68">
@@ -4294,26 +4228,25 @@
         <v>1</v>
       </c>
       <c r="K68">
+        <f t="shared" si="7"/>
+        <v>142000</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
         <f t="shared" si="8"/>
-        <v>142000</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68">
+        <v>284000</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68">
         <f t="shared" si="9"/>
-        <v>284000</v>
-      </c>
-      <c r="N68">
-        <v>2</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="10"/>
         <v>1660000</v>
       </c>
       <c r="P68">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4324,14 +4257,14 @@
         <v>5</v>
       </c>
       <c r="C69">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>13</v>
+      </c>
+      <c r="E69">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="D69">
-        <v>13</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F69">
@@ -4350,26 +4283,25 @@
         <v>1</v>
       </c>
       <c r="K69">
+        <f t="shared" si="7"/>
+        <v>144000</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="8"/>
-        <v>144000</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69">
+        <v>288000</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69">
         <f t="shared" si="9"/>
-        <v>288000</v>
-      </c>
-      <c r="N69">
-        <v>2</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="10"/>
         <v>1670000</v>
       </c>
       <c r="P69">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -4380,14 +4312,14 @@
         <v>5</v>
       </c>
       <c r="C70">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>13</v>
+      </c>
+      <c r="E70">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="D70">
-        <v>13</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F70">
@@ -4406,26 +4338,25 @@
         <v>1</v>
       </c>
       <c r="K70">
+        <f t="shared" si="7"/>
+        <v>146000</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="8"/>
-        <v>146000</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
+        <v>292000</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70">
         <f t="shared" si="9"/>
-        <v>292000</v>
-      </c>
-      <c r="N70">
-        <v>2</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="10"/>
         <v>1680000</v>
       </c>
       <c r="P70">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4436,14 +4367,14 @@
         <v>5</v>
       </c>
       <c r="C71">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>13</v>
+      </c>
+      <c r="E71">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="D71">
-        <v>13</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F71">
@@ -4462,26 +4393,25 @@
         <v>1</v>
       </c>
       <c r="K71">
+        <f t="shared" si="7"/>
+        <v>148000</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
         <f t="shared" si="8"/>
-        <v>148000</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
+        <v>296000</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71">
         <f t="shared" si="9"/>
-        <v>296000</v>
-      </c>
-      <c r="N71">
-        <v>2</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="10"/>
         <v>1690000</v>
       </c>
       <c r="P71">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4492,14 +4422,14 @@
         <v>5</v>
       </c>
       <c r="C72">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>13</v>
+      </c>
+      <c r="E72">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="D72">
-        <v>13</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F72">
@@ -4518,26 +4448,25 @@
         <v>1</v>
       </c>
       <c r="K72">
+        <f t="shared" si="7"/>
+        <v>150000</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="8"/>
-        <v>150000</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
+        <v>300000</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72">
         <f t="shared" si="9"/>
-        <v>300000</v>
-      </c>
-      <c r="N72">
-        <v>2</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="10"/>
         <v>1700000</v>
       </c>
       <c r="P72">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -4548,14 +4477,14 @@
         <v>5</v>
       </c>
       <c r="C73">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>13</v>
+      </c>
+      <c r="E73">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="D73">
-        <v>13</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F73">
@@ -4574,26 +4503,25 @@
         <v>1</v>
       </c>
       <c r="K73">
+        <f t="shared" si="7"/>
+        <v>152000</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="8"/>
-        <v>152000</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
+        <v>304000</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73">
         <f t="shared" si="9"/>
-        <v>304000</v>
-      </c>
-      <c r="N73">
-        <v>2</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="10"/>
         <v>1710000</v>
       </c>
       <c r="P73">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -4604,14 +4532,14 @@
         <v>5</v>
       </c>
       <c r="C74">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>13</v>
+      </c>
+      <c r="E74">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="D74">
-        <v>13</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F74">
@@ -4630,26 +4558,25 @@
         <v>1</v>
       </c>
       <c r="K74">
+        <f t="shared" si="7"/>
+        <v>154000</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="8"/>
-        <v>154000</v>
-      </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-      <c r="M74">
+        <v>308000</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74">
         <f t="shared" si="9"/>
-        <v>308000</v>
-      </c>
-      <c r="N74">
-        <v>2</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="10"/>
         <v>1720000</v>
       </c>
       <c r="P74">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -4660,14 +4587,14 @@
         <v>5</v>
       </c>
       <c r="C75">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>13</v>
+      </c>
+      <c r="E75">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="D75">
-        <v>13</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F75">
@@ -4686,26 +4613,25 @@
         <v>1</v>
       </c>
       <c r="K75">
+        <f t="shared" si="7"/>
+        <v>156000</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="8"/>
-        <v>156000</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
+        <v>312000</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75">
         <f t="shared" si="9"/>
-        <v>312000</v>
-      </c>
-      <c r="N75">
-        <v>2</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="10"/>
         <v>1730000</v>
       </c>
       <c r="P75">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -4716,14 +4642,14 @@
         <v>5</v>
       </c>
       <c r="C76">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>13</v>
+      </c>
+      <c r="E76">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="D76">
-        <v>13</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F76">
@@ -4742,26 +4668,25 @@
         <v>1</v>
       </c>
       <c r="K76">
+        <f t="shared" si="7"/>
+        <v>158000</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
         <f t="shared" si="8"/>
-        <v>158000</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
+        <v>316000</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76">
         <f t="shared" si="9"/>
-        <v>316000</v>
-      </c>
-      <c r="N76">
-        <v>2</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="10"/>
         <v>1740000</v>
       </c>
       <c r="P76">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -4772,14 +4697,14 @@
         <v>6</v>
       </c>
       <c r="C77">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>13</v>
+      </c>
+      <c r="E77">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="D77">
-        <v>13</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F77">
@@ -4798,26 +4723,25 @@
         <v>1</v>
       </c>
       <c r="K77">
+        <f t="shared" si="7"/>
+        <v>160000</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
         <f t="shared" si="8"/>
-        <v>160000</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
+        <v>320000</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77">
         <f t="shared" si="9"/>
-        <v>320000</v>
-      </c>
-      <c r="N77">
-        <v>2</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="10"/>
         <v>1750000</v>
       </c>
       <c r="P77">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -4828,14 +4752,14 @@
         <v>6</v>
       </c>
       <c r="C78">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D78">
+        <v>13</v>
+      </c>
+      <c r="E78">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="D78">
-        <v>13</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F78">
@@ -4854,26 +4778,25 @@
         <v>1</v>
       </c>
       <c r="K78">
+        <f t="shared" si="7"/>
+        <v>162000</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
         <f t="shared" si="8"/>
-        <v>162000</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
+        <v>324000</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78">
         <f t="shared" si="9"/>
-        <v>324000</v>
-      </c>
-      <c r="N78">
-        <v>2</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="10"/>
         <v>1760000</v>
       </c>
       <c r="P78">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -4884,14 +4807,14 @@
         <v>6</v>
       </c>
       <c r="C79">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>13</v>
+      </c>
+      <c r="E79">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="D79">
-        <v>13</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F79">
@@ -4910,26 +4833,25 @@
         <v>1</v>
       </c>
       <c r="K79">
+        <f t="shared" si="7"/>
+        <v>164000</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
         <f t="shared" si="8"/>
-        <v>164000</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79">
+        <v>328000</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79">
         <f t="shared" si="9"/>
-        <v>328000</v>
-      </c>
-      <c r="N79">
-        <v>2</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="10"/>
         <v>1770000</v>
       </c>
       <c r="P79">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -4940,14 +4862,14 @@
         <v>6</v>
       </c>
       <c r="C80">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>13</v>
+      </c>
+      <c r="E80">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="D80">
-        <v>13</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F80">
@@ -4966,26 +4888,25 @@
         <v>1</v>
       </c>
       <c r="K80">
+        <f t="shared" si="7"/>
+        <v>166000</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
         <f t="shared" si="8"/>
-        <v>166000</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80">
+        <v>332000</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80">
         <f t="shared" si="9"/>
-        <v>332000</v>
-      </c>
-      <c r="N80">
-        <v>2</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="10"/>
         <v>1780000</v>
       </c>
       <c r="P80">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -4996,14 +4917,14 @@
         <v>6</v>
       </c>
       <c r="C81">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>13</v>
+      </c>
+      <c r="E81">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="D81">
-        <v>13</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F81">
@@ -5022,26 +4943,25 @@
         <v>1</v>
       </c>
       <c r="K81">
+        <f t="shared" si="7"/>
+        <v>168000</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
         <f t="shared" si="8"/>
-        <v>168000</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81">
+        <v>336000</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81">
         <f t="shared" si="9"/>
-        <v>336000</v>
-      </c>
-      <c r="N81">
-        <v>2</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="10"/>
         <v>1790000</v>
       </c>
       <c r="P81">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -5052,14 +4972,14 @@
         <v>6</v>
       </c>
       <c r="C82">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>13</v>
+      </c>
+      <c r="E82">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="D82">
-        <v>13</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F82">
@@ -5078,26 +4998,25 @@
         <v>1</v>
       </c>
       <c r="K82">
+        <f t="shared" si="7"/>
+        <v>170000</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
         <f t="shared" si="8"/>
-        <v>170000</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82">
+        <v>340000</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82">
         <f t="shared" si="9"/>
-        <v>340000</v>
-      </c>
-      <c r="N82">
-        <v>2</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="10"/>
         <v>1800000</v>
       </c>
       <c r="P82">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -5108,14 +5027,14 @@
         <v>6</v>
       </c>
       <c r="C83">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D83">
+        <v>13</v>
+      </c>
+      <c r="E83">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="D83">
-        <v>13</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F83">
@@ -5134,26 +5053,25 @@
         <v>1</v>
       </c>
       <c r="K83">
+        <f t="shared" si="7"/>
+        <v>172000</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
         <f t="shared" si="8"/>
-        <v>172000</v>
-      </c>
-      <c r="L83">
-        <v>1</v>
-      </c>
-      <c r="M83">
+        <v>344000</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83">
         <f t="shared" si="9"/>
-        <v>344000</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="10"/>
         <v>1810000</v>
       </c>
       <c r="P83">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -5164,14 +5082,14 @@
         <v>6</v>
       </c>
       <c r="C84">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>13</v>
+      </c>
+      <c r="E84">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="D84">
-        <v>13</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F84">
@@ -5190,26 +5108,25 @@
         <v>1</v>
       </c>
       <c r="K84">
+        <f t="shared" si="7"/>
+        <v>174000</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
         <f t="shared" si="8"/>
-        <v>174000</v>
-      </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-      <c r="M84">
+        <v>348000</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
         <f t="shared" si="9"/>
-        <v>348000</v>
-      </c>
-      <c r="N84">
-        <v>2</v>
-      </c>
-      <c r="O84">
-        <f t="shared" si="10"/>
         <v>1820000</v>
       </c>
       <c r="P84">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -5220,14 +5137,14 @@
         <v>6</v>
       </c>
       <c r="C85">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>13</v>
+      </c>
+      <c r="E85">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="D85">
-        <v>13</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F85">
@@ -5246,26 +5163,25 @@
         <v>1</v>
       </c>
       <c r="K85">
+        <f t="shared" si="7"/>
+        <v>176000</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
         <f t="shared" si="8"/>
-        <v>176000</v>
-      </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-      <c r="M85">
+        <v>352000</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
         <f t="shared" si="9"/>
-        <v>352000</v>
-      </c>
-      <c r="N85">
-        <v>2</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="10"/>
         <v>1830000</v>
       </c>
       <c r="P85">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -5276,14 +5192,14 @@
         <v>6</v>
       </c>
       <c r="C86">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>13</v>
+      </c>
+      <c r="E86">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="D86">
-        <v>13</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F86">
@@ -5302,26 +5218,25 @@
         <v>1</v>
       </c>
       <c r="K86">
+        <f t="shared" si="7"/>
+        <v>178000</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
         <f t="shared" si="8"/>
-        <v>178000</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86">
+        <v>356000</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86">
         <f t="shared" si="9"/>
-        <v>356000</v>
-      </c>
-      <c r="N86">
-        <v>2</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="10"/>
         <v>1840000</v>
       </c>
       <c r="P86">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -5332,14 +5247,14 @@
         <v>6</v>
       </c>
       <c r="C87">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D87">
+        <v>13</v>
+      </c>
+      <c r="E87">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="D87">
-        <v>13</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F87">
@@ -5358,26 +5273,25 @@
         <v>1</v>
       </c>
       <c r="K87">
+        <f t="shared" si="7"/>
+        <v>180000</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
         <f t="shared" si="8"/>
-        <v>180000</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87">
+        <v>360000</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87">
         <f t="shared" si="9"/>
-        <v>360000</v>
-      </c>
-      <c r="N87">
-        <v>2</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="10"/>
         <v>1850000</v>
       </c>
       <c r="P87">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
@@ -5388,14 +5302,14 @@
         <v>6</v>
       </c>
       <c r="C88">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>13</v>
+      </c>
+      <c r="E88">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="D88">
-        <v>13</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F88">
@@ -5414,26 +5328,25 @@
         <v>1</v>
       </c>
       <c r="K88">
+        <f t="shared" si="7"/>
+        <v>182000</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
         <f t="shared" si="8"/>
-        <v>182000</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88">
+        <v>364000</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
         <f t="shared" si="9"/>
-        <v>364000</v>
-      </c>
-      <c r="N88">
-        <v>2</v>
-      </c>
-      <c r="O88">
-        <f t="shared" si="10"/>
         <v>1860000</v>
       </c>
       <c r="P88">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -5444,14 +5357,14 @@
         <v>6</v>
       </c>
       <c r="C89">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>13</v>
+      </c>
+      <c r="E89">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="D89">
-        <v>13</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F89">
@@ -5470,26 +5383,25 @@
         <v>1</v>
       </c>
       <c r="K89">
+        <f t="shared" si="7"/>
+        <v>184000</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
         <f t="shared" si="8"/>
-        <v>184000</v>
-      </c>
-      <c r="L89">
-        <v>1</v>
-      </c>
-      <c r="M89">
+        <v>368000</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89">
         <f t="shared" si="9"/>
-        <v>368000</v>
-      </c>
-      <c r="N89">
-        <v>2</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="10"/>
         <v>1870000</v>
       </c>
       <c r="P89">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -5500,14 +5412,14 @@
         <v>6</v>
       </c>
       <c r="C90">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D90">
+        <v>13</v>
+      </c>
+      <c r="E90">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="D90">
-        <v>13</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F90">
@@ -5526,26 +5438,25 @@
         <v>1</v>
       </c>
       <c r="K90">
+        <f t="shared" si="7"/>
+        <v>186000</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
         <f t="shared" si="8"/>
-        <v>186000</v>
-      </c>
-      <c r="L90">
-        <v>1</v>
-      </c>
-      <c r="M90">
+        <v>372000</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90">
         <f t="shared" si="9"/>
-        <v>372000</v>
-      </c>
-      <c r="N90">
-        <v>2</v>
-      </c>
-      <c r="O90">
-        <f t="shared" si="10"/>
         <v>1880000</v>
       </c>
       <c r="P90">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -5556,14 +5467,14 @@
         <v>6</v>
       </c>
       <c r="C91">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>13</v>
+      </c>
+      <c r="E91">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="D91">
-        <v>13</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="F91">
@@ -5582,26 +5493,25 @@
         <v>1</v>
       </c>
       <c r="K91">
+        <f t="shared" si="7"/>
+        <v>188000</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
         <f t="shared" si="8"/>
-        <v>188000</v>
-      </c>
-      <c r="L91">
-        <v>1</v>
-      </c>
-      <c r="M91">
+        <v>376000</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91">
         <f t="shared" si="9"/>
-        <v>376000</v>
-      </c>
-      <c r="N91">
-        <v>2</v>
-      </c>
-      <c r="O91">
-        <f t="shared" si="10"/>
         <v>1890000</v>
       </c>
       <c r="P91">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3E5613-5244-46F7-A3B1-678A6CA4EC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0CDD31-D4CA-4BAF-BF1D-B976F00B26AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -612,8 +612,7 @@
         <v>2</v>
       </c>
       <c r="O2">
-        <f>1000000+A2*10000</f>
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -667,8 +666,7 @@
         <v>2</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O66" si="4">1000000+A3*10000</f>
-        <v>1010000</v>
+        <v>2010000</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -722,8 +720,7 @@
         <v>2</v>
       </c>
       <c r="O4">
-        <f t="shared" si="4"/>
-        <v>1020000</v>
+        <v>2020000</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -777,8 +774,7 @@
         <v>2</v>
       </c>
       <c r="O5">
-        <f t="shared" si="4"/>
-        <v>1030000</v>
+        <v>2030000</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -832,8 +828,7 @@
         <v>2</v>
       </c>
       <c r="O6">
-        <f t="shared" si="4"/>
-        <v>1040000</v>
+        <v>2040000</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -887,8 +882,7 @@
         <v>2</v>
       </c>
       <c r="O7">
-        <f t="shared" si="4"/>
-        <v>1050000</v>
+        <v>2050000</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -942,8 +936,7 @@
         <v>2</v>
       </c>
       <c r="O8">
-        <f t="shared" si="4"/>
-        <v>1060000</v>
+        <v>2060000</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -997,8 +990,7 @@
         <v>2</v>
       </c>
       <c r="O9">
-        <f t="shared" si="4"/>
-        <v>1070000</v>
+        <v>2070000</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1052,8 +1044,7 @@
         <v>2</v>
       </c>
       <c r="O10">
-        <f t="shared" si="4"/>
-        <v>1080000</v>
+        <v>2080000</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1107,8 +1098,7 @@
         <v>2</v>
       </c>
       <c r="O11">
-        <f t="shared" si="4"/>
-        <v>1090000</v>
+        <v>2090000</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1162,8 +1152,7 @@
         <v>2</v>
       </c>
       <c r="O12">
-        <f t="shared" si="4"/>
-        <v>1100000</v>
+        <v>2100000</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1217,8 +1206,7 @@
         <v>2</v>
       </c>
       <c r="O13">
-        <f t="shared" si="4"/>
-        <v>1110000</v>
+        <v>2110000</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1272,8 +1260,7 @@
         <v>2</v>
       </c>
       <c r="O14">
-        <f t="shared" si="4"/>
-        <v>1120000</v>
+        <v>2120000</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1327,8 +1314,7 @@
         <v>2</v>
       </c>
       <c r="O15">
-        <f t="shared" si="4"/>
-        <v>1130000</v>
+        <v>2130000</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1382,8 +1368,7 @@
         <v>2</v>
       </c>
       <c r="O16">
-        <f t="shared" si="4"/>
-        <v>1140000</v>
+        <v>2140000</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1437,8 +1422,7 @@
         <v>2</v>
       </c>
       <c r="O17">
-        <f t="shared" si="4"/>
-        <v>1150000</v>
+        <v>2150000</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1492,8 +1476,7 @@
         <v>2</v>
       </c>
       <c r="O18">
-        <f t="shared" si="4"/>
-        <v>1160000</v>
+        <v>2160000</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1547,8 +1530,7 @@
         <v>2</v>
       </c>
       <c r="O19">
-        <f t="shared" si="4"/>
-        <v>1170000</v>
+        <v>2170000</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1602,8 +1584,7 @@
         <v>2</v>
       </c>
       <c r="O20">
-        <f t="shared" si="4"/>
-        <v>1180000</v>
+        <v>2180000</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1657,8 +1638,7 @@
         <v>2</v>
       </c>
       <c r="O21">
-        <f t="shared" si="4"/>
-        <v>1190000</v>
+        <v>2190000</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1712,8 +1692,7 @@
         <v>2</v>
       </c>
       <c r="O22">
-        <f t="shared" si="4"/>
-        <v>1200000</v>
+        <v>2200000</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1767,8 +1746,7 @@
         <v>2</v>
       </c>
       <c r="O23">
-        <f t="shared" si="4"/>
-        <v>1210000</v>
+        <v>2210000</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1822,8 +1800,7 @@
         <v>2</v>
       </c>
       <c r="O24">
-        <f t="shared" si="4"/>
-        <v>1220000</v>
+        <v>2220000</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1877,8 +1854,7 @@
         <v>2</v>
       </c>
       <c r="O25">
-        <f t="shared" si="4"/>
-        <v>1230000</v>
+        <v>2230000</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -1932,8 +1908,7 @@
         <v>2</v>
       </c>
       <c r="O26">
-        <f t="shared" si="4"/>
-        <v>1240000</v>
+        <v>2240000</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -1987,8 +1962,7 @@
         <v>2</v>
       </c>
       <c r="O27">
-        <f t="shared" si="4"/>
-        <v>1250000</v>
+        <v>2250000</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2042,8 +2016,7 @@
         <v>2</v>
       </c>
       <c r="O28">
-        <f t="shared" si="4"/>
-        <v>1260000</v>
+        <v>2260000</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2097,8 +2070,7 @@
         <v>2</v>
       </c>
       <c r="O29">
-        <f t="shared" si="4"/>
-        <v>1270000</v>
+        <v>2270000</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2152,8 +2124,7 @@
         <v>2</v>
       </c>
       <c r="O30">
-        <f t="shared" si="4"/>
-        <v>1280000</v>
+        <v>2280000</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2207,8 +2178,7 @@
         <v>2</v>
       </c>
       <c r="O31">
-        <f t="shared" si="4"/>
-        <v>1290000</v>
+        <v>2290000</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2262,8 +2232,7 @@
         <v>2</v>
       </c>
       <c r="O32">
-        <f t="shared" si="4"/>
-        <v>1300000</v>
+        <v>2300000</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2317,8 +2286,7 @@
         <v>2</v>
       </c>
       <c r="O33">
-        <f t="shared" si="4"/>
-        <v>1310000</v>
+        <v>2310000</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2372,8 +2340,7 @@
         <v>2</v>
       </c>
       <c r="O34">
-        <f t="shared" si="4"/>
-        <v>1320000</v>
+        <v>2320000</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2427,8 +2394,7 @@
         <v>2</v>
       </c>
       <c r="O35">
-        <f t="shared" si="4"/>
-        <v>1330000</v>
+        <v>2330000</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2482,8 +2448,7 @@
         <v>2</v>
       </c>
       <c r="O36">
-        <f t="shared" si="4"/>
-        <v>1340000</v>
+        <v>2340000</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -2537,8 +2502,7 @@
         <v>2</v>
       </c>
       <c r="O37">
-        <f t="shared" si="4"/>
-        <v>1350000</v>
+        <v>2350000</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -2592,8 +2556,7 @@
         <v>2</v>
       </c>
       <c r="O38">
-        <f t="shared" si="4"/>
-        <v>1360000</v>
+        <v>2360000</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -2647,8 +2610,7 @@
         <v>2</v>
       </c>
       <c r="O39">
-        <f t="shared" si="4"/>
-        <v>1370000</v>
+        <v>2370000</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -2702,8 +2664,7 @@
         <v>2</v>
       </c>
       <c r="O40">
-        <f t="shared" si="4"/>
-        <v>1380000</v>
+        <v>2380000</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -2757,8 +2718,7 @@
         <v>2</v>
       </c>
       <c r="O41">
-        <f t="shared" si="4"/>
-        <v>1390000</v>
+        <v>2390000</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -2812,8 +2772,7 @@
         <v>2</v>
       </c>
       <c r="O42">
-        <f t="shared" si="4"/>
-        <v>1400000</v>
+        <v>2400000</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -2867,8 +2826,7 @@
         <v>2</v>
       </c>
       <c r="O43">
-        <f t="shared" si="4"/>
-        <v>1410000</v>
+        <v>2410000</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -2922,8 +2880,7 @@
         <v>2</v>
       </c>
       <c r="O44">
-        <f t="shared" si="4"/>
-        <v>1420000</v>
+        <v>2420000</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -2977,8 +2934,7 @@
         <v>2</v>
       </c>
       <c r="O45">
-        <f t="shared" si="4"/>
-        <v>1430000</v>
+        <v>2430000</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -3032,8 +2988,7 @@
         <v>2</v>
       </c>
       <c r="O46">
-        <f t="shared" si="4"/>
-        <v>1440000</v>
+        <v>2440000</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -3087,8 +3042,7 @@
         <v>2</v>
       </c>
       <c r="O47">
-        <f t="shared" si="4"/>
-        <v>1450000</v>
+        <v>2450000</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -3142,8 +3096,7 @@
         <v>2</v>
       </c>
       <c r="O48">
-        <f t="shared" si="4"/>
-        <v>1460000</v>
+        <v>2460000</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3197,8 +3150,7 @@
         <v>2</v>
       </c>
       <c r="O49">
-        <f t="shared" si="4"/>
-        <v>1470000</v>
+        <v>2470000</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3252,8 +3204,7 @@
         <v>2</v>
       </c>
       <c r="O50">
-        <f t="shared" si="4"/>
-        <v>1480000</v>
+        <v>2480000</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3307,8 +3258,7 @@
         <v>2</v>
       </c>
       <c r="O51">
-        <f t="shared" si="4"/>
-        <v>1490000</v>
+        <v>2490000</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3362,8 +3312,7 @@
         <v>2</v>
       </c>
       <c r="O52">
-        <f t="shared" si="4"/>
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -3417,8 +3366,7 @@
         <v>2</v>
       </c>
       <c r="O53">
-        <f t="shared" si="4"/>
-        <v>1510000</v>
+        <v>2510000</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -3472,8 +3420,7 @@
         <v>2</v>
       </c>
       <c r="O54">
-        <f t="shared" si="4"/>
-        <v>1520000</v>
+        <v>2520000</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -3527,8 +3474,7 @@
         <v>2</v>
       </c>
       <c r="O55">
-        <f t="shared" si="4"/>
-        <v>1530000</v>
+        <v>2530000</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -3582,8 +3528,7 @@
         <v>2</v>
       </c>
       <c r="O56">
-        <f t="shared" si="4"/>
-        <v>1540000</v>
+        <v>2540000</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3637,8 +3582,7 @@
         <v>2</v>
       </c>
       <c r="O57">
-        <f t="shared" si="4"/>
-        <v>1550000</v>
+        <v>2550000</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -3692,8 +3636,7 @@
         <v>2</v>
       </c>
       <c r="O58">
-        <f t="shared" si="4"/>
-        <v>1560000</v>
+        <v>2560000</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -3747,8 +3690,7 @@
         <v>2</v>
       </c>
       <c r="O59">
-        <f t="shared" si="4"/>
-        <v>1570000</v>
+        <v>2570000</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -3802,8 +3744,7 @@
         <v>2</v>
       </c>
       <c r="O60">
-        <f t="shared" si="4"/>
-        <v>1580000</v>
+        <v>2580000</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -3857,8 +3798,7 @@
         <v>2</v>
       </c>
       <c r="O61">
-        <f t="shared" si="4"/>
-        <v>1590000</v>
+        <v>2590000</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3912,8 +3852,7 @@
         <v>2</v>
       </c>
       <c r="O62">
-        <f t="shared" si="4"/>
-        <v>1600000</v>
+        <v>2600000</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3967,8 +3906,7 @@
         <v>2</v>
       </c>
       <c r="O63">
-        <f t="shared" si="4"/>
-        <v>1610000</v>
+        <v>2610000</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -4022,8 +3960,7 @@
         <v>2</v>
       </c>
       <c r="O64">
-        <f t="shared" si="4"/>
-        <v>1620000</v>
+        <v>2620000</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -4077,8 +4014,7 @@
         <v>2</v>
       </c>
       <c r="O65">
-        <f t="shared" si="4"/>
-        <v>1630000</v>
+        <v>2630000</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -4132,8 +4068,7 @@
         <v>2</v>
       </c>
       <c r="O66">
-        <f t="shared" si="4"/>
-        <v>1640000</v>
+        <v>2640000</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -4147,14 +4082,14 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C91" si="5">B67+5</f>
+        <f t="shared" ref="C67:C91" si="4">B67+5</f>
         <v>10</v>
       </c>
       <c r="D67">
         <v>13</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E91" si="6">B67</f>
+        <f t="shared" ref="E67:E91" si="5">B67</f>
         <v>5</v>
       </c>
       <c r="F67">
@@ -4173,22 +4108,21 @@
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K91" si="7">10000+A67*2000</f>
+        <f t="shared" ref="K67:K91" si="6">10000+A67*2000</f>
         <v>140000</v>
       </c>
       <c r="L67">
         <v>1</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M91" si="8">K67*2</f>
+        <f t="shared" ref="M67:M91" si="7">K67*2</f>
         <v>280000</v>
       </c>
       <c r="N67">
         <v>2</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O91" si="9">1000000+A67*10000</f>
-        <v>1650000</v>
+        <v>2650000</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -4202,14 +4136,14 @@
         <v>5</v>
       </c>
       <c r="C68">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>13</v>
+      </c>
+      <c r="E68">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="D68">
-        <v>13</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="F68">
@@ -4228,22 +4162,21 @@
         <v>1</v>
       </c>
       <c r="K68">
+        <f t="shared" si="6"/>
+        <v>142000</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
         <f t="shared" si="7"/>
-        <v>142000</v>
-      </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="8"/>
         <v>284000</v>
       </c>
       <c r="N68">
         <v>2</v>
       </c>
       <c r="O68">
-        <f t="shared" si="9"/>
-        <v>1660000</v>
+        <v>2660000</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4257,14 +4190,14 @@
         <v>5</v>
       </c>
       <c r="C69">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>13</v>
+      </c>
+      <c r="E69">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="D69">
-        <v>13</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="F69">
@@ -4283,22 +4216,21 @@
         <v>1</v>
       </c>
       <c r="K69">
+        <f t="shared" si="6"/>
+        <v>144000</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="7"/>
-        <v>144000</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="8"/>
         <v>288000</v>
       </c>
       <c r="N69">
         <v>2</v>
       </c>
       <c r="O69">
-        <f t="shared" si="9"/>
-        <v>1670000</v>
+        <v>2670000</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -4312,14 +4244,14 @@
         <v>5</v>
       </c>
       <c r="C70">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>13</v>
+      </c>
+      <c r="E70">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="D70">
-        <v>13</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="F70">
@@ -4338,22 +4270,21 @@
         <v>1</v>
       </c>
       <c r="K70">
+        <f t="shared" si="6"/>
+        <v>146000</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="7"/>
-        <v>146000</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="8"/>
         <v>292000</v>
       </c>
       <c r="N70">
         <v>2</v>
       </c>
       <c r="O70">
-        <f t="shared" si="9"/>
-        <v>1680000</v>
+        <v>2680000</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -4367,14 +4298,14 @@
         <v>5</v>
       </c>
       <c r="C71">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>13</v>
+      </c>
+      <c r="E71">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="D71">
-        <v>13</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="F71">
@@ -4393,22 +4324,21 @@
         <v>1</v>
       </c>
       <c r="K71">
+        <f t="shared" si="6"/>
+        <v>148000</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
         <f t="shared" si="7"/>
-        <v>148000</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="8"/>
         <v>296000</v>
       </c>
       <c r="N71">
         <v>2</v>
       </c>
       <c r="O71">
-        <f t="shared" si="9"/>
-        <v>1690000</v>
+        <v>2690000</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -4422,14 +4352,14 @@
         <v>5</v>
       </c>
       <c r="C72">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>13</v>
+      </c>
+      <c r="E72">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="D72">
-        <v>13</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="F72">
@@ -4448,22 +4378,21 @@
         <v>1</v>
       </c>
       <c r="K72">
+        <f t="shared" si="6"/>
+        <v>150000</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="7"/>
-        <v>150000</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="8"/>
         <v>300000</v>
       </c>
       <c r="N72">
         <v>2</v>
       </c>
       <c r="O72">
-        <f t="shared" si="9"/>
-        <v>1700000</v>
+        <v>2700000</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4477,14 +4406,14 @@
         <v>5</v>
       </c>
       <c r="C73">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>13</v>
+      </c>
+      <c r="E73">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="D73">
-        <v>13</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="F73">
@@ -4503,22 +4432,21 @@
         <v>1</v>
       </c>
       <c r="K73">
+        <f t="shared" si="6"/>
+        <v>152000</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="7"/>
-        <v>152000</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="8"/>
         <v>304000</v>
       </c>
       <c r="N73">
         <v>2</v>
       </c>
       <c r="O73">
-        <f t="shared" si="9"/>
-        <v>1710000</v>
+        <v>2710000</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4532,14 +4460,14 @@
         <v>5</v>
       </c>
       <c r="C74">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>13</v>
+      </c>
+      <c r="E74">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="D74">
-        <v>13</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="F74">
@@ -4558,22 +4486,21 @@
         <v>1</v>
       </c>
       <c r="K74">
+        <f t="shared" si="6"/>
+        <v>154000</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="7"/>
-        <v>154000</v>
-      </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="8"/>
         <v>308000</v>
       </c>
       <c r="N74">
         <v>2</v>
       </c>
       <c r="O74">
-        <f t="shared" si="9"/>
-        <v>1720000</v>
+        <v>2720000</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -4587,14 +4514,14 @@
         <v>5</v>
       </c>
       <c r="C75">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>13</v>
+      </c>
+      <c r="E75">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="D75">
-        <v>13</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="F75">
@@ -4613,22 +4540,21 @@
         <v>1</v>
       </c>
       <c r="K75">
+        <f t="shared" si="6"/>
+        <v>156000</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="7"/>
-        <v>156000</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="8"/>
         <v>312000</v>
       </c>
       <c r="N75">
         <v>2</v>
       </c>
       <c r="O75">
-        <f t="shared" si="9"/>
-        <v>1730000</v>
+        <v>2730000</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -4642,14 +4568,14 @@
         <v>5</v>
       </c>
       <c r="C76">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>13</v>
+      </c>
+      <c r="E76">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="D76">
-        <v>13</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="F76">
@@ -4668,22 +4594,21 @@
         <v>1</v>
       </c>
       <c r="K76">
+        <f t="shared" si="6"/>
+        <v>158000</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
         <f t="shared" si="7"/>
-        <v>158000</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="8"/>
         <v>316000</v>
       </c>
       <c r="N76">
         <v>2</v>
       </c>
       <c r="O76">
-        <f t="shared" si="9"/>
-        <v>1740000</v>
+        <v>2740000</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -4697,14 +4622,14 @@
         <v>6</v>
       </c>
       <c r="C77">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>13</v>
+      </c>
+      <c r="E77">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D77">
-        <v>13</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F77">
@@ -4723,22 +4648,21 @@
         <v>1</v>
       </c>
       <c r="K77">
+        <f t="shared" si="6"/>
+        <v>160000</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
         <f t="shared" si="7"/>
-        <v>160000</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="8"/>
         <v>320000</v>
       </c>
       <c r="N77">
         <v>2</v>
       </c>
       <c r="O77">
-        <f t="shared" si="9"/>
-        <v>1750000</v>
+        <v>2750000</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4752,14 +4676,14 @@
         <v>6</v>
       </c>
       <c r="C78">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D78">
+        <v>13</v>
+      </c>
+      <c r="E78">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D78">
-        <v>13</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F78">
@@ -4778,22 +4702,21 @@
         <v>1</v>
       </c>
       <c r="K78">
+        <f t="shared" si="6"/>
+        <v>162000</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
         <f t="shared" si="7"/>
-        <v>162000</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="8"/>
         <v>324000</v>
       </c>
       <c r="N78">
         <v>2</v>
       </c>
       <c r="O78">
-        <f t="shared" si="9"/>
-        <v>1760000</v>
+        <v>2760000</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -4807,14 +4730,14 @@
         <v>6</v>
       </c>
       <c r="C79">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>13</v>
+      </c>
+      <c r="E79">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D79">
-        <v>13</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F79">
@@ -4833,22 +4756,21 @@
         <v>1</v>
       </c>
       <c r="K79">
+        <f t="shared" si="6"/>
+        <v>164000</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
         <f t="shared" si="7"/>
-        <v>164000</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="8"/>
         <v>328000</v>
       </c>
       <c r="N79">
         <v>2</v>
       </c>
       <c r="O79">
-        <f t="shared" si="9"/>
-        <v>1770000</v>
+        <v>2770000</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -4862,14 +4784,14 @@
         <v>6</v>
       </c>
       <c r="C80">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>13</v>
+      </c>
+      <c r="E80">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D80">
-        <v>13</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F80">
@@ -4888,22 +4810,21 @@
         <v>1</v>
       </c>
       <c r="K80">
+        <f t="shared" si="6"/>
+        <v>166000</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
         <f t="shared" si="7"/>
-        <v>166000</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="8"/>
         <v>332000</v>
       </c>
       <c r="N80">
         <v>2</v>
       </c>
       <c r="O80">
-        <f t="shared" si="9"/>
-        <v>1780000</v>
+        <v>2780000</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -4917,14 +4838,14 @@
         <v>6</v>
       </c>
       <c r="C81">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>13</v>
+      </c>
+      <c r="E81">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D81">
-        <v>13</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F81">
@@ -4943,22 +4864,21 @@
         <v>1</v>
       </c>
       <c r="K81">
+        <f t="shared" si="6"/>
+        <v>168000</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
         <f t="shared" si="7"/>
-        <v>168000</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="8"/>
         <v>336000</v>
       </c>
       <c r="N81">
         <v>2</v>
       </c>
       <c r="O81">
-        <f t="shared" si="9"/>
-        <v>1790000</v>
+        <v>2790000</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -4972,14 +4892,14 @@
         <v>6</v>
       </c>
       <c r="C82">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>13</v>
+      </c>
+      <c r="E82">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D82">
-        <v>13</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F82">
@@ -4998,22 +4918,21 @@
         <v>1</v>
       </c>
       <c r="K82">
+        <f t="shared" si="6"/>
+        <v>170000</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
         <f t="shared" si="7"/>
-        <v>170000</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="8"/>
         <v>340000</v>
       </c>
       <c r="N82">
         <v>2</v>
       </c>
       <c r="O82">
-        <f t="shared" si="9"/>
-        <v>1800000</v>
+        <v>2800000</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -5027,14 +4946,14 @@
         <v>6</v>
       </c>
       <c r="C83">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D83">
+        <v>13</v>
+      </c>
+      <c r="E83">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D83">
-        <v>13</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F83">
@@ -5053,22 +4972,21 @@
         <v>1</v>
       </c>
       <c r="K83">
+        <f t="shared" si="6"/>
+        <v>172000</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
         <f t="shared" si="7"/>
-        <v>172000</v>
-      </c>
-      <c r="L83">
-        <v>1</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="8"/>
         <v>344000</v>
       </c>
       <c r="N83">
         <v>2</v>
       </c>
       <c r="O83">
-        <f t="shared" si="9"/>
-        <v>1810000</v>
+        <v>2810000</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -5082,14 +5000,14 @@
         <v>6</v>
       </c>
       <c r="C84">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>13</v>
+      </c>
+      <c r="E84">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D84">
-        <v>13</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F84">
@@ -5108,22 +5026,21 @@
         <v>1</v>
       </c>
       <c r="K84">
+        <f t="shared" si="6"/>
+        <v>174000</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
         <f t="shared" si="7"/>
-        <v>174000</v>
-      </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-      <c r="M84">
-        <f t="shared" si="8"/>
         <v>348000</v>
       </c>
       <c r="N84">
         <v>2</v>
       </c>
       <c r="O84">
-        <f t="shared" si="9"/>
-        <v>1820000</v>
+        <v>2820000</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -5137,14 +5054,14 @@
         <v>6</v>
       </c>
       <c r="C85">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>13</v>
+      </c>
+      <c r="E85">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D85">
-        <v>13</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F85">
@@ -5163,22 +5080,21 @@
         <v>1</v>
       </c>
       <c r="K85">
+        <f t="shared" si="6"/>
+        <v>176000</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
         <f t="shared" si="7"/>
-        <v>176000</v>
-      </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-      <c r="M85">
-        <f t="shared" si="8"/>
         <v>352000</v>
       </c>
       <c r="N85">
         <v>2</v>
       </c>
       <c r="O85">
-        <f t="shared" si="9"/>
-        <v>1830000</v>
+        <v>2830000</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -5192,14 +5108,14 @@
         <v>6</v>
       </c>
       <c r="C86">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>13</v>
+      </c>
+      <c r="E86">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D86">
-        <v>13</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F86">
@@ -5218,22 +5134,21 @@
         <v>1</v>
       </c>
       <c r="K86">
+        <f t="shared" si="6"/>
+        <v>178000</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
         <f t="shared" si="7"/>
-        <v>178000</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <f t="shared" si="8"/>
         <v>356000</v>
       </c>
       <c r="N86">
         <v>2</v>
       </c>
       <c r="O86">
-        <f t="shared" si="9"/>
-        <v>1840000</v>
+        <v>2840000</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -5247,14 +5162,14 @@
         <v>6</v>
       </c>
       <c r="C87">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D87">
+        <v>13</v>
+      </c>
+      <c r="E87">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D87">
-        <v>13</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F87">
@@ -5273,22 +5188,21 @@
         <v>1</v>
       </c>
       <c r="K87">
+        <f t="shared" si="6"/>
+        <v>180000</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
         <f t="shared" si="7"/>
-        <v>180000</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87">
-        <f t="shared" si="8"/>
         <v>360000</v>
       </c>
       <c r="N87">
         <v>2</v>
       </c>
       <c r="O87">
-        <f t="shared" si="9"/>
-        <v>1850000</v>
+        <v>2850000</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -5302,14 +5216,14 @@
         <v>6</v>
       </c>
       <c r="C88">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>13</v>
+      </c>
+      <c r="E88">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D88">
-        <v>13</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F88">
@@ -5328,22 +5242,21 @@
         <v>1</v>
       </c>
       <c r="K88">
+        <f t="shared" si="6"/>
+        <v>182000</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
         <f t="shared" si="7"/>
-        <v>182000</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88">
-        <f t="shared" si="8"/>
         <v>364000</v>
       </c>
       <c r="N88">
         <v>2</v>
       </c>
       <c r="O88">
-        <f t="shared" si="9"/>
-        <v>1860000</v>
+        <v>2860000</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -5357,14 +5270,14 @@
         <v>6</v>
       </c>
       <c r="C89">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>13</v>
+      </c>
+      <c r="E89">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D89">
-        <v>13</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F89">
@@ -5383,22 +5296,21 @@
         <v>1</v>
       </c>
       <c r="K89">
+        <f t="shared" si="6"/>
+        <v>184000</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
         <f t="shared" si="7"/>
-        <v>184000</v>
-      </c>
-      <c r="L89">
-        <v>1</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="8"/>
         <v>368000</v>
       </c>
       <c r="N89">
         <v>2</v>
       </c>
       <c r="O89">
-        <f t="shared" si="9"/>
-        <v>1870000</v>
+        <v>2870000</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -5412,14 +5324,14 @@
         <v>6</v>
       </c>
       <c r="C90">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D90">
+        <v>13</v>
+      </c>
+      <c r="E90">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D90">
-        <v>13</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F90">
@@ -5438,22 +5350,21 @@
         <v>1</v>
       </c>
       <c r="K90">
+        <f t="shared" si="6"/>
+        <v>186000</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
         <f t="shared" si="7"/>
-        <v>186000</v>
-      </c>
-      <c r="L90">
-        <v>1</v>
-      </c>
-      <c r="M90">
-        <f t="shared" si="8"/>
         <v>372000</v>
       </c>
       <c r="N90">
         <v>2</v>
       </c>
       <c r="O90">
-        <f t="shared" si="9"/>
-        <v>1880000</v>
+        <v>2880000</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -5467,14 +5378,14 @@
         <v>6</v>
       </c>
       <c r="C91">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>13</v>
+      </c>
+      <c r="E91">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="D91">
-        <v>13</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F91">
@@ -5493,22 +5404,21 @@
         <v>1</v>
       </c>
       <c r="K91">
+        <f t="shared" si="6"/>
+        <v>188000</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
         <f t="shared" si="7"/>
-        <v>188000</v>
-      </c>
-      <c r="L91">
-        <v>1</v>
-      </c>
-      <c r="M91">
-        <f t="shared" si="8"/>
         <v>376000</v>
       </c>
       <c r="N91">
         <v>2</v>
       </c>
       <c r="O91">
-        <f t="shared" si="9"/>
-        <v>1890000</v>
+        <v>2890000</v>
       </c>
       <c r="P91">
         <v>0</v>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0CDD31-D4CA-4BAF-BF1D-B976F00B26AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254FC688-2BEC-4060-A04A-632BF244182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="I18" t="s">
         <v>13</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="I19" t="s">
         <v>13</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="I48" t="s">
         <v>13</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="I49" t="s">
         <v>13</v>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="I50" t="s">
         <v>13</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="I51" t="s">
         <v>13</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I52" t="s">
         <v>13</v>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="I53" t="s">
         <v>13</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="I54" t="s">
         <v>13</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="I55" t="s">
         <v>13</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="I56" t="s">
         <v>13</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="I57" t="s">
         <v>13</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="I58" t="s">
         <v>13</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="I59" t="s">
         <v>13</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="I60" t="s">
         <v>13</v>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="I61" t="s">
         <v>13</v>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="I62" t="s">
         <v>13</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="I63" t="s">
         <v>13</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="I64" t="s">
         <v>13</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="I65" t="s">
         <v>13</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="I66" t="s">
         <v>13</v>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="I67" t="s">
         <v>13</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="I68" t="s">
         <v>13</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="I69" t="s">
         <v>13</v>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="I70" t="s">
         <v>13</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="I71" t="s">
         <v>13</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="I72" t="s">
         <v>13</v>
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="I73" t="s">
         <v>13</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="I74" t="s">
         <v>13</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="I75" t="s">
         <v>13</v>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="I76" t="s">
         <v>13</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I77" t="s">
         <v>13</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>100</v>
+        <v>252</v>
       </c>
       <c r="I78" t="s">
         <v>13</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="I79" t="s">
         <v>13</v>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="I80" t="s">
         <v>13</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="I81" t="s">
         <v>13</v>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="I82" t="s">
         <v>13</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c r="I83" t="s">
         <v>13</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="I84" t="s">
         <v>13</v>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c r="I85" t="s">
         <v>13</v>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c r="I86" t="s">
         <v>13</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="I87" t="s">
         <v>13</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="I88" t="s">
         <v>13</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c r="I89" t="s">
         <v>13</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="I90" t="s">
         <v>13</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="I91" t="s">
         <v>13</v>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254FC688-2BEC-4060-A04A-632BF244182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9507F0-45FC-4675-9ED6-BF3E0E67DE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,8 +137,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +156,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -160,24 +173,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T96" sqref="T96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4108,14 +4128,14 @@
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K91" si="6">10000+A67*2000</f>
+        <f t="shared" ref="K67:K121" si="6">10000+A67*2000</f>
         <v>140000</v>
       </c>
       <c r="L67">
         <v>1</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M91" si="7">K67*2</f>
+        <f t="shared" ref="M67:M121" si="7">K67*2</f>
         <v>280000</v>
       </c>
       <c r="N67">
@@ -5421,6 +5441,1626 @@
         <v>2890000</v>
       </c>
       <c r="P91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <v>7</v>
+      </c>
+      <c r="C92" s="2">
+        <f t="shared" ref="C92:C106" si="8">B92+5</f>
+        <v>12</v>
+      </c>
+      <c r="D92" s="2">
+        <v>13</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" ref="E92:E106" si="9">B92</f>
+        <v>7</v>
+      </c>
+      <c r="F92" s="2">
+        <v>90</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>280</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="2">
+        <v>1</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" si="6"/>
+        <v>190000</v>
+      </c>
+      <c r="L92" s="2">
+        <v>1</v>
+      </c>
+      <c r="M92" s="2">
+        <f t="shared" si="7"/>
+        <v>380000</v>
+      </c>
+      <c r="N92" s="2">
+        <v>2</v>
+      </c>
+      <c r="O92" s="2">
+        <v>2900000</v>
+      </c>
+      <c r="P92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <v>7</v>
+      </c>
+      <c r="C93" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D93" s="2">
+        <v>13</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F93" s="2">
+        <v>91</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>282</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="6"/>
+        <v>192000</v>
+      </c>
+      <c r="L93" s="2">
+        <v>1</v>
+      </c>
+      <c r="M93" s="2">
+        <f t="shared" si="7"/>
+        <v>384000</v>
+      </c>
+      <c r="N93" s="2">
+        <v>2</v>
+      </c>
+      <c r="O93" s="2">
+        <v>2910000</v>
+      </c>
+      <c r="P93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <v>7</v>
+      </c>
+      <c r="C94" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D94" s="2">
+        <v>13</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F94" s="2">
+        <v>92</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>284</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="2">
+        <v>1</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="6"/>
+        <v>194000</v>
+      </c>
+      <c r="L94" s="2">
+        <v>1</v>
+      </c>
+      <c r="M94" s="2">
+        <f t="shared" si="7"/>
+        <v>388000</v>
+      </c>
+      <c r="N94" s="2">
+        <v>2</v>
+      </c>
+      <c r="O94" s="2">
+        <v>2920000</v>
+      </c>
+      <c r="P94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <v>7</v>
+      </c>
+      <c r="C95" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D95" s="2">
+        <v>13</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F95" s="2">
+        <v>93</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
+        <v>286</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="2">
+        <v>1</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="6"/>
+        <v>196000</v>
+      </c>
+      <c r="L95" s="2">
+        <v>1</v>
+      </c>
+      <c r="M95" s="2">
+        <f t="shared" si="7"/>
+        <v>392000</v>
+      </c>
+      <c r="N95" s="2">
+        <v>2</v>
+      </c>
+      <c r="O95" s="2">
+        <v>2930000</v>
+      </c>
+      <c r="P95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <v>7</v>
+      </c>
+      <c r="C96" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D96" s="2">
+        <v>13</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F96" s="2">
+        <v>94</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>288</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="6"/>
+        <v>198000</v>
+      </c>
+      <c r="L96" s="2">
+        <v>1</v>
+      </c>
+      <c r="M96" s="2">
+        <f t="shared" si="7"/>
+        <v>396000</v>
+      </c>
+      <c r="N96" s="2">
+        <v>2</v>
+      </c>
+      <c r="O96" s="2">
+        <v>2940000</v>
+      </c>
+      <c r="P96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <v>7</v>
+      </c>
+      <c r="C97" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D97" s="2">
+        <v>13</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F97" s="2">
+        <v>95</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>290</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="L97" s="2">
+        <v>1</v>
+      </c>
+      <c r="M97" s="2">
+        <f t="shared" si="7"/>
+        <v>400000</v>
+      </c>
+      <c r="N97" s="2">
+        <v>2</v>
+      </c>
+      <c r="O97" s="2">
+        <v>2950000</v>
+      </c>
+      <c r="P97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <v>7</v>
+      </c>
+      <c r="C98" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D98" s="2">
+        <v>13</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F98" s="2">
+        <v>96</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
+        <v>292</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="6"/>
+        <v>202000</v>
+      </c>
+      <c r="L98" s="2">
+        <v>1</v>
+      </c>
+      <c r="M98" s="2">
+        <f t="shared" si="7"/>
+        <v>404000</v>
+      </c>
+      <c r="N98" s="2">
+        <v>2</v>
+      </c>
+      <c r="O98" s="2">
+        <v>2960000</v>
+      </c>
+      <c r="P98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>7</v>
+      </c>
+      <c r="C99" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D99" s="2">
+        <v>13</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F99" s="2">
+        <v>97</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0</v>
+      </c>
+      <c r="H99" s="2">
+        <v>294</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="2">
+        <v>1</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" si="6"/>
+        <v>204000</v>
+      </c>
+      <c r="L99" s="2">
+        <v>1</v>
+      </c>
+      <c r="M99" s="2">
+        <f t="shared" si="7"/>
+        <v>408000</v>
+      </c>
+      <c r="N99" s="2">
+        <v>2</v>
+      </c>
+      <c r="O99" s="2">
+        <v>2970000</v>
+      </c>
+      <c r="P99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>7</v>
+      </c>
+      <c r="C100" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D100" s="2">
+        <v>13</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F100" s="2">
+        <v>98</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2">
+        <v>296</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="2">
+        <v>1</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="6"/>
+        <v>206000</v>
+      </c>
+      <c r="L100" s="2">
+        <v>1</v>
+      </c>
+      <c r="M100" s="2">
+        <f t="shared" si="7"/>
+        <v>412000</v>
+      </c>
+      <c r="N100" s="2">
+        <v>2</v>
+      </c>
+      <c r="O100" s="2">
+        <v>2980000</v>
+      </c>
+      <c r="P100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>7</v>
+      </c>
+      <c r="C101" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D101" s="2">
+        <v>13</v>
+      </c>
+      <c r="E101" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F101" s="2">
+        <v>99</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2">
+        <v>298</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="2">
+        <v>1</v>
+      </c>
+      <c r="K101" s="2">
+        <f t="shared" si="6"/>
+        <v>208000</v>
+      </c>
+      <c r="L101" s="2">
+        <v>1</v>
+      </c>
+      <c r="M101" s="2">
+        <f t="shared" si="7"/>
+        <v>416000</v>
+      </c>
+      <c r="N101" s="2">
+        <v>2</v>
+      </c>
+      <c r="O101" s="2">
+        <v>2990000</v>
+      </c>
+      <c r="P101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <v>7</v>
+      </c>
+      <c r="C102" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D102" s="2">
+        <v>13</v>
+      </c>
+      <c r="E102" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F102" s="2">
+        <v>100</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>300</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="2">
+        <v>1</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" si="6"/>
+        <v>210000</v>
+      </c>
+      <c r="L102" s="2">
+        <v>1</v>
+      </c>
+      <c r="M102" s="2">
+        <f t="shared" si="7"/>
+        <v>420000</v>
+      </c>
+      <c r="N102" s="2">
+        <v>2</v>
+      </c>
+      <c r="O102" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="P102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <v>7</v>
+      </c>
+      <c r="C103" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D103" s="2">
+        <v>13</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F103" s="2">
+        <v>101</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2">
+        <v>302</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="2">
+        <v>1</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="6"/>
+        <v>212000</v>
+      </c>
+      <c r="L103" s="2">
+        <v>1</v>
+      </c>
+      <c r="M103" s="2">
+        <f t="shared" si="7"/>
+        <v>424000</v>
+      </c>
+      <c r="N103" s="2">
+        <v>2</v>
+      </c>
+      <c r="O103" s="2">
+        <v>3010000</v>
+      </c>
+      <c r="P103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <v>7</v>
+      </c>
+      <c r="C104" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D104" s="2">
+        <v>13</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F104" s="2">
+        <v>102</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2">
+        <v>304</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="2">
+        <v>1</v>
+      </c>
+      <c r="K104" s="2">
+        <f t="shared" si="6"/>
+        <v>214000</v>
+      </c>
+      <c r="L104" s="2">
+        <v>1</v>
+      </c>
+      <c r="M104" s="2">
+        <f t="shared" si="7"/>
+        <v>428000</v>
+      </c>
+      <c r="N104" s="2">
+        <v>2</v>
+      </c>
+      <c r="O104" s="2">
+        <v>3020000</v>
+      </c>
+      <c r="P104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <v>7</v>
+      </c>
+      <c r="C105" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D105" s="2">
+        <v>13</v>
+      </c>
+      <c r="E105" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F105" s="2">
+        <v>103</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2">
+        <v>306</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="2">
+        <v>1</v>
+      </c>
+      <c r="K105" s="2">
+        <f t="shared" si="6"/>
+        <v>216000</v>
+      </c>
+      <c r="L105" s="2">
+        <v>1</v>
+      </c>
+      <c r="M105" s="2">
+        <f t="shared" si="7"/>
+        <v>432000</v>
+      </c>
+      <c r="N105" s="2">
+        <v>2</v>
+      </c>
+      <c r="O105" s="2">
+        <v>3030000</v>
+      </c>
+      <c r="P105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <v>7</v>
+      </c>
+      <c r="C106" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D106" s="2">
+        <v>13</v>
+      </c>
+      <c r="E106" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="F106" s="2">
+        <v>104</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2">
+        <v>308</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" s="2">
+        <v>1</v>
+      </c>
+      <c r="K106" s="2">
+        <f t="shared" si="6"/>
+        <v>218000</v>
+      </c>
+      <c r="L106" s="2">
+        <v>1</v>
+      </c>
+      <c r="M106" s="2">
+        <f t="shared" si="7"/>
+        <v>436000</v>
+      </c>
+      <c r="N106" s="2">
+        <v>2</v>
+      </c>
+      <c r="O106" s="2">
+        <v>3040000</v>
+      </c>
+      <c r="P106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ref="C107:C121" si="10">B107+5</f>
+        <v>13</v>
+      </c>
+      <c r="D107">
+        <v>13</v>
+      </c>
+      <c r="E107">
+        <f t="shared" ref="E107:E121" si="11">B107</f>
+        <v>8</v>
+      </c>
+      <c r="F107" s="2">
+        <v>105</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2">
+        <v>310</v>
+      </c>
+      <c r="I107" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107" s="2">
+        <f t="shared" si="6"/>
+        <v>220000</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107" s="2">
+        <f t="shared" si="7"/>
+        <v>440000</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" s="2">
+        <v>3050000</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D108">
+        <v>13</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="F108" s="2">
+        <v>106</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" s="2">
+        <v>312</v>
+      </c>
+      <c r="I108" t="s">
+        <v>13</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" s="2">
+        <f t="shared" si="6"/>
+        <v>222000</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108" s="2">
+        <f t="shared" si="7"/>
+        <v>444000</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" s="2">
+        <v>3060000</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D109">
+        <v>13</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="F109" s="2">
+        <v>107</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2">
+        <v>314</v>
+      </c>
+      <c r="I109" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" s="2">
+        <f t="shared" si="6"/>
+        <v>224000</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109" s="2">
+        <f t="shared" si="7"/>
+        <v>448000</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+      <c r="O109" s="2">
+        <v>3070000</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D110">
+        <v>13</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="F110" s="2">
+        <v>108</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2">
+        <v>316</v>
+      </c>
+      <c r="I110" t="s">
+        <v>13</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" s="2">
+        <f t="shared" si="6"/>
+        <v>226000</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110" s="2">
+        <f t="shared" si="7"/>
+        <v>452000</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" s="2">
+        <v>3080000</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D111">
+        <v>13</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="F111" s="2">
+        <v>109</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" s="2">
+        <v>318</v>
+      </c>
+      <c r="I111" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" s="2">
+        <f t="shared" si="6"/>
+        <v>228000</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111" s="2">
+        <f t="shared" si="7"/>
+        <v>456000</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" s="2">
+        <v>3090000</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D112">
+        <v>13</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="F112" s="2">
+        <v>110</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2">
+        <v>320</v>
+      </c>
+      <c r="I112" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112" s="2">
+        <f t="shared" si="6"/>
+        <v>230000</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112" s="2">
+        <f t="shared" si="7"/>
+        <v>460000</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" s="2">
+        <v>3100000</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D113">
+        <v>13</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="F113" s="2">
+        <v>111</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113" s="2">
+        <v>322</v>
+      </c>
+      <c r="I113" t="s">
+        <v>13</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113" s="2">
+        <f t="shared" si="6"/>
+        <v>232000</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113" s="2">
+        <f t="shared" si="7"/>
+        <v>464000</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" s="2">
+        <v>3110000</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D114">
+        <v>13</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="F114" s="2">
+        <v>112</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <v>324</v>
+      </c>
+      <c r="I114" t="s">
+        <v>13</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114" s="2">
+        <f t="shared" si="6"/>
+        <v>234000</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114" s="2">
+        <f t="shared" si="7"/>
+        <v>468000</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" s="2">
+        <v>3120000</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D115">
+        <v>13</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="F115" s="2">
+        <v>113</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2">
+        <v>326</v>
+      </c>
+      <c r="I115" t="s">
+        <v>13</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115" s="2">
+        <f t="shared" si="6"/>
+        <v>236000</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115" s="2">
+        <f t="shared" si="7"/>
+        <v>472000</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" s="2">
+        <v>3130000</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D116">
+        <v>13</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="F116" s="2">
+        <v>114</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2">
+        <v>328</v>
+      </c>
+      <c r="I116" t="s">
+        <v>13</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116" s="2">
+        <f t="shared" si="6"/>
+        <v>238000</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116" s="2">
+        <f t="shared" si="7"/>
+        <v>476000</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" s="2">
+        <v>3140000</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D117">
+        <v>13</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="F117" s="2">
+        <v>115</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117" s="2">
+        <v>330</v>
+      </c>
+      <c r="I117" t="s">
+        <v>13</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117" s="2">
+        <f t="shared" si="6"/>
+        <v>240000</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117" s="2">
+        <f t="shared" si="7"/>
+        <v>480000</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" s="2">
+        <v>3150000</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D118">
+        <v>13</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="F118" s="2">
+        <v>116</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2">
+        <v>332</v>
+      </c>
+      <c r="I118" t="s">
+        <v>13</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118" s="2">
+        <f t="shared" si="6"/>
+        <v>242000</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118" s="2">
+        <f t="shared" si="7"/>
+        <v>484000</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" s="2">
+        <v>3160000</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D119">
+        <v>13</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="F119" s="2">
+        <v>117</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119" s="2">
+        <v>334</v>
+      </c>
+      <c r="I119" t="s">
+        <v>13</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119" s="2">
+        <f t="shared" si="6"/>
+        <v>244000</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119" s="2">
+        <f t="shared" si="7"/>
+        <v>488000</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" s="2">
+        <v>3170000</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D120">
+        <v>13</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="F120" s="2">
+        <v>118</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120" s="2">
+        <v>336</v>
+      </c>
+      <c r="I120" t="s">
+        <v>13</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120" s="2">
+        <f t="shared" si="6"/>
+        <v>246000</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120" s="2">
+        <f t="shared" si="7"/>
+        <v>492000</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" s="2">
+        <v>3180000</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>8</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D121">
+        <v>13</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="F121" s="2">
+        <v>119</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121" s="2">
+        <v>338</v>
+      </c>
+      <c r="I121" t="s">
+        <v>13</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121" s="2">
+        <f t="shared" si="6"/>
+        <v>248000</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121" s="2">
+        <f t="shared" si="7"/>
+        <v>496000</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" s="2">
+        <v>3190000</v>
+      </c>
+      <c r="P121">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9507F0-45FC-4675-9ED6-BF3E0E67DE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4957CA27-635E-41FE-9478-FDA42E4E033A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="19">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +145,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,8 +171,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -172,8 +185,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,8 +211,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,9 +225,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+    <cellStyle name="메모" xfId="3" builtinId="10"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -510,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:P151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T96" sqref="T96"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P140" sqref="P140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -635,7 +673,7 @@
         <v>2000000</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -689,7 +727,7 @@
         <v>2010000</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -743,7 +781,7 @@
         <v>2020000</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -797,7 +835,7 @@
         <v>2030000</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -851,7 +889,7 @@
         <v>2040000</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -905,7 +943,7 @@
         <v>2050000</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -959,7 +997,7 @@
         <v>2060000</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1013,7 +1051,7 @@
         <v>2070000</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1067,7 +1105,7 @@
         <v>2080000</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1121,7 +1159,7 @@
         <v>2090000</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1175,7 +1213,7 @@
         <v>2100000</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1229,7 +1267,7 @@
         <v>2110000</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1283,7 +1321,7 @@
         <v>2120000</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1337,7 +1375,7 @@
         <v>2130000</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1391,7 +1429,7 @@
         <v>2140000</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1445,7 +1483,7 @@
         <v>2150000</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1499,7 +1537,7 @@
         <v>2160000</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1553,7 +1591,7 @@
         <v>2170000</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1607,7 +1645,7 @@
         <v>2180000</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -1661,7 +1699,7 @@
         <v>2190000</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1715,7 +1753,7 @@
         <v>2200000</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -1769,7 +1807,7 @@
         <v>2210000</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -1823,7 +1861,7 @@
         <v>2220000</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -1877,7 +1915,7 @@
         <v>2230000</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -1931,7 +1969,7 @@
         <v>2240000</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -1985,7 +2023,7 @@
         <v>2250000</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2039,7 +2077,7 @@
         <v>2260000</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2093,7 +2131,7 @@
         <v>2270000</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2147,7 +2185,7 @@
         <v>2280000</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2201,7 +2239,7 @@
         <v>2290000</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2255,7 +2293,7 @@
         <v>2300000</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2309,7 +2347,7 @@
         <v>2310000</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -2363,7 +2401,7 @@
         <v>2320000</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2417,7 +2455,7 @@
         <v>2330000</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2471,7 +2509,7 @@
         <v>2340000</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2525,7 +2563,7 @@
         <v>2350000</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -2579,7 +2617,7 @@
         <v>2360000</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -2633,7 +2671,7 @@
         <v>2370000</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -2687,7 +2725,7 @@
         <v>2380000</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -2741,7 +2779,7 @@
         <v>2390000</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -2795,7 +2833,7 @@
         <v>2400000</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -2849,7 +2887,7 @@
         <v>2410000</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -2903,7 +2941,7 @@
         <v>2420000</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -2957,7 +2995,7 @@
         <v>2430000</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -3011,7 +3049,7 @@
         <v>2440000</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -3065,7 +3103,7 @@
         <v>2450000</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3119,7 +3157,7 @@
         <v>2460000</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3173,7 +3211,7 @@
         <v>2470000</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -3227,7 +3265,7 @@
         <v>2480000</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -3281,7 +3319,7 @@
         <v>2490000</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -3335,7 +3373,7 @@
         <v>2500000</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3389,7 +3427,7 @@
         <v>2510000</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -3443,7 +3481,7 @@
         <v>2520000</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -3497,7 +3535,7 @@
         <v>2530000</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -3551,7 +3589,7 @@
         <v>2540000</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -3605,7 +3643,7 @@
         <v>2550000</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -3659,7 +3697,7 @@
         <v>2560000</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -3713,7 +3751,7 @@
         <v>2570000</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -3767,7 +3805,7 @@
         <v>2580000</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -3821,7 +3859,7 @@
         <v>2590000</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -3875,7 +3913,7 @@
         <v>2600000</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -3929,7 +3967,7 @@
         <v>2610000</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -3983,7 +4021,7 @@
         <v>2620000</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -4037,7 +4075,7 @@
         <v>2630000</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -4091,7 +4129,7 @@
         <v>2640000</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -4145,7 +4183,7 @@
         <v>2650000</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4199,7 +4237,7 @@
         <v>2660000</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4253,7 +4291,7 @@
         <v>2670000</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -4307,7 +4345,7 @@
         <v>2680000</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4361,7 +4399,7 @@
         <v>2690000</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4415,7 +4453,7 @@
         <v>2700000</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -4469,7 +4507,7 @@
         <v>2710000</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -4523,7 +4561,7 @@
         <v>2720000</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -4577,7 +4615,7 @@
         <v>2730000</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -4631,7 +4669,7 @@
         <v>2740000</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -4685,7 +4723,7 @@
         <v>2750000</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -4739,7 +4777,7 @@
         <v>2760000</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -4793,7 +4831,7 @@
         <v>2770000</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -4847,7 +4885,7 @@
         <v>2780000</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -4901,7 +4939,7 @@
         <v>2790000</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -4955,7 +4993,7 @@
         <v>2800000</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -5009,7 +5047,7 @@
         <v>2810000</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -5063,7 +5101,7 @@
         <v>2820000</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -5117,7 +5155,7 @@
         <v>2830000</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -5171,7 +5209,7 @@
         <v>2840000</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -5225,7 +5263,7 @@
         <v>2850000</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
@@ -5279,7 +5317,7 @@
         <v>2860000</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -5333,7 +5371,7 @@
         <v>2870000</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -5387,7 +5425,7 @@
         <v>2880000</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -5441,7 +5479,7 @@
         <v>2890000</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
@@ -5494,8 +5532,8 @@
       <c r="O92" s="2">
         <v>2900000</v>
       </c>
-      <c r="P92" s="2">
-        <v>0</v>
+      <c r="P92">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -5548,8 +5586,8 @@
       <c r="O93" s="2">
         <v>2910000</v>
       </c>
-      <c r="P93" s="2">
-        <v>0</v>
+      <c r="P93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
@@ -5602,8 +5640,8 @@
       <c r="O94" s="2">
         <v>2920000</v>
       </c>
-      <c r="P94" s="2">
-        <v>0</v>
+      <c r="P94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -5656,8 +5694,8 @@
       <c r="O95" s="2">
         <v>2930000</v>
       </c>
-      <c r="P95" s="2">
-        <v>0</v>
+      <c r="P95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -5710,8 +5748,8 @@
       <c r="O96" s="2">
         <v>2940000</v>
       </c>
-      <c r="P96" s="2">
-        <v>0</v>
+      <c r="P96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -5764,8 +5802,8 @@
       <c r="O97" s="2">
         <v>2950000</v>
       </c>
-      <c r="P97" s="2">
-        <v>0</v>
+      <c r="P97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -5818,8 +5856,8 @@
       <c r="O98" s="2">
         <v>2960000</v>
       </c>
-      <c r="P98" s="2">
-        <v>0</v>
+      <c r="P98">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -5872,8 +5910,8 @@
       <c r="O99" s="2">
         <v>2970000</v>
       </c>
-      <c r="P99" s="2">
-        <v>0</v>
+      <c r="P99">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
@@ -5926,8 +5964,8 @@
       <c r="O100" s="2">
         <v>2980000</v>
       </c>
-      <c r="P100" s="2">
-        <v>0</v>
+      <c r="P100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
@@ -5980,8 +6018,8 @@
       <c r="O101" s="2">
         <v>2990000</v>
       </c>
-      <c r="P101" s="2">
-        <v>0</v>
+      <c r="P101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
@@ -6034,8 +6072,8 @@
       <c r="O102" s="2">
         <v>3000000</v>
       </c>
-      <c r="P102" s="2">
-        <v>0</v>
+      <c r="P102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
@@ -6088,8 +6126,8 @@
       <c r="O103" s="2">
         <v>3010000</v>
       </c>
-      <c r="P103" s="2">
-        <v>0</v>
+      <c r="P103">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
@@ -6142,8 +6180,8 @@
       <c r="O104" s="2">
         <v>3020000</v>
       </c>
-      <c r="P104" s="2">
-        <v>0</v>
+      <c r="P104">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
@@ -6196,8 +6234,8 @@
       <c r="O105" s="2">
         <v>3030000</v>
       </c>
-      <c r="P105" s="2">
-        <v>0</v>
+      <c r="P105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
@@ -6250,8 +6288,8 @@
       <c r="O106" s="2">
         <v>3040000</v>
       </c>
-      <c r="P106" s="2">
-        <v>0</v>
+      <c r="P106">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
@@ -6305,7 +6343,7 @@
         <v>3050000</v>
       </c>
       <c r="P107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
@@ -6359,7 +6397,7 @@
         <v>3060000</v>
       </c>
       <c r="P108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
@@ -6413,7 +6451,7 @@
         <v>3070000</v>
       </c>
       <c r="P109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
@@ -6467,7 +6505,7 @@
         <v>3080000</v>
       </c>
       <c r="P110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
@@ -6521,7 +6559,7 @@
         <v>3090000</v>
       </c>
       <c r="P111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
@@ -6575,7 +6613,7 @@
         <v>3100000</v>
       </c>
       <c r="P112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
@@ -6629,7 +6667,7 @@
         <v>3110000</v>
       </c>
       <c r="P113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
@@ -6683,7 +6721,7 @@
         <v>3120000</v>
       </c>
       <c r="P114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
@@ -6737,7 +6775,7 @@
         <v>3130000</v>
       </c>
       <c r="P115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
@@ -6791,7 +6829,7 @@
         <v>3140000</v>
       </c>
       <c r="P116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
@@ -6845,7 +6883,7 @@
         <v>3150000</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
@@ -6899,7 +6937,7 @@
         <v>3160000</v>
       </c>
       <c r="P118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
@@ -6953,7 +6991,7 @@
         <v>3170000</v>
       </c>
       <c r="P119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
@@ -7007,7 +7045,7 @@
         <v>3180000</v>
       </c>
       <c r="P120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
@@ -7061,7 +7099,1597 @@
         <v>3190000</v>
       </c>
       <c r="P121">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>120</v>
+      </c>
+      <c r="B122" s="4">
+        <v>9</v>
+      </c>
+      <c r="C122" s="4">
+        <v>13</v>
+      </c>
+      <c r="D122" s="4">
+        <v>13</v>
+      </c>
+      <c r="E122" s="4">
+        <f t="shared" ref="E122:E151" si="12">B122</f>
+        <v>9</v>
+      </c>
+      <c r="F122" s="2">
+        <v>120</v>
+      </c>
+      <c r="G122" s="4">
+        <v>0</v>
+      </c>
+      <c r="H122" s="2">
+        <v>340</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" s="4">
+        <v>1</v>
+      </c>
+      <c r="K122" s="3">
+        <f t="shared" ref="K122:K151" si="13">10000+A122*2000</f>
+        <v>250000</v>
+      </c>
+      <c r="L122" s="4">
+        <v>1</v>
+      </c>
+      <c r="M122" s="3">
+        <f t="shared" ref="M122:M151" si="14">K122*2</f>
+        <v>500000</v>
+      </c>
+      <c r="N122" s="4">
+        <v>2</v>
+      </c>
+      <c r="O122" s="3">
+        <v>3050000</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>121</v>
+      </c>
+      <c r="B123" s="4">
+        <v>9</v>
+      </c>
+      <c r="C123" s="4">
+        <v>13</v>
+      </c>
+      <c r="D123" s="4">
+        <v>13</v>
+      </c>
+      <c r="E123" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F123" s="2">
+        <v>121</v>
+      </c>
+      <c r="G123" s="4">
+        <v>0</v>
+      </c>
+      <c r="H123" s="2">
+        <v>342</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J123" s="4">
+        <v>1</v>
+      </c>
+      <c r="K123" s="3">
+        <f t="shared" si="13"/>
+        <v>252000</v>
+      </c>
+      <c r="L123" s="4">
+        <v>1</v>
+      </c>
+      <c r="M123" s="3">
+        <f t="shared" si="14"/>
+        <v>504000</v>
+      </c>
+      <c r="N123" s="4">
+        <v>2</v>
+      </c>
+      <c r="O123" s="3">
+        <v>3060000</v>
+      </c>
+      <c r="P123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>122</v>
+      </c>
+      <c r="B124" s="4">
+        <v>9</v>
+      </c>
+      <c r="C124" s="4">
+        <v>13</v>
+      </c>
+      <c r="D124" s="4">
+        <v>13</v>
+      </c>
+      <c r="E124" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F124" s="2">
+        <v>122</v>
+      </c>
+      <c r="G124" s="4">
+        <v>0</v>
+      </c>
+      <c r="H124" s="2">
+        <v>344</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J124" s="4">
+        <v>1</v>
+      </c>
+      <c r="K124" s="3">
+        <f t="shared" si="13"/>
+        <v>254000</v>
+      </c>
+      <c r="L124" s="4">
+        <v>1</v>
+      </c>
+      <c r="M124" s="3">
+        <f t="shared" si="14"/>
+        <v>508000</v>
+      </c>
+      <c r="N124" s="4">
+        <v>2</v>
+      </c>
+      <c r="O124" s="3">
+        <v>3070000</v>
+      </c>
+      <c r="P124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>123</v>
+      </c>
+      <c r="B125" s="4">
+        <v>9</v>
+      </c>
+      <c r="C125" s="4">
+        <v>13</v>
+      </c>
+      <c r="D125" s="4">
+        <v>13</v>
+      </c>
+      <c r="E125" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F125" s="2">
+        <v>123</v>
+      </c>
+      <c r="G125" s="4">
+        <v>0</v>
+      </c>
+      <c r="H125" s="2">
+        <v>346</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J125" s="4">
+        <v>1</v>
+      </c>
+      <c r="K125" s="3">
+        <f t="shared" si="13"/>
+        <v>256000</v>
+      </c>
+      <c r="L125" s="4">
+        <v>1</v>
+      </c>
+      <c r="M125" s="3">
+        <f t="shared" si="14"/>
+        <v>512000</v>
+      </c>
+      <c r="N125" s="4">
+        <v>2</v>
+      </c>
+      <c r="O125" s="3">
+        <v>3080000</v>
+      </c>
+      <c r="P125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>124</v>
+      </c>
+      <c r="B126" s="4">
+        <v>9</v>
+      </c>
+      <c r="C126" s="4">
+        <v>13</v>
+      </c>
+      <c r="D126" s="4">
+        <v>13</v>
+      </c>
+      <c r="E126" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F126" s="2">
+        <v>124</v>
+      </c>
+      <c r="G126" s="4">
+        <v>0</v>
+      </c>
+      <c r="H126" s="2">
+        <v>348</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J126" s="4">
+        <v>1</v>
+      </c>
+      <c r="K126" s="3">
+        <f t="shared" si="13"/>
+        <v>258000</v>
+      </c>
+      <c r="L126" s="4">
+        <v>1</v>
+      </c>
+      <c r="M126" s="3">
+        <f t="shared" si="14"/>
+        <v>516000</v>
+      </c>
+      <c r="N126" s="4">
+        <v>2</v>
+      </c>
+      <c r="O126" s="3">
+        <v>3090000</v>
+      </c>
+      <c r="P126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>125</v>
+      </c>
+      <c r="B127" s="4">
+        <v>9</v>
+      </c>
+      <c r="C127" s="4">
+        <v>13</v>
+      </c>
+      <c r="D127" s="4">
+        <v>13</v>
+      </c>
+      <c r="E127" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F127" s="2">
+        <v>125</v>
+      </c>
+      <c r="G127" s="4">
+        <v>0</v>
+      </c>
+      <c r="H127" s="2">
+        <v>350</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J127" s="4">
+        <v>1</v>
+      </c>
+      <c r="K127" s="3">
+        <f t="shared" si="13"/>
+        <v>260000</v>
+      </c>
+      <c r="L127" s="4">
+        <v>1</v>
+      </c>
+      <c r="M127" s="3">
+        <f t="shared" si="14"/>
+        <v>520000</v>
+      </c>
+      <c r="N127" s="4">
+        <v>2</v>
+      </c>
+      <c r="O127" s="3">
+        <v>3100000</v>
+      </c>
+      <c r="P127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>126</v>
+      </c>
+      <c r="B128" s="4">
+        <v>9</v>
+      </c>
+      <c r="C128" s="4">
+        <v>13</v>
+      </c>
+      <c r="D128" s="4">
+        <v>13</v>
+      </c>
+      <c r="E128" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F128" s="2">
+        <v>126</v>
+      </c>
+      <c r="G128" s="4">
+        <v>0</v>
+      </c>
+      <c r="H128" s="2">
+        <v>352</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J128" s="4">
+        <v>1</v>
+      </c>
+      <c r="K128" s="3">
+        <f t="shared" si="13"/>
+        <v>262000</v>
+      </c>
+      <c r="L128" s="4">
+        <v>1</v>
+      </c>
+      <c r="M128" s="3">
+        <f t="shared" si="14"/>
+        <v>524000</v>
+      </c>
+      <c r="N128" s="4">
+        <v>2</v>
+      </c>
+      <c r="O128" s="3">
+        <v>3110000</v>
+      </c>
+      <c r="P128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>127</v>
+      </c>
+      <c r="B129" s="4">
+        <v>9</v>
+      </c>
+      <c r="C129" s="4">
+        <v>13</v>
+      </c>
+      <c r="D129" s="4">
+        <v>13</v>
+      </c>
+      <c r="E129" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F129" s="2">
+        <v>127</v>
+      </c>
+      <c r="G129" s="4">
+        <v>0</v>
+      </c>
+      <c r="H129" s="2">
+        <v>354</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J129" s="4">
+        <v>1</v>
+      </c>
+      <c r="K129" s="3">
+        <f t="shared" si="13"/>
+        <v>264000</v>
+      </c>
+      <c r="L129" s="4">
+        <v>1</v>
+      </c>
+      <c r="M129" s="3">
+        <f t="shared" si="14"/>
+        <v>528000</v>
+      </c>
+      <c r="N129" s="4">
+        <v>2</v>
+      </c>
+      <c r="O129" s="3">
+        <v>3120000</v>
+      </c>
+      <c r="P129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>128</v>
+      </c>
+      <c r="B130" s="4">
+        <v>9</v>
+      </c>
+      <c r="C130" s="4">
+        <v>13</v>
+      </c>
+      <c r="D130" s="4">
+        <v>13</v>
+      </c>
+      <c r="E130" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F130" s="2">
+        <v>128</v>
+      </c>
+      <c r="G130" s="4">
+        <v>0</v>
+      </c>
+      <c r="H130" s="2">
+        <v>356</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J130" s="4">
+        <v>1</v>
+      </c>
+      <c r="K130" s="3">
+        <f t="shared" si="13"/>
+        <v>266000</v>
+      </c>
+      <c r="L130" s="4">
+        <v>1</v>
+      </c>
+      <c r="M130" s="3">
+        <f t="shared" si="14"/>
+        <v>532000</v>
+      </c>
+      <c r="N130" s="4">
+        <v>2</v>
+      </c>
+      <c r="O130" s="3">
+        <v>3130000</v>
+      </c>
+      <c r="P130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>129</v>
+      </c>
+      <c r="B131" s="4">
+        <v>9</v>
+      </c>
+      <c r="C131" s="4">
+        <v>13</v>
+      </c>
+      <c r="D131" s="4">
+        <v>13</v>
+      </c>
+      <c r="E131" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F131" s="2">
+        <v>129</v>
+      </c>
+      <c r="G131" s="4">
+        <v>0</v>
+      </c>
+      <c r="H131" s="2">
+        <v>358</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J131" s="4">
+        <v>1</v>
+      </c>
+      <c r="K131" s="3">
+        <f t="shared" si="13"/>
+        <v>268000</v>
+      </c>
+      <c r="L131" s="4">
+        <v>1</v>
+      </c>
+      <c r="M131" s="3">
+        <f t="shared" si="14"/>
+        <v>536000</v>
+      </c>
+      <c r="N131" s="4">
+        <v>2</v>
+      </c>
+      <c r="O131" s="3">
+        <v>3140000</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>130</v>
+      </c>
+      <c r="B132" s="4">
+        <v>9</v>
+      </c>
+      <c r="C132" s="4">
+        <v>13</v>
+      </c>
+      <c r="D132" s="4">
+        <v>13</v>
+      </c>
+      <c r="E132" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F132" s="2">
+        <v>130</v>
+      </c>
+      <c r="G132" s="4">
+        <v>0</v>
+      </c>
+      <c r="H132" s="2">
+        <v>360</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J132" s="4">
+        <v>1</v>
+      </c>
+      <c r="K132" s="3">
+        <f t="shared" si="13"/>
+        <v>270000</v>
+      </c>
+      <c r="L132" s="4">
+        <v>1</v>
+      </c>
+      <c r="M132" s="3">
+        <f t="shared" si="14"/>
+        <v>540000</v>
+      </c>
+      <c r="N132" s="4">
+        <v>2</v>
+      </c>
+      <c r="O132" s="3">
+        <v>3150000</v>
+      </c>
+      <c r="P132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>131</v>
+      </c>
+      <c r="B133" s="4">
+        <v>9</v>
+      </c>
+      <c r="C133" s="4">
+        <v>13</v>
+      </c>
+      <c r="D133" s="4">
+        <v>13</v>
+      </c>
+      <c r="E133" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F133" s="2">
+        <v>131</v>
+      </c>
+      <c r="G133" s="4">
+        <v>0</v>
+      </c>
+      <c r="H133" s="2">
+        <v>362</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J133" s="4">
+        <v>1</v>
+      </c>
+      <c r="K133" s="3">
+        <f t="shared" si="13"/>
+        <v>272000</v>
+      </c>
+      <c r="L133" s="4">
+        <v>1</v>
+      </c>
+      <c r="M133" s="3">
+        <f t="shared" si="14"/>
+        <v>544000</v>
+      </c>
+      <c r="N133" s="4">
+        <v>2</v>
+      </c>
+      <c r="O133" s="3">
+        <v>3160000</v>
+      </c>
+      <c r="P133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>132</v>
+      </c>
+      <c r="B134" s="4">
+        <v>9</v>
+      </c>
+      <c r="C134" s="4">
+        <v>13</v>
+      </c>
+      <c r="D134" s="4">
+        <v>13</v>
+      </c>
+      <c r="E134" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F134" s="2">
+        <v>132</v>
+      </c>
+      <c r="G134" s="4">
+        <v>0</v>
+      </c>
+      <c r="H134" s="2">
+        <v>364</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J134" s="4">
+        <v>1</v>
+      </c>
+      <c r="K134" s="3">
+        <f t="shared" si="13"/>
+        <v>274000</v>
+      </c>
+      <c r="L134" s="4">
+        <v>1</v>
+      </c>
+      <c r="M134" s="3">
+        <f t="shared" si="14"/>
+        <v>548000</v>
+      </c>
+      <c r="N134" s="4">
+        <v>2</v>
+      </c>
+      <c r="O134" s="3">
+        <v>3170000</v>
+      </c>
+      <c r="P134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>133</v>
+      </c>
+      <c r="B135" s="4">
+        <v>9</v>
+      </c>
+      <c r="C135" s="4">
+        <v>13</v>
+      </c>
+      <c r="D135" s="4">
+        <v>13</v>
+      </c>
+      <c r="E135" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F135" s="2">
+        <v>133</v>
+      </c>
+      <c r="G135" s="4">
+        <v>0</v>
+      </c>
+      <c r="H135" s="2">
+        <v>366</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J135" s="4">
+        <v>1</v>
+      </c>
+      <c r="K135" s="3">
+        <f t="shared" si="13"/>
+        <v>276000</v>
+      </c>
+      <c r="L135" s="4">
+        <v>1</v>
+      </c>
+      <c r="M135" s="3">
+        <f t="shared" si="14"/>
+        <v>552000</v>
+      </c>
+      <c r="N135" s="4">
+        <v>2</v>
+      </c>
+      <c r="O135" s="3">
+        <v>3180000</v>
+      </c>
+      <c r="P135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>134</v>
+      </c>
+      <c r="B136" s="4">
+        <v>9</v>
+      </c>
+      <c r="C136" s="4">
+        <v>13</v>
+      </c>
+      <c r="D136" s="4">
+        <v>13</v>
+      </c>
+      <c r="E136" s="4">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="F136" s="2">
+        <v>134</v>
+      </c>
+      <c r="G136" s="4">
+        <v>0</v>
+      </c>
+      <c r="H136" s="2">
+        <v>368</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J136" s="4">
+        <v>1</v>
+      </c>
+      <c r="K136" s="3">
+        <f t="shared" si="13"/>
+        <v>278000</v>
+      </c>
+      <c r="L136" s="4">
+        <v>1</v>
+      </c>
+      <c r="M136" s="3">
+        <f t="shared" si="14"/>
+        <v>556000</v>
+      </c>
+      <c r="N136" s="4">
+        <v>2</v>
+      </c>
+      <c r="O136" s="3">
+        <v>3190000</v>
+      </c>
+      <c r="P136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>10</v>
+      </c>
+      <c r="C137">
+        <v>14</v>
+      </c>
+      <c r="D137">
+        <v>13</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F137" s="2">
+        <v>135</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" s="2">
+        <v>370</v>
+      </c>
+      <c r="I137" t="s">
+        <v>13</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137" s="2">
+        <f t="shared" si="13"/>
+        <v>280000</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137" s="2">
+        <f t="shared" si="14"/>
+        <v>560000</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" s="2">
+        <v>3050000</v>
+      </c>
+      <c r="P137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>10</v>
+      </c>
+      <c r="C138">
+        <v>14</v>
+      </c>
+      <c r="D138">
+        <v>13</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F138" s="2">
+        <v>136</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" s="2">
+        <v>372</v>
+      </c>
+      <c r="I138" t="s">
+        <v>13</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138" s="2">
+        <f t="shared" si="13"/>
+        <v>282000</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138" s="2">
+        <f t="shared" si="14"/>
+        <v>564000</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" s="2">
+        <v>3060000</v>
+      </c>
+      <c r="P138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>10</v>
+      </c>
+      <c r="C139">
+        <v>14</v>
+      </c>
+      <c r="D139">
+        <v>13</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F139" s="2">
+        <v>137</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" s="2">
+        <v>374</v>
+      </c>
+      <c r="I139" t="s">
+        <v>13</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139" s="2">
+        <f t="shared" si="13"/>
+        <v>284000</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139" s="2">
+        <f t="shared" si="14"/>
+        <v>568000</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" s="2">
+        <v>3070000</v>
+      </c>
+      <c r="P139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>10</v>
+      </c>
+      <c r="C140">
+        <v>14</v>
+      </c>
+      <c r="D140">
+        <v>13</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F140" s="2">
+        <v>138</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" s="2">
+        <v>376</v>
+      </c>
+      <c r="I140" t="s">
+        <v>13</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140" s="2">
+        <f t="shared" si="13"/>
+        <v>286000</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140" s="2">
+        <f t="shared" si="14"/>
+        <v>572000</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" s="2">
+        <v>3080000</v>
+      </c>
+      <c r="P140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>14</v>
+      </c>
+      <c r="D141">
+        <v>13</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F141" s="2">
+        <v>139</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141" s="2">
+        <v>378</v>
+      </c>
+      <c r="I141" t="s">
+        <v>13</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141" s="2">
+        <f t="shared" si="13"/>
+        <v>288000</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141" s="2">
+        <f t="shared" si="14"/>
+        <v>576000</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" s="2">
+        <v>3090000</v>
+      </c>
+      <c r="P141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>10</v>
+      </c>
+      <c r="C142">
+        <v>14</v>
+      </c>
+      <c r="D142">
+        <v>13</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F142" s="2">
+        <v>140</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142" s="2">
+        <v>380</v>
+      </c>
+      <c r="I142" t="s">
+        <v>13</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142" s="2">
+        <f t="shared" si="13"/>
+        <v>290000</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142" s="2">
+        <f t="shared" si="14"/>
+        <v>580000</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" s="2">
+        <v>3100000</v>
+      </c>
+      <c r="P142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>10</v>
+      </c>
+      <c r="C143">
+        <v>14</v>
+      </c>
+      <c r="D143">
+        <v>13</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F143" s="2">
+        <v>141</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143" s="2">
+        <v>382</v>
+      </c>
+      <c r="I143" t="s">
+        <v>13</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143" s="2">
+        <f t="shared" si="13"/>
+        <v>292000</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143" s="2">
+        <f t="shared" si="14"/>
+        <v>584000</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" s="2">
+        <v>3110000</v>
+      </c>
+      <c r="P143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>10</v>
+      </c>
+      <c r="C144">
+        <v>14</v>
+      </c>
+      <c r="D144">
+        <v>13</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F144" s="2">
+        <v>142</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144" s="2">
+        <v>384</v>
+      </c>
+      <c r="I144" t="s">
+        <v>13</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144" s="2">
+        <f t="shared" si="13"/>
+        <v>294000</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144" s="2">
+        <f t="shared" si="14"/>
+        <v>588000</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" s="2">
+        <v>3120000</v>
+      </c>
+      <c r="P144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>10</v>
+      </c>
+      <c r="C145">
+        <v>14</v>
+      </c>
+      <c r="D145">
+        <v>13</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F145" s="2">
+        <v>143</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145" s="2">
+        <v>386</v>
+      </c>
+      <c r="I145" t="s">
+        <v>13</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145" s="2">
+        <f t="shared" si="13"/>
+        <v>296000</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145" s="2">
+        <f t="shared" si="14"/>
+        <v>592000</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" s="2">
+        <v>3130000</v>
+      </c>
+      <c r="P145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>10</v>
+      </c>
+      <c r="C146">
+        <v>14</v>
+      </c>
+      <c r="D146">
+        <v>13</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F146" s="2">
+        <v>144</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146" s="2">
+        <v>388</v>
+      </c>
+      <c r="I146" t="s">
+        <v>13</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146" s="2">
+        <f t="shared" si="13"/>
+        <v>298000</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146" s="2">
+        <f t="shared" si="14"/>
+        <v>596000</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" s="2">
+        <v>3140000</v>
+      </c>
+      <c r="P146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147">
+        <v>14</v>
+      </c>
+      <c r="D147">
+        <v>13</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F147" s="2">
+        <v>145</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147" s="2">
+        <v>390</v>
+      </c>
+      <c r="I147" t="s">
+        <v>13</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147" s="2">
+        <f t="shared" si="13"/>
+        <v>300000</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147" s="2">
+        <f t="shared" si="14"/>
+        <v>600000</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" s="2">
+        <v>3150000</v>
+      </c>
+      <c r="P147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>10</v>
+      </c>
+      <c r="C148">
+        <v>14</v>
+      </c>
+      <c r="D148">
+        <v>13</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F148" s="2">
+        <v>146</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148" s="2">
+        <v>392</v>
+      </c>
+      <c r="I148" t="s">
+        <v>13</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148" s="2">
+        <f t="shared" si="13"/>
+        <v>302000</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148" s="2">
+        <f t="shared" si="14"/>
+        <v>604000</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" s="2">
+        <v>3160000</v>
+      </c>
+      <c r="P148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>10</v>
+      </c>
+      <c r="C149">
+        <v>14</v>
+      </c>
+      <c r="D149">
+        <v>13</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F149" s="2">
+        <v>147</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149" s="2">
+        <v>394</v>
+      </c>
+      <c r="I149" t="s">
+        <v>13</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149" s="2">
+        <f t="shared" si="13"/>
+        <v>304000</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149" s="2">
+        <f t="shared" si="14"/>
+        <v>608000</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" s="2">
+        <v>3170000</v>
+      </c>
+      <c r="P149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <v>14</v>
+      </c>
+      <c r="D150">
+        <v>13</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F150" s="2">
+        <v>148</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150" s="2">
+        <v>396</v>
+      </c>
+      <c r="I150" t="s">
+        <v>13</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150" s="2">
+        <f t="shared" si="13"/>
+        <v>306000</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150" s="2">
+        <f t="shared" si="14"/>
+        <v>612000</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150" s="2">
+        <v>3180000</v>
+      </c>
+      <c r="P150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>14</v>
+      </c>
+      <c r="D151">
+        <v>13</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F151" s="2">
+        <v>149</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151" s="2">
+        <v>398</v>
+      </c>
+      <c r="I151" t="s">
+        <v>13</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151" s="2">
+        <f t="shared" si="13"/>
+        <v>308000</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151" s="2">
+        <f t="shared" si="14"/>
+        <v>616000</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" s="2">
+        <v>3190000</v>
+      </c>
+      <c r="P151">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4957CA27-635E-41FE-9478-FDA42E4E033A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1064CF91-234A-4523-B788-307E2BD6566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-90" yWindow="2490" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:P151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P140" sqref="P140"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -634,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <f>B2</f>
@@ -688,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="1">B3</f>
@@ -742,7 +742,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
@@ -796,7 +796,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
@@ -850,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -904,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
@@ -958,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
@@ -1012,7 +1012,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
@@ -1066,7 +1066,7 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
@@ -1228,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -1336,7 +1336,7 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
@@ -1444,7 +1444,7 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
@@ -1498,7 +1498,7 @@
         <v>7</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
@@ -1552,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
@@ -1606,7 +1606,7 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
@@ -1660,7 +1660,7 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
@@ -1714,7 +1714,7 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
@@ -1768,7 +1768,7 @@
         <v>7</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
@@ -1822,7 +1822,7 @@
         <v>7</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
@@ -1876,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
@@ -1930,7 +1930,7 @@
         <v>7</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
@@ -1984,7 +1984,7 @@
         <v>7</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
@@ -2038,7 +2038,7 @@
         <v>7</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
@@ -2092,7 +2092,7 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
@@ -2146,7 +2146,7 @@
         <v>7</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
@@ -2200,7 +2200,7 @@
         <v>7</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
@@ -2254,7 +2254,7 @@
         <v>8</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
@@ -2308,7 +2308,7 @@
         <v>8</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
@@ -2362,7 +2362,7 @@
         <v>8</v>
       </c>
       <c r="D34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
@@ -2416,7 +2416,7 @@
         <v>8</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
@@ -2470,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
@@ -2524,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
@@ -2578,7 +2578,7 @@
         <v>8</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
@@ -2632,7 +2632,7 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
@@ -2686,7 +2686,7 @@
         <v>8</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
@@ -2740,7 +2740,7 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
@@ -2794,7 +2794,7 @@
         <v>8</v>
       </c>
       <c r="D42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
@@ -2848,7 +2848,7 @@
         <v>8</v>
       </c>
       <c r="D43">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
@@ -2902,7 +2902,7 @@
         <v>8</v>
       </c>
       <c r="D44">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
@@ -2956,7 +2956,7 @@
         <v>8</v>
       </c>
       <c r="D45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
@@ -3010,7 +3010,7 @@
         <v>8</v>
       </c>
       <c r="D46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
@@ -3064,7 +3064,7 @@
         <v>9</v>
       </c>
       <c r="D47">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
@@ -3118,7 +3118,7 @@
         <v>9</v>
       </c>
       <c r="D48">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
@@ -3172,7 +3172,7 @@
         <v>9</v>
       </c>
       <c r="D49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
@@ -3226,7 +3226,7 @@
         <v>9</v>
       </c>
       <c r="D50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
@@ -3280,7 +3280,7 @@
         <v>9</v>
       </c>
       <c r="D51">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51">
         <f t="shared" si="1"/>
@@ -3334,7 +3334,7 @@
         <v>9</v>
       </c>
       <c r="D52">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52">
         <f t="shared" si="1"/>
@@ -3388,7 +3388,7 @@
         <v>9</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E53">
         <f t="shared" si="1"/>
@@ -3442,7 +3442,7 @@
         <v>9</v>
       </c>
       <c r="D54">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54">
         <f t="shared" si="1"/>
@@ -3496,7 +3496,7 @@
         <v>9</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55">
         <f t="shared" si="1"/>
@@ -3550,7 +3550,7 @@
         <v>9</v>
       </c>
       <c r="D56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E56">
         <f t="shared" si="1"/>
@@ -3604,7 +3604,7 @@
         <v>9</v>
       </c>
       <c r="D57">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57">
         <f t="shared" si="1"/>
@@ -3658,7 +3658,7 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58">
         <f t="shared" si="1"/>
@@ -3712,7 +3712,7 @@
         <v>9</v>
       </c>
       <c r="D59">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59">
         <f t="shared" si="1"/>
@@ -3766,7 +3766,7 @@
         <v>9</v>
       </c>
       <c r="D60">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E60">
         <f t="shared" si="1"/>
@@ -3820,7 +3820,7 @@
         <v>9</v>
       </c>
       <c r="D61">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E61">
         <f t="shared" si="1"/>
@@ -3874,7 +3874,7 @@
         <v>10</v>
       </c>
       <c r="D62">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E62">
         <f t="shared" si="1"/>
@@ -3928,7 +3928,7 @@
         <v>10</v>
       </c>
       <c r="D63">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63">
         <f t="shared" si="1"/>
@@ -3982,7 +3982,7 @@
         <v>10</v>
       </c>
       <c r="D64">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64">
         <f t="shared" si="1"/>
@@ -4036,7 +4036,7 @@
         <v>10</v>
       </c>
       <c r="D65">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65">
         <f t="shared" si="1"/>
@@ -4090,7 +4090,7 @@
         <v>10</v>
       </c>
       <c r="D66">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66">
         <f t="shared" si="1"/>
@@ -4144,7 +4144,7 @@
         <v>10</v>
       </c>
       <c r="D67">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E91" si="5">B67</f>
@@ -4198,7 +4198,7 @@
         <v>10</v>
       </c>
       <c r="D68">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68">
         <f t="shared" si="5"/>
@@ -4252,7 +4252,7 @@
         <v>10</v>
       </c>
       <c r="D69">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69">
         <f t="shared" si="5"/>
@@ -4306,7 +4306,7 @@
         <v>10</v>
       </c>
       <c r="D70">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70">
         <f t="shared" si="5"/>
@@ -4360,7 +4360,7 @@
         <v>10</v>
       </c>
       <c r="D71">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71">
         <f t="shared" si="5"/>
@@ -4414,7 +4414,7 @@
         <v>10</v>
       </c>
       <c r="D72">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E72">
         <f t="shared" si="5"/>
@@ -4468,7 +4468,7 @@
         <v>10</v>
       </c>
       <c r="D73">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E73">
         <f t="shared" si="5"/>
@@ -4522,7 +4522,7 @@
         <v>10</v>
       </c>
       <c r="D74">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E74">
         <f t="shared" si="5"/>
@@ -4576,7 +4576,7 @@
         <v>10</v>
       </c>
       <c r="D75">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E75">
         <f t="shared" si="5"/>
@@ -4630,7 +4630,7 @@
         <v>10</v>
       </c>
       <c r="D76">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E76">
         <f t="shared" si="5"/>
@@ -4684,7 +4684,7 @@
         <v>11</v>
       </c>
       <c r="D77">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E77">
         <f t="shared" si="5"/>
@@ -4738,7 +4738,7 @@
         <v>11</v>
       </c>
       <c r="D78">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E78">
         <f t="shared" si="5"/>
@@ -4792,7 +4792,7 @@
         <v>11</v>
       </c>
       <c r="D79">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E79">
         <f t="shared" si="5"/>
@@ -4846,7 +4846,7 @@
         <v>11</v>
       </c>
       <c r="D80">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E80">
         <f t="shared" si="5"/>
@@ -4900,7 +4900,7 @@
         <v>11</v>
       </c>
       <c r="D81">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E81">
         <f t="shared" si="5"/>
@@ -4954,7 +4954,7 @@
         <v>11</v>
       </c>
       <c r="D82">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E82">
         <f t="shared" si="5"/>
@@ -5008,7 +5008,7 @@
         <v>11</v>
       </c>
       <c r="D83">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E83">
         <f t="shared" si="5"/>
@@ -5062,7 +5062,7 @@
         <v>11</v>
       </c>
       <c r="D84">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E84">
         <f t="shared" si="5"/>
@@ -5116,7 +5116,7 @@
         <v>11</v>
       </c>
       <c r="D85">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E85">
         <f t="shared" si="5"/>
@@ -5170,7 +5170,7 @@
         <v>11</v>
       </c>
       <c r="D86">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E86">
         <f t="shared" si="5"/>
@@ -5224,7 +5224,7 @@
         <v>11</v>
       </c>
       <c r="D87">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E87">
         <f t="shared" si="5"/>
@@ -5278,7 +5278,7 @@
         <v>11</v>
       </c>
       <c r="D88">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88">
         <f t="shared" si="5"/>
@@ -5332,7 +5332,7 @@
         <v>11</v>
       </c>
       <c r="D89">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89">
         <f t="shared" si="5"/>
@@ -5386,7 +5386,7 @@
         <v>11</v>
       </c>
       <c r="D90">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E90">
         <f t="shared" si="5"/>
@@ -5440,7 +5440,7 @@
         <v>11</v>
       </c>
       <c r="D91">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E91">
         <f t="shared" si="5"/>
@@ -5493,8 +5493,8 @@
         <f t="shared" ref="C92:C106" si="8">B92+5</f>
         <v>12</v>
       </c>
-      <c r="D92" s="2">
-        <v>13</v>
+      <c r="D92">
+        <v>12</v>
       </c>
       <c r="E92" s="2">
         <f t="shared" ref="E92:E106" si="9">B92</f>
@@ -5547,8 +5547,8 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="D93" s="2">
-        <v>13</v>
+      <c r="D93">
+        <v>12</v>
       </c>
       <c r="E93" s="2">
         <f t="shared" si="9"/>
@@ -5601,8 +5601,8 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="D94" s="2">
-        <v>13</v>
+      <c r="D94">
+        <v>12</v>
       </c>
       <c r="E94" s="2">
         <f t="shared" si="9"/>
@@ -5655,8 +5655,8 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="D95" s="2">
-        <v>13</v>
+      <c r="D95">
+        <v>12</v>
       </c>
       <c r="E95" s="2">
         <f t="shared" si="9"/>
@@ -5709,8 +5709,8 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="D96" s="2">
-        <v>13</v>
+      <c r="D96">
+        <v>12</v>
       </c>
       <c r="E96" s="2">
         <f t="shared" si="9"/>
@@ -5763,8 +5763,8 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="D97" s="2">
-        <v>13</v>
+      <c r="D97">
+        <v>12</v>
       </c>
       <c r="E97" s="2">
         <f t="shared" si="9"/>
@@ -5817,8 +5817,8 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="D98" s="2">
-        <v>13</v>
+      <c r="D98">
+        <v>12</v>
       </c>
       <c r="E98" s="2">
         <f t="shared" si="9"/>
@@ -5871,8 +5871,8 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="D99" s="2">
-        <v>13</v>
+      <c r="D99">
+        <v>12</v>
       </c>
       <c r="E99" s="2">
         <f t="shared" si="9"/>
@@ -5925,8 +5925,8 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="D100" s="2">
-        <v>13</v>
+      <c r="D100">
+        <v>12</v>
       </c>
       <c r="E100" s="2">
         <f t="shared" si="9"/>
@@ -5979,8 +5979,8 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="D101" s="2">
-        <v>13</v>
+      <c r="D101">
+        <v>12</v>
       </c>
       <c r="E101" s="2">
         <f t="shared" si="9"/>
@@ -6033,8 +6033,8 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="D102" s="2">
-        <v>13</v>
+      <c r="D102">
+        <v>12</v>
       </c>
       <c r="E102" s="2">
         <f t="shared" si="9"/>
@@ -6087,8 +6087,8 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="D103" s="2">
-        <v>13</v>
+      <c r="D103">
+        <v>12</v>
       </c>
       <c r="E103" s="2">
         <f t="shared" si="9"/>
@@ -6141,8 +6141,8 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="D104" s="2">
-        <v>13</v>
+      <c r="D104">
+        <v>12</v>
       </c>
       <c r="E104" s="2">
         <f t="shared" si="9"/>
@@ -6195,8 +6195,8 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="D105" s="2">
-        <v>13</v>
+      <c r="D105">
+        <v>12</v>
       </c>
       <c r="E105" s="2">
         <f t="shared" si="9"/>
@@ -6249,8 +6249,8 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="D106" s="2">
-        <v>13</v>
+      <c r="D106">
+        <v>12</v>
       </c>
       <c r="E106" s="2">
         <f t="shared" si="9"/>
@@ -6304,7 +6304,7 @@
         <v>13</v>
       </c>
       <c r="D107">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E107">
         <f t="shared" ref="E107:E121" si="11">B107</f>
@@ -6358,7 +6358,7 @@
         <v>13</v>
       </c>
       <c r="D108">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E108">
         <f t="shared" si="11"/>
@@ -6412,7 +6412,7 @@
         <v>13</v>
       </c>
       <c r="D109">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E109">
         <f t="shared" si="11"/>
@@ -6466,7 +6466,7 @@
         <v>13</v>
       </c>
       <c r="D110">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E110">
         <f t="shared" si="11"/>
@@ -6520,7 +6520,7 @@
         <v>13</v>
       </c>
       <c r="D111">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E111">
         <f t="shared" si="11"/>
@@ -6574,7 +6574,7 @@
         <v>13</v>
       </c>
       <c r="D112">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E112">
         <f t="shared" si="11"/>
@@ -6628,7 +6628,7 @@
         <v>13</v>
       </c>
       <c r="D113">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E113">
         <f t="shared" si="11"/>
@@ -6682,7 +6682,7 @@
         <v>13</v>
       </c>
       <c r="D114">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E114">
         <f t="shared" si="11"/>
@@ -6736,7 +6736,7 @@
         <v>13</v>
       </c>
       <c r="D115">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E115">
         <f t="shared" si="11"/>
@@ -6790,7 +6790,7 @@
         <v>13</v>
       </c>
       <c r="D116">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E116">
         <f t="shared" si="11"/>
@@ -6844,7 +6844,7 @@
         <v>13</v>
       </c>
       <c r="D117">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E117">
         <f t="shared" si="11"/>
@@ -6898,7 +6898,7 @@
         <v>13</v>
       </c>
       <c r="D118">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E118">
         <f t="shared" si="11"/>
@@ -6952,7 +6952,7 @@
         <v>13</v>
       </c>
       <c r="D119">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E119">
         <f t="shared" si="11"/>
@@ -7006,7 +7006,7 @@
         <v>13</v>
       </c>
       <c r="D120">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E120">
         <f t="shared" si="11"/>
@@ -7060,7 +7060,7 @@
         <v>13</v>
       </c>
       <c r="D121">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E121">
         <f t="shared" si="11"/>
@@ -7113,7 +7113,7 @@
         <v>13</v>
       </c>
       <c r="D122" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E122" s="4">
         <f t="shared" ref="E122:E151" si="12">B122</f>
@@ -7148,8 +7148,8 @@
       <c r="N122" s="4">
         <v>2</v>
       </c>
-      <c r="O122" s="3">
-        <v>3050000</v>
+      <c r="O122" s="2">
+        <v>3200000</v>
       </c>
       <c r="P122">
         <v>1</v>
@@ -7166,7 +7166,7 @@
         <v>13</v>
       </c>
       <c r="D123" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E123" s="4">
         <f t="shared" si="12"/>
@@ -7201,8 +7201,8 @@
       <c r="N123" s="4">
         <v>2</v>
       </c>
-      <c r="O123" s="3">
-        <v>3060000</v>
+      <c r="O123" s="2">
+        <v>3210000</v>
       </c>
       <c r="P123">
         <v>1</v>
@@ -7219,7 +7219,7 @@
         <v>13</v>
       </c>
       <c r="D124" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E124" s="4">
         <f t="shared" si="12"/>
@@ -7254,8 +7254,8 @@
       <c r="N124" s="4">
         <v>2</v>
       </c>
-      <c r="O124" s="3">
-        <v>3070000</v>
+      <c r="O124" s="2">
+        <v>3220000</v>
       </c>
       <c r="P124">
         <v>1</v>
@@ -7272,7 +7272,7 @@
         <v>13</v>
       </c>
       <c r="D125" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E125" s="4">
         <f t="shared" si="12"/>
@@ -7307,8 +7307,8 @@
       <c r="N125" s="4">
         <v>2</v>
       </c>
-      <c r="O125" s="3">
-        <v>3080000</v>
+      <c r="O125" s="2">
+        <v>3230000</v>
       </c>
       <c r="P125">
         <v>1</v>
@@ -7325,7 +7325,7 @@
         <v>13</v>
       </c>
       <c r="D126" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E126" s="4">
         <f t="shared" si="12"/>
@@ -7360,8 +7360,8 @@
       <c r="N126" s="4">
         <v>2</v>
       </c>
-      <c r="O126" s="3">
-        <v>3090000</v>
+      <c r="O126" s="2">
+        <v>3240000</v>
       </c>
       <c r="P126">
         <v>1</v>
@@ -7378,7 +7378,7 @@
         <v>13</v>
       </c>
       <c r="D127" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" si="12"/>
@@ -7413,8 +7413,8 @@
       <c r="N127" s="4">
         <v>2</v>
       </c>
-      <c r="O127" s="3">
-        <v>3100000</v>
+      <c r="O127" s="2">
+        <v>3250000</v>
       </c>
       <c r="P127">
         <v>1</v>
@@ -7431,7 +7431,7 @@
         <v>13</v>
       </c>
       <c r="D128" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" si="12"/>
@@ -7466,8 +7466,8 @@
       <c r="N128" s="4">
         <v>2</v>
       </c>
-      <c r="O128" s="3">
-        <v>3110000</v>
+      <c r="O128" s="2">
+        <v>3260000</v>
       </c>
       <c r="P128">
         <v>1</v>
@@ -7484,7 +7484,7 @@
         <v>13</v>
       </c>
       <c r="D129" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="12"/>
@@ -7519,8 +7519,8 @@
       <c r="N129" s="4">
         <v>2</v>
       </c>
-      <c r="O129" s="3">
-        <v>3120000</v>
+      <c r="O129" s="2">
+        <v>3270000</v>
       </c>
       <c r="P129">
         <v>1</v>
@@ -7537,7 +7537,7 @@
         <v>13</v>
       </c>
       <c r="D130" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" si="12"/>
@@ -7572,8 +7572,8 @@
       <c r="N130" s="4">
         <v>2</v>
       </c>
-      <c r="O130" s="3">
-        <v>3130000</v>
+      <c r="O130" s="2">
+        <v>3280000</v>
       </c>
       <c r="P130">
         <v>1</v>
@@ -7590,7 +7590,7 @@
         <v>13</v>
       </c>
       <c r="D131" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="12"/>
@@ -7625,8 +7625,8 @@
       <c r="N131" s="4">
         <v>2</v>
       </c>
-      <c r="O131" s="3">
-        <v>3140000</v>
+      <c r="O131" s="2">
+        <v>3290000</v>
       </c>
       <c r="P131">
         <v>1</v>
@@ -7643,7 +7643,7 @@
         <v>13</v>
       </c>
       <c r="D132" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E132" s="4">
         <f t="shared" si="12"/>
@@ -7678,8 +7678,8 @@
       <c r="N132" s="4">
         <v>2</v>
       </c>
-      <c r="O132" s="3">
-        <v>3150000</v>
+      <c r="O132" s="2">
+        <v>3300000</v>
       </c>
       <c r="P132">
         <v>1</v>
@@ -7696,7 +7696,7 @@
         <v>13</v>
       </c>
       <c r="D133" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E133" s="4">
         <f t="shared" si="12"/>
@@ -7731,8 +7731,8 @@
       <c r="N133" s="4">
         <v>2</v>
       </c>
-      <c r="O133" s="3">
-        <v>3160000</v>
+      <c r="O133" s="2">
+        <v>3310000</v>
       </c>
       <c r="P133">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         <v>13</v>
       </c>
       <c r="D134" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E134" s="4">
         <f t="shared" si="12"/>
@@ -7784,8 +7784,8 @@
       <c r="N134" s="4">
         <v>2</v>
       </c>
-      <c r="O134" s="3">
-        <v>3170000</v>
+      <c r="O134" s="2">
+        <v>3320000</v>
       </c>
       <c r="P134">
         <v>1</v>
@@ -7802,7 +7802,7 @@
         <v>13</v>
       </c>
       <c r="D135" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E135" s="4">
         <f t="shared" si="12"/>
@@ -7837,8 +7837,8 @@
       <c r="N135" s="4">
         <v>2</v>
       </c>
-      <c r="O135" s="3">
-        <v>3180000</v>
+      <c r="O135" s="2">
+        <v>3330000</v>
       </c>
       <c r="P135">
         <v>1</v>
@@ -7855,7 +7855,7 @@
         <v>13</v>
       </c>
       <c r="D136" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E136" s="4">
         <f t="shared" si="12"/>
@@ -7890,8 +7890,8 @@
       <c r="N136" s="4">
         <v>2</v>
       </c>
-      <c r="O136" s="3">
-        <v>3190000</v>
+      <c r="O136" s="2">
+        <v>3340000</v>
       </c>
       <c r="P136">
         <v>1</v>
@@ -7908,7 +7908,7 @@
         <v>14</v>
       </c>
       <c r="D137">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E137">
         <f t="shared" si="12"/>
@@ -7944,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="O137" s="2">
-        <v>3050000</v>
+        <v>3350000</v>
       </c>
       <c r="P137">
         <v>1</v>
@@ -7961,7 +7961,7 @@
         <v>14</v>
       </c>
       <c r="D138">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E138">
         <f t="shared" si="12"/>
@@ -7997,7 +7997,7 @@
         <v>2</v>
       </c>
       <c r="O138" s="2">
-        <v>3060000</v>
+        <v>3360000</v>
       </c>
       <c r="P138">
         <v>1</v>
@@ -8014,7 +8014,7 @@
         <v>14</v>
       </c>
       <c r="D139">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E139">
         <f t="shared" si="12"/>
@@ -8050,7 +8050,7 @@
         <v>2</v>
       </c>
       <c r="O139" s="2">
-        <v>3070000</v>
+        <v>3370000</v>
       </c>
       <c r="P139">
         <v>1</v>
@@ -8067,7 +8067,7 @@
         <v>14</v>
       </c>
       <c r="D140">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E140">
         <f t="shared" si="12"/>
@@ -8103,7 +8103,7 @@
         <v>2</v>
       </c>
       <c r="O140" s="2">
-        <v>3080000</v>
+        <v>3380000</v>
       </c>
       <c r="P140">
         <v>1</v>
@@ -8120,7 +8120,7 @@
         <v>14</v>
       </c>
       <c r="D141">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E141">
         <f t="shared" si="12"/>
@@ -8156,7 +8156,7 @@
         <v>2</v>
       </c>
       <c r="O141" s="2">
-        <v>3090000</v>
+        <v>3390000</v>
       </c>
       <c r="P141">
         <v>1</v>
@@ -8173,7 +8173,7 @@
         <v>14</v>
       </c>
       <c r="D142">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E142">
         <f t="shared" si="12"/>
@@ -8209,7 +8209,7 @@
         <v>2</v>
       </c>
       <c r="O142" s="2">
-        <v>3100000</v>
+        <v>3400000</v>
       </c>
       <c r="P142">
         <v>1</v>
@@ -8226,7 +8226,7 @@
         <v>14</v>
       </c>
       <c r="D143">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E143">
         <f t="shared" si="12"/>
@@ -8262,7 +8262,7 @@
         <v>2</v>
       </c>
       <c r="O143" s="2">
-        <v>3110000</v>
+        <v>3410000</v>
       </c>
       <c r="P143">
         <v>1</v>
@@ -8279,7 +8279,7 @@
         <v>14</v>
       </c>
       <c r="D144">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E144">
         <f t="shared" si="12"/>
@@ -8315,7 +8315,7 @@
         <v>2</v>
       </c>
       <c r="O144" s="2">
-        <v>3120000</v>
+        <v>3420000</v>
       </c>
       <c r="P144">
         <v>1</v>
@@ -8332,7 +8332,7 @@
         <v>14</v>
       </c>
       <c r="D145">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E145">
         <f t="shared" si="12"/>
@@ -8368,7 +8368,7 @@
         <v>2</v>
       </c>
       <c r="O145" s="2">
-        <v>3130000</v>
+        <v>3430000</v>
       </c>
       <c r="P145">
         <v>1</v>
@@ -8385,7 +8385,7 @@
         <v>14</v>
       </c>
       <c r="D146">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E146">
         <f t="shared" si="12"/>
@@ -8421,7 +8421,7 @@
         <v>2</v>
       </c>
       <c r="O146" s="2">
-        <v>3140000</v>
+        <v>3440000</v>
       </c>
       <c r="P146">
         <v>1</v>
@@ -8438,7 +8438,7 @@
         <v>14</v>
       </c>
       <c r="D147">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E147">
         <f t="shared" si="12"/>
@@ -8474,7 +8474,7 @@
         <v>2</v>
       </c>
       <c r="O147" s="2">
-        <v>3150000</v>
+        <v>3450000</v>
       </c>
       <c r="P147">
         <v>1</v>
@@ -8491,7 +8491,7 @@
         <v>14</v>
       </c>
       <c r="D148">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E148">
         <f t="shared" si="12"/>
@@ -8527,7 +8527,7 @@
         <v>2</v>
       </c>
       <c r="O148" s="2">
-        <v>3160000</v>
+        <v>3460000</v>
       </c>
       <c r="P148">
         <v>1</v>
@@ -8544,7 +8544,7 @@
         <v>14</v>
       </c>
       <c r="D149">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E149">
         <f t="shared" si="12"/>
@@ -8580,7 +8580,7 @@
         <v>2</v>
       </c>
       <c r="O149" s="2">
-        <v>3170000</v>
+        <v>3470000</v>
       </c>
       <c r="P149">
         <v>1</v>
@@ -8597,7 +8597,7 @@
         <v>14</v>
       </c>
       <c r="D150">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E150">
         <f t="shared" si="12"/>
@@ -8633,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="O150" s="2">
-        <v>3180000</v>
+        <v>3480000</v>
       </c>
       <c r="P150">
         <v>1</v>
@@ -8650,7 +8650,7 @@
         <v>14</v>
       </c>
       <c r="D151">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E151">
         <f t="shared" si="12"/>
@@ -8686,7 +8686,7 @@
         <v>2</v>
       </c>
       <c r="O151" s="2">
-        <v>3190000</v>
+        <v>3490000</v>
       </c>
       <c r="P151">
         <v>1</v>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1064CF91-234A-4523-B788-307E2BD6566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B2CAB2-2A24-4FAF-B71A-60CFBD7DAB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="2490" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="19">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -548,31 +548,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:P151"/>
+  <dimension ref="A1:P181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="18.08203125" customWidth="1"/>
     <col min="8" max="8" width="19.25" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
     <col min="12" max="12" width="18.75" customWidth="1"/>
-    <col min="13" max="13" width="23.375" customWidth="1"/>
-    <col min="14" max="14" width="14.625" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.58203125" customWidth="1"/>
+    <col min="15" max="15" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A137" s="2">
         <v>135</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A139" s="2">
         <v>137</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A143" s="2">
         <v>141</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A145" s="2">
         <v>143</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A147" s="2">
         <v>145</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A149" s="2">
         <v>147</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -8689,6 +8689,1596 @@
         <v>3490000</v>
       </c>
       <c r="P151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="2">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <v>11</v>
+      </c>
+      <c r="C152" s="2">
+        <v>14</v>
+      </c>
+      <c r="D152" s="2">
+        <v>11</v>
+      </c>
+      <c r="E152" s="2">
+        <f t="shared" ref="E152:E181" si="15">B152</f>
+        <v>11</v>
+      </c>
+      <c r="F152" s="2">
+        <v>150</v>
+      </c>
+      <c r="G152" s="2">
+        <v>0</v>
+      </c>
+      <c r="H152" s="2">
+        <v>400</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J152" s="2">
+        <v>1</v>
+      </c>
+      <c r="K152" s="2">
+        <f t="shared" ref="K152:K181" si="16">10000+A152*2000</f>
+        <v>310000</v>
+      </c>
+      <c r="L152" s="2">
+        <v>1</v>
+      </c>
+      <c r="M152" s="2">
+        <f t="shared" ref="M152:M181" si="17">K152*2</f>
+        <v>620000</v>
+      </c>
+      <c r="N152" s="2">
+        <v>2</v>
+      </c>
+      <c r="O152" s="2">
+        <v>3500000</v>
+      </c>
+      <c r="P152" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A153" s="2">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <v>11</v>
+      </c>
+      <c r="C153" s="2">
+        <v>14</v>
+      </c>
+      <c r="D153" s="2">
+        <v>11</v>
+      </c>
+      <c r="E153" s="2">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F153" s="2">
+        <v>151</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0</v>
+      </c>
+      <c r="H153" s="2">
+        <v>402</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J153" s="2">
+        <v>1</v>
+      </c>
+      <c r="K153" s="2">
+        <f t="shared" si="16"/>
+        <v>312000</v>
+      </c>
+      <c r="L153" s="2">
+        <v>1</v>
+      </c>
+      <c r="M153" s="2">
+        <f t="shared" si="17"/>
+        <v>624000</v>
+      </c>
+      <c r="N153" s="2">
+        <v>2</v>
+      </c>
+      <c r="O153" s="2">
+        <v>3510000</v>
+      </c>
+      <c r="P153" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A154" s="2">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <v>11</v>
+      </c>
+      <c r="C154" s="2">
+        <v>14</v>
+      </c>
+      <c r="D154" s="2">
+        <v>11</v>
+      </c>
+      <c r="E154" s="2">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F154" s="2">
+        <v>152</v>
+      </c>
+      <c r="G154" s="2">
+        <v>0</v>
+      </c>
+      <c r="H154" s="2">
+        <v>404</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J154" s="2">
+        <v>1</v>
+      </c>
+      <c r="K154" s="2">
+        <f t="shared" si="16"/>
+        <v>314000</v>
+      </c>
+      <c r="L154" s="2">
+        <v>1</v>
+      </c>
+      <c r="M154" s="2">
+        <f t="shared" si="17"/>
+        <v>628000</v>
+      </c>
+      <c r="N154" s="2">
+        <v>2</v>
+      </c>
+      <c r="O154" s="2">
+        <v>3520000</v>
+      </c>
+      <c r="P154" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="2">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <v>11</v>
+      </c>
+      <c r="C155" s="2">
+        <v>14</v>
+      </c>
+      <c r="D155" s="2">
+        <v>11</v>
+      </c>
+      <c r="E155" s="2">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F155" s="2">
+        <v>153</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0</v>
+      </c>
+      <c r="H155" s="2">
+        <v>406</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J155" s="2">
+        <v>1</v>
+      </c>
+      <c r="K155" s="2">
+        <f t="shared" si="16"/>
+        <v>316000</v>
+      </c>
+      <c r="L155" s="2">
+        <v>1</v>
+      </c>
+      <c r="M155" s="2">
+        <f t="shared" si="17"/>
+        <v>632000</v>
+      </c>
+      <c r="N155" s="2">
+        <v>2</v>
+      </c>
+      <c r="O155" s="2">
+        <v>3530000</v>
+      </c>
+      <c r="P155" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="2">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>11</v>
+      </c>
+      <c r="C156" s="2">
+        <v>14</v>
+      </c>
+      <c r="D156" s="2">
+        <v>11</v>
+      </c>
+      <c r="E156" s="2">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F156" s="2">
+        <v>154</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0</v>
+      </c>
+      <c r="H156" s="2">
+        <v>408</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J156" s="2">
+        <v>1</v>
+      </c>
+      <c r="K156" s="2">
+        <f t="shared" si="16"/>
+        <v>318000</v>
+      </c>
+      <c r="L156" s="2">
+        <v>1</v>
+      </c>
+      <c r="M156" s="2">
+        <f t="shared" si="17"/>
+        <v>636000</v>
+      </c>
+      <c r="N156" s="2">
+        <v>2</v>
+      </c>
+      <c r="O156" s="2">
+        <v>3540000</v>
+      </c>
+      <c r="P156" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A157" s="2">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <v>11</v>
+      </c>
+      <c r="C157" s="2">
+        <v>14</v>
+      </c>
+      <c r="D157" s="2">
+        <v>11</v>
+      </c>
+      <c r="E157" s="2">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F157" s="2">
+        <v>155</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+      <c r="H157" s="2">
+        <v>410</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J157" s="2">
+        <v>1</v>
+      </c>
+      <c r="K157" s="2">
+        <f t="shared" si="16"/>
+        <v>320000</v>
+      </c>
+      <c r="L157" s="2">
+        <v>1</v>
+      </c>
+      <c r="M157" s="2">
+        <f t="shared" si="17"/>
+        <v>640000</v>
+      </c>
+      <c r="N157" s="2">
+        <v>2</v>
+      </c>
+      <c r="O157" s="2">
+        <v>3550000</v>
+      </c>
+      <c r="P157" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="2">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <v>11</v>
+      </c>
+      <c r="C158" s="2">
+        <v>14</v>
+      </c>
+      <c r="D158" s="2">
+        <v>11</v>
+      </c>
+      <c r="E158" s="2">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F158" s="2">
+        <v>156</v>
+      </c>
+      <c r="G158" s="2">
+        <v>0</v>
+      </c>
+      <c r="H158" s="2">
+        <v>412</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J158" s="2">
+        <v>1</v>
+      </c>
+      <c r="K158" s="2">
+        <f t="shared" si="16"/>
+        <v>322000</v>
+      </c>
+      <c r="L158" s="2">
+        <v>1</v>
+      </c>
+      <c r="M158" s="2">
+        <f t="shared" si="17"/>
+        <v>644000</v>
+      </c>
+      <c r="N158" s="2">
+        <v>2</v>
+      </c>
+      <c r="O158" s="2">
+        <v>3560000</v>
+      </c>
+      <c r="P158" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A159" s="2">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <v>11</v>
+      </c>
+      <c r="C159" s="2">
+        <v>14</v>
+      </c>
+      <c r="D159" s="2">
+        <v>11</v>
+      </c>
+      <c r="E159" s="2">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F159" s="2">
+        <v>157</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0</v>
+      </c>
+      <c r="H159" s="2">
+        <v>414</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J159" s="2">
+        <v>1</v>
+      </c>
+      <c r="K159" s="2">
+        <f t="shared" si="16"/>
+        <v>324000</v>
+      </c>
+      <c r="L159" s="2">
+        <v>1</v>
+      </c>
+      <c r="M159" s="2">
+        <f t="shared" si="17"/>
+        <v>648000</v>
+      </c>
+      <c r="N159" s="2">
+        <v>2</v>
+      </c>
+      <c r="O159" s="2">
+        <v>3570000</v>
+      </c>
+      <c r="P159" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A160" s="2">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>11</v>
+      </c>
+      <c r="C160" s="2">
+        <v>14</v>
+      </c>
+      <c r="D160" s="2">
+        <v>11</v>
+      </c>
+      <c r="E160" s="2">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F160" s="2">
+        <v>158</v>
+      </c>
+      <c r="G160" s="2">
+        <v>0</v>
+      </c>
+      <c r="H160" s="2">
+        <v>416</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J160" s="2">
+        <v>1</v>
+      </c>
+      <c r="K160" s="2">
+        <f t="shared" si="16"/>
+        <v>326000</v>
+      </c>
+      <c r="L160" s="2">
+        <v>1</v>
+      </c>
+      <c r="M160" s="2">
+        <f t="shared" si="17"/>
+        <v>652000</v>
+      </c>
+      <c r="N160" s="2">
+        <v>2</v>
+      </c>
+      <c r="O160" s="2">
+        <v>3580000</v>
+      </c>
+      <c r="P160" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A161" s="2">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>11</v>
+      </c>
+      <c r="C161" s="2">
+        <v>14</v>
+      </c>
+      <c r="D161" s="2">
+        <v>11</v>
+      </c>
+      <c r="E161" s="2">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F161" s="2">
+        <v>159</v>
+      </c>
+      <c r="G161" s="2">
+        <v>0</v>
+      </c>
+      <c r="H161" s="2">
+        <v>418</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J161" s="2">
+        <v>1</v>
+      </c>
+      <c r="K161" s="2">
+        <f t="shared" si="16"/>
+        <v>328000</v>
+      </c>
+      <c r="L161" s="2">
+        <v>1</v>
+      </c>
+      <c r="M161" s="2">
+        <f t="shared" si="17"/>
+        <v>656000</v>
+      </c>
+      <c r="N161" s="2">
+        <v>2</v>
+      </c>
+      <c r="O161" s="2">
+        <v>3590000</v>
+      </c>
+      <c r="P161" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A162" s="2">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <v>11</v>
+      </c>
+      <c r="C162" s="2">
+        <v>14</v>
+      </c>
+      <c r="D162" s="2">
+        <v>11</v>
+      </c>
+      <c r="E162" s="2">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F162" s="2">
+        <v>160</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0</v>
+      </c>
+      <c r="H162" s="2">
+        <v>420</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J162" s="2">
+        <v>1</v>
+      </c>
+      <c r="K162" s="2">
+        <f t="shared" si="16"/>
+        <v>330000</v>
+      </c>
+      <c r="L162" s="2">
+        <v>1</v>
+      </c>
+      <c r="M162" s="2">
+        <f t="shared" si="17"/>
+        <v>660000</v>
+      </c>
+      <c r="N162" s="2">
+        <v>2</v>
+      </c>
+      <c r="O162" s="2">
+        <v>3600000</v>
+      </c>
+      <c r="P162" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A163" s="2">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <v>11</v>
+      </c>
+      <c r="C163" s="2">
+        <v>14</v>
+      </c>
+      <c r="D163" s="2">
+        <v>11</v>
+      </c>
+      <c r="E163" s="2">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F163" s="2">
+        <v>161</v>
+      </c>
+      <c r="G163" s="2">
+        <v>0</v>
+      </c>
+      <c r="H163" s="2">
+        <v>422</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J163" s="2">
+        <v>1</v>
+      </c>
+      <c r="K163" s="2">
+        <f t="shared" si="16"/>
+        <v>332000</v>
+      </c>
+      <c r="L163" s="2">
+        <v>1</v>
+      </c>
+      <c r="M163" s="2">
+        <f t="shared" si="17"/>
+        <v>664000</v>
+      </c>
+      <c r="N163" s="2">
+        <v>2</v>
+      </c>
+      <c r="O163" s="2">
+        <v>3610000</v>
+      </c>
+      <c r="P163" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A164" s="2">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <v>11</v>
+      </c>
+      <c r="C164" s="2">
+        <v>14</v>
+      </c>
+      <c r="D164" s="2">
+        <v>11</v>
+      </c>
+      <c r="E164" s="2">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F164" s="2">
+        <v>162</v>
+      </c>
+      <c r="G164" s="2">
+        <v>0</v>
+      </c>
+      <c r="H164" s="2">
+        <v>424</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J164" s="2">
+        <v>1</v>
+      </c>
+      <c r="K164" s="2">
+        <f t="shared" si="16"/>
+        <v>334000</v>
+      </c>
+      <c r="L164" s="2">
+        <v>1</v>
+      </c>
+      <c r="M164" s="2">
+        <f t="shared" si="17"/>
+        <v>668000</v>
+      </c>
+      <c r="N164" s="2">
+        <v>2</v>
+      </c>
+      <c r="O164" s="2">
+        <v>3620000</v>
+      </c>
+      <c r="P164" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A165" s="2">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <v>11</v>
+      </c>
+      <c r="C165" s="2">
+        <v>14</v>
+      </c>
+      <c r="D165" s="2">
+        <v>11</v>
+      </c>
+      <c r="E165" s="2">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F165" s="2">
+        <v>163</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0</v>
+      </c>
+      <c r="H165" s="2">
+        <v>426</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J165" s="2">
+        <v>1</v>
+      </c>
+      <c r="K165" s="2">
+        <f t="shared" si="16"/>
+        <v>336000</v>
+      </c>
+      <c r="L165" s="2">
+        <v>1</v>
+      </c>
+      <c r="M165" s="2">
+        <f t="shared" si="17"/>
+        <v>672000</v>
+      </c>
+      <c r="N165" s="2">
+        <v>2</v>
+      </c>
+      <c r="O165" s="2">
+        <v>3630000</v>
+      </c>
+      <c r="P165" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A166" s="2">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <v>11</v>
+      </c>
+      <c r="C166" s="2">
+        <v>14</v>
+      </c>
+      <c r="D166" s="2">
+        <v>11</v>
+      </c>
+      <c r="E166" s="2">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="F166" s="2">
+        <v>164</v>
+      </c>
+      <c r="G166" s="2">
+        <v>0</v>
+      </c>
+      <c r="H166" s="2">
+        <v>428</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J166" s="2">
+        <v>1</v>
+      </c>
+      <c r="K166" s="2">
+        <f t="shared" si="16"/>
+        <v>338000</v>
+      </c>
+      <c r="L166" s="2">
+        <v>1</v>
+      </c>
+      <c r="M166" s="2">
+        <f t="shared" si="17"/>
+        <v>676000</v>
+      </c>
+      <c r="N166" s="2">
+        <v>2</v>
+      </c>
+      <c r="O166" s="2">
+        <v>3640000</v>
+      </c>
+      <c r="P166" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A167" s="2">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>12</v>
+      </c>
+      <c r="C167">
+        <v>14</v>
+      </c>
+      <c r="D167">
+        <v>11</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="F167" s="2">
+        <v>165</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167" s="2">
+        <v>430</v>
+      </c>
+      <c r="I167" t="s">
+        <v>13</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167" s="2">
+        <f t="shared" si="16"/>
+        <v>340000</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167" s="2">
+        <f t="shared" si="17"/>
+        <v>680000</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167" s="2">
+        <v>3650000</v>
+      </c>
+      <c r="P167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A168" s="2">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>12</v>
+      </c>
+      <c r="C168">
+        <v>14</v>
+      </c>
+      <c r="D168">
+        <v>11</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="F168" s="2">
+        <v>166</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168" s="2">
+        <v>432</v>
+      </c>
+      <c r="I168" t="s">
+        <v>13</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168" s="2">
+        <f t="shared" si="16"/>
+        <v>342000</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168" s="2">
+        <f t="shared" si="17"/>
+        <v>684000</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168" s="2">
+        <v>3660000</v>
+      </c>
+      <c r="P168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A169" s="2">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>12</v>
+      </c>
+      <c r="C169">
+        <v>14</v>
+      </c>
+      <c r="D169">
+        <v>11</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="F169" s="2">
+        <v>167</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169" s="2">
+        <v>434</v>
+      </c>
+      <c r="I169" t="s">
+        <v>13</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169" s="2">
+        <f t="shared" si="16"/>
+        <v>344000</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169" s="2">
+        <f t="shared" si="17"/>
+        <v>688000</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" s="2">
+        <v>3670000</v>
+      </c>
+      <c r="P169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A170" s="2">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>12</v>
+      </c>
+      <c r="C170">
+        <v>14</v>
+      </c>
+      <c r="D170">
+        <v>11</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="F170" s="2">
+        <v>168</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170" s="2">
+        <v>436</v>
+      </c>
+      <c r="I170" t="s">
+        <v>13</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170" s="2">
+        <f t="shared" si="16"/>
+        <v>346000</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170" s="2">
+        <f t="shared" si="17"/>
+        <v>692000</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" s="2">
+        <v>3680000</v>
+      </c>
+      <c r="P170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A171" s="2">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>12</v>
+      </c>
+      <c r="C171">
+        <v>14</v>
+      </c>
+      <c r="D171">
+        <v>11</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="F171" s="2">
+        <v>169</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171" s="2">
+        <v>438</v>
+      </c>
+      <c r="I171" t="s">
+        <v>13</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171" s="2">
+        <f t="shared" si="16"/>
+        <v>348000</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171" s="2">
+        <f t="shared" si="17"/>
+        <v>696000</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" s="2">
+        <v>3690000</v>
+      </c>
+      <c r="P171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A172" s="2">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>12</v>
+      </c>
+      <c r="C172">
+        <v>14</v>
+      </c>
+      <c r="D172">
+        <v>11</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="F172" s="2">
+        <v>170</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172" s="2">
+        <v>440</v>
+      </c>
+      <c r="I172" t="s">
+        <v>13</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172" s="2">
+        <f t="shared" si="16"/>
+        <v>350000</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172" s="2">
+        <f t="shared" si="17"/>
+        <v>700000</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172" s="2">
+        <v>3700000</v>
+      </c>
+      <c r="P172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A173" s="2">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>12</v>
+      </c>
+      <c r="C173">
+        <v>14</v>
+      </c>
+      <c r="D173">
+        <v>11</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="F173" s="2">
+        <v>171</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173" s="2">
+        <v>442</v>
+      </c>
+      <c r="I173" t="s">
+        <v>13</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173" s="2">
+        <f t="shared" si="16"/>
+        <v>352000</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173" s="2">
+        <f t="shared" si="17"/>
+        <v>704000</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" s="2">
+        <v>3710000</v>
+      </c>
+      <c r="P173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A174" s="2">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>12</v>
+      </c>
+      <c r="C174">
+        <v>14</v>
+      </c>
+      <c r="D174">
+        <v>11</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="F174" s="2">
+        <v>172</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174" s="2">
+        <v>444</v>
+      </c>
+      <c r="I174" t="s">
+        <v>13</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174" s="2">
+        <f t="shared" si="16"/>
+        <v>354000</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174" s="2">
+        <f t="shared" si="17"/>
+        <v>708000</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" s="2">
+        <v>3720000</v>
+      </c>
+      <c r="P174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A175" s="2">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>12</v>
+      </c>
+      <c r="C175">
+        <v>14</v>
+      </c>
+      <c r="D175">
+        <v>11</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="F175" s="2">
+        <v>173</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175" s="2">
+        <v>446</v>
+      </c>
+      <c r="I175" t="s">
+        <v>13</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175" s="2">
+        <f t="shared" si="16"/>
+        <v>356000</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175" s="2">
+        <f t="shared" si="17"/>
+        <v>712000</v>
+      </c>
+      <c r="N175">
+        <v>2</v>
+      </c>
+      <c r="O175" s="2">
+        <v>3730000</v>
+      </c>
+      <c r="P175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A176" s="2">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>12</v>
+      </c>
+      <c r="C176">
+        <v>14</v>
+      </c>
+      <c r="D176">
+        <v>11</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="F176" s="2">
+        <v>174</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176" s="2">
+        <v>448</v>
+      </c>
+      <c r="I176" t="s">
+        <v>13</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176" s="2">
+        <f t="shared" si="16"/>
+        <v>358000</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176" s="2">
+        <f t="shared" si="17"/>
+        <v>716000</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" s="2">
+        <v>3740000</v>
+      </c>
+      <c r="P176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A177" s="2">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>12</v>
+      </c>
+      <c r="C177">
+        <v>14</v>
+      </c>
+      <c r="D177">
+        <v>11</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="F177" s="2">
+        <v>175</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177" s="2">
+        <v>450</v>
+      </c>
+      <c r="I177" t="s">
+        <v>13</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177" s="2">
+        <f t="shared" si="16"/>
+        <v>360000</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177" s="2">
+        <f t="shared" si="17"/>
+        <v>720000</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" s="2">
+        <v>3750000</v>
+      </c>
+      <c r="P177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A178" s="2">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>12</v>
+      </c>
+      <c r="C178">
+        <v>14</v>
+      </c>
+      <c r="D178">
+        <v>11</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="F178" s="2">
+        <v>176</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178" s="2">
+        <v>452</v>
+      </c>
+      <c r="I178" t="s">
+        <v>13</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178" s="2">
+        <f t="shared" si="16"/>
+        <v>362000</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178" s="2">
+        <f t="shared" si="17"/>
+        <v>724000</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" s="2">
+        <v>3760000</v>
+      </c>
+      <c r="P178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A179" s="2">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>12</v>
+      </c>
+      <c r="C179">
+        <v>14</v>
+      </c>
+      <c r="D179">
+        <v>11</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="F179" s="2">
+        <v>177</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179" s="2">
+        <v>454</v>
+      </c>
+      <c r="I179" t="s">
+        <v>13</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179" s="2">
+        <f t="shared" si="16"/>
+        <v>364000</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179" s="2">
+        <f t="shared" si="17"/>
+        <v>728000</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179" s="2">
+        <v>3770000</v>
+      </c>
+      <c r="P179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A180" s="2">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>12</v>
+      </c>
+      <c r="C180">
+        <v>14</v>
+      </c>
+      <c r="D180">
+        <v>11</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="F180" s="2">
+        <v>178</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180" s="2">
+        <v>456</v>
+      </c>
+      <c r="I180" t="s">
+        <v>13</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180" s="2">
+        <f t="shared" si="16"/>
+        <v>366000</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180" s="2">
+        <f t="shared" si="17"/>
+        <v>732000</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" s="2">
+        <v>3780000</v>
+      </c>
+      <c r="P180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A181" s="2">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>12</v>
+      </c>
+      <c r="C181">
+        <v>14</v>
+      </c>
+      <c r="D181">
+        <v>11</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="F181" s="2">
+        <v>179</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181" s="2">
+        <v>458</v>
+      </c>
+      <c r="I181" t="s">
+        <v>13</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181" s="2">
+        <f t="shared" si="16"/>
+        <v>368000</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181" s="2">
+        <f t="shared" si="17"/>
+        <v>736000</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" s="2">
+        <v>3790000</v>
+      </c>
+      <c r="P181">
         <v>1</v>
       </c>
     </row>
@@ -8707,9 +10297,9 @@
       <selection activeCell="I1" sqref="I1:I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8738,7 +10328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8767,7 +10357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8797,7 +10387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8828,7 +10418,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8859,7 +10449,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8890,7 +10480,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8921,7 +10511,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8952,7 +10542,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8983,7 +10573,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -9014,7 +10604,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9045,7 +10635,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9076,7 +10666,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9107,7 +10697,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9138,7 +10728,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -9169,7 +10759,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9200,7 +10790,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9231,7 +10821,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -9262,7 +10852,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -9293,7 +10883,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9324,7 +10914,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9355,7 +10945,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9386,7 +10976,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9417,7 +11007,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -9448,7 +11038,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -9479,7 +11069,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -9510,7 +11100,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -9541,7 +11131,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -9572,7 +11162,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -9603,7 +11193,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -9634,7 +11224,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -9665,7 +11255,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B2CAB2-2A24-4FAF-B71A-60CFBD7DAB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C29DCE-5224-4075-84B2-3D1FED15A286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="19">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,8 +153,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +182,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -201,7 +214,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,8 +227,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,11 +247,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="메모" xfId="3" builtinId="10"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
+    <cellStyle name="좋음" xfId="4" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -548,31 +568,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:P181"/>
+  <dimension ref="A1:P211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="18.08203125" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
     <col min="8" max="8" width="19.25" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
     <col min="12" max="12" width="18.75" customWidth="1"/>
-    <col min="13" max="13" width="23.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.58203125" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" customWidth="1"/>
+    <col min="13" max="13" width="23.375" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -676,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -730,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -784,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -838,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -892,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -946,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1000,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1054,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1108,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1162,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1216,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1270,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1324,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1378,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1432,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1486,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1540,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1594,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1648,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1702,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1756,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1810,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1864,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1918,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1972,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2026,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2080,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2134,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2188,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2242,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2296,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2350,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2404,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2458,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2512,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2566,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2620,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2674,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2728,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2782,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2836,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2890,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2944,7 +2965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2998,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3052,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3106,7 +3127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3160,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3214,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3268,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3322,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3376,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3430,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3484,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3538,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3592,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3646,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3700,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3754,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3808,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3862,7 +3883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3916,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3970,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4024,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4078,7 +4099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4132,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4186,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4240,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4294,7 +4315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4348,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4402,7 +4423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4456,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4510,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4564,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4618,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4672,7 +4693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4726,7 +4747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4780,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4834,7 +4855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4888,7 +4909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4942,7 +4963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4996,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5050,7 +5071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5104,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5158,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5212,7 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5266,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5320,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5374,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5428,7 +5449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5482,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -5536,7 +5557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -5590,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -5644,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -5698,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -5752,7 +5773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -5806,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -5860,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -5914,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -5968,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -6022,7 +6043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -6076,7 +6097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -6130,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -6184,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -6238,7 +6259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -6292,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -6346,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -6400,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -6454,7 +6475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -6508,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -6562,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -6616,7 +6637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -6670,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -6724,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -6778,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -6832,7 +6853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -6886,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -6940,7 +6961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -6994,7 +7015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -7048,7 +7069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -7102,7 +7123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -7155,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -7208,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -7261,7 +7282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -7314,7 +7335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -7367,7 +7388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -7420,7 +7441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -7473,7 +7494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -7526,7 +7547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -7579,7 +7600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -7632,7 +7653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -7685,7 +7706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -7738,7 +7759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -7791,7 +7812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -7844,7 +7865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -7897,7 +7918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>135</v>
       </c>
@@ -7950,7 +7971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -8003,7 +8024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>137</v>
       </c>
@@ -8056,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -8109,7 +8130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -8162,7 +8183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -8215,7 +8236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>141</v>
       </c>
@@ -8268,7 +8289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -8321,7 +8342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>143</v>
       </c>
@@ -8374,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -8427,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>145</v>
       </c>
@@ -8480,7 +8501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -8533,7 +8554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>147</v>
       </c>
@@ -8586,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -8639,7 +8660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -8692,7 +8713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -8706,7 +8727,7 @@
         <v>11</v>
       </c>
       <c r="E152" s="2">
-        <f t="shared" ref="E152:E181" si="15">B152</f>
+        <f t="shared" ref="E152:E196" si="15">B152</f>
         <v>11</v>
       </c>
       <c r="F152" s="2">
@@ -8745,7 +8766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>151</v>
       </c>
@@ -8798,7 +8819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -8851,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>153</v>
       </c>
@@ -8904,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>154</v>
       </c>
@@ -8957,7 +8978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -9010,7 +9031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>156</v>
       </c>
@@ -9063,7 +9084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>157</v>
       </c>
@@ -9116,7 +9137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>158</v>
       </c>
@@ -9169,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>159</v>
       </c>
@@ -9222,7 +9243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -9275,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>161</v>
       </c>
@@ -9328,7 +9349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -9381,7 +9402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>163</v>
       </c>
@@ -9434,7 +9455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>164</v>
       </c>
@@ -9487,7 +9508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -9540,7 +9561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -9593,7 +9614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>167</v>
       </c>
@@ -9646,7 +9667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -9699,7 +9720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>169</v>
       </c>
@@ -9752,7 +9773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>170</v>
       </c>
@@ -9805,7 +9826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>171</v>
       </c>
@@ -9858,7 +9879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>172</v>
       </c>
@@ -9911,7 +9932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>173</v>
       </c>
@@ -9964,7 +9985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -10017,7 +10038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>175</v>
       </c>
@@ -10070,7 +10091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>176</v>
       </c>
@@ -10123,7 +10144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>177</v>
       </c>
@@ -10176,7 +10197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>178</v>
       </c>
@@ -10229,7 +10250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>179</v>
       </c>
@@ -10279,6 +10300,1576 @@
         <v>3790000</v>
       </c>
       <c r="P181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A182" s="5">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>13</v>
+      </c>
+      <c r="C182">
+        <v>15</v>
+      </c>
+      <c r="D182">
+        <v>10</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="F182" s="2">
+        <v>180</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182" s="2">
+        <v>458</v>
+      </c>
+      <c r="I182" t="s">
+        <v>13</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182" s="2">
+        <f t="shared" ref="K182:K211" si="18">10000+A182*2000</f>
+        <v>370000</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182" s="2">
+        <f t="shared" ref="M182:M211" si="19">K182*2</f>
+        <v>740000</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" s="2">
+        <v>3790000</v>
+      </c>
+      <c r="P182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A183" s="5">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>13</v>
+      </c>
+      <c r="C183">
+        <v>15</v>
+      </c>
+      <c r="D183">
+        <v>10</v>
+      </c>
+      <c r="E183">
+        <v>13</v>
+      </c>
+      <c r="F183" s="2">
+        <v>181</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183" s="2">
+        <v>459</v>
+      </c>
+      <c r="I183" t="s">
+        <v>13</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183" s="2">
+        <f t="shared" si="18"/>
+        <v>372000</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183" s="2">
+        <f t="shared" si="19"/>
+        <v>744000</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" s="2">
+        <v>3802000</v>
+      </c>
+      <c r="P183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A184" s="5">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>13</v>
+      </c>
+      <c r="C184">
+        <v>15</v>
+      </c>
+      <c r="D184">
+        <v>10</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="F184" s="2">
+        <v>182</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184" s="2">
+        <v>459</v>
+      </c>
+      <c r="I184" t="s">
+        <v>13</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184" s="2">
+        <f t="shared" si="18"/>
+        <v>374000</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184" s="2">
+        <f t="shared" si="19"/>
+        <v>748000</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184" s="2">
+        <v>3810000</v>
+      </c>
+      <c r="P184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A185" s="5">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>13</v>
+      </c>
+      <c r="C185">
+        <v>15</v>
+      </c>
+      <c r="D185">
+        <v>10</v>
+      </c>
+      <c r="E185">
+        <v>13</v>
+      </c>
+      <c r="F185" s="2">
+        <v>183</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185" s="2">
+        <v>460</v>
+      </c>
+      <c r="I185" t="s">
+        <v>13</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185" s="2">
+        <f t="shared" si="18"/>
+        <v>376000</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185" s="2">
+        <f t="shared" si="19"/>
+        <v>752000</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185" s="2">
+        <v>3818000</v>
+      </c>
+      <c r="P185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A186" s="5">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>13</v>
+      </c>
+      <c r="C186">
+        <v>15</v>
+      </c>
+      <c r="D186">
+        <v>10</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="F186" s="2">
+        <v>184</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186" s="2">
+        <v>460</v>
+      </c>
+      <c r="I186" t="s">
+        <v>13</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186" s="2">
+        <f t="shared" si="18"/>
+        <v>378000</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186" s="2">
+        <f t="shared" si="19"/>
+        <v>756000</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186" s="2">
+        <v>3826000</v>
+      </c>
+      <c r="P186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A187" s="5">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>13</v>
+      </c>
+      <c r="C187">
+        <v>15</v>
+      </c>
+      <c r="D187">
+        <v>10</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="F187" s="2">
+        <v>185</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187" s="2">
+        <v>461</v>
+      </c>
+      <c r="I187" t="s">
+        <v>13</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187" s="2">
+        <f t="shared" si="18"/>
+        <v>380000</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187" s="2">
+        <f t="shared" si="19"/>
+        <v>760000</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" s="2">
+        <v>3834000</v>
+      </c>
+      <c r="P187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A188" s="5">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>13</v>
+      </c>
+      <c r="C188">
+        <v>15</v>
+      </c>
+      <c r="D188">
+        <v>10</v>
+      </c>
+      <c r="E188">
+        <v>13</v>
+      </c>
+      <c r="F188" s="2">
+        <v>186</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188" s="2">
+        <v>461</v>
+      </c>
+      <c r="I188" t="s">
+        <v>13</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188" s="2">
+        <f t="shared" si="18"/>
+        <v>382000</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188" s="2">
+        <f t="shared" si="19"/>
+        <v>764000</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" s="2">
+        <v>3842000</v>
+      </c>
+      <c r="P188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A189" s="5">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>13</v>
+      </c>
+      <c r="C189">
+        <v>15</v>
+      </c>
+      <c r="D189">
+        <v>10</v>
+      </c>
+      <c r="E189">
+        <f>B189</f>
+        <v>13</v>
+      </c>
+      <c r="F189" s="2">
+        <v>187</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189" s="2">
+        <v>462</v>
+      </c>
+      <c r="I189" t="s">
+        <v>13</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189" s="2">
+        <f t="shared" si="18"/>
+        <v>384000</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189" s="2">
+        <f t="shared" si="19"/>
+        <v>768000</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189" s="2">
+        <v>3850000</v>
+      </c>
+      <c r="P189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A190" s="5">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>13</v>
+      </c>
+      <c r="C190">
+        <v>15</v>
+      </c>
+      <c r="D190">
+        <v>10</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="F190" s="2">
+        <v>188</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190" s="2">
+        <v>462</v>
+      </c>
+      <c r="I190" t="s">
+        <v>13</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190" s="2">
+        <f t="shared" si="18"/>
+        <v>386000</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190" s="2">
+        <f t="shared" si="19"/>
+        <v>772000</v>
+      </c>
+      <c r="N190">
+        <v>2</v>
+      </c>
+      <c r="O190" s="2">
+        <v>3858000</v>
+      </c>
+      <c r="P190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A191" s="5">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>13</v>
+      </c>
+      <c r="C191">
+        <v>15</v>
+      </c>
+      <c r="D191">
+        <v>10</v>
+      </c>
+      <c r="E191">
+        <v>13</v>
+      </c>
+      <c r="F191" s="2">
+        <v>189</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191" s="2">
+        <v>463</v>
+      </c>
+      <c r="I191" t="s">
+        <v>13</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191" s="2">
+        <f t="shared" si="18"/>
+        <v>388000</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191" s="2">
+        <f t="shared" si="19"/>
+        <v>776000</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" s="2">
+        <v>3866000</v>
+      </c>
+      <c r="P191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A192" s="5">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>13</v>
+      </c>
+      <c r="C192">
+        <v>15</v>
+      </c>
+      <c r="D192">
+        <v>10</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="F192" s="2">
+        <v>190</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192" s="2">
+        <v>463</v>
+      </c>
+      <c r="I192" t="s">
+        <v>13</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192" s="2">
+        <f t="shared" si="18"/>
+        <v>390000</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192" s="2">
+        <f t="shared" si="19"/>
+        <v>780000</v>
+      </c>
+      <c r="N192">
+        <v>2</v>
+      </c>
+      <c r="O192" s="2">
+        <v>3874000</v>
+      </c>
+      <c r="P192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A193" s="5">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>13</v>
+      </c>
+      <c r="C193">
+        <v>15</v>
+      </c>
+      <c r="D193">
+        <v>10</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="F193" s="2">
+        <v>191</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193" s="2">
+        <v>464</v>
+      </c>
+      <c r="I193" t="s">
+        <v>13</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193" s="2">
+        <f t="shared" si="18"/>
+        <v>392000</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193" s="2">
+        <f t="shared" si="19"/>
+        <v>784000</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" s="2">
+        <v>3882000</v>
+      </c>
+      <c r="P193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A194" s="5">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>13</v>
+      </c>
+      <c r="C194">
+        <v>15</v>
+      </c>
+      <c r="D194">
+        <v>10</v>
+      </c>
+      <c r="E194">
+        <v>13</v>
+      </c>
+      <c r="F194" s="2">
+        <v>192</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194" s="2">
+        <v>464</v>
+      </c>
+      <c r="I194" t="s">
+        <v>13</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194" s="2">
+        <f t="shared" si="18"/>
+        <v>394000</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194" s="2">
+        <f t="shared" si="19"/>
+        <v>788000</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194" s="2">
+        <v>3890000</v>
+      </c>
+      <c r="P194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A195" s="5">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>13</v>
+      </c>
+      <c r="C195">
+        <v>15</v>
+      </c>
+      <c r="D195">
+        <v>10</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="F195" s="2">
+        <v>193</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195" s="2">
+        <v>465</v>
+      </c>
+      <c r="I195" t="s">
+        <v>13</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195" s="2">
+        <f t="shared" si="18"/>
+        <v>396000</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195" s="2">
+        <f t="shared" si="19"/>
+        <v>792000</v>
+      </c>
+      <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195" s="2">
+        <v>3898000</v>
+      </c>
+      <c r="P195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A196" s="5">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>13</v>
+      </c>
+      <c r="C196">
+        <v>15</v>
+      </c>
+      <c r="D196">
+        <v>10</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="F196" s="2">
+        <v>194</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196" s="2">
+        <v>465</v>
+      </c>
+      <c r="I196" t="s">
+        <v>13</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196" s="2">
+        <f t="shared" si="18"/>
+        <v>398000</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196" s="2">
+        <f t="shared" si="19"/>
+        <v>796000</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" s="2">
+        <v>3906000</v>
+      </c>
+      <c r="P196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>13</v>
+      </c>
+      <c r="C197">
+        <v>16</v>
+      </c>
+      <c r="D197">
+        <v>10</v>
+      </c>
+      <c r="E197">
+        <v>14</v>
+      </c>
+      <c r="F197" s="2">
+        <v>195</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197" s="2">
+        <v>466</v>
+      </c>
+      <c r="I197" t="s">
+        <v>13</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197" s="2">
+        <f t="shared" si="18"/>
+        <v>400000</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197" s="2">
+        <f t="shared" si="19"/>
+        <v>800000</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" s="2">
+        <v>3914000</v>
+      </c>
+      <c r="P197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>13</v>
+      </c>
+      <c r="C198">
+        <v>16</v>
+      </c>
+      <c r="D198">
+        <v>10</v>
+      </c>
+      <c r="E198">
+        <v>14</v>
+      </c>
+      <c r="F198" s="2">
+        <v>196</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198" s="2">
+        <v>466</v>
+      </c>
+      <c r="I198" t="s">
+        <v>13</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198" s="2">
+        <f t="shared" si="18"/>
+        <v>402000</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198" s="2">
+        <f t="shared" si="19"/>
+        <v>804000</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198" s="2">
+        <v>3922000</v>
+      </c>
+      <c r="P198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>13</v>
+      </c>
+      <c r="C199">
+        <v>16</v>
+      </c>
+      <c r="D199">
+        <v>10</v>
+      </c>
+      <c r="E199">
+        <v>14</v>
+      </c>
+      <c r="F199" s="2">
+        <v>197</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199" s="2">
+        <v>467</v>
+      </c>
+      <c r="I199" t="s">
+        <v>13</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199" s="2">
+        <f t="shared" si="18"/>
+        <v>404000</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199" s="2">
+        <f t="shared" si="19"/>
+        <v>808000</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199" s="2">
+        <v>3930000</v>
+      </c>
+      <c r="P199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>13</v>
+      </c>
+      <c r="C200">
+        <v>16</v>
+      </c>
+      <c r="D200">
+        <v>10</v>
+      </c>
+      <c r="E200">
+        <v>14</v>
+      </c>
+      <c r="F200" s="2">
+        <v>198</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200" s="2">
+        <v>467</v>
+      </c>
+      <c r="I200" t="s">
+        <v>13</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200" s="2">
+        <f t="shared" si="18"/>
+        <v>406000</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200" s="2">
+        <f t="shared" si="19"/>
+        <v>812000</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200" s="2">
+        <v>3938000</v>
+      </c>
+      <c r="P200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>13</v>
+      </c>
+      <c r="C201">
+        <v>16</v>
+      </c>
+      <c r="D201">
+        <v>10</v>
+      </c>
+      <c r="E201">
+        <v>14</v>
+      </c>
+      <c r="F201" s="2">
+        <v>199</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201" s="2">
+        <v>468</v>
+      </c>
+      <c r="I201" t="s">
+        <v>13</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201" s="2">
+        <f t="shared" si="18"/>
+        <v>408000</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201" s="2">
+        <f t="shared" si="19"/>
+        <v>816000</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201" s="2">
+        <v>3946000</v>
+      </c>
+      <c r="P201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>13</v>
+      </c>
+      <c r="C202">
+        <v>16</v>
+      </c>
+      <c r="D202">
+        <v>10</v>
+      </c>
+      <c r="E202">
+        <v>14</v>
+      </c>
+      <c r="F202" s="2">
+        <v>200</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202" s="2">
+        <v>468</v>
+      </c>
+      <c r="I202" t="s">
+        <v>13</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202" s="2">
+        <f t="shared" si="18"/>
+        <v>410000</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202" s="2">
+        <f t="shared" si="19"/>
+        <v>820000</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" s="2">
+        <v>3954000</v>
+      </c>
+      <c r="P202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>13</v>
+      </c>
+      <c r="C203">
+        <v>16</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203">
+        <v>14</v>
+      </c>
+      <c r="F203" s="2">
+        <v>201</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203" s="2">
+        <v>469</v>
+      </c>
+      <c r="I203" t="s">
+        <v>13</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203" s="2">
+        <f t="shared" si="18"/>
+        <v>412000</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203" s="2">
+        <f t="shared" si="19"/>
+        <v>824000</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203" s="2">
+        <v>3962000</v>
+      </c>
+      <c r="P203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>13</v>
+      </c>
+      <c r="C204">
+        <v>16</v>
+      </c>
+      <c r="D204">
+        <v>10</v>
+      </c>
+      <c r="E204">
+        <v>14</v>
+      </c>
+      <c r="F204" s="2">
+        <v>202</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204" s="2">
+        <v>469</v>
+      </c>
+      <c r="I204" t="s">
+        <v>13</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204" s="2">
+        <f t="shared" si="18"/>
+        <v>414000</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204" s="2">
+        <f t="shared" si="19"/>
+        <v>828000</v>
+      </c>
+      <c r="N204">
+        <v>2</v>
+      </c>
+      <c r="O204" s="2">
+        <v>3970000</v>
+      </c>
+      <c r="P204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>13</v>
+      </c>
+      <c r="C205">
+        <v>16</v>
+      </c>
+      <c r="D205">
+        <v>10</v>
+      </c>
+      <c r="E205">
+        <v>14</v>
+      </c>
+      <c r="F205" s="2">
+        <v>203</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205" s="2">
+        <v>470</v>
+      </c>
+      <c r="I205" t="s">
+        <v>13</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205" s="2">
+        <f t="shared" si="18"/>
+        <v>416000</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205" s="2">
+        <f t="shared" si="19"/>
+        <v>832000</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" s="2">
+        <v>3978000</v>
+      </c>
+      <c r="P205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>13</v>
+      </c>
+      <c r="C206">
+        <v>16</v>
+      </c>
+      <c r="D206">
+        <v>10</v>
+      </c>
+      <c r="E206">
+        <v>14</v>
+      </c>
+      <c r="F206" s="2">
+        <v>204</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206" s="2">
+        <v>470</v>
+      </c>
+      <c r="I206" t="s">
+        <v>13</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206" s="2">
+        <f t="shared" si="18"/>
+        <v>418000</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206" s="2">
+        <f t="shared" si="19"/>
+        <v>836000</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206" s="2">
+        <v>3986000</v>
+      </c>
+      <c r="P206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>13</v>
+      </c>
+      <c r="C207">
+        <v>16</v>
+      </c>
+      <c r="D207">
+        <v>10</v>
+      </c>
+      <c r="E207">
+        <v>14</v>
+      </c>
+      <c r="F207" s="2">
+        <v>205</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207" s="2">
+        <v>471</v>
+      </c>
+      <c r="I207" t="s">
+        <v>13</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207" s="2">
+        <f t="shared" si="18"/>
+        <v>420000</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207" s="2">
+        <f t="shared" si="19"/>
+        <v>840000</v>
+      </c>
+      <c r="N207">
+        <v>2</v>
+      </c>
+      <c r="O207" s="2">
+        <v>3994000</v>
+      </c>
+      <c r="P207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>13</v>
+      </c>
+      <c r="C208">
+        <v>16</v>
+      </c>
+      <c r="D208">
+        <v>10</v>
+      </c>
+      <c r="E208">
+        <v>14</v>
+      </c>
+      <c r="F208" s="2">
+        <v>206</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208" s="2">
+        <v>471</v>
+      </c>
+      <c r="I208" t="s">
+        <v>13</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208" s="2">
+        <f t="shared" si="18"/>
+        <v>422000</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208" s="2">
+        <f t="shared" si="19"/>
+        <v>844000</v>
+      </c>
+      <c r="N208">
+        <v>2</v>
+      </c>
+      <c r="O208" s="2">
+        <v>4002000</v>
+      </c>
+      <c r="P208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>13</v>
+      </c>
+      <c r="C209">
+        <v>16</v>
+      </c>
+      <c r="D209">
+        <v>10</v>
+      </c>
+      <c r="E209">
+        <v>14</v>
+      </c>
+      <c r="F209" s="2">
+        <v>207</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209" s="2">
+        <v>472</v>
+      </c>
+      <c r="I209" t="s">
+        <v>13</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209" s="2">
+        <f t="shared" si="18"/>
+        <v>424000</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209" s="2">
+        <f t="shared" si="19"/>
+        <v>848000</v>
+      </c>
+      <c r="N209">
+        <v>2</v>
+      </c>
+      <c r="O209" s="2">
+        <v>4010000</v>
+      </c>
+      <c r="P209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>13</v>
+      </c>
+      <c r="C210">
+        <v>16</v>
+      </c>
+      <c r="D210">
+        <v>10</v>
+      </c>
+      <c r="E210">
+        <v>14</v>
+      </c>
+      <c r="F210" s="2">
+        <v>208</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210" s="2">
+        <v>472</v>
+      </c>
+      <c r="I210" t="s">
+        <v>13</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210" s="2">
+        <f t="shared" si="18"/>
+        <v>426000</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210" s="2">
+        <f t="shared" si="19"/>
+        <v>852000</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210" s="2">
+        <v>4018000</v>
+      </c>
+      <c r="P210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>13</v>
+      </c>
+      <c r="C211">
+        <v>16</v>
+      </c>
+      <c r="D211">
+        <v>10</v>
+      </c>
+      <c r="E211">
+        <v>14</v>
+      </c>
+      <c r="F211" s="2">
+        <v>209</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211" s="2">
+        <v>473</v>
+      </c>
+      <c r="I211" t="s">
+        <v>13</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211" s="2">
+        <f t="shared" si="18"/>
+        <v>428000</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+      <c r="M211" s="2">
+        <f t="shared" si="19"/>
+        <v>856000</v>
+      </c>
+      <c r="N211">
+        <v>2</v>
+      </c>
+      <c r="O211" s="2">
+        <v>4026000</v>
+      </c>
+      <c r="P211">
         <v>1</v>
       </c>
     </row>
@@ -10297,9 +11888,9 @@
       <selection activeCell="I1" sqref="I1:I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10328,7 +11919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10357,7 +11948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10387,7 +11978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10418,7 +12009,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10449,7 +12040,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10480,7 +12071,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10511,7 +12102,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10542,7 +12133,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10573,7 +12164,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10604,7 +12195,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10635,7 +12226,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10666,7 +12257,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10697,7 +12288,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10728,7 +12319,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10759,7 +12350,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -10790,7 +12381,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10821,7 +12412,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -10852,7 +12443,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -10883,7 +12474,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -10914,7 +12505,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -10945,7 +12536,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -10976,7 +12567,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -11007,7 +12598,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -11038,7 +12629,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -11069,7 +12660,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -11100,7 +12691,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -11131,7 +12722,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -11162,7 +12753,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -11193,7 +12784,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -11224,7 +12815,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -11255,7 +12846,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C29DCE-5224-4075-84B2-3D1FED15A286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26A39DB-8017-4062-8FE4-E3EEA65EBC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -571,8 +571,8 @@
   <dimension ref="A1:P211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F211" sqref="F211"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11098,7 +11098,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C197">
         <v>16</v>
@@ -11150,7 +11150,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C198">
         <v>16</v>
@@ -11202,7 +11202,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C199">
         <v>16</v>
@@ -11254,7 +11254,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C200">
         <v>16</v>
@@ -11306,7 +11306,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C201">
         <v>16</v>
@@ -11358,7 +11358,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C202">
         <v>16</v>
@@ -11410,7 +11410,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C203">
         <v>16</v>
@@ -11462,7 +11462,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C204">
         <v>16</v>
@@ -11514,7 +11514,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C205">
         <v>16</v>
@@ -11566,7 +11566,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C206">
         <v>16</v>
@@ -11618,7 +11618,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C207">
         <v>16</v>
@@ -11670,7 +11670,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C208">
         <v>16</v>
@@ -11722,7 +11722,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C209">
         <v>16</v>
@@ -11774,7 +11774,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C210">
         <v>16</v>
@@ -11826,7 +11826,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C211">
         <v>16</v>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26A39DB-8017-4062-8FE4-E3EEA65EBC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A520E8-A467-4227-A25A-F462E1F04861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="19">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -568,11 +568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:P211"/>
+  <dimension ref="A1:Q301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C199" sqref="C199"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10336,14 +10336,14 @@
         <v>1</v>
       </c>
       <c r="K182" s="2">
-        <f t="shared" ref="K182:K211" si="18">10000+A182*2000</f>
+        <f t="shared" ref="K182:K245" si="18">10000+A182*2000</f>
         <v>370000</v>
       </c>
       <c r="L182">
         <v>1</v>
       </c>
       <c r="M182" s="2">
-        <f t="shared" ref="M182:M211" si="19">K182*2</f>
+        <f t="shared" ref="M182:M245" si="19">K182*2</f>
         <v>740000</v>
       </c>
       <c r="N182">
@@ -11717,7 +11717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>207</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>208</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>209</v>
       </c>
@@ -11870,6 +11870,4731 @@
         <v>4026000</v>
       </c>
       <c r="P211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1">
+        <v>15</v>
+      </c>
+      <c r="C212" s="1">
+        <v>17</v>
+      </c>
+      <c r="D212" s="1">
+        <v>10</v>
+      </c>
+      <c r="E212" s="1">
+        <v>15</v>
+      </c>
+      <c r="F212" s="2">
+        <v>210</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212" s="1">
+        <v>474</v>
+      </c>
+      <c r="I212" t="s">
+        <v>13</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212" s="2">
+        <f t="shared" si="18"/>
+        <v>430000</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212" s="2">
+        <f t="shared" si="19"/>
+        <v>860000</v>
+      </c>
+      <c r="N212">
+        <v>2</v>
+      </c>
+      <c r="O212" s="2">
+        <v>4034000</v>
+      </c>
+      <c r="P212">
+        <v>1</v>
+      </c>
+      <c r="Q212" s="1"/>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1">
+        <v>15</v>
+      </c>
+      <c r="C213" s="1">
+        <v>17</v>
+      </c>
+      <c r="D213" s="1">
+        <v>10</v>
+      </c>
+      <c r="E213" s="1">
+        <v>15</v>
+      </c>
+      <c r="F213" s="2">
+        <v>211</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213" s="1">
+        <v>474</v>
+      </c>
+      <c r="I213" t="s">
+        <v>13</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213" s="2">
+        <f t="shared" si="18"/>
+        <v>432000</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213" s="2">
+        <f t="shared" si="19"/>
+        <v>864000</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213" s="2">
+        <v>4042000</v>
+      </c>
+      <c r="P213">
+        <v>1</v>
+      </c>
+      <c r="Q213" s="1"/>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1">
+        <v>15</v>
+      </c>
+      <c r="C214" s="1">
+        <v>17</v>
+      </c>
+      <c r="D214" s="1">
+        <v>10</v>
+      </c>
+      <c r="E214" s="1">
+        <v>15</v>
+      </c>
+      <c r="F214" s="2">
+        <v>212</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214" s="1">
+        <v>474</v>
+      </c>
+      <c r="I214" t="s">
+        <v>13</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214" s="2">
+        <f t="shared" si="18"/>
+        <v>434000</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214" s="2">
+        <f t="shared" si="19"/>
+        <v>868000</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" s="2">
+        <v>4050000</v>
+      </c>
+      <c r="P214">
+        <v>1</v>
+      </c>
+      <c r="Q214" s="1"/>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1">
+        <v>15</v>
+      </c>
+      <c r="C215" s="1">
+        <v>17</v>
+      </c>
+      <c r="D215" s="1">
+        <v>10</v>
+      </c>
+      <c r="E215" s="1">
+        <v>15</v>
+      </c>
+      <c r="F215" s="2">
+        <v>213</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215" s="1">
+        <v>474</v>
+      </c>
+      <c r="I215" t="s">
+        <v>13</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215" s="2">
+        <f t="shared" si="18"/>
+        <v>436000</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215" s="2">
+        <f t="shared" si="19"/>
+        <v>872000</v>
+      </c>
+      <c r="N215">
+        <v>2</v>
+      </c>
+      <c r="O215" s="2">
+        <v>4058000</v>
+      </c>
+      <c r="P215">
+        <v>1</v>
+      </c>
+      <c r="Q215" s="1"/>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1">
+        <v>15</v>
+      </c>
+      <c r="C216" s="1">
+        <v>17</v>
+      </c>
+      <c r="D216" s="1">
+        <v>10</v>
+      </c>
+      <c r="E216" s="1">
+        <v>15</v>
+      </c>
+      <c r="F216" s="2">
+        <v>214</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216" s="1">
+        <v>474</v>
+      </c>
+      <c r="I216" t="s">
+        <v>13</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216" s="2">
+        <f t="shared" si="18"/>
+        <v>438000</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216" s="2">
+        <f t="shared" si="19"/>
+        <v>876000</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" s="2">
+        <v>4066000</v>
+      </c>
+      <c r="P216">
+        <v>1</v>
+      </c>
+      <c r="Q216" s="1"/>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1">
+        <v>15</v>
+      </c>
+      <c r="C217" s="1">
+        <v>17</v>
+      </c>
+      <c r="D217" s="1">
+        <v>10</v>
+      </c>
+      <c r="E217" s="1">
+        <v>15</v>
+      </c>
+      <c r="F217" s="2">
+        <v>215</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217" s="1">
+        <v>474</v>
+      </c>
+      <c r="I217" t="s">
+        <v>13</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217" s="2">
+        <f t="shared" si="18"/>
+        <v>440000</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217" s="2">
+        <f t="shared" si="19"/>
+        <v>880000</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217" s="2">
+        <v>4074000</v>
+      </c>
+      <c r="P217">
+        <v>1</v>
+      </c>
+      <c r="Q217" s="1"/>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1">
+        <v>15</v>
+      </c>
+      <c r="C218" s="1">
+        <v>17</v>
+      </c>
+      <c r="D218" s="1">
+        <v>10</v>
+      </c>
+      <c r="E218" s="1">
+        <v>15</v>
+      </c>
+      <c r="F218" s="2">
+        <v>216</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218" s="1">
+        <v>474</v>
+      </c>
+      <c r="I218" t="s">
+        <v>13</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218" s="2">
+        <f t="shared" si="18"/>
+        <v>442000</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218" s="2">
+        <f t="shared" si="19"/>
+        <v>884000</v>
+      </c>
+      <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218" s="2">
+        <v>4082000</v>
+      </c>
+      <c r="P218">
+        <v>1</v>
+      </c>
+      <c r="Q218" s="1"/>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1">
+        <v>15</v>
+      </c>
+      <c r="C219" s="1">
+        <v>17</v>
+      </c>
+      <c r="D219" s="1">
+        <v>10</v>
+      </c>
+      <c r="E219" s="1">
+        <v>15</v>
+      </c>
+      <c r="F219" s="2">
+        <v>217</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219" s="1">
+        <v>474</v>
+      </c>
+      <c r="I219" t="s">
+        <v>13</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219" s="2">
+        <f t="shared" si="18"/>
+        <v>444000</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219" s="2">
+        <f t="shared" si="19"/>
+        <v>888000</v>
+      </c>
+      <c r="N219">
+        <v>2</v>
+      </c>
+      <c r="O219" s="2">
+        <v>4090000</v>
+      </c>
+      <c r="P219">
+        <v>1</v>
+      </c>
+      <c r="Q219" s="1"/>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1">
+        <v>15</v>
+      </c>
+      <c r="C220" s="1">
+        <v>17</v>
+      </c>
+      <c r="D220" s="1">
+        <v>10</v>
+      </c>
+      <c r="E220" s="1">
+        <v>15</v>
+      </c>
+      <c r="F220" s="2">
+        <v>218</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220" s="1">
+        <v>474</v>
+      </c>
+      <c r="I220" t="s">
+        <v>13</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220" s="2">
+        <f t="shared" si="18"/>
+        <v>446000</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220" s="2">
+        <f t="shared" si="19"/>
+        <v>892000</v>
+      </c>
+      <c r="N220">
+        <v>2</v>
+      </c>
+      <c r="O220" s="2">
+        <v>4098000</v>
+      </c>
+      <c r="P220">
+        <v>1</v>
+      </c>
+      <c r="Q220" s="1"/>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1">
+        <v>15</v>
+      </c>
+      <c r="C221" s="1">
+        <v>17</v>
+      </c>
+      <c r="D221" s="1">
+        <v>10</v>
+      </c>
+      <c r="E221" s="1">
+        <v>15</v>
+      </c>
+      <c r="F221" s="2">
+        <v>219</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221" s="1">
+        <v>474</v>
+      </c>
+      <c r="I221" t="s">
+        <v>13</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221" s="2">
+        <f t="shared" si="18"/>
+        <v>448000</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221" s="2">
+        <f t="shared" si="19"/>
+        <v>896000</v>
+      </c>
+      <c r="N221">
+        <v>2</v>
+      </c>
+      <c r="O221" s="2">
+        <v>4106000</v>
+      </c>
+      <c r="P221">
+        <v>1</v>
+      </c>
+      <c r="Q221" s="1"/>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1">
+        <v>15</v>
+      </c>
+      <c r="C222" s="1">
+        <v>17</v>
+      </c>
+      <c r="D222" s="1">
+        <v>10</v>
+      </c>
+      <c r="E222" s="1">
+        <v>15</v>
+      </c>
+      <c r="F222" s="2">
+        <v>220</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222" s="1">
+        <v>474</v>
+      </c>
+      <c r="I222" t="s">
+        <v>13</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222" s="2">
+        <f t="shared" si="18"/>
+        <v>450000</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222" s="2">
+        <f t="shared" si="19"/>
+        <v>900000</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="O222" s="2">
+        <v>4114000</v>
+      </c>
+      <c r="P222">
+        <v>1</v>
+      </c>
+      <c r="Q222" s="1"/>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1">
+        <v>15</v>
+      </c>
+      <c r="C223" s="1">
+        <v>17</v>
+      </c>
+      <c r="D223" s="1">
+        <v>10</v>
+      </c>
+      <c r="E223" s="1">
+        <v>15</v>
+      </c>
+      <c r="F223" s="2">
+        <v>221</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223" s="1">
+        <v>474</v>
+      </c>
+      <c r="I223" t="s">
+        <v>13</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223" s="2">
+        <f t="shared" si="18"/>
+        <v>452000</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223" s="2">
+        <f t="shared" si="19"/>
+        <v>904000</v>
+      </c>
+      <c r="N223">
+        <v>2</v>
+      </c>
+      <c r="O223" s="2">
+        <v>4122000</v>
+      </c>
+      <c r="P223">
+        <v>1</v>
+      </c>
+      <c r="Q223" s="1"/>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1">
+        <v>15</v>
+      </c>
+      <c r="C224" s="1">
+        <v>17</v>
+      </c>
+      <c r="D224" s="1">
+        <v>10</v>
+      </c>
+      <c r="E224" s="1">
+        <v>15</v>
+      </c>
+      <c r="F224" s="2">
+        <v>222</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224" s="1">
+        <v>474</v>
+      </c>
+      <c r="I224" t="s">
+        <v>13</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224" s="2">
+        <f t="shared" si="18"/>
+        <v>454000</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224" s="2">
+        <f t="shared" si="19"/>
+        <v>908000</v>
+      </c>
+      <c r="N224">
+        <v>2</v>
+      </c>
+      <c r="O224" s="2">
+        <v>4130000</v>
+      </c>
+      <c r="P224">
+        <v>1</v>
+      </c>
+      <c r="Q224" s="1"/>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1">
+        <v>15</v>
+      </c>
+      <c r="C225" s="1">
+        <v>17</v>
+      </c>
+      <c r="D225" s="1">
+        <v>10</v>
+      </c>
+      <c r="E225" s="1">
+        <v>15</v>
+      </c>
+      <c r="F225" s="2">
+        <v>223</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225" s="1">
+        <v>474</v>
+      </c>
+      <c r="I225" t="s">
+        <v>13</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225" s="2">
+        <f t="shared" si="18"/>
+        <v>456000</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225" s="2">
+        <f t="shared" si="19"/>
+        <v>912000</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225" s="2">
+        <v>4138000</v>
+      </c>
+      <c r="P225">
+        <v>1</v>
+      </c>
+      <c r="Q225" s="1"/>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1">
+        <v>15</v>
+      </c>
+      <c r="C226" s="1">
+        <v>17</v>
+      </c>
+      <c r="D226" s="1">
+        <v>10</v>
+      </c>
+      <c r="E226" s="1">
+        <v>15</v>
+      </c>
+      <c r="F226" s="2">
+        <v>224</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226" s="1">
+        <v>474</v>
+      </c>
+      <c r="I226" t="s">
+        <v>13</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226" s="2">
+        <f t="shared" si="18"/>
+        <v>458000</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226" s="2">
+        <f t="shared" si="19"/>
+        <v>916000</v>
+      </c>
+      <c r="N226">
+        <v>2</v>
+      </c>
+      <c r="O226" s="2">
+        <v>4146000</v>
+      </c>
+      <c r="P226">
+        <v>1</v>
+      </c>
+      <c r="Q226" s="1"/>
+    </row>
+    <row r="227" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2">
+        <v>16</v>
+      </c>
+      <c r="C227" s="2">
+        <v>17</v>
+      </c>
+      <c r="D227" s="2">
+        <v>10</v>
+      </c>
+      <c r="E227" s="2">
+        <v>16</v>
+      </c>
+      <c r="F227" s="2">
+        <v>225</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227" s="2">
+        <v>475</v>
+      </c>
+      <c r="I227" t="s">
+        <v>13</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227" s="2">
+        <f t="shared" si="18"/>
+        <v>460000</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227" s="2">
+        <f t="shared" si="19"/>
+        <v>920000</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" s="2">
+        <v>4154000</v>
+      </c>
+      <c r="P227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2">
+        <v>16</v>
+      </c>
+      <c r="C228" s="2">
+        <v>17</v>
+      </c>
+      <c r="D228" s="2">
+        <v>10</v>
+      </c>
+      <c r="E228" s="2">
+        <v>16</v>
+      </c>
+      <c r="F228" s="2">
+        <v>226</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228" s="2">
+        <v>475</v>
+      </c>
+      <c r="I228" t="s">
+        <v>13</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228" s="2">
+        <f t="shared" si="18"/>
+        <v>462000</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228" s="2">
+        <f t="shared" si="19"/>
+        <v>924000</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228" s="2">
+        <v>4162000</v>
+      </c>
+      <c r="P228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2">
+        <v>16</v>
+      </c>
+      <c r="C229" s="2">
+        <v>17</v>
+      </c>
+      <c r="D229" s="2">
+        <v>10</v>
+      </c>
+      <c r="E229" s="2">
+        <v>16</v>
+      </c>
+      <c r="F229" s="2">
+        <v>227</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229" s="2">
+        <v>475</v>
+      </c>
+      <c r="I229" t="s">
+        <v>13</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229" s="2">
+        <f t="shared" si="18"/>
+        <v>464000</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229" s="2">
+        <f t="shared" si="19"/>
+        <v>928000</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" s="2">
+        <v>4170000</v>
+      </c>
+      <c r="P229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2">
+        <v>16</v>
+      </c>
+      <c r="C230" s="2">
+        <v>17</v>
+      </c>
+      <c r="D230" s="2">
+        <v>10</v>
+      </c>
+      <c r="E230" s="2">
+        <v>16</v>
+      </c>
+      <c r="F230" s="2">
+        <v>228</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230" s="2">
+        <v>475</v>
+      </c>
+      <c r="I230" t="s">
+        <v>13</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230" s="2">
+        <f t="shared" si="18"/>
+        <v>466000</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230" s="2">
+        <f t="shared" si="19"/>
+        <v>932000</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="O230" s="2">
+        <v>4178000</v>
+      </c>
+      <c r="P230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2">
+        <v>16</v>
+      </c>
+      <c r="C231" s="2">
+        <v>17</v>
+      </c>
+      <c r="D231" s="2">
+        <v>10</v>
+      </c>
+      <c r="E231" s="2">
+        <v>16</v>
+      </c>
+      <c r="F231" s="2">
+        <v>229</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231" s="2">
+        <v>475</v>
+      </c>
+      <c r="I231" t="s">
+        <v>13</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231" s="2">
+        <f t="shared" si="18"/>
+        <v>468000</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231" s="2">
+        <f t="shared" si="19"/>
+        <v>936000</v>
+      </c>
+      <c r="N231">
+        <v>2</v>
+      </c>
+      <c r="O231" s="2">
+        <v>4186000</v>
+      </c>
+      <c r="P231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2">
+        <v>16</v>
+      </c>
+      <c r="C232" s="2">
+        <v>17</v>
+      </c>
+      <c r="D232" s="2">
+        <v>10</v>
+      </c>
+      <c r="E232" s="2">
+        <v>16</v>
+      </c>
+      <c r="F232" s="2">
+        <v>230</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232" s="2">
+        <v>475</v>
+      </c>
+      <c r="I232" t="s">
+        <v>13</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232" s="2">
+        <f t="shared" si="18"/>
+        <v>470000</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232" s="2">
+        <f t="shared" si="19"/>
+        <v>940000</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232" s="2">
+        <v>4194000</v>
+      </c>
+      <c r="P232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2">
+        <v>16</v>
+      </c>
+      <c r="C233" s="2">
+        <v>17</v>
+      </c>
+      <c r="D233" s="2">
+        <v>10</v>
+      </c>
+      <c r="E233" s="2">
+        <v>16</v>
+      </c>
+      <c r="F233" s="2">
+        <v>231</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233" s="2">
+        <v>475</v>
+      </c>
+      <c r="I233" t="s">
+        <v>13</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233" s="2">
+        <f t="shared" si="18"/>
+        <v>472000</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233" s="2">
+        <f t="shared" si="19"/>
+        <v>944000</v>
+      </c>
+      <c r="N233">
+        <v>2</v>
+      </c>
+      <c r="O233" s="2">
+        <v>4202000</v>
+      </c>
+      <c r="P233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2">
+        <v>16</v>
+      </c>
+      <c r="C234" s="2">
+        <v>17</v>
+      </c>
+      <c r="D234" s="2">
+        <v>10</v>
+      </c>
+      <c r="E234" s="2">
+        <v>16</v>
+      </c>
+      <c r="F234" s="2">
+        <v>232</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234" s="2">
+        <v>475</v>
+      </c>
+      <c r="I234" t="s">
+        <v>13</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234" s="2">
+        <f t="shared" si="18"/>
+        <v>474000</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234" s="2">
+        <f t="shared" si="19"/>
+        <v>948000</v>
+      </c>
+      <c r="N234">
+        <v>2</v>
+      </c>
+      <c r="O234" s="2">
+        <v>4210000</v>
+      </c>
+      <c r="P234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2">
+        <v>16</v>
+      </c>
+      <c r="C235" s="2">
+        <v>17</v>
+      </c>
+      <c r="D235" s="2">
+        <v>10</v>
+      </c>
+      <c r="E235" s="2">
+        <v>16</v>
+      </c>
+      <c r="F235" s="2">
+        <v>233</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235" s="2">
+        <v>475</v>
+      </c>
+      <c r="I235" t="s">
+        <v>13</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235" s="2">
+        <f t="shared" si="18"/>
+        <v>476000</v>
+      </c>
+      <c r="L235">
+        <v>1</v>
+      </c>
+      <c r="M235" s="2">
+        <f t="shared" si="19"/>
+        <v>952000</v>
+      </c>
+      <c r="N235">
+        <v>2</v>
+      </c>
+      <c r="O235" s="2">
+        <v>4218000</v>
+      </c>
+      <c r="P235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2">
+        <v>16</v>
+      </c>
+      <c r="C236" s="2">
+        <v>17</v>
+      </c>
+      <c r="D236" s="2">
+        <v>10</v>
+      </c>
+      <c r="E236" s="2">
+        <v>16</v>
+      </c>
+      <c r="F236" s="2">
+        <v>234</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236" s="2">
+        <v>475</v>
+      </c>
+      <c r="I236" t="s">
+        <v>13</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236" s="2">
+        <f t="shared" si="18"/>
+        <v>478000</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236" s="2">
+        <f t="shared" si="19"/>
+        <v>956000</v>
+      </c>
+      <c r="N236">
+        <v>2</v>
+      </c>
+      <c r="O236" s="2">
+        <v>4226000</v>
+      </c>
+      <c r="P236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2">
+        <v>16</v>
+      </c>
+      <c r="C237" s="2">
+        <v>17</v>
+      </c>
+      <c r="D237" s="2">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2">
+        <v>16</v>
+      </c>
+      <c r="F237" s="2">
+        <v>235</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237" s="2">
+        <v>475</v>
+      </c>
+      <c r="I237" t="s">
+        <v>13</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237" s="2">
+        <f t="shared" si="18"/>
+        <v>480000</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237" s="2">
+        <f t="shared" si="19"/>
+        <v>960000</v>
+      </c>
+      <c r="N237">
+        <v>2</v>
+      </c>
+      <c r="O237" s="2">
+        <v>4234000</v>
+      </c>
+      <c r="P237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2">
+        <v>16</v>
+      </c>
+      <c r="C238" s="2">
+        <v>17</v>
+      </c>
+      <c r="D238" s="2">
+        <v>10</v>
+      </c>
+      <c r="E238" s="2">
+        <v>16</v>
+      </c>
+      <c r="F238" s="2">
+        <v>236</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238" s="2">
+        <v>475</v>
+      </c>
+      <c r="I238" t="s">
+        <v>13</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="K238" s="2">
+        <f t="shared" si="18"/>
+        <v>482000</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238" s="2">
+        <f t="shared" si="19"/>
+        <v>964000</v>
+      </c>
+      <c r="N238">
+        <v>2</v>
+      </c>
+      <c r="O238" s="2">
+        <v>4242000</v>
+      </c>
+      <c r="P238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2">
+        <v>16</v>
+      </c>
+      <c r="C239" s="2">
+        <v>17</v>
+      </c>
+      <c r="D239" s="2">
+        <v>10</v>
+      </c>
+      <c r="E239" s="2">
+        <v>16</v>
+      </c>
+      <c r="F239" s="2">
+        <v>237</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239" s="2">
+        <v>475</v>
+      </c>
+      <c r="I239" t="s">
+        <v>13</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239" s="2">
+        <f t="shared" si="18"/>
+        <v>484000</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239" s="2">
+        <f t="shared" si="19"/>
+        <v>968000</v>
+      </c>
+      <c r="N239">
+        <v>2</v>
+      </c>
+      <c r="O239" s="2">
+        <v>4250000</v>
+      </c>
+      <c r="P239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2">
+        <v>16</v>
+      </c>
+      <c r="C240" s="2">
+        <v>17</v>
+      </c>
+      <c r="D240" s="2">
+        <v>10</v>
+      </c>
+      <c r="E240" s="2">
+        <v>16</v>
+      </c>
+      <c r="F240" s="2">
+        <v>238</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240" s="2">
+        <v>475</v>
+      </c>
+      <c r="I240" t="s">
+        <v>13</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240" s="2">
+        <f t="shared" si="18"/>
+        <v>486000</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240" s="2">
+        <f t="shared" si="19"/>
+        <v>972000</v>
+      </c>
+      <c r="N240">
+        <v>2</v>
+      </c>
+      <c r="O240" s="2">
+        <v>4258000</v>
+      </c>
+      <c r="P240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2">
+        <v>16</v>
+      </c>
+      <c r="C241" s="2">
+        <v>17</v>
+      </c>
+      <c r="D241" s="2">
+        <v>10</v>
+      </c>
+      <c r="E241" s="2">
+        <v>16</v>
+      </c>
+      <c r="F241" s="2">
+        <v>239</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241" s="2">
+        <v>475</v>
+      </c>
+      <c r="I241" t="s">
+        <v>13</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241" s="2">
+        <f t="shared" si="18"/>
+        <v>488000</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241" s="2">
+        <f t="shared" si="19"/>
+        <v>976000</v>
+      </c>
+      <c r="N241">
+        <v>2</v>
+      </c>
+      <c r="O241" s="2">
+        <v>4266000</v>
+      </c>
+      <c r="P241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1">
+        <v>17</v>
+      </c>
+      <c r="C242" s="1">
+        <v>18</v>
+      </c>
+      <c r="D242" s="1">
+        <v>10</v>
+      </c>
+      <c r="E242" s="1">
+        <v>17</v>
+      </c>
+      <c r="F242" s="2">
+        <v>240</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242" s="1">
+        <v>476</v>
+      </c>
+      <c r="I242" t="s">
+        <v>13</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242" s="2">
+        <f t="shared" si="18"/>
+        <v>490000</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242" s="2">
+        <f t="shared" si="19"/>
+        <v>980000</v>
+      </c>
+      <c r="N242">
+        <v>2</v>
+      </c>
+      <c r="O242" s="2">
+        <v>4274000</v>
+      </c>
+      <c r="P242">
+        <v>1</v>
+      </c>
+      <c r="Q242" s="1"/>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1">
+        <v>17</v>
+      </c>
+      <c r="C243" s="1">
+        <v>18</v>
+      </c>
+      <c r="D243" s="1">
+        <v>10</v>
+      </c>
+      <c r="E243" s="1">
+        <v>17</v>
+      </c>
+      <c r="F243" s="2">
+        <v>241</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243" s="1">
+        <v>476</v>
+      </c>
+      <c r="I243" t="s">
+        <v>13</v>
+      </c>
+      <c r="J243">
+        <v>1</v>
+      </c>
+      <c r="K243" s="2">
+        <f t="shared" si="18"/>
+        <v>492000</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243" s="2">
+        <f t="shared" si="19"/>
+        <v>984000</v>
+      </c>
+      <c r="N243">
+        <v>2</v>
+      </c>
+      <c r="O243" s="2">
+        <v>4282000</v>
+      </c>
+      <c r="P243">
+        <v>1</v>
+      </c>
+      <c r="Q243" s="1"/>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1">
+        <v>17</v>
+      </c>
+      <c r="C244" s="1">
+        <v>18</v>
+      </c>
+      <c r="D244" s="1">
+        <v>10</v>
+      </c>
+      <c r="E244" s="1">
+        <v>17</v>
+      </c>
+      <c r="F244" s="2">
+        <v>242</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244" s="1">
+        <v>476</v>
+      </c>
+      <c r="I244" t="s">
+        <v>13</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244" s="2">
+        <f t="shared" si="18"/>
+        <v>494000</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244" s="2">
+        <f t="shared" si="19"/>
+        <v>988000</v>
+      </c>
+      <c r="N244">
+        <v>2</v>
+      </c>
+      <c r="O244" s="2">
+        <v>4290000</v>
+      </c>
+      <c r="P244">
+        <v>1</v>
+      </c>
+      <c r="Q244" s="1"/>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1">
+        <v>17</v>
+      </c>
+      <c r="C245" s="1">
+        <v>18</v>
+      </c>
+      <c r="D245" s="1">
+        <v>10</v>
+      </c>
+      <c r="E245" s="1">
+        <v>17</v>
+      </c>
+      <c r="F245" s="2">
+        <v>243</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245" s="1">
+        <v>476</v>
+      </c>
+      <c r="I245" t="s">
+        <v>13</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245" s="2">
+        <f t="shared" si="18"/>
+        <v>496000</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245" s="2">
+        <f t="shared" si="19"/>
+        <v>992000</v>
+      </c>
+      <c r="N245">
+        <v>2</v>
+      </c>
+      <c r="O245" s="2">
+        <v>4298000</v>
+      </c>
+      <c r="P245">
+        <v>1</v>
+      </c>
+      <c r="Q245" s="1"/>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1">
+        <v>17</v>
+      </c>
+      <c r="C246" s="1">
+        <v>18</v>
+      </c>
+      <c r="D246" s="1">
+        <v>10</v>
+      </c>
+      <c r="E246" s="1">
+        <v>17</v>
+      </c>
+      <c r="F246" s="2">
+        <v>244</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246" s="1">
+        <v>476</v>
+      </c>
+      <c r="I246" t="s">
+        <v>13</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246" s="2">
+        <f t="shared" ref="K246:K301" si="20">10000+A246*2000</f>
+        <v>498000</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246" s="2">
+        <f t="shared" ref="M246:M301" si="21">K246*2</f>
+        <v>996000</v>
+      </c>
+      <c r="N246">
+        <v>2</v>
+      </c>
+      <c r="O246" s="2">
+        <v>4306000</v>
+      </c>
+      <c r="P246">
+        <v>1</v>
+      </c>
+      <c r="Q246" s="1"/>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1">
+        <v>17</v>
+      </c>
+      <c r="C247" s="1">
+        <v>18</v>
+      </c>
+      <c r="D247" s="1">
+        <v>10</v>
+      </c>
+      <c r="E247" s="1">
+        <v>17</v>
+      </c>
+      <c r="F247" s="2">
+        <v>245</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247" s="1">
+        <v>476</v>
+      </c>
+      <c r="I247" t="s">
+        <v>13</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
+      </c>
+      <c r="K247" s="2">
+        <f t="shared" si="20"/>
+        <v>500000</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247" s="2">
+        <f t="shared" si="21"/>
+        <v>1000000</v>
+      </c>
+      <c r="N247">
+        <v>2</v>
+      </c>
+      <c r="O247" s="2">
+        <v>4314000</v>
+      </c>
+      <c r="P247">
+        <v>1</v>
+      </c>
+      <c r="Q247" s="1"/>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1">
+        <v>17</v>
+      </c>
+      <c r="C248" s="1">
+        <v>18</v>
+      </c>
+      <c r="D248" s="1">
+        <v>10</v>
+      </c>
+      <c r="E248" s="1">
+        <v>17</v>
+      </c>
+      <c r="F248" s="2">
+        <v>246</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248" s="1">
+        <v>476</v>
+      </c>
+      <c r="I248" t="s">
+        <v>13</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+      <c r="K248" s="2">
+        <f t="shared" si="20"/>
+        <v>502000</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248" s="2">
+        <f t="shared" si="21"/>
+        <v>1004000</v>
+      </c>
+      <c r="N248">
+        <v>2</v>
+      </c>
+      <c r="O248" s="2">
+        <v>4322000</v>
+      </c>
+      <c r="P248">
+        <v>1</v>
+      </c>
+      <c r="Q248" s="1"/>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1">
+        <v>17</v>
+      </c>
+      <c r="C249" s="1">
+        <v>18</v>
+      </c>
+      <c r="D249" s="1">
+        <v>10</v>
+      </c>
+      <c r="E249" s="1">
+        <v>17</v>
+      </c>
+      <c r="F249" s="2">
+        <v>247</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249" s="1">
+        <v>476</v>
+      </c>
+      <c r="I249" t="s">
+        <v>13</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249" s="2">
+        <f t="shared" si="20"/>
+        <v>504000</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="M249" s="2">
+        <f t="shared" si="21"/>
+        <v>1008000</v>
+      </c>
+      <c r="N249">
+        <v>2</v>
+      </c>
+      <c r="O249" s="2">
+        <v>4330000</v>
+      </c>
+      <c r="P249">
+        <v>1</v>
+      </c>
+      <c r="Q249" s="1"/>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1">
+        <v>17</v>
+      </c>
+      <c r="C250" s="1">
+        <v>18</v>
+      </c>
+      <c r="D250" s="1">
+        <v>10</v>
+      </c>
+      <c r="E250" s="1">
+        <v>17</v>
+      </c>
+      <c r="F250" s="2">
+        <v>248</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250" s="1">
+        <v>476</v>
+      </c>
+      <c r="I250" t="s">
+        <v>13</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250" s="2">
+        <f t="shared" si="20"/>
+        <v>506000</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="M250" s="2">
+        <f t="shared" si="21"/>
+        <v>1012000</v>
+      </c>
+      <c r="N250">
+        <v>2</v>
+      </c>
+      <c r="O250" s="2">
+        <v>4338000</v>
+      </c>
+      <c r="P250">
+        <v>1</v>
+      </c>
+      <c r="Q250" s="1"/>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1">
+        <v>17</v>
+      </c>
+      <c r="C251" s="1">
+        <v>18</v>
+      </c>
+      <c r="D251" s="1">
+        <v>10</v>
+      </c>
+      <c r="E251" s="1">
+        <v>17</v>
+      </c>
+      <c r="F251" s="2">
+        <v>249</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251" s="1">
+        <v>476</v>
+      </c>
+      <c r="I251" t="s">
+        <v>13</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251" s="2">
+        <f t="shared" si="20"/>
+        <v>508000</v>
+      </c>
+      <c r="L251">
+        <v>1</v>
+      </c>
+      <c r="M251" s="2">
+        <f t="shared" si="21"/>
+        <v>1016000</v>
+      </c>
+      <c r="N251">
+        <v>2</v>
+      </c>
+      <c r="O251" s="2">
+        <v>4346000</v>
+      </c>
+      <c r="P251">
+        <v>1</v>
+      </c>
+      <c r="Q251" s="1"/>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1">
+        <v>17</v>
+      </c>
+      <c r="C252" s="1">
+        <v>18</v>
+      </c>
+      <c r="D252" s="1">
+        <v>10</v>
+      </c>
+      <c r="E252" s="1">
+        <v>17</v>
+      </c>
+      <c r="F252" s="2">
+        <v>250</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252" s="1">
+        <v>476</v>
+      </c>
+      <c r="I252" t="s">
+        <v>13</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252" s="2">
+        <f t="shared" si="20"/>
+        <v>510000</v>
+      </c>
+      <c r="L252">
+        <v>1</v>
+      </c>
+      <c r="M252" s="2">
+        <f t="shared" si="21"/>
+        <v>1020000</v>
+      </c>
+      <c r="N252">
+        <v>2</v>
+      </c>
+      <c r="O252" s="2">
+        <v>4354000</v>
+      </c>
+      <c r="P252">
+        <v>1</v>
+      </c>
+      <c r="Q252" s="1"/>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1">
+        <v>17</v>
+      </c>
+      <c r="C253" s="1">
+        <v>18</v>
+      </c>
+      <c r="D253" s="1">
+        <v>10</v>
+      </c>
+      <c r="E253" s="1">
+        <v>17</v>
+      </c>
+      <c r="F253" s="2">
+        <v>251</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253" s="1">
+        <v>476</v>
+      </c>
+      <c r="I253" t="s">
+        <v>13</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+      <c r="K253" s="2">
+        <f t="shared" si="20"/>
+        <v>512000</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253" s="2">
+        <f t="shared" si="21"/>
+        <v>1024000</v>
+      </c>
+      <c r="N253">
+        <v>2</v>
+      </c>
+      <c r="O253" s="2">
+        <v>4362000</v>
+      </c>
+      <c r="P253">
+        <v>1</v>
+      </c>
+      <c r="Q253" s="1"/>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1">
+        <v>17</v>
+      </c>
+      <c r="C254" s="1">
+        <v>18</v>
+      </c>
+      <c r="D254" s="1">
+        <v>10</v>
+      </c>
+      <c r="E254" s="1">
+        <v>17</v>
+      </c>
+      <c r="F254" s="2">
+        <v>252</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254" s="1">
+        <v>476</v>
+      </c>
+      <c r="I254" t="s">
+        <v>13</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254" s="2">
+        <f t="shared" si="20"/>
+        <v>514000</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254" s="2">
+        <f t="shared" si="21"/>
+        <v>1028000</v>
+      </c>
+      <c r="N254">
+        <v>2</v>
+      </c>
+      <c r="O254" s="2">
+        <v>4370000</v>
+      </c>
+      <c r="P254">
+        <v>1</v>
+      </c>
+      <c r="Q254" s="1"/>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1">
+        <v>17</v>
+      </c>
+      <c r="C255" s="1">
+        <v>18</v>
+      </c>
+      <c r="D255" s="1">
+        <v>10</v>
+      </c>
+      <c r="E255" s="1">
+        <v>17</v>
+      </c>
+      <c r="F255" s="2">
+        <v>253</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255" s="1">
+        <v>476</v>
+      </c>
+      <c r="I255" t="s">
+        <v>13</v>
+      </c>
+      <c r="J255">
+        <v>1</v>
+      </c>
+      <c r="K255" s="2">
+        <f t="shared" si="20"/>
+        <v>516000</v>
+      </c>
+      <c r="L255">
+        <v>1</v>
+      </c>
+      <c r="M255" s="2">
+        <f t="shared" si="21"/>
+        <v>1032000</v>
+      </c>
+      <c r="N255">
+        <v>2</v>
+      </c>
+      <c r="O255" s="2">
+        <v>4378000</v>
+      </c>
+      <c r="P255">
+        <v>1</v>
+      </c>
+      <c r="Q255" s="1"/>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1">
+        <v>17</v>
+      </c>
+      <c r="C256" s="1">
+        <v>18</v>
+      </c>
+      <c r="D256" s="1">
+        <v>10</v>
+      </c>
+      <c r="E256" s="1">
+        <v>17</v>
+      </c>
+      <c r="F256" s="2">
+        <v>254</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256" s="1">
+        <v>476</v>
+      </c>
+      <c r="I256" t="s">
+        <v>13</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
+      </c>
+      <c r="K256" s="2">
+        <f t="shared" si="20"/>
+        <v>518000</v>
+      </c>
+      <c r="L256">
+        <v>1</v>
+      </c>
+      <c r="M256" s="2">
+        <f t="shared" si="21"/>
+        <v>1036000</v>
+      </c>
+      <c r="N256">
+        <v>2</v>
+      </c>
+      <c r="O256" s="2">
+        <v>4386000</v>
+      </c>
+      <c r="P256">
+        <v>1</v>
+      </c>
+      <c r="Q256" s="1"/>
+    </row>
+    <row r="257" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2">
+        <v>18</v>
+      </c>
+      <c r="C257" s="2">
+        <v>19</v>
+      </c>
+      <c r="D257" s="2">
+        <v>10</v>
+      </c>
+      <c r="E257" s="2">
+        <v>18</v>
+      </c>
+      <c r="F257" s="2">
+        <v>255</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257" s="2">
+        <v>478</v>
+      </c>
+      <c r="I257" t="s">
+        <v>13</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+      <c r="K257" s="2">
+        <f t="shared" si="20"/>
+        <v>520000</v>
+      </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="M257" s="2">
+        <f t="shared" si="21"/>
+        <v>1040000</v>
+      </c>
+      <c r="N257">
+        <v>2</v>
+      </c>
+      <c r="O257" s="2">
+        <v>4394000</v>
+      </c>
+      <c r="P257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2">
+        <v>18</v>
+      </c>
+      <c r="C258" s="2">
+        <v>19</v>
+      </c>
+      <c r="D258" s="2">
+        <v>10</v>
+      </c>
+      <c r="E258" s="2">
+        <v>18</v>
+      </c>
+      <c r="F258" s="2">
+        <v>256</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258" s="2">
+        <v>478</v>
+      </c>
+      <c r="I258" t="s">
+        <v>13</v>
+      </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
+      <c r="K258" s="2">
+        <f t="shared" si="20"/>
+        <v>522000</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="M258" s="2">
+        <f t="shared" si="21"/>
+        <v>1044000</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258" s="2">
+        <v>4402000</v>
+      </c>
+      <c r="P258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2">
+        <v>18</v>
+      </c>
+      <c r="C259" s="2">
+        <v>19</v>
+      </c>
+      <c r="D259" s="2">
+        <v>10</v>
+      </c>
+      <c r="E259" s="2">
+        <v>18</v>
+      </c>
+      <c r="F259" s="2">
+        <v>257</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259" s="2">
+        <v>478</v>
+      </c>
+      <c r="I259" t="s">
+        <v>13</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259" s="2">
+        <f t="shared" si="20"/>
+        <v>524000</v>
+      </c>
+      <c r="L259">
+        <v>1</v>
+      </c>
+      <c r="M259" s="2">
+        <f t="shared" si="21"/>
+        <v>1048000</v>
+      </c>
+      <c r="N259">
+        <v>2</v>
+      </c>
+      <c r="O259" s="2">
+        <v>4410000</v>
+      </c>
+      <c r="P259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2">
+        <v>18</v>
+      </c>
+      <c r="C260" s="2">
+        <v>19</v>
+      </c>
+      <c r="D260" s="2">
+        <v>10</v>
+      </c>
+      <c r="E260" s="2">
+        <v>18</v>
+      </c>
+      <c r="F260" s="2">
+        <v>258</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260" s="2">
+        <v>478</v>
+      </c>
+      <c r="I260" t="s">
+        <v>13</v>
+      </c>
+      <c r="J260">
+        <v>1</v>
+      </c>
+      <c r="K260" s="2">
+        <f t="shared" si="20"/>
+        <v>526000</v>
+      </c>
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="M260" s="2">
+        <f t="shared" si="21"/>
+        <v>1052000</v>
+      </c>
+      <c r="N260">
+        <v>2</v>
+      </c>
+      <c r="O260" s="2">
+        <v>4418000</v>
+      </c>
+      <c r="P260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2">
+        <v>18</v>
+      </c>
+      <c r="C261" s="2">
+        <v>19</v>
+      </c>
+      <c r="D261" s="2">
+        <v>10</v>
+      </c>
+      <c r="E261" s="2">
+        <v>18</v>
+      </c>
+      <c r="F261" s="2">
+        <v>259</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261" s="2">
+        <v>478</v>
+      </c>
+      <c r="I261" t="s">
+        <v>13</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261" s="2">
+        <f t="shared" si="20"/>
+        <v>528000</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261" s="2">
+        <f t="shared" si="21"/>
+        <v>1056000</v>
+      </c>
+      <c r="N261">
+        <v>2</v>
+      </c>
+      <c r="O261" s="2">
+        <v>4426000</v>
+      </c>
+      <c r="P261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2">
+        <v>18</v>
+      </c>
+      <c r="C262" s="2">
+        <v>19</v>
+      </c>
+      <c r="D262" s="2">
+        <v>10</v>
+      </c>
+      <c r="E262" s="2">
+        <v>18</v>
+      </c>
+      <c r="F262" s="2">
+        <v>260</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262" s="2">
+        <v>478</v>
+      </c>
+      <c r="I262" t="s">
+        <v>13</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262" s="2">
+        <f t="shared" si="20"/>
+        <v>530000</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="M262" s="2">
+        <f t="shared" si="21"/>
+        <v>1060000</v>
+      </c>
+      <c r="N262">
+        <v>2</v>
+      </c>
+      <c r="O262" s="2">
+        <v>4434000</v>
+      </c>
+      <c r="P262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2">
+        <v>18</v>
+      </c>
+      <c r="C263" s="2">
+        <v>19</v>
+      </c>
+      <c r="D263" s="2">
+        <v>10</v>
+      </c>
+      <c r="E263" s="2">
+        <v>18</v>
+      </c>
+      <c r="F263" s="2">
+        <v>261</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263" s="2">
+        <v>478</v>
+      </c>
+      <c r="I263" t="s">
+        <v>13</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263" s="2">
+        <f t="shared" si="20"/>
+        <v>532000</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+      <c r="M263" s="2">
+        <f t="shared" si="21"/>
+        <v>1064000</v>
+      </c>
+      <c r="N263">
+        <v>2</v>
+      </c>
+      <c r="O263" s="2">
+        <v>4442000</v>
+      </c>
+      <c r="P263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
+        <v>262</v>
+      </c>
+      <c r="B264" s="2">
+        <v>18</v>
+      </c>
+      <c r="C264" s="2">
+        <v>19</v>
+      </c>
+      <c r="D264" s="2">
+        <v>10</v>
+      </c>
+      <c r="E264" s="2">
+        <v>18</v>
+      </c>
+      <c r="F264" s="2">
+        <v>262</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264" s="2">
+        <v>478</v>
+      </c>
+      <c r="I264" t="s">
+        <v>13</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+      <c r="K264" s="2">
+        <f t="shared" si="20"/>
+        <v>534000</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+      <c r="M264" s="2">
+        <f t="shared" si="21"/>
+        <v>1068000</v>
+      </c>
+      <c r="N264">
+        <v>2</v>
+      </c>
+      <c r="O264" s="2">
+        <v>4450000</v>
+      </c>
+      <c r="P264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="2">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2">
+        <v>18</v>
+      </c>
+      <c r="C265" s="2">
+        <v>19</v>
+      </c>
+      <c r="D265" s="2">
+        <v>10</v>
+      </c>
+      <c r="E265" s="2">
+        <v>18</v>
+      </c>
+      <c r="F265" s="2">
+        <v>263</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265" s="2">
+        <v>478</v>
+      </c>
+      <c r="I265" t="s">
+        <v>13</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+      <c r="K265" s="2">
+        <f t="shared" si="20"/>
+        <v>536000</v>
+      </c>
+      <c r="L265">
+        <v>1</v>
+      </c>
+      <c r="M265" s="2">
+        <f t="shared" si="21"/>
+        <v>1072000</v>
+      </c>
+      <c r="N265">
+        <v>2</v>
+      </c>
+      <c r="O265" s="2">
+        <v>4458000</v>
+      </c>
+      <c r="P265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2">
+        <v>18</v>
+      </c>
+      <c r="C266" s="2">
+        <v>19</v>
+      </c>
+      <c r="D266" s="2">
+        <v>10</v>
+      </c>
+      <c r="E266" s="2">
+        <v>18</v>
+      </c>
+      <c r="F266" s="2">
+        <v>264</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266" s="2">
+        <v>478</v>
+      </c>
+      <c r="I266" t="s">
+        <v>13</v>
+      </c>
+      <c r="J266">
+        <v>1</v>
+      </c>
+      <c r="K266" s="2">
+        <f t="shared" si="20"/>
+        <v>538000</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="M266" s="2">
+        <f t="shared" si="21"/>
+        <v>1076000</v>
+      </c>
+      <c r="N266">
+        <v>2</v>
+      </c>
+      <c r="O266" s="2">
+        <v>4466000</v>
+      </c>
+      <c r="P266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2">
+        <v>18</v>
+      </c>
+      <c r="C267" s="2">
+        <v>19</v>
+      </c>
+      <c r="D267" s="2">
+        <v>10</v>
+      </c>
+      <c r="E267" s="2">
+        <v>18</v>
+      </c>
+      <c r="F267" s="2">
+        <v>265</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267" s="2">
+        <v>478</v>
+      </c>
+      <c r="I267" t="s">
+        <v>13</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+      <c r="K267" s="2">
+        <f t="shared" si="20"/>
+        <v>540000</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267" s="2">
+        <f t="shared" si="21"/>
+        <v>1080000</v>
+      </c>
+      <c r="N267">
+        <v>2</v>
+      </c>
+      <c r="O267" s="2">
+        <v>4474000</v>
+      </c>
+      <c r="P267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="2">
+        <v>266</v>
+      </c>
+      <c r="B268" s="2">
+        <v>18</v>
+      </c>
+      <c r="C268" s="2">
+        <v>19</v>
+      </c>
+      <c r="D268" s="2">
+        <v>10</v>
+      </c>
+      <c r="E268" s="2">
+        <v>18</v>
+      </c>
+      <c r="F268" s="2">
+        <v>266</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268" s="2">
+        <v>478</v>
+      </c>
+      <c r="I268" t="s">
+        <v>13</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+      <c r="K268" s="2">
+        <f t="shared" si="20"/>
+        <v>542000</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268" s="2">
+        <f t="shared" si="21"/>
+        <v>1084000</v>
+      </c>
+      <c r="N268">
+        <v>2</v>
+      </c>
+      <c r="O268" s="2">
+        <v>4482000</v>
+      </c>
+      <c r="P268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
+        <v>267</v>
+      </c>
+      <c r="B269" s="2">
+        <v>18</v>
+      </c>
+      <c r="C269" s="2">
+        <v>19</v>
+      </c>
+      <c r="D269" s="2">
+        <v>10</v>
+      </c>
+      <c r="E269" s="2">
+        <v>18</v>
+      </c>
+      <c r="F269" s="2">
+        <v>267</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269" s="2">
+        <v>478</v>
+      </c>
+      <c r="I269" t="s">
+        <v>13</v>
+      </c>
+      <c r="J269">
+        <v>1</v>
+      </c>
+      <c r="K269" s="2">
+        <f t="shared" si="20"/>
+        <v>544000</v>
+      </c>
+      <c r="L269">
+        <v>1</v>
+      </c>
+      <c r="M269" s="2">
+        <f t="shared" si="21"/>
+        <v>1088000</v>
+      </c>
+      <c r="N269">
+        <v>2</v>
+      </c>
+      <c r="O269" s="2">
+        <v>4490000</v>
+      </c>
+      <c r="P269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="2">
+        <v>268</v>
+      </c>
+      <c r="B270" s="2">
+        <v>18</v>
+      </c>
+      <c r="C270" s="2">
+        <v>19</v>
+      </c>
+      <c r="D270" s="2">
+        <v>10</v>
+      </c>
+      <c r="E270" s="2">
+        <v>18</v>
+      </c>
+      <c r="F270" s="2">
+        <v>268</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270" s="2">
+        <v>478</v>
+      </c>
+      <c r="I270" t="s">
+        <v>13</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
+      </c>
+      <c r="K270" s="2">
+        <f t="shared" si="20"/>
+        <v>546000</v>
+      </c>
+      <c r="L270">
+        <v>1</v>
+      </c>
+      <c r="M270" s="2">
+        <f t="shared" si="21"/>
+        <v>1092000</v>
+      </c>
+      <c r="N270">
+        <v>2</v>
+      </c>
+      <c r="O270" s="2">
+        <v>4498000</v>
+      </c>
+      <c r="P270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2">
+        <v>18</v>
+      </c>
+      <c r="C271" s="2">
+        <v>19</v>
+      </c>
+      <c r="D271" s="2">
+        <v>10</v>
+      </c>
+      <c r="E271" s="2">
+        <v>18</v>
+      </c>
+      <c r="F271" s="2">
+        <v>269</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271" s="2">
+        <v>478</v>
+      </c>
+      <c r="I271" t="s">
+        <v>13</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+      <c r="K271" s="2">
+        <f t="shared" si="20"/>
+        <v>548000</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271" s="2">
+        <f t="shared" si="21"/>
+        <v>1096000</v>
+      </c>
+      <c r="N271">
+        <v>2</v>
+      </c>
+      <c r="O271" s="2">
+        <v>4506000</v>
+      </c>
+      <c r="P271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" s="1">
+        <v>19</v>
+      </c>
+      <c r="C272" s="1">
+        <v>20</v>
+      </c>
+      <c r="D272" s="1">
+        <v>9</v>
+      </c>
+      <c r="E272" s="1">
+        <v>19</v>
+      </c>
+      <c r="F272" s="2">
+        <v>270</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272" s="1">
+        <v>480</v>
+      </c>
+      <c r="I272" t="s">
+        <v>13</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272" s="2">
+        <f t="shared" si="20"/>
+        <v>550000</v>
+      </c>
+      <c r="L272">
+        <v>1</v>
+      </c>
+      <c r="M272" s="2">
+        <f t="shared" si="21"/>
+        <v>1100000</v>
+      </c>
+      <c r="N272">
+        <v>2</v>
+      </c>
+      <c r="O272" s="2">
+        <v>4514000</v>
+      </c>
+      <c r="P272">
+        <v>1</v>
+      </c>
+      <c r="Q272" s="1"/>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" s="1">
+        <v>19</v>
+      </c>
+      <c r="C273" s="1">
+        <v>20</v>
+      </c>
+      <c r="D273" s="1">
+        <v>9</v>
+      </c>
+      <c r="E273" s="1">
+        <v>19</v>
+      </c>
+      <c r="F273" s="2">
+        <v>271</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273" s="1">
+        <v>480</v>
+      </c>
+      <c r="I273" t="s">
+        <v>13</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273" s="2">
+        <f t="shared" si="20"/>
+        <v>552000</v>
+      </c>
+      <c r="L273">
+        <v>1</v>
+      </c>
+      <c r="M273" s="2">
+        <f t="shared" si="21"/>
+        <v>1104000</v>
+      </c>
+      <c r="N273">
+        <v>2</v>
+      </c>
+      <c r="O273" s="2">
+        <v>4522000</v>
+      </c>
+      <c r="P273">
+        <v>1</v>
+      </c>
+      <c r="Q273" s="1"/>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" s="1">
+        <v>19</v>
+      </c>
+      <c r="C274" s="1">
+        <v>20</v>
+      </c>
+      <c r="D274" s="1">
+        <v>9</v>
+      </c>
+      <c r="E274" s="1">
+        <v>19</v>
+      </c>
+      <c r="F274" s="2">
+        <v>272</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274" s="1">
+        <v>480</v>
+      </c>
+      <c r="I274" t="s">
+        <v>13</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274" s="2">
+        <f t="shared" si="20"/>
+        <v>554000</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274" s="2">
+        <f t="shared" si="21"/>
+        <v>1108000</v>
+      </c>
+      <c r="N274">
+        <v>2</v>
+      </c>
+      <c r="O274" s="2">
+        <v>4530000</v>
+      </c>
+      <c r="P274">
+        <v>1</v>
+      </c>
+      <c r="Q274" s="1"/>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" s="1">
+        <v>19</v>
+      </c>
+      <c r="C275" s="1">
+        <v>20</v>
+      </c>
+      <c r="D275" s="1">
+        <v>9</v>
+      </c>
+      <c r="E275" s="1">
+        <v>19</v>
+      </c>
+      <c r="F275" s="2">
+        <v>273</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275" s="1">
+        <v>480</v>
+      </c>
+      <c r="I275" t="s">
+        <v>13</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275" s="2">
+        <f t="shared" si="20"/>
+        <v>556000</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275" s="2">
+        <f t="shared" si="21"/>
+        <v>1112000</v>
+      </c>
+      <c r="N275">
+        <v>2</v>
+      </c>
+      <c r="O275" s="2">
+        <v>4538000</v>
+      </c>
+      <c r="P275">
+        <v>1</v>
+      </c>
+      <c r="Q275" s="1"/>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" s="1">
+        <v>19</v>
+      </c>
+      <c r="C276" s="1">
+        <v>20</v>
+      </c>
+      <c r="D276" s="1">
+        <v>9</v>
+      </c>
+      <c r="E276" s="1">
+        <v>19</v>
+      </c>
+      <c r="F276" s="2">
+        <v>274</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276" s="1">
+        <v>480</v>
+      </c>
+      <c r="I276" t="s">
+        <v>13</v>
+      </c>
+      <c r="J276">
+        <v>1</v>
+      </c>
+      <c r="K276" s="2">
+        <f t="shared" si="20"/>
+        <v>558000</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276" s="2">
+        <f t="shared" si="21"/>
+        <v>1116000</v>
+      </c>
+      <c r="N276">
+        <v>2</v>
+      </c>
+      <c r="O276" s="2">
+        <v>4546000</v>
+      </c>
+      <c r="P276">
+        <v>1</v>
+      </c>
+      <c r="Q276" s="1"/>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" s="1">
+        <v>19</v>
+      </c>
+      <c r="C277" s="1">
+        <v>20</v>
+      </c>
+      <c r="D277" s="1">
+        <v>9</v>
+      </c>
+      <c r="E277" s="1">
+        <v>19</v>
+      </c>
+      <c r="F277" s="2">
+        <v>275</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277" s="1">
+        <v>480</v>
+      </c>
+      <c r="I277" t="s">
+        <v>13</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277" s="2">
+        <f t="shared" si="20"/>
+        <v>560000</v>
+      </c>
+      <c r="L277">
+        <v>1</v>
+      </c>
+      <c r="M277" s="2">
+        <f t="shared" si="21"/>
+        <v>1120000</v>
+      </c>
+      <c r="N277">
+        <v>2</v>
+      </c>
+      <c r="O277" s="2">
+        <v>4554000</v>
+      </c>
+      <c r="P277">
+        <v>1</v>
+      </c>
+      <c r="Q277" s="1"/>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" s="1">
+        <v>19</v>
+      </c>
+      <c r="C278" s="1">
+        <v>20</v>
+      </c>
+      <c r="D278" s="1">
+        <v>9</v>
+      </c>
+      <c r="E278" s="1">
+        <v>19</v>
+      </c>
+      <c r="F278" s="2">
+        <v>276</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278" s="1">
+        <v>480</v>
+      </c>
+      <c r="I278" t="s">
+        <v>13</v>
+      </c>
+      <c r="J278">
+        <v>1</v>
+      </c>
+      <c r="K278" s="2">
+        <f t="shared" si="20"/>
+        <v>562000</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+      <c r="M278" s="2">
+        <f t="shared" si="21"/>
+        <v>1124000</v>
+      </c>
+      <c r="N278">
+        <v>2</v>
+      </c>
+      <c r="O278" s="2">
+        <v>4562000</v>
+      </c>
+      <c r="P278">
+        <v>1</v>
+      </c>
+      <c r="Q278" s="1"/>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" s="1">
+        <v>19</v>
+      </c>
+      <c r="C279" s="1">
+        <v>20</v>
+      </c>
+      <c r="D279" s="1">
+        <v>9</v>
+      </c>
+      <c r="E279" s="1">
+        <v>19</v>
+      </c>
+      <c r="F279" s="2">
+        <v>277</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279" s="1">
+        <v>480</v>
+      </c>
+      <c r="I279" t="s">
+        <v>13</v>
+      </c>
+      <c r="J279">
+        <v>1</v>
+      </c>
+      <c r="K279" s="2">
+        <f t="shared" si="20"/>
+        <v>564000</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279" s="2">
+        <f t="shared" si="21"/>
+        <v>1128000</v>
+      </c>
+      <c r="N279">
+        <v>2</v>
+      </c>
+      <c r="O279" s="2">
+        <v>4570000</v>
+      </c>
+      <c r="P279">
+        <v>1</v>
+      </c>
+      <c r="Q279" s="1"/>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" s="1">
+        <v>19</v>
+      </c>
+      <c r="C280" s="1">
+        <v>20</v>
+      </c>
+      <c r="D280" s="1">
+        <v>9</v>
+      </c>
+      <c r="E280" s="1">
+        <v>19</v>
+      </c>
+      <c r="F280" s="2">
+        <v>278</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280" s="1">
+        <v>480</v>
+      </c>
+      <c r="I280" t="s">
+        <v>13</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280" s="2">
+        <f t="shared" si="20"/>
+        <v>566000</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+      <c r="M280" s="2">
+        <f t="shared" si="21"/>
+        <v>1132000</v>
+      </c>
+      <c r="N280">
+        <v>2</v>
+      </c>
+      <c r="O280" s="2">
+        <v>4578000</v>
+      </c>
+      <c r="P280">
+        <v>1</v>
+      </c>
+      <c r="Q280" s="1"/>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" s="1">
+        <v>19</v>
+      </c>
+      <c r="C281" s="1">
+        <v>20</v>
+      </c>
+      <c r="D281" s="1">
+        <v>9</v>
+      </c>
+      <c r="E281" s="1">
+        <v>19</v>
+      </c>
+      <c r="F281" s="2">
+        <v>279</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281" s="1">
+        <v>480</v>
+      </c>
+      <c r="I281" t="s">
+        <v>13</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281" s="2">
+        <f t="shared" si="20"/>
+        <v>568000</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281" s="2">
+        <f t="shared" si="21"/>
+        <v>1136000</v>
+      </c>
+      <c r="N281">
+        <v>2</v>
+      </c>
+      <c r="O281" s="2">
+        <v>4586000</v>
+      </c>
+      <c r="P281">
+        <v>1</v>
+      </c>
+      <c r="Q281" s="1"/>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" s="1">
+        <v>19</v>
+      </c>
+      <c r="C282" s="1">
+        <v>20</v>
+      </c>
+      <c r="D282" s="1">
+        <v>9</v>
+      </c>
+      <c r="E282" s="1">
+        <v>19</v>
+      </c>
+      <c r="F282" s="2">
+        <v>280</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282" s="1">
+        <v>480</v>
+      </c>
+      <c r="I282" t="s">
+        <v>13</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282" s="2">
+        <f t="shared" si="20"/>
+        <v>570000</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282" s="2">
+        <f t="shared" si="21"/>
+        <v>1140000</v>
+      </c>
+      <c r="N282">
+        <v>2</v>
+      </c>
+      <c r="O282" s="2">
+        <v>4594000</v>
+      </c>
+      <c r="P282">
+        <v>1</v>
+      </c>
+      <c r="Q282" s="1"/>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" s="1">
+        <v>19</v>
+      </c>
+      <c r="C283" s="1">
+        <v>20</v>
+      </c>
+      <c r="D283" s="1">
+        <v>9</v>
+      </c>
+      <c r="E283" s="1">
+        <v>19</v>
+      </c>
+      <c r="F283" s="2">
+        <v>281</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283" s="1">
+        <v>480</v>
+      </c>
+      <c r="I283" t="s">
+        <v>13</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283" s="2">
+        <f t="shared" si="20"/>
+        <v>572000</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283" s="2">
+        <f t="shared" si="21"/>
+        <v>1144000</v>
+      </c>
+      <c r="N283">
+        <v>2</v>
+      </c>
+      <c r="O283" s="2">
+        <v>4602000</v>
+      </c>
+      <c r="P283">
+        <v>1</v>
+      </c>
+      <c r="Q283" s="1"/>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" s="1">
+        <v>19</v>
+      </c>
+      <c r="C284" s="1">
+        <v>20</v>
+      </c>
+      <c r="D284" s="1">
+        <v>9</v>
+      </c>
+      <c r="E284" s="1">
+        <v>19</v>
+      </c>
+      <c r="F284" s="2">
+        <v>282</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284" s="1">
+        <v>480</v>
+      </c>
+      <c r="I284" t="s">
+        <v>13</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284" s="2">
+        <f t="shared" si="20"/>
+        <v>574000</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+      <c r="M284" s="2">
+        <f t="shared" si="21"/>
+        <v>1148000</v>
+      </c>
+      <c r="N284">
+        <v>2</v>
+      </c>
+      <c r="O284" s="2">
+        <v>4610000</v>
+      </c>
+      <c r="P284">
+        <v>1</v>
+      </c>
+      <c r="Q284" s="1"/>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" s="1">
+        <v>19</v>
+      </c>
+      <c r="C285" s="1">
+        <v>20</v>
+      </c>
+      <c r="D285" s="1">
+        <v>9</v>
+      </c>
+      <c r="E285" s="1">
+        <v>19</v>
+      </c>
+      <c r="F285" s="2">
+        <v>283</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285" s="1">
+        <v>480</v>
+      </c>
+      <c r="I285" t="s">
+        <v>13</v>
+      </c>
+      <c r="J285">
+        <v>1</v>
+      </c>
+      <c r="K285" s="2">
+        <f t="shared" si="20"/>
+        <v>576000</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+      <c r="M285" s="2">
+        <f t="shared" si="21"/>
+        <v>1152000</v>
+      </c>
+      <c r="N285">
+        <v>2</v>
+      </c>
+      <c r="O285" s="2">
+        <v>4618000</v>
+      </c>
+      <c r="P285">
+        <v>1</v>
+      </c>
+      <c r="Q285" s="1"/>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" s="1">
+        <v>19</v>
+      </c>
+      <c r="C286" s="1">
+        <v>20</v>
+      </c>
+      <c r="D286" s="1">
+        <v>9</v>
+      </c>
+      <c r="E286" s="1">
+        <v>19</v>
+      </c>
+      <c r="F286" s="2">
+        <v>284</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286" s="1">
+        <v>480</v>
+      </c>
+      <c r="I286" t="s">
+        <v>13</v>
+      </c>
+      <c r="J286">
+        <v>1</v>
+      </c>
+      <c r="K286" s="2">
+        <f t="shared" si="20"/>
+        <v>578000</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286" s="2">
+        <f t="shared" si="21"/>
+        <v>1156000</v>
+      </c>
+      <c r="N286">
+        <v>2</v>
+      </c>
+      <c r="O286" s="2">
+        <v>4626000</v>
+      </c>
+      <c r="P286">
+        <v>1</v>
+      </c>
+      <c r="Q286" s="1"/>
+    </row>
+    <row r="287" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="2">
+        <v>285</v>
+      </c>
+      <c r="B287" s="2">
+        <v>20</v>
+      </c>
+      <c r="C287" s="2">
+        <v>21</v>
+      </c>
+      <c r="D287" s="2">
+        <v>9</v>
+      </c>
+      <c r="E287" s="2">
+        <v>20</v>
+      </c>
+      <c r="F287" s="2">
+        <v>285</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287" s="2">
+        <v>482</v>
+      </c>
+      <c r="I287" t="s">
+        <v>13</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287" s="2">
+        <f t="shared" si="20"/>
+        <v>580000</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287" s="2">
+        <f t="shared" si="21"/>
+        <v>1160000</v>
+      </c>
+      <c r="N287">
+        <v>2</v>
+      </c>
+      <c r="O287" s="2">
+        <v>4634000</v>
+      </c>
+      <c r="P287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="2">
+        <v>286</v>
+      </c>
+      <c r="B288" s="2">
+        <v>20</v>
+      </c>
+      <c r="C288" s="2">
+        <v>21</v>
+      </c>
+      <c r="D288" s="2">
+        <v>9</v>
+      </c>
+      <c r="E288" s="2">
+        <v>20</v>
+      </c>
+      <c r="F288" s="2">
+        <v>286</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288" s="2">
+        <v>482</v>
+      </c>
+      <c r="I288" t="s">
+        <v>13</v>
+      </c>
+      <c r="J288">
+        <v>1</v>
+      </c>
+      <c r="K288" s="2">
+        <f t="shared" si="20"/>
+        <v>582000</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288" s="2">
+        <f t="shared" si="21"/>
+        <v>1164000</v>
+      </c>
+      <c r="N288">
+        <v>2</v>
+      </c>
+      <c r="O288" s="2">
+        <v>4642000</v>
+      </c>
+      <c r="P288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="2">
+        <v>287</v>
+      </c>
+      <c r="B289" s="2">
+        <v>20</v>
+      </c>
+      <c r="C289" s="2">
+        <v>21</v>
+      </c>
+      <c r="D289" s="2">
+        <v>9</v>
+      </c>
+      <c r="E289" s="2">
+        <v>20</v>
+      </c>
+      <c r="F289" s="2">
+        <v>287</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289" s="2">
+        <v>482</v>
+      </c>
+      <c r="I289" t="s">
+        <v>13</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+      <c r="K289" s="2">
+        <f t="shared" si="20"/>
+        <v>584000</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289" s="2">
+        <f t="shared" si="21"/>
+        <v>1168000</v>
+      </c>
+      <c r="N289">
+        <v>2</v>
+      </c>
+      <c r="O289" s="2">
+        <v>4650000</v>
+      </c>
+      <c r="P289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
+        <v>288</v>
+      </c>
+      <c r="B290" s="2">
+        <v>20</v>
+      </c>
+      <c r="C290" s="2">
+        <v>21</v>
+      </c>
+      <c r="D290" s="2">
+        <v>9</v>
+      </c>
+      <c r="E290" s="2">
+        <v>20</v>
+      </c>
+      <c r="F290" s="2">
+        <v>288</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290" s="2">
+        <v>482</v>
+      </c>
+      <c r="I290" t="s">
+        <v>13</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+      <c r="K290" s="2">
+        <f t="shared" si="20"/>
+        <v>586000</v>
+      </c>
+      <c r="L290">
+        <v>1</v>
+      </c>
+      <c r="M290" s="2">
+        <f t="shared" si="21"/>
+        <v>1172000</v>
+      </c>
+      <c r="N290">
+        <v>2</v>
+      </c>
+      <c r="O290" s="2">
+        <v>4658000</v>
+      </c>
+      <c r="P290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
+        <v>289</v>
+      </c>
+      <c r="B291" s="2">
+        <v>20</v>
+      </c>
+      <c r="C291" s="2">
+        <v>21</v>
+      </c>
+      <c r="D291" s="2">
+        <v>9</v>
+      </c>
+      <c r="E291" s="2">
+        <v>20</v>
+      </c>
+      <c r="F291" s="2">
+        <v>289</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291" s="2">
+        <v>482</v>
+      </c>
+      <c r="I291" t="s">
+        <v>13</v>
+      </c>
+      <c r="J291">
+        <v>1</v>
+      </c>
+      <c r="K291" s="2">
+        <f t="shared" si="20"/>
+        <v>588000</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291" s="2">
+        <f t="shared" si="21"/>
+        <v>1176000</v>
+      </c>
+      <c r="N291">
+        <v>2</v>
+      </c>
+      <c r="O291" s="2">
+        <v>4666000</v>
+      </c>
+      <c r="P291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="2">
+        <v>290</v>
+      </c>
+      <c r="B292" s="2">
+        <v>20</v>
+      </c>
+      <c r="C292" s="2">
+        <v>21</v>
+      </c>
+      <c r="D292" s="2">
+        <v>9</v>
+      </c>
+      <c r="E292" s="2">
+        <v>20</v>
+      </c>
+      <c r="F292" s="2">
+        <v>290</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292" s="2">
+        <v>482</v>
+      </c>
+      <c r="I292" t="s">
+        <v>13</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+      <c r="K292" s="2">
+        <f t="shared" si="20"/>
+        <v>590000</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+      <c r="M292" s="2">
+        <f t="shared" si="21"/>
+        <v>1180000</v>
+      </c>
+      <c r="N292">
+        <v>2</v>
+      </c>
+      <c r="O292" s="2">
+        <v>4674000</v>
+      </c>
+      <c r="P292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="2">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2">
+        <v>20</v>
+      </c>
+      <c r="C293" s="2">
+        <v>21</v>
+      </c>
+      <c r="D293" s="2">
+        <v>9</v>
+      </c>
+      <c r="E293" s="2">
+        <v>20</v>
+      </c>
+      <c r="F293" s="2">
+        <v>291</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293" s="2">
+        <v>482</v>
+      </c>
+      <c r="I293" t="s">
+        <v>13</v>
+      </c>
+      <c r="J293">
+        <v>1</v>
+      </c>
+      <c r="K293" s="2">
+        <f t="shared" si="20"/>
+        <v>592000</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293" s="2">
+        <f t="shared" si="21"/>
+        <v>1184000</v>
+      </c>
+      <c r="N293">
+        <v>2</v>
+      </c>
+      <c r="O293" s="2">
+        <v>4682000</v>
+      </c>
+      <c r="P293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="2">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2">
+        <v>20</v>
+      </c>
+      <c r="C294" s="2">
+        <v>21</v>
+      </c>
+      <c r="D294" s="2">
+        <v>9</v>
+      </c>
+      <c r="E294" s="2">
+        <v>20</v>
+      </c>
+      <c r="F294" s="2">
+        <v>292</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294" s="2">
+        <v>482</v>
+      </c>
+      <c r="I294" t="s">
+        <v>13</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+      <c r="K294" s="2">
+        <f t="shared" si="20"/>
+        <v>594000</v>
+      </c>
+      <c r="L294">
+        <v>1</v>
+      </c>
+      <c r="M294" s="2">
+        <f t="shared" si="21"/>
+        <v>1188000</v>
+      </c>
+      <c r="N294">
+        <v>2</v>
+      </c>
+      <c r="O294" s="2">
+        <v>4690000</v>
+      </c>
+      <c r="P294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="2">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2">
+        <v>20</v>
+      </c>
+      <c r="C295" s="2">
+        <v>21</v>
+      </c>
+      <c r="D295" s="2">
+        <v>9</v>
+      </c>
+      <c r="E295" s="2">
+        <v>20</v>
+      </c>
+      <c r="F295" s="2">
+        <v>293</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295" s="2">
+        <v>482</v>
+      </c>
+      <c r="I295" t="s">
+        <v>13</v>
+      </c>
+      <c r="J295">
+        <v>1</v>
+      </c>
+      <c r="K295" s="2">
+        <f t="shared" si="20"/>
+        <v>596000</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+      <c r="M295" s="2">
+        <f t="shared" si="21"/>
+        <v>1192000</v>
+      </c>
+      <c r="N295">
+        <v>2</v>
+      </c>
+      <c r="O295" s="2">
+        <v>4698000</v>
+      </c>
+      <c r="P295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="2">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2">
+        <v>20</v>
+      </c>
+      <c r="C296" s="2">
+        <v>21</v>
+      </c>
+      <c r="D296" s="2">
+        <v>9</v>
+      </c>
+      <c r="E296" s="2">
+        <v>20</v>
+      </c>
+      <c r="F296" s="2">
+        <v>294</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296" s="2">
+        <v>482</v>
+      </c>
+      <c r="I296" t="s">
+        <v>13</v>
+      </c>
+      <c r="J296">
+        <v>1</v>
+      </c>
+      <c r="K296" s="2">
+        <f t="shared" si="20"/>
+        <v>598000</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+      <c r="M296" s="2">
+        <f t="shared" si="21"/>
+        <v>1196000</v>
+      </c>
+      <c r="N296">
+        <v>2</v>
+      </c>
+      <c r="O296" s="2">
+        <v>4706000</v>
+      </c>
+      <c r="P296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="2">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2">
+        <v>20</v>
+      </c>
+      <c r="C297" s="2">
+        <v>21</v>
+      </c>
+      <c r="D297" s="2">
+        <v>9</v>
+      </c>
+      <c r="E297" s="2">
+        <v>20</v>
+      </c>
+      <c r="F297" s="2">
+        <v>295</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297" s="2">
+        <v>482</v>
+      </c>
+      <c r="I297" t="s">
+        <v>13</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297" s="2">
+        <f t="shared" si="20"/>
+        <v>600000</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="M297" s="2">
+        <f t="shared" si="21"/>
+        <v>1200000</v>
+      </c>
+      <c r="N297">
+        <v>2</v>
+      </c>
+      <c r="O297" s="2">
+        <v>4714000</v>
+      </c>
+      <c r="P297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="2">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2">
+        <v>20</v>
+      </c>
+      <c r="C298" s="2">
+        <v>21</v>
+      </c>
+      <c r="D298" s="2">
+        <v>9</v>
+      </c>
+      <c r="E298" s="2">
+        <v>20</v>
+      </c>
+      <c r="F298" s="2">
+        <v>296</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298" s="2">
+        <v>482</v>
+      </c>
+      <c r="I298" t="s">
+        <v>13</v>
+      </c>
+      <c r="J298">
+        <v>1</v>
+      </c>
+      <c r="K298" s="2">
+        <f t="shared" si="20"/>
+        <v>602000</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298" s="2">
+        <f t="shared" si="21"/>
+        <v>1204000</v>
+      </c>
+      <c r="N298">
+        <v>2</v>
+      </c>
+      <c r="O298" s="2">
+        <v>4722000</v>
+      </c>
+      <c r="P298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="2">
+        <v>297</v>
+      </c>
+      <c r="B299" s="2">
+        <v>20</v>
+      </c>
+      <c r="C299" s="2">
+        <v>21</v>
+      </c>
+      <c r="D299" s="2">
+        <v>9</v>
+      </c>
+      <c r="E299" s="2">
+        <v>20</v>
+      </c>
+      <c r="F299" s="2">
+        <v>297</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299" s="2">
+        <v>482</v>
+      </c>
+      <c r="I299" t="s">
+        <v>13</v>
+      </c>
+      <c r="J299">
+        <v>1</v>
+      </c>
+      <c r="K299" s="2">
+        <f t="shared" si="20"/>
+        <v>604000</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+      <c r="M299" s="2">
+        <f t="shared" si="21"/>
+        <v>1208000</v>
+      </c>
+      <c r="N299">
+        <v>2</v>
+      </c>
+      <c r="O299" s="2">
+        <v>4730000</v>
+      </c>
+      <c r="P299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="2">
+        <v>298</v>
+      </c>
+      <c r="B300" s="2">
+        <v>20</v>
+      </c>
+      <c r="C300" s="2">
+        <v>21</v>
+      </c>
+      <c r="D300" s="2">
+        <v>9</v>
+      </c>
+      <c r="E300" s="2">
+        <v>20</v>
+      </c>
+      <c r="F300" s="2">
+        <v>298</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300" s="2">
+        <v>482</v>
+      </c>
+      <c r="I300" t="s">
+        <v>13</v>
+      </c>
+      <c r="J300">
+        <v>1</v>
+      </c>
+      <c r="K300" s="2">
+        <f t="shared" si="20"/>
+        <v>606000</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
+      <c r="M300" s="2">
+        <f t="shared" si="21"/>
+        <v>1212000</v>
+      </c>
+      <c r="N300">
+        <v>2</v>
+      </c>
+      <c r="O300" s="2">
+        <v>4738000</v>
+      </c>
+      <c r="P300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="2">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2">
+        <v>20</v>
+      </c>
+      <c r="C301" s="2">
+        <v>21</v>
+      </c>
+      <c r="D301" s="2">
+        <v>9</v>
+      </c>
+      <c r="E301" s="2">
+        <v>20</v>
+      </c>
+      <c r="F301" s="2">
+        <v>299</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301" s="2">
+        <v>482</v>
+      </c>
+      <c r="I301" t="s">
+        <v>13</v>
+      </c>
+      <c r="J301">
+        <v>1</v>
+      </c>
+      <c r="K301" s="2">
+        <f t="shared" si="20"/>
+        <v>608000</v>
+      </c>
+      <c r="L301">
+        <v>1</v>
+      </c>
+      <c r="M301" s="2">
+        <f t="shared" si="21"/>
+        <v>1216000</v>
+      </c>
+      <c r="N301">
+        <v>2</v>
+      </c>
+      <c r="O301" s="2">
+        <v>4746000</v>
+      </c>
+      <c r="P301">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A520E8-A467-4227-A25A-F462E1F04861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCD1C24-E67C-42A7-81D7-C2C26FF7907D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -571,8 +571,8 @@
   <dimension ref="A1:Q301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E304" sqref="E304"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11881,7 +11881,7 @@
         <v>15</v>
       </c>
       <c r="C212" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D212" s="1">
         <v>10</v>
@@ -11934,7 +11934,7 @@
         <v>15</v>
       </c>
       <c r="C213" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D213" s="1">
         <v>10</v>
@@ -11987,7 +11987,7 @@
         <v>15</v>
       </c>
       <c r="C214" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D214" s="1">
         <v>10</v>
@@ -12040,7 +12040,7 @@
         <v>15</v>
       </c>
       <c r="C215" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D215" s="1">
         <v>10</v>
@@ -12093,7 +12093,7 @@
         <v>15</v>
       </c>
       <c r="C216" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D216" s="1">
         <v>10</v>
@@ -12146,7 +12146,7 @@
         <v>15</v>
       </c>
       <c r="C217" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D217" s="1">
         <v>10</v>
@@ -12199,7 +12199,7 @@
         <v>15</v>
       </c>
       <c r="C218" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D218" s="1">
         <v>10</v>
@@ -12252,7 +12252,7 @@
         <v>15</v>
       </c>
       <c r="C219" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D219" s="1">
         <v>10</v>
@@ -12305,7 +12305,7 @@
         <v>15</v>
       </c>
       <c r="C220" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D220" s="1">
         <v>10</v>
@@ -12358,7 +12358,7 @@
         <v>15</v>
       </c>
       <c r="C221" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D221" s="1">
         <v>10</v>
@@ -12411,7 +12411,7 @@
         <v>15</v>
       </c>
       <c r="C222" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D222" s="1">
         <v>10</v>
@@ -12464,7 +12464,7 @@
         <v>15</v>
       </c>
       <c r="C223" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D223" s="1">
         <v>10</v>
@@ -12517,7 +12517,7 @@
         <v>15</v>
       </c>
       <c r="C224" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D224" s="1">
         <v>10</v>
@@ -12570,7 +12570,7 @@
         <v>15</v>
       </c>
       <c r="C225" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D225" s="1">
         <v>10</v>
@@ -12623,7 +12623,7 @@
         <v>15</v>
       </c>
       <c r="C226" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D226" s="1">
         <v>10</v>
@@ -12675,8 +12675,8 @@
       <c r="B227" s="2">
         <v>16</v>
       </c>
-      <c r="C227" s="2">
-        <v>17</v>
+      <c r="C227" s="1">
+        <v>16</v>
       </c>
       <c r="D227" s="2">
         <v>10</v>
@@ -12727,8 +12727,8 @@
       <c r="B228" s="2">
         <v>16</v>
       </c>
-      <c r="C228" s="2">
-        <v>17</v>
+      <c r="C228" s="1">
+        <v>16</v>
       </c>
       <c r="D228" s="2">
         <v>10</v>
@@ -12779,8 +12779,8 @@
       <c r="B229" s="2">
         <v>16</v>
       </c>
-      <c r="C229" s="2">
-        <v>17</v>
+      <c r="C229" s="1">
+        <v>16</v>
       </c>
       <c r="D229" s="2">
         <v>10</v>
@@ -12831,8 +12831,8 @@
       <c r="B230" s="2">
         <v>16</v>
       </c>
-      <c r="C230" s="2">
-        <v>17</v>
+      <c r="C230" s="1">
+        <v>16</v>
       </c>
       <c r="D230" s="2">
         <v>10</v>
@@ -12883,8 +12883,8 @@
       <c r="B231" s="2">
         <v>16</v>
       </c>
-      <c r="C231" s="2">
-        <v>17</v>
+      <c r="C231" s="1">
+        <v>16</v>
       </c>
       <c r="D231" s="2">
         <v>10</v>
@@ -12935,8 +12935,8 @@
       <c r="B232" s="2">
         <v>16</v>
       </c>
-      <c r="C232" s="2">
-        <v>17</v>
+      <c r="C232" s="1">
+        <v>16</v>
       </c>
       <c r="D232" s="2">
         <v>10</v>
@@ -12987,8 +12987,8 @@
       <c r="B233" s="2">
         <v>16</v>
       </c>
-      <c r="C233" s="2">
-        <v>17</v>
+      <c r="C233" s="1">
+        <v>16</v>
       </c>
       <c r="D233" s="2">
         <v>10</v>
@@ -13039,8 +13039,8 @@
       <c r="B234" s="2">
         <v>16</v>
       </c>
-      <c r="C234" s="2">
-        <v>17</v>
+      <c r="C234" s="1">
+        <v>16</v>
       </c>
       <c r="D234" s="2">
         <v>10</v>
@@ -13091,8 +13091,8 @@
       <c r="B235" s="2">
         <v>16</v>
       </c>
-      <c r="C235" s="2">
-        <v>17</v>
+      <c r="C235" s="1">
+        <v>16</v>
       </c>
       <c r="D235" s="2">
         <v>10</v>
@@ -13143,8 +13143,8 @@
       <c r="B236" s="2">
         <v>16</v>
       </c>
-      <c r="C236" s="2">
-        <v>17</v>
+      <c r="C236" s="1">
+        <v>16</v>
       </c>
       <c r="D236" s="2">
         <v>10</v>
@@ -13195,8 +13195,8 @@
       <c r="B237" s="2">
         <v>16</v>
       </c>
-      <c r="C237" s="2">
-        <v>17</v>
+      <c r="C237" s="1">
+        <v>16</v>
       </c>
       <c r="D237" s="2">
         <v>10</v>
@@ -13247,8 +13247,8 @@
       <c r="B238" s="2">
         <v>16</v>
       </c>
-      <c r="C238" s="2">
-        <v>17</v>
+      <c r="C238" s="1">
+        <v>16</v>
       </c>
       <c r="D238" s="2">
         <v>10</v>
@@ -13299,8 +13299,8 @@
       <c r="B239" s="2">
         <v>16</v>
       </c>
-      <c r="C239" s="2">
-        <v>17</v>
+      <c r="C239" s="1">
+        <v>16</v>
       </c>
       <c r="D239" s="2">
         <v>10</v>
@@ -13351,8 +13351,8 @@
       <c r="B240" s="2">
         <v>16</v>
       </c>
-      <c r="C240" s="2">
-        <v>17</v>
+      <c r="C240" s="1">
+        <v>16</v>
       </c>
       <c r="D240" s="2">
         <v>10</v>
@@ -13403,8 +13403,8 @@
       <c r="B241" s="2">
         <v>16</v>
       </c>
-      <c r="C241" s="2">
-        <v>17</v>
+      <c r="C241" s="1">
+        <v>16</v>
       </c>
       <c r="D241" s="2">
         <v>10</v>
@@ -13456,7 +13456,7 @@
         <v>17</v>
       </c>
       <c r="C242" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D242" s="1">
         <v>10</v>
@@ -13509,7 +13509,7 @@
         <v>17</v>
       </c>
       <c r="C243" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D243" s="1">
         <v>10</v>
@@ -13562,7 +13562,7 @@
         <v>17</v>
       </c>
       <c r="C244" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D244" s="1">
         <v>10</v>
@@ -13615,7 +13615,7 @@
         <v>17</v>
       </c>
       <c r="C245" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D245" s="1">
         <v>10</v>
@@ -13668,7 +13668,7 @@
         <v>17</v>
       </c>
       <c r="C246" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D246" s="1">
         <v>10</v>
@@ -13721,7 +13721,7 @@
         <v>17</v>
       </c>
       <c r="C247" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D247" s="1">
         <v>10</v>
@@ -13774,7 +13774,7 @@
         <v>17</v>
       </c>
       <c r="C248" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D248" s="1">
         <v>10</v>
@@ -13827,7 +13827,7 @@
         <v>17</v>
       </c>
       <c r="C249" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D249" s="1">
         <v>10</v>
@@ -13880,7 +13880,7 @@
         <v>17</v>
       </c>
       <c r="C250" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D250" s="1">
         <v>10</v>
@@ -13933,7 +13933,7 @@
         <v>17</v>
       </c>
       <c r="C251" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D251" s="1">
         <v>10</v>
@@ -13986,7 +13986,7 @@
         <v>17</v>
       </c>
       <c r="C252" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D252" s="1">
         <v>10</v>
@@ -14039,7 +14039,7 @@
         <v>17</v>
       </c>
       <c r="C253" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D253" s="1">
         <v>10</v>
@@ -14092,7 +14092,7 @@
         <v>17</v>
       </c>
       <c r="C254" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D254" s="1">
         <v>10</v>
@@ -14145,7 +14145,7 @@
         <v>17</v>
       </c>
       <c r="C255" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D255" s="1">
         <v>10</v>
@@ -14198,7 +14198,7 @@
         <v>17</v>
       </c>
       <c r="C256" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D256" s="1">
         <v>10</v>
@@ -14250,8 +14250,8 @@
       <c r="B257" s="2">
         <v>18</v>
       </c>
-      <c r="C257" s="2">
-        <v>19</v>
+      <c r="C257" s="1">
+        <v>16</v>
       </c>
       <c r="D257" s="2">
         <v>10</v>
@@ -14302,8 +14302,8 @@
       <c r="B258" s="2">
         <v>18</v>
       </c>
-      <c r="C258" s="2">
-        <v>19</v>
+      <c r="C258" s="1">
+        <v>16</v>
       </c>
       <c r="D258" s="2">
         <v>10</v>
@@ -14354,8 +14354,8 @@
       <c r="B259" s="2">
         <v>18</v>
       </c>
-      <c r="C259" s="2">
-        <v>19</v>
+      <c r="C259" s="1">
+        <v>16</v>
       </c>
       <c r="D259" s="2">
         <v>10</v>
@@ -14406,8 +14406,8 @@
       <c r="B260" s="2">
         <v>18</v>
       </c>
-      <c r="C260" s="2">
-        <v>19</v>
+      <c r="C260" s="1">
+        <v>16</v>
       </c>
       <c r="D260" s="2">
         <v>10</v>
@@ -14458,8 +14458,8 @@
       <c r="B261" s="2">
         <v>18</v>
       </c>
-      <c r="C261" s="2">
-        <v>19</v>
+      <c r="C261" s="1">
+        <v>16</v>
       </c>
       <c r="D261" s="2">
         <v>10</v>
@@ -14510,8 +14510,8 @@
       <c r="B262" s="2">
         <v>18</v>
       </c>
-      <c r="C262" s="2">
-        <v>19</v>
+      <c r="C262" s="1">
+        <v>16</v>
       </c>
       <c r="D262" s="2">
         <v>10</v>
@@ -14562,8 +14562,8 @@
       <c r="B263" s="2">
         <v>18</v>
       </c>
-      <c r="C263" s="2">
-        <v>19</v>
+      <c r="C263" s="1">
+        <v>16</v>
       </c>
       <c r="D263" s="2">
         <v>10</v>
@@ -14614,8 +14614,8 @@
       <c r="B264" s="2">
         <v>18</v>
       </c>
-      <c r="C264" s="2">
-        <v>19</v>
+      <c r="C264" s="1">
+        <v>16</v>
       </c>
       <c r="D264" s="2">
         <v>10</v>
@@ -14666,8 +14666,8 @@
       <c r="B265" s="2">
         <v>18</v>
       </c>
-      <c r="C265" s="2">
-        <v>19</v>
+      <c r="C265" s="1">
+        <v>16</v>
       </c>
       <c r="D265" s="2">
         <v>10</v>
@@ -14718,8 +14718,8 @@
       <c r="B266" s="2">
         <v>18</v>
       </c>
-      <c r="C266" s="2">
-        <v>19</v>
+      <c r="C266" s="1">
+        <v>16</v>
       </c>
       <c r="D266" s="2">
         <v>10</v>
@@ -14770,8 +14770,8 @@
       <c r="B267" s="2">
         <v>18</v>
       </c>
-      <c r="C267" s="2">
-        <v>19</v>
+      <c r="C267" s="1">
+        <v>16</v>
       </c>
       <c r="D267" s="2">
         <v>10</v>
@@ -14822,8 +14822,8 @@
       <c r="B268" s="2">
         <v>18</v>
       </c>
-      <c r="C268" s="2">
-        <v>19</v>
+      <c r="C268" s="1">
+        <v>16</v>
       </c>
       <c r="D268" s="2">
         <v>10</v>
@@ -14874,8 +14874,8 @@
       <c r="B269" s="2">
         <v>18</v>
       </c>
-      <c r="C269" s="2">
-        <v>19</v>
+      <c r="C269" s="1">
+        <v>16</v>
       </c>
       <c r="D269" s="2">
         <v>10</v>
@@ -14926,8 +14926,8 @@
       <c r="B270" s="2">
         <v>18</v>
       </c>
-      <c r="C270" s="2">
-        <v>19</v>
+      <c r="C270" s="1">
+        <v>16</v>
       </c>
       <c r="D270" s="2">
         <v>10</v>
@@ -14978,8 +14978,8 @@
       <c r="B271" s="2">
         <v>18</v>
       </c>
-      <c r="C271" s="2">
-        <v>19</v>
+      <c r="C271" s="1">
+        <v>16</v>
       </c>
       <c r="D271" s="2">
         <v>10</v>
@@ -15031,7 +15031,7 @@
         <v>19</v>
       </c>
       <c r="C272" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D272" s="1">
         <v>9</v>
@@ -15084,7 +15084,7 @@
         <v>19</v>
       </c>
       <c r="C273" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D273" s="1">
         <v>9</v>
@@ -15137,7 +15137,7 @@
         <v>19</v>
       </c>
       <c r="C274" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D274" s="1">
         <v>9</v>
@@ -15190,7 +15190,7 @@
         <v>19</v>
       </c>
       <c r="C275" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D275" s="1">
         <v>9</v>
@@ -15243,7 +15243,7 @@
         <v>19</v>
       </c>
       <c r="C276" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D276" s="1">
         <v>9</v>
@@ -15296,7 +15296,7 @@
         <v>19</v>
       </c>
       <c r="C277" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D277" s="1">
         <v>9</v>
@@ -15349,7 +15349,7 @@
         <v>19</v>
       </c>
       <c r="C278" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D278" s="1">
         <v>9</v>
@@ -15402,7 +15402,7 @@
         <v>19</v>
       </c>
       <c r="C279" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D279" s="1">
         <v>9</v>
@@ -15455,7 +15455,7 @@
         <v>19</v>
       </c>
       <c r="C280" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D280" s="1">
         <v>9</v>
@@ -15508,7 +15508,7 @@
         <v>19</v>
       </c>
       <c r="C281" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D281" s="1">
         <v>9</v>
@@ -15561,7 +15561,7 @@
         <v>19</v>
       </c>
       <c r="C282" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D282" s="1">
         <v>9</v>
@@ -15614,7 +15614,7 @@
         <v>19</v>
       </c>
       <c r="C283" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D283" s="1">
         <v>9</v>
@@ -15667,7 +15667,7 @@
         <v>19</v>
       </c>
       <c r="C284" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D284" s="1">
         <v>9</v>
@@ -15720,7 +15720,7 @@
         <v>19</v>
       </c>
       <c r="C285" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D285" s="1">
         <v>9</v>
@@ -15773,7 +15773,7 @@
         <v>19</v>
       </c>
       <c r="C286" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D286" s="1">
         <v>9</v>
@@ -15825,8 +15825,8 @@
       <c r="B287" s="2">
         <v>20</v>
       </c>
-      <c r="C287" s="2">
-        <v>21</v>
+      <c r="C287" s="1">
+        <v>16</v>
       </c>
       <c r="D287" s="2">
         <v>9</v>
@@ -15877,8 +15877,8 @@
       <c r="B288" s="2">
         <v>20</v>
       </c>
-      <c r="C288" s="2">
-        <v>21</v>
+      <c r="C288" s="1">
+        <v>16</v>
       </c>
       <c r="D288" s="2">
         <v>9</v>
@@ -15929,8 +15929,8 @@
       <c r="B289" s="2">
         <v>20</v>
       </c>
-      <c r="C289" s="2">
-        <v>21</v>
+      <c r="C289" s="1">
+        <v>16</v>
       </c>
       <c r="D289" s="2">
         <v>9</v>
@@ -15981,8 +15981,8 @@
       <c r="B290" s="2">
         <v>20</v>
       </c>
-      <c r="C290" s="2">
-        <v>21</v>
+      <c r="C290" s="1">
+        <v>16</v>
       </c>
       <c r="D290" s="2">
         <v>9</v>
@@ -16033,8 +16033,8 @@
       <c r="B291" s="2">
         <v>20</v>
       </c>
-      <c r="C291" s="2">
-        <v>21</v>
+      <c r="C291" s="1">
+        <v>16</v>
       </c>
       <c r="D291" s="2">
         <v>9</v>
@@ -16085,8 +16085,8 @@
       <c r="B292" s="2">
         <v>20</v>
       </c>
-      <c r="C292" s="2">
-        <v>21</v>
+      <c r="C292" s="1">
+        <v>16</v>
       </c>
       <c r="D292" s="2">
         <v>9</v>
@@ -16137,8 +16137,8 @@
       <c r="B293" s="2">
         <v>20</v>
       </c>
-      <c r="C293" s="2">
-        <v>21</v>
+      <c r="C293" s="1">
+        <v>16</v>
       </c>
       <c r="D293" s="2">
         <v>9</v>
@@ -16189,8 +16189,8 @@
       <c r="B294" s="2">
         <v>20</v>
       </c>
-      <c r="C294" s="2">
-        <v>21</v>
+      <c r="C294" s="1">
+        <v>16</v>
       </c>
       <c r="D294" s="2">
         <v>9</v>
@@ -16241,8 +16241,8 @@
       <c r="B295" s="2">
         <v>20</v>
       </c>
-      <c r="C295" s="2">
-        <v>21</v>
+      <c r="C295" s="1">
+        <v>16</v>
       </c>
       <c r="D295" s="2">
         <v>9</v>
@@ -16293,8 +16293,8 @@
       <c r="B296" s="2">
         <v>20</v>
       </c>
-      <c r="C296" s="2">
-        <v>21</v>
+      <c r="C296" s="1">
+        <v>16</v>
       </c>
       <c r="D296" s="2">
         <v>9</v>
@@ -16345,8 +16345,8 @@
       <c r="B297" s="2">
         <v>20</v>
       </c>
-      <c r="C297" s="2">
-        <v>21</v>
+      <c r="C297" s="1">
+        <v>16</v>
       </c>
       <c r="D297" s="2">
         <v>9</v>
@@ -16397,8 +16397,8 @@
       <c r="B298" s="2">
         <v>20</v>
       </c>
-      <c r="C298" s="2">
-        <v>21</v>
+      <c r="C298" s="1">
+        <v>16</v>
       </c>
       <c r="D298" s="2">
         <v>9</v>
@@ -16449,8 +16449,8 @@
       <c r="B299" s="2">
         <v>20</v>
       </c>
-      <c r="C299" s="2">
-        <v>21</v>
+      <c r="C299" s="1">
+        <v>16</v>
       </c>
       <c r="D299" s="2">
         <v>9</v>
@@ -16501,8 +16501,8 @@
       <c r="B300" s="2">
         <v>20</v>
       </c>
-      <c r="C300" s="2">
-        <v>21</v>
+      <c r="C300" s="1">
+        <v>16</v>
       </c>
       <c r="D300" s="2">
         <v>9</v>
@@ -16553,8 +16553,8 @@
       <c r="B301" s="2">
         <v>20</v>
       </c>
-      <c r="C301" s="2">
-        <v>21</v>
+      <c r="C301" s="1">
+        <v>16</v>
       </c>
       <c r="D301" s="2">
         <v>9</v>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCD1C24-E67C-42A7-81D7-C2C26FF7907D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7C0F0D-FEDB-4893-921E-90AF74326D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="19">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +161,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +195,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -214,7 +227,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,8 +243,11 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,8 +266,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="강조색2" xfId="5" builtinId="33"/>
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="메모" xfId="3" builtinId="10"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
@@ -568,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q301"/>
+  <dimension ref="A1:Q402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C214" sqref="C214"/>
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13692,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="K246" s="2">
-        <f t="shared" ref="K246:K301" si="20">10000+A246*2000</f>
+        <f t="shared" ref="K246:K309" si="20">10000+A246*2000</f>
         <v>498000</v>
       </c>
       <c r="L246">
@@ -16595,6 +16615,5258 @@
         <v>4746000</v>
       </c>
       <c r="P301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="6">
+        <v>300</v>
+      </c>
+      <c r="B302" s="6">
+        <v>20</v>
+      </c>
+      <c r="C302" s="6">
+        <v>16</v>
+      </c>
+      <c r="D302" s="6">
+        <v>9</v>
+      </c>
+      <c r="E302" s="6">
+        <v>20</v>
+      </c>
+      <c r="F302" s="6">
+        <v>300</v>
+      </c>
+      <c r="G302" s="6">
+        <v>0</v>
+      </c>
+      <c r="H302" s="6">
+        <v>482</v>
+      </c>
+      <c r="I302" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J302" s="6">
+        <v>1</v>
+      </c>
+      <c r="K302" s="6">
+        <f t="shared" si="20"/>
+        <v>610000</v>
+      </c>
+      <c r="L302" s="6">
+        <v>1</v>
+      </c>
+      <c r="M302" s="6">
+        <f t="shared" ref="M302:M365" si="22">K302*2</f>
+        <v>1220000</v>
+      </c>
+      <c r="N302" s="6">
+        <v>2</v>
+      </c>
+      <c r="O302" s="6">
+        <v>4754000</v>
+      </c>
+      <c r="P302" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A303" s="2">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2">
+        <v>20</v>
+      </c>
+      <c r="C303" s="1">
+        <v>16</v>
+      </c>
+      <c r="D303" s="2">
+        <v>9</v>
+      </c>
+      <c r="E303" s="2">
+        <v>20</v>
+      </c>
+      <c r="F303" s="2">
+        <v>301</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303" s="2">
+        <v>482</v>
+      </c>
+      <c r="I303" t="s">
+        <v>13</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+      <c r="K303" s="2">
+        <f t="shared" si="20"/>
+        <v>612000</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
+      <c r="M303" s="2">
+        <f t="shared" si="22"/>
+        <v>1224000</v>
+      </c>
+      <c r="N303">
+        <v>2</v>
+      </c>
+      <c r="O303" s="2">
+        <v>4762000</v>
+      </c>
+      <c r="P303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A304" s="2">
+        <v>302</v>
+      </c>
+      <c r="B304" s="2">
+        <v>20</v>
+      </c>
+      <c r="C304" s="1">
+        <v>16</v>
+      </c>
+      <c r="D304" s="2">
+        <v>9</v>
+      </c>
+      <c r="E304" s="2">
+        <v>20</v>
+      </c>
+      <c r="F304" s="2">
+        <v>302</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304" s="2">
+        <v>482</v>
+      </c>
+      <c r="I304" t="s">
+        <v>13</v>
+      </c>
+      <c r="J304">
+        <v>1</v>
+      </c>
+      <c r="K304" s="2">
+        <f t="shared" si="20"/>
+        <v>614000</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+      <c r="M304" s="2">
+        <f t="shared" si="22"/>
+        <v>1228000</v>
+      </c>
+      <c r="N304">
+        <v>2</v>
+      </c>
+      <c r="O304" s="2">
+        <v>4770000</v>
+      </c>
+      <c r="P304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A305" s="2">
+        <v>303</v>
+      </c>
+      <c r="B305" s="2">
+        <v>20</v>
+      </c>
+      <c r="C305" s="1">
+        <v>16</v>
+      </c>
+      <c r="D305" s="2">
+        <v>9</v>
+      </c>
+      <c r="E305" s="2">
+        <v>20</v>
+      </c>
+      <c r="F305" s="2">
+        <v>303</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305" s="2">
+        <v>482</v>
+      </c>
+      <c r="I305" t="s">
+        <v>13</v>
+      </c>
+      <c r="J305">
+        <v>1</v>
+      </c>
+      <c r="K305" s="2">
+        <f t="shared" si="20"/>
+        <v>616000</v>
+      </c>
+      <c r="L305">
+        <v>1</v>
+      </c>
+      <c r="M305" s="2">
+        <f t="shared" si="22"/>
+        <v>1232000</v>
+      </c>
+      <c r="N305">
+        <v>2</v>
+      </c>
+      <c r="O305" s="2">
+        <v>4778000</v>
+      </c>
+      <c r="P305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A306" s="2">
+        <v>304</v>
+      </c>
+      <c r="B306" s="2">
+        <v>20</v>
+      </c>
+      <c r="C306" s="1">
+        <v>16</v>
+      </c>
+      <c r="D306" s="2">
+        <v>9</v>
+      </c>
+      <c r="E306" s="2">
+        <v>20</v>
+      </c>
+      <c r="F306" s="2">
+        <v>304</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306" s="2">
+        <v>482</v>
+      </c>
+      <c r="I306" t="s">
+        <v>13</v>
+      </c>
+      <c r="J306">
+        <v>1</v>
+      </c>
+      <c r="K306" s="2">
+        <f t="shared" si="20"/>
+        <v>618000</v>
+      </c>
+      <c r="L306">
+        <v>1</v>
+      </c>
+      <c r="M306" s="2">
+        <f t="shared" si="22"/>
+        <v>1236000</v>
+      </c>
+      <c r="N306">
+        <v>2</v>
+      </c>
+      <c r="O306" s="2">
+        <v>4786000</v>
+      </c>
+      <c r="P306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A307" s="2">
+        <v>305</v>
+      </c>
+      <c r="B307" s="2">
+        <v>20</v>
+      </c>
+      <c r="C307" s="1">
+        <v>16</v>
+      </c>
+      <c r="D307" s="2">
+        <v>9</v>
+      </c>
+      <c r="E307" s="2">
+        <v>20</v>
+      </c>
+      <c r="F307" s="2">
+        <v>305</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307" s="2">
+        <v>482</v>
+      </c>
+      <c r="I307" t="s">
+        <v>13</v>
+      </c>
+      <c r="J307">
+        <v>1</v>
+      </c>
+      <c r="K307" s="2">
+        <f t="shared" si="20"/>
+        <v>620000</v>
+      </c>
+      <c r="L307">
+        <v>1</v>
+      </c>
+      <c r="M307" s="2">
+        <f t="shared" si="22"/>
+        <v>1240000</v>
+      </c>
+      <c r="N307">
+        <v>2</v>
+      </c>
+      <c r="O307" s="2">
+        <v>4794000</v>
+      </c>
+      <c r="P307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A308" s="2">
+        <v>306</v>
+      </c>
+      <c r="B308" s="2">
+        <v>20</v>
+      </c>
+      <c r="C308" s="1">
+        <v>16</v>
+      </c>
+      <c r="D308" s="2">
+        <v>9</v>
+      </c>
+      <c r="E308" s="2">
+        <v>20</v>
+      </c>
+      <c r="F308" s="2">
+        <v>306</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308" s="2">
+        <v>482</v>
+      </c>
+      <c r="I308" t="s">
+        <v>13</v>
+      </c>
+      <c r="J308">
+        <v>1</v>
+      </c>
+      <c r="K308" s="2">
+        <f t="shared" si="20"/>
+        <v>622000</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
+      </c>
+      <c r="M308" s="2">
+        <f t="shared" si="22"/>
+        <v>1244000</v>
+      </c>
+      <c r="N308">
+        <v>2</v>
+      </c>
+      <c r="O308" s="2">
+        <v>4802000</v>
+      </c>
+      <c r="P308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A309" s="2">
+        <v>307</v>
+      </c>
+      <c r="B309" s="2">
+        <v>20</v>
+      </c>
+      <c r="C309" s="1">
+        <v>16</v>
+      </c>
+      <c r="D309" s="2">
+        <v>9</v>
+      </c>
+      <c r="E309" s="2">
+        <v>20</v>
+      </c>
+      <c r="F309" s="2">
+        <v>307</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="H309" s="2">
+        <v>482</v>
+      </c>
+      <c r="I309" t="s">
+        <v>13</v>
+      </c>
+      <c r="J309">
+        <v>1</v>
+      </c>
+      <c r="K309" s="2">
+        <f t="shared" si="20"/>
+        <v>624000</v>
+      </c>
+      <c r="L309">
+        <v>1</v>
+      </c>
+      <c r="M309" s="2">
+        <f t="shared" si="22"/>
+        <v>1248000</v>
+      </c>
+      <c r="N309">
+        <v>2</v>
+      </c>
+      <c r="O309" s="2">
+        <v>4810000</v>
+      </c>
+      <c r="P309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A310" s="2">
+        <v>308</v>
+      </c>
+      <c r="B310" s="2">
+        <v>20</v>
+      </c>
+      <c r="C310" s="1">
+        <v>16</v>
+      </c>
+      <c r="D310" s="2">
+        <v>9</v>
+      </c>
+      <c r="E310" s="2">
+        <v>20</v>
+      </c>
+      <c r="F310" s="2">
+        <v>308</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310" s="2">
+        <v>482</v>
+      </c>
+      <c r="I310" t="s">
+        <v>13</v>
+      </c>
+      <c r="J310">
+        <v>1</v>
+      </c>
+      <c r="K310" s="2">
+        <f t="shared" ref="K310:K373" si="23">10000+A310*2000</f>
+        <v>626000</v>
+      </c>
+      <c r="L310">
+        <v>1</v>
+      </c>
+      <c r="M310" s="2">
+        <f t="shared" si="22"/>
+        <v>1252000</v>
+      </c>
+      <c r="N310">
+        <v>2</v>
+      </c>
+      <c r="O310" s="2">
+        <v>4818000</v>
+      </c>
+      <c r="P310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
+        <v>309</v>
+      </c>
+      <c r="B311" s="2">
+        <v>20</v>
+      </c>
+      <c r="C311" s="1">
+        <v>16</v>
+      </c>
+      <c r="D311" s="2">
+        <v>9</v>
+      </c>
+      <c r="E311" s="2">
+        <v>20</v>
+      </c>
+      <c r="F311" s="2">
+        <v>309</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311" s="2">
+        <v>482</v>
+      </c>
+      <c r="I311" t="s">
+        <v>13</v>
+      </c>
+      <c r="J311">
+        <v>1</v>
+      </c>
+      <c r="K311" s="2">
+        <f t="shared" si="23"/>
+        <v>628000</v>
+      </c>
+      <c r="L311">
+        <v>1</v>
+      </c>
+      <c r="M311" s="2">
+        <f t="shared" si="22"/>
+        <v>1256000</v>
+      </c>
+      <c r="N311">
+        <v>2</v>
+      </c>
+      <c r="O311" s="2">
+        <v>4826000</v>
+      </c>
+      <c r="P311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A312" s="2">
+        <v>310</v>
+      </c>
+      <c r="B312" s="2">
+        <v>20</v>
+      </c>
+      <c r="C312" s="1">
+        <v>16</v>
+      </c>
+      <c r="D312" s="2">
+        <v>9</v>
+      </c>
+      <c r="E312" s="2">
+        <v>20</v>
+      </c>
+      <c r="F312" s="2">
+        <v>310</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312" s="2">
+        <v>482</v>
+      </c>
+      <c r="I312" t="s">
+        <v>13</v>
+      </c>
+      <c r="J312">
+        <v>1</v>
+      </c>
+      <c r="K312" s="2">
+        <f t="shared" si="23"/>
+        <v>630000</v>
+      </c>
+      <c r="L312">
+        <v>1</v>
+      </c>
+      <c r="M312" s="2">
+        <f t="shared" si="22"/>
+        <v>1260000</v>
+      </c>
+      <c r="N312">
+        <v>2</v>
+      </c>
+      <c r="O312" s="2">
+        <v>4834000</v>
+      </c>
+      <c r="P312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A313" s="2">
+        <v>311</v>
+      </c>
+      <c r="B313" s="2">
+        <v>20</v>
+      </c>
+      <c r="C313" s="1">
+        <v>16</v>
+      </c>
+      <c r="D313" s="2">
+        <v>9</v>
+      </c>
+      <c r="E313" s="2">
+        <v>20</v>
+      </c>
+      <c r="F313" s="2">
+        <v>311</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313" s="2">
+        <v>482</v>
+      </c>
+      <c r="I313" t="s">
+        <v>13</v>
+      </c>
+      <c r="J313">
+        <v>1</v>
+      </c>
+      <c r="K313" s="2">
+        <f t="shared" si="23"/>
+        <v>632000</v>
+      </c>
+      <c r="L313">
+        <v>1</v>
+      </c>
+      <c r="M313" s="2">
+        <f t="shared" si="22"/>
+        <v>1264000</v>
+      </c>
+      <c r="N313">
+        <v>2</v>
+      </c>
+      <c r="O313" s="2">
+        <v>4842000</v>
+      </c>
+      <c r="P313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A314" s="2">
+        <v>312</v>
+      </c>
+      <c r="B314" s="2">
+        <v>20</v>
+      </c>
+      <c r="C314" s="1">
+        <v>16</v>
+      </c>
+      <c r="D314" s="2">
+        <v>9</v>
+      </c>
+      <c r="E314" s="2">
+        <v>20</v>
+      </c>
+      <c r="F314" s="2">
+        <v>312</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314" s="2">
+        <v>482</v>
+      </c>
+      <c r="I314" t="s">
+        <v>13</v>
+      </c>
+      <c r="J314">
+        <v>1</v>
+      </c>
+      <c r="K314" s="2">
+        <f t="shared" si="23"/>
+        <v>634000</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+      <c r="M314" s="2">
+        <f t="shared" si="22"/>
+        <v>1268000</v>
+      </c>
+      <c r="N314">
+        <v>2</v>
+      </c>
+      <c r="O314" s="2">
+        <v>4850000</v>
+      </c>
+      <c r="P314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A315" s="2">
+        <v>313</v>
+      </c>
+      <c r="B315" s="2">
+        <v>20</v>
+      </c>
+      <c r="C315" s="1">
+        <v>16</v>
+      </c>
+      <c r="D315" s="2">
+        <v>9</v>
+      </c>
+      <c r="E315" s="2">
+        <v>20</v>
+      </c>
+      <c r="F315" s="2">
+        <v>313</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315" s="2">
+        <v>482</v>
+      </c>
+      <c r="I315" t="s">
+        <v>13</v>
+      </c>
+      <c r="J315">
+        <v>1</v>
+      </c>
+      <c r="K315" s="2">
+        <f t="shared" si="23"/>
+        <v>636000</v>
+      </c>
+      <c r="L315">
+        <v>1</v>
+      </c>
+      <c r="M315" s="2">
+        <f t="shared" si="22"/>
+        <v>1272000</v>
+      </c>
+      <c r="N315">
+        <v>2</v>
+      </c>
+      <c r="O315" s="2">
+        <v>4858000</v>
+      </c>
+      <c r="P315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A316" s="2">
+        <v>314</v>
+      </c>
+      <c r="B316" s="2">
+        <v>20</v>
+      </c>
+      <c r="C316" s="1">
+        <v>16</v>
+      </c>
+      <c r="D316" s="2">
+        <v>9</v>
+      </c>
+      <c r="E316" s="2">
+        <v>20</v>
+      </c>
+      <c r="F316" s="2">
+        <v>314</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316" s="2">
+        <v>482</v>
+      </c>
+      <c r="I316" t="s">
+        <v>13</v>
+      </c>
+      <c r="J316">
+        <v>1</v>
+      </c>
+      <c r="K316" s="2">
+        <f t="shared" si="23"/>
+        <v>638000</v>
+      </c>
+      <c r="L316">
+        <v>1</v>
+      </c>
+      <c r="M316" s="2">
+        <f t="shared" si="22"/>
+        <v>1276000</v>
+      </c>
+      <c r="N316">
+        <v>2</v>
+      </c>
+      <c r="O316" s="2">
+        <v>4866000</v>
+      </c>
+      <c r="P316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A317" s="2">
+        <v>315</v>
+      </c>
+      <c r="B317" s="2">
+        <v>20</v>
+      </c>
+      <c r="C317" s="1">
+        <v>16</v>
+      </c>
+      <c r="D317" s="2">
+        <v>9</v>
+      </c>
+      <c r="E317" s="2">
+        <v>20</v>
+      </c>
+      <c r="F317" s="2">
+        <v>315</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317" s="2">
+        <v>482</v>
+      </c>
+      <c r="I317" t="s">
+        <v>13</v>
+      </c>
+      <c r="J317">
+        <v>1</v>
+      </c>
+      <c r="K317" s="2">
+        <f t="shared" si="23"/>
+        <v>640000</v>
+      </c>
+      <c r="L317">
+        <v>1</v>
+      </c>
+      <c r="M317" s="2">
+        <f t="shared" si="22"/>
+        <v>1280000</v>
+      </c>
+      <c r="N317">
+        <v>2</v>
+      </c>
+      <c r="O317" s="2">
+        <v>4874000</v>
+      </c>
+      <c r="P317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A318" s="2">
+        <v>316</v>
+      </c>
+      <c r="B318" s="2">
+        <v>20</v>
+      </c>
+      <c r="C318" s="1">
+        <v>16</v>
+      </c>
+      <c r="D318" s="2">
+        <v>9</v>
+      </c>
+      <c r="E318" s="2">
+        <v>20</v>
+      </c>
+      <c r="F318" s="2">
+        <v>316</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318" s="2">
+        <v>482</v>
+      </c>
+      <c r="I318" t="s">
+        <v>13</v>
+      </c>
+      <c r="J318">
+        <v>1</v>
+      </c>
+      <c r="K318" s="2">
+        <f t="shared" si="23"/>
+        <v>642000</v>
+      </c>
+      <c r="L318">
+        <v>1</v>
+      </c>
+      <c r="M318" s="2">
+        <f t="shared" si="22"/>
+        <v>1284000</v>
+      </c>
+      <c r="N318">
+        <v>2</v>
+      </c>
+      <c r="O318" s="2">
+        <v>4882000</v>
+      </c>
+      <c r="P318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A319" s="2">
+        <v>317</v>
+      </c>
+      <c r="B319" s="2">
+        <v>20</v>
+      </c>
+      <c r="C319" s="1">
+        <v>16</v>
+      </c>
+      <c r="D319" s="2">
+        <v>9</v>
+      </c>
+      <c r="E319" s="2">
+        <v>20</v>
+      </c>
+      <c r="F319" s="2">
+        <v>317</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319" s="2">
+        <v>482</v>
+      </c>
+      <c r="I319" t="s">
+        <v>13</v>
+      </c>
+      <c r="J319">
+        <v>1</v>
+      </c>
+      <c r="K319" s="2">
+        <f t="shared" si="23"/>
+        <v>644000</v>
+      </c>
+      <c r="L319">
+        <v>1</v>
+      </c>
+      <c r="M319" s="2">
+        <f t="shared" si="22"/>
+        <v>1288000</v>
+      </c>
+      <c r="N319">
+        <v>2</v>
+      </c>
+      <c r="O319" s="2">
+        <v>4890000</v>
+      </c>
+      <c r="P319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A320" s="2">
+        <v>318</v>
+      </c>
+      <c r="B320" s="2">
+        <v>20</v>
+      </c>
+      <c r="C320" s="1">
+        <v>16</v>
+      </c>
+      <c r="D320" s="2">
+        <v>9</v>
+      </c>
+      <c r="E320" s="2">
+        <v>20</v>
+      </c>
+      <c r="F320" s="2">
+        <v>318</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320" s="2">
+        <v>482</v>
+      </c>
+      <c r="I320" t="s">
+        <v>13</v>
+      </c>
+      <c r="J320">
+        <v>1</v>
+      </c>
+      <c r="K320" s="2">
+        <f t="shared" si="23"/>
+        <v>646000</v>
+      </c>
+      <c r="L320">
+        <v>1</v>
+      </c>
+      <c r="M320" s="2">
+        <f t="shared" si="22"/>
+        <v>1292000</v>
+      </c>
+      <c r="N320">
+        <v>2</v>
+      </c>
+      <c r="O320" s="2">
+        <v>4898000</v>
+      </c>
+      <c r="P320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>319</v>
+      </c>
+      <c r="B321" s="2">
+        <v>20</v>
+      </c>
+      <c r="C321" s="1">
+        <v>16</v>
+      </c>
+      <c r="D321" s="2">
+        <v>9</v>
+      </c>
+      <c r="E321" s="2">
+        <v>20</v>
+      </c>
+      <c r="F321" s="2">
+        <v>319</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321" s="2">
+        <v>482</v>
+      </c>
+      <c r="I321" t="s">
+        <v>13</v>
+      </c>
+      <c r="J321">
+        <v>1</v>
+      </c>
+      <c r="K321" s="2">
+        <f t="shared" si="23"/>
+        <v>648000</v>
+      </c>
+      <c r="L321">
+        <v>1</v>
+      </c>
+      <c r="M321" s="2">
+        <f t="shared" si="22"/>
+        <v>1296000</v>
+      </c>
+      <c r="N321">
+        <v>2</v>
+      </c>
+      <c r="O321" s="2">
+        <v>4906000</v>
+      </c>
+      <c r="P321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A322" s="2">
+        <v>320</v>
+      </c>
+      <c r="B322" s="2">
+        <v>20</v>
+      </c>
+      <c r="C322" s="1">
+        <v>16</v>
+      </c>
+      <c r="D322" s="2">
+        <v>9</v>
+      </c>
+      <c r="E322" s="2">
+        <v>20</v>
+      </c>
+      <c r="F322" s="2">
+        <v>320</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322" s="2">
+        <v>482</v>
+      </c>
+      <c r="I322" t="s">
+        <v>13</v>
+      </c>
+      <c r="J322">
+        <v>1</v>
+      </c>
+      <c r="K322" s="2">
+        <f t="shared" si="23"/>
+        <v>650000</v>
+      </c>
+      <c r="L322">
+        <v>1</v>
+      </c>
+      <c r="M322" s="2">
+        <f t="shared" si="22"/>
+        <v>1300000</v>
+      </c>
+      <c r="N322">
+        <v>2</v>
+      </c>
+      <c r="O322" s="2">
+        <v>4914000</v>
+      </c>
+      <c r="P322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A323" s="2">
+        <v>321</v>
+      </c>
+      <c r="B323" s="2">
+        <v>20</v>
+      </c>
+      <c r="C323" s="1">
+        <v>16</v>
+      </c>
+      <c r="D323" s="2">
+        <v>9</v>
+      </c>
+      <c r="E323" s="2">
+        <v>20</v>
+      </c>
+      <c r="F323" s="2">
+        <v>321</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323" s="2">
+        <v>482</v>
+      </c>
+      <c r="I323" t="s">
+        <v>13</v>
+      </c>
+      <c r="J323">
+        <v>1</v>
+      </c>
+      <c r="K323" s="2">
+        <f t="shared" si="23"/>
+        <v>652000</v>
+      </c>
+      <c r="L323">
+        <v>1</v>
+      </c>
+      <c r="M323" s="2">
+        <f t="shared" si="22"/>
+        <v>1304000</v>
+      </c>
+      <c r="N323">
+        <v>2</v>
+      </c>
+      <c r="O323" s="2">
+        <v>4922000</v>
+      </c>
+      <c r="P323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A324" s="2">
+        <v>322</v>
+      </c>
+      <c r="B324" s="2">
+        <v>20</v>
+      </c>
+      <c r="C324" s="1">
+        <v>16</v>
+      </c>
+      <c r="D324" s="2">
+        <v>9</v>
+      </c>
+      <c r="E324" s="2">
+        <v>20</v>
+      </c>
+      <c r="F324" s="2">
+        <v>322</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324" s="2">
+        <v>482</v>
+      </c>
+      <c r="I324" t="s">
+        <v>13</v>
+      </c>
+      <c r="J324">
+        <v>1</v>
+      </c>
+      <c r="K324" s="2">
+        <f t="shared" si="23"/>
+        <v>654000</v>
+      </c>
+      <c r="L324">
+        <v>1</v>
+      </c>
+      <c r="M324" s="2">
+        <f t="shared" si="22"/>
+        <v>1308000</v>
+      </c>
+      <c r="N324">
+        <v>2</v>
+      </c>
+      <c r="O324" s="2">
+        <v>4930000</v>
+      </c>
+      <c r="P324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A325" s="2">
+        <v>323</v>
+      </c>
+      <c r="B325" s="2">
+        <v>20</v>
+      </c>
+      <c r="C325" s="1">
+        <v>16</v>
+      </c>
+      <c r="D325" s="2">
+        <v>9</v>
+      </c>
+      <c r="E325" s="2">
+        <v>20</v>
+      </c>
+      <c r="F325" s="2">
+        <v>323</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325" s="2">
+        <v>482</v>
+      </c>
+      <c r="I325" t="s">
+        <v>13</v>
+      </c>
+      <c r="J325">
+        <v>1</v>
+      </c>
+      <c r="K325" s="2">
+        <f t="shared" si="23"/>
+        <v>656000</v>
+      </c>
+      <c r="L325">
+        <v>1</v>
+      </c>
+      <c r="M325" s="2">
+        <f t="shared" si="22"/>
+        <v>1312000</v>
+      </c>
+      <c r="N325">
+        <v>2</v>
+      </c>
+      <c r="O325" s="2">
+        <v>4938000</v>
+      </c>
+      <c r="P325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A326" s="2">
+        <v>324</v>
+      </c>
+      <c r="B326" s="2">
+        <v>20</v>
+      </c>
+      <c r="C326" s="1">
+        <v>16</v>
+      </c>
+      <c r="D326" s="2">
+        <v>9</v>
+      </c>
+      <c r="E326" s="2">
+        <v>20</v>
+      </c>
+      <c r="F326" s="2">
+        <v>324</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326" s="2">
+        <v>482</v>
+      </c>
+      <c r="I326" t="s">
+        <v>13</v>
+      </c>
+      <c r="J326">
+        <v>1</v>
+      </c>
+      <c r="K326" s="2">
+        <f t="shared" si="23"/>
+        <v>658000</v>
+      </c>
+      <c r="L326">
+        <v>1</v>
+      </c>
+      <c r="M326" s="2">
+        <f t="shared" si="22"/>
+        <v>1316000</v>
+      </c>
+      <c r="N326">
+        <v>2</v>
+      </c>
+      <c r="O326" s="2">
+        <v>4946000</v>
+      </c>
+      <c r="P326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A327" s="2">
+        <v>325</v>
+      </c>
+      <c r="B327" s="2">
+        <v>20</v>
+      </c>
+      <c r="C327" s="1">
+        <v>16</v>
+      </c>
+      <c r="D327" s="2">
+        <v>9</v>
+      </c>
+      <c r="E327" s="2">
+        <v>20</v>
+      </c>
+      <c r="F327" s="2">
+        <v>325</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327" s="2">
+        <v>482</v>
+      </c>
+      <c r="I327" t="s">
+        <v>13</v>
+      </c>
+      <c r="J327">
+        <v>1</v>
+      </c>
+      <c r="K327" s="2">
+        <f t="shared" si="23"/>
+        <v>660000</v>
+      </c>
+      <c r="L327">
+        <v>1</v>
+      </c>
+      <c r="M327" s="2">
+        <f t="shared" si="22"/>
+        <v>1320000</v>
+      </c>
+      <c r="N327">
+        <v>2</v>
+      </c>
+      <c r="O327" s="2">
+        <v>4954000</v>
+      </c>
+      <c r="P327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A328" s="2">
+        <v>326</v>
+      </c>
+      <c r="B328" s="2">
+        <v>20</v>
+      </c>
+      <c r="C328" s="1">
+        <v>16</v>
+      </c>
+      <c r="D328" s="2">
+        <v>9</v>
+      </c>
+      <c r="E328" s="2">
+        <v>20</v>
+      </c>
+      <c r="F328" s="2">
+        <v>326</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328" s="2">
+        <v>482</v>
+      </c>
+      <c r="I328" t="s">
+        <v>13</v>
+      </c>
+      <c r="J328">
+        <v>1</v>
+      </c>
+      <c r="K328" s="2">
+        <f t="shared" si="23"/>
+        <v>662000</v>
+      </c>
+      <c r="L328">
+        <v>1</v>
+      </c>
+      <c r="M328" s="2">
+        <f t="shared" si="22"/>
+        <v>1324000</v>
+      </c>
+      <c r="N328">
+        <v>2</v>
+      </c>
+      <c r="O328" s="2">
+        <v>4962000</v>
+      </c>
+      <c r="P328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A329" s="2">
+        <v>327</v>
+      </c>
+      <c r="B329" s="2">
+        <v>20</v>
+      </c>
+      <c r="C329" s="1">
+        <v>16</v>
+      </c>
+      <c r="D329" s="2">
+        <v>9</v>
+      </c>
+      <c r="E329" s="2">
+        <v>20</v>
+      </c>
+      <c r="F329" s="2">
+        <v>327</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329" s="2">
+        <v>482</v>
+      </c>
+      <c r="I329" t="s">
+        <v>13</v>
+      </c>
+      <c r="J329">
+        <v>1</v>
+      </c>
+      <c r="K329" s="2">
+        <f t="shared" si="23"/>
+        <v>664000</v>
+      </c>
+      <c r="L329">
+        <v>1</v>
+      </c>
+      <c r="M329" s="2">
+        <f t="shared" si="22"/>
+        <v>1328000</v>
+      </c>
+      <c r="N329">
+        <v>2</v>
+      </c>
+      <c r="O329" s="2">
+        <v>4970000</v>
+      </c>
+      <c r="P329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A330" s="2">
+        <v>328</v>
+      </c>
+      <c r="B330" s="2">
+        <v>20</v>
+      </c>
+      <c r="C330" s="1">
+        <v>16</v>
+      </c>
+      <c r="D330" s="2">
+        <v>9</v>
+      </c>
+      <c r="E330" s="2">
+        <v>20</v>
+      </c>
+      <c r="F330" s="2">
+        <v>328</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330" s="2">
+        <v>482</v>
+      </c>
+      <c r="I330" t="s">
+        <v>13</v>
+      </c>
+      <c r="J330">
+        <v>1</v>
+      </c>
+      <c r="K330" s="2">
+        <f t="shared" si="23"/>
+        <v>666000</v>
+      </c>
+      <c r="L330">
+        <v>1</v>
+      </c>
+      <c r="M330" s="2">
+        <f t="shared" si="22"/>
+        <v>1332000</v>
+      </c>
+      <c r="N330">
+        <v>2</v>
+      </c>
+      <c r="O330" s="2">
+        <v>4978000</v>
+      </c>
+      <c r="P330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>329</v>
+      </c>
+      <c r="B331" s="2">
+        <v>20</v>
+      </c>
+      <c r="C331" s="1">
+        <v>16</v>
+      </c>
+      <c r="D331" s="2">
+        <v>9</v>
+      </c>
+      <c r="E331" s="2">
+        <v>20</v>
+      </c>
+      <c r="F331" s="2">
+        <v>329</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331" s="2">
+        <v>482</v>
+      </c>
+      <c r="I331" t="s">
+        <v>13</v>
+      </c>
+      <c r="J331">
+        <v>1</v>
+      </c>
+      <c r="K331" s="2">
+        <f t="shared" si="23"/>
+        <v>668000</v>
+      </c>
+      <c r="L331">
+        <v>1</v>
+      </c>
+      <c r="M331" s="2">
+        <f t="shared" si="22"/>
+        <v>1336000</v>
+      </c>
+      <c r="N331">
+        <v>2</v>
+      </c>
+      <c r="O331" s="2">
+        <v>4986000</v>
+      </c>
+      <c r="P331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A332" s="2">
+        <v>330</v>
+      </c>
+      <c r="B332" s="2">
+        <v>20</v>
+      </c>
+      <c r="C332" s="1">
+        <v>16</v>
+      </c>
+      <c r="D332" s="2">
+        <v>9</v>
+      </c>
+      <c r="E332" s="2">
+        <v>20</v>
+      </c>
+      <c r="F332" s="2">
+        <v>330</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332" s="2">
+        <v>482</v>
+      </c>
+      <c r="I332" t="s">
+        <v>13</v>
+      </c>
+      <c r="J332">
+        <v>1</v>
+      </c>
+      <c r="K332" s="2">
+        <f t="shared" si="23"/>
+        <v>670000</v>
+      </c>
+      <c r="L332">
+        <v>1</v>
+      </c>
+      <c r="M332" s="2">
+        <f t="shared" si="22"/>
+        <v>1340000</v>
+      </c>
+      <c r="N332">
+        <v>2</v>
+      </c>
+      <c r="O332" s="2">
+        <v>4994000</v>
+      </c>
+      <c r="P332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A333" s="2">
+        <v>331</v>
+      </c>
+      <c r="B333" s="2">
+        <v>20</v>
+      </c>
+      <c r="C333" s="1">
+        <v>16</v>
+      </c>
+      <c r="D333" s="2">
+        <v>9</v>
+      </c>
+      <c r="E333" s="2">
+        <v>20</v>
+      </c>
+      <c r="F333" s="2">
+        <v>331</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333" s="2">
+        <v>482</v>
+      </c>
+      <c r="I333" t="s">
+        <v>13</v>
+      </c>
+      <c r="J333">
+        <v>1</v>
+      </c>
+      <c r="K333" s="2">
+        <f t="shared" si="23"/>
+        <v>672000</v>
+      </c>
+      <c r="L333">
+        <v>1</v>
+      </c>
+      <c r="M333" s="2">
+        <f t="shared" si="22"/>
+        <v>1344000</v>
+      </c>
+      <c r="N333">
+        <v>2</v>
+      </c>
+      <c r="O333" s="2">
+        <v>5002000</v>
+      </c>
+      <c r="P333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A334" s="2">
+        <v>332</v>
+      </c>
+      <c r="B334" s="2">
+        <v>20</v>
+      </c>
+      <c r="C334" s="1">
+        <v>16</v>
+      </c>
+      <c r="D334" s="2">
+        <v>9</v>
+      </c>
+      <c r="E334" s="2">
+        <v>20</v>
+      </c>
+      <c r="F334" s="2">
+        <v>332</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334" s="2">
+        <v>482</v>
+      </c>
+      <c r="I334" t="s">
+        <v>13</v>
+      </c>
+      <c r="J334">
+        <v>1</v>
+      </c>
+      <c r="K334" s="2">
+        <f t="shared" si="23"/>
+        <v>674000</v>
+      </c>
+      <c r="L334">
+        <v>1</v>
+      </c>
+      <c r="M334" s="2">
+        <f t="shared" si="22"/>
+        <v>1348000</v>
+      </c>
+      <c r="N334">
+        <v>2</v>
+      </c>
+      <c r="O334" s="2">
+        <v>5010000</v>
+      </c>
+      <c r="P334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A335" s="2">
+        <v>333</v>
+      </c>
+      <c r="B335" s="2">
+        <v>20</v>
+      </c>
+      <c r="C335" s="1">
+        <v>16</v>
+      </c>
+      <c r="D335" s="2">
+        <v>9</v>
+      </c>
+      <c r="E335" s="2">
+        <v>20</v>
+      </c>
+      <c r="F335" s="2">
+        <v>333</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335" s="2">
+        <v>482</v>
+      </c>
+      <c r="I335" t="s">
+        <v>13</v>
+      </c>
+      <c r="J335">
+        <v>1</v>
+      </c>
+      <c r="K335" s="2">
+        <f t="shared" si="23"/>
+        <v>676000</v>
+      </c>
+      <c r="L335">
+        <v>1</v>
+      </c>
+      <c r="M335" s="2">
+        <f t="shared" si="22"/>
+        <v>1352000</v>
+      </c>
+      <c r="N335">
+        <v>2</v>
+      </c>
+      <c r="O335" s="2">
+        <v>5018000</v>
+      </c>
+      <c r="P335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A336" s="2">
+        <v>334</v>
+      </c>
+      <c r="B336" s="2">
+        <v>20</v>
+      </c>
+      <c r="C336" s="1">
+        <v>16</v>
+      </c>
+      <c r="D336" s="2">
+        <v>9</v>
+      </c>
+      <c r="E336" s="2">
+        <v>20</v>
+      </c>
+      <c r="F336" s="2">
+        <v>334</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336" s="2">
+        <v>482</v>
+      </c>
+      <c r="I336" t="s">
+        <v>13</v>
+      </c>
+      <c r="J336">
+        <v>1</v>
+      </c>
+      <c r="K336" s="2">
+        <f t="shared" si="23"/>
+        <v>678000</v>
+      </c>
+      <c r="L336">
+        <v>1</v>
+      </c>
+      <c r="M336" s="2">
+        <f t="shared" si="22"/>
+        <v>1356000</v>
+      </c>
+      <c r="N336">
+        <v>2</v>
+      </c>
+      <c r="O336" s="2">
+        <v>5026000</v>
+      </c>
+      <c r="P336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A337" s="2">
+        <v>335</v>
+      </c>
+      <c r="B337" s="2">
+        <v>20</v>
+      </c>
+      <c r="C337" s="1">
+        <v>16</v>
+      </c>
+      <c r="D337" s="2">
+        <v>9</v>
+      </c>
+      <c r="E337" s="2">
+        <v>20</v>
+      </c>
+      <c r="F337" s="2">
+        <v>335</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="H337" s="2">
+        <v>482</v>
+      </c>
+      <c r="I337" t="s">
+        <v>13</v>
+      </c>
+      <c r="J337">
+        <v>1</v>
+      </c>
+      <c r="K337" s="2">
+        <f t="shared" si="23"/>
+        <v>680000</v>
+      </c>
+      <c r="L337">
+        <v>1</v>
+      </c>
+      <c r="M337" s="2">
+        <f t="shared" si="22"/>
+        <v>1360000</v>
+      </c>
+      <c r="N337">
+        <v>2</v>
+      </c>
+      <c r="O337" s="2">
+        <v>5034000</v>
+      </c>
+      <c r="P337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A338" s="2">
+        <v>336</v>
+      </c>
+      <c r="B338" s="2">
+        <v>20</v>
+      </c>
+      <c r="C338" s="1">
+        <v>16</v>
+      </c>
+      <c r="D338" s="2">
+        <v>9</v>
+      </c>
+      <c r="E338" s="2">
+        <v>20</v>
+      </c>
+      <c r="F338" s="2">
+        <v>336</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338" s="2">
+        <v>482</v>
+      </c>
+      <c r="I338" t="s">
+        <v>13</v>
+      </c>
+      <c r="J338">
+        <v>1</v>
+      </c>
+      <c r="K338" s="2">
+        <f t="shared" si="23"/>
+        <v>682000</v>
+      </c>
+      <c r="L338">
+        <v>1</v>
+      </c>
+      <c r="M338" s="2">
+        <f t="shared" si="22"/>
+        <v>1364000</v>
+      </c>
+      <c r="N338">
+        <v>2</v>
+      </c>
+      <c r="O338" s="2">
+        <v>5042000</v>
+      </c>
+      <c r="P338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A339" s="2">
+        <v>337</v>
+      </c>
+      <c r="B339" s="2">
+        <v>20</v>
+      </c>
+      <c r="C339" s="1">
+        <v>16</v>
+      </c>
+      <c r="D339" s="2">
+        <v>9</v>
+      </c>
+      <c r="E339" s="2">
+        <v>20</v>
+      </c>
+      <c r="F339" s="2">
+        <v>337</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="H339" s="2">
+        <v>482</v>
+      </c>
+      <c r="I339" t="s">
+        <v>13</v>
+      </c>
+      <c r="J339">
+        <v>1</v>
+      </c>
+      <c r="K339" s="2">
+        <f t="shared" si="23"/>
+        <v>684000</v>
+      </c>
+      <c r="L339">
+        <v>1</v>
+      </c>
+      <c r="M339" s="2">
+        <f t="shared" si="22"/>
+        <v>1368000</v>
+      </c>
+      <c r="N339">
+        <v>2</v>
+      </c>
+      <c r="O339" s="2">
+        <v>5050000</v>
+      </c>
+      <c r="P339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A340" s="2">
+        <v>338</v>
+      </c>
+      <c r="B340" s="2">
+        <v>20</v>
+      </c>
+      <c r="C340" s="1">
+        <v>16</v>
+      </c>
+      <c r="D340" s="2">
+        <v>9</v>
+      </c>
+      <c r="E340" s="2">
+        <v>20</v>
+      </c>
+      <c r="F340" s="2">
+        <v>338</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+      <c r="H340" s="2">
+        <v>482</v>
+      </c>
+      <c r="I340" t="s">
+        <v>13</v>
+      </c>
+      <c r="J340">
+        <v>1</v>
+      </c>
+      <c r="K340" s="2">
+        <f t="shared" si="23"/>
+        <v>686000</v>
+      </c>
+      <c r="L340">
+        <v>1</v>
+      </c>
+      <c r="M340" s="2">
+        <f t="shared" si="22"/>
+        <v>1372000</v>
+      </c>
+      <c r="N340">
+        <v>2</v>
+      </c>
+      <c r="O340" s="2">
+        <v>5058000</v>
+      </c>
+      <c r="P340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A341" s="2">
+        <v>339</v>
+      </c>
+      <c r="B341" s="2">
+        <v>20</v>
+      </c>
+      <c r="C341" s="1">
+        <v>16</v>
+      </c>
+      <c r="D341" s="2">
+        <v>9</v>
+      </c>
+      <c r="E341" s="2">
+        <v>20</v>
+      </c>
+      <c r="F341" s="2">
+        <v>339</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+      <c r="H341" s="2">
+        <v>482</v>
+      </c>
+      <c r="I341" t="s">
+        <v>13</v>
+      </c>
+      <c r="J341">
+        <v>1</v>
+      </c>
+      <c r="K341" s="2">
+        <f t="shared" si="23"/>
+        <v>688000</v>
+      </c>
+      <c r="L341">
+        <v>1</v>
+      </c>
+      <c r="M341" s="2">
+        <f t="shared" si="22"/>
+        <v>1376000</v>
+      </c>
+      <c r="N341">
+        <v>2</v>
+      </c>
+      <c r="O341" s="2">
+        <v>5066000</v>
+      </c>
+      <c r="P341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A342" s="2">
+        <v>340</v>
+      </c>
+      <c r="B342" s="2">
+        <v>20</v>
+      </c>
+      <c r="C342" s="1">
+        <v>16</v>
+      </c>
+      <c r="D342" s="2">
+        <v>9</v>
+      </c>
+      <c r="E342" s="2">
+        <v>20</v>
+      </c>
+      <c r="F342" s="2">
+        <v>340</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+      <c r="H342" s="2">
+        <v>482</v>
+      </c>
+      <c r="I342" t="s">
+        <v>13</v>
+      </c>
+      <c r="J342">
+        <v>1</v>
+      </c>
+      <c r="K342" s="2">
+        <f t="shared" si="23"/>
+        <v>690000</v>
+      </c>
+      <c r="L342">
+        <v>1</v>
+      </c>
+      <c r="M342" s="2">
+        <f t="shared" si="22"/>
+        <v>1380000</v>
+      </c>
+      <c r="N342">
+        <v>2</v>
+      </c>
+      <c r="O342" s="2">
+        <v>5074000</v>
+      </c>
+      <c r="P342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A343" s="2">
+        <v>341</v>
+      </c>
+      <c r="B343" s="2">
+        <v>20</v>
+      </c>
+      <c r="C343" s="1">
+        <v>16</v>
+      </c>
+      <c r="D343" s="2">
+        <v>9</v>
+      </c>
+      <c r="E343" s="2">
+        <v>20</v>
+      </c>
+      <c r="F343" s="2">
+        <v>341</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+      <c r="H343" s="2">
+        <v>482</v>
+      </c>
+      <c r="I343" t="s">
+        <v>13</v>
+      </c>
+      <c r="J343">
+        <v>1</v>
+      </c>
+      <c r="K343" s="2">
+        <f t="shared" si="23"/>
+        <v>692000</v>
+      </c>
+      <c r="L343">
+        <v>1</v>
+      </c>
+      <c r="M343" s="2">
+        <f t="shared" si="22"/>
+        <v>1384000</v>
+      </c>
+      <c r="N343">
+        <v>2</v>
+      </c>
+      <c r="O343" s="2">
+        <v>5082000</v>
+      </c>
+      <c r="P343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A344" s="2">
+        <v>342</v>
+      </c>
+      <c r="B344" s="2">
+        <v>20</v>
+      </c>
+      <c r="C344" s="1">
+        <v>16</v>
+      </c>
+      <c r="D344" s="2">
+        <v>9</v>
+      </c>
+      <c r="E344" s="2">
+        <v>20</v>
+      </c>
+      <c r="F344" s="2">
+        <v>342</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+      <c r="H344" s="2">
+        <v>482</v>
+      </c>
+      <c r="I344" t="s">
+        <v>13</v>
+      </c>
+      <c r="J344">
+        <v>1</v>
+      </c>
+      <c r="K344" s="2">
+        <f t="shared" si="23"/>
+        <v>694000</v>
+      </c>
+      <c r="L344">
+        <v>1</v>
+      </c>
+      <c r="M344" s="2">
+        <f t="shared" si="22"/>
+        <v>1388000</v>
+      </c>
+      <c r="N344">
+        <v>2</v>
+      </c>
+      <c r="O344" s="2">
+        <v>5090000</v>
+      </c>
+      <c r="P344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A345" s="2">
+        <v>343</v>
+      </c>
+      <c r="B345" s="2">
+        <v>20</v>
+      </c>
+      <c r="C345" s="1">
+        <v>16</v>
+      </c>
+      <c r="D345" s="2">
+        <v>9</v>
+      </c>
+      <c r="E345" s="2">
+        <v>20</v>
+      </c>
+      <c r="F345" s="2">
+        <v>343</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+      <c r="H345" s="2">
+        <v>482</v>
+      </c>
+      <c r="I345" t="s">
+        <v>13</v>
+      </c>
+      <c r="J345">
+        <v>1</v>
+      </c>
+      <c r="K345" s="2">
+        <f t="shared" si="23"/>
+        <v>696000</v>
+      </c>
+      <c r="L345">
+        <v>1</v>
+      </c>
+      <c r="M345" s="2">
+        <f t="shared" si="22"/>
+        <v>1392000</v>
+      </c>
+      <c r="N345">
+        <v>2</v>
+      </c>
+      <c r="O345" s="2">
+        <v>5098000</v>
+      </c>
+      <c r="P345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A346" s="2">
+        <v>344</v>
+      </c>
+      <c r="B346" s="2">
+        <v>20</v>
+      </c>
+      <c r="C346" s="1">
+        <v>16</v>
+      </c>
+      <c r="D346" s="2">
+        <v>9</v>
+      </c>
+      <c r="E346" s="2">
+        <v>20</v>
+      </c>
+      <c r="F346" s="2">
+        <v>344</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+      <c r="H346" s="2">
+        <v>482</v>
+      </c>
+      <c r="I346" t="s">
+        <v>13</v>
+      </c>
+      <c r="J346">
+        <v>1</v>
+      </c>
+      <c r="K346" s="2">
+        <f t="shared" si="23"/>
+        <v>698000</v>
+      </c>
+      <c r="L346">
+        <v>1</v>
+      </c>
+      <c r="M346" s="2">
+        <f t="shared" si="22"/>
+        <v>1396000</v>
+      </c>
+      <c r="N346">
+        <v>2</v>
+      </c>
+      <c r="O346" s="2">
+        <v>5106000</v>
+      </c>
+      <c r="P346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A347" s="2">
+        <v>345</v>
+      </c>
+      <c r="B347" s="2">
+        <v>20</v>
+      </c>
+      <c r="C347" s="1">
+        <v>16</v>
+      </c>
+      <c r="D347" s="2">
+        <v>9</v>
+      </c>
+      <c r="E347" s="2">
+        <v>20</v>
+      </c>
+      <c r="F347" s="2">
+        <v>345</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="H347" s="2">
+        <v>482</v>
+      </c>
+      <c r="I347" t="s">
+        <v>13</v>
+      </c>
+      <c r="J347">
+        <v>1</v>
+      </c>
+      <c r="K347" s="2">
+        <f t="shared" si="23"/>
+        <v>700000</v>
+      </c>
+      <c r="L347">
+        <v>1</v>
+      </c>
+      <c r="M347" s="2">
+        <f t="shared" si="22"/>
+        <v>1400000</v>
+      </c>
+      <c r="N347">
+        <v>2</v>
+      </c>
+      <c r="O347" s="2">
+        <v>5114000</v>
+      </c>
+      <c r="P347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A348" s="2">
+        <v>346</v>
+      </c>
+      <c r="B348" s="2">
+        <v>20</v>
+      </c>
+      <c r="C348" s="1">
+        <v>16</v>
+      </c>
+      <c r="D348" s="2">
+        <v>9</v>
+      </c>
+      <c r="E348" s="2">
+        <v>20</v>
+      </c>
+      <c r="F348" s="2">
+        <v>346</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+      <c r="H348" s="2">
+        <v>482</v>
+      </c>
+      <c r="I348" t="s">
+        <v>13</v>
+      </c>
+      <c r="J348">
+        <v>1</v>
+      </c>
+      <c r="K348" s="2">
+        <f t="shared" si="23"/>
+        <v>702000</v>
+      </c>
+      <c r="L348">
+        <v>1</v>
+      </c>
+      <c r="M348" s="2">
+        <f t="shared" si="22"/>
+        <v>1404000</v>
+      </c>
+      <c r="N348">
+        <v>2</v>
+      </c>
+      <c r="O348" s="2">
+        <v>5122000</v>
+      </c>
+      <c r="P348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A349" s="2">
+        <v>347</v>
+      </c>
+      <c r="B349" s="2">
+        <v>20</v>
+      </c>
+      <c r="C349" s="1">
+        <v>16</v>
+      </c>
+      <c r="D349" s="2">
+        <v>9</v>
+      </c>
+      <c r="E349" s="2">
+        <v>20</v>
+      </c>
+      <c r="F349" s="2">
+        <v>347</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+      <c r="H349" s="2">
+        <v>482</v>
+      </c>
+      <c r="I349" t="s">
+        <v>13</v>
+      </c>
+      <c r="J349">
+        <v>1</v>
+      </c>
+      <c r="K349" s="2">
+        <f t="shared" si="23"/>
+        <v>704000</v>
+      </c>
+      <c r="L349">
+        <v>1</v>
+      </c>
+      <c r="M349" s="2">
+        <f t="shared" si="22"/>
+        <v>1408000</v>
+      </c>
+      <c r="N349">
+        <v>2</v>
+      </c>
+      <c r="O349" s="2">
+        <v>5130000</v>
+      </c>
+      <c r="P349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A350" s="2">
+        <v>348</v>
+      </c>
+      <c r="B350" s="2">
+        <v>20</v>
+      </c>
+      <c r="C350" s="1">
+        <v>16</v>
+      </c>
+      <c r="D350" s="2">
+        <v>9</v>
+      </c>
+      <c r="E350" s="2">
+        <v>20</v>
+      </c>
+      <c r="F350" s="2">
+        <v>348</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+      <c r="H350" s="2">
+        <v>482</v>
+      </c>
+      <c r="I350" t="s">
+        <v>13</v>
+      </c>
+      <c r="J350">
+        <v>1</v>
+      </c>
+      <c r="K350" s="2">
+        <f t="shared" si="23"/>
+        <v>706000</v>
+      </c>
+      <c r="L350">
+        <v>1</v>
+      </c>
+      <c r="M350" s="2">
+        <f t="shared" si="22"/>
+        <v>1412000</v>
+      </c>
+      <c r="N350">
+        <v>2</v>
+      </c>
+      <c r="O350" s="2">
+        <v>5138000</v>
+      </c>
+      <c r="P350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A351" s="2">
+        <v>349</v>
+      </c>
+      <c r="B351" s="2">
+        <v>20</v>
+      </c>
+      <c r="C351" s="1">
+        <v>16</v>
+      </c>
+      <c r="D351" s="2">
+        <v>9</v>
+      </c>
+      <c r="E351" s="2">
+        <v>20</v>
+      </c>
+      <c r="F351" s="2">
+        <v>349</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+      <c r="H351" s="2">
+        <v>482</v>
+      </c>
+      <c r="I351" t="s">
+        <v>13</v>
+      </c>
+      <c r="J351">
+        <v>1</v>
+      </c>
+      <c r="K351" s="2">
+        <f t="shared" si="23"/>
+        <v>708000</v>
+      </c>
+      <c r="L351">
+        <v>1</v>
+      </c>
+      <c r="M351" s="2">
+        <f t="shared" si="22"/>
+        <v>1416000</v>
+      </c>
+      <c r="N351">
+        <v>2</v>
+      </c>
+      <c r="O351" s="2">
+        <v>5146000</v>
+      </c>
+      <c r="P351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A352" s="2">
+        <v>350</v>
+      </c>
+      <c r="B352" s="2">
+        <v>20</v>
+      </c>
+      <c r="C352" s="1">
+        <v>16</v>
+      </c>
+      <c r="D352" s="2">
+        <v>9</v>
+      </c>
+      <c r="E352" s="2">
+        <v>20</v>
+      </c>
+      <c r="F352" s="2">
+        <v>350</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352" s="2">
+        <v>482</v>
+      </c>
+      <c r="I352" t="s">
+        <v>13</v>
+      </c>
+      <c r="J352">
+        <v>1</v>
+      </c>
+      <c r="K352" s="2">
+        <f t="shared" si="23"/>
+        <v>710000</v>
+      </c>
+      <c r="L352">
+        <v>1</v>
+      </c>
+      <c r="M352" s="2">
+        <f t="shared" si="22"/>
+        <v>1420000</v>
+      </c>
+      <c r="N352">
+        <v>2</v>
+      </c>
+      <c r="O352" s="2">
+        <v>5154000</v>
+      </c>
+      <c r="P352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A353" s="2">
+        <v>351</v>
+      </c>
+      <c r="B353" s="2">
+        <v>20</v>
+      </c>
+      <c r="C353" s="1">
+        <v>16</v>
+      </c>
+      <c r="D353" s="2">
+        <v>9</v>
+      </c>
+      <c r="E353" s="2">
+        <v>20</v>
+      </c>
+      <c r="F353" s="2">
+        <v>351</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+      <c r="H353" s="2">
+        <v>482</v>
+      </c>
+      <c r="I353" t="s">
+        <v>13</v>
+      </c>
+      <c r="J353">
+        <v>1</v>
+      </c>
+      <c r="K353" s="2">
+        <f t="shared" si="23"/>
+        <v>712000</v>
+      </c>
+      <c r="L353">
+        <v>1</v>
+      </c>
+      <c r="M353" s="2">
+        <f t="shared" si="22"/>
+        <v>1424000</v>
+      </c>
+      <c r="N353">
+        <v>2</v>
+      </c>
+      <c r="O353" s="2">
+        <v>5162000</v>
+      </c>
+      <c r="P353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A354" s="2">
+        <v>352</v>
+      </c>
+      <c r="B354" s="2">
+        <v>20</v>
+      </c>
+      <c r="C354" s="1">
+        <v>16</v>
+      </c>
+      <c r="D354" s="2">
+        <v>9</v>
+      </c>
+      <c r="E354" s="2">
+        <v>20</v>
+      </c>
+      <c r="F354" s="2">
+        <v>352</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+      <c r="H354" s="2">
+        <v>482</v>
+      </c>
+      <c r="I354" t="s">
+        <v>13</v>
+      </c>
+      <c r="J354">
+        <v>1</v>
+      </c>
+      <c r="K354" s="2">
+        <f t="shared" si="23"/>
+        <v>714000</v>
+      </c>
+      <c r="L354">
+        <v>1</v>
+      </c>
+      <c r="M354" s="2">
+        <f t="shared" si="22"/>
+        <v>1428000</v>
+      </c>
+      <c r="N354">
+        <v>2</v>
+      </c>
+      <c r="O354" s="2">
+        <v>5170000</v>
+      </c>
+      <c r="P354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A355" s="2">
+        <v>353</v>
+      </c>
+      <c r="B355" s="2">
+        <v>20</v>
+      </c>
+      <c r="C355" s="1">
+        <v>16</v>
+      </c>
+      <c r="D355" s="2">
+        <v>9</v>
+      </c>
+      <c r="E355" s="2">
+        <v>20</v>
+      </c>
+      <c r="F355" s="2">
+        <v>353</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+      <c r="H355" s="2">
+        <v>482</v>
+      </c>
+      <c r="I355" t="s">
+        <v>13</v>
+      </c>
+      <c r="J355">
+        <v>1</v>
+      </c>
+      <c r="K355" s="2">
+        <f t="shared" si="23"/>
+        <v>716000</v>
+      </c>
+      <c r="L355">
+        <v>1</v>
+      </c>
+      <c r="M355" s="2">
+        <f t="shared" si="22"/>
+        <v>1432000</v>
+      </c>
+      <c r="N355">
+        <v>2</v>
+      </c>
+      <c r="O355" s="2">
+        <v>5178000</v>
+      </c>
+      <c r="P355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A356" s="2">
+        <v>354</v>
+      </c>
+      <c r="B356" s="2">
+        <v>20</v>
+      </c>
+      <c r="C356" s="1">
+        <v>16</v>
+      </c>
+      <c r="D356" s="2">
+        <v>9</v>
+      </c>
+      <c r="E356" s="2">
+        <v>20</v>
+      </c>
+      <c r="F356" s="2">
+        <v>354</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+      <c r="H356" s="2">
+        <v>482</v>
+      </c>
+      <c r="I356" t="s">
+        <v>13</v>
+      </c>
+      <c r="J356">
+        <v>1</v>
+      </c>
+      <c r="K356" s="2">
+        <f t="shared" si="23"/>
+        <v>718000</v>
+      </c>
+      <c r="L356">
+        <v>1</v>
+      </c>
+      <c r="M356" s="2">
+        <f t="shared" si="22"/>
+        <v>1436000</v>
+      </c>
+      <c r="N356">
+        <v>2</v>
+      </c>
+      <c r="O356" s="2">
+        <v>5186000</v>
+      </c>
+      <c r="P356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A357" s="2">
+        <v>355</v>
+      </c>
+      <c r="B357" s="2">
+        <v>20</v>
+      </c>
+      <c r="C357" s="1">
+        <v>16</v>
+      </c>
+      <c r="D357" s="2">
+        <v>9</v>
+      </c>
+      <c r="E357" s="2">
+        <v>20</v>
+      </c>
+      <c r="F357" s="2">
+        <v>355</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+      <c r="H357" s="2">
+        <v>482</v>
+      </c>
+      <c r="I357" t="s">
+        <v>13</v>
+      </c>
+      <c r="J357">
+        <v>1</v>
+      </c>
+      <c r="K357" s="2">
+        <f t="shared" si="23"/>
+        <v>720000</v>
+      </c>
+      <c r="L357">
+        <v>1</v>
+      </c>
+      <c r="M357" s="2">
+        <f t="shared" si="22"/>
+        <v>1440000</v>
+      </c>
+      <c r="N357">
+        <v>2</v>
+      </c>
+      <c r="O357" s="2">
+        <v>5194000</v>
+      </c>
+      <c r="P357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A358" s="2">
+        <v>356</v>
+      </c>
+      <c r="B358" s="2">
+        <v>20</v>
+      </c>
+      <c r="C358" s="1">
+        <v>16</v>
+      </c>
+      <c r="D358" s="2">
+        <v>9</v>
+      </c>
+      <c r="E358" s="2">
+        <v>20</v>
+      </c>
+      <c r="F358" s="2">
+        <v>356</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358" s="2">
+        <v>482</v>
+      </c>
+      <c r="I358" t="s">
+        <v>13</v>
+      </c>
+      <c r="J358">
+        <v>1</v>
+      </c>
+      <c r="K358" s="2">
+        <f t="shared" si="23"/>
+        <v>722000</v>
+      </c>
+      <c r="L358">
+        <v>1</v>
+      </c>
+      <c r="M358" s="2">
+        <f t="shared" si="22"/>
+        <v>1444000</v>
+      </c>
+      <c r="N358">
+        <v>2</v>
+      </c>
+      <c r="O358" s="2">
+        <v>5202000</v>
+      </c>
+      <c r="P358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A359" s="2">
+        <v>357</v>
+      </c>
+      <c r="B359" s="2">
+        <v>20</v>
+      </c>
+      <c r="C359" s="1">
+        <v>16</v>
+      </c>
+      <c r="D359" s="2">
+        <v>9</v>
+      </c>
+      <c r="E359" s="2">
+        <v>20</v>
+      </c>
+      <c r="F359" s="2">
+        <v>357</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359" s="2">
+        <v>482</v>
+      </c>
+      <c r="I359" t="s">
+        <v>13</v>
+      </c>
+      <c r="J359">
+        <v>1</v>
+      </c>
+      <c r="K359" s="2">
+        <f t="shared" si="23"/>
+        <v>724000</v>
+      </c>
+      <c r="L359">
+        <v>1</v>
+      </c>
+      <c r="M359" s="2">
+        <f t="shared" si="22"/>
+        <v>1448000</v>
+      </c>
+      <c r="N359">
+        <v>2</v>
+      </c>
+      <c r="O359" s="2">
+        <v>5210000</v>
+      </c>
+      <c r="P359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A360" s="2">
+        <v>358</v>
+      </c>
+      <c r="B360" s="2">
+        <v>20</v>
+      </c>
+      <c r="C360" s="1">
+        <v>16</v>
+      </c>
+      <c r="D360" s="2">
+        <v>9</v>
+      </c>
+      <c r="E360" s="2">
+        <v>20</v>
+      </c>
+      <c r="F360" s="2">
+        <v>358</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360" s="2">
+        <v>482</v>
+      </c>
+      <c r="I360" t="s">
+        <v>13</v>
+      </c>
+      <c r="J360">
+        <v>1</v>
+      </c>
+      <c r="K360" s="2">
+        <f t="shared" si="23"/>
+        <v>726000</v>
+      </c>
+      <c r="L360">
+        <v>1</v>
+      </c>
+      <c r="M360" s="2">
+        <f t="shared" si="22"/>
+        <v>1452000</v>
+      </c>
+      <c r="N360">
+        <v>2</v>
+      </c>
+      <c r="O360" s="2">
+        <v>5218000</v>
+      </c>
+      <c r="P360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A361" s="2">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2">
+        <v>20</v>
+      </c>
+      <c r="C361" s="1">
+        <v>16</v>
+      </c>
+      <c r="D361" s="2">
+        <v>9</v>
+      </c>
+      <c r="E361" s="2">
+        <v>20</v>
+      </c>
+      <c r="F361" s="2">
+        <v>359</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361" s="2">
+        <v>482</v>
+      </c>
+      <c r="I361" t="s">
+        <v>13</v>
+      </c>
+      <c r="J361">
+        <v>1</v>
+      </c>
+      <c r="K361" s="2">
+        <f t="shared" si="23"/>
+        <v>728000</v>
+      </c>
+      <c r="L361">
+        <v>1</v>
+      </c>
+      <c r="M361" s="2">
+        <f t="shared" si="22"/>
+        <v>1456000</v>
+      </c>
+      <c r="N361">
+        <v>2</v>
+      </c>
+      <c r="O361" s="2">
+        <v>5226000</v>
+      </c>
+      <c r="P361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A362" s="2">
+        <v>360</v>
+      </c>
+      <c r="B362" s="2">
+        <v>20</v>
+      </c>
+      <c r="C362" s="1">
+        <v>16</v>
+      </c>
+      <c r="D362" s="2">
+        <v>9</v>
+      </c>
+      <c r="E362" s="2">
+        <v>20</v>
+      </c>
+      <c r="F362" s="2">
+        <v>360</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362" s="2">
+        <v>482</v>
+      </c>
+      <c r="I362" t="s">
+        <v>13</v>
+      </c>
+      <c r="J362">
+        <v>1</v>
+      </c>
+      <c r="K362" s="2">
+        <f t="shared" si="23"/>
+        <v>730000</v>
+      </c>
+      <c r="L362">
+        <v>1</v>
+      </c>
+      <c r="M362" s="2">
+        <f t="shared" si="22"/>
+        <v>1460000</v>
+      </c>
+      <c r="N362">
+        <v>2</v>
+      </c>
+      <c r="O362" s="2">
+        <v>5234000</v>
+      </c>
+      <c r="P362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A363" s="2">
+        <v>361</v>
+      </c>
+      <c r="B363" s="2">
+        <v>20</v>
+      </c>
+      <c r="C363" s="1">
+        <v>16</v>
+      </c>
+      <c r="D363" s="2">
+        <v>9</v>
+      </c>
+      <c r="E363" s="2">
+        <v>20</v>
+      </c>
+      <c r="F363" s="2">
+        <v>361</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363" s="2">
+        <v>482</v>
+      </c>
+      <c r="I363" t="s">
+        <v>13</v>
+      </c>
+      <c r="J363">
+        <v>1</v>
+      </c>
+      <c r="K363" s="2">
+        <f t="shared" si="23"/>
+        <v>732000</v>
+      </c>
+      <c r="L363">
+        <v>1</v>
+      </c>
+      <c r="M363" s="2">
+        <f t="shared" si="22"/>
+        <v>1464000</v>
+      </c>
+      <c r="N363">
+        <v>2</v>
+      </c>
+      <c r="O363" s="2">
+        <v>5242000</v>
+      </c>
+      <c r="P363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A364" s="2">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2">
+        <v>20</v>
+      </c>
+      <c r="C364" s="1">
+        <v>16</v>
+      </c>
+      <c r="D364" s="2">
+        <v>9</v>
+      </c>
+      <c r="E364" s="2">
+        <v>20</v>
+      </c>
+      <c r="F364" s="2">
+        <v>362</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364" s="2">
+        <v>482</v>
+      </c>
+      <c r="I364" t="s">
+        <v>13</v>
+      </c>
+      <c r="J364">
+        <v>1</v>
+      </c>
+      <c r="K364" s="2">
+        <f t="shared" si="23"/>
+        <v>734000</v>
+      </c>
+      <c r="L364">
+        <v>1</v>
+      </c>
+      <c r="M364" s="2">
+        <f t="shared" si="22"/>
+        <v>1468000</v>
+      </c>
+      <c r="N364">
+        <v>2</v>
+      </c>
+      <c r="O364" s="2">
+        <v>5250000</v>
+      </c>
+      <c r="P364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A365" s="2">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2">
+        <v>20</v>
+      </c>
+      <c r="C365" s="1">
+        <v>16</v>
+      </c>
+      <c r="D365" s="2">
+        <v>9</v>
+      </c>
+      <c r="E365" s="2">
+        <v>20</v>
+      </c>
+      <c r="F365" s="2">
+        <v>363</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+      <c r="H365" s="2">
+        <v>482</v>
+      </c>
+      <c r="I365" t="s">
+        <v>13</v>
+      </c>
+      <c r="J365">
+        <v>1</v>
+      </c>
+      <c r="K365" s="2">
+        <f t="shared" si="23"/>
+        <v>736000</v>
+      </c>
+      <c r="L365">
+        <v>1</v>
+      </c>
+      <c r="M365" s="2">
+        <f t="shared" si="22"/>
+        <v>1472000</v>
+      </c>
+      <c r="N365">
+        <v>2</v>
+      </c>
+      <c r="O365" s="2">
+        <v>5258000</v>
+      </c>
+      <c r="P365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A366" s="2">
+        <v>364</v>
+      </c>
+      <c r="B366" s="2">
+        <v>20</v>
+      </c>
+      <c r="C366" s="1">
+        <v>16</v>
+      </c>
+      <c r="D366" s="2">
+        <v>9</v>
+      </c>
+      <c r="E366" s="2">
+        <v>20</v>
+      </c>
+      <c r="F366" s="2">
+        <v>364</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+      <c r="H366" s="2">
+        <v>482</v>
+      </c>
+      <c r="I366" t="s">
+        <v>13</v>
+      </c>
+      <c r="J366">
+        <v>1</v>
+      </c>
+      <c r="K366" s="2">
+        <f t="shared" si="23"/>
+        <v>738000</v>
+      </c>
+      <c r="L366">
+        <v>1</v>
+      </c>
+      <c r="M366" s="2">
+        <f t="shared" ref="M366:M402" si="24">K366*2</f>
+        <v>1476000</v>
+      </c>
+      <c r="N366">
+        <v>2</v>
+      </c>
+      <c r="O366" s="2">
+        <v>5266000</v>
+      </c>
+      <c r="P366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A367" s="2">
+        <v>365</v>
+      </c>
+      <c r="B367" s="2">
+        <v>20</v>
+      </c>
+      <c r="C367" s="1">
+        <v>16</v>
+      </c>
+      <c r="D367" s="2">
+        <v>9</v>
+      </c>
+      <c r="E367" s="2">
+        <v>20</v>
+      </c>
+      <c r="F367" s="2">
+        <v>365</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+      <c r="H367" s="2">
+        <v>482</v>
+      </c>
+      <c r="I367" t="s">
+        <v>13</v>
+      </c>
+      <c r="J367">
+        <v>1</v>
+      </c>
+      <c r="K367" s="2">
+        <f t="shared" si="23"/>
+        <v>740000</v>
+      </c>
+      <c r="L367">
+        <v>1</v>
+      </c>
+      <c r="M367" s="2">
+        <f t="shared" si="24"/>
+        <v>1480000</v>
+      </c>
+      <c r="N367">
+        <v>2</v>
+      </c>
+      <c r="O367" s="2">
+        <v>5274000</v>
+      </c>
+      <c r="P367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A368" s="2">
+        <v>366</v>
+      </c>
+      <c r="B368" s="2">
+        <v>20</v>
+      </c>
+      <c r="C368" s="1">
+        <v>16</v>
+      </c>
+      <c r="D368" s="2">
+        <v>9</v>
+      </c>
+      <c r="E368" s="2">
+        <v>20</v>
+      </c>
+      <c r="F368" s="2">
+        <v>366</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="H368" s="2">
+        <v>482</v>
+      </c>
+      <c r="I368" t="s">
+        <v>13</v>
+      </c>
+      <c r="J368">
+        <v>1</v>
+      </c>
+      <c r="K368" s="2">
+        <f t="shared" si="23"/>
+        <v>742000</v>
+      </c>
+      <c r="L368">
+        <v>1</v>
+      </c>
+      <c r="M368" s="2">
+        <f t="shared" si="24"/>
+        <v>1484000</v>
+      </c>
+      <c r="N368">
+        <v>2</v>
+      </c>
+      <c r="O368" s="2">
+        <v>5282000</v>
+      </c>
+      <c r="P368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A369" s="2">
+        <v>367</v>
+      </c>
+      <c r="B369" s="2">
+        <v>20</v>
+      </c>
+      <c r="C369" s="1">
+        <v>16</v>
+      </c>
+      <c r="D369" s="2">
+        <v>9</v>
+      </c>
+      <c r="E369" s="2">
+        <v>20</v>
+      </c>
+      <c r="F369" s="2">
+        <v>367</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+      <c r="H369" s="2">
+        <v>482</v>
+      </c>
+      <c r="I369" t="s">
+        <v>13</v>
+      </c>
+      <c r="J369">
+        <v>1</v>
+      </c>
+      <c r="K369" s="2">
+        <f t="shared" si="23"/>
+        <v>744000</v>
+      </c>
+      <c r="L369">
+        <v>1</v>
+      </c>
+      <c r="M369" s="2">
+        <f t="shared" si="24"/>
+        <v>1488000</v>
+      </c>
+      <c r="N369">
+        <v>2</v>
+      </c>
+      <c r="O369" s="2">
+        <v>5290000</v>
+      </c>
+      <c r="P369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A370" s="2">
+        <v>368</v>
+      </c>
+      <c r="B370" s="2">
+        <v>20</v>
+      </c>
+      <c r="C370" s="1">
+        <v>16</v>
+      </c>
+      <c r="D370" s="2">
+        <v>9</v>
+      </c>
+      <c r="E370" s="2">
+        <v>20</v>
+      </c>
+      <c r="F370" s="2">
+        <v>368</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
+      <c r="H370" s="2">
+        <v>482</v>
+      </c>
+      <c r="I370" t="s">
+        <v>13</v>
+      </c>
+      <c r="J370">
+        <v>1</v>
+      </c>
+      <c r="K370" s="2">
+        <f t="shared" si="23"/>
+        <v>746000</v>
+      </c>
+      <c r="L370">
+        <v>1</v>
+      </c>
+      <c r="M370" s="2">
+        <f t="shared" si="24"/>
+        <v>1492000</v>
+      </c>
+      <c r="N370">
+        <v>2</v>
+      </c>
+      <c r="O370" s="2">
+        <v>5298000</v>
+      </c>
+      <c r="P370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A371" s="2">
+        <v>369</v>
+      </c>
+      <c r="B371" s="2">
+        <v>20</v>
+      </c>
+      <c r="C371" s="1">
+        <v>16</v>
+      </c>
+      <c r="D371" s="2">
+        <v>9</v>
+      </c>
+      <c r="E371" s="2">
+        <v>20</v>
+      </c>
+      <c r="F371" s="2">
+        <v>369</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+      <c r="H371" s="2">
+        <v>482</v>
+      </c>
+      <c r="I371" t="s">
+        <v>13</v>
+      </c>
+      <c r="J371">
+        <v>1</v>
+      </c>
+      <c r="K371" s="2">
+        <f t="shared" si="23"/>
+        <v>748000</v>
+      </c>
+      <c r="L371">
+        <v>1</v>
+      </c>
+      <c r="M371" s="2">
+        <f t="shared" si="24"/>
+        <v>1496000</v>
+      </c>
+      <c r="N371">
+        <v>2</v>
+      </c>
+      <c r="O371" s="2">
+        <v>5306000</v>
+      </c>
+      <c r="P371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A372" s="2">
+        <v>370</v>
+      </c>
+      <c r="B372" s="2">
+        <v>20</v>
+      </c>
+      <c r="C372" s="1">
+        <v>16</v>
+      </c>
+      <c r="D372" s="2">
+        <v>9</v>
+      </c>
+      <c r="E372" s="2">
+        <v>20</v>
+      </c>
+      <c r="F372" s="2">
+        <v>370</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+      <c r="H372" s="2">
+        <v>482</v>
+      </c>
+      <c r="I372" t="s">
+        <v>13</v>
+      </c>
+      <c r="J372">
+        <v>1</v>
+      </c>
+      <c r="K372" s="2">
+        <f t="shared" si="23"/>
+        <v>750000</v>
+      </c>
+      <c r="L372">
+        <v>1</v>
+      </c>
+      <c r="M372" s="2">
+        <f t="shared" si="24"/>
+        <v>1500000</v>
+      </c>
+      <c r="N372">
+        <v>2</v>
+      </c>
+      <c r="O372" s="2">
+        <v>5314000</v>
+      </c>
+      <c r="P372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A373" s="2">
+        <v>371</v>
+      </c>
+      <c r="B373" s="2">
+        <v>20</v>
+      </c>
+      <c r="C373" s="1">
+        <v>16</v>
+      </c>
+      <c r="D373" s="2">
+        <v>9</v>
+      </c>
+      <c r="E373" s="2">
+        <v>20</v>
+      </c>
+      <c r="F373" s="2">
+        <v>371</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373" s="2">
+        <v>482</v>
+      </c>
+      <c r="I373" t="s">
+        <v>13</v>
+      </c>
+      <c r="J373">
+        <v>1</v>
+      </c>
+      <c r="K373" s="2">
+        <f t="shared" si="23"/>
+        <v>752000</v>
+      </c>
+      <c r="L373">
+        <v>1</v>
+      </c>
+      <c r="M373" s="2">
+        <f t="shared" si="24"/>
+        <v>1504000</v>
+      </c>
+      <c r="N373">
+        <v>2</v>
+      </c>
+      <c r="O373" s="2">
+        <v>5322000</v>
+      </c>
+      <c r="P373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A374" s="2">
+        <v>372</v>
+      </c>
+      <c r="B374" s="2">
+        <v>20</v>
+      </c>
+      <c r="C374" s="1">
+        <v>16</v>
+      </c>
+      <c r="D374" s="2">
+        <v>9</v>
+      </c>
+      <c r="E374" s="2">
+        <v>20</v>
+      </c>
+      <c r="F374" s="2">
+        <v>372</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="H374" s="2">
+        <v>482</v>
+      </c>
+      <c r="I374" t="s">
+        <v>13</v>
+      </c>
+      <c r="J374">
+        <v>1</v>
+      </c>
+      <c r="K374" s="2">
+        <f t="shared" ref="K374:K402" si="25">10000+A374*2000</f>
+        <v>754000</v>
+      </c>
+      <c r="L374">
+        <v>1</v>
+      </c>
+      <c r="M374" s="2">
+        <f t="shared" si="24"/>
+        <v>1508000</v>
+      </c>
+      <c r="N374">
+        <v>2</v>
+      </c>
+      <c r="O374" s="2">
+        <v>5330000</v>
+      </c>
+      <c r="P374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A375" s="2">
+        <v>373</v>
+      </c>
+      <c r="B375" s="2">
+        <v>20</v>
+      </c>
+      <c r="C375" s="1">
+        <v>16</v>
+      </c>
+      <c r="D375" s="2">
+        <v>9</v>
+      </c>
+      <c r="E375" s="2">
+        <v>20</v>
+      </c>
+      <c r="F375" s="2">
+        <v>373</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
+      <c r="H375" s="2">
+        <v>482</v>
+      </c>
+      <c r="I375" t="s">
+        <v>13</v>
+      </c>
+      <c r="J375">
+        <v>1</v>
+      </c>
+      <c r="K375" s="2">
+        <f t="shared" si="25"/>
+        <v>756000</v>
+      </c>
+      <c r="L375">
+        <v>1</v>
+      </c>
+      <c r="M375" s="2">
+        <f t="shared" si="24"/>
+        <v>1512000</v>
+      </c>
+      <c r="N375">
+        <v>2</v>
+      </c>
+      <c r="O375" s="2">
+        <v>5338000</v>
+      </c>
+      <c r="P375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A376" s="2">
+        <v>374</v>
+      </c>
+      <c r="B376" s="2">
+        <v>20</v>
+      </c>
+      <c r="C376" s="1">
+        <v>16</v>
+      </c>
+      <c r="D376" s="2">
+        <v>9</v>
+      </c>
+      <c r="E376" s="2">
+        <v>20</v>
+      </c>
+      <c r="F376" s="2">
+        <v>374</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+      <c r="H376" s="2">
+        <v>482</v>
+      </c>
+      <c r="I376" t="s">
+        <v>13</v>
+      </c>
+      <c r="J376">
+        <v>1</v>
+      </c>
+      <c r="K376" s="2">
+        <f t="shared" si="25"/>
+        <v>758000</v>
+      </c>
+      <c r="L376">
+        <v>1</v>
+      </c>
+      <c r="M376" s="2">
+        <f t="shared" si="24"/>
+        <v>1516000</v>
+      </c>
+      <c r="N376">
+        <v>2</v>
+      </c>
+      <c r="O376" s="2">
+        <v>5346000</v>
+      </c>
+      <c r="P376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A377" s="2">
+        <v>375</v>
+      </c>
+      <c r="B377" s="2">
+        <v>20</v>
+      </c>
+      <c r="C377" s="1">
+        <v>16</v>
+      </c>
+      <c r="D377" s="2">
+        <v>9</v>
+      </c>
+      <c r="E377" s="2">
+        <v>20</v>
+      </c>
+      <c r="F377" s="2">
+        <v>375</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377" s="2">
+        <v>482</v>
+      </c>
+      <c r="I377" t="s">
+        <v>13</v>
+      </c>
+      <c r="J377">
+        <v>1</v>
+      </c>
+      <c r="K377" s="2">
+        <f t="shared" si="25"/>
+        <v>760000</v>
+      </c>
+      <c r="L377">
+        <v>1</v>
+      </c>
+      <c r="M377" s="2">
+        <f t="shared" si="24"/>
+        <v>1520000</v>
+      </c>
+      <c r="N377">
+        <v>2</v>
+      </c>
+      <c r="O377" s="2">
+        <v>5354000</v>
+      </c>
+      <c r="P377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A378" s="2">
+        <v>376</v>
+      </c>
+      <c r="B378" s="2">
+        <v>20</v>
+      </c>
+      <c r="C378" s="1">
+        <v>16</v>
+      </c>
+      <c r="D378" s="2">
+        <v>9</v>
+      </c>
+      <c r="E378" s="2">
+        <v>20</v>
+      </c>
+      <c r="F378" s="2">
+        <v>376</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="H378" s="2">
+        <v>482</v>
+      </c>
+      <c r="I378" t="s">
+        <v>13</v>
+      </c>
+      <c r="J378">
+        <v>1</v>
+      </c>
+      <c r="K378" s="2">
+        <f t="shared" si="25"/>
+        <v>762000</v>
+      </c>
+      <c r="L378">
+        <v>1</v>
+      </c>
+      <c r="M378" s="2">
+        <f t="shared" si="24"/>
+        <v>1524000</v>
+      </c>
+      <c r="N378">
+        <v>2</v>
+      </c>
+      <c r="O378" s="2">
+        <v>5362000</v>
+      </c>
+      <c r="P378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A379" s="2">
+        <v>377</v>
+      </c>
+      <c r="B379" s="2">
+        <v>20</v>
+      </c>
+      <c r="C379" s="1">
+        <v>16</v>
+      </c>
+      <c r="D379" s="2">
+        <v>9</v>
+      </c>
+      <c r="E379" s="2">
+        <v>20</v>
+      </c>
+      <c r="F379" s="2">
+        <v>377</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+      <c r="H379" s="2">
+        <v>482</v>
+      </c>
+      <c r="I379" t="s">
+        <v>13</v>
+      </c>
+      <c r="J379">
+        <v>1</v>
+      </c>
+      <c r="K379" s="2">
+        <f t="shared" si="25"/>
+        <v>764000</v>
+      </c>
+      <c r="L379">
+        <v>1</v>
+      </c>
+      <c r="M379" s="2">
+        <f t="shared" si="24"/>
+        <v>1528000</v>
+      </c>
+      <c r="N379">
+        <v>2</v>
+      </c>
+      <c r="O379" s="2">
+        <v>5370000</v>
+      </c>
+      <c r="P379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A380" s="2">
+        <v>378</v>
+      </c>
+      <c r="B380" s="2">
+        <v>20</v>
+      </c>
+      <c r="C380" s="1">
+        <v>16</v>
+      </c>
+      <c r="D380" s="2">
+        <v>9</v>
+      </c>
+      <c r="E380" s="2">
+        <v>20</v>
+      </c>
+      <c r="F380" s="2">
+        <v>378</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+      <c r="H380" s="2">
+        <v>482</v>
+      </c>
+      <c r="I380" t="s">
+        <v>13</v>
+      </c>
+      <c r="J380">
+        <v>1</v>
+      </c>
+      <c r="K380" s="2">
+        <f t="shared" si="25"/>
+        <v>766000</v>
+      </c>
+      <c r="L380">
+        <v>1</v>
+      </c>
+      <c r="M380" s="2">
+        <f t="shared" si="24"/>
+        <v>1532000</v>
+      </c>
+      <c r="N380">
+        <v>2</v>
+      </c>
+      <c r="O380" s="2">
+        <v>5378000</v>
+      </c>
+      <c r="P380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A381" s="2">
+        <v>379</v>
+      </c>
+      <c r="B381" s="2">
+        <v>20</v>
+      </c>
+      <c r="C381" s="1">
+        <v>16</v>
+      </c>
+      <c r="D381" s="2">
+        <v>9</v>
+      </c>
+      <c r="E381" s="2">
+        <v>20</v>
+      </c>
+      <c r="F381" s="2">
+        <v>379</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+      <c r="H381" s="2">
+        <v>482</v>
+      </c>
+      <c r="I381" t="s">
+        <v>13</v>
+      </c>
+      <c r="J381">
+        <v>1</v>
+      </c>
+      <c r="K381" s="2">
+        <f t="shared" si="25"/>
+        <v>768000</v>
+      </c>
+      <c r="L381">
+        <v>1</v>
+      </c>
+      <c r="M381" s="2">
+        <f t="shared" si="24"/>
+        <v>1536000</v>
+      </c>
+      <c r="N381">
+        <v>2</v>
+      </c>
+      <c r="O381" s="2">
+        <v>5386000</v>
+      </c>
+      <c r="P381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A382" s="2">
+        <v>380</v>
+      </c>
+      <c r="B382" s="2">
+        <v>20</v>
+      </c>
+      <c r="C382" s="1">
+        <v>16</v>
+      </c>
+      <c r="D382" s="2">
+        <v>9</v>
+      </c>
+      <c r="E382" s="2">
+        <v>20</v>
+      </c>
+      <c r="F382" s="2">
+        <v>380</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382" s="2">
+        <v>482</v>
+      </c>
+      <c r="I382" t="s">
+        <v>13</v>
+      </c>
+      <c r="J382">
+        <v>1</v>
+      </c>
+      <c r="K382" s="2">
+        <f t="shared" si="25"/>
+        <v>770000</v>
+      </c>
+      <c r="L382">
+        <v>1</v>
+      </c>
+      <c r="M382" s="2">
+        <f t="shared" si="24"/>
+        <v>1540000</v>
+      </c>
+      <c r="N382">
+        <v>2</v>
+      </c>
+      <c r="O382" s="2">
+        <v>5394000</v>
+      </c>
+      <c r="P382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A383" s="2">
+        <v>381</v>
+      </c>
+      <c r="B383" s="2">
+        <v>20</v>
+      </c>
+      <c r="C383" s="1">
+        <v>16</v>
+      </c>
+      <c r="D383" s="2">
+        <v>9</v>
+      </c>
+      <c r="E383" s="2">
+        <v>20</v>
+      </c>
+      <c r="F383" s="2">
+        <v>381</v>
+      </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
+      <c r="H383" s="2">
+        <v>482</v>
+      </c>
+      <c r="I383" t="s">
+        <v>13</v>
+      </c>
+      <c r="J383">
+        <v>1</v>
+      </c>
+      <c r="K383" s="2">
+        <f t="shared" si="25"/>
+        <v>772000</v>
+      </c>
+      <c r="L383">
+        <v>1</v>
+      </c>
+      <c r="M383" s="2">
+        <f t="shared" si="24"/>
+        <v>1544000</v>
+      </c>
+      <c r="N383">
+        <v>2</v>
+      </c>
+      <c r="O383" s="2">
+        <v>5402000</v>
+      </c>
+      <c r="P383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A384" s="2">
+        <v>382</v>
+      </c>
+      <c r="B384" s="2">
+        <v>20</v>
+      </c>
+      <c r="C384" s="1">
+        <v>16</v>
+      </c>
+      <c r="D384" s="2">
+        <v>9</v>
+      </c>
+      <c r="E384" s="2">
+        <v>20</v>
+      </c>
+      <c r="F384" s="2">
+        <v>382</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+      <c r="H384" s="2">
+        <v>482</v>
+      </c>
+      <c r="I384" t="s">
+        <v>13</v>
+      </c>
+      <c r="J384">
+        <v>1</v>
+      </c>
+      <c r="K384" s="2">
+        <f t="shared" si="25"/>
+        <v>774000</v>
+      </c>
+      <c r="L384">
+        <v>1</v>
+      </c>
+      <c r="M384" s="2">
+        <f t="shared" si="24"/>
+        <v>1548000</v>
+      </c>
+      <c r="N384">
+        <v>2</v>
+      </c>
+      <c r="O384" s="2">
+        <v>5410000</v>
+      </c>
+      <c r="P384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A385" s="2">
+        <v>383</v>
+      </c>
+      <c r="B385" s="2">
+        <v>20</v>
+      </c>
+      <c r="C385" s="1">
+        <v>16</v>
+      </c>
+      <c r="D385" s="2">
+        <v>9</v>
+      </c>
+      <c r="E385" s="2">
+        <v>20</v>
+      </c>
+      <c r="F385" s="2">
+        <v>383</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+      <c r="H385" s="2">
+        <v>482</v>
+      </c>
+      <c r="I385" t="s">
+        <v>13</v>
+      </c>
+      <c r="J385">
+        <v>1</v>
+      </c>
+      <c r="K385" s="2">
+        <f t="shared" si="25"/>
+        <v>776000</v>
+      </c>
+      <c r="L385">
+        <v>1</v>
+      </c>
+      <c r="M385" s="2">
+        <f t="shared" si="24"/>
+        <v>1552000</v>
+      </c>
+      <c r="N385">
+        <v>2</v>
+      </c>
+      <c r="O385" s="2">
+        <v>5418000</v>
+      </c>
+      <c r="P385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A386" s="2">
+        <v>384</v>
+      </c>
+      <c r="B386" s="2">
+        <v>20</v>
+      </c>
+      <c r="C386" s="1">
+        <v>16</v>
+      </c>
+      <c r="D386" s="2">
+        <v>9</v>
+      </c>
+      <c r="E386" s="2">
+        <v>20</v>
+      </c>
+      <c r="F386" s="2">
+        <v>384</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+      <c r="H386" s="2">
+        <v>482</v>
+      </c>
+      <c r="I386" t="s">
+        <v>13</v>
+      </c>
+      <c r="J386">
+        <v>1</v>
+      </c>
+      <c r="K386" s="2">
+        <f t="shared" si="25"/>
+        <v>778000</v>
+      </c>
+      <c r="L386">
+        <v>1</v>
+      </c>
+      <c r="M386" s="2">
+        <f t="shared" si="24"/>
+        <v>1556000</v>
+      </c>
+      <c r="N386">
+        <v>2</v>
+      </c>
+      <c r="O386" s="2">
+        <v>5426000</v>
+      </c>
+      <c r="P386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A387" s="2">
+        <v>385</v>
+      </c>
+      <c r="B387" s="2">
+        <v>20</v>
+      </c>
+      <c r="C387" s="1">
+        <v>16</v>
+      </c>
+      <c r="D387" s="2">
+        <v>9</v>
+      </c>
+      <c r="E387" s="2">
+        <v>20</v>
+      </c>
+      <c r="F387" s="2">
+        <v>385</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+      <c r="H387" s="2">
+        <v>482</v>
+      </c>
+      <c r="I387" t="s">
+        <v>13</v>
+      </c>
+      <c r="J387">
+        <v>1</v>
+      </c>
+      <c r="K387" s="2">
+        <f t="shared" si="25"/>
+        <v>780000</v>
+      </c>
+      <c r="L387">
+        <v>1</v>
+      </c>
+      <c r="M387" s="2">
+        <f t="shared" si="24"/>
+        <v>1560000</v>
+      </c>
+      <c r="N387">
+        <v>2</v>
+      </c>
+      <c r="O387" s="2">
+        <v>5434000</v>
+      </c>
+      <c r="P387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A388" s="2">
+        <v>386</v>
+      </c>
+      <c r="B388" s="2">
+        <v>20</v>
+      </c>
+      <c r="C388" s="1">
+        <v>16</v>
+      </c>
+      <c r="D388" s="2">
+        <v>9</v>
+      </c>
+      <c r="E388" s="2">
+        <v>20</v>
+      </c>
+      <c r="F388" s="2">
+        <v>386</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+      <c r="H388" s="2">
+        <v>482</v>
+      </c>
+      <c r="I388" t="s">
+        <v>13</v>
+      </c>
+      <c r="J388">
+        <v>1</v>
+      </c>
+      <c r="K388" s="2">
+        <f t="shared" si="25"/>
+        <v>782000</v>
+      </c>
+      <c r="L388">
+        <v>1</v>
+      </c>
+      <c r="M388" s="2">
+        <f t="shared" si="24"/>
+        <v>1564000</v>
+      </c>
+      <c r="N388">
+        <v>2</v>
+      </c>
+      <c r="O388" s="2">
+        <v>5442000</v>
+      </c>
+      <c r="P388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A389" s="2">
+        <v>387</v>
+      </c>
+      <c r="B389" s="2">
+        <v>20</v>
+      </c>
+      <c r="C389" s="1">
+        <v>16</v>
+      </c>
+      <c r="D389" s="2">
+        <v>9</v>
+      </c>
+      <c r="E389" s="2">
+        <v>20</v>
+      </c>
+      <c r="F389" s="2">
+        <v>387</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+      <c r="H389" s="2">
+        <v>482</v>
+      </c>
+      <c r="I389" t="s">
+        <v>13</v>
+      </c>
+      <c r="J389">
+        <v>1</v>
+      </c>
+      <c r="K389" s="2">
+        <f t="shared" si="25"/>
+        <v>784000</v>
+      </c>
+      <c r="L389">
+        <v>1</v>
+      </c>
+      <c r="M389" s="2">
+        <f t="shared" si="24"/>
+        <v>1568000</v>
+      </c>
+      <c r="N389">
+        <v>2</v>
+      </c>
+      <c r="O389" s="2">
+        <v>5450000</v>
+      </c>
+      <c r="P389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A390" s="2">
+        <v>388</v>
+      </c>
+      <c r="B390" s="2">
+        <v>20</v>
+      </c>
+      <c r="C390" s="1">
+        <v>16</v>
+      </c>
+      <c r="D390" s="2">
+        <v>9</v>
+      </c>
+      <c r="E390" s="2">
+        <v>20</v>
+      </c>
+      <c r="F390" s="2">
+        <v>388</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+      <c r="H390" s="2">
+        <v>482</v>
+      </c>
+      <c r="I390" t="s">
+        <v>13</v>
+      </c>
+      <c r="J390">
+        <v>1</v>
+      </c>
+      <c r="K390" s="2">
+        <f t="shared" si="25"/>
+        <v>786000</v>
+      </c>
+      <c r="L390">
+        <v>1</v>
+      </c>
+      <c r="M390" s="2">
+        <f t="shared" si="24"/>
+        <v>1572000</v>
+      </c>
+      <c r="N390">
+        <v>2</v>
+      </c>
+      <c r="O390" s="2">
+        <v>5458000</v>
+      </c>
+      <c r="P390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A391" s="2">
+        <v>389</v>
+      </c>
+      <c r="B391" s="2">
+        <v>20</v>
+      </c>
+      <c r="C391" s="1">
+        <v>16</v>
+      </c>
+      <c r="D391" s="2">
+        <v>9</v>
+      </c>
+      <c r="E391" s="2">
+        <v>20</v>
+      </c>
+      <c r="F391" s="2">
+        <v>389</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="H391" s="2">
+        <v>482</v>
+      </c>
+      <c r="I391" t="s">
+        <v>13</v>
+      </c>
+      <c r="J391">
+        <v>1</v>
+      </c>
+      <c r="K391" s="2">
+        <f t="shared" si="25"/>
+        <v>788000</v>
+      </c>
+      <c r="L391">
+        <v>1</v>
+      </c>
+      <c r="M391" s="2">
+        <f t="shared" si="24"/>
+        <v>1576000</v>
+      </c>
+      <c r="N391">
+        <v>2</v>
+      </c>
+      <c r="O391" s="2">
+        <v>5466000</v>
+      </c>
+      <c r="P391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A392" s="2">
+        <v>390</v>
+      </c>
+      <c r="B392" s="2">
+        <v>20</v>
+      </c>
+      <c r="C392" s="1">
+        <v>16</v>
+      </c>
+      <c r="D392" s="2">
+        <v>9</v>
+      </c>
+      <c r="E392" s="2">
+        <v>20</v>
+      </c>
+      <c r="F392" s="2">
+        <v>390</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+      <c r="H392" s="2">
+        <v>482</v>
+      </c>
+      <c r="I392" t="s">
+        <v>13</v>
+      </c>
+      <c r="J392">
+        <v>1</v>
+      </c>
+      <c r="K392" s="2">
+        <f t="shared" si="25"/>
+        <v>790000</v>
+      </c>
+      <c r="L392">
+        <v>1</v>
+      </c>
+      <c r="M392" s="2">
+        <f t="shared" si="24"/>
+        <v>1580000</v>
+      </c>
+      <c r="N392">
+        <v>2</v>
+      </c>
+      <c r="O392" s="2">
+        <v>5474000</v>
+      </c>
+      <c r="P392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A393" s="2">
+        <v>391</v>
+      </c>
+      <c r="B393" s="2">
+        <v>20</v>
+      </c>
+      <c r="C393" s="1">
+        <v>16</v>
+      </c>
+      <c r="D393" s="2">
+        <v>9</v>
+      </c>
+      <c r="E393" s="2">
+        <v>20</v>
+      </c>
+      <c r="F393" s="2">
+        <v>391</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+      <c r="H393" s="2">
+        <v>482</v>
+      </c>
+      <c r="I393" t="s">
+        <v>13</v>
+      </c>
+      <c r="J393">
+        <v>1</v>
+      </c>
+      <c r="K393" s="2">
+        <f t="shared" si="25"/>
+        <v>792000</v>
+      </c>
+      <c r="L393">
+        <v>1</v>
+      </c>
+      <c r="M393" s="2">
+        <f t="shared" si="24"/>
+        <v>1584000</v>
+      </c>
+      <c r="N393">
+        <v>2</v>
+      </c>
+      <c r="O393" s="2">
+        <v>5482000</v>
+      </c>
+      <c r="P393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A394" s="2">
+        <v>392</v>
+      </c>
+      <c r="B394" s="2">
+        <v>20</v>
+      </c>
+      <c r="C394" s="1">
+        <v>16</v>
+      </c>
+      <c r="D394" s="2">
+        <v>9</v>
+      </c>
+      <c r="E394" s="2">
+        <v>20</v>
+      </c>
+      <c r="F394" s="2">
+        <v>392</v>
+      </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
+      <c r="H394" s="2">
+        <v>482</v>
+      </c>
+      <c r="I394" t="s">
+        <v>13</v>
+      </c>
+      <c r="J394">
+        <v>1</v>
+      </c>
+      <c r="K394" s="2">
+        <f t="shared" si="25"/>
+        <v>794000</v>
+      </c>
+      <c r="L394">
+        <v>1</v>
+      </c>
+      <c r="M394" s="2">
+        <f t="shared" si="24"/>
+        <v>1588000</v>
+      </c>
+      <c r="N394">
+        <v>2</v>
+      </c>
+      <c r="O394" s="2">
+        <v>5490000</v>
+      </c>
+      <c r="P394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A395" s="2">
+        <v>393</v>
+      </c>
+      <c r="B395" s="2">
+        <v>20</v>
+      </c>
+      <c r="C395" s="1">
+        <v>16</v>
+      </c>
+      <c r="D395" s="2">
+        <v>9</v>
+      </c>
+      <c r="E395" s="2">
+        <v>20</v>
+      </c>
+      <c r="F395" s="2">
+        <v>393</v>
+      </c>
+      <c r="G395">
+        <v>0</v>
+      </c>
+      <c r="H395" s="2">
+        <v>482</v>
+      </c>
+      <c r="I395" t="s">
+        <v>13</v>
+      </c>
+      <c r="J395">
+        <v>1</v>
+      </c>
+      <c r="K395" s="2">
+        <f t="shared" si="25"/>
+        <v>796000</v>
+      </c>
+      <c r="L395">
+        <v>1</v>
+      </c>
+      <c r="M395" s="2">
+        <f t="shared" si="24"/>
+        <v>1592000</v>
+      </c>
+      <c r="N395">
+        <v>2</v>
+      </c>
+      <c r="O395" s="2">
+        <v>5498000</v>
+      </c>
+      <c r="P395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A396" s="2">
+        <v>394</v>
+      </c>
+      <c r="B396" s="2">
+        <v>20</v>
+      </c>
+      <c r="C396" s="1">
+        <v>16</v>
+      </c>
+      <c r="D396" s="2">
+        <v>9</v>
+      </c>
+      <c r="E396" s="2">
+        <v>20</v>
+      </c>
+      <c r="F396" s="2">
+        <v>394</v>
+      </c>
+      <c r="G396">
+        <v>0</v>
+      </c>
+      <c r="H396" s="2">
+        <v>482</v>
+      </c>
+      <c r="I396" t="s">
+        <v>13</v>
+      </c>
+      <c r="J396">
+        <v>1</v>
+      </c>
+      <c r="K396" s="2">
+        <f t="shared" si="25"/>
+        <v>798000</v>
+      </c>
+      <c r="L396">
+        <v>1</v>
+      </c>
+      <c r="M396" s="2">
+        <f t="shared" si="24"/>
+        <v>1596000</v>
+      </c>
+      <c r="N396">
+        <v>2</v>
+      </c>
+      <c r="O396" s="2">
+        <v>5506000</v>
+      </c>
+      <c r="P396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A397" s="2">
+        <v>395</v>
+      </c>
+      <c r="B397" s="2">
+        <v>20</v>
+      </c>
+      <c r="C397" s="1">
+        <v>16</v>
+      </c>
+      <c r="D397" s="2">
+        <v>9</v>
+      </c>
+      <c r="E397" s="2">
+        <v>20</v>
+      </c>
+      <c r="F397" s="2">
+        <v>395</v>
+      </c>
+      <c r="G397">
+        <v>0</v>
+      </c>
+      <c r="H397" s="2">
+        <v>482</v>
+      </c>
+      <c r="I397" t="s">
+        <v>13</v>
+      </c>
+      <c r="J397">
+        <v>1</v>
+      </c>
+      <c r="K397" s="2">
+        <f t="shared" si="25"/>
+        <v>800000</v>
+      </c>
+      <c r="L397">
+        <v>1</v>
+      </c>
+      <c r="M397" s="2">
+        <f t="shared" si="24"/>
+        <v>1600000</v>
+      </c>
+      <c r="N397">
+        <v>2</v>
+      </c>
+      <c r="O397" s="2">
+        <v>5514000</v>
+      </c>
+      <c r="P397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A398" s="2">
+        <v>396</v>
+      </c>
+      <c r="B398" s="2">
+        <v>20</v>
+      </c>
+      <c r="C398" s="1">
+        <v>16</v>
+      </c>
+      <c r="D398" s="2">
+        <v>9</v>
+      </c>
+      <c r="E398" s="2">
+        <v>20</v>
+      </c>
+      <c r="F398" s="2">
+        <v>396</v>
+      </c>
+      <c r="G398">
+        <v>0</v>
+      </c>
+      <c r="H398" s="2">
+        <v>482</v>
+      </c>
+      <c r="I398" t="s">
+        <v>13</v>
+      </c>
+      <c r="J398">
+        <v>1</v>
+      </c>
+      <c r="K398" s="2">
+        <f t="shared" si="25"/>
+        <v>802000</v>
+      </c>
+      <c r="L398">
+        <v>1</v>
+      </c>
+      <c r="M398" s="2">
+        <f t="shared" si="24"/>
+        <v>1604000</v>
+      </c>
+      <c r="N398">
+        <v>2</v>
+      </c>
+      <c r="O398" s="2">
+        <v>5522000</v>
+      </c>
+      <c r="P398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A399" s="2">
+        <v>397</v>
+      </c>
+      <c r="B399" s="2">
+        <v>20</v>
+      </c>
+      <c r="C399" s="1">
+        <v>16</v>
+      </c>
+      <c r="D399" s="2">
+        <v>9</v>
+      </c>
+      <c r="E399" s="2">
+        <v>20</v>
+      </c>
+      <c r="F399" s="2">
+        <v>397</v>
+      </c>
+      <c r="G399">
+        <v>0</v>
+      </c>
+      <c r="H399" s="2">
+        <v>482</v>
+      </c>
+      <c r="I399" t="s">
+        <v>13</v>
+      </c>
+      <c r="J399">
+        <v>1</v>
+      </c>
+      <c r="K399" s="2">
+        <f t="shared" si="25"/>
+        <v>804000</v>
+      </c>
+      <c r="L399">
+        <v>1</v>
+      </c>
+      <c r="M399" s="2">
+        <f t="shared" si="24"/>
+        <v>1608000</v>
+      </c>
+      <c r="N399">
+        <v>2</v>
+      </c>
+      <c r="O399" s="2">
+        <v>5530000</v>
+      </c>
+      <c r="P399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A400" s="2">
+        <v>398</v>
+      </c>
+      <c r="B400" s="2">
+        <v>20</v>
+      </c>
+      <c r="C400" s="1">
+        <v>16</v>
+      </c>
+      <c r="D400" s="2">
+        <v>9</v>
+      </c>
+      <c r="E400" s="2">
+        <v>20</v>
+      </c>
+      <c r="F400" s="2">
+        <v>398</v>
+      </c>
+      <c r="G400">
+        <v>0</v>
+      </c>
+      <c r="H400" s="2">
+        <v>482</v>
+      </c>
+      <c r="I400" t="s">
+        <v>13</v>
+      </c>
+      <c r="J400">
+        <v>1</v>
+      </c>
+      <c r="K400" s="2">
+        <f t="shared" si="25"/>
+        <v>806000</v>
+      </c>
+      <c r="L400">
+        <v>1</v>
+      </c>
+      <c r="M400" s="2">
+        <f t="shared" si="24"/>
+        <v>1612000</v>
+      </c>
+      <c r="N400">
+        <v>2</v>
+      </c>
+      <c r="O400" s="2">
+        <v>5538000</v>
+      </c>
+      <c r="P400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A401" s="2">
+        <v>399</v>
+      </c>
+      <c r="B401" s="2">
+        <v>20</v>
+      </c>
+      <c r="C401" s="1">
+        <v>16</v>
+      </c>
+      <c r="D401" s="2">
+        <v>9</v>
+      </c>
+      <c r="E401" s="2">
+        <v>20</v>
+      </c>
+      <c r="F401" s="2">
+        <v>399</v>
+      </c>
+      <c r="G401">
+        <v>0</v>
+      </c>
+      <c r="H401" s="2">
+        <v>482</v>
+      </c>
+      <c r="I401" t="s">
+        <v>13</v>
+      </c>
+      <c r="J401">
+        <v>1</v>
+      </c>
+      <c r="K401" s="2">
+        <f t="shared" si="25"/>
+        <v>808000</v>
+      </c>
+      <c r="L401">
+        <v>1</v>
+      </c>
+      <c r="M401" s="2">
+        <f t="shared" si="24"/>
+        <v>1616000</v>
+      </c>
+      <c r="N401">
+        <v>2</v>
+      </c>
+      <c r="O401" s="2">
+        <v>5546000</v>
+      </c>
+      <c r="P401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A402" s="2">
+        <v>400</v>
+      </c>
+      <c r="B402" s="2">
+        <v>20</v>
+      </c>
+      <c r="C402" s="1">
+        <v>16</v>
+      </c>
+      <c r="D402" s="2">
+        <v>9</v>
+      </c>
+      <c r="E402" s="2">
+        <v>20</v>
+      </c>
+      <c r="F402" s="2">
+        <v>400</v>
+      </c>
+      <c r="G402">
+        <v>0</v>
+      </c>
+      <c r="H402" s="2">
+        <v>482</v>
+      </c>
+      <c r="I402" t="s">
+        <v>13</v>
+      </c>
+      <c r="J402">
+        <v>1</v>
+      </c>
+      <c r="K402" s="2">
+        <f t="shared" si="25"/>
+        <v>810000</v>
+      </c>
+      <c r="L402">
+        <v>1</v>
+      </c>
+      <c r="M402" s="2">
+        <f t="shared" si="24"/>
+        <v>1620000</v>
+      </c>
+      <c r="N402">
+        <v>2</v>
+      </c>
+      <c r="O402" s="2">
+        <v>5554000</v>
+      </c>
+      <c r="P402">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7C0F0D-FEDB-4893-921E-90AF74326D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E568FE-D879-4E2F-AA92-A63B3CA92397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -591,8 +591,8 @@
   <dimension ref="A1:Q402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A302" sqref="A302"/>
+      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F384" sqref="F384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16623,7 +16623,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C302" s="6">
         <v>16</v>
@@ -16675,7 +16675,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C303" s="1">
         <v>16</v>
@@ -16727,7 +16727,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C304" s="1">
         <v>16</v>
@@ -16778,8 +16778,8 @@
       <c r="A305" s="2">
         <v>303</v>
       </c>
-      <c r="B305" s="2">
-        <v>20</v>
+      <c r="B305" s="6">
+        <v>21</v>
       </c>
       <c r="C305" s="1">
         <v>16</v>
@@ -16831,7 +16831,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C306" s="1">
         <v>16</v>
@@ -16883,7 +16883,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C307" s="1">
         <v>16</v>
@@ -16934,8 +16934,8 @@
       <c r="A308" s="2">
         <v>306</v>
       </c>
-      <c r="B308" s="2">
-        <v>20</v>
+      <c r="B308" s="6">
+        <v>21</v>
       </c>
       <c r="C308" s="1">
         <v>16</v>
@@ -16987,7 +16987,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C309" s="1">
         <v>16</v>
@@ -17039,7 +17039,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C310" s="1">
         <v>16</v>
@@ -17090,8 +17090,8 @@
       <c r="A311" s="2">
         <v>309</v>
       </c>
-      <c r="B311" s="2">
-        <v>20</v>
+      <c r="B311" s="6">
+        <v>21</v>
       </c>
       <c r="C311" s="1">
         <v>16</v>
@@ -17143,7 +17143,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C312" s="1">
         <v>16</v>
@@ -17195,7 +17195,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C313" s="1">
         <v>16</v>
@@ -17246,8 +17246,8 @@
       <c r="A314" s="2">
         <v>312</v>
       </c>
-      <c r="B314" s="2">
-        <v>20</v>
+      <c r="B314" s="6">
+        <v>21</v>
       </c>
       <c r="C314" s="1">
         <v>16</v>
@@ -17299,7 +17299,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C315" s="1">
         <v>16</v>
@@ -17351,7 +17351,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C316" s="1">
         <v>16</v>
@@ -17402,8 +17402,8 @@
       <c r="A317" s="2">
         <v>315</v>
       </c>
-      <c r="B317" s="2">
-        <v>20</v>
+      <c r="B317" s="6">
+        <v>21</v>
       </c>
       <c r="C317" s="1">
         <v>16</v>
@@ -17455,7 +17455,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C318" s="1">
         <v>16</v>
@@ -17507,7 +17507,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C319" s="1">
         <v>16</v>
@@ -17558,8 +17558,8 @@
       <c r="A320" s="2">
         <v>318</v>
       </c>
-      <c r="B320" s="2">
-        <v>20</v>
+      <c r="B320" s="6">
+        <v>21</v>
       </c>
       <c r="C320" s="1">
         <v>16</v>
@@ -17611,7 +17611,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C321" s="1">
         <v>16</v>
@@ -17663,7 +17663,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C322" s="1">
         <v>16</v>
@@ -17714,8 +17714,8 @@
       <c r="A323" s="2">
         <v>321</v>
       </c>
-      <c r="B323" s="2">
-        <v>20</v>
+      <c r="B323" s="6">
+        <v>21</v>
       </c>
       <c r="C323" s="1">
         <v>16</v>
@@ -17767,7 +17767,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C324" s="1">
         <v>16</v>
@@ -17819,7 +17819,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C325" s="1">
         <v>16</v>
@@ -17870,8 +17870,8 @@
       <c r="A326" s="2">
         <v>324</v>
       </c>
-      <c r="B326" s="2">
-        <v>20</v>
+      <c r="B326" s="6">
+        <v>21</v>
       </c>
       <c r="C326" s="1">
         <v>16</v>
@@ -17923,7 +17923,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C327" s="1">
         <v>16</v>
@@ -17975,7 +17975,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C328" s="1">
         <v>16</v>
@@ -18026,8 +18026,8 @@
       <c r="A329" s="2">
         <v>327</v>
       </c>
-      <c r="B329" s="2">
-        <v>20</v>
+      <c r="B329" s="6">
+        <v>21</v>
       </c>
       <c r="C329" s="1">
         <v>16</v>
@@ -18079,7 +18079,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C330" s="1">
         <v>16</v>
@@ -18131,7 +18131,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C331" s="1">
         <v>16</v>
@@ -18182,8 +18182,8 @@
       <c r="A332" s="2">
         <v>330</v>
       </c>
-      <c r="B332" s="2">
-        <v>20</v>
+      <c r="B332" s="6">
+        <v>21</v>
       </c>
       <c r="C332" s="1">
         <v>16</v>
@@ -18235,7 +18235,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C333" s="1">
         <v>16</v>
@@ -18287,7 +18287,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C334" s="1">
         <v>16</v>
@@ -18338,8 +18338,8 @@
       <c r="A335" s="2">
         <v>333</v>
       </c>
-      <c r="B335" s="2">
-        <v>20</v>
+      <c r="B335" s="6">
+        <v>21</v>
       </c>
       <c r="C335" s="1">
         <v>16</v>
@@ -18391,7 +18391,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C336" s="1">
         <v>16</v>
@@ -18443,7 +18443,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C337" s="1">
         <v>16</v>
@@ -18494,8 +18494,8 @@
       <c r="A338" s="2">
         <v>336</v>
       </c>
-      <c r="B338" s="2">
-        <v>20</v>
+      <c r="B338" s="6">
+        <v>21</v>
       </c>
       <c r="C338" s="1">
         <v>16</v>
@@ -18547,7 +18547,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C339" s="1">
         <v>16</v>
@@ -18599,7 +18599,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C340" s="1">
         <v>16</v>
@@ -18650,8 +18650,8 @@
       <c r="A341" s="2">
         <v>339</v>
       </c>
-      <c r="B341" s="2">
-        <v>20</v>
+      <c r="B341" s="6">
+        <v>21</v>
       </c>
       <c r="C341" s="1">
         <v>16</v>
@@ -18703,7 +18703,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C342" s="1">
         <v>16</v>
@@ -18755,7 +18755,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C343" s="1">
         <v>16</v>
@@ -18806,8 +18806,8 @@
       <c r="A344" s="2">
         <v>342</v>
       </c>
-      <c r="B344" s="2">
-        <v>20</v>
+      <c r="B344" s="6">
+        <v>21</v>
       </c>
       <c r="C344" s="1">
         <v>16</v>
@@ -18859,7 +18859,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C345" s="1">
         <v>16</v>
@@ -18911,7 +18911,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C346" s="1">
         <v>16</v>
@@ -18962,8 +18962,8 @@
       <c r="A347" s="2">
         <v>345</v>
       </c>
-      <c r="B347" s="2">
-        <v>20</v>
+      <c r="B347" s="6">
+        <v>21</v>
       </c>
       <c r="C347" s="1">
         <v>16</v>
@@ -19015,7 +19015,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C348" s="1">
         <v>16</v>
@@ -19067,7 +19067,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C349" s="1">
         <v>16</v>
@@ -19118,8 +19118,8 @@
       <c r="A350" s="2">
         <v>348</v>
       </c>
-      <c r="B350" s="2">
-        <v>20</v>
+      <c r="B350" s="6">
+        <v>21</v>
       </c>
       <c r="C350" s="1">
         <v>16</v>
@@ -19171,7 +19171,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C351" s="1">
         <v>16</v>
@@ -19223,10 +19223,10 @@
         <v>350</v>
       </c>
       <c r="B352" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C352" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D352" s="2">
         <v>9</v>
@@ -19275,10 +19275,10 @@
         <v>351</v>
       </c>
       <c r="B353" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C353" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D353" s="2">
         <v>9</v>
@@ -19327,10 +19327,10 @@
         <v>352</v>
       </c>
       <c r="B354" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C354" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D354" s="2">
         <v>9</v>
@@ -19379,10 +19379,10 @@
         <v>353</v>
       </c>
       <c r="B355" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C355" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D355" s="2">
         <v>9</v>
@@ -19431,10 +19431,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C356" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D356" s="2">
         <v>9</v>
@@ -19483,10 +19483,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C357" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D357" s="2">
         <v>9</v>
@@ -19535,10 +19535,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C358" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D358" s="2">
         <v>9</v>
@@ -19587,10 +19587,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C359" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D359" s="2">
         <v>9</v>
@@ -19639,10 +19639,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C360" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D360" s="2">
         <v>9</v>
@@ -19691,10 +19691,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C361" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D361" s="2">
         <v>9</v>
@@ -19743,10 +19743,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C362" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D362" s="2">
         <v>9</v>
@@ -19795,10 +19795,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C363" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D363" s="2">
         <v>9</v>
@@ -19847,10 +19847,10 @@
         <v>362</v>
       </c>
       <c r="B364" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C364" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D364" s="2">
         <v>9</v>
@@ -19899,10 +19899,10 @@
         <v>363</v>
       </c>
       <c r="B365" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C365" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D365" s="2">
         <v>9</v>
@@ -19951,10 +19951,10 @@
         <v>364</v>
       </c>
       <c r="B366" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C366" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D366" s="2">
         <v>9</v>
@@ -20003,10 +20003,10 @@
         <v>365</v>
       </c>
       <c r="B367" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C367" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D367" s="2">
         <v>9</v>
@@ -20055,10 +20055,10 @@
         <v>366</v>
       </c>
       <c r="B368" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C368" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D368" s="2">
         <v>9</v>
@@ -20107,10 +20107,10 @@
         <v>367</v>
       </c>
       <c r="B369" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C369" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D369" s="2">
         <v>9</v>
@@ -20159,10 +20159,10 @@
         <v>368</v>
       </c>
       <c r="B370" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C370" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D370" s="2">
         <v>9</v>
@@ -20211,10 +20211,10 @@
         <v>369</v>
       </c>
       <c r="B371" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C371" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D371" s="2">
         <v>9</v>
@@ -20263,10 +20263,10 @@
         <v>370</v>
       </c>
       <c r="B372" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C372" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D372" s="2">
         <v>9</v>
@@ -20315,10 +20315,10 @@
         <v>371</v>
       </c>
       <c r="B373" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C373" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D373" s="2">
         <v>9</v>
@@ -20367,10 +20367,10 @@
         <v>372</v>
       </c>
       <c r="B374" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C374" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D374" s="2">
         <v>9</v>
@@ -20419,10 +20419,10 @@
         <v>373</v>
       </c>
       <c r="B375" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C375" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D375" s="2">
         <v>9</v>
@@ -20471,10 +20471,10 @@
         <v>374</v>
       </c>
       <c r="B376" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C376" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D376" s="2">
         <v>9</v>
@@ -20523,10 +20523,10 @@
         <v>375</v>
       </c>
       <c r="B377" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C377" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D377" s="2">
         <v>9</v>
@@ -20575,10 +20575,10 @@
         <v>376</v>
       </c>
       <c r="B378" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C378" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D378" s="2">
         <v>9</v>
@@ -20627,10 +20627,10 @@
         <v>377</v>
       </c>
       <c r="B379" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C379" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D379" s="2">
         <v>9</v>
@@ -20679,10 +20679,10 @@
         <v>378</v>
       </c>
       <c r="B380" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C380" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D380" s="2">
         <v>9</v>
@@ -20731,10 +20731,10 @@
         <v>379</v>
       </c>
       <c r="B381" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C381" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D381" s="2">
         <v>9</v>
@@ -20783,10 +20783,10 @@
         <v>380</v>
       </c>
       <c r="B382" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C382" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D382" s="2">
         <v>9</v>
@@ -20835,10 +20835,10 @@
         <v>381</v>
       </c>
       <c r="B383" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C383" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D383" s="2">
         <v>9</v>
@@ -20887,10 +20887,10 @@
         <v>382</v>
       </c>
       <c r="B384" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C384" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D384" s="2">
         <v>9</v>
@@ -20939,10 +20939,10 @@
         <v>383</v>
       </c>
       <c r="B385" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C385" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D385" s="2">
         <v>9</v>
@@ -20991,10 +20991,10 @@
         <v>384</v>
       </c>
       <c r="B386" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C386" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D386" s="2">
         <v>9</v>
@@ -21043,10 +21043,10 @@
         <v>385</v>
       </c>
       <c r="B387" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C387" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D387" s="2">
         <v>9</v>
@@ -21095,10 +21095,10 @@
         <v>386</v>
       </c>
       <c r="B388" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C388" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D388" s="2">
         <v>9</v>
@@ -21147,10 +21147,10 @@
         <v>387</v>
       </c>
       <c r="B389" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C389" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D389" s="2">
         <v>9</v>
@@ -21199,10 +21199,10 @@
         <v>388</v>
       </c>
       <c r="B390" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C390" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D390" s="2">
         <v>9</v>
@@ -21251,10 +21251,10 @@
         <v>389</v>
       </c>
       <c r="B391" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C391" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D391" s="2">
         <v>9</v>
@@ -21303,10 +21303,10 @@
         <v>390</v>
       </c>
       <c r="B392" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C392" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D392" s="2">
         <v>9</v>
@@ -21355,10 +21355,10 @@
         <v>391</v>
       </c>
       <c r="B393" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C393" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D393" s="2">
         <v>9</v>
@@ -21407,10 +21407,10 @@
         <v>392</v>
       </c>
       <c r="B394" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C394" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D394" s="2">
         <v>9</v>
@@ -21459,10 +21459,10 @@
         <v>393</v>
       </c>
       <c r="B395" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C395" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D395" s="2">
         <v>9</v>
@@ -21511,10 +21511,10 @@
         <v>394</v>
       </c>
       <c r="B396" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C396" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D396" s="2">
         <v>9</v>
@@ -21563,10 +21563,10 @@
         <v>395</v>
       </c>
       <c r="B397" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C397" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D397" s="2">
         <v>9</v>
@@ -21615,10 +21615,10 @@
         <v>396</v>
       </c>
       <c r="B398" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C398" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D398" s="2">
         <v>9</v>
@@ -21667,10 +21667,10 @@
         <v>397</v>
       </c>
       <c r="B399" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C399" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D399" s="2">
         <v>9</v>
@@ -21719,10 +21719,10 @@
         <v>398</v>
       </c>
       <c r="B400" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C400" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D400" s="2">
         <v>9</v>
@@ -21771,10 +21771,10 @@
         <v>399</v>
       </c>
       <c r="B401" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C401" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D401" s="2">
         <v>9</v>
@@ -21823,10 +21823,10 @@
         <v>400</v>
       </c>
       <c r="B402" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C402" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D402" s="2">
         <v>9</v>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E568FE-D879-4E2F-AA92-A63B3CA92397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F82027-5F2F-41AD-BB83-2F85220B9CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3480" yWindow="1890" windowWidth="33405" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="19">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q402"/>
+  <dimension ref="A1:Q452"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F384" sqref="F384"/>
+      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C410" sqref="C410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="M366" s="2">
-        <f t="shared" ref="M366:M402" si="24">K366*2</f>
+        <f t="shared" ref="M366:M429" si="24">K366*2</f>
         <v>1476000</v>
       </c>
       <c r="N366">
@@ -20394,7 +20394,7 @@
         <v>1</v>
       </c>
       <c r="K374" s="2">
-        <f t="shared" ref="K374:K402" si="25">10000+A374*2000</f>
+        <f t="shared" ref="K374:K437" si="25">10000+A374*2000</f>
         <v>754000</v>
       </c>
       <c r="L374">
@@ -21867,6 +21867,2606 @@
         <v>5554000</v>
       </c>
       <c r="P402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="5">
+        <v>401</v>
+      </c>
+      <c r="B403" s="2">
+        <v>23</v>
+      </c>
+      <c r="C403" s="1">
+        <v>18</v>
+      </c>
+      <c r="D403" s="2">
+        <v>9</v>
+      </c>
+      <c r="E403" s="2">
+        <v>20</v>
+      </c>
+      <c r="F403" s="2">
+        <v>401</v>
+      </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
+      <c r="H403" s="2">
+        <v>482</v>
+      </c>
+      <c r="I403" t="s">
+        <v>13</v>
+      </c>
+      <c r="J403">
+        <v>1</v>
+      </c>
+      <c r="K403" s="2">
+        <f t="shared" si="25"/>
+        <v>812000</v>
+      </c>
+      <c r="L403">
+        <v>1</v>
+      </c>
+      <c r="M403" s="2">
+        <f t="shared" si="24"/>
+        <v>1624000</v>
+      </c>
+      <c r="N403">
+        <v>2</v>
+      </c>
+      <c r="O403" s="2">
+        <v>5562000</v>
+      </c>
+      <c r="P403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A404" s="2">
+        <v>402</v>
+      </c>
+      <c r="B404" s="2">
+        <v>23</v>
+      </c>
+      <c r="C404" s="1">
+        <v>18</v>
+      </c>
+      <c r="D404" s="2">
+        <v>9</v>
+      </c>
+      <c r="E404" s="2">
+        <v>20</v>
+      </c>
+      <c r="F404" s="2">
+        <v>402</v>
+      </c>
+      <c r="G404">
+        <v>0</v>
+      </c>
+      <c r="H404" s="2">
+        <v>482</v>
+      </c>
+      <c r="I404" t="s">
+        <v>13</v>
+      </c>
+      <c r="J404">
+        <v>1</v>
+      </c>
+      <c r="K404" s="2">
+        <f t="shared" si="25"/>
+        <v>814000</v>
+      </c>
+      <c r="L404">
+        <v>1</v>
+      </c>
+      <c r="M404" s="2">
+        <f t="shared" si="24"/>
+        <v>1628000</v>
+      </c>
+      <c r="N404">
+        <v>2</v>
+      </c>
+      <c r="O404" s="2">
+        <v>5570000</v>
+      </c>
+      <c r="P404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A405" s="2">
+        <v>403</v>
+      </c>
+      <c r="B405" s="2">
+        <v>23</v>
+      </c>
+      <c r="C405" s="1">
+        <v>18</v>
+      </c>
+      <c r="D405" s="2">
+        <v>9</v>
+      </c>
+      <c r="E405" s="2">
+        <v>20</v>
+      </c>
+      <c r="F405" s="2">
+        <v>403</v>
+      </c>
+      <c r="G405">
+        <v>0</v>
+      </c>
+      <c r="H405" s="2">
+        <v>482</v>
+      </c>
+      <c r="I405" t="s">
+        <v>13</v>
+      </c>
+      <c r="J405">
+        <v>1</v>
+      </c>
+      <c r="K405" s="2">
+        <f t="shared" si="25"/>
+        <v>816000</v>
+      </c>
+      <c r="L405">
+        <v>1</v>
+      </c>
+      <c r="M405" s="2">
+        <f t="shared" si="24"/>
+        <v>1632000</v>
+      </c>
+      <c r="N405">
+        <v>2</v>
+      </c>
+      <c r="O405" s="2">
+        <v>5578000</v>
+      </c>
+      <c r="P405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A406" s="2">
+        <v>404</v>
+      </c>
+      <c r="B406" s="2">
+        <v>23</v>
+      </c>
+      <c r="C406" s="1">
+        <v>18</v>
+      </c>
+      <c r="D406" s="2">
+        <v>9</v>
+      </c>
+      <c r="E406" s="2">
+        <v>20</v>
+      </c>
+      <c r="F406" s="2">
+        <v>404</v>
+      </c>
+      <c r="G406">
+        <v>0</v>
+      </c>
+      <c r="H406" s="2">
+        <v>482</v>
+      </c>
+      <c r="I406" t="s">
+        <v>13</v>
+      </c>
+      <c r="J406">
+        <v>1</v>
+      </c>
+      <c r="K406" s="2">
+        <f t="shared" si="25"/>
+        <v>818000</v>
+      </c>
+      <c r="L406">
+        <v>1</v>
+      </c>
+      <c r="M406" s="2">
+        <f t="shared" si="24"/>
+        <v>1636000</v>
+      </c>
+      <c r="N406">
+        <v>2</v>
+      </c>
+      <c r="O406" s="2">
+        <v>5586000</v>
+      </c>
+      <c r="P406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A407" s="2">
+        <v>405</v>
+      </c>
+      <c r="B407" s="2">
+        <v>23</v>
+      </c>
+      <c r="C407" s="1">
+        <v>18</v>
+      </c>
+      <c r="D407" s="2">
+        <v>9</v>
+      </c>
+      <c r="E407" s="2">
+        <v>20</v>
+      </c>
+      <c r="F407" s="2">
+        <v>405</v>
+      </c>
+      <c r="G407">
+        <v>0</v>
+      </c>
+      <c r="H407" s="2">
+        <v>482</v>
+      </c>
+      <c r="I407" t="s">
+        <v>13</v>
+      </c>
+      <c r="J407">
+        <v>1</v>
+      </c>
+      <c r="K407" s="2">
+        <f t="shared" si="25"/>
+        <v>820000</v>
+      </c>
+      <c r="L407">
+        <v>1</v>
+      </c>
+      <c r="M407" s="2">
+        <f t="shared" si="24"/>
+        <v>1640000</v>
+      </c>
+      <c r="N407">
+        <v>2</v>
+      </c>
+      <c r="O407" s="2">
+        <v>5594000</v>
+      </c>
+      <c r="P407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A408" s="2">
+        <v>406</v>
+      </c>
+      <c r="B408" s="2">
+        <v>23</v>
+      </c>
+      <c r="C408" s="1">
+        <v>18</v>
+      </c>
+      <c r="D408" s="2">
+        <v>9</v>
+      </c>
+      <c r="E408" s="2">
+        <v>20</v>
+      </c>
+      <c r="F408" s="2">
+        <v>406</v>
+      </c>
+      <c r="G408">
+        <v>0</v>
+      </c>
+      <c r="H408" s="2">
+        <v>482</v>
+      </c>
+      <c r="I408" t="s">
+        <v>13</v>
+      </c>
+      <c r="J408">
+        <v>1</v>
+      </c>
+      <c r="K408" s="2">
+        <f t="shared" si="25"/>
+        <v>822000</v>
+      </c>
+      <c r="L408">
+        <v>1</v>
+      </c>
+      <c r="M408" s="2">
+        <f t="shared" si="24"/>
+        <v>1644000</v>
+      </c>
+      <c r="N408">
+        <v>2</v>
+      </c>
+      <c r="O408" s="2">
+        <v>5602000</v>
+      </c>
+      <c r="P408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A409" s="2">
+        <v>407</v>
+      </c>
+      <c r="B409" s="2">
+        <v>23</v>
+      </c>
+      <c r="C409" s="1">
+        <v>18</v>
+      </c>
+      <c r="D409" s="2">
+        <v>9</v>
+      </c>
+      <c r="E409" s="2">
+        <v>20</v>
+      </c>
+      <c r="F409" s="2">
+        <v>407</v>
+      </c>
+      <c r="G409">
+        <v>0</v>
+      </c>
+      <c r="H409" s="2">
+        <v>482</v>
+      </c>
+      <c r="I409" t="s">
+        <v>13</v>
+      </c>
+      <c r="J409">
+        <v>1</v>
+      </c>
+      <c r="K409" s="2">
+        <f t="shared" si="25"/>
+        <v>824000</v>
+      </c>
+      <c r="L409">
+        <v>1</v>
+      </c>
+      <c r="M409" s="2">
+        <f t="shared" si="24"/>
+        <v>1648000</v>
+      </c>
+      <c r="N409">
+        <v>2</v>
+      </c>
+      <c r="O409" s="2">
+        <v>5610000</v>
+      </c>
+      <c r="P409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A410" s="2">
+        <v>408</v>
+      </c>
+      <c r="B410" s="2">
+        <v>23</v>
+      </c>
+      <c r="C410" s="1">
+        <v>18</v>
+      </c>
+      <c r="D410" s="2">
+        <v>9</v>
+      </c>
+      <c r="E410" s="2">
+        <v>20</v>
+      </c>
+      <c r="F410" s="2">
+        <v>408</v>
+      </c>
+      <c r="G410">
+        <v>0</v>
+      </c>
+      <c r="H410" s="2">
+        <v>482</v>
+      </c>
+      <c r="I410" t="s">
+        <v>13</v>
+      </c>
+      <c r="J410">
+        <v>1</v>
+      </c>
+      <c r="K410" s="2">
+        <f t="shared" si="25"/>
+        <v>826000</v>
+      </c>
+      <c r="L410">
+        <v>1</v>
+      </c>
+      <c r="M410" s="2">
+        <f t="shared" si="24"/>
+        <v>1652000</v>
+      </c>
+      <c r="N410">
+        <v>2</v>
+      </c>
+      <c r="O410" s="2">
+        <v>5618000</v>
+      </c>
+      <c r="P410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A411" s="2">
+        <v>409</v>
+      </c>
+      <c r="B411" s="2">
+        <v>23</v>
+      </c>
+      <c r="C411" s="1">
+        <v>18</v>
+      </c>
+      <c r="D411" s="2">
+        <v>9</v>
+      </c>
+      <c r="E411" s="2">
+        <v>20</v>
+      </c>
+      <c r="F411" s="2">
+        <v>409</v>
+      </c>
+      <c r="G411">
+        <v>0</v>
+      </c>
+      <c r="H411" s="2">
+        <v>482</v>
+      </c>
+      <c r="I411" t="s">
+        <v>13</v>
+      </c>
+      <c r="J411">
+        <v>1</v>
+      </c>
+      <c r="K411" s="2">
+        <f t="shared" si="25"/>
+        <v>828000</v>
+      </c>
+      <c r="L411">
+        <v>1</v>
+      </c>
+      <c r="M411" s="2">
+        <f t="shared" si="24"/>
+        <v>1656000</v>
+      </c>
+      <c r="N411">
+        <v>2</v>
+      </c>
+      <c r="O411" s="2">
+        <v>5626000</v>
+      </c>
+      <c r="P411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A412" s="2">
+        <v>410</v>
+      </c>
+      <c r="B412" s="2">
+        <v>23</v>
+      </c>
+      <c r="C412" s="1">
+        <v>18</v>
+      </c>
+      <c r="D412" s="2">
+        <v>9</v>
+      </c>
+      <c r="E412" s="2">
+        <v>20</v>
+      </c>
+      <c r="F412" s="2">
+        <v>410</v>
+      </c>
+      <c r="G412">
+        <v>0</v>
+      </c>
+      <c r="H412" s="2">
+        <v>482</v>
+      </c>
+      <c r="I412" t="s">
+        <v>13</v>
+      </c>
+      <c r="J412">
+        <v>1</v>
+      </c>
+      <c r="K412" s="2">
+        <f t="shared" si="25"/>
+        <v>830000</v>
+      </c>
+      <c r="L412">
+        <v>1</v>
+      </c>
+      <c r="M412" s="2">
+        <f t="shared" si="24"/>
+        <v>1660000</v>
+      </c>
+      <c r="N412">
+        <v>2</v>
+      </c>
+      <c r="O412" s="2">
+        <v>5634000</v>
+      </c>
+      <c r="P412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A413" s="2">
+        <v>411</v>
+      </c>
+      <c r="B413" s="2">
+        <v>23</v>
+      </c>
+      <c r="C413" s="1">
+        <v>18</v>
+      </c>
+      <c r="D413" s="2">
+        <v>9</v>
+      </c>
+      <c r="E413" s="2">
+        <v>20</v>
+      </c>
+      <c r="F413" s="2">
+        <v>411</v>
+      </c>
+      <c r="G413">
+        <v>0</v>
+      </c>
+      <c r="H413" s="2">
+        <v>482</v>
+      </c>
+      <c r="I413" t="s">
+        <v>13</v>
+      </c>
+      <c r="J413">
+        <v>1</v>
+      </c>
+      <c r="K413" s="2">
+        <f t="shared" si="25"/>
+        <v>832000</v>
+      </c>
+      <c r="L413">
+        <v>1</v>
+      </c>
+      <c r="M413" s="2">
+        <f t="shared" si="24"/>
+        <v>1664000</v>
+      </c>
+      <c r="N413">
+        <v>2</v>
+      </c>
+      <c r="O413" s="2">
+        <v>5642000</v>
+      </c>
+      <c r="P413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A414" s="2">
+        <v>412</v>
+      </c>
+      <c r="B414" s="2">
+        <v>23</v>
+      </c>
+      <c r="C414" s="1">
+        <v>18</v>
+      </c>
+      <c r="D414" s="2">
+        <v>9</v>
+      </c>
+      <c r="E414" s="2">
+        <v>20</v>
+      </c>
+      <c r="F414" s="2">
+        <v>412</v>
+      </c>
+      <c r="G414">
+        <v>0</v>
+      </c>
+      <c r="H414" s="2">
+        <v>482</v>
+      </c>
+      <c r="I414" t="s">
+        <v>13</v>
+      </c>
+      <c r="J414">
+        <v>1</v>
+      </c>
+      <c r="K414" s="2">
+        <f t="shared" si="25"/>
+        <v>834000</v>
+      </c>
+      <c r="L414">
+        <v>1</v>
+      </c>
+      <c r="M414" s="2">
+        <f t="shared" si="24"/>
+        <v>1668000</v>
+      </c>
+      <c r="N414">
+        <v>2</v>
+      </c>
+      <c r="O414" s="2">
+        <v>5650000</v>
+      </c>
+      <c r="P414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A415" s="2">
+        <v>413</v>
+      </c>
+      <c r="B415" s="2">
+        <v>23</v>
+      </c>
+      <c r="C415" s="1">
+        <v>18</v>
+      </c>
+      <c r="D415" s="2">
+        <v>9</v>
+      </c>
+      <c r="E415" s="2">
+        <v>20</v>
+      </c>
+      <c r="F415" s="2">
+        <v>413</v>
+      </c>
+      <c r="G415">
+        <v>0</v>
+      </c>
+      <c r="H415" s="2">
+        <v>482</v>
+      </c>
+      <c r="I415" t="s">
+        <v>13</v>
+      </c>
+      <c r="J415">
+        <v>1</v>
+      </c>
+      <c r="K415" s="2">
+        <f t="shared" si="25"/>
+        <v>836000</v>
+      </c>
+      <c r="L415">
+        <v>1</v>
+      </c>
+      <c r="M415" s="2">
+        <f t="shared" si="24"/>
+        <v>1672000</v>
+      </c>
+      <c r="N415">
+        <v>2</v>
+      </c>
+      <c r="O415" s="2">
+        <v>5658000</v>
+      </c>
+      <c r="P415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A416" s="2">
+        <v>414</v>
+      </c>
+      <c r="B416" s="2">
+        <v>23</v>
+      </c>
+      <c r="C416" s="1">
+        <v>18</v>
+      </c>
+      <c r="D416" s="2">
+        <v>9</v>
+      </c>
+      <c r="E416" s="2">
+        <v>20</v>
+      </c>
+      <c r="F416" s="2">
+        <v>414</v>
+      </c>
+      <c r="G416">
+        <v>0</v>
+      </c>
+      <c r="H416" s="2">
+        <v>482</v>
+      </c>
+      <c r="I416" t="s">
+        <v>13</v>
+      </c>
+      <c r="J416">
+        <v>1</v>
+      </c>
+      <c r="K416" s="2">
+        <f t="shared" si="25"/>
+        <v>838000</v>
+      </c>
+      <c r="L416">
+        <v>1</v>
+      </c>
+      <c r="M416" s="2">
+        <f t="shared" si="24"/>
+        <v>1676000</v>
+      </c>
+      <c r="N416">
+        <v>2</v>
+      </c>
+      <c r="O416" s="2">
+        <v>5666000</v>
+      </c>
+      <c r="P416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A417" s="2">
+        <v>415</v>
+      </c>
+      <c r="B417" s="2">
+        <v>23</v>
+      </c>
+      <c r="C417" s="1">
+        <v>18</v>
+      </c>
+      <c r="D417" s="2">
+        <v>9</v>
+      </c>
+      <c r="E417" s="2">
+        <v>20</v>
+      </c>
+      <c r="F417" s="2">
+        <v>415</v>
+      </c>
+      <c r="G417">
+        <v>0</v>
+      </c>
+      <c r="H417" s="2">
+        <v>482</v>
+      </c>
+      <c r="I417" t="s">
+        <v>13</v>
+      </c>
+      <c r="J417">
+        <v>1</v>
+      </c>
+      <c r="K417" s="2">
+        <f t="shared" si="25"/>
+        <v>840000</v>
+      </c>
+      <c r="L417">
+        <v>1</v>
+      </c>
+      <c r="M417" s="2">
+        <f t="shared" si="24"/>
+        <v>1680000</v>
+      </c>
+      <c r="N417">
+        <v>2</v>
+      </c>
+      <c r="O417" s="2">
+        <v>5674000</v>
+      </c>
+      <c r="P417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A418" s="2">
+        <v>416</v>
+      </c>
+      <c r="B418" s="2">
+        <v>23</v>
+      </c>
+      <c r="C418" s="1">
+        <v>18</v>
+      </c>
+      <c r="D418" s="2">
+        <v>9</v>
+      </c>
+      <c r="E418" s="2">
+        <v>20</v>
+      </c>
+      <c r="F418" s="2">
+        <v>416</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+      <c r="H418" s="2">
+        <v>482</v>
+      </c>
+      <c r="I418" t="s">
+        <v>13</v>
+      </c>
+      <c r="J418">
+        <v>1</v>
+      </c>
+      <c r="K418" s="2">
+        <f t="shared" si="25"/>
+        <v>842000</v>
+      </c>
+      <c r="L418">
+        <v>1</v>
+      </c>
+      <c r="M418" s="2">
+        <f t="shared" si="24"/>
+        <v>1684000</v>
+      </c>
+      <c r="N418">
+        <v>2</v>
+      </c>
+      <c r="O418" s="2">
+        <v>5682000</v>
+      </c>
+      <c r="P418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A419" s="2">
+        <v>417</v>
+      </c>
+      <c r="B419" s="2">
+        <v>23</v>
+      </c>
+      <c r="C419" s="1">
+        <v>18</v>
+      </c>
+      <c r="D419" s="2">
+        <v>9</v>
+      </c>
+      <c r="E419" s="2">
+        <v>20</v>
+      </c>
+      <c r="F419" s="2">
+        <v>417</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+      <c r="H419" s="2">
+        <v>482</v>
+      </c>
+      <c r="I419" t="s">
+        <v>13</v>
+      </c>
+      <c r="J419">
+        <v>1</v>
+      </c>
+      <c r="K419" s="2">
+        <f t="shared" si="25"/>
+        <v>844000</v>
+      </c>
+      <c r="L419">
+        <v>1</v>
+      </c>
+      <c r="M419" s="2">
+        <f t="shared" si="24"/>
+        <v>1688000</v>
+      </c>
+      <c r="N419">
+        <v>2</v>
+      </c>
+      <c r="O419" s="2">
+        <v>5690000</v>
+      </c>
+      <c r="P419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A420" s="2">
+        <v>418</v>
+      </c>
+      <c r="B420" s="2">
+        <v>23</v>
+      </c>
+      <c r="C420" s="1">
+        <v>18</v>
+      </c>
+      <c r="D420" s="2">
+        <v>9</v>
+      </c>
+      <c r="E420" s="2">
+        <v>20</v>
+      </c>
+      <c r="F420" s="2">
+        <v>418</v>
+      </c>
+      <c r="G420">
+        <v>0</v>
+      </c>
+      <c r="H420" s="2">
+        <v>482</v>
+      </c>
+      <c r="I420" t="s">
+        <v>13</v>
+      </c>
+      <c r="J420">
+        <v>1</v>
+      </c>
+      <c r="K420" s="2">
+        <f t="shared" si="25"/>
+        <v>846000</v>
+      </c>
+      <c r="L420">
+        <v>1</v>
+      </c>
+      <c r="M420" s="2">
+        <f t="shared" si="24"/>
+        <v>1692000</v>
+      </c>
+      <c r="N420">
+        <v>2</v>
+      </c>
+      <c r="O420" s="2">
+        <v>5698000</v>
+      </c>
+      <c r="P420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A421" s="2">
+        <v>419</v>
+      </c>
+      <c r="B421" s="2">
+        <v>23</v>
+      </c>
+      <c r="C421" s="1">
+        <v>18</v>
+      </c>
+      <c r="D421" s="2">
+        <v>9</v>
+      </c>
+      <c r="E421" s="2">
+        <v>20</v>
+      </c>
+      <c r="F421" s="2">
+        <v>419</v>
+      </c>
+      <c r="G421">
+        <v>0</v>
+      </c>
+      <c r="H421" s="2">
+        <v>482</v>
+      </c>
+      <c r="I421" t="s">
+        <v>13</v>
+      </c>
+      <c r="J421">
+        <v>1</v>
+      </c>
+      <c r="K421" s="2">
+        <f t="shared" si="25"/>
+        <v>848000</v>
+      </c>
+      <c r="L421">
+        <v>1</v>
+      </c>
+      <c r="M421" s="2">
+        <f t="shared" si="24"/>
+        <v>1696000</v>
+      </c>
+      <c r="N421">
+        <v>2</v>
+      </c>
+      <c r="O421" s="2">
+        <v>5706000</v>
+      </c>
+      <c r="P421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A422" s="2">
+        <v>420</v>
+      </c>
+      <c r="B422" s="2">
+        <v>23</v>
+      </c>
+      <c r="C422" s="1">
+        <v>18</v>
+      </c>
+      <c r="D422" s="2">
+        <v>9</v>
+      </c>
+      <c r="E422" s="2">
+        <v>20</v>
+      </c>
+      <c r="F422" s="2">
+        <v>420</v>
+      </c>
+      <c r="G422">
+        <v>0</v>
+      </c>
+      <c r="H422" s="2">
+        <v>482</v>
+      </c>
+      <c r="I422" t="s">
+        <v>13</v>
+      </c>
+      <c r="J422">
+        <v>1</v>
+      </c>
+      <c r="K422" s="2">
+        <f t="shared" si="25"/>
+        <v>850000</v>
+      </c>
+      <c r="L422">
+        <v>1</v>
+      </c>
+      <c r="M422" s="2">
+        <f t="shared" si="24"/>
+        <v>1700000</v>
+      </c>
+      <c r="N422">
+        <v>2</v>
+      </c>
+      <c r="O422" s="2">
+        <v>5714000</v>
+      </c>
+      <c r="P422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A423" s="2">
+        <v>421</v>
+      </c>
+      <c r="B423" s="2">
+        <v>23</v>
+      </c>
+      <c r="C423" s="1">
+        <v>18</v>
+      </c>
+      <c r="D423" s="2">
+        <v>9</v>
+      </c>
+      <c r="E423" s="2">
+        <v>20</v>
+      </c>
+      <c r="F423" s="2">
+        <v>421</v>
+      </c>
+      <c r="G423">
+        <v>0</v>
+      </c>
+      <c r="H423" s="2">
+        <v>482</v>
+      </c>
+      <c r="I423" t="s">
+        <v>13</v>
+      </c>
+      <c r="J423">
+        <v>1</v>
+      </c>
+      <c r="K423" s="2">
+        <f t="shared" si="25"/>
+        <v>852000</v>
+      </c>
+      <c r="L423">
+        <v>1</v>
+      </c>
+      <c r="M423" s="2">
+        <f t="shared" si="24"/>
+        <v>1704000</v>
+      </c>
+      <c r="N423">
+        <v>2</v>
+      </c>
+      <c r="O423" s="2">
+        <v>5722000</v>
+      </c>
+      <c r="P423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A424" s="2">
+        <v>422</v>
+      </c>
+      <c r="B424" s="2">
+        <v>23</v>
+      </c>
+      <c r="C424" s="1">
+        <v>18</v>
+      </c>
+      <c r="D424" s="2">
+        <v>9</v>
+      </c>
+      <c r="E424" s="2">
+        <v>20</v>
+      </c>
+      <c r="F424" s="2">
+        <v>422</v>
+      </c>
+      <c r="G424">
+        <v>0</v>
+      </c>
+      <c r="H424" s="2">
+        <v>482</v>
+      </c>
+      <c r="I424" t="s">
+        <v>13</v>
+      </c>
+      <c r="J424">
+        <v>1</v>
+      </c>
+      <c r="K424" s="2">
+        <f t="shared" si="25"/>
+        <v>854000</v>
+      </c>
+      <c r="L424">
+        <v>1</v>
+      </c>
+      <c r="M424" s="2">
+        <f t="shared" si="24"/>
+        <v>1708000</v>
+      </c>
+      <c r="N424">
+        <v>2</v>
+      </c>
+      <c r="O424" s="2">
+        <v>5730000</v>
+      </c>
+      <c r="P424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A425" s="2">
+        <v>423</v>
+      </c>
+      <c r="B425" s="2">
+        <v>23</v>
+      </c>
+      <c r="C425" s="1">
+        <v>18</v>
+      </c>
+      <c r="D425" s="2">
+        <v>9</v>
+      </c>
+      <c r="E425" s="2">
+        <v>20</v>
+      </c>
+      <c r="F425" s="2">
+        <v>423</v>
+      </c>
+      <c r="G425">
+        <v>0</v>
+      </c>
+      <c r="H425" s="2">
+        <v>482</v>
+      </c>
+      <c r="I425" t="s">
+        <v>13</v>
+      </c>
+      <c r="J425">
+        <v>1</v>
+      </c>
+      <c r="K425" s="2">
+        <f t="shared" si="25"/>
+        <v>856000</v>
+      </c>
+      <c r="L425">
+        <v>1</v>
+      </c>
+      <c r="M425" s="2">
+        <f t="shared" si="24"/>
+        <v>1712000</v>
+      </c>
+      <c r="N425">
+        <v>2</v>
+      </c>
+      <c r="O425" s="2">
+        <v>5738000</v>
+      </c>
+      <c r="P425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A426" s="2">
+        <v>424</v>
+      </c>
+      <c r="B426" s="2">
+        <v>23</v>
+      </c>
+      <c r="C426" s="1">
+        <v>18</v>
+      </c>
+      <c r="D426" s="2">
+        <v>9</v>
+      </c>
+      <c r="E426" s="2">
+        <v>20</v>
+      </c>
+      <c r="F426" s="2">
+        <v>424</v>
+      </c>
+      <c r="G426">
+        <v>0</v>
+      </c>
+      <c r="H426" s="2">
+        <v>482</v>
+      </c>
+      <c r="I426" t="s">
+        <v>13</v>
+      </c>
+      <c r="J426">
+        <v>1</v>
+      </c>
+      <c r="K426" s="2">
+        <f t="shared" si="25"/>
+        <v>858000</v>
+      </c>
+      <c r="L426">
+        <v>1</v>
+      </c>
+      <c r="M426" s="2">
+        <f t="shared" si="24"/>
+        <v>1716000</v>
+      </c>
+      <c r="N426">
+        <v>2</v>
+      </c>
+      <c r="O426" s="2">
+        <v>5746000</v>
+      </c>
+      <c r="P426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A427" s="2">
+        <v>425</v>
+      </c>
+      <c r="B427" s="2">
+        <v>23</v>
+      </c>
+      <c r="C427" s="1">
+        <v>18</v>
+      </c>
+      <c r="D427" s="2">
+        <v>9</v>
+      </c>
+      <c r="E427" s="2">
+        <v>20</v>
+      </c>
+      <c r="F427" s="2">
+        <v>425</v>
+      </c>
+      <c r="G427">
+        <v>0</v>
+      </c>
+      <c r="H427" s="2">
+        <v>482</v>
+      </c>
+      <c r="I427" t="s">
+        <v>13</v>
+      </c>
+      <c r="J427">
+        <v>1</v>
+      </c>
+      <c r="K427" s="2">
+        <f t="shared" si="25"/>
+        <v>860000</v>
+      </c>
+      <c r="L427">
+        <v>1</v>
+      </c>
+      <c r="M427" s="2">
+        <f t="shared" si="24"/>
+        <v>1720000</v>
+      </c>
+      <c r="N427">
+        <v>2</v>
+      </c>
+      <c r="O427" s="2">
+        <v>5754000</v>
+      </c>
+      <c r="P427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A428" s="2">
+        <v>426</v>
+      </c>
+      <c r="B428" s="2">
+        <v>23</v>
+      </c>
+      <c r="C428" s="1">
+        <v>18</v>
+      </c>
+      <c r="D428" s="2">
+        <v>9</v>
+      </c>
+      <c r="E428" s="2">
+        <v>20</v>
+      </c>
+      <c r="F428" s="2">
+        <v>426</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+      <c r="H428" s="2">
+        <v>482</v>
+      </c>
+      <c r="I428" t="s">
+        <v>13</v>
+      </c>
+      <c r="J428">
+        <v>1</v>
+      </c>
+      <c r="K428" s="2">
+        <f t="shared" si="25"/>
+        <v>862000</v>
+      </c>
+      <c r="L428">
+        <v>1</v>
+      </c>
+      <c r="M428" s="2">
+        <f t="shared" si="24"/>
+        <v>1724000</v>
+      </c>
+      <c r="N428">
+        <v>2</v>
+      </c>
+      <c r="O428" s="2">
+        <v>5762000</v>
+      </c>
+      <c r="P428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A429" s="2">
+        <v>427</v>
+      </c>
+      <c r="B429" s="2">
+        <v>23</v>
+      </c>
+      <c r="C429" s="1">
+        <v>18</v>
+      </c>
+      <c r="D429" s="2">
+        <v>9</v>
+      </c>
+      <c r="E429" s="2">
+        <v>20</v>
+      </c>
+      <c r="F429" s="2">
+        <v>427</v>
+      </c>
+      <c r="G429">
+        <v>0</v>
+      </c>
+      <c r="H429" s="2">
+        <v>482</v>
+      </c>
+      <c r="I429" t="s">
+        <v>13</v>
+      </c>
+      <c r="J429">
+        <v>1</v>
+      </c>
+      <c r="K429" s="2">
+        <f t="shared" si="25"/>
+        <v>864000</v>
+      </c>
+      <c r="L429">
+        <v>1</v>
+      </c>
+      <c r="M429" s="2">
+        <f t="shared" si="24"/>
+        <v>1728000</v>
+      </c>
+      <c r="N429">
+        <v>2</v>
+      </c>
+      <c r="O429" s="2">
+        <v>5770000</v>
+      </c>
+      <c r="P429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A430" s="2">
+        <v>428</v>
+      </c>
+      <c r="B430" s="2">
+        <v>23</v>
+      </c>
+      <c r="C430" s="1">
+        <v>18</v>
+      </c>
+      <c r="D430" s="2">
+        <v>9</v>
+      </c>
+      <c r="E430" s="2">
+        <v>20</v>
+      </c>
+      <c r="F430" s="2">
+        <v>428</v>
+      </c>
+      <c r="G430">
+        <v>0</v>
+      </c>
+      <c r="H430" s="2">
+        <v>482</v>
+      </c>
+      <c r="I430" t="s">
+        <v>13</v>
+      </c>
+      <c r="J430">
+        <v>1</v>
+      </c>
+      <c r="K430" s="2">
+        <f t="shared" si="25"/>
+        <v>866000</v>
+      </c>
+      <c r="L430">
+        <v>1</v>
+      </c>
+      <c r="M430" s="2">
+        <f t="shared" ref="M430:M452" si="26">K430*2</f>
+        <v>1732000</v>
+      </c>
+      <c r="N430">
+        <v>2</v>
+      </c>
+      <c r="O430" s="2">
+        <v>5778000</v>
+      </c>
+      <c r="P430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A431" s="2">
+        <v>429</v>
+      </c>
+      <c r="B431" s="2">
+        <v>23</v>
+      </c>
+      <c r="C431" s="1">
+        <v>18</v>
+      </c>
+      <c r="D431" s="2">
+        <v>9</v>
+      </c>
+      <c r="E431" s="2">
+        <v>20</v>
+      </c>
+      <c r="F431" s="2">
+        <v>429</v>
+      </c>
+      <c r="G431">
+        <v>0</v>
+      </c>
+      <c r="H431" s="2">
+        <v>482</v>
+      </c>
+      <c r="I431" t="s">
+        <v>13</v>
+      </c>
+      <c r="J431">
+        <v>1</v>
+      </c>
+      <c r="K431" s="2">
+        <f t="shared" si="25"/>
+        <v>868000</v>
+      </c>
+      <c r="L431">
+        <v>1</v>
+      </c>
+      <c r="M431" s="2">
+        <f t="shared" si="26"/>
+        <v>1736000</v>
+      </c>
+      <c r="N431">
+        <v>2</v>
+      </c>
+      <c r="O431" s="2">
+        <v>5786000</v>
+      </c>
+      <c r="P431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A432" s="2">
+        <v>430</v>
+      </c>
+      <c r="B432" s="2">
+        <v>23</v>
+      </c>
+      <c r="C432" s="1">
+        <v>18</v>
+      </c>
+      <c r="D432" s="2">
+        <v>9</v>
+      </c>
+      <c r="E432" s="2">
+        <v>20</v>
+      </c>
+      <c r="F432" s="2">
+        <v>430</v>
+      </c>
+      <c r="G432">
+        <v>0</v>
+      </c>
+      <c r="H432" s="2">
+        <v>482</v>
+      </c>
+      <c r="I432" t="s">
+        <v>13</v>
+      </c>
+      <c r="J432">
+        <v>1</v>
+      </c>
+      <c r="K432" s="2">
+        <f t="shared" si="25"/>
+        <v>870000</v>
+      </c>
+      <c r="L432">
+        <v>1</v>
+      </c>
+      <c r="M432" s="2">
+        <f t="shared" si="26"/>
+        <v>1740000</v>
+      </c>
+      <c r="N432">
+        <v>2</v>
+      </c>
+      <c r="O432" s="2">
+        <v>5794000</v>
+      </c>
+      <c r="P432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A433" s="2">
+        <v>431</v>
+      </c>
+      <c r="B433" s="2">
+        <v>23</v>
+      </c>
+      <c r="C433" s="1">
+        <v>18</v>
+      </c>
+      <c r="D433" s="2">
+        <v>9</v>
+      </c>
+      <c r="E433" s="2">
+        <v>20</v>
+      </c>
+      <c r="F433" s="2">
+        <v>431</v>
+      </c>
+      <c r="G433">
+        <v>0</v>
+      </c>
+      <c r="H433" s="2">
+        <v>482</v>
+      </c>
+      <c r="I433" t="s">
+        <v>13</v>
+      </c>
+      <c r="J433">
+        <v>1</v>
+      </c>
+      <c r="K433" s="2">
+        <f t="shared" si="25"/>
+        <v>872000</v>
+      </c>
+      <c r="L433">
+        <v>1</v>
+      </c>
+      <c r="M433" s="2">
+        <f t="shared" si="26"/>
+        <v>1744000</v>
+      </c>
+      <c r="N433">
+        <v>2</v>
+      </c>
+      <c r="O433" s="2">
+        <v>5802000</v>
+      </c>
+      <c r="P433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A434" s="2">
+        <v>432</v>
+      </c>
+      <c r="B434" s="2">
+        <v>23</v>
+      </c>
+      <c r="C434" s="1">
+        <v>18</v>
+      </c>
+      <c r="D434" s="2">
+        <v>9</v>
+      </c>
+      <c r="E434" s="2">
+        <v>20</v>
+      </c>
+      <c r="F434" s="2">
+        <v>432</v>
+      </c>
+      <c r="G434">
+        <v>0</v>
+      </c>
+      <c r="H434" s="2">
+        <v>482</v>
+      </c>
+      <c r="I434" t="s">
+        <v>13</v>
+      </c>
+      <c r="J434">
+        <v>1</v>
+      </c>
+      <c r="K434" s="2">
+        <f t="shared" si="25"/>
+        <v>874000</v>
+      </c>
+      <c r="L434">
+        <v>1</v>
+      </c>
+      <c r="M434" s="2">
+        <f t="shared" si="26"/>
+        <v>1748000</v>
+      </c>
+      <c r="N434">
+        <v>2</v>
+      </c>
+      <c r="O434" s="2">
+        <v>5810000</v>
+      </c>
+      <c r="P434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A435" s="2">
+        <v>433</v>
+      </c>
+      <c r="B435" s="2">
+        <v>23</v>
+      </c>
+      <c r="C435" s="1">
+        <v>18</v>
+      </c>
+      <c r="D435" s="2">
+        <v>9</v>
+      </c>
+      <c r="E435" s="2">
+        <v>20</v>
+      </c>
+      <c r="F435" s="2">
+        <v>433</v>
+      </c>
+      <c r="G435">
+        <v>0</v>
+      </c>
+      <c r="H435" s="2">
+        <v>482</v>
+      </c>
+      <c r="I435" t="s">
+        <v>13</v>
+      </c>
+      <c r="J435">
+        <v>1</v>
+      </c>
+      <c r="K435" s="2">
+        <f t="shared" si="25"/>
+        <v>876000</v>
+      </c>
+      <c r="L435">
+        <v>1</v>
+      </c>
+      <c r="M435" s="2">
+        <f t="shared" si="26"/>
+        <v>1752000</v>
+      </c>
+      <c r="N435">
+        <v>2</v>
+      </c>
+      <c r="O435" s="2">
+        <v>5818000</v>
+      </c>
+      <c r="P435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A436" s="2">
+        <v>434</v>
+      </c>
+      <c r="B436" s="2">
+        <v>23</v>
+      </c>
+      <c r="C436" s="1">
+        <v>18</v>
+      </c>
+      <c r="D436" s="2">
+        <v>9</v>
+      </c>
+      <c r="E436" s="2">
+        <v>20</v>
+      </c>
+      <c r="F436" s="2">
+        <v>434</v>
+      </c>
+      <c r="G436">
+        <v>0</v>
+      </c>
+      <c r="H436" s="2">
+        <v>482</v>
+      </c>
+      <c r="I436" t="s">
+        <v>13</v>
+      </c>
+      <c r="J436">
+        <v>1</v>
+      </c>
+      <c r="K436" s="2">
+        <f t="shared" si="25"/>
+        <v>878000</v>
+      </c>
+      <c r="L436">
+        <v>1</v>
+      </c>
+      <c r="M436" s="2">
+        <f t="shared" si="26"/>
+        <v>1756000</v>
+      </c>
+      <c r="N436">
+        <v>2</v>
+      </c>
+      <c r="O436" s="2">
+        <v>5826000</v>
+      </c>
+      <c r="P436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A437" s="2">
+        <v>435</v>
+      </c>
+      <c r="B437" s="2">
+        <v>23</v>
+      </c>
+      <c r="C437" s="1">
+        <v>18</v>
+      </c>
+      <c r="D437" s="2">
+        <v>9</v>
+      </c>
+      <c r="E437" s="2">
+        <v>20</v>
+      </c>
+      <c r="F437" s="2">
+        <v>435</v>
+      </c>
+      <c r="G437">
+        <v>0</v>
+      </c>
+      <c r="H437" s="2">
+        <v>482</v>
+      </c>
+      <c r="I437" t="s">
+        <v>13</v>
+      </c>
+      <c r="J437">
+        <v>1</v>
+      </c>
+      <c r="K437" s="2">
+        <f t="shared" si="25"/>
+        <v>880000</v>
+      </c>
+      <c r="L437">
+        <v>1</v>
+      </c>
+      <c r="M437" s="2">
+        <f t="shared" si="26"/>
+        <v>1760000</v>
+      </c>
+      <c r="N437">
+        <v>2</v>
+      </c>
+      <c r="O437" s="2">
+        <v>5834000</v>
+      </c>
+      <c r="P437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A438" s="2">
+        <v>436</v>
+      </c>
+      <c r="B438" s="2">
+        <v>23</v>
+      </c>
+      <c r="C438" s="1">
+        <v>18</v>
+      </c>
+      <c r="D438" s="2">
+        <v>9</v>
+      </c>
+      <c r="E438" s="2">
+        <v>20</v>
+      </c>
+      <c r="F438" s="2">
+        <v>436</v>
+      </c>
+      <c r="G438">
+        <v>0</v>
+      </c>
+      <c r="H438" s="2">
+        <v>482</v>
+      </c>
+      <c r="I438" t="s">
+        <v>13</v>
+      </c>
+      <c r="J438">
+        <v>1</v>
+      </c>
+      <c r="K438" s="2">
+        <f t="shared" ref="K438:K452" si="27">10000+A438*2000</f>
+        <v>882000</v>
+      </c>
+      <c r="L438">
+        <v>1</v>
+      </c>
+      <c r="M438" s="2">
+        <f t="shared" si="26"/>
+        <v>1764000</v>
+      </c>
+      <c r="N438">
+        <v>2</v>
+      </c>
+      <c r="O438" s="2">
+        <v>5842000</v>
+      </c>
+      <c r="P438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A439" s="2">
+        <v>437</v>
+      </c>
+      <c r="B439" s="2">
+        <v>23</v>
+      </c>
+      <c r="C439" s="1">
+        <v>18</v>
+      </c>
+      <c r="D439" s="2">
+        <v>9</v>
+      </c>
+      <c r="E439" s="2">
+        <v>20</v>
+      </c>
+      <c r="F439" s="2">
+        <v>437</v>
+      </c>
+      <c r="G439">
+        <v>0</v>
+      </c>
+      <c r="H439" s="2">
+        <v>482</v>
+      </c>
+      <c r="I439" t="s">
+        <v>13</v>
+      </c>
+      <c r="J439">
+        <v>1</v>
+      </c>
+      <c r="K439" s="2">
+        <f t="shared" si="27"/>
+        <v>884000</v>
+      </c>
+      <c r="L439">
+        <v>1</v>
+      </c>
+      <c r="M439" s="2">
+        <f t="shared" si="26"/>
+        <v>1768000</v>
+      </c>
+      <c r="N439">
+        <v>2</v>
+      </c>
+      <c r="O439" s="2">
+        <v>5850000</v>
+      </c>
+      <c r="P439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A440" s="2">
+        <v>438</v>
+      </c>
+      <c r="B440" s="2">
+        <v>23</v>
+      </c>
+      <c r="C440" s="1">
+        <v>18</v>
+      </c>
+      <c r="D440" s="2">
+        <v>9</v>
+      </c>
+      <c r="E440" s="2">
+        <v>20</v>
+      </c>
+      <c r="F440" s="2">
+        <v>438</v>
+      </c>
+      <c r="G440">
+        <v>0</v>
+      </c>
+      <c r="H440" s="2">
+        <v>482</v>
+      </c>
+      <c r="I440" t="s">
+        <v>13</v>
+      </c>
+      <c r="J440">
+        <v>1</v>
+      </c>
+      <c r="K440" s="2">
+        <f t="shared" si="27"/>
+        <v>886000</v>
+      </c>
+      <c r="L440">
+        <v>1</v>
+      </c>
+      <c r="M440" s="2">
+        <f t="shared" si="26"/>
+        <v>1772000</v>
+      </c>
+      <c r="N440">
+        <v>2</v>
+      </c>
+      <c r="O440" s="2">
+        <v>5858000</v>
+      </c>
+      <c r="P440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A441" s="2">
+        <v>439</v>
+      </c>
+      <c r="B441" s="2">
+        <v>23</v>
+      </c>
+      <c r="C441" s="1">
+        <v>18</v>
+      </c>
+      <c r="D441" s="2">
+        <v>9</v>
+      </c>
+      <c r="E441" s="2">
+        <v>20</v>
+      </c>
+      <c r="F441" s="2">
+        <v>439</v>
+      </c>
+      <c r="G441">
+        <v>0</v>
+      </c>
+      <c r="H441" s="2">
+        <v>482</v>
+      </c>
+      <c r="I441" t="s">
+        <v>13</v>
+      </c>
+      <c r="J441">
+        <v>1</v>
+      </c>
+      <c r="K441" s="2">
+        <f t="shared" si="27"/>
+        <v>888000</v>
+      </c>
+      <c r="L441">
+        <v>1</v>
+      </c>
+      <c r="M441" s="2">
+        <f t="shared" si="26"/>
+        <v>1776000</v>
+      </c>
+      <c r="N441">
+        <v>2</v>
+      </c>
+      <c r="O441" s="2">
+        <v>5866000</v>
+      </c>
+      <c r="P441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A442" s="2">
+        <v>440</v>
+      </c>
+      <c r="B442" s="2">
+        <v>23</v>
+      </c>
+      <c r="C442" s="1">
+        <v>18</v>
+      </c>
+      <c r="D442" s="2">
+        <v>9</v>
+      </c>
+      <c r="E442" s="2">
+        <v>20</v>
+      </c>
+      <c r="F442" s="2">
+        <v>440</v>
+      </c>
+      <c r="G442">
+        <v>0</v>
+      </c>
+      <c r="H442" s="2">
+        <v>482</v>
+      </c>
+      <c r="I442" t="s">
+        <v>13</v>
+      </c>
+      <c r="J442">
+        <v>1</v>
+      </c>
+      <c r="K442" s="2">
+        <f t="shared" si="27"/>
+        <v>890000</v>
+      </c>
+      <c r="L442">
+        <v>1</v>
+      </c>
+      <c r="M442" s="2">
+        <f t="shared" si="26"/>
+        <v>1780000</v>
+      </c>
+      <c r="N442">
+        <v>2</v>
+      </c>
+      <c r="O442" s="2">
+        <v>5874000</v>
+      </c>
+      <c r="P442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A443" s="2">
+        <v>441</v>
+      </c>
+      <c r="B443" s="2">
+        <v>23</v>
+      </c>
+      <c r="C443" s="1">
+        <v>18</v>
+      </c>
+      <c r="D443" s="2">
+        <v>9</v>
+      </c>
+      <c r="E443" s="2">
+        <v>20</v>
+      </c>
+      <c r="F443" s="2">
+        <v>441</v>
+      </c>
+      <c r="G443">
+        <v>0</v>
+      </c>
+      <c r="H443" s="2">
+        <v>482</v>
+      </c>
+      <c r="I443" t="s">
+        <v>13</v>
+      </c>
+      <c r="J443">
+        <v>1</v>
+      </c>
+      <c r="K443" s="2">
+        <f t="shared" si="27"/>
+        <v>892000</v>
+      </c>
+      <c r="L443">
+        <v>1</v>
+      </c>
+      <c r="M443" s="2">
+        <f t="shared" si="26"/>
+        <v>1784000</v>
+      </c>
+      <c r="N443">
+        <v>2</v>
+      </c>
+      <c r="O443" s="2">
+        <v>5882000</v>
+      </c>
+      <c r="P443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A444" s="2">
+        <v>442</v>
+      </c>
+      <c r="B444" s="2">
+        <v>23</v>
+      </c>
+      <c r="C444" s="1">
+        <v>18</v>
+      </c>
+      <c r="D444" s="2">
+        <v>9</v>
+      </c>
+      <c r="E444" s="2">
+        <v>20</v>
+      </c>
+      <c r="F444" s="2">
+        <v>442</v>
+      </c>
+      <c r="G444">
+        <v>0</v>
+      </c>
+      <c r="H444" s="2">
+        <v>482</v>
+      </c>
+      <c r="I444" t="s">
+        <v>13</v>
+      </c>
+      <c r="J444">
+        <v>1</v>
+      </c>
+      <c r="K444" s="2">
+        <f t="shared" si="27"/>
+        <v>894000</v>
+      </c>
+      <c r="L444">
+        <v>1</v>
+      </c>
+      <c r="M444" s="2">
+        <f t="shared" si="26"/>
+        <v>1788000</v>
+      </c>
+      <c r="N444">
+        <v>2</v>
+      </c>
+      <c r="O444" s="2">
+        <v>5890000</v>
+      </c>
+      <c r="P444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A445" s="2">
+        <v>443</v>
+      </c>
+      <c r="B445" s="2">
+        <v>23</v>
+      </c>
+      <c r="C445" s="1">
+        <v>18</v>
+      </c>
+      <c r="D445" s="2">
+        <v>9</v>
+      </c>
+      <c r="E445" s="2">
+        <v>20</v>
+      </c>
+      <c r="F445" s="2">
+        <v>443</v>
+      </c>
+      <c r="G445">
+        <v>0</v>
+      </c>
+      <c r="H445" s="2">
+        <v>482</v>
+      </c>
+      <c r="I445" t="s">
+        <v>13</v>
+      </c>
+      <c r="J445">
+        <v>1</v>
+      </c>
+      <c r="K445" s="2">
+        <f t="shared" si="27"/>
+        <v>896000</v>
+      </c>
+      <c r="L445">
+        <v>1</v>
+      </c>
+      <c r="M445" s="2">
+        <f t="shared" si="26"/>
+        <v>1792000</v>
+      </c>
+      <c r="N445">
+        <v>2</v>
+      </c>
+      <c r="O445" s="2">
+        <v>5898000</v>
+      </c>
+      <c r="P445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A446" s="2">
+        <v>444</v>
+      </c>
+      <c r="B446" s="2">
+        <v>23</v>
+      </c>
+      <c r="C446" s="1">
+        <v>18</v>
+      </c>
+      <c r="D446" s="2">
+        <v>9</v>
+      </c>
+      <c r="E446" s="2">
+        <v>20</v>
+      </c>
+      <c r="F446" s="2">
+        <v>444</v>
+      </c>
+      <c r="G446">
+        <v>0</v>
+      </c>
+      <c r="H446" s="2">
+        <v>482</v>
+      </c>
+      <c r="I446" t="s">
+        <v>13</v>
+      </c>
+      <c r="J446">
+        <v>1</v>
+      </c>
+      <c r="K446" s="2">
+        <f t="shared" si="27"/>
+        <v>898000</v>
+      </c>
+      <c r="L446">
+        <v>1</v>
+      </c>
+      <c r="M446" s="2">
+        <f t="shared" si="26"/>
+        <v>1796000</v>
+      </c>
+      <c r="N446">
+        <v>2</v>
+      </c>
+      <c r="O446" s="2">
+        <v>5906000</v>
+      </c>
+      <c r="P446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A447" s="2">
+        <v>445</v>
+      </c>
+      <c r="B447" s="2">
+        <v>23</v>
+      </c>
+      <c r="C447" s="1">
+        <v>18</v>
+      </c>
+      <c r="D447" s="2">
+        <v>9</v>
+      </c>
+      <c r="E447" s="2">
+        <v>20</v>
+      </c>
+      <c r="F447" s="2">
+        <v>445</v>
+      </c>
+      <c r="G447">
+        <v>0</v>
+      </c>
+      <c r="H447" s="2">
+        <v>482</v>
+      </c>
+      <c r="I447" t="s">
+        <v>13</v>
+      </c>
+      <c r="J447">
+        <v>1</v>
+      </c>
+      <c r="K447" s="2">
+        <f t="shared" si="27"/>
+        <v>900000</v>
+      </c>
+      <c r="L447">
+        <v>1</v>
+      </c>
+      <c r="M447" s="2">
+        <f t="shared" si="26"/>
+        <v>1800000</v>
+      </c>
+      <c r="N447">
+        <v>2</v>
+      </c>
+      <c r="O447" s="2">
+        <v>5914000</v>
+      </c>
+      <c r="P447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A448" s="2">
+        <v>446</v>
+      </c>
+      <c r="B448" s="2">
+        <v>23</v>
+      </c>
+      <c r="C448" s="1">
+        <v>18</v>
+      </c>
+      <c r="D448" s="2">
+        <v>9</v>
+      </c>
+      <c r="E448" s="2">
+        <v>20</v>
+      </c>
+      <c r="F448" s="2">
+        <v>446</v>
+      </c>
+      <c r="G448">
+        <v>0</v>
+      </c>
+      <c r="H448" s="2">
+        <v>482</v>
+      </c>
+      <c r="I448" t="s">
+        <v>13</v>
+      </c>
+      <c r="J448">
+        <v>1</v>
+      </c>
+      <c r="K448" s="2">
+        <f t="shared" si="27"/>
+        <v>902000</v>
+      </c>
+      <c r="L448">
+        <v>1</v>
+      </c>
+      <c r="M448" s="2">
+        <f t="shared" si="26"/>
+        <v>1804000</v>
+      </c>
+      <c r="N448">
+        <v>2</v>
+      </c>
+      <c r="O448" s="2">
+        <v>5922000</v>
+      </c>
+      <c r="P448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A449" s="2">
+        <v>447</v>
+      </c>
+      <c r="B449" s="2">
+        <v>23</v>
+      </c>
+      <c r="C449" s="1">
+        <v>18</v>
+      </c>
+      <c r="D449" s="2">
+        <v>9</v>
+      </c>
+      <c r="E449" s="2">
+        <v>20</v>
+      </c>
+      <c r="F449" s="2">
+        <v>447</v>
+      </c>
+      <c r="G449">
+        <v>0</v>
+      </c>
+      <c r="H449" s="2">
+        <v>482</v>
+      </c>
+      <c r="I449" t="s">
+        <v>13</v>
+      </c>
+      <c r="J449">
+        <v>1</v>
+      </c>
+      <c r="K449" s="2">
+        <f t="shared" si="27"/>
+        <v>904000</v>
+      </c>
+      <c r="L449">
+        <v>1</v>
+      </c>
+      <c r="M449" s="2">
+        <f t="shared" si="26"/>
+        <v>1808000</v>
+      </c>
+      <c r="N449">
+        <v>2</v>
+      </c>
+      <c r="O449" s="2">
+        <v>5930000</v>
+      </c>
+      <c r="P449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A450" s="2">
+        <v>448</v>
+      </c>
+      <c r="B450" s="2">
+        <v>23</v>
+      </c>
+      <c r="C450" s="1">
+        <v>18</v>
+      </c>
+      <c r="D450" s="2">
+        <v>9</v>
+      </c>
+      <c r="E450" s="2">
+        <v>20</v>
+      </c>
+      <c r="F450" s="2">
+        <v>448</v>
+      </c>
+      <c r="G450">
+        <v>0</v>
+      </c>
+      <c r="H450" s="2">
+        <v>482</v>
+      </c>
+      <c r="I450" t="s">
+        <v>13</v>
+      </c>
+      <c r="J450">
+        <v>1</v>
+      </c>
+      <c r="K450" s="2">
+        <f t="shared" si="27"/>
+        <v>906000</v>
+      </c>
+      <c r="L450">
+        <v>1</v>
+      </c>
+      <c r="M450" s="2">
+        <f t="shared" si="26"/>
+        <v>1812000</v>
+      </c>
+      <c r="N450">
+        <v>2</v>
+      </c>
+      <c r="O450" s="2">
+        <v>5938000</v>
+      </c>
+      <c r="P450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A451" s="2">
+        <v>449</v>
+      </c>
+      <c r="B451" s="2">
+        <v>23</v>
+      </c>
+      <c r="C451" s="1">
+        <v>18</v>
+      </c>
+      <c r="D451" s="2">
+        <v>9</v>
+      </c>
+      <c r="E451" s="2">
+        <v>20</v>
+      </c>
+      <c r="F451" s="2">
+        <v>449</v>
+      </c>
+      <c r="G451">
+        <v>0</v>
+      </c>
+      <c r="H451" s="2">
+        <v>482</v>
+      </c>
+      <c r="I451" t="s">
+        <v>13</v>
+      </c>
+      <c r="J451">
+        <v>1</v>
+      </c>
+      <c r="K451" s="2">
+        <f t="shared" si="27"/>
+        <v>908000</v>
+      </c>
+      <c r="L451">
+        <v>1</v>
+      </c>
+      <c r="M451" s="2">
+        <f t="shared" si="26"/>
+        <v>1816000</v>
+      </c>
+      <c r="N451">
+        <v>2</v>
+      </c>
+      <c r="O451" s="2">
+        <v>5946000</v>
+      </c>
+      <c r="P451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A452" s="2">
+        <v>450</v>
+      </c>
+      <c r="B452" s="2">
+        <v>23</v>
+      </c>
+      <c r="C452" s="1">
+        <v>18</v>
+      </c>
+      <c r="D452" s="2">
+        <v>9</v>
+      </c>
+      <c r="E452" s="2">
+        <v>20</v>
+      </c>
+      <c r="F452" s="2">
+        <v>450</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+      <c r="H452" s="2">
+        <v>482</v>
+      </c>
+      <c r="I452" t="s">
+        <v>13</v>
+      </c>
+      <c r="J452">
+        <v>1</v>
+      </c>
+      <c r="K452" s="2">
+        <f t="shared" si="27"/>
+        <v>910000</v>
+      </c>
+      <c r="L452">
+        <v>1</v>
+      </c>
+      <c r="M452" s="2">
+        <f t="shared" si="26"/>
+        <v>1820000</v>
+      </c>
+      <c r="N452">
+        <v>2</v>
+      </c>
+      <c r="O452" s="2">
+        <v>5954000</v>
+      </c>
+      <c r="P452">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F82027-5F2F-41AD-BB83-2F85220B9CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7311A8-669B-49A4-A781-863099864534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1890" windowWidth="33405" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6240" yWindow="3075" windowWidth="27555" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="19">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q452"/>
+  <dimension ref="A1:Q500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C410" sqref="C410"/>
+      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F500" sqref="F500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23313,7 +23313,7 @@
         <v>1</v>
       </c>
       <c r="M430" s="2">
-        <f t="shared" ref="M430:M452" si="26">K430*2</f>
+        <f t="shared" ref="M430:M493" si="26">K430*2</f>
         <v>1732000</v>
       </c>
       <c r="N430">
@@ -23722,7 +23722,7 @@
         <v>1</v>
       </c>
       <c r="K438" s="2">
-        <f t="shared" ref="K438:K452" si="27">10000+A438*2000</f>
+        <f t="shared" ref="K438:K500" si="27">10000+A438*2000</f>
         <v>882000</v>
       </c>
       <c r="L438">
@@ -24418,55 +24418,2551 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A452" s="2">
+    <row r="452" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A452" s="5">
         <v>450</v>
       </c>
-      <c r="B452" s="2">
+      <c r="B452" s="5">
         <v>23</v>
       </c>
-      <c r="C452" s="1">
+      <c r="C452" s="5">
         <v>18</v>
       </c>
-      <c r="D452" s="2">
-        <v>9</v>
-      </c>
-      <c r="E452" s="2">
+      <c r="D452" s="5">
+        <v>9</v>
+      </c>
+      <c r="E452" s="5">
         <v>20</v>
       </c>
-      <c r="F452" s="2">
+      <c r="F452" s="5">
         <v>450</v>
       </c>
-      <c r="G452">
-        <v>0</v>
-      </c>
-      <c r="H452" s="2">
+      <c r="G452" s="5">
+        <v>0</v>
+      </c>
+      <c r="H452" s="5">
         <v>482</v>
       </c>
-      <c r="I452" t="s">
-        <v>13</v>
-      </c>
-      <c r="J452">
-        <v>1</v>
-      </c>
-      <c r="K452" s="2">
+      <c r="I452" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J452" s="5">
+        <v>1</v>
+      </c>
+      <c r="K452" s="5">
         <f t="shared" si="27"/>
         <v>910000</v>
       </c>
-      <c r="L452">
-        <v>1</v>
-      </c>
-      <c r="M452" s="2">
+      <c r="L452" s="5">
+        <v>1</v>
+      </c>
+      <c r="M452" s="5">
         <f t="shared" si="26"/>
         <v>1820000</v>
       </c>
-      <c r="N452">
-        <v>2</v>
-      </c>
-      <c r="O452" s="2">
+      <c r="N452" s="5">
+        <v>2</v>
+      </c>
+      <c r="O452" s="5">
         <v>5954000</v>
       </c>
-      <c r="P452">
+      <c r="P452" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A453" s="2">
+        <v>451</v>
+      </c>
+      <c r="B453" s="2">
+        <v>24</v>
+      </c>
+      <c r="C453" s="1">
+        <v>19</v>
+      </c>
+      <c r="D453" s="2">
+        <v>9</v>
+      </c>
+      <c r="E453" s="2">
+        <v>20</v>
+      </c>
+      <c r="F453" s="2">
+        <v>451</v>
+      </c>
+      <c r="G453" s="5">
+        <v>0</v>
+      </c>
+      <c r="H453" s="5">
+        <v>490</v>
+      </c>
+      <c r="I453" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J453" s="5">
+        <v>1</v>
+      </c>
+      <c r="K453" s="2">
+        <f t="shared" si="27"/>
+        <v>912000</v>
+      </c>
+      <c r="L453" s="5">
+        <v>1</v>
+      </c>
+      <c r="M453" s="2">
+        <f t="shared" si="26"/>
+        <v>1824000</v>
+      </c>
+      <c r="N453">
+        <v>2</v>
+      </c>
+      <c r="O453" s="2">
+        <v>5962000</v>
+      </c>
+      <c r="P453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A454" s="2">
+        <v>452</v>
+      </c>
+      <c r="B454" s="2">
+        <v>24</v>
+      </c>
+      <c r="C454" s="1">
+        <v>19</v>
+      </c>
+      <c r="D454" s="2">
+        <v>9</v>
+      </c>
+      <c r="E454" s="2">
+        <v>20</v>
+      </c>
+      <c r="F454" s="2">
+        <v>452</v>
+      </c>
+      <c r="G454" s="5">
+        <v>0</v>
+      </c>
+      <c r="H454" s="5">
+        <v>490</v>
+      </c>
+      <c r="I454" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J454" s="5">
+        <v>2</v>
+      </c>
+      <c r="K454" s="2">
+        <f t="shared" si="27"/>
+        <v>914000</v>
+      </c>
+      <c r="L454" s="5">
+        <v>1</v>
+      </c>
+      <c r="M454" s="2">
+        <f t="shared" si="26"/>
+        <v>1828000</v>
+      </c>
+      <c r="N454" s="5">
+        <v>2</v>
+      </c>
+      <c r="O454" s="5">
+        <v>5970000</v>
+      </c>
+      <c r="P454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A455" s="2">
+        <v>453</v>
+      </c>
+      <c r="B455" s="2">
+        <v>24</v>
+      </c>
+      <c r="C455" s="1">
+        <v>19</v>
+      </c>
+      <c r="D455" s="2">
+        <v>9</v>
+      </c>
+      <c r="E455" s="2">
+        <v>20</v>
+      </c>
+      <c r="F455" s="2">
+        <v>453</v>
+      </c>
+      <c r="G455" s="5">
+        <v>0</v>
+      </c>
+      <c r="H455" s="5">
+        <v>490</v>
+      </c>
+      <c r="I455" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J455" s="5">
+        <v>3</v>
+      </c>
+      <c r="K455" s="2">
+        <f t="shared" si="27"/>
+        <v>916000</v>
+      </c>
+      <c r="L455" s="5">
+        <v>1</v>
+      </c>
+      <c r="M455" s="2">
+        <f t="shared" si="26"/>
+        <v>1832000</v>
+      </c>
+      <c r="N455">
+        <v>2</v>
+      </c>
+      <c r="O455" s="2">
+        <v>5978000</v>
+      </c>
+      <c r="P455" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A456" s="2">
+        <v>454</v>
+      </c>
+      <c r="B456" s="2">
+        <v>24</v>
+      </c>
+      <c r="C456" s="1">
+        <v>19</v>
+      </c>
+      <c r="D456" s="2">
+        <v>9</v>
+      </c>
+      <c r="E456" s="2">
+        <v>20</v>
+      </c>
+      <c r="F456" s="2">
+        <v>454</v>
+      </c>
+      <c r="G456" s="5">
+        <v>0</v>
+      </c>
+      <c r="H456" s="5">
+        <v>490</v>
+      </c>
+      <c r="I456" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J456" s="5">
+        <v>4</v>
+      </c>
+      <c r="K456" s="2">
+        <f t="shared" si="27"/>
+        <v>918000</v>
+      </c>
+      <c r="L456" s="5">
+        <v>1</v>
+      </c>
+      <c r="M456" s="2">
+        <f t="shared" si="26"/>
+        <v>1836000</v>
+      </c>
+      <c r="N456" s="5">
+        <v>2</v>
+      </c>
+      <c r="O456" s="5">
+        <v>5986000</v>
+      </c>
+      <c r="P456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A457" s="2">
+        <v>455</v>
+      </c>
+      <c r="B457" s="2">
+        <v>24</v>
+      </c>
+      <c r="C457" s="1">
+        <v>19</v>
+      </c>
+      <c r="D457" s="2">
+        <v>9</v>
+      </c>
+      <c r="E457" s="2">
+        <v>20</v>
+      </c>
+      <c r="F457" s="2">
+        <v>455</v>
+      </c>
+      <c r="G457" s="5">
+        <v>0</v>
+      </c>
+      <c r="H457" s="5">
+        <v>490</v>
+      </c>
+      <c r="I457" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J457" s="5">
+        <v>5</v>
+      </c>
+      <c r="K457" s="2">
+        <f t="shared" si="27"/>
+        <v>920000</v>
+      </c>
+      <c r="L457" s="5">
+        <v>1</v>
+      </c>
+      <c r="M457" s="2">
+        <f t="shared" si="26"/>
+        <v>1840000</v>
+      </c>
+      <c r="N457">
+        <v>2</v>
+      </c>
+      <c r="O457" s="2">
+        <v>5994000</v>
+      </c>
+      <c r="P457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A458" s="2">
+        <v>456</v>
+      </c>
+      <c r="B458" s="2">
+        <v>24</v>
+      </c>
+      <c r="C458" s="1">
+        <v>19</v>
+      </c>
+      <c r="D458" s="2">
+        <v>9</v>
+      </c>
+      <c r="E458" s="2">
+        <v>20</v>
+      </c>
+      <c r="F458" s="2">
+        <v>456</v>
+      </c>
+      <c r="G458" s="5">
+        <v>0</v>
+      </c>
+      <c r="H458" s="5">
+        <v>490</v>
+      </c>
+      <c r="I458" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J458" s="5">
+        <v>6</v>
+      </c>
+      <c r="K458" s="2">
+        <f t="shared" si="27"/>
+        <v>922000</v>
+      </c>
+      <c r="L458" s="5">
+        <v>1</v>
+      </c>
+      <c r="M458" s="2">
+        <f t="shared" si="26"/>
+        <v>1844000</v>
+      </c>
+      <c r="N458" s="5">
+        <v>2</v>
+      </c>
+      <c r="O458" s="5">
+        <v>6002000</v>
+      </c>
+      <c r="P458" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A459" s="2">
+        <v>457</v>
+      </c>
+      <c r="B459" s="2">
+        <v>24</v>
+      </c>
+      <c r="C459" s="1">
+        <v>19</v>
+      </c>
+      <c r="D459" s="2">
+        <v>9</v>
+      </c>
+      <c r="E459" s="2">
+        <v>20</v>
+      </c>
+      <c r="F459" s="2">
+        <v>457</v>
+      </c>
+      <c r="G459" s="5">
+        <v>0</v>
+      </c>
+      <c r="H459" s="5">
+        <v>490</v>
+      </c>
+      <c r="I459" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J459" s="5">
+        <v>7</v>
+      </c>
+      <c r="K459" s="2">
+        <f t="shared" si="27"/>
+        <v>924000</v>
+      </c>
+      <c r="L459" s="5">
+        <v>1</v>
+      </c>
+      <c r="M459" s="2">
+        <f t="shared" si="26"/>
+        <v>1848000</v>
+      </c>
+      <c r="N459">
+        <v>2</v>
+      </c>
+      <c r="O459" s="2">
+        <v>6010000</v>
+      </c>
+      <c r="P459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A460" s="2">
+        <v>458</v>
+      </c>
+      <c r="B460" s="2">
+        <v>24</v>
+      </c>
+      <c r="C460" s="1">
+        <v>19</v>
+      </c>
+      <c r="D460" s="2">
+        <v>9</v>
+      </c>
+      <c r="E460" s="2">
+        <v>20</v>
+      </c>
+      <c r="F460" s="2">
+        <v>458</v>
+      </c>
+      <c r="G460" s="5">
+        <v>0</v>
+      </c>
+      <c r="H460" s="5">
+        <v>490</v>
+      </c>
+      <c r="I460" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J460" s="5">
+        <v>8</v>
+      </c>
+      <c r="K460" s="2">
+        <f t="shared" si="27"/>
+        <v>926000</v>
+      </c>
+      <c r="L460" s="5">
+        <v>1</v>
+      </c>
+      <c r="M460" s="2">
+        <f t="shared" si="26"/>
+        <v>1852000</v>
+      </c>
+      <c r="N460" s="5">
+        <v>2</v>
+      </c>
+      <c r="O460" s="5">
+        <v>6018000</v>
+      </c>
+      <c r="P460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A461" s="2">
+        <v>459</v>
+      </c>
+      <c r="B461" s="2">
+        <v>24</v>
+      </c>
+      <c r="C461" s="1">
+        <v>19</v>
+      </c>
+      <c r="D461" s="2">
+        <v>9</v>
+      </c>
+      <c r="E461" s="2">
+        <v>20</v>
+      </c>
+      <c r="F461" s="2">
+        <v>459</v>
+      </c>
+      <c r="G461" s="5">
+        <v>0</v>
+      </c>
+      <c r="H461" s="5">
+        <v>490</v>
+      </c>
+      <c r="I461" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J461" s="5">
+        <v>9</v>
+      </c>
+      <c r="K461" s="2">
+        <f t="shared" si="27"/>
+        <v>928000</v>
+      </c>
+      <c r="L461" s="5">
+        <v>1</v>
+      </c>
+      <c r="M461" s="2">
+        <f t="shared" si="26"/>
+        <v>1856000</v>
+      </c>
+      <c r="N461">
+        <v>2</v>
+      </c>
+      <c r="O461" s="2">
+        <v>6026000</v>
+      </c>
+      <c r="P461" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A462" s="2">
+        <v>460</v>
+      </c>
+      <c r="B462" s="2">
+        <v>24</v>
+      </c>
+      <c r="C462" s="1">
+        <v>19</v>
+      </c>
+      <c r="D462" s="2">
+        <v>9</v>
+      </c>
+      <c r="E462" s="2">
+        <v>20</v>
+      </c>
+      <c r="F462" s="2">
+        <v>460</v>
+      </c>
+      <c r="G462" s="5">
+        <v>0</v>
+      </c>
+      <c r="H462" s="5">
+        <v>490</v>
+      </c>
+      <c r="I462" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J462" s="5">
+        <v>10</v>
+      </c>
+      <c r="K462" s="2">
+        <f t="shared" si="27"/>
+        <v>930000</v>
+      </c>
+      <c r="L462" s="5">
+        <v>1</v>
+      </c>
+      <c r="M462" s="2">
+        <f t="shared" si="26"/>
+        <v>1860000</v>
+      </c>
+      <c r="N462" s="5">
+        <v>2</v>
+      </c>
+      <c r="O462" s="5">
+        <v>6034000</v>
+      </c>
+      <c r="P462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A463" s="2">
+        <v>461</v>
+      </c>
+      <c r="B463" s="2">
+        <v>24</v>
+      </c>
+      <c r="C463" s="1">
+        <v>19</v>
+      </c>
+      <c r="D463" s="2">
+        <v>9</v>
+      </c>
+      <c r="E463" s="2">
+        <v>20</v>
+      </c>
+      <c r="F463" s="2">
+        <v>461</v>
+      </c>
+      <c r="G463" s="5">
+        <v>0</v>
+      </c>
+      <c r="H463" s="5">
+        <v>490</v>
+      </c>
+      <c r="I463" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J463" s="5">
+        <v>11</v>
+      </c>
+      <c r="K463" s="2">
+        <f t="shared" si="27"/>
+        <v>932000</v>
+      </c>
+      <c r="L463" s="5">
+        <v>1</v>
+      </c>
+      <c r="M463" s="2">
+        <f t="shared" si="26"/>
+        <v>1864000</v>
+      </c>
+      <c r="N463">
+        <v>2</v>
+      </c>
+      <c r="O463" s="2">
+        <v>6042000</v>
+      </c>
+      <c r="P463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A464" s="2">
+        <v>462</v>
+      </c>
+      <c r="B464" s="2">
+        <v>24</v>
+      </c>
+      <c r="C464" s="1">
+        <v>19</v>
+      </c>
+      <c r="D464" s="2">
+        <v>9</v>
+      </c>
+      <c r="E464" s="2">
+        <v>20</v>
+      </c>
+      <c r="F464" s="2">
+        <v>462</v>
+      </c>
+      <c r="G464" s="5">
+        <v>0</v>
+      </c>
+      <c r="H464" s="5">
+        <v>490</v>
+      </c>
+      <c r="I464" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J464" s="5">
+        <v>12</v>
+      </c>
+      <c r="K464" s="2">
+        <f t="shared" si="27"/>
+        <v>934000</v>
+      </c>
+      <c r="L464" s="5">
+        <v>1</v>
+      </c>
+      <c r="M464" s="2">
+        <f t="shared" si="26"/>
+        <v>1868000</v>
+      </c>
+      <c r="N464" s="5">
+        <v>2</v>
+      </c>
+      <c r="O464" s="5">
+        <v>6050000</v>
+      </c>
+      <c r="P464" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A465" s="2">
+        <v>463</v>
+      </c>
+      <c r="B465" s="2">
+        <v>24</v>
+      </c>
+      <c r="C465" s="1">
+        <v>19</v>
+      </c>
+      <c r="D465" s="2">
+        <v>9</v>
+      </c>
+      <c r="E465" s="2">
+        <v>20</v>
+      </c>
+      <c r="F465" s="2">
+        <v>463</v>
+      </c>
+      <c r="G465" s="5">
+        <v>0</v>
+      </c>
+      <c r="H465" s="5">
+        <v>490</v>
+      </c>
+      <c r="I465" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J465" s="5">
+        <v>13</v>
+      </c>
+      <c r="K465" s="2">
+        <f t="shared" si="27"/>
+        <v>936000</v>
+      </c>
+      <c r="L465" s="5">
+        <v>1</v>
+      </c>
+      <c r="M465" s="2">
+        <f t="shared" si="26"/>
+        <v>1872000</v>
+      </c>
+      <c r="N465">
+        <v>2</v>
+      </c>
+      <c r="O465" s="2">
+        <v>6058000</v>
+      </c>
+      <c r="P465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A466" s="2">
+        <v>464</v>
+      </c>
+      <c r="B466" s="2">
+        <v>24</v>
+      </c>
+      <c r="C466" s="1">
+        <v>19</v>
+      </c>
+      <c r="D466" s="2">
+        <v>9</v>
+      </c>
+      <c r="E466" s="2">
+        <v>20</v>
+      </c>
+      <c r="F466" s="2">
+        <v>464</v>
+      </c>
+      <c r="G466" s="5">
+        <v>0</v>
+      </c>
+      <c r="H466" s="5">
+        <v>490</v>
+      </c>
+      <c r="I466" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J466" s="5">
+        <v>14</v>
+      </c>
+      <c r="K466" s="2">
+        <f t="shared" si="27"/>
+        <v>938000</v>
+      </c>
+      <c r="L466" s="5">
+        <v>1</v>
+      </c>
+      <c r="M466" s="2">
+        <f t="shared" si="26"/>
+        <v>1876000</v>
+      </c>
+      <c r="N466" s="5">
+        <v>2</v>
+      </c>
+      <c r="O466" s="5">
+        <v>6066000</v>
+      </c>
+      <c r="P466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A467" s="2">
+        <v>465</v>
+      </c>
+      <c r="B467" s="2">
+        <v>24</v>
+      </c>
+      <c r="C467" s="1">
+        <v>19</v>
+      </c>
+      <c r="D467" s="2">
+        <v>9</v>
+      </c>
+      <c r="E467" s="2">
+        <v>20</v>
+      </c>
+      <c r="F467" s="2">
+        <v>465</v>
+      </c>
+      <c r="G467" s="5">
+        <v>0</v>
+      </c>
+      <c r="H467" s="5">
+        <v>490</v>
+      </c>
+      <c r="I467" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J467" s="5">
+        <v>15</v>
+      </c>
+      <c r="K467" s="2">
+        <f t="shared" si="27"/>
+        <v>940000</v>
+      </c>
+      <c r="L467" s="5">
+        <v>1</v>
+      </c>
+      <c r="M467" s="2">
+        <f t="shared" si="26"/>
+        <v>1880000</v>
+      </c>
+      <c r="N467">
+        <v>2</v>
+      </c>
+      <c r="O467" s="2">
+        <v>6074000</v>
+      </c>
+      <c r="P467" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A468" s="2">
+        <v>466</v>
+      </c>
+      <c r="B468" s="2">
+        <v>24</v>
+      </c>
+      <c r="C468" s="1">
+        <v>19</v>
+      </c>
+      <c r="D468" s="2">
+        <v>9</v>
+      </c>
+      <c r="E468" s="2">
+        <v>20</v>
+      </c>
+      <c r="F468" s="2">
+        <v>466</v>
+      </c>
+      <c r="G468" s="5">
+        <v>0</v>
+      </c>
+      <c r="H468" s="5">
+        <v>490</v>
+      </c>
+      <c r="I468" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J468" s="5">
+        <v>16</v>
+      </c>
+      <c r="K468" s="2">
+        <f t="shared" si="27"/>
+        <v>942000</v>
+      </c>
+      <c r="L468" s="5">
+        <v>1</v>
+      </c>
+      <c r="M468" s="2">
+        <f t="shared" si="26"/>
+        <v>1884000</v>
+      </c>
+      <c r="N468" s="5">
+        <v>2</v>
+      </c>
+      <c r="O468" s="5">
+        <v>6082000</v>
+      </c>
+      <c r="P468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A469" s="2">
+        <v>467</v>
+      </c>
+      <c r="B469" s="2">
+        <v>24</v>
+      </c>
+      <c r="C469" s="1">
+        <v>19</v>
+      </c>
+      <c r="D469" s="2">
+        <v>9</v>
+      </c>
+      <c r="E469" s="2">
+        <v>20</v>
+      </c>
+      <c r="F469" s="2">
+        <v>467</v>
+      </c>
+      <c r="G469" s="5">
+        <v>0</v>
+      </c>
+      <c r="H469" s="5">
+        <v>490</v>
+      </c>
+      <c r="I469" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J469" s="5">
+        <v>17</v>
+      </c>
+      <c r="K469" s="2">
+        <f t="shared" si="27"/>
+        <v>944000</v>
+      </c>
+      <c r="L469" s="5">
+        <v>1</v>
+      </c>
+      <c r="M469" s="2">
+        <f t="shared" si="26"/>
+        <v>1888000</v>
+      </c>
+      <c r="N469">
+        <v>2</v>
+      </c>
+      <c r="O469" s="2">
+        <v>6090000</v>
+      </c>
+      <c r="P469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A470" s="2">
+        <v>468</v>
+      </c>
+      <c r="B470" s="2">
+        <v>24</v>
+      </c>
+      <c r="C470" s="1">
+        <v>19</v>
+      </c>
+      <c r="D470" s="2">
+        <v>9</v>
+      </c>
+      <c r="E470" s="2">
+        <v>20</v>
+      </c>
+      <c r="F470" s="2">
+        <v>468</v>
+      </c>
+      <c r="G470" s="5">
+        <v>0</v>
+      </c>
+      <c r="H470" s="5">
+        <v>490</v>
+      </c>
+      <c r="I470" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J470" s="5">
+        <v>18</v>
+      </c>
+      <c r="K470" s="2">
+        <f t="shared" si="27"/>
+        <v>946000</v>
+      </c>
+      <c r="L470" s="5">
+        <v>1</v>
+      </c>
+      <c r="M470" s="2">
+        <f t="shared" si="26"/>
+        <v>1892000</v>
+      </c>
+      <c r="N470" s="5">
+        <v>2</v>
+      </c>
+      <c r="O470" s="5">
+        <v>6098000</v>
+      </c>
+      <c r="P470" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A471" s="2">
+        <v>469</v>
+      </c>
+      <c r="B471" s="2">
+        <v>24</v>
+      </c>
+      <c r="C471" s="1">
+        <v>19</v>
+      </c>
+      <c r="D471" s="2">
+        <v>9</v>
+      </c>
+      <c r="E471" s="2">
+        <v>20</v>
+      </c>
+      <c r="F471" s="2">
+        <v>469</v>
+      </c>
+      <c r="G471" s="5">
+        <v>0</v>
+      </c>
+      <c r="H471" s="5">
+        <v>490</v>
+      </c>
+      <c r="I471" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J471" s="5">
+        <v>19</v>
+      </c>
+      <c r="K471" s="2">
+        <f t="shared" si="27"/>
+        <v>948000</v>
+      </c>
+      <c r="L471" s="5">
+        <v>1</v>
+      </c>
+      <c r="M471" s="2">
+        <f t="shared" si="26"/>
+        <v>1896000</v>
+      </c>
+      <c r="N471">
+        <v>2</v>
+      </c>
+      <c r="O471" s="2">
+        <v>6106000</v>
+      </c>
+      <c r="P471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A472" s="2">
+        <v>470</v>
+      </c>
+      <c r="B472" s="2">
+        <v>24</v>
+      </c>
+      <c r="C472" s="1">
+        <v>19</v>
+      </c>
+      <c r="D472" s="2">
+        <v>9</v>
+      </c>
+      <c r="E472" s="2">
+        <v>20</v>
+      </c>
+      <c r="F472" s="2">
+        <v>470</v>
+      </c>
+      <c r="G472" s="5">
+        <v>0</v>
+      </c>
+      <c r="H472" s="5">
+        <v>490</v>
+      </c>
+      <c r="I472" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J472" s="5">
+        <v>20</v>
+      </c>
+      <c r="K472" s="2">
+        <f t="shared" si="27"/>
+        <v>950000</v>
+      </c>
+      <c r="L472" s="5">
+        <v>1</v>
+      </c>
+      <c r="M472" s="2">
+        <f t="shared" si="26"/>
+        <v>1900000</v>
+      </c>
+      <c r="N472" s="5">
+        <v>2</v>
+      </c>
+      <c r="O472" s="5">
+        <v>6114000</v>
+      </c>
+      <c r="P472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A473" s="2">
+        <v>471</v>
+      </c>
+      <c r="B473" s="2">
+        <v>24</v>
+      </c>
+      <c r="C473" s="1">
+        <v>19</v>
+      </c>
+      <c r="D473" s="2">
+        <v>9</v>
+      </c>
+      <c r="E473" s="2">
+        <v>20</v>
+      </c>
+      <c r="F473" s="2">
+        <v>471</v>
+      </c>
+      <c r="G473" s="5">
+        <v>0</v>
+      </c>
+      <c r="H473" s="5">
+        <v>490</v>
+      </c>
+      <c r="I473" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J473" s="5">
+        <v>21</v>
+      </c>
+      <c r="K473" s="2">
+        <f t="shared" si="27"/>
+        <v>952000</v>
+      </c>
+      <c r="L473" s="5">
+        <v>1</v>
+      </c>
+      <c r="M473" s="2">
+        <f t="shared" si="26"/>
+        <v>1904000</v>
+      </c>
+      <c r="N473">
+        <v>2</v>
+      </c>
+      <c r="O473" s="2">
+        <v>6122000</v>
+      </c>
+      <c r="P473" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A474" s="2">
+        <v>472</v>
+      </c>
+      <c r="B474" s="2">
+        <v>24</v>
+      </c>
+      <c r="C474" s="1">
+        <v>19</v>
+      </c>
+      <c r="D474" s="2">
+        <v>9</v>
+      </c>
+      <c r="E474" s="2">
+        <v>20</v>
+      </c>
+      <c r="F474" s="2">
+        <v>472</v>
+      </c>
+      <c r="G474" s="5">
+        <v>0</v>
+      </c>
+      <c r="H474" s="5">
+        <v>490</v>
+      </c>
+      <c r="I474" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J474" s="5">
+        <v>22</v>
+      </c>
+      <c r="K474" s="2">
+        <f t="shared" si="27"/>
+        <v>954000</v>
+      </c>
+      <c r="L474" s="5">
+        <v>1</v>
+      </c>
+      <c r="M474" s="2">
+        <f t="shared" si="26"/>
+        <v>1908000</v>
+      </c>
+      <c r="N474" s="5">
+        <v>2</v>
+      </c>
+      <c r="O474" s="5">
+        <v>6130000</v>
+      </c>
+      <c r="P474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A475" s="2">
+        <v>473</v>
+      </c>
+      <c r="B475" s="2">
+        <v>24</v>
+      </c>
+      <c r="C475" s="1">
+        <v>19</v>
+      </c>
+      <c r="D475" s="2">
+        <v>9</v>
+      </c>
+      <c r="E475" s="2">
+        <v>20</v>
+      </c>
+      <c r="F475" s="2">
+        <v>473</v>
+      </c>
+      <c r="G475" s="5">
+        <v>0</v>
+      </c>
+      <c r="H475" s="5">
+        <v>490</v>
+      </c>
+      <c r="I475" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J475" s="5">
+        <v>23</v>
+      </c>
+      <c r="K475" s="2">
+        <f t="shared" si="27"/>
+        <v>956000</v>
+      </c>
+      <c r="L475" s="5">
+        <v>1</v>
+      </c>
+      <c r="M475" s="2">
+        <f t="shared" si="26"/>
+        <v>1912000</v>
+      </c>
+      <c r="N475">
+        <v>2</v>
+      </c>
+      <c r="O475" s="2">
+        <v>6138000</v>
+      </c>
+      <c r="P475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A476" s="2">
+        <v>474</v>
+      </c>
+      <c r="B476" s="2">
+        <v>24</v>
+      </c>
+      <c r="C476" s="1">
+        <v>19</v>
+      </c>
+      <c r="D476" s="2">
+        <v>9</v>
+      </c>
+      <c r="E476" s="2">
+        <v>20</v>
+      </c>
+      <c r="F476" s="2">
+        <v>474</v>
+      </c>
+      <c r="G476" s="5">
+        <v>0</v>
+      </c>
+      <c r="H476" s="5">
+        <v>490</v>
+      </c>
+      <c r="I476" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J476" s="5">
+        <v>24</v>
+      </c>
+      <c r="K476" s="2">
+        <f t="shared" si="27"/>
+        <v>958000</v>
+      </c>
+      <c r="L476" s="5">
+        <v>1</v>
+      </c>
+      <c r="M476" s="2">
+        <f t="shared" si="26"/>
+        <v>1916000</v>
+      </c>
+      <c r="N476" s="5">
+        <v>2</v>
+      </c>
+      <c r="O476" s="5">
+        <v>6146000</v>
+      </c>
+      <c r="P476" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A477" s="2">
+        <v>475</v>
+      </c>
+      <c r="B477" s="2">
+        <v>24</v>
+      </c>
+      <c r="C477" s="1">
+        <v>19</v>
+      </c>
+      <c r="D477" s="2">
+        <v>9</v>
+      </c>
+      <c r="E477" s="2">
+        <v>20</v>
+      </c>
+      <c r="F477" s="2">
+        <v>475</v>
+      </c>
+      <c r="G477" s="5">
+        <v>0</v>
+      </c>
+      <c r="H477" s="5">
+        <v>490</v>
+      </c>
+      <c r="I477" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J477" s="5">
+        <v>25</v>
+      </c>
+      <c r="K477" s="2">
+        <f t="shared" si="27"/>
+        <v>960000</v>
+      </c>
+      <c r="L477" s="5">
+        <v>1</v>
+      </c>
+      <c r="M477" s="2">
+        <f t="shared" si="26"/>
+        <v>1920000</v>
+      </c>
+      <c r="N477">
+        <v>2</v>
+      </c>
+      <c r="O477" s="2">
+        <v>6154000</v>
+      </c>
+      <c r="P477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A478" s="2">
+        <v>476</v>
+      </c>
+      <c r="B478" s="2">
+        <v>24</v>
+      </c>
+      <c r="C478" s="1">
+        <v>19</v>
+      </c>
+      <c r="D478" s="2">
+        <v>9</v>
+      </c>
+      <c r="E478" s="2">
+        <v>20</v>
+      </c>
+      <c r="F478" s="2">
+        <v>476</v>
+      </c>
+      <c r="G478" s="5">
+        <v>0</v>
+      </c>
+      <c r="H478" s="5">
+        <v>490</v>
+      </c>
+      <c r="I478" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J478" s="5">
+        <v>26</v>
+      </c>
+      <c r="K478" s="2">
+        <f t="shared" si="27"/>
+        <v>962000</v>
+      </c>
+      <c r="L478" s="5">
+        <v>1</v>
+      </c>
+      <c r="M478" s="2">
+        <f t="shared" si="26"/>
+        <v>1924000</v>
+      </c>
+      <c r="N478" s="5">
+        <v>2</v>
+      </c>
+      <c r="O478" s="5">
+        <v>6162000</v>
+      </c>
+      <c r="P478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A479" s="2">
+        <v>477</v>
+      </c>
+      <c r="B479" s="2">
+        <v>24</v>
+      </c>
+      <c r="C479" s="1">
+        <v>19</v>
+      </c>
+      <c r="D479" s="2">
+        <v>9</v>
+      </c>
+      <c r="E479" s="2">
+        <v>20</v>
+      </c>
+      <c r="F479" s="2">
+        <v>477</v>
+      </c>
+      <c r="G479" s="5">
+        <v>0</v>
+      </c>
+      <c r="H479" s="5">
+        <v>490</v>
+      </c>
+      <c r="I479" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J479" s="5">
+        <v>27</v>
+      </c>
+      <c r="K479" s="2">
+        <f t="shared" si="27"/>
+        <v>964000</v>
+      </c>
+      <c r="L479" s="5">
+        <v>1</v>
+      </c>
+      <c r="M479" s="2">
+        <f t="shared" si="26"/>
+        <v>1928000</v>
+      </c>
+      <c r="N479">
+        <v>2</v>
+      </c>
+      <c r="O479" s="2">
+        <v>6170000</v>
+      </c>
+      <c r="P479" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A480" s="2">
+        <v>478</v>
+      </c>
+      <c r="B480" s="2">
+        <v>24</v>
+      </c>
+      <c r="C480" s="1">
+        <v>19</v>
+      </c>
+      <c r="D480" s="2">
+        <v>9</v>
+      </c>
+      <c r="E480" s="2">
+        <v>20</v>
+      </c>
+      <c r="F480" s="2">
+        <v>478</v>
+      </c>
+      <c r="G480" s="5">
+        <v>0</v>
+      </c>
+      <c r="H480" s="5">
+        <v>490</v>
+      </c>
+      <c r="I480" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J480" s="5">
+        <v>28</v>
+      </c>
+      <c r="K480" s="2">
+        <f t="shared" si="27"/>
+        <v>966000</v>
+      </c>
+      <c r="L480" s="5">
+        <v>1</v>
+      </c>
+      <c r="M480" s="2">
+        <f t="shared" si="26"/>
+        <v>1932000</v>
+      </c>
+      <c r="N480" s="5">
+        <v>2</v>
+      </c>
+      <c r="O480" s="5">
+        <v>6178000</v>
+      </c>
+      <c r="P480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A481" s="2">
+        <v>479</v>
+      </c>
+      <c r="B481" s="2">
+        <v>24</v>
+      </c>
+      <c r="C481" s="1">
+        <v>19</v>
+      </c>
+      <c r="D481" s="2">
+        <v>9</v>
+      </c>
+      <c r="E481" s="2">
+        <v>20</v>
+      </c>
+      <c r="F481" s="2">
+        <v>479</v>
+      </c>
+      <c r="G481" s="5">
+        <v>0</v>
+      </c>
+      <c r="H481" s="5">
+        <v>490</v>
+      </c>
+      <c r="I481" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J481" s="5">
+        <v>29</v>
+      </c>
+      <c r="K481" s="2">
+        <f t="shared" si="27"/>
+        <v>968000</v>
+      </c>
+      <c r="L481" s="5">
+        <v>1</v>
+      </c>
+      <c r="M481" s="2">
+        <f t="shared" si="26"/>
+        <v>1936000</v>
+      </c>
+      <c r="N481">
+        <v>2</v>
+      </c>
+      <c r="O481" s="2">
+        <v>6186000</v>
+      </c>
+      <c r="P481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A482" s="2">
+        <v>480</v>
+      </c>
+      <c r="B482" s="2">
+        <v>24</v>
+      </c>
+      <c r="C482" s="1">
+        <v>19</v>
+      </c>
+      <c r="D482" s="2">
+        <v>9</v>
+      </c>
+      <c r="E482" s="2">
+        <v>20</v>
+      </c>
+      <c r="F482" s="2">
+        <v>480</v>
+      </c>
+      <c r="G482" s="5">
+        <v>0</v>
+      </c>
+      <c r="H482" s="5">
+        <v>490</v>
+      </c>
+      <c r="I482" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J482" s="5">
+        <v>30</v>
+      </c>
+      <c r="K482" s="2">
+        <f t="shared" si="27"/>
+        <v>970000</v>
+      </c>
+      <c r="L482" s="5">
+        <v>1</v>
+      </c>
+      <c r="M482" s="2">
+        <f t="shared" si="26"/>
+        <v>1940000</v>
+      </c>
+      <c r="N482" s="5">
+        <v>2</v>
+      </c>
+      <c r="O482" s="5">
+        <v>6194000</v>
+      </c>
+      <c r="P482" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A483" s="2">
+        <v>481</v>
+      </c>
+      <c r="B483" s="2">
+        <v>24</v>
+      </c>
+      <c r="C483" s="1">
+        <v>19</v>
+      </c>
+      <c r="D483" s="2">
+        <v>9</v>
+      </c>
+      <c r="E483" s="2">
+        <v>20</v>
+      </c>
+      <c r="F483" s="2">
+        <v>481</v>
+      </c>
+      <c r="G483" s="5">
+        <v>0</v>
+      </c>
+      <c r="H483" s="5">
+        <v>490</v>
+      </c>
+      <c r="I483" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J483" s="5">
+        <v>31</v>
+      </c>
+      <c r="K483" s="2">
+        <f t="shared" si="27"/>
+        <v>972000</v>
+      </c>
+      <c r="L483" s="5">
+        <v>1</v>
+      </c>
+      <c r="M483" s="2">
+        <f t="shared" si="26"/>
+        <v>1944000</v>
+      </c>
+      <c r="N483">
+        <v>2</v>
+      </c>
+      <c r="O483" s="2">
+        <v>6202000</v>
+      </c>
+      <c r="P483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A484" s="2">
+        <v>482</v>
+      </c>
+      <c r="B484" s="2">
+        <v>24</v>
+      </c>
+      <c r="C484" s="1">
+        <v>19</v>
+      </c>
+      <c r="D484" s="2">
+        <v>9</v>
+      </c>
+      <c r="E484" s="2">
+        <v>20</v>
+      </c>
+      <c r="F484" s="2">
+        <v>482</v>
+      </c>
+      <c r="G484" s="5">
+        <v>0</v>
+      </c>
+      <c r="H484" s="5">
+        <v>490</v>
+      </c>
+      <c r="I484" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J484" s="5">
+        <v>32</v>
+      </c>
+      <c r="K484" s="2">
+        <f t="shared" si="27"/>
+        <v>974000</v>
+      </c>
+      <c r="L484" s="5">
+        <v>1</v>
+      </c>
+      <c r="M484" s="2">
+        <f t="shared" si="26"/>
+        <v>1948000</v>
+      </c>
+      <c r="N484" s="5">
+        <v>2</v>
+      </c>
+      <c r="O484" s="5">
+        <v>6210000</v>
+      </c>
+      <c r="P484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A485" s="2">
+        <v>483</v>
+      </c>
+      <c r="B485" s="2">
+        <v>24</v>
+      </c>
+      <c r="C485" s="1">
+        <v>19</v>
+      </c>
+      <c r="D485" s="2">
+        <v>9</v>
+      </c>
+      <c r="E485" s="2">
+        <v>20</v>
+      </c>
+      <c r="F485" s="2">
+        <v>483</v>
+      </c>
+      <c r="G485" s="5">
+        <v>0</v>
+      </c>
+      <c r="H485" s="5">
+        <v>490</v>
+      </c>
+      <c r="I485" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J485" s="5">
+        <v>33</v>
+      </c>
+      <c r="K485" s="2">
+        <f t="shared" si="27"/>
+        <v>976000</v>
+      </c>
+      <c r="L485" s="5">
+        <v>1</v>
+      </c>
+      <c r="M485" s="2">
+        <f t="shared" si="26"/>
+        <v>1952000</v>
+      </c>
+      <c r="N485">
+        <v>2</v>
+      </c>
+      <c r="O485" s="2">
+        <v>6218000</v>
+      </c>
+      <c r="P485" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A486" s="2">
+        <v>484</v>
+      </c>
+      <c r="B486" s="2">
+        <v>24</v>
+      </c>
+      <c r="C486" s="1">
+        <v>19</v>
+      </c>
+      <c r="D486" s="2">
+        <v>9</v>
+      </c>
+      <c r="E486" s="2">
+        <v>20</v>
+      </c>
+      <c r="F486" s="2">
+        <v>484</v>
+      </c>
+      <c r="G486" s="5">
+        <v>0</v>
+      </c>
+      <c r="H486" s="5">
+        <v>490</v>
+      </c>
+      <c r="I486" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J486" s="5">
+        <v>34</v>
+      </c>
+      <c r="K486" s="2">
+        <f t="shared" si="27"/>
+        <v>978000</v>
+      </c>
+      <c r="L486" s="5">
+        <v>1</v>
+      </c>
+      <c r="M486" s="2">
+        <f t="shared" si="26"/>
+        <v>1956000</v>
+      </c>
+      <c r="N486" s="5">
+        <v>2</v>
+      </c>
+      <c r="O486" s="5">
+        <v>6226000</v>
+      </c>
+      <c r="P486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A487" s="2">
+        <v>485</v>
+      </c>
+      <c r="B487" s="2">
+        <v>24</v>
+      </c>
+      <c r="C487" s="1">
+        <v>19</v>
+      </c>
+      <c r="D487" s="2">
+        <v>9</v>
+      </c>
+      <c r="E487" s="2">
+        <v>20</v>
+      </c>
+      <c r="F487" s="2">
+        <v>485</v>
+      </c>
+      <c r="G487" s="5">
+        <v>0</v>
+      </c>
+      <c r="H487" s="5">
+        <v>490</v>
+      </c>
+      <c r="I487" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J487" s="5">
+        <v>35</v>
+      </c>
+      <c r="K487" s="2">
+        <f t="shared" si="27"/>
+        <v>980000</v>
+      </c>
+      <c r="L487" s="5">
+        <v>1</v>
+      </c>
+      <c r="M487" s="2">
+        <f t="shared" si="26"/>
+        <v>1960000</v>
+      </c>
+      <c r="N487">
+        <v>2</v>
+      </c>
+      <c r="O487" s="2">
+        <v>6234000</v>
+      </c>
+      <c r="P487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A488" s="2">
+        <v>486</v>
+      </c>
+      <c r="B488" s="2">
+        <v>24</v>
+      </c>
+      <c r="C488" s="1">
+        <v>19</v>
+      </c>
+      <c r="D488" s="2">
+        <v>9</v>
+      </c>
+      <c r="E488" s="2">
+        <v>20</v>
+      </c>
+      <c r="F488" s="2">
+        <v>486</v>
+      </c>
+      <c r="G488" s="5">
+        <v>0</v>
+      </c>
+      <c r="H488" s="5">
+        <v>490</v>
+      </c>
+      <c r="I488" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J488" s="5">
+        <v>36</v>
+      </c>
+      <c r="K488" s="2">
+        <f t="shared" si="27"/>
+        <v>982000</v>
+      </c>
+      <c r="L488" s="5">
+        <v>1</v>
+      </c>
+      <c r="M488" s="2">
+        <f t="shared" si="26"/>
+        <v>1964000</v>
+      </c>
+      <c r="N488" s="5">
+        <v>2</v>
+      </c>
+      <c r="O488" s="5">
+        <v>6242000</v>
+      </c>
+      <c r="P488" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A489" s="2">
+        <v>487</v>
+      </c>
+      <c r="B489" s="2">
+        <v>24</v>
+      </c>
+      <c r="C489" s="1">
+        <v>19</v>
+      </c>
+      <c r="D489" s="2">
+        <v>9</v>
+      </c>
+      <c r="E489" s="2">
+        <v>20</v>
+      </c>
+      <c r="F489" s="2">
+        <v>487</v>
+      </c>
+      <c r="G489" s="5">
+        <v>0</v>
+      </c>
+      <c r="H489" s="5">
+        <v>490</v>
+      </c>
+      <c r="I489" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J489" s="5">
+        <v>37</v>
+      </c>
+      <c r="K489" s="2">
+        <f t="shared" si="27"/>
+        <v>984000</v>
+      </c>
+      <c r="L489" s="5">
+        <v>1</v>
+      </c>
+      <c r="M489" s="2">
+        <f t="shared" si="26"/>
+        <v>1968000</v>
+      </c>
+      <c r="N489">
+        <v>2</v>
+      </c>
+      <c r="O489" s="2">
+        <v>6250000</v>
+      </c>
+      <c r="P489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A490" s="2">
+        <v>488</v>
+      </c>
+      <c r="B490" s="2">
+        <v>24</v>
+      </c>
+      <c r="C490" s="1">
+        <v>19</v>
+      </c>
+      <c r="D490" s="2">
+        <v>9</v>
+      </c>
+      <c r="E490" s="2">
+        <v>20</v>
+      </c>
+      <c r="F490" s="2">
+        <v>488</v>
+      </c>
+      <c r="G490" s="5">
+        <v>0</v>
+      </c>
+      <c r="H490" s="5">
+        <v>490</v>
+      </c>
+      <c r="I490" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J490" s="5">
+        <v>38</v>
+      </c>
+      <c r="K490" s="2">
+        <f t="shared" si="27"/>
+        <v>986000</v>
+      </c>
+      <c r="L490" s="5">
+        <v>1</v>
+      </c>
+      <c r="M490" s="2">
+        <f t="shared" si="26"/>
+        <v>1972000</v>
+      </c>
+      <c r="N490" s="5">
+        <v>2</v>
+      </c>
+      <c r="O490" s="5">
+        <v>6258000</v>
+      </c>
+      <c r="P490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A491" s="2">
+        <v>489</v>
+      </c>
+      <c r="B491" s="2">
+        <v>24</v>
+      </c>
+      <c r="C491" s="1">
+        <v>19</v>
+      </c>
+      <c r="D491" s="2">
+        <v>9</v>
+      </c>
+      <c r="E491" s="2">
+        <v>20</v>
+      </c>
+      <c r="F491" s="2">
+        <v>489</v>
+      </c>
+      <c r="G491" s="5">
+        <v>0</v>
+      </c>
+      <c r="H491" s="5">
+        <v>490</v>
+      </c>
+      <c r="I491" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J491" s="5">
+        <v>39</v>
+      </c>
+      <c r="K491" s="2">
+        <f t="shared" si="27"/>
+        <v>988000</v>
+      </c>
+      <c r="L491" s="5">
+        <v>1</v>
+      </c>
+      <c r="M491" s="2">
+        <f t="shared" si="26"/>
+        <v>1976000</v>
+      </c>
+      <c r="N491">
+        <v>2</v>
+      </c>
+      <c r="O491" s="2">
+        <v>6266000</v>
+      </c>
+      <c r="P491" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A492" s="2">
+        <v>490</v>
+      </c>
+      <c r="B492" s="2">
+        <v>24</v>
+      </c>
+      <c r="C492" s="1">
+        <v>19</v>
+      </c>
+      <c r="D492" s="2">
+        <v>9</v>
+      </c>
+      <c r="E492" s="2">
+        <v>20</v>
+      </c>
+      <c r="F492" s="2">
+        <v>490</v>
+      </c>
+      <c r="G492" s="5">
+        <v>0</v>
+      </c>
+      <c r="H492" s="5">
+        <v>490</v>
+      </c>
+      <c r="I492" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J492" s="5">
+        <v>40</v>
+      </c>
+      <c r="K492" s="2">
+        <f t="shared" si="27"/>
+        <v>990000</v>
+      </c>
+      <c r="L492" s="5">
+        <v>1</v>
+      </c>
+      <c r="M492" s="2">
+        <f t="shared" si="26"/>
+        <v>1980000</v>
+      </c>
+      <c r="N492" s="5">
+        <v>2</v>
+      </c>
+      <c r="O492" s="5">
+        <v>6274000</v>
+      </c>
+      <c r="P492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A493" s="2">
+        <v>491</v>
+      </c>
+      <c r="B493" s="2">
+        <v>24</v>
+      </c>
+      <c r="C493" s="1">
+        <v>19</v>
+      </c>
+      <c r="D493" s="2">
+        <v>9</v>
+      </c>
+      <c r="E493" s="2">
+        <v>20</v>
+      </c>
+      <c r="F493" s="2">
+        <v>491</v>
+      </c>
+      <c r="G493" s="5">
+        <v>0</v>
+      </c>
+      <c r="H493" s="5">
+        <v>490</v>
+      </c>
+      <c r="I493" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J493" s="5">
+        <v>41</v>
+      </c>
+      <c r="K493" s="2">
+        <f t="shared" si="27"/>
+        <v>992000</v>
+      </c>
+      <c r="L493" s="5">
+        <v>1</v>
+      </c>
+      <c r="M493" s="2">
+        <f t="shared" si="26"/>
+        <v>1984000</v>
+      </c>
+      <c r="N493">
+        <v>2</v>
+      </c>
+      <c r="O493" s="2">
+        <v>6282000</v>
+      </c>
+      <c r="P493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A494" s="2">
+        <v>492</v>
+      </c>
+      <c r="B494" s="2">
+        <v>24</v>
+      </c>
+      <c r="C494" s="1">
+        <v>19</v>
+      </c>
+      <c r="D494" s="2">
+        <v>9</v>
+      </c>
+      <c r="E494" s="2">
+        <v>20</v>
+      </c>
+      <c r="F494" s="2">
+        <v>492</v>
+      </c>
+      <c r="G494" s="5">
+        <v>0</v>
+      </c>
+      <c r="H494" s="5">
+        <v>490</v>
+      </c>
+      <c r="I494" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J494" s="5">
+        <v>42</v>
+      </c>
+      <c r="K494" s="2">
+        <f t="shared" si="27"/>
+        <v>994000</v>
+      </c>
+      <c r="L494" s="5">
+        <v>1</v>
+      </c>
+      <c r="M494" s="2">
+        <f t="shared" ref="M494:M500" si="28">K494*2</f>
+        <v>1988000</v>
+      </c>
+      <c r="N494" s="5">
+        <v>2</v>
+      </c>
+      <c r="O494" s="5">
+        <v>6290000</v>
+      </c>
+      <c r="P494" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A495" s="2">
+        <v>493</v>
+      </c>
+      <c r="B495" s="2">
+        <v>24</v>
+      </c>
+      <c r="C495" s="1">
+        <v>19</v>
+      </c>
+      <c r="D495" s="2">
+        <v>9</v>
+      </c>
+      <c r="E495" s="2">
+        <v>20</v>
+      </c>
+      <c r="F495" s="2">
+        <v>493</v>
+      </c>
+      <c r="G495" s="5">
+        <v>0</v>
+      </c>
+      <c r="H495" s="5">
+        <v>490</v>
+      </c>
+      <c r="I495" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J495" s="5">
+        <v>43</v>
+      </c>
+      <c r="K495" s="2">
+        <f t="shared" si="27"/>
+        <v>996000</v>
+      </c>
+      <c r="L495" s="5">
+        <v>1</v>
+      </c>
+      <c r="M495" s="2">
+        <f t="shared" si="28"/>
+        <v>1992000</v>
+      </c>
+      <c r="N495">
+        <v>2</v>
+      </c>
+      <c r="O495" s="2">
+        <v>6298000</v>
+      </c>
+      <c r="P495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A496" s="2">
+        <v>494</v>
+      </c>
+      <c r="B496" s="2">
+        <v>24</v>
+      </c>
+      <c r="C496" s="1">
+        <v>19</v>
+      </c>
+      <c r="D496" s="2">
+        <v>9</v>
+      </c>
+      <c r="E496" s="2">
+        <v>20</v>
+      </c>
+      <c r="F496" s="2">
+        <v>494</v>
+      </c>
+      <c r="G496" s="5">
+        <v>0</v>
+      </c>
+      <c r="H496" s="5">
+        <v>490</v>
+      </c>
+      <c r="I496" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J496" s="5">
+        <v>44</v>
+      </c>
+      <c r="K496" s="2">
+        <f t="shared" si="27"/>
+        <v>998000</v>
+      </c>
+      <c r="L496" s="5">
+        <v>1</v>
+      </c>
+      <c r="M496" s="2">
+        <f t="shared" si="28"/>
+        <v>1996000</v>
+      </c>
+      <c r="N496" s="5">
+        <v>2</v>
+      </c>
+      <c r="O496" s="5">
+        <v>6306000</v>
+      </c>
+      <c r="P496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A497" s="2">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2">
+        <v>24</v>
+      </c>
+      <c r="C497" s="1">
+        <v>19</v>
+      </c>
+      <c r="D497" s="2">
+        <v>9</v>
+      </c>
+      <c r="E497" s="2">
+        <v>20</v>
+      </c>
+      <c r="F497" s="2">
+        <v>495</v>
+      </c>
+      <c r="G497" s="5">
+        <v>0</v>
+      </c>
+      <c r="H497" s="5">
+        <v>490</v>
+      </c>
+      <c r="I497" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J497" s="5">
+        <v>45</v>
+      </c>
+      <c r="K497" s="2">
+        <f t="shared" si="27"/>
+        <v>1000000</v>
+      </c>
+      <c r="L497" s="5">
+        <v>1</v>
+      </c>
+      <c r="M497" s="2">
+        <f t="shared" si="28"/>
+        <v>2000000</v>
+      </c>
+      <c r="N497">
+        <v>2</v>
+      </c>
+      <c r="O497" s="2">
+        <v>6314000</v>
+      </c>
+      <c r="P497" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A498" s="2">
+        <v>496</v>
+      </c>
+      <c r="B498" s="2">
+        <v>24</v>
+      </c>
+      <c r="C498" s="1">
+        <v>19</v>
+      </c>
+      <c r="D498" s="2">
+        <v>9</v>
+      </c>
+      <c r="E498" s="2">
+        <v>20</v>
+      </c>
+      <c r="F498" s="2">
+        <v>496</v>
+      </c>
+      <c r="G498" s="5">
+        <v>0</v>
+      </c>
+      <c r="H498" s="5">
+        <v>490</v>
+      </c>
+      <c r="I498" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J498" s="5">
+        <v>46</v>
+      </c>
+      <c r="K498" s="2">
+        <f t="shared" si="27"/>
+        <v>1002000</v>
+      </c>
+      <c r="L498" s="5">
+        <v>1</v>
+      </c>
+      <c r="M498" s="2">
+        <f t="shared" si="28"/>
+        <v>2004000</v>
+      </c>
+      <c r="N498" s="5">
+        <v>2</v>
+      </c>
+      <c r="O498" s="5">
+        <v>6322000</v>
+      </c>
+      <c r="P498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A499" s="2">
+        <v>497</v>
+      </c>
+      <c r="B499" s="2">
+        <v>24</v>
+      </c>
+      <c r="C499" s="1">
+        <v>19</v>
+      </c>
+      <c r="D499" s="2">
+        <v>9</v>
+      </c>
+      <c r="E499" s="2">
+        <v>20</v>
+      </c>
+      <c r="F499" s="2">
+        <v>497</v>
+      </c>
+      <c r="G499" s="5">
+        <v>0</v>
+      </c>
+      <c r="H499" s="5">
+        <v>490</v>
+      </c>
+      <c r="I499" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J499" s="5">
+        <v>47</v>
+      </c>
+      <c r="K499" s="2">
+        <f t="shared" si="27"/>
+        <v>1004000</v>
+      </c>
+      <c r="L499" s="5">
+        <v>1</v>
+      </c>
+      <c r="M499" s="2">
+        <f t="shared" si="28"/>
+        <v>2008000</v>
+      </c>
+      <c r="N499">
+        <v>2</v>
+      </c>
+      <c r="O499" s="2">
+        <v>6330000</v>
+      </c>
+      <c r="P499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A500" s="2">
+        <v>498</v>
+      </c>
+      <c r="B500" s="2">
+        <v>24</v>
+      </c>
+      <c r="C500" s="1">
+        <v>19</v>
+      </c>
+      <c r="D500" s="2">
+        <v>9</v>
+      </c>
+      <c r="E500" s="2">
+        <v>20</v>
+      </c>
+      <c r="F500" s="2">
+        <v>498</v>
+      </c>
+      <c r="G500" s="5">
+        <v>0</v>
+      </c>
+      <c r="H500" s="5">
+        <v>490</v>
+      </c>
+      <c r="I500" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J500" s="5">
+        <v>48</v>
+      </c>
+      <c r="K500" s="2">
+        <f t="shared" si="27"/>
+        <v>1006000</v>
+      </c>
+      <c r="L500" s="5">
+        <v>1</v>
+      </c>
+      <c r="M500" s="2">
+        <f t="shared" si="28"/>
+        <v>2012000</v>
+      </c>
+      <c r="N500" s="5">
+        <v>2</v>
+      </c>
+      <c r="O500" s="5">
+        <v>6338000</v>
+      </c>
+      <c r="P500" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7311A8-669B-49A4-A781-863099864534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B585508-AF3F-4F79-8077-1FB730D602BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="3075" windowWidth="27555" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="19">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q500"/>
+  <dimension ref="A1:Q552"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F500" sqref="F500"/>
+      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R543" sqref="R543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23722,7 +23722,7 @@
         <v>1</v>
       </c>
       <c r="K438" s="2">
-        <f t="shared" ref="K438:K500" si="27">10000+A438*2000</f>
+        <f t="shared" ref="K438:K503" si="27">10000+A438*2000</f>
         <v>882000</v>
       </c>
       <c r="L438">
@@ -24551,7 +24551,7 @@
         <v>13</v>
       </c>
       <c r="J454" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K454" s="2">
         <f t="shared" si="27"/>
@@ -24603,7 +24603,7 @@
         <v>13</v>
       </c>
       <c r="J455" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K455" s="2">
         <f t="shared" si="27"/>
@@ -24655,7 +24655,7 @@
         <v>13</v>
       </c>
       <c r="J456" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K456" s="2">
         <f t="shared" si="27"/>
@@ -24707,7 +24707,7 @@
         <v>13</v>
       </c>
       <c r="J457" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K457" s="2">
         <f t="shared" si="27"/>
@@ -24759,7 +24759,7 @@
         <v>13</v>
       </c>
       <c r="J458" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K458" s="2">
         <f t="shared" si="27"/>
@@ -24811,7 +24811,7 @@
         <v>13</v>
       </c>
       <c r="J459" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K459" s="2">
         <f t="shared" si="27"/>
@@ -24863,7 +24863,7 @@
         <v>13</v>
       </c>
       <c r="J460" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K460" s="2">
         <f t="shared" si="27"/>
@@ -24915,7 +24915,7 @@
         <v>13</v>
       </c>
       <c r="J461" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K461" s="2">
         <f t="shared" si="27"/>
@@ -24967,7 +24967,7 @@
         <v>13</v>
       </c>
       <c r="J462" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K462" s="2">
         <f t="shared" si="27"/>
@@ -25019,7 +25019,7 @@
         <v>13</v>
       </c>
       <c r="J463" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K463" s="2">
         <f t="shared" si="27"/>
@@ -25071,7 +25071,7 @@
         <v>13</v>
       </c>
       <c r="J464" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K464" s="2">
         <f t="shared" si="27"/>
@@ -25123,7 +25123,7 @@
         <v>13</v>
       </c>
       <c r="J465" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K465" s="2">
         <f t="shared" si="27"/>
@@ -25175,7 +25175,7 @@
         <v>13</v>
       </c>
       <c r="J466" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K466" s="2">
         <f t="shared" si="27"/>
@@ -25227,7 +25227,7 @@
         <v>13</v>
       </c>
       <c r="J467" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K467" s="2">
         <f t="shared" si="27"/>
@@ -25279,7 +25279,7 @@
         <v>13</v>
       </c>
       <c r="J468" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K468" s="2">
         <f t="shared" si="27"/>
@@ -25331,7 +25331,7 @@
         <v>13</v>
       </c>
       <c r="J469" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K469" s="2">
         <f t="shared" si="27"/>
@@ -25383,7 +25383,7 @@
         <v>13</v>
       </c>
       <c r="J470" s="5">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K470" s="2">
         <f t="shared" si="27"/>
@@ -25435,7 +25435,7 @@
         <v>13</v>
       </c>
       <c r="J471" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K471" s="2">
         <f t="shared" si="27"/>
@@ -25487,7 +25487,7 @@
         <v>13</v>
       </c>
       <c r="J472" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K472" s="2">
         <f t="shared" si="27"/>
@@ -25539,7 +25539,7 @@
         <v>13</v>
       </c>
       <c r="J473" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K473" s="2">
         <f t="shared" si="27"/>
@@ -25591,7 +25591,7 @@
         <v>13</v>
       </c>
       <c r="J474" s="5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="K474" s="2">
         <f t="shared" si="27"/>
@@ -25643,7 +25643,7 @@
         <v>13</v>
       </c>
       <c r="J475" s="5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K475" s="2">
         <f t="shared" si="27"/>
@@ -25695,7 +25695,7 @@
         <v>13</v>
       </c>
       <c r="J476" s="5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K476" s="2">
         <f t="shared" si="27"/>
@@ -25747,7 +25747,7 @@
         <v>13</v>
       </c>
       <c r="J477" s="5">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="K477" s="2">
         <f t="shared" si="27"/>
@@ -25799,7 +25799,7 @@
         <v>13</v>
       </c>
       <c r="J478" s="5">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="K478" s="2">
         <f t="shared" si="27"/>
@@ -25851,7 +25851,7 @@
         <v>13</v>
       </c>
       <c r="J479" s="5">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="K479" s="2">
         <f t="shared" si="27"/>
@@ -25903,7 +25903,7 @@
         <v>13</v>
       </c>
       <c r="J480" s="5">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="K480" s="2">
         <f t="shared" si="27"/>
@@ -25955,7 +25955,7 @@
         <v>13</v>
       </c>
       <c r="J481" s="5">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="K481" s="2">
         <f t="shared" si="27"/>
@@ -26007,7 +26007,7 @@
         <v>13</v>
       </c>
       <c r="J482" s="5">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K482" s="2">
         <f t="shared" si="27"/>
@@ -26059,7 +26059,7 @@
         <v>13</v>
       </c>
       <c r="J483" s="5">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="K483" s="2">
         <f t="shared" si="27"/>
@@ -26111,7 +26111,7 @@
         <v>13</v>
       </c>
       <c r="J484" s="5">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="K484" s="2">
         <f t="shared" si="27"/>
@@ -26163,7 +26163,7 @@
         <v>13</v>
       </c>
       <c r="J485" s="5">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="K485" s="2">
         <f t="shared" si="27"/>
@@ -26215,7 +26215,7 @@
         <v>13</v>
       </c>
       <c r="J486" s="5">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="K486" s="2">
         <f t="shared" si="27"/>
@@ -26267,7 +26267,7 @@
         <v>13</v>
       </c>
       <c r="J487" s="5">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="K487" s="2">
         <f t="shared" si="27"/>
@@ -26319,7 +26319,7 @@
         <v>13</v>
       </c>
       <c r="J488" s="5">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="K488" s="2">
         <f t="shared" si="27"/>
@@ -26371,7 +26371,7 @@
         <v>13</v>
       </c>
       <c r="J489" s="5">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="K489" s="2">
         <f t="shared" si="27"/>
@@ -26423,7 +26423,7 @@
         <v>13</v>
       </c>
       <c r="J490" s="5">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="K490" s="2">
         <f t="shared" si="27"/>
@@ -26475,7 +26475,7 @@
         <v>13</v>
       </c>
       <c r="J491" s="5">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="K491" s="2">
         <f t="shared" si="27"/>
@@ -26527,7 +26527,7 @@
         <v>13</v>
       </c>
       <c r="J492" s="5">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="K492" s="2">
         <f t="shared" si="27"/>
@@ -26579,7 +26579,7 @@
         <v>13</v>
       </c>
       <c r="J493" s="5">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="K493" s="2">
         <f t="shared" si="27"/>
@@ -26631,7 +26631,7 @@
         <v>13</v>
       </c>
       <c r="J494" s="5">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="K494" s="2">
         <f t="shared" si="27"/>
@@ -26641,7 +26641,7 @@
         <v>1</v>
       </c>
       <c r="M494" s="2">
-        <f t="shared" ref="M494:M500" si="28">K494*2</f>
+        <f t="shared" ref="M494:M552" si="28">K494*2</f>
         <v>1988000</v>
       </c>
       <c r="N494" s="5">
@@ -26683,7 +26683,7 @@
         <v>13</v>
       </c>
       <c r="J495" s="5">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K495" s="2">
         <f t="shared" si="27"/>
@@ -26735,7 +26735,7 @@
         <v>13</v>
       </c>
       <c r="J496" s="5">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="K496" s="2">
         <f t="shared" si="27"/>
@@ -26787,7 +26787,7 @@
         <v>13</v>
       </c>
       <c r="J497" s="5">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="K497" s="2">
         <f t="shared" si="27"/>
@@ -26839,7 +26839,7 @@
         <v>13</v>
       </c>
       <c r="J498" s="5">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="K498" s="2">
         <f t="shared" si="27"/>
@@ -26891,7 +26891,7 @@
         <v>13</v>
       </c>
       <c r="J499" s="5">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="K499" s="2">
         <f t="shared" si="27"/>
@@ -26943,7 +26943,7 @@
         <v>13</v>
       </c>
       <c r="J500" s="5">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="K500" s="2">
         <f t="shared" si="27"/>
@@ -26963,6 +26963,2710 @@
         <v>6338000</v>
       </c>
       <c r="P500" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A501" s="5">
+        <v>499</v>
+      </c>
+      <c r="B501" s="2">
+        <v>24</v>
+      </c>
+      <c r="C501" s="1">
+        <v>19</v>
+      </c>
+      <c r="D501" s="2">
+        <v>9</v>
+      </c>
+      <c r="E501" s="2">
+        <v>20</v>
+      </c>
+      <c r="F501" s="2">
+        <v>499</v>
+      </c>
+      <c r="G501" s="5">
+        <v>0</v>
+      </c>
+      <c r="H501" s="5">
+        <v>490</v>
+      </c>
+      <c r="I501" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J501" s="5">
+        <v>1</v>
+      </c>
+      <c r="K501" s="2">
+        <f t="shared" si="27"/>
+        <v>1008000</v>
+      </c>
+      <c r="L501" s="5">
+        <v>1</v>
+      </c>
+      <c r="M501" s="2">
+        <f t="shared" si="28"/>
+        <v>2016000</v>
+      </c>
+      <c r="N501">
+        <v>2</v>
+      </c>
+      <c r="O501" s="5">
+        <v>6346000</v>
+      </c>
+      <c r="P501" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A502" s="2">
+        <v>500</v>
+      </c>
+      <c r="B502" s="2">
+        <v>25</v>
+      </c>
+      <c r="C502" s="1">
+        <v>19</v>
+      </c>
+      <c r="D502" s="2">
+        <v>9</v>
+      </c>
+      <c r="E502" s="2">
+        <v>20</v>
+      </c>
+      <c r="F502" s="2">
+        <v>500</v>
+      </c>
+      <c r="G502" s="5">
+        <v>0</v>
+      </c>
+      <c r="H502" s="5">
+        <v>495</v>
+      </c>
+      <c r="I502" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J502" s="5">
+        <v>1</v>
+      </c>
+      <c r="K502" s="2">
+        <f t="shared" si="27"/>
+        <v>1010000</v>
+      </c>
+      <c r="L502" s="5">
+        <v>1</v>
+      </c>
+      <c r="M502" s="2">
+        <f t="shared" si="28"/>
+        <v>2020000</v>
+      </c>
+      <c r="N502" s="5">
+        <v>2</v>
+      </c>
+      <c r="O502" s="2">
+        <v>6354000</v>
+      </c>
+      <c r="P502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A503" s="2">
+        <v>501</v>
+      </c>
+      <c r="B503" s="2">
+        <v>25</v>
+      </c>
+      <c r="C503" s="1">
+        <v>19</v>
+      </c>
+      <c r="D503" s="2">
+        <v>9</v>
+      </c>
+      <c r="E503" s="2">
+        <v>20</v>
+      </c>
+      <c r="F503" s="2">
+        <v>501</v>
+      </c>
+      <c r="G503" s="5">
+        <v>0</v>
+      </c>
+      <c r="H503" s="5">
+        <v>495</v>
+      </c>
+      <c r="I503" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J503" s="5">
+        <v>1</v>
+      </c>
+      <c r="K503" s="2">
+        <f t="shared" si="27"/>
+        <v>1012000</v>
+      </c>
+      <c r="L503" s="5">
+        <v>1</v>
+      </c>
+      <c r="M503" s="2">
+        <f t="shared" si="28"/>
+        <v>2024000</v>
+      </c>
+      <c r="N503">
+        <v>2</v>
+      </c>
+      <c r="O503" s="5">
+        <v>6362000</v>
+      </c>
+      <c r="P503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A504" s="2">
+        <v>502</v>
+      </c>
+      <c r="B504" s="2">
+        <v>25</v>
+      </c>
+      <c r="C504" s="1">
+        <v>19</v>
+      </c>
+      <c r="D504" s="2">
+        <v>9</v>
+      </c>
+      <c r="E504" s="2">
+        <v>20</v>
+      </c>
+      <c r="F504" s="2">
+        <v>502</v>
+      </c>
+      <c r="G504" s="5">
+        <v>0</v>
+      </c>
+      <c r="H504" s="5">
+        <v>495</v>
+      </c>
+      <c r="I504" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J504" s="5">
+        <v>1</v>
+      </c>
+      <c r="K504" s="2">
+        <f t="shared" ref="K504:K552" si="29">10000+A504*2000</f>
+        <v>1014000</v>
+      </c>
+      <c r="L504" s="5">
+        <v>1</v>
+      </c>
+      <c r="M504" s="2">
+        <f t="shared" si="28"/>
+        <v>2028000</v>
+      </c>
+      <c r="N504" s="5">
+        <v>2</v>
+      </c>
+      <c r="O504" s="2">
+        <v>6370000</v>
+      </c>
+      <c r="P504" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A505" s="2">
+        <v>503</v>
+      </c>
+      <c r="B505" s="2">
+        <v>25</v>
+      </c>
+      <c r="C505" s="1">
+        <v>19</v>
+      </c>
+      <c r="D505" s="2">
+        <v>9</v>
+      </c>
+      <c r="E505" s="2">
+        <v>20</v>
+      </c>
+      <c r="F505" s="2">
+        <v>503</v>
+      </c>
+      <c r="G505" s="5">
+        <v>0</v>
+      </c>
+      <c r="H505" s="5">
+        <v>495</v>
+      </c>
+      <c r="I505" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J505" s="5">
+        <v>1</v>
+      </c>
+      <c r="K505" s="2">
+        <f t="shared" si="29"/>
+        <v>1016000</v>
+      </c>
+      <c r="L505" s="5">
+        <v>1</v>
+      </c>
+      <c r="M505" s="2">
+        <f t="shared" si="28"/>
+        <v>2032000</v>
+      </c>
+      <c r="N505">
+        <v>2</v>
+      </c>
+      <c r="O505" s="5">
+        <v>6378000</v>
+      </c>
+      <c r="P505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A506" s="2">
+        <v>504</v>
+      </c>
+      <c r="B506" s="2">
+        <v>25</v>
+      </c>
+      <c r="C506" s="1">
+        <v>19</v>
+      </c>
+      <c r="D506" s="2">
+        <v>9</v>
+      </c>
+      <c r="E506" s="2">
+        <v>20</v>
+      </c>
+      <c r="F506" s="2">
+        <v>504</v>
+      </c>
+      <c r="G506" s="5">
+        <v>0</v>
+      </c>
+      <c r="H506" s="5">
+        <v>495</v>
+      </c>
+      <c r="I506" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J506" s="5">
+        <v>1</v>
+      </c>
+      <c r="K506" s="2">
+        <f t="shared" si="29"/>
+        <v>1018000</v>
+      </c>
+      <c r="L506" s="5">
+        <v>1</v>
+      </c>
+      <c r="M506" s="2">
+        <f t="shared" si="28"/>
+        <v>2036000</v>
+      </c>
+      <c r="N506" s="5">
+        <v>2</v>
+      </c>
+      <c r="O506" s="5">
+        <v>6386000</v>
+      </c>
+      <c r="P506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A507" s="2">
+        <v>505</v>
+      </c>
+      <c r="B507" s="2">
+        <v>25</v>
+      </c>
+      <c r="C507" s="1">
+        <v>19</v>
+      </c>
+      <c r="D507" s="2">
+        <v>9</v>
+      </c>
+      <c r="E507" s="2">
+        <v>20</v>
+      </c>
+      <c r="F507" s="2">
+        <v>505</v>
+      </c>
+      <c r="G507" s="5">
+        <v>0</v>
+      </c>
+      <c r="H507" s="5">
+        <v>495</v>
+      </c>
+      <c r="I507" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J507" s="5">
+        <v>1</v>
+      </c>
+      <c r="K507" s="2">
+        <f t="shared" si="29"/>
+        <v>1020000</v>
+      </c>
+      <c r="L507" s="5">
+        <v>1</v>
+      </c>
+      <c r="M507" s="2">
+        <f t="shared" si="28"/>
+        <v>2040000</v>
+      </c>
+      <c r="N507">
+        <v>2</v>
+      </c>
+      <c r="O507" s="2">
+        <v>6394000</v>
+      </c>
+      <c r="P507" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A508" s="2">
+        <v>506</v>
+      </c>
+      <c r="B508" s="2">
+        <v>25</v>
+      </c>
+      <c r="C508" s="1">
+        <v>19</v>
+      </c>
+      <c r="D508" s="2">
+        <v>9</v>
+      </c>
+      <c r="E508" s="2">
+        <v>20</v>
+      </c>
+      <c r="F508" s="2">
+        <v>506</v>
+      </c>
+      <c r="G508" s="5">
+        <v>0</v>
+      </c>
+      <c r="H508" s="5">
+        <v>495</v>
+      </c>
+      <c r="I508" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J508" s="5">
+        <v>1</v>
+      </c>
+      <c r="K508" s="2">
+        <f t="shared" si="29"/>
+        <v>1022000</v>
+      </c>
+      <c r="L508" s="5">
+        <v>1</v>
+      </c>
+      <c r="M508" s="2">
+        <f t="shared" si="28"/>
+        <v>2044000</v>
+      </c>
+      <c r="N508" s="5">
+        <v>2</v>
+      </c>
+      <c r="O508" s="5">
+        <v>6402000</v>
+      </c>
+      <c r="P508" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A509" s="2">
+        <v>507</v>
+      </c>
+      <c r="B509" s="2">
+        <v>25</v>
+      </c>
+      <c r="C509" s="1">
+        <v>19</v>
+      </c>
+      <c r="D509" s="2">
+        <v>9</v>
+      </c>
+      <c r="E509" s="2">
+        <v>20</v>
+      </c>
+      <c r="F509" s="2">
+        <v>507</v>
+      </c>
+      <c r="G509" s="5">
+        <v>0</v>
+      </c>
+      <c r="H509" s="5">
+        <v>495</v>
+      </c>
+      <c r="I509" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J509" s="5">
+        <v>1</v>
+      </c>
+      <c r="K509" s="2">
+        <f t="shared" si="29"/>
+        <v>1024000</v>
+      </c>
+      <c r="L509" s="5">
+        <v>1</v>
+      </c>
+      <c r="M509" s="2">
+        <f t="shared" si="28"/>
+        <v>2048000</v>
+      </c>
+      <c r="N509">
+        <v>2</v>
+      </c>
+      <c r="O509" s="2">
+        <v>6410000</v>
+      </c>
+      <c r="P509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A510" s="2">
+        <v>508</v>
+      </c>
+      <c r="B510" s="2">
+        <v>25</v>
+      </c>
+      <c r="C510" s="1">
+        <v>19</v>
+      </c>
+      <c r="D510" s="2">
+        <v>9</v>
+      </c>
+      <c r="E510" s="2">
+        <v>20</v>
+      </c>
+      <c r="F510" s="2">
+        <v>508</v>
+      </c>
+      <c r="G510" s="5">
+        <v>0</v>
+      </c>
+      <c r="H510" s="5">
+        <v>495</v>
+      </c>
+      <c r="I510" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J510" s="5">
+        <v>1</v>
+      </c>
+      <c r="K510" s="2">
+        <f t="shared" si="29"/>
+        <v>1026000</v>
+      </c>
+      <c r="L510" s="5">
+        <v>1</v>
+      </c>
+      <c r="M510" s="2">
+        <f t="shared" si="28"/>
+        <v>2052000</v>
+      </c>
+      <c r="N510" s="5">
+        <v>2</v>
+      </c>
+      <c r="O510" s="5">
+        <v>6418000</v>
+      </c>
+      <c r="P510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A511" s="2">
+        <v>509</v>
+      </c>
+      <c r="B511" s="2">
+        <v>25</v>
+      </c>
+      <c r="C511" s="1">
+        <v>19</v>
+      </c>
+      <c r="D511" s="2">
+        <v>9</v>
+      </c>
+      <c r="E511" s="2">
+        <v>20</v>
+      </c>
+      <c r="F511" s="2">
+        <v>509</v>
+      </c>
+      <c r="G511" s="5">
+        <v>0</v>
+      </c>
+      <c r="H511" s="5">
+        <v>495</v>
+      </c>
+      <c r="I511" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J511" s="5">
+        <v>1</v>
+      </c>
+      <c r="K511" s="2">
+        <f t="shared" si="29"/>
+        <v>1028000</v>
+      </c>
+      <c r="L511" s="5">
+        <v>1</v>
+      </c>
+      <c r="M511" s="2">
+        <f t="shared" si="28"/>
+        <v>2056000</v>
+      </c>
+      <c r="N511">
+        <v>2</v>
+      </c>
+      <c r="O511" s="5">
+        <v>6426000</v>
+      </c>
+      <c r="P511" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A512" s="2">
+        <v>510</v>
+      </c>
+      <c r="B512" s="2">
+        <v>25</v>
+      </c>
+      <c r="C512" s="1">
+        <v>19</v>
+      </c>
+      <c r="D512" s="2">
+        <v>9</v>
+      </c>
+      <c r="E512" s="2">
+        <v>20</v>
+      </c>
+      <c r="F512" s="2">
+        <v>510</v>
+      </c>
+      <c r="G512" s="5">
+        <v>0</v>
+      </c>
+      <c r="H512" s="5">
+        <v>495</v>
+      </c>
+      <c r="I512" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J512" s="5">
+        <v>1</v>
+      </c>
+      <c r="K512" s="2">
+        <f t="shared" si="29"/>
+        <v>1030000</v>
+      </c>
+      <c r="L512" s="5">
+        <v>1</v>
+      </c>
+      <c r="M512" s="2">
+        <f t="shared" si="28"/>
+        <v>2060000</v>
+      </c>
+      <c r="N512" s="5">
+        <v>2</v>
+      </c>
+      <c r="O512" s="2">
+        <v>6434000</v>
+      </c>
+      <c r="P512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A513" s="2">
+        <v>511</v>
+      </c>
+      <c r="B513" s="2">
+        <v>25</v>
+      </c>
+      <c r="C513" s="1">
+        <v>19</v>
+      </c>
+      <c r="D513" s="2">
+        <v>9</v>
+      </c>
+      <c r="E513" s="2">
+        <v>20</v>
+      </c>
+      <c r="F513" s="2">
+        <v>511</v>
+      </c>
+      <c r="G513" s="5">
+        <v>0</v>
+      </c>
+      <c r="H513" s="5">
+        <v>495</v>
+      </c>
+      <c r="I513" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J513" s="5">
+        <v>1</v>
+      </c>
+      <c r="K513" s="2">
+        <f t="shared" si="29"/>
+        <v>1032000</v>
+      </c>
+      <c r="L513" s="5">
+        <v>1</v>
+      </c>
+      <c r="M513" s="2">
+        <f t="shared" si="28"/>
+        <v>2064000</v>
+      </c>
+      <c r="N513">
+        <v>2</v>
+      </c>
+      <c r="O513" s="5">
+        <v>6442000</v>
+      </c>
+      <c r="P513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A514" s="2">
+        <v>512</v>
+      </c>
+      <c r="B514" s="2">
+        <v>25</v>
+      </c>
+      <c r="C514" s="1">
+        <v>19</v>
+      </c>
+      <c r="D514" s="2">
+        <v>9</v>
+      </c>
+      <c r="E514" s="2">
+        <v>20</v>
+      </c>
+      <c r="F514" s="2">
+        <v>512</v>
+      </c>
+      <c r="G514" s="5">
+        <v>0</v>
+      </c>
+      <c r="H514" s="5">
+        <v>495</v>
+      </c>
+      <c r="I514" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J514" s="5">
+        <v>1</v>
+      </c>
+      <c r="K514" s="2">
+        <f t="shared" si="29"/>
+        <v>1034000</v>
+      </c>
+      <c r="L514" s="5">
+        <v>1</v>
+      </c>
+      <c r="M514" s="2">
+        <f t="shared" si="28"/>
+        <v>2068000</v>
+      </c>
+      <c r="N514" s="5">
+        <v>2</v>
+      </c>
+      <c r="O514" s="2">
+        <v>6450000</v>
+      </c>
+      <c r="P514" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A515" s="2">
+        <v>513</v>
+      </c>
+      <c r="B515" s="2">
+        <v>25</v>
+      </c>
+      <c r="C515" s="1">
+        <v>19</v>
+      </c>
+      <c r="D515" s="2">
+        <v>9</v>
+      </c>
+      <c r="E515" s="2">
+        <v>20</v>
+      </c>
+      <c r="F515" s="2">
+        <v>513</v>
+      </c>
+      <c r="G515" s="5">
+        <v>0</v>
+      </c>
+      <c r="H515" s="5">
+        <v>495</v>
+      </c>
+      <c r="I515" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J515" s="5">
+        <v>1</v>
+      </c>
+      <c r="K515" s="2">
+        <f t="shared" si="29"/>
+        <v>1036000</v>
+      </c>
+      <c r="L515" s="5">
+        <v>1</v>
+      </c>
+      <c r="M515" s="2">
+        <f t="shared" si="28"/>
+        <v>2072000</v>
+      </c>
+      <c r="N515">
+        <v>2</v>
+      </c>
+      <c r="O515" s="5">
+        <v>6458000</v>
+      </c>
+      <c r="P515" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A516" s="2">
+        <v>514</v>
+      </c>
+      <c r="B516" s="2">
+        <v>25</v>
+      </c>
+      <c r="C516" s="1">
+        <v>19</v>
+      </c>
+      <c r="D516" s="2">
+        <v>9</v>
+      </c>
+      <c r="E516" s="2">
+        <v>20</v>
+      </c>
+      <c r="F516" s="2">
+        <v>514</v>
+      </c>
+      <c r="G516" s="5">
+        <v>0</v>
+      </c>
+      <c r="H516" s="5">
+        <v>495</v>
+      </c>
+      <c r="I516" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J516" s="5">
+        <v>1</v>
+      </c>
+      <c r="K516" s="2">
+        <f t="shared" si="29"/>
+        <v>1038000</v>
+      </c>
+      <c r="L516" s="5">
+        <v>1</v>
+      </c>
+      <c r="M516" s="2">
+        <f t="shared" si="28"/>
+        <v>2076000</v>
+      </c>
+      <c r="N516" s="5">
+        <v>2</v>
+      </c>
+      <c r="O516" s="5">
+        <v>6466000</v>
+      </c>
+      <c r="P516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A517" s="2">
+        <v>515</v>
+      </c>
+      <c r="B517" s="2">
+        <v>25</v>
+      </c>
+      <c r="C517" s="1">
+        <v>19</v>
+      </c>
+      <c r="D517" s="2">
+        <v>9</v>
+      </c>
+      <c r="E517" s="2">
+        <v>20</v>
+      </c>
+      <c r="F517" s="2">
+        <v>515</v>
+      </c>
+      <c r="G517" s="5">
+        <v>0</v>
+      </c>
+      <c r="H517" s="5">
+        <v>495</v>
+      </c>
+      <c r="I517" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J517" s="5">
+        <v>1</v>
+      </c>
+      <c r="K517" s="2">
+        <f t="shared" si="29"/>
+        <v>1040000</v>
+      </c>
+      <c r="L517" s="5">
+        <v>1</v>
+      </c>
+      <c r="M517" s="2">
+        <f t="shared" si="28"/>
+        <v>2080000</v>
+      </c>
+      <c r="N517">
+        <v>2</v>
+      </c>
+      <c r="O517" s="2">
+        <v>6474000</v>
+      </c>
+      <c r="P517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A518" s="2">
+        <v>516</v>
+      </c>
+      <c r="B518" s="2">
+        <v>25</v>
+      </c>
+      <c r="C518" s="1">
+        <v>19</v>
+      </c>
+      <c r="D518" s="2">
+        <v>9</v>
+      </c>
+      <c r="E518" s="2">
+        <v>20</v>
+      </c>
+      <c r="F518" s="2">
+        <v>516</v>
+      </c>
+      <c r="G518" s="5">
+        <v>0</v>
+      </c>
+      <c r="H518" s="5">
+        <v>495</v>
+      </c>
+      <c r="I518" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J518" s="5">
+        <v>1</v>
+      </c>
+      <c r="K518" s="2">
+        <f t="shared" si="29"/>
+        <v>1042000</v>
+      </c>
+      <c r="L518" s="5">
+        <v>1</v>
+      </c>
+      <c r="M518" s="2">
+        <f t="shared" si="28"/>
+        <v>2084000</v>
+      </c>
+      <c r="N518" s="5">
+        <v>2</v>
+      </c>
+      <c r="O518" s="5">
+        <v>6482000</v>
+      </c>
+      <c r="P518" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A519" s="2">
+        <v>517</v>
+      </c>
+      <c r="B519" s="2">
+        <v>25</v>
+      </c>
+      <c r="C519" s="1">
+        <v>19</v>
+      </c>
+      <c r="D519" s="2">
+        <v>9</v>
+      </c>
+      <c r="E519" s="2">
+        <v>20</v>
+      </c>
+      <c r="F519" s="2">
+        <v>517</v>
+      </c>
+      <c r="G519" s="5">
+        <v>0</v>
+      </c>
+      <c r="H519" s="5">
+        <v>495</v>
+      </c>
+      <c r="I519" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J519" s="5">
+        <v>1</v>
+      </c>
+      <c r="K519" s="2">
+        <f t="shared" si="29"/>
+        <v>1044000</v>
+      </c>
+      <c r="L519" s="5">
+        <v>1</v>
+      </c>
+      <c r="M519" s="2">
+        <f t="shared" si="28"/>
+        <v>2088000</v>
+      </c>
+      <c r="N519">
+        <v>2</v>
+      </c>
+      <c r="O519" s="2">
+        <v>6490000</v>
+      </c>
+      <c r="P519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A520" s="2">
+        <v>518</v>
+      </c>
+      <c r="B520" s="2">
+        <v>25</v>
+      </c>
+      <c r="C520" s="1">
+        <v>19</v>
+      </c>
+      <c r="D520" s="2">
+        <v>9</v>
+      </c>
+      <c r="E520" s="2">
+        <v>20</v>
+      </c>
+      <c r="F520" s="2">
+        <v>518</v>
+      </c>
+      <c r="G520" s="5">
+        <v>0</v>
+      </c>
+      <c r="H520" s="5">
+        <v>495</v>
+      </c>
+      <c r="I520" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J520" s="5">
+        <v>1</v>
+      </c>
+      <c r="K520" s="2">
+        <f t="shared" si="29"/>
+        <v>1046000</v>
+      </c>
+      <c r="L520" s="5">
+        <v>1</v>
+      </c>
+      <c r="M520" s="2">
+        <f t="shared" si="28"/>
+        <v>2092000</v>
+      </c>
+      <c r="N520" s="5">
+        <v>2</v>
+      </c>
+      <c r="O520" s="5">
+        <v>6498000</v>
+      </c>
+      <c r="P520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A521" s="2">
+        <v>519</v>
+      </c>
+      <c r="B521" s="2">
+        <v>25</v>
+      </c>
+      <c r="C521" s="1">
+        <v>19</v>
+      </c>
+      <c r="D521" s="2">
+        <v>9</v>
+      </c>
+      <c r="E521" s="2">
+        <v>20</v>
+      </c>
+      <c r="F521" s="2">
+        <v>519</v>
+      </c>
+      <c r="G521" s="5">
+        <v>0</v>
+      </c>
+      <c r="H521" s="5">
+        <v>495</v>
+      </c>
+      <c r="I521" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J521" s="5">
+        <v>1</v>
+      </c>
+      <c r="K521" s="2">
+        <f t="shared" si="29"/>
+        <v>1048000</v>
+      </c>
+      <c r="L521" s="5">
+        <v>1</v>
+      </c>
+      <c r="M521" s="2">
+        <f t="shared" si="28"/>
+        <v>2096000</v>
+      </c>
+      <c r="N521">
+        <v>2</v>
+      </c>
+      <c r="O521" s="5">
+        <v>6506000</v>
+      </c>
+      <c r="P521" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A522" s="2">
+        <v>520</v>
+      </c>
+      <c r="B522" s="2">
+        <v>25</v>
+      </c>
+      <c r="C522" s="1">
+        <v>19</v>
+      </c>
+      <c r="D522" s="2">
+        <v>9</v>
+      </c>
+      <c r="E522" s="2">
+        <v>20</v>
+      </c>
+      <c r="F522" s="2">
+        <v>520</v>
+      </c>
+      <c r="G522" s="5">
+        <v>0</v>
+      </c>
+      <c r="H522" s="5">
+        <v>495</v>
+      </c>
+      <c r="I522" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J522" s="5">
+        <v>1</v>
+      </c>
+      <c r="K522" s="2">
+        <f t="shared" si="29"/>
+        <v>1050000</v>
+      </c>
+      <c r="L522" s="5">
+        <v>1</v>
+      </c>
+      <c r="M522" s="2">
+        <f t="shared" si="28"/>
+        <v>2100000</v>
+      </c>
+      <c r="N522" s="5">
+        <v>2</v>
+      </c>
+      <c r="O522" s="2">
+        <v>6514000</v>
+      </c>
+      <c r="P522" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A523" s="2">
+        <v>521</v>
+      </c>
+      <c r="B523" s="2">
+        <v>25</v>
+      </c>
+      <c r="C523" s="1">
+        <v>19</v>
+      </c>
+      <c r="D523" s="2">
+        <v>9</v>
+      </c>
+      <c r="E523" s="2">
+        <v>20</v>
+      </c>
+      <c r="F523" s="2">
+        <v>521</v>
+      </c>
+      <c r="G523" s="5">
+        <v>0</v>
+      </c>
+      <c r="H523" s="5">
+        <v>495</v>
+      </c>
+      <c r="I523" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J523" s="5">
+        <v>1</v>
+      </c>
+      <c r="K523" s="2">
+        <f t="shared" si="29"/>
+        <v>1052000</v>
+      </c>
+      <c r="L523" s="5">
+        <v>1</v>
+      </c>
+      <c r="M523" s="2">
+        <f t="shared" si="28"/>
+        <v>2104000</v>
+      </c>
+      <c r="N523">
+        <v>2</v>
+      </c>
+      <c r="O523" s="5">
+        <v>6522000</v>
+      </c>
+      <c r="P523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A524" s="2">
+        <v>522</v>
+      </c>
+      <c r="B524" s="2">
+        <v>25</v>
+      </c>
+      <c r="C524" s="1">
+        <v>19</v>
+      </c>
+      <c r="D524" s="2">
+        <v>9</v>
+      </c>
+      <c r="E524" s="2">
+        <v>20</v>
+      </c>
+      <c r="F524" s="2">
+        <v>522</v>
+      </c>
+      <c r="G524" s="5">
+        <v>0</v>
+      </c>
+      <c r="H524" s="5">
+        <v>495</v>
+      </c>
+      <c r="I524" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J524" s="5">
+        <v>1</v>
+      </c>
+      <c r="K524" s="2">
+        <f t="shared" si="29"/>
+        <v>1054000</v>
+      </c>
+      <c r="L524" s="5">
+        <v>1</v>
+      </c>
+      <c r="M524" s="2">
+        <f t="shared" si="28"/>
+        <v>2108000</v>
+      </c>
+      <c r="N524" s="5">
+        <v>2</v>
+      </c>
+      <c r="O524" s="2">
+        <v>6530000</v>
+      </c>
+      <c r="P524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A525" s="2">
+        <v>523</v>
+      </c>
+      <c r="B525" s="2">
+        <v>25</v>
+      </c>
+      <c r="C525" s="1">
+        <v>19</v>
+      </c>
+      <c r="D525" s="2">
+        <v>9</v>
+      </c>
+      <c r="E525" s="2">
+        <v>20</v>
+      </c>
+      <c r="F525" s="2">
+        <v>523</v>
+      </c>
+      <c r="G525" s="5">
+        <v>0</v>
+      </c>
+      <c r="H525" s="5">
+        <v>495</v>
+      </c>
+      <c r="I525" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J525" s="5">
+        <v>1</v>
+      </c>
+      <c r="K525" s="2">
+        <f t="shared" si="29"/>
+        <v>1056000</v>
+      </c>
+      <c r="L525" s="5">
+        <v>1</v>
+      </c>
+      <c r="M525" s="2">
+        <f t="shared" si="28"/>
+        <v>2112000</v>
+      </c>
+      <c r="N525">
+        <v>2</v>
+      </c>
+      <c r="O525" s="5">
+        <v>6538000</v>
+      </c>
+      <c r="P525" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A526" s="2">
+        <v>524</v>
+      </c>
+      <c r="B526" s="2">
+        <v>25</v>
+      </c>
+      <c r="C526" s="1">
+        <v>19</v>
+      </c>
+      <c r="D526" s="2">
+        <v>9</v>
+      </c>
+      <c r="E526" s="2">
+        <v>20</v>
+      </c>
+      <c r="F526" s="2">
+        <v>524</v>
+      </c>
+      <c r="G526" s="5">
+        <v>0</v>
+      </c>
+      <c r="H526" s="5">
+        <v>495</v>
+      </c>
+      <c r="I526" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J526" s="5">
+        <v>1</v>
+      </c>
+      <c r="K526" s="2">
+        <f t="shared" si="29"/>
+        <v>1058000</v>
+      </c>
+      <c r="L526" s="5">
+        <v>1</v>
+      </c>
+      <c r="M526" s="2">
+        <f t="shared" si="28"/>
+        <v>2116000</v>
+      </c>
+      <c r="N526" s="5">
+        <v>2</v>
+      </c>
+      <c r="O526" s="5">
+        <v>6546000</v>
+      </c>
+      <c r="P526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A527" s="2">
+        <v>525</v>
+      </c>
+      <c r="B527" s="2">
+        <v>25</v>
+      </c>
+      <c r="C527" s="1">
+        <v>19</v>
+      </c>
+      <c r="D527" s="2">
+        <v>9</v>
+      </c>
+      <c r="E527" s="2">
+        <v>20</v>
+      </c>
+      <c r="F527" s="2">
+        <v>525</v>
+      </c>
+      <c r="G527" s="5">
+        <v>0</v>
+      </c>
+      <c r="H527" s="5">
+        <v>495</v>
+      </c>
+      <c r="I527" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J527" s="5">
+        <v>1</v>
+      </c>
+      <c r="K527" s="2">
+        <f t="shared" si="29"/>
+        <v>1060000</v>
+      </c>
+      <c r="L527" s="5">
+        <v>1</v>
+      </c>
+      <c r="M527" s="2">
+        <f t="shared" si="28"/>
+        <v>2120000</v>
+      </c>
+      <c r="N527">
+        <v>2</v>
+      </c>
+      <c r="O527" s="2">
+        <v>6554000</v>
+      </c>
+      <c r="P527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A528" s="2">
+        <v>526</v>
+      </c>
+      <c r="B528" s="2">
+        <v>25</v>
+      </c>
+      <c r="C528" s="1">
+        <v>19</v>
+      </c>
+      <c r="D528" s="2">
+        <v>9</v>
+      </c>
+      <c r="E528" s="2">
+        <v>20</v>
+      </c>
+      <c r="F528" s="2">
+        <v>526</v>
+      </c>
+      <c r="G528" s="5">
+        <v>0</v>
+      </c>
+      <c r="H528" s="5">
+        <v>495</v>
+      </c>
+      <c r="I528" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J528" s="5">
+        <v>1</v>
+      </c>
+      <c r="K528" s="2">
+        <f t="shared" si="29"/>
+        <v>1062000</v>
+      </c>
+      <c r="L528" s="5">
+        <v>1</v>
+      </c>
+      <c r="M528" s="2">
+        <f t="shared" si="28"/>
+        <v>2124000</v>
+      </c>
+      <c r="N528" s="5">
+        <v>2</v>
+      </c>
+      <c r="O528" s="5">
+        <v>6562000</v>
+      </c>
+      <c r="P528" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A529" s="2">
+        <v>527</v>
+      </c>
+      <c r="B529" s="2">
+        <v>25</v>
+      </c>
+      <c r="C529" s="1">
+        <v>19</v>
+      </c>
+      <c r="D529" s="2">
+        <v>9</v>
+      </c>
+      <c r="E529" s="2">
+        <v>20</v>
+      </c>
+      <c r="F529" s="2">
+        <v>527</v>
+      </c>
+      <c r="G529" s="5">
+        <v>0</v>
+      </c>
+      <c r="H529" s="5">
+        <v>495</v>
+      </c>
+      <c r="I529" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J529" s="5">
+        <v>1</v>
+      </c>
+      <c r="K529" s="2">
+        <f t="shared" si="29"/>
+        <v>1064000</v>
+      </c>
+      <c r="L529" s="5">
+        <v>1</v>
+      </c>
+      <c r="M529" s="2">
+        <f t="shared" si="28"/>
+        <v>2128000</v>
+      </c>
+      <c r="N529">
+        <v>2</v>
+      </c>
+      <c r="O529" s="2">
+        <v>6570000</v>
+      </c>
+      <c r="P529" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A530" s="2">
+        <v>528</v>
+      </c>
+      <c r="B530" s="2">
+        <v>25</v>
+      </c>
+      <c r="C530" s="1">
+        <v>19</v>
+      </c>
+      <c r="D530" s="2">
+        <v>9</v>
+      </c>
+      <c r="E530" s="2">
+        <v>20</v>
+      </c>
+      <c r="F530" s="2">
+        <v>528</v>
+      </c>
+      <c r="G530" s="5">
+        <v>0</v>
+      </c>
+      <c r="H530" s="5">
+        <v>495</v>
+      </c>
+      <c r="I530" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J530" s="5">
+        <v>1</v>
+      </c>
+      <c r="K530" s="2">
+        <f t="shared" si="29"/>
+        <v>1066000</v>
+      </c>
+      <c r="L530" s="5">
+        <v>1</v>
+      </c>
+      <c r="M530" s="2">
+        <f t="shared" si="28"/>
+        <v>2132000</v>
+      </c>
+      <c r="N530" s="5">
+        <v>2</v>
+      </c>
+      <c r="O530" s="5">
+        <v>6578000</v>
+      </c>
+      <c r="P530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A531" s="2">
+        <v>529</v>
+      </c>
+      <c r="B531" s="2">
+        <v>25</v>
+      </c>
+      <c r="C531" s="1">
+        <v>19</v>
+      </c>
+      <c r="D531" s="2">
+        <v>9</v>
+      </c>
+      <c r="E531" s="2">
+        <v>20</v>
+      </c>
+      <c r="F531" s="2">
+        <v>529</v>
+      </c>
+      <c r="G531" s="5">
+        <v>0</v>
+      </c>
+      <c r="H531" s="5">
+        <v>495</v>
+      </c>
+      <c r="I531" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J531" s="5">
+        <v>1</v>
+      </c>
+      <c r="K531" s="2">
+        <f t="shared" si="29"/>
+        <v>1068000</v>
+      </c>
+      <c r="L531" s="5">
+        <v>1</v>
+      </c>
+      <c r="M531" s="2">
+        <f t="shared" si="28"/>
+        <v>2136000</v>
+      </c>
+      <c r="N531">
+        <v>2</v>
+      </c>
+      <c r="O531" s="5">
+        <v>6586000</v>
+      </c>
+      <c r="P531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A532" s="2">
+        <v>530</v>
+      </c>
+      <c r="B532" s="2">
+        <v>25</v>
+      </c>
+      <c r="C532" s="1">
+        <v>19</v>
+      </c>
+      <c r="D532" s="2">
+        <v>9</v>
+      </c>
+      <c r="E532" s="2">
+        <v>20</v>
+      </c>
+      <c r="F532" s="2">
+        <v>530</v>
+      </c>
+      <c r="G532" s="5">
+        <v>0</v>
+      </c>
+      <c r="H532" s="5">
+        <v>495</v>
+      </c>
+      <c r="I532" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J532" s="5">
+        <v>1</v>
+      </c>
+      <c r="K532" s="2">
+        <f t="shared" si="29"/>
+        <v>1070000</v>
+      </c>
+      <c r="L532" s="5">
+        <v>1</v>
+      </c>
+      <c r="M532" s="2">
+        <f t="shared" si="28"/>
+        <v>2140000</v>
+      </c>
+      <c r="N532" s="5">
+        <v>2</v>
+      </c>
+      <c r="O532" s="2">
+        <v>6594000</v>
+      </c>
+      <c r="P532" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A533" s="2">
+        <v>531</v>
+      </c>
+      <c r="B533" s="2">
+        <v>25</v>
+      </c>
+      <c r="C533" s="1">
+        <v>19</v>
+      </c>
+      <c r="D533" s="2">
+        <v>9</v>
+      </c>
+      <c r="E533" s="2">
+        <v>20</v>
+      </c>
+      <c r="F533" s="2">
+        <v>531</v>
+      </c>
+      <c r="G533" s="5">
+        <v>0</v>
+      </c>
+      <c r="H533" s="5">
+        <v>495</v>
+      </c>
+      <c r="I533" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J533" s="5">
+        <v>1</v>
+      </c>
+      <c r="K533" s="2">
+        <f t="shared" si="29"/>
+        <v>1072000</v>
+      </c>
+      <c r="L533" s="5">
+        <v>1</v>
+      </c>
+      <c r="M533" s="2">
+        <f t="shared" si="28"/>
+        <v>2144000</v>
+      </c>
+      <c r="N533">
+        <v>2</v>
+      </c>
+      <c r="O533" s="5">
+        <v>6602000</v>
+      </c>
+      <c r="P533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A534" s="2">
+        <v>532</v>
+      </c>
+      <c r="B534" s="2">
+        <v>25</v>
+      </c>
+      <c r="C534" s="1">
+        <v>19</v>
+      </c>
+      <c r="D534" s="2">
+        <v>9</v>
+      </c>
+      <c r="E534" s="2">
+        <v>20</v>
+      </c>
+      <c r="F534" s="2">
+        <v>532</v>
+      </c>
+      <c r="G534" s="5">
+        <v>0</v>
+      </c>
+      <c r="H534" s="5">
+        <v>495</v>
+      </c>
+      <c r="I534" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J534" s="5">
+        <v>1</v>
+      </c>
+      <c r="K534" s="2">
+        <f t="shared" si="29"/>
+        <v>1074000</v>
+      </c>
+      <c r="L534" s="5">
+        <v>1</v>
+      </c>
+      <c r="M534" s="2">
+        <f t="shared" si="28"/>
+        <v>2148000</v>
+      </c>
+      <c r="N534" s="5">
+        <v>2</v>
+      </c>
+      <c r="O534" s="2">
+        <v>6610000</v>
+      </c>
+      <c r="P534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A535" s="2">
+        <v>533</v>
+      </c>
+      <c r="B535" s="2">
+        <v>25</v>
+      </c>
+      <c r="C535" s="1">
+        <v>19</v>
+      </c>
+      <c r="D535" s="2">
+        <v>9</v>
+      </c>
+      <c r="E535" s="2">
+        <v>20</v>
+      </c>
+      <c r="F535" s="2">
+        <v>533</v>
+      </c>
+      <c r="G535" s="5">
+        <v>0</v>
+      </c>
+      <c r="H535" s="5">
+        <v>495</v>
+      </c>
+      <c r="I535" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J535" s="5">
+        <v>1</v>
+      </c>
+      <c r="K535" s="2">
+        <f t="shared" si="29"/>
+        <v>1076000</v>
+      </c>
+      <c r="L535" s="5">
+        <v>1</v>
+      </c>
+      <c r="M535" s="2">
+        <f t="shared" si="28"/>
+        <v>2152000</v>
+      </c>
+      <c r="N535">
+        <v>2</v>
+      </c>
+      <c r="O535" s="5">
+        <v>6618000</v>
+      </c>
+      <c r="P535" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A536" s="2">
+        <v>534</v>
+      </c>
+      <c r="B536" s="2">
+        <v>25</v>
+      </c>
+      <c r="C536" s="1">
+        <v>19</v>
+      </c>
+      <c r="D536" s="2">
+        <v>9</v>
+      </c>
+      <c r="E536" s="2">
+        <v>20</v>
+      </c>
+      <c r="F536" s="2">
+        <v>534</v>
+      </c>
+      <c r="G536" s="5">
+        <v>0</v>
+      </c>
+      <c r="H536" s="5">
+        <v>495</v>
+      </c>
+      <c r="I536" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J536" s="5">
+        <v>1</v>
+      </c>
+      <c r="K536" s="2">
+        <f t="shared" si="29"/>
+        <v>1078000</v>
+      </c>
+      <c r="L536" s="5">
+        <v>1</v>
+      </c>
+      <c r="M536" s="2">
+        <f t="shared" si="28"/>
+        <v>2156000</v>
+      </c>
+      <c r="N536" s="5">
+        <v>2</v>
+      </c>
+      <c r="O536" s="5">
+        <v>6626000</v>
+      </c>
+      <c r="P536" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A537" s="2">
+        <v>535</v>
+      </c>
+      <c r="B537" s="2">
+        <v>25</v>
+      </c>
+      <c r="C537" s="1">
+        <v>19</v>
+      </c>
+      <c r="D537" s="2">
+        <v>9</v>
+      </c>
+      <c r="E537" s="2">
+        <v>20</v>
+      </c>
+      <c r="F537" s="2">
+        <v>535</v>
+      </c>
+      <c r="G537" s="5">
+        <v>0</v>
+      </c>
+      <c r="H537" s="5">
+        <v>495</v>
+      </c>
+      <c r="I537" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J537" s="5">
+        <v>1</v>
+      </c>
+      <c r="K537" s="2">
+        <f t="shared" si="29"/>
+        <v>1080000</v>
+      </c>
+      <c r="L537" s="5">
+        <v>1</v>
+      </c>
+      <c r="M537" s="2">
+        <f t="shared" si="28"/>
+        <v>2160000</v>
+      </c>
+      <c r="N537">
+        <v>2</v>
+      </c>
+      <c r="O537" s="2">
+        <v>6634000</v>
+      </c>
+      <c r="P537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A538" s="2">
+        <v>536</v>
+      </c>
+      <c r="B538" s="2">
+        <v>25</v>
+      </c>
+      <c r="C538" s="1">
+        <v>19</v>
+      </c>
+      <c r="D538" s="2">
+        <v>9</v>
+      </c>
+      <c r="E538" s="2">
+        <v>20</v>
+      </c>
+      <c r="F538" s="2">
+        <v>536</v>
+      </c>
+      <c r="G538" s="5">
+        <v>0</v>
+      </c>
+      <c r="H538" s="5">
+        <v>495</v>
+      </c>
+      <c r="I538" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J538" s="5">
+        <v>1</v>
+      </c>
+      <c r="K538" s="2">
+        <f t="shared" si="29"/>
+        <v>1082000</v>
+      </c>
+      <c r="L538" s="5">
+        <v>1</v>
+      </c>
+      <c r="M538" s="2">
+        <f t="shared" si="28"/>
+        <v>2164000</v>
+      </c>
+      <c r="N538" s="5">
+        <v>2</v>
+      </c>
+      <c r="O538" s="5">
+        <v>6642000</v>
+      </c>
+      <c r="P538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A539" s="2">
+        <v>537</v>
+      </c>
+      <c r="B539" s="2">
+        <v>25</v>
+      </c>
+      <c r="C539" s="1">
+        <v>19</v>
+      </c>
+      <c r="D539" s="2">
+        <v>9</v>
+      </c>
+      <c r="E539" s="2">
+        <v>20</v>
+      </c>
+      <c r="F539" s="2">
+        <v>537</v>
+      </c>
+      <c r="G539" s="5">
+        <v>0</v>
+      </c>
+      <c r="H539" s="5">
+        <v>495</v>
+      </c>
+      <c r="I539" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J539" s="5">
+        <v>1</v>
+      </c>
+      <c r="K539" s="2">
+        <f t="shared" si="29"/>
+        <v>1084000</v>
+      </c>
+      <c r="L539" s="5">
+        <v>1</v>
+      </c>
+      <c r="M539" s="2">
+        <f t="shared" si="28"/>
+        <v>2168000</v>
+      </c>
+      <c r="N539">
+        <v>2</v>
+      </c>
+      <c r="O539" s="2">
+        <v>6650000</v>
+      </c>
+      <c r="P539" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A540" s="2">
+        <v>538</v>
+      </c>
+      <c r="B540" s="2">
+        <v>25</v>
+      </c>
+      <c r="C540" s="1">
+        <v>19</v>
+      </c>
+      <c r="D540" s="2">
+        <v>9</v>
+      </c>
+      <c r="E540" s="2">
+        <v>20</v>
+      </c>
+      <c r="F540" s="2">
+        <v>538</v>
+      </c>
+      <c r="G540" s="5">
+        <v>0</v>
+      </c>
+      <c r="H540" s="5">
+        <v>495</v>
+      </c>
+      <c r="I540" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J540" s="5">
+        <v>1</v>
+      </c>
+      <c r="K540" s="2">
+        <f t="shared" si="29"/>
+        <v>1086000</v>
+      </c>
+      <c r="L540" s="5">
+        <v>1</v>
+      </c>
+      <c r="M540" s="2">
+        <f t="shared" si="28"/>
+        <v>2172000</v>
+      </c>
+      <c r="N540" s="5">
+        <v>2</v>
+      </c>
+      <c r="O540" s="5">
+        <v>6658000</v>
+      </c>
+      <c r="P540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A541" s="2">
+        <v>539</v>
+      </c>
+      <c r="B541" s="2">
+        <v>25</v>
+      </c>
+      <c r="C541" s="1">
+        <v>19</v>
+      </c>
+      <c r="D541" s="2">
+        <v>9</v>
+      </c>
+      <c r="E541" s="2">
+        <v>20</v>
+      </c>
+      <c r="F541" s="2">
+        <v>539</v>
+      </c>
+      <c r="G541" s="5">
+        <v>0</v>
+      </c>
+      <c r="H541" s="5">
+        <v>495</v>
+      </c>
+      <c r="I541" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J541" s="5">
+        <v>1</v>
+      </c>
+      <c r="K541" s="2">
+        <f t="shared" si="29"/>
+        <v>1088000</v>
+      </c>
+      <c r="L541" s="5">
+        <v>1</v>
+      </c>
+      <c r="M541" s="2">
+        <f t="shared" si="28"/>
+        <v>2176000</v>
+      </c>
+      <c r="N541">
+        <v>2</v>
+      </c>
+      <c r="O541" s="5">
+        <v>6666000</v>
+      </c>
+      <c r="P541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A542" s="2">
+        <v>540</v>
+      </c>
+      <c r="B542" s="2">
+        <v>25</v>
+      </c>
+      <c r="C542" s="1">
+        <v>19</v>
+      </c>
+      <c r="D542" s="2">
+        <v>9</v>
+      </c>
+      <c r="E542" s="2">
+        <v>20</v>
+      </c>
+      <c r="F542" s="2">
+        <v>540</v>
+      </c>
+      <c r="G542" s="5">
+        <v>0</v>
+      </c>
+      <c r="H542" s="5">
+        <v>495</v>
+      </c>
+      <c r="I542" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J542" s="5">
+        <v>1</v>
+      </c>
+      <c r="K542" s="2">
+        <f t="shared" si="29"/>
+        <v>1090000</v>
+      </c>
+      <c r="L542" s="5">
+        <v>1</v>
+      </c>
+      <c r="M542" s="2">
+        <f t="shared" si="28"/>
+        <v>2180000</v>
+      </c>
+      <c r="N542" s="5">
+        <v>2</v>
+      </c>
+      <c r="O542" s="2">
+        <v>6674000</v>
+      </c>
+      <c r="P542" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A543" s="2">
+        <v>541</v>
+      </c>
+      <c r="B543" s="2">
+        <v>25</v>
+      </c>
+      <c r="C543" s="1">
+        <v>19</v>
+      </c>
+      <c r="D543" s="2">
+        <v>9</v>
+      </c>
+      <c r="E543" s="2">
+        <v>20</v>
+      </c>
+      <c r="F543" s="2">
+        <v>541</v>
+      </c>
+      <c r="G543" s="5">
+        <v>0</v>
+      </c>
+      <c r="H543" s="5">
+        <v>495</v>
+      </c>
+      <c r="I543" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J543" s="5">
+        <v>1</v>
+      </c>
+      <c r="K543" s="2">
+        <f t="shared" si="29"/>
+        <v>1092000</v>
+      </c>
+      <c r="L543" s="5">
+        <v>1</v>
+      </c>
+      <c r="M543" s="2">
+        <f t="shared" si="28"/>
+        <v>2184000</v>
+      </c>
+      <c r="N543">
+        <v>2</v>
+      </c>
+      <c r="O543" s="5">
+        <v>6682000</v>
+      </c>
+      <c r="P543" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A544" s="2">
+        <v>542</v>
+      </c>
+      <c r="B544" s="2">
+        <v>25</v>
+      </c>
+      <c r="C544" s="1">
+        <v>19</v>
+      </c>
+      <c r="D544" s="2">
+        <v>9</v>
+      </c>
+      <c r="E544" s="2">
+        <v>20</v>
+      </c>
+      <c r="F544" s="2">
+        <v>542</v>
+      </c>
+      <c r="G544" s="5">
+        <v>0</v>
+      </c>
+      <c r="H544" s="5">
+        <v>495</v>
+      </c>
+      <c r="I544" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J544" s="5">
+        <v>1</v>
+      </c>
+      <c r="K544" s="2">
+        <f t="shared" si="29"/>
+        <v>1094000</v>
+      </c>
+      <c r="L544" s="5">
+        <v>1</v>
+      </c>
+      <c r="M544" s="2">
+        <f t="shared" si="28"/>
+        <v>2188000</v>
+      </c>
+      <c r="N544" s="5">
+        <v>2</v>
+      </c>
+      <c r="O544" s="2">
+        <v>6690000</v>
+      </c>
+      <c r="P544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A545" s="2">
+        <v>543</v>
+      </c>
+      <c r="B545" s="2">
+        <v>25</v>
+      </c>
+      <c r="C545" s="1">
+        <v>19</v>
+      </c>
+      <c r="D545" s="2">
+        <v>9</v>
+      </c>
+      <c r="E545" s="2">
+        <v>20</v>
+      </c>
+      <c r="F545" s="2">
+        <v>543</v>
+      </c>
+      <c r="G545" s="5">
+        <v>0</v>
+      </c>
+      <c r="H545" s="5">
+        <v>495</v>
+      </c>
+      <c r="I545" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J545" s="5">
+        <v>1</v>
+      </c>
+      <c r="K545" s="2">
+        <f t="shared" si="29"/>
+        <v>1096000</v>
+      </c>
+      <c r="L545" s="5">
+        <v>1</v>
+      </c>
+      <c r="M545" s="2">
+        <f t="shared" si="28"/>
+        <v>2192000</v>
+      </c>
+      <c r="N545">
+        <v>2</v>
+      </c>
+      <c r="O545" s="5">
+        <v>6698000</v>
+      </c>
+      <c r="P545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A546" s="2">
+        <v>544</v>
+      </c>
+      <c r="B546" s="2">
+        <v>25</v>
+      </c>
+      <c r="C546" s="1">
+        <v>19</v>
+      </c>
+      <c r="D546" s="2">
+        <v>9</v>
+      </c>
+      <c r="E546" s="2">
+        <v>20</v>
+      </c>
+      <c r="F546" s="2">
+        <v>544</v>
+      </c>
+      <c r="G546" s="5">
+        <v>0</v>
+      </c>
+      <c r="H546" s="5">
+        <v>495</v>
+      </c>
+      <c r="I546" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J546" s="5">
+        <v>1</v>
+      </c>
+      <c r="K546" s="2">
+        <f t="shared" si="29"/>
+        <v>1098000</v>
+      </c>
+      <c r="L546" s="5">
+        <v>1</v>
+      </c>
+      <c r="M546" s="2">
+        <f t="shared" si="28"/>
+        <v>2196000</v>
+      </c>
+      <c r="N546" s="5">
+        <v>2</v>
+      </c>
+      <c r="O546" s="5">
+        <v>6706000</v>
+      </c>
+      <c r="P546" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A547" s="2">
+        <v>545</v>
+      </c>
+      <c r="B547" s="2">
+        <v>25</v>
+      </c>
+      <c r="C547" s="1">
+        <v>19</v>
+      </c>
+      <c r="D547" s="2">
+        <v>9</v>
+      </c>
+      <c r="E547" s="2">
+        <v>20</v>
+      </c>
+      <c r="F547" s="2">
+        <v>545</v>
+      </c>
+      <c r="G547" s="5">
+        <v>0</v>
+      </c>
+      <c r="H547" s="5">
+        <v>495</v>
+      </c>
+      <c r="I547" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J547" s="5">
+        <v>1</v>
+      </c>
+      <c r="K547" s="2">
+        <f t="shared" si="29"/>
+        <v>1100000</v>
+      </c>
+      <c r="L547" s="5">
+        <v>1</v>
+      </c>
+      <c r="M547" s="2">
+        <f t="shared" si="28"/>
+        <v>2200000</v>
+      </c>
+      <c r="N547">
+        <v>2</v>
+      </c>
+      <c r="O547" s="2">
+        <v>6714000</v>
+      </c>
+      <c r="P547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A548" s="2">
+        <v>546</v>
+      </c>
+      <c r="B548" s="2">
+        <v>25</v>
+      </c>
+      <c r="C548" s="1">
+        <v>19</v>
+      </c>
+      <c r="D548" s="2">
+        <v>9</v>
+      </c>
+      <c r="E548" s="2">
+        <v>20</v>
+      </c>
+      <c r="F548" s="2">
+        <v>546</v>
+      </c>
+      <c r="G548" s="5">
+        <v>0</v>
+      </c>
+      <c r="H548" s="5">
+        <v>495</v>
+      </c>
+      <c r="I548" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J548" s="5">
+        <v>1</v>
+      </c>
+      <c r="K548" s="2">
+        <f t="shared" si="29"/>
+        <v>1102000</v>
+      </c>
+      <c r="L548" s="5">
+        <v>1</v>
+      </c>
+      <c r="M548" s="2">
+        <f t="shared" si="28"/>
+        <v>2204000</v>
+      </c>
+      <c r="N548" s="5">
+        <v>2</v>
+      </c>
+      <c r="O548" s="5">
+        <v>6722000</v>
+      </c>
+      <c r="P548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A549" s="2">
+        <v>547</v>
+      </c>
+      <c r="B549" s="2">
+        <v>25</v>
+      </c>
+      <c r="C549" s="1">
+        <v>19</v>
+      </c>
+      <c r="D549" s="2">
+        <v>9</v>
+      </c>
+      <c r="E549" s="2">
+        <v>20</v>
+      </c>
+      <c r="F549" s="2">
+        <v>547</v>
+      </c>
+      <c r="G549" s="5">
+        <v>0</v>
+      </c>
+      <c r="H549" s="5">
+        <v>495</v>
+      </c>
+      <c r="I549" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J549" s="5">
+        <v>1</v>
+      </c>
+      <c r="K549" s="2">
+        <f t="shared" si="29"/>
+        <v>1104000</v>
+      </c>
+      <c r="L549" s="5">
+        <v>1</v>
+      </c>
+      <c r="M549" s="2">
+        <f t="shared" si="28"/>
+        <v>2208000</v>
+      </c>
+      <c r="N549">
+        <v>2</v>
+      </c>
+      <c r="O549" s="2">
+        <v>6730000</v>
+      </c>
+      <c r="P549" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A550" s="2">
+        <v>548</v>
+      </c>
+      <c r="B550" s="2">
+        <v>25</v>
+      </c>
+      <c r="C550" s="1">
+        <v>19</v>
+      </c>
+      <c r="D550" s="2">
+        <v>9</v>
+      </c>
+      <c r="E550" s="2">
+        <v>20</v>
+      </c>
+      <c r="F550" s="2">
+        <v>548</v>
+      </c>
+      <c r="G550" s="5">
+        <v>0</v>
+      </c>
+      <c r="H550" s="5">
+        <v>495</v>
+      </c>
+      <c r="I550" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J550" s="5">
+        <v>1</v>
+      </c>
+      <c r="K550" s="2">
+        <f t="shared" si="29"/>
+        <v>1106000</v>
+      </c>
+      <c r="L550" s="5">
+        <v>1</v>
+      </c>
+      <c r="M550" s="2">
+        <f t="shared" si="28"/>
+        <v>2212000</v>
+      </c>
+      <c r="N550" s="5">
+        <v>2</v>
+      </c>
+      <c r="O550" s="5">
+        <v>6738000</v>
+      </c>
+      <c r="P550" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A551" s="2">
+        <v>549</v>
+      </c>
+      <c r="B551" s="2">
+        <v>25</v>
+      </c>
+      <c r="C551" s="1">
+        <v>19</v>
+      </c>
+      <c r="D551" s="2">
+        <v>9</v>
+      </c>
+      <c r="E551" s="2">
+        <v>20</v>
+      </c>
+      <c r="F551" s="2">
+        <v>549</v>
+      </c>
+      <c r="G551" s="5">
+        <v>0</v>
+      </c>
+      <c r="H551" s="5">
+        <v>495</v>
+      </c>
+      <c r="I551" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J551" s="5">
+        <v>1</v>
+      </c>
+      <c r="K551" s="2">
+        <f t="shared" si="29"/>
+        <v>1108000</v>
+      </c>
+      <c r="L551" s="5">
+        <v>1</v>
+      </c>
+      <c r="M551" s="2">
+        <f t="shared" si="28"/>
+        <v>2216000</v>
+      </c>
+      <c r="N551">
+        <v>2</v>
+      </c>
+      <c r="O551" s="5">
+        <v>6746000</v>
+      </c>
+      <c r="P551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A552" s="2">
+        <v>550</v>
+      </c>
+      <c r="B552" s="2">
+        <v>25</v>
+      </c>
+      <c r="C552" s="1">
+        <v>19</v>
+      </c>
+      <c r="D552" s="2">
+        <v>9</v>
+      </c>
+      <c r="E552" s="2">
+        <v>20</v>
+      </c>
+      <c r="F552" s="2">
+        <v>550</v>
+      </c>
+      <c r="G552" s="5">
+        <v>0</v>
+      </c>
+      <c r="H552" s="5">
+        <v>495</v>
+      </c>
+      <c r="I552" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J552" s="5">
+        <v>1</v>
+      </c>
+      <c r="K552" s="2">
+        <f t="shared" si="29"/>
+        <v>1110000</v>
+      </c>
+      <c r="L552" s="5">
+        <v>1</v>
+      </c>
+      <c r="M552" s="2">
+        <f t="shared" si="28"/>
+        <v>2220000</v>
+      </c>
+      <c r="N552" s="5">
+        <v>2</v>
+      </c>
+      <c r="O552" s="2">
+        <v>6754000</v>
+      </c>
+      <c r="P552">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B585508-AF3F-4F79-8077-1FB730D602BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C92CC99-7D59-4999-9D0B-F77170ADE836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="19">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q552"/>
+  <dimension ref="A1:Q651"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R543" sqref="R543"/>
+      <pane ySplit="1" topLeftCell="A617" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F651" sqref="F651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26641,7 +26641,7 @@
         <v>1</v>
       </c>
       <c r="M494" s="2">
-        <f t="shared" ref="M494:M552" si="28">K494*2</f>
+        <f t="shared" ref="M494:M554" si="28">K494*2</f>
         <v>1988000</v>
       </c>
       <c r="N494" s="5">
@@ -27154,7 +27154,7 @@
         <v>1</v>
       </c>
       <c r="K504" s="2">
-        <f t="shared" ref="K504:K552" si="29">10000+A504*2000</f>
+        <f t="shared" ref="K504:K554" si="29">10000+A504*2000</f>
         <v>1014000</v>
       </c>
       <c r="L504" s="5">
@@ -29619,7 +29619,7 @@
       </c>
     </row>
     <row r="552" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A552" s="2">
+      <c r="A552" s="5">
         <v>550</v>
       </c>
       <c r="B552" s="2">
@@ -29667,6 +29667,5154 @@
         <v>6754000</v>
       </c>
       <c r="P552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A553" s="2">
+        <v>551</v>
+      </c>
+      <c r="B553" s="2">
+        <v>26</v>
+      </c>
+      <c r="C553" s="1">
+        <v>20</v>
+      </c>
+      <c r="D553" s="2">
+        <v>9</v>
+      </c>
+      <c r="E553" s="2">
+        <v>21</v>
+      </c>
+      <c r="F553" s="2">
+        <v>551</v>
+      </c>
+      <c r="G553" s="5">
+        <v>0</v>
+      </c>
+      <c r="H553" s="5">
+        <v>500</v>
+      </c>
+      <c r="I553" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J553" s="5">
+        <v>1</v>
+      </c>
+      <c r="K553" s="2">
+        <f t="shared" si="29"/>
+        <v>1112000</v>
+      </c>
+      <c r="L553" s="5">
+        <v>1</v>
+      </c>
+      <c r="M553" s="2">
+        <f t="shared" si="28"/>
+        <v>2224000</v>
+      </c>
+      <c r="N553">
+        <v>2</v>
+      </c>
+      <c r="O553" s="5">
+        <v>6762000</v>
+      </c>
+      <c r="P553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A554" s="2">
+        <v>552</v>
+      </c>
+      <c r="B554" s="2">
+        <v>26</v>
+      </c>
+      <c r="C554" s="1">
+        <v>20</v>
+      </c>
+      <c r="D554" s="2">
+        <v>9</v>
+      </c>
+      <c r="E554" s="2">
+        <v>21</v>
+      </c>
+      <c r="F554" s="2">
+        <v>552</v>
+      </c>
+      <c r="G554" s="5">
+        <v>0</v>
+      </c>
+      <c r="H554" s="5">
+        <v>500</v>
+      </c>
+      <c r="I554" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J554" s="5">
+        <v>1</v>
+      </c>
+      <c r="K554" s="2">
+        <f t="shared" si="29"/>
+        <v>1114000</v>
+      </c>
+      <c r="L554" s="5">
+        <v>1</v>
+      </c>
+      <c r="M554" s="2">
+        <f t="shared" si="28"/>
+        <v>2228000</v>
+      </c>
+      <c r="N554" s="5">
+        <v>2</v>
+      </c>
+      <c r="O554" s="2">
+        <v>6770000</v>
+      </c>
+      <c r="P554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A555" s="2">
+        <v>553</v>
+      </c>
+      <c r="B555" s="2">
+        <v>26</v>
+      </c>
+      <c r="C555" s="1">
+        <v>20</v>
+      </c>
+      <c r="D555" s="2">
+        <v>9</v>
+      </c>
+      <c r="E555" s="2">
+        <v>21</v>
+      </c>
+      <c r="F555" s="2">
+        <v>553</v>
+      </c>
+      <c r="G555" s="5">
+        <v>0</v>
+      </c>
+      <c r="H555" s="5">
+        <v>500</v>
+      </c>
+      <c r="I555" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J555" s="5">
+        <v>1</v>
+      </c>
+      <c r="K555" s="2">
+        <f t="shared" ref="K555:K618" si="30">10000+A555*2000</f>
+        <v>1116000</v>
+      </c>
+      <c r="L555" s="5">
+        <v>1</v>
+      </c>
+      <c r="M555" s="2">
+        <f t="shared" ref="M555:M618" si="31">K555*2</f>
+        <v>2232000</v>
+      </c>
+      <c r="N555">
+        <v>2</v>
+      </c>
+      <c r="O555" s="5">
+        <v>6778000</v>
+      </c>
+      <c r="P555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A556" s="2">
+        <v>554</v>
+      </c>
+      <c r="B556" s="2">
+        <v>26</v>
+      </c>
+      <c r="C556" s="1">
+        <v>20</v>
+      </c>
+      <c r="D556" s="2">
+        <v>9</v>
+      </c>
+      <c r="E556" s="2">
+        <v>21</v>
+      </c>
+      <c r="F556" s="2">
+        <v>554</v>
+      </c>
+      <c r="G556" s="5">
+        <v>0</v>
+      </c>
+      <c r="H556" s="5">
+        <v>500</v>
+      </c>
+      <c r="I556" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J556" s="5">
+        <v>1</v>
+      </c>
+      <c r="K556" s="2">
+        <f t="shared" si="30"/>
+        <v>1118000</v>
+      </c>
+      <c r="L556" s="5">
+        <v>1</v>
+      </c>
+      <c r="M556" s="2">
+        <f t="shared" si="31"/>
+        <v>2236000</v>
+      </c>
+      <c r="N556" s="5">
+        <v>2</v>
+      </c>
+      <c r="O556" s="2">
+        <v>6786000</v>
+      </c>
+      <c r="P556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A557" s="2">
+        <v>555</v>
+      </c>
+      <c r="B557" s="2">
+        <v>26</v>
+      </c>
+      <c r="C557" s="1">
+        <v>20</v>
+      </c>
+      <c r="D557" s="2">
+        <v>9</v>
+      </c>
+      <c r="E557" s="2">
+        <v>21</v>
+      </c>
+      <c r="F557" s="2">
+        <v>555</v>
+      </c>
+      <c r="G557" s="5">
+        <v>0</v>
+      </c>
+      <c r="H557" s="5">
+        <v>500</v>
+      </c>
+      <c r="I557" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J557" s="5">
+        <v>1</v>
+      </c>
+      <c r="K557" s="2">
+        <f t="shared" si="30"/>
+        <v>1120000</v>
+      </c>
+      <c r="L557" s="5">
+        <v>1</v>
+      </c>
+      <c r="M557" s="2">
+        <f t="shared" si="31"/>
+        <v>2240000</v>
+      </c>
+      <c r="N557">
+        <v>2</v>
+      </c>
+      <c r="O557" s="5">
+        <v>6794000</v>
+      </c>
+      <c r="P557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A558" s="2">
+        <v>556</v>
+      </c>
+      <c r="B558" s="2">
+        <v>26</v>
+      </c>
+      <c r="C558" s="1">
+        <v>20</v>
+      </c>
+      <c r="D558" s="2">
+        <v>9</v>
+      </c>
+      <c r="E558" s="2">
+        <v>21</v>
+      </c>
+      <c r="F558" s="2">
+        <v>556</v>
+      </c>
+      <c r="G558" s="5">
+        <v>0</v>
+      </c>
+      <c r="H558" s="5">
+        <v>500</v>
+      </c>
+      <c r="I558" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J558" s="5">
+        <v>1</v>
+      </c>
+      <c r="K558" s="2">
+        <f t="shared" si="30"/>
+        <v>1122000</v>
+      </c>
+      <c r="L558" s="5">
+        <v>1</v>
+      </c>
+      <c r="M558" s="2">
+        <f t="shared" si="31"/>
+        <v>2244000</v>
+      </c>
+      <c r="N558" s="5">
+        <v>2</v>
+      </c>
+      <c r="O558" s="2">
+        <v>6802000</v>
+      </c>
+      <c r="P558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A559" s="2">
+        <v>557</v>
+      </c>
+      <c r="B559" s="2">
+        <v>26</v>
+      </c>
+      <c r="C559" s="1">
+        <v>20</v>
+      </c>
+      <c r="D559" s="2">
+        <v>9</v>
+      </c>
+      <c r="E559" s="2">
+        <v>21</v>
+      </c>
+      <c r="F559" s="2">
+        <v>557</v>
+      </c>
+      <c r="G559" s="5">
+        <v>0</v>
+      </c>
+      <c r="H559" s="5">
+        <v>500</v>
+      </c>
+      <c r="I559" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J559" s="5">
+        <v>1</v>
+      </c>
+      <c r="K559" s="2">
+        <f t="shared" si="30"/>
+        <v>1124000</v>
+      </c>
+      <c r="L559" s="5">
+        <v>1</v>
+      </c>
+      <c r="M559" s="2">
+        <f t="shared" si="31"/>
+        <v>2248000</v>
+      </c>
+      <c r="N559">
+        <v>2</v>
+      </c>
+      <c r="O559" s="5">
+        <v>6810000</v>
+      </c>
+      <c r="P559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A560" s="2">
+        <v>558</v>
+      </c>
+      <c r="B560" s="2">
+        <v>26</v>
+      </c>
+      <c r="C560" s="1">
+        <v>20</v>
+      </c>
+      <c r="D560" s="2">
+        <v>9</v>
+      </c>
+      <c r="E560" s="2">
+        <v>21</v>
+      </c>
+      <c r="F560" s="2">
+        <v>558</v>
+      </c>
+      <c r="G560" s="5">
+        <v>0</v>
+      </c>
+      <c r="H560" s="5">
+        <v>500</v>
+      </c>
+      <c r="I560" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J560" s="5">
+        <v>1</v>
+      </c>
+      <c r="K560" s="2">
+        <f t="shared" si="30"/>
+        <v>1126000</v>
+      </c>
+      <c r="L560" s="5">
+        <v>1</v>
+      </c>
+      <c r="M560" s="2">
+        <f t="shared" si="31"/>
+        <v>2252000</v>
+      </c>
+      <c r="N560" s="5">
+        <v>2</v>
+      </c>
+      <c r="O560" s="2">
+        <v>6818000</v>
+      </c>
+      <c r="P560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A561" s="2">
+        <v>559</v>
+      </c>
+      <c r="B561" s="2">
+        <v>26</v>
+      </c>
+      <c r="C561" s="1">
+        <v>20</v>
+      </c>
+      <c r="D561" s="2">
+        <v>9</v>
+      </c>
+      <c r="E561" s="2">
+        <v>21</v>
+      </c>
+      <c r="F561" s="2">
+        <v>559</v>
+      </c>
+      <c r="G561" s="5">
+        <v>0</v>
+      </c>
+      <c r="H561" s="5">
+        <v>500</v>
+      </c>
+      <c r="I561" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J561" s="5">
+        <v>1</v>
+      </c>
+      <c r="K561" s="2">
+        <f t="shared" si="30"/>
+        <v>1128000</v>
+      </c>
+      <c r="L561" s="5">
+        <v>1</v>
+      </c>
+      <c r="M561" s="2">
+        <f t="shared" si="31"/>
+        <v>2256000</v>
+      </c>
+      <c r="N561">
+        <v>2</v>
+      </c>
+      <c r="O561" s="5">
+        <v>6826000</v>
+      </c>
+      <c r="P561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A562" s="2">
+        <v>560</v>
+      </c>
+      <c r="B562" s="2">
+        <v>26</v>
+      </c>
+      <c r="C562" s="1">
+        <v>20</v>
+      </c>
+      <c r="D562" s="2">
+        <v>9</v>
+      </c>
+      <c r="E562" s="2">
+        <v>21</v>
+      </c>
+      <c r="F562" s="2">
+        <v>560</v>
+      </c>
+      <c r="G562" s="5">
+        <v>0</v>
+      </c>
+      <c r="H562" s="5">
+        <v>500</v>
+      </c>
+      <c r="I562" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J562" s="5">
+        <v>1</v>
+      </c>
+      <c r="K562" s="2">
+        <f t="shared" si="30"/>
+        <v>1130000</v>
+      </c>
+      <c r="L562" s="5">
+        <v>1</v>
+      </c>
+      <c r="M562" s="2">
+        <f t="shared" si="31"/>
+        <v>2260000</v>
+      </c>
+      <c r="N562" s="5">
+        <v>2</v>
+      </c>
+      <c r="O562" s="2">
+        <v>6834000</v>
+      </c>
+      <c r="P562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A563" s="2">
+        <v>561</v>
+      </c>
+      <c r="B563" s="2">
+        <v>26</v>
+      </c>
+      <c r="C563" s="1">
+        <v>20</v>
+      </c>
+      <c r="D563" s="2">
+        <v>9</v>
+      </c>
+      <c r="E563" s="2">
+        <v>21</v>
+      </c>
+      <c r="F563" s="2">
+        <v>561</v>
+      </c>
+      <c r="G563" s="5">
+        <v>0</v>
+      </c>
+      <c r="H563" s="5">
+        <v>500</v>
+      </c>
+      <c r="I563" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J563" s="5">
+        <v>1</v>
+      </c>
+      <c r="K563" s="2">
+        <f t="shared" si="30"/>
+        <v>1132000</v>
+      </c>
+      <c r="L563" s="5">
+        <v>1</v>
+      </c>
+      <c r="M563" s="2">
+        <f t="shared" si="31"/>
+        <v>2264000</v>
+      </c>
+      <c r="N563">
+        <v>2</v>
+      </c>
+      <c r="O563" s="5">
+        <v>6842000</v>
+      </c>
+      <c r="P563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A564" s="2">
+        <v>562</v>
+      </c>
+      <c r="B564" s="2">
+        <v>26</v>
+      </c>
+      <c r="C564" s="1">
+        <v>20</v>
+      </c>
+      <c r="D564" s="2">
+        <v>9</v>
+      </c>
+      <c r="E564" s="2">
+        <v>21</v>
+      </c>
+      <c r="F564" s="2">
+        <v>562</v>
+      </c>
+      <c r="G564" s="5">
+        <v>0</v>
+      </c>
+      <c r="H564" s="5">
+        <v>500</v>
+      </c>
+      <c r="I564" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J564" s="5">
+        <v>1</v>
+      </c>
+      <c r="K564" s="2">
+        <f t="shared" si="30"/>
+        <v>1134000</v>
+      </c>
+      <c r="L564" s="5">
+        <v>1</v>
+      </c>
+      <c r="M564" s="2">
+        <f t="shared" si="31"/>
+        <v>2268000</v>
+      </c>
+      <c r="N564" s="5">
+        <v>2</v>
+      </c>
+      <c r="O564" s="2">
+        <v>6850000</v>
+      </c>
+      <c r="P564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A565" s="2">
+        <v>563</v>
+      </c>
+      <c r="B565" s="2">
+        <v>26</v>
+      </c>
+      <c r="C565" s="1">
+        <v>20</v>
+      </c>
+      <c r="D565" s="2">
+        <v>9</v>
+      </c>
+      <c r="E565" s="2">
+        <v>21</v>
+      </c>
+      <c r="F565" s="2">
+        <v>563</v>
+      </c>
+      <c r="G565" s="5">
+        <v>0</v>
+      </c>
+      <c r="H565" s="5">
+        <v>500</v>
+      </c>
+      <c r="I565" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J565" s="5">
+        <v>1</v>
+      </c>
+      <c r="K565" s="2">
+        <f t="shared" si="30"/>
+        <v>1136000</v>
+      </c>
+      <c r="L565" s="5">
+        <v>1</v>
+      </c>
+      <c r="M565" s="2">
+        <f t="shared" si="31"/>
+        <v>2272000</v>
+      </c>
+      <c r="N565">
+        <v>2</v>
+      </c>
+      <c r="O565" s="5">
+        <v>6858000</v>
+      </c>
+      <c r="P565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A566" s="2">
+        <v>564</v>
+      </c>
+      <c r="B566" s="2">
+        <v>26</v>
+      </c>
+      <c r="C566" s="1">
+        <v>20</v>
+      </c>
+      <c r="D566" s="2">
+        <v>9</v>
+      </c>
+      <c r="E566" s="2">
+        <v>21</v>
+      </c>
+      <c r="F566" s="2">
+        <v>564</v>
+      </c>
+      <c r="G566" s="5">
+        <v>0</v>
+      </c>
+      <c r="H566" s="5">
+        <v>500</v>
+      </c>
+      <c r="I566" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J566" s="5">
+        <v>1</v>
+      </c>
+      <c r="K566" s="2">
+        <f t="shared" si="30"/>
+        <v>1138000</v>
+      </c>
+      <c r="L566" s="5">
+        <v>1</v>
+      </c>
+      <c r="M566" s="2">
+        <f t="shared" si="31"/>
+        <v>2276000</v>
+      </c>
+      <c r="N566" s="5">
+        <v>2</v>
+      </c>
+      <c r="O566" s="2">
+        <v>6866000</v>
+      </c>
+      <c r="P566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A567" s="2">
+        <v>565</v>
+      </c>
+      <c r="B567" s="2">
+        <v>26</v>
+      </c>
+      <c r="C567" s="1">
+        <v>20</v>
+      </c>
+      <c r="D567" s="2">
+        <v>9</v>
+      </c>
+      <c r="E567" s="2">
+        <v>21</v>
+      </c>
+      <c r="F567" s="2">
+        <v>565</v>
+      </c>
+      <c r="G567" s="5">
+        <v>0</v>
+      </c>
+      <c r="H567" s="5">
+        <v>500</v>
+      </c>
+      <c r="I567" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J567" s="5">
+        <v>1</v>
+      </c>
+      <c r="K567" s="2">
+        <f t="shared" si="30"/>
+        <v>1140000</v>
+      </c>
+      <c r="L567" s="5">
+        <v>1</v>
+      </c>
+      <c r="M567" s="2">
+        <f t="shared" si="31"/>
+        <v>2280000</v>
+      </c>
+      <c r="N567">
+        <v>2</v>
+      </c>
+      <c r="O567" s="5">
+        <v>6874000</v>
+      </c>
+      <c r="P567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A568" s="2">
+        <v>566</v>
+      </c>
+      <c r="B568" s="2">
+        <v>26</v>
+      </c>
+      <c r="C568" s="1">
+        <v>20</v>
+      </c>
+      <c r="D568" s="2">
+        <v>9</v>
+      </c>
+      <c r="E568" s="2">
+        <v>21</v>
+      </c>
+      <c r="F568" s="2">
+        <v>566</v>
+      </c>
+      <c r="G568" s="5">
+        <v>0</v>
+      </c>
+      <c r="H568" s="5">
+        <v>500</v>
+      </c>
+      <c r="I568" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J568" s="5">
+        <v>1</v>
+      </c>
+      <c r="K568" s="2">
+        <f t="shared" si="30"/>
+        <v>1142000</v>
+      </c>
+      <c r="L568" s="5">
+        <v>1</v>
+      </c>
+      <c r="M568" s="2">
+        <f t="shared" si="31"/>
+        <v>2284000</v>
+      </c>
+      <c r="N568" s="5">
+        <v>2</v>
+      </c>
+      <c r="O568" s="2">
+        <v>6882000</v>
+      </c>
+      <c r="P568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A569" s="2">
+        <v>567</v>
+      </c>
+      <c r="B569" s="2">
+        <v>26</v>
+      </c>
+      <c r="C569" s="1">
+        <v>20</v>
+      </c>
+      <c r="D569" s="2">
+        <v>9</v>
+      </c>
+      <c r="E569" s="2">
+        <v>21</v>
+      </c>
+      <c r="F569" s="2">
+        <v>567</v>
+      </c>
+      <c r="G569" s="5">
+        <v>0</v>
+      </c>
+      <c r="H569" s="5">
+        <v>500</v>
+      </c>
+      <c r="I569" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J569" s="5">
+        <v>1</v>
+      </c>
+      <c r="K569" s="2">
+        <f t="shared" si="30"/>
+        <v>1144000</v>
+      </c>
+      <c r="L569" s="5">
+        <v>1</v>
+      </c>
+      <c r="M569" s="2">
+        <f t="shared" si="31"/>
+        <v>2288000</v>
+      </c>
+      <c r="N569">
+        <v>2</v>
+      </c>
+      <c r="O569" s="5">
+        <v>6890000</v>
+      </c>
+      <c r="P569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A570" s="2">
+        <v>568</v>
+      </c>
+      <c r="B570" s="2">
+        <v>26</v>
+      </c>
+      <c r="C570" s="1">
+        <v>20</v>
+      </c>
+      <c r="D570" s="2">
+        <v>9</v>
+      </c>
+      <c r="E570" s="2">
+        <v>21</v>
+      </c>
+      <c r="F570" s="2">
+        <v>568</v>
+      </c>
+      <c r="G570" s="5">
+        <v>0</v>
+      </c>
+      <c r="H570" s="5">
+        <v>500</v>
+      </c>
+      <c r="I570" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J570" s="5">
+        <v>1</v>
+      </c>
+      <c r="K570" s="2">
+        <f t="shared" si="30"/>
+        <v>1146000</v>
+      </c>
+      <c r="L570" s="5">
+        <v>1</v>
+      </c>
+      <c r="M570" s="2">
+        <f t="shared" si="31"/>
+        <v>2292000</v>
+      </c>
+      <c r="N570" s="5">
+        <v>2</v>
+      </c>
+      <c r="O570" s="2">
+        <v>6898000</v>
+      </c>
+      <c r="P570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A571" s="2">
+        <v>569</v>
+      </c>
+      <c r="B571" s="2">
+        <v>26</v>
+      </c>
+      <c r="C571" s="1">
+        <v>20</v>
+      </c>
+      <c r="D571" s="2">
+        <v>9</v>
+      </c>
+      <c r="E571" s="2">
+        <v>21</v>
+      </c>
+      <c r="F571" s="2">
+        <v>569</v>
+      </c>
+      <c r="G571" s="5">
+        <v>0</v>
+      </c>
+      <c r="H571" s="5">
+        <v>500</v>
+      </c>
+      <c r="I571" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J571" s="5">
+        <v>1</v>
+      </c>
+      <c r="K571" s="2">
+        <f t="shared" si="30"/>
+        <v>1148000</v>
+      </c>
+      <c r="L571" s="5">
+        <v>1</v>
+      </c>
+      <c r="M571" s="2">
+        <f t="shared" si="31"/>
+        <v>2296000</v>
+      </c>
+      <c r="N571">
+        <v>2</v>
+      </c>
+      <c r="O571" s="5">
+        <v>6906000</v>
+      </c>
+      <c r="P571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A572" s="2">
+        <v>570</v>
+      </c>
+      <c r="B572" s="2">
+        <v>26</v>
+      </c>
+      <c r="C572" s="1">
+        <v>20</v>
+      </c>
+      <c r="D572" s="2">
+        <v>9</v>
+      </c>
+      <c r="E572" s="2">
+        <v>21</v>
+      </c>
+      <c r="F572" s="2">
+        <v>570</v>
+      </c>
+      <c r="G572" s="5">
+        <v>0</v>
+      </c>
+      <c r="H572" s="5">
+        <v>500</v>
+      </c>
+      <c r="I572" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J572" s="5">
+        <v>1</v>
+      </c>
+      <c r="K572" s="2">
+        <f t="shared" si="30"/>
+        <v>1150000</v>
+      </c>
+      <c r="L572" s="5">
+        <v>1</v>
+      </c>
+      <c r="M572" s="2">
+        <f t="shared" si="31"/>
+        <v>2300000</v>
+      </c>
+      <c r="N572" s="5">
+        <v>2</v>
+      </c>
+      <c r="O572" s="2">
+        <v>6914000</v>
+      </c>
+      <c r="P572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A573" s="2">
+        <v>571</v>
+      </c>
+      <c r="B573" s="2">
+        <v>26</v>
+      </c>
+      <c r="C573" s="1">
+        <v>20</v>
+      </c>
+      <c r="D573" s="2">
+        <v>9</v>
+      </c>
+      <c r="E573" s="2">
+        <v>21</v>
+      </c>
+      <c r="F573" s="2">
+        <v>571</v>
+      </c>
+      <c r="G573" s="5">
+        <v>0</v>
+      </c>
+      <c r="H573" s="5">
+        <v>500</v>
+      </c>
+      <c r="I573" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J573" s="5">
+        <v>1</v>
+      </c>
+      <c r="K573" s="2">
+        <f t="shared" si="30"/>
+        <v>1152000</v>
+      </c>
+      <c r="L573" s="5">
+        <v>1</v>
+      </c>
+      <c r="M573" s="2">
+        <f t="shared" si="31"/>
+        <v>2304000</v>
+      </c>
+      <c r="N573">
+        <v>2</v>
+      </c>
+      <c r="O573" s="5">
+        <v>6922000</v>
+      </c>
+      <c r="P573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A574" s="2">
+        <v>572</v>
+      </c>
+      <c r="B574" s="2">
+        <v>26</v>
+      </c>
+      <c r="C574" s="1">
+        <v>20</v>
+      </c>
+      <c r="D574" s="2">
+        <v>9</v>
+      </c>
+      <c r="E574" s="2">
+        <v>21</v>
+      </c>
+      <c r="F574" s="2">
+        <v>572</v>
+      </c>
+      <c r="G574" s="5">
+        <v>0</v>
+      </c>
+      <c r="H574" s="5">
+        <v>500</v>
+      </c>
+      <c r="I574" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J574" s="5">
+        <v>1</v>
+      </c>
+      <c r="K574" s="2">
+        <f t="shared" si="30"/>
+        <v>1154000</v>
+      </c>
+      <c r="L574" s="5">
+        <v>1</v>
+      </c>
+      <c r="M574" s="2">
+        <f t="shared" si="31"/>
+        <v>2308000</v>
+      </c>
+      <c r="N574" s="5">
+        <v>2</v>
+      </c>
+      <c r="O574" s="2">
+        <v>6930000</v>
+      </c>
+      <c r="P574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A575" s="2">
+        <v>573</v>
+      </c>
+      <c r="B575" s="2">
+        <v>26</v>
+      </c>
+      <c r="C575" s="1">
+        <v>20</v>
+      </c>
+      <c r="D575" s="2">
+        <v>9</v>
+      </c>
+      <c r="E575" s="2">
+        <v>21</v>
+      </c>
+      <c r="F575" s="2">
+        <v>573</v>
+      </c>
+      <c r="G575" s="5">
+        <v>0</v>
+      </c>
+      <c r="H575" s="5">
+        <v>500</v>
+      </c>
+      <c r="I575" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J575" s="5">
+        <v>1</v>
+      </c>
+      <c r="K575" s="2">
+        <f t="shared" si="30"/>
+        <v>1156000</v>
+      </c>
+      <c r="L575" s="5">
+        <v>1</v>
+      </c>
+      <c r="M575" s="2">
+        <f t="shared" si="31"/>
+        <v>2312000</v>
+      </c>
+      <c r="N575">
+        <v>2</v>
+      </c>
+      <c r="O575" s="5">
+        <v>6938000</v>
+      </c>
+      <c r="P575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A576" s="2">
+        <v>574</v>
+      </c>
+      <c r="B576" s="2">
+        <v>26</v>
+      </c>
+      <c r="C576" s="1">
+        <v>20</v>
+      </c>
+      <c r="D576" s="2">
+        <v>9</v>
+      </c>
+      <c r="E576" s="2">
+        <v>21</v>
+      </c>
+      <c r="F576" s="2">
+        <v>574</v>
+      </c>
+      <c r="G576" s="5">
+        <v>0</v>
+      </c>
+      <c r="H576" s="5">
+        <v>500</v>
+      </c>
+      <c r="I576" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J576" s="5">
+        <v>1</v>
+      </c>
+      <c r="K576" s="2">
+        <f t="shared" si="30"/>
+        <v>1158000</v>
+      </c>
+      <c r="L576" s="5">
+        <v>1</v>
+      </c>
+      <c r="M576" s="2">
+        <f t="shared" si="31"/>
+        <v>2316000</v>
+      </c>
+      <c r="N576" s="5">
+        <v>2</v>
+      </c>
+      <c r="O576" s="2">
+        <v>6946000</v>
+      </c>
+      <c r="P576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A577" s="2">
+        <v>575</v>
+      </c>
+      <c r="B577" s="2">
+        <v>26</v>
+      </c>
+      <c r="C577" s="1">
+        <v>20</v>
+      </c>
+      <c r="D577" s="2">
+        <v>9</v>
+      </c>
+      <c r="E577" s="2">
+        <v>21</v>
+      </c>
+      <c r="F577" s="2">
+        <v>575</v>
+      </c>
+      <c r="G577" s="5">
+        <v>0</v>
+      </c>
+      <c r="H577" s="5">
+        <v>500</v>
+      </c>
+      <c r="I577" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J577" s="5">
+        <v>1</v>
+      </c>
+      <c r="K577" s="2">
+        <f t="shared" si="30"/>
+        <v>1160000</v>
+      </c>
+      <c r="L577" s="5">
+        <v>1</v>
+      </c>
+      <c r="M577" s="2">
+        <f t="shared" si="31"/>
+        <v>2320000</v>
+      </c>
+      <c r="N577">
+        <v>2</v>
+      </c>
+      <c r="O577" s="5">
+        <v>6954000</v>
+      </c>
+      <c r="P577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A578" s="2">
+        <v>576</v>
+      </c>
+      <c r="B578" s="2">
+        <v>26</v>
+      </c>
+      <c r="C578" s="1">
+        <v>20</v>
+      </c>
+      <c r="D578" s="2">
+        <v>9</v>
+      </c>
+      <c r="E578" s="2">
+        <v>21</v>
+      </c>
+      <c r="F578" s="2">
+        <v>576</v>
+      </c>
+      <c r="G578" s="5">
+        <v>0</v>
+      </c>
+      <c r="H578" s="5">
+        <v>500</v>
+      </c>
+      <c r="I578" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J578" s="5">
+        <v>1</v>
+      </c>
+      <c r="K578" s="2">
+        <f t="shared" si="30"/>
+        <v>1162000</v>
+      </c>
+      <c r="L578" s="5">
+        <v>1</v>
+      </c>
+      <c r="M578" s="2">
+        <f t="shared" si="31"/>
+        <v>2324000</v>
+      </c>
+      <c r="N578" s="5">
+        <v>2</v>
+      </c>
+      <c r="O578" s="2">
+        <v>6962000</v>
+      </c>
+      <c r="P578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A579" s="2">
+        <v>577</v>
+      </c>
+      <c r="B579" s="2">
+        <v>26</v>
+      </c>
+      <c r="C579" s="1">
+        <v>20</v>
+      </c>
+      <c r="D579" s="2">
+        <v>9</v>
+      </c>
+      <c r="E579" s="2">
+        <v>21</v>
+      </c>
+      <c r="F579" s="2">
+        <v>577</v>
+      </c>
+      <c r="G579" s="5">
+        <v>0</v>
+      </c>
+      <c r="H579" s="5">
+        <v>500</v>
+      </c>
+      <c r="I579" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J579" s="5">
+        <v>1</v>
+      </c>
+      <c r="K579" s="2">
+        <f t="shared" si="30"/>
+        <v>1164000</v>
+      </c>
+      <c r="L579" s="5">
+        <v>1</v>
+      </c>
+      <c r="M579" s="2">
+        <f t="shared" si="31"/>
+        <v>2328000</v>
+      </c>
+      <c r="N579">
+        <v>2</v>
+      </c>
+      <c r="O579" s="5">
+        <v>6970000</v>
+      </c>
+      <c r="P579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A580" s="2">
+        <v>578</v>
+      </c>
+      <c r="B580" s="2">
+        <v>26</v>
+      </c>
+      <c r="C580" s="1">
+        <v>20</v>
+      </c>
+      <c r="D580" s="2">
+        <v>9</v>
+      </c>
+      <c r="E580" s="2">
+        <v>21</v>
+      </c>
+      <c r="F580" s="2">
+        <v>578</v>
+      </c>
+      <c r="G580" s="5">
+        <v>0</v>
+      </c>
+      <c r="H580" s="5">
+        <v>500</v>
+      </c>
+      <c r="I580" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J580" s="5">
+        <v>1</v>
+      </c>
+      <c r="K580" s="2">
+        <f t="shared" si="30"/>
+        <v>1166000</v>
+      </c>
+      <c r="L580" s="5">
+        <v>1</v>
+      </c>
+      <c r="M580" s="2">
+        <f t="shared" si="31"/>
+        <v>2332000</v>
+      </c>
+      <c r="N580" s="5">
+        <v>2</v>
+      </c>
+      <c r="O580" s="2">
+        <v>6978000</v>
+      </c>
+      <c r="P580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A581" s="2">
+        <v>579</v>
+      </c>
+      <c r="B581" s="2">
+        <v>26</v>
+      </c>
+      <c r="C581" s="1">
+        <v>20</v>
+      </c>
+      <c r="D581" s="2">
+        <v>9</v>
+      </c>
+      <c r="E581" s="2">
+        <v>21</v>
+      </c>
+      <c r="F581" s="2">
+        <v>579</v>
+      </c>
+      <c r="G581" s="5">
+        <v>0</v>
+      </c>
+      <c r="H581" s="5">
+        <v>500</v>
+      </c>
+      <c r="I581" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J581" s="5">
+        <v>1</v>
+      </c>
+      <c r="K581" s="2">
+        <f t="shared" si="30"/>
+        <v>1168000</v>
+      </c>
+      <c r="L581" s="5">
+        <v>1</v>
+      </c>
+      <c r="M581" s="2">
+        <f t="shared" si="31"/>
+        <v>2336000</v>
+      </c>
+      <c r="N581">
+        <v>2</v>
+      </c>
+      <c r="O581" s="5">
+        <v>6986000</v>
+      </c>
+      <c r="P581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A582" s="2">
+        <v>580</v>
+      </c>
+      <c r="B582" s="2">
+        <v>26</v>
+      </c>
+      <c r="C582" s="1">
+        <v>20</v>
+      </c>
+      <c r="D582" s="2">
+        <v>9</v>
+      </c>
+      <c r="E582" s="2">
+        <v>21</v>
+      </c>
+      <c r="F582" s="2">
+        <v>580</v>
+      </c>
+      <c r="G582" s="5">
+        <v>0</v>
+      </c>
+      <c r="H582" s="5">
+        <v>500</v>
+      </c>
+      <c r="I582" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J582" s="5">
+        <v>1</v>
+      </c>
+      <c r="K582" s="2">
+        <f t="shared" si="30"/>
+        <v>1170000</v>
+      </c>
+      <c r="L582" s="5">
+        <v>1</v>
+      </c>
+      <c r="M582" s="2">
+        <f t="shared" si="31"/>
+        <v>2340000</v>
+      </c>
+      <c r="N582" s="5">
+        <v>2</v>
+      </c>
+      <c r="O582" s="2">
+        <v>6994000</v>
+      </c>
+      <c r="P582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A583" s="2">
+        <v>581</v>
+      </c>
+      <c r="B583" s="2">
+        <v>26</v>
+      </c>
+      <c r="C583" s="1">
+        <v>20</v>
+      </c>
+      <c r="D583" s="2">
+        <v>9</v>
+      </c>
+      <c r="E583" s="2">
+        <v>21</v>
+      </c>
+      <c r="F583" s="2">
+        <v>581</v>
+      </c>
+      <c r="G583" s="5">
+        <v>0</v>
+      </c>
+      <c r="H583" s="5">
+        <v>500</v>
+      </c>
+      <c r="I583" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J583" s="5">
+        <v>1</v>
+      </c>
+      <c r="K583" s="2">
+        <f t="shared" si="30"/>
+        <v>1172000</v>
+      </c>
+      <c r="L583" s="5">
+        <v>1</v>
+      </c>
+      <c r="M583" s="2">
+        <f t="shared" si="31"/>
+        <v>2344000</v>
+      </c>
+      <c r="N583">
+        <v>2</v>
+      </c>
+      <c r="O583" s="5">
+        <v>7002000</v>
+      </c>
+      <c r="P583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A584" s="2">
+        <v>582</v>
+      </c>
+      <c r="B584" s="2">
+        <v>26</v>
+      </c>
+      <c r="C584" s="1">
+        <v>20</v>
+      </c>
+      <c r="D584" s="2">
+        <v>9</v>
+      </c>
+      <c r="E584" s="2">
+        <v>21</v>
+      </c>
+      <c r="F584" s="2">
+        <v>582</v>
+      </c>
+      <c r="G584" s="5">
+        <v>0</v>
+      </c>
+      <c r="H584" s="5">
+        <v>500</v>
+      </c>
+      <c r="I584" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J584" s="5">
+        <v>1</v>
+      </c>
+      <c r="K584" s="2">
+        <f t="shared" si="30"/>
+        <v>1174000</v>
+      </c>
+      <c r="L584" s="5">
+        <v>1</v>
+      </c>
+      <c r="M584" s="2">
+        <f t="shared" si="31"/>
+        <v>2348000</v>
+      </c>
+      <c r="N584" s="5">
+        <v>2</v>
+      </c>
+      <c r="O584" s="2">
+        <v>7010000</v>
+      </c>
+      <c r="P584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A585" s="2">
+        <v>583</v>
+      </c>
+      <c r="B585" s="2">
+        <v>26</v>
+      </c>
+      <c r="C585" s="1">
+        <v>20</v>
+      </c>
+      <c r="D585" s="2">
+        <v>9</v>
+      </c>
+      <c r="E585" s="2">
+        <v>21</v>
+      </c>
+      <c r="F585" s="2">
+        <v>583</v>
+      </c>
+      <c r="G585" s="5">
+        <v>0</v>
+      </c>
+      <c r="H585" s="5">
+        <v>500</v>
+      </c>
+      <c r="I585" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J585" s="5">
+        <v>1</v>
+      </c>
+      <c r="K585" s="2">
+        <f t="shared" si="30"/>
+        <v>1176000</v>
+      </c>
+      <c r="L585" s="5">
+        <v>1</v>
+      </c>
+      <c r="M585" s="2">
+        <f t="shared" si="31"/>
+        <v>2352000</v>
+      </c>
+      <c r="N585">
+        <v>2</v>
+      </c>
+      <c r="O585" s="5">
+        <v>7018000</v>
+      </c>
+      <c r="P585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A586" s="2">
+        <v>584</v>
+      </c>
+      <c r="B586" s="2">
+        <v>26</v>
+      </c>
+      <c r="C586" s="1">
+        <v>20</v>
+      </c>
+      <c r="D586" s="2">
+        <v>9</v>
+      </c>
+      <c r="E586" s="2">
+        <v>21</v>
+      </c>
+      <c r="F586" s="2">
+        <v>584</v>
+      </c>
+      <c r="G586" s="5">
+        <v>0</v>
+      </c>
+      <c r="H586" s="5">
+        <v>500</v>
+      </c>
+      <c r="I586" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J586" s="5">
+        <v>1</v>
+      </c>
+      <c r="K586" s="2">
+        <f t="shared" si="30"/>
+        <v>1178000</v>
+      </c>
+      <c r="L586" s="5">
+        <v>1</v>
+      </c>
+      <c r="M586" s="2">
+        <f t="shared" si="31"/>
+        <v>2356000</v>
+      </c>
+      <c r="N586" s="5">
+        <v>2</v>
+      </c>
+      <c r="O586" s="2">
+        <v>7026000</v>
+      </c>
+      <c r="P586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A587" s="2">
+        <v>585</v>
+      </c>
+      <c r="B587" s="2">
+        <v>26</v>
+      </c>
+      <c r="C587" s="1">
+        <v>20</v>
+      </c>
+      <c r="D587" s="2">
+        <v>9</v>
+      </c>
+      <c r="E587" s="2">
+        <v>21</v>
+      </c>
+      <c r="F587" s="2">
+        <v>585</v>
+      </c>
+      <c r="G587" s="5">
+        <v>0</v>
+      </c>
+      <c r="H587" s="5">
+        <v>500</v>
+      </c>
+      <c r="I587" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J587" s="5">
+        <v>1</v>
+      </c>
+      <c r="K587" s="2">
+        <f t="shared" si="30"/>
+        <v>1180000</v>
+      </c>
+      <c r="L587" s="5">
+        <v>1</v>
+      </c>
+      <c r="M587" s="2">
+        <f t="shared" si="31"/>
+        <v>2360000</v>
+      </c>
+      <c r="N587">
+        <v>2</v>
+      </c>
+      <c r="O587" s="5">
+        <v>7034000</v>
+      </c>
+      <c r="P587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A588" s="2">
+        <v>586</v>
+      </c>
+      <c r="B588" s="2">
+        <v>26</v>
+      </c>
+      <c r="C588" s="1">
+        <v>20</v>
+      </c>
+      <c r="D588" s="2">
+        <v>9</v>
+      </c>
+      <c r="E588" s="2">
+        <v>21</v>
+      </c>
+      <c r="F588" s="2">
+        <v>586</v>
+      </c>
+      <c r="G588" s="5">
+        <v>0</v>
+      </c>
+      <c r="H588" s="5">
+        <v>500</v>
+      </c>
+      <c r="I588" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J588" s="5">
+        <v>1</v>
+      </c>
+      <c r="K588" s="2">
+        <f t="shared" si="30"/>
+        <v>1182000</v>
+      </c>
+      <c r="L588" s="5">
+        <v>1</v>
+      </c>
+      <c r="M588" s="2">
+        <f t="shared" si="31"/>
+        <v>2364000</v>
+      </c>
+      <c r="N588" s="5">
+        <v>2</v>
+      </c>
+      <c r="O588" s="2">
+        <v>7042000</v>
+      </c>
+      <c r="P588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A589" s="2">
+        <v>587</v>
+      </c>
+      <c r="B589" s="2">
+        <v>26</v>
+      </c>
+      <c r="C589" s="1">
+        <v>20</v>
+      </c>
+      <c r="D589" s="2">
+        <v>9</v>
+      </c>
+      <c r="E589" s="2">
+        <v>21</v>
+      </c>
+      <c r="F589" s="2">
+        <v>587</v>
+      </c>
+      <c r="G589" s="5">
+        <v>0</v>
+      </c>
+      <c r="H589" s="5">
+        <v>500</v>
+      </c>
+      <c r="I589" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J589" s="5">
+        <v>1</v>
+      </c>
+      <c r="K589" s="2">
+        <f t="shared" si="30"/>
+        <v>1184000</v>
+      </c>
+      <c r="L589" s="5">
+        <v>1</v>
+      </c>
+      <c r="M589" s="2">
+        <f t="shared" si="31"/>
+        <v>2368000</v>
+      </c>
+      <c r="N589">
+        <v>2</v>
+      </c>
+      <c r="O589" s="5">
+        <v>7050000</v>
+      </c>
+      <c r="P589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A590" s="2">
+        <v>588</v>
+      </c>
+      <c r="B590" s="2">
+        <v>26</v>
+      </c>
+      <c r="C590" s="1">
+        <v>20</v>
+      </c>
+      <c r="D590" s="2">
+        <v>9</v>
+      </c>
+      <c r="E590" s="2">
+        <v>21</v>
+      </c>
+      <c r="F590" s="2">
+        <v>588</v>
+      </c>
+      <c r="G590" s="5">
+        <v>0</v>
+      </c>
+      <c r="H590" s="5">
+        <v>500</v>
+      </c>
+      <c r="I590" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J590" s="5">
+        <v>1</v>
+      </c>
+      <c r="K590" s="2">
+        <f t="shared" si="30"/>
+        <v>1186000</v>
+      </c>
+      <c r="L590" s="5">
+        <v>1</v>
+      </c>
+      <c r="M590" s="2">
+        <f t="shared" si="31"/>
+        <v>2372000</v>
+      </c>
+      <c r="N590" s="5">
+        <v>2</v>
+      </c>
+      <c r="O590" s="2">
+        <v>7058000</v>
+      </c>
+      <c r="P590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A591" s="2">
+        <v>589</v>
+      </c>
+      <c r="B591" s="2">
+        <v>26</v>
+      </c>
+      <c r="C591" s="1">
+        <v>20</v>
+      </c>
+      <c r="D591" s="2">
+        <v>9</v>
+      </c>
+      <c r="E591" s="2">
+        <v>21</v>
+      </c>
+      <c r="F591" s="2">
+        <v>589</v>
+      </c>
+      <c r="G591" s="5">
+        <v>0</v>
+      </c>
+      <c r="H591" s="5">
+        <v>500</v>
+      </c>
+      <c r="I591" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J591" s="5">
+        <v>1</v>
+      </c>
+      <c r="K591" s="2">
+        <f t="shared" si="30"/>
+        <v>1188000</v>
+      </c>
+      <c r="L591" s="5">
+        <v>1</v>
+      </c>
+      <c r="M591" s="2">
+        <f t="shared" si="31"/>
+        <v>2376000</v>
+      </c>
+      <c r="N591">
+        <v>2</v>
+      </c>
+      <c r="O591" s="5">
+        <v>7066000</v>
+      </c>
+      <c r="P591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A592" s="2">
+        <v>590</v>
+      </c>
+      <c r="B592" s="2">
+        <v>26</v>
+      </c>
+      <c r="C592" s="1">
+        <v>20</v>
+      </c>
+      <c r="D592" s="2">
+        <v>9</v>
+      </c>
+      <c r="E592" s="2">
+        <v>21</v>
+      </c>
+      <c r="F592" s="2">
+        <v>590</v>
+      </c>
+      <c r="G592" s="5">
+        <v>0</v>
+      </c>
+      <c r="H592" s="5">
+        <v>500</v>
+      </c>
+      <c r="I592" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J592" s="5">
+        <v>1</v>
+      </c>
+      <c r="K592" s="2">
+        <f t="shared" si="30"/>
+        <v>1190000</v>
+      </c>
+      <c r="L592" s="5">
+        <v>1</v>
+      </c>
+      <c r="M592" s="2">
+        <f t="shared" si="31"/>
+        <v>2380000</v>
+      </c>
+      <c r="N592" s="5">
+        <v>2</v>
+      </c>
+      <c r="O592" s="2">
+        <v>7074000</v>
+      </c>
+      <c r="P592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A593" s="2">
+        <v>591</v>
+      </c>
+      <c r="B593" s="2">
+        <v>26</v>
+      </c>
+      <c r="C593" s="1">
+        <v>20</v>
+      </c>
+      <c r="D593" s="2">
+        <v>9</v>
+      </c>
+      <c r="E593" s="2">
+        <v>21</v>
+      </c>
+      <c r="F593" s="2">
+        <v>591</v>
+      </c>
+      <c r="G593" s="5">
+        <v>0</v>
+      </c>
+      <c r="H593" s="5">
+        <v>500</v>
+      </c>
+      <c r="I593" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J593" s="5">
+        <v>1</v>
+      </c>
+      <c r="K593" s="2">
+        <f t="shared" si="30"/>
+        <v>1192000</v>
+      </c>
+      <c r="L593" s="5">
+        <v>1</v>
+      </c>
+      <c r="M593" s="2">
+        <f t="shared" si="31"/>
+        <v>2384000</v>
+      </c>
+      <c r="N593">
+        <v>2</v>
+      </c>
+      <c r="O593" s="5">
+        <v>7082000</v>
+      </c>
+      <c r="P593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A594" s="2">
+        <v>592</v>
+      </c>
+      <c r="B594" s="2">
+        <v>26</v>
+      </c>
+      <c r="C594" s="1">
+        <v>20</v>
+      </c>
+      <c r="D594" s="2">
+        <v>9</v>
+      </c>
+      <c r="E594" s="2">
+        <v>21</v>
+      </c>
+      <c r="F594" s="2">
+        <v>592</v>
+      </c>
+      <c r="G594" s="5">
+        <v>0</v>
+      </c>
+      <c r="H594" s="5">
+        <v>500</v>
+      </c>
+      <c r="I594" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J594" s="5">
+        <v>1</v>
+      </c>
+      <c r="K594" s="2">
+        <f t="shared" si="30"/>
+        <v>1194000</v>
+      </c>
+      <c r="L594" s="5">
+        <v>1</v>
+      </c>
+      <c r="M594" s="2">
+        <f t="shared" si="31"/>
+        <v>2388000</v>
+      </c>
+      <c r="N594" s="5">
+        <v>2</v>
+      </c>
+      <c r="O594" s="2">
+        <v>7090000</v>
+      </c>
+      <c r="P594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A595" s="2">
+        <v>593</v>
+      </c>
+      <c r="B595" s="2">
+        <v>26</v>
+      </c>
+      <c r="C595" s="1">
+        <v>20</v>
+      </c>
+      <c r="D595" s="2">
+        <v>9</v>
+      </c>
+      <c r="E595" s="2">
+        <v>21</v>
+      </c>
+      <c r="F595" s="2">
+        <v>593</v>
+      </c>
+      <c r="G595" s="5">
+        <v>0</v>
+      </c>
+      <c r="H595" s="5">
+        <v>500</v>
+      </c>
+      <c r="I595" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J595" s="5">
+        <v>1</v>
+      </c>
+      <c r="K595" s="2">
+        <f t="shared" si="30"/>
+        <v>1196000</v>
+      </c>
+      <c r="L595" s="5">
+        <v>1</v>
+      </c>
+      <c r="M595" s="2">
+        <f t="shared" si="31"/>
+        <v>2392000</v>
+      </c>
+      <c r="N595">
+        <v>2</v>
+      </c>
+      <c r="O595" s="5">
+        <v>7098000</v>
+      </c>
+      <c r="P595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A596" s="2">
+        <v>594</v>
+      </c>
+      <c r="B596" s="2">
+        <v>26</v>
+      </c>
+      <c r="C596" s="1">
+        <v>20</v>
+      </c>
+      <c r="D596" s="2">
+        <v>9</v>
+      </c>
+      <c r="E596" s="2">
+        <v>21</v>
+      </c>
+      <c r="F596" s="2">
+        <v>594</v>
+      </c>
+      <c r="G596" s="5">
+        <v>0</v>
+      </c>
+      <c r="H596" s="5">
+        <v>500</v>
+      </c>
+      <c r="I596" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J596" s="5">
+        <v>1</v>
+      </c>
+      <c r="K596" s="2">
+        <f t="shared" si="30"/>
+        <v>1198000</v>
+      </c>
+      <c r="L596" s="5">
+        <v>1</v>
+      </c>
+      <c r="M596" s="2">
+        <f t="shared" si="31"/>
+        <v>2396000</v>
+      </c>
+      <c r="N596" s="5">
+        <v>2</v>
+      </c>
+      <c r="O596" s="2">
+        <v>7106000</v>
+      </c>
+      <c r="P596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A597" s="2">
+        <v>595</v>
+      </c>
+      <c r="B597" s="2">
+        <v>26</v>
+      </c>
+      <c r="C597" s="1">
+        <v>20</v>
+      </c>
+      <c r="D597" s="2">
+        <v>9</v>
+      </c>
+      <c r="E597" s="2">
+        <v>21</v>
+      </c>
+      <c r="F597" s="2">
+        <v>595</v>
+      </c>
+      <c r="G597" s="5">
+        <v>0</v>
+      </c>
+      <c r="H597" s="5">
+        <v>500</v>
+      </c>
+      <c r="I597" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J597" s="5">
+        <v>1</v>
+      </c>
+      <c r="K597" s="2">
+        <f t="shared" si="30"/>
+        <v>1200000</v>
+      </c>
+      <c r="L597" s="5">
+        <v>1</v>
+      </c>
+      <c r="M597" s="2">
+        <f t="shared" si="31"/>
+        <v>2400000</v>
+      </c>
+      <c r="N597">
+        <v>2</v>
+      </c>
+      <c r="O597" s="5">
+        <v>7114000</v>
+      </c>
+      <c r="P597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A598" s="2">
+        <v>596</v>
+      </c>
+      <c r="B598" s="2">
+        <v>26</v>
+      </c>
+      <c r="C598" s="1">
+        <v>20</v>
+      </c>
+      <c r="D598" s="2">
+        <v>9</v>
+      </c>
+      <c r="E598" s="2">
+        <v>21</v>
+      </c>
+      <c r="F598" s="2">
+        <v>596</v>
+      </c>
+      <c r="G598" s="5">
+        <v>0</v>
+      </c>
+      <c r="H598" s="5">
+        <v>500</v>
+      </c>
+      <c r="I598" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J598" s="5">
+        <v>1</v>
+      </c>
+      <c r="K598" s="2">
+        <f t="shared" si="30"/>
+        <v>1202000</v>
+      </c>
+      <c r="L598" s="5">
+        <v>1</v>
+      </c>
+      <c r="M598" s="2">
+        <f t="shared" si="31"/>
+        <v>2404000</v>
+      </c>
+      <c r="N598" s="5">
+        <v>2</v>
+      </c>
+      <c r="O598" s="2">
+        <v>7122000</v>
+      </c>
+      <c r="P598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A599" s="2">
+        <v>597</v>
+      </c>
+      <c r="B599" s="2">
+        <v>26</v>
+      </c>
+      <c r="C599" s="1">
+        <v>20</v>
+      </c>
+      <c r="D599" s="2">
+        <v>9</v>
+      </c>
+      <c r="E599" s="2">
+        <v>21</v>
+      </c>
+      <c r="F599" s="2">
+        <v>597</v>
+      </c>
+      <c r="G599" s="5">
+        <v>0</v>
+      </c>
+      <c r="H599" s="5">
+        <v>500</v>
+      </c>
+      <c r="I599" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J599" s="5">
+        <v>1</v>
+      </c>
+      <c r="K599" s="2">
+        <f t="shared" si="30"/>
+        <v>1204000</v>
+      </c>
+      <c r="L599" s="5">
+        <v>1</v>
+      </c>
+      <c r="M599" s="2">
+        <f t="shared" si="31"/>
+        <v>2408000</v>
+      </c>
+      <c r="N599">
+        <v>2</v>
+      </c>
+      <c r="O599" s="5">
+        <v>7130000</v>
+      </c>
+      <c r="P599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A600" s="2">
+        <v>598</v>
+      </c>
+      <c r="B600" s="2">
+        <v>26</v>
+      </c>
+      <c r="C600" s="1">
+        <v>20</v>
+      </c>
+      <c r="D600" s="2">
+        <v>9</v>
+      </c>
+      <c r="E600" s="2">
+        <v>21</v>
+      </c>
+      <c r="F600" s="2">
+        <v>598</v>
+      </c>
+      <c r="G600" s="5">
+        <v>0</v>
+      </c>
+      <c r="H600" s="5">
+        <v>500</v>
+      </c>
+      <c r="I600" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J600" s="5">
+        <v>1</v>
+      </c>
+      <c r="K600" s="2">
+        <f t="shared" si="30"/>
+        <v>1206000</v>
+      </c>
+      <c r="L600" s="5">
+        <v>1</v>
+      </c>
+      <c r="M600" s="2">
+        <f t="shared" si="31"/>
+        <v>2412000</v>
+      </c>
+      <c r="N600" s="5">
+        <v>2</v>
+      </c>
+      <c r="O600" s="2">
+        <v>7138000</v>
+      </c>
+      <c r="P600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A601" s="2">
+        <v>599</v>
+      </c>
+      <c r="B601" s="2">
+        <v>26</v>
+      </c>
+      <c r="C601" s="1">
+        <v>20</v>
+      </c>
+      <c r="D601" s="2">
+        <v>9</v>
+      </c>
+      <c r="E601" s="2">
+        <v>21</v>
+      </c>
+      <c r="F601" s="2">
+        <v>599</v>
+      </c>
+      <c r="G601" s="5">
+        <v>0</v>
+      </c>
+      <c r="H601" s="5">
+        <v>500</v>
+      </c>
+      <c r="I601" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J601" s="5">
+        <v>1</v>
+      </c>
+      <c r="K601" s="2">
+        <f t="shared" si="30"/>
+        <v>1208000</v>
+      </c>
+      <c r="L601" s="5">
+        <v>1</v>
+      </c>
+      <c r="M601" s="2">
+        <f t="shared" si="31"/>
+        <v>2416000</v>
+      </c>
+      <c r="N601">
+        <v>2</v>
+      </c>
+      <c r="O601" s="5">
+        <v>7146000</v>
+      </c>
+      <c r="P601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A602" s="2">
+        <v>600</v>
+      </c>
+      <c r="B602" s="2">
+        <v>26</v>
+      </c>
+      <c r="C602" s="1">
+        <v>20</v>
+      </c>
+      <c r="D602" s="2">
+        <v>9</v>
+      </c>
+      <c r="E602" s="2">
+        <v>21</v>
+      </c>
+      <c r="F602" s="2">
+        <v>600</v>
+      </c>
+      <c r="G602" s="5">
+        <v>0</v>
+      </c>
+      <c r="H602" s="5">
+        <v>500</v>
+      </c>
+      <c r="I602" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J602" s="5">
+        <v>1</v>
+      </c>
+      <c r="K602" s="2">
+        <f t="shared" si="30"/>
+        <v>1210000</v>
+      </c>
+      <c r="L602" s="5">
+        <v>1</v>
+      </c>
+      <c r="M602" s="2">
+        <f t="shared" si="31"/>
+        <v>2420000</v>
+      </c>
+      <c r="N602" s="5">
+        <v>2</v>
+      </c>
+      <c r="O602" s="2">
+        <v>7154000</v>
+      </c>
+      <c r="P602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A603" s="2">
+        <v>601</v>
+      </c>
+      <c r="B603" s="2">
+        <v>27</v>
+      </c>
+      <c r="C603" s="1">
+        <v>20</v>
+      </c>
+      <c r="D603" s="2">
+        <v>9</v>
+      </c>
+      <c r="E603" s="2">
+        <v>21</v>
+      </c>
+      <c r="F603" s="2">
+        <v>601</v>
+      </c>
+      <c r="G603" s="5">
+        <v>0</v>
+      </c>
+      <c r="H603" s="5">
+        <v>500</v>
+      </c>
+      <c r="I603" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J603" s="5">
+        <v>1</v>
+      </c>
+      <c r="K603" s="2">
+        <f t="shared" si="30"/>
+        <v>1212000</v>
+      </c>
+      <c r="L603" s="5">
+        <v>1</v>
+      </c>
+      <c r="M603" s="2">
+        <f t="shared" si="31"/>
+        <v>2424000</v>
+      </c>
+      <c r="N603">
+        <v>2</v>
+      </c>
+      <c r="O603" s="5">
+        <v>7162000</v>
+      </c>
+      <c r="P603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A604" s="2">
+        <v>602</v>
+      </c>
+      <c r="B604" s="2">
+        <v>27</v>
+      </c>
+      <c r="C604" s="1">
+        <v>20</v>
+      </c>
+      <c r="D604" s="2">
+        <v>9</v>
+      </c>
+      <c r="E604" s="2">
+        <v>21</v>
+      </c>
+      <c r="F604" s="2">
+        <v>602</v>
+      </c>
+      <c r="G604" s="5">
+        <v>0</v>
+      </c>
+      <c r="H604" s="5">
+        <v>500</v>
+      </c>
+      <c r="I604" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J604" s="5">
+        <v>1</v>
+      </c>
+      <c r="K604" s="2">
+        <f t="shared" si="30"/>
+        <v>1214000</v>
+      </c>
+      <c r="L604" s="5">
+        <v>1</v>
+      </c>
+      <c r="M604" s="2">
+        <f t="shared" si="31"/>
+        <v>2428000</v>
+      </c>
+      <c r="N604" s="5">
+        <v>2</v>
+      </c>
+      <c r="O604" s="2">
+        <v>7170000</v>
+      </c>
+      <c r="P604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A605" s="2">
+        <v>603</v>
+      </c>
+      <c r="B605" s="2">
+        <v>27</v>
+      </c>
+      <c r="C605" s="1">
+        <v>20</v>
+      </c>
+      <c r="D605" s="2">
+        <v>9</v>
+      </c>
+      <c r="E605" s="2">
+        <v>21</v>
+      </c>
+      <c r="F605" s="2">
+        <v>603</v>
+      </c>
+      <c r="G605" s="5">
+        <v>0</v>
+      </c>
+      <c r="H605" s="5">
+        <v>500</v>
+      </c>
+      <c r="I605" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J605" s="5">
+        <v>1</v>
+      </c>
+      <c r="K605" s="2">
+        <f t="shared" si="30"/>
+        <v>1216000</v>
+      </c>
+      <c r="L605" s="5">
+        <v>1</v>
+      </c>
+      <c r="M605" s="2">
+        <f t="shared" si="31"/>
+        <v>2432000</v>
+      </c>
+      <c r="N605">
+        <v>2</v>
+      </c>
+      <c r="O605" s="5">
+        <v>7178000</v>
+      </c>
+      <c r="P605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A606" s="2">
+        <v>604</v>
+      </c>
+      <c r="B606" s="2">
+        <v>27</v>
+      </c>
+      <c r="C606" s="1">
+        <v>20</v>
+      </c>
+      <c r="D606" s="2">
+        <v>9</v>
+      </c>
+      <c r="E606" s="2">
+        <v>21</v>
+      </c>
+      <c r="F606" s="2">
+        <v>604</v>
+      </c>
+      <c r="G606" s="5">
+        <v>0</v>
+      </c>
+      <c r="H606" s="5">
+        <v>500</v>
+      </c>
+      <c r="I606" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J606" s="5">
+        <v>1</v>
+      </c>
+      <c r="K606" s="2">
+        <f t="shared" si="30"/>
+        <v>1218000</v>
+      </c>
+      <c r="L606" s="5">
+        <v>1</v>
+      </c>
+      <c r="M606" s="2">
+        <f t="shared" si="31"/>
+        <v>2436000</v>
+      </c>
+      <c r="N606" s="5">
+        <v>2</v>
+      </c>
+      <c r="O606" s="2">
+        <v>7186000</v>
+      </c>
+      <c r="P606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A607" s="2">
+        <v>605</v>
+      </c>
+      <c r="B607" s="2">
+        <v>27</v>
+      </c>
+      <c r="C607" s="1">
+        <v>20</v>
+      </c>
+      <c r="D607" s="2">
+        <v>9</v>
+      </c>
+      <c r="E607" s="2">
+        <v>21</v>
+      </c>
+      <c r="F607" s="2">
+        <v>605</v>
+      </c>
+      <c r="G607" s="5">
+        <v>0</v>
+      </c>
+      <c r="H607" s="5">
+        <v>500</v>
+      </c>
+      <c r="I607" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J607" s="5">
+        <v>1</v>
+      </c>
+      <c r="K607" s="2">
+        <f t="shared" si="30"/>
+        <v>1220000</v>
+      </c>
+      <c r="L607" s="5">
+        <v>1</v>
+      </c>
+      <c r="M607" s="2">
+        <f t="shared" si="31"/>
+        <v>2440000</v>
+      </c>
+      <c r="N607">
+        <v>2</v>
+      </c>
+      <c r="O607" s="5">
+        <v>7194000</v>
+      </c>
+      <c r="P607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A608" s="2">
+        <v>606</v>
+      </c>
+      <c r="B608" s="2">
+        <v>27</v>
+      </c>
+      <c r="C608" s="1">
+        <v>20</v>
+      </c>
+      <c r="D608" s="2">
+        <v>9</v>
+      </c>
+      <c r="E608" s="2">
+        <v>21</v>
+      </c>
+      <c r="F608" s="2">
+        <v>606</v>
+      </c>
+      <c r="G608" s="5">
+        <v>0</v>
+      </c>
+      <c r="H608" s="5">
+        <v>500</v>
+      </c>
+      <c r="I608" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J608" s="5">
+        <v>1</v>
+      </c>
+      <c r="K608" s="2">
+        <f t="shared" si="30"/>
+        <v>1222000</v>
+      </c>
+      <c r="L608" s="5">
+        <v>1</v>
+      </c>
+      <c r="M608" s="2">
+        <f t="shared" si="31"/>
+        <v>2444000</v>
+      </c>
+      <c r="N608" s="5">
+        <v>2</v>
+      </c>
+      <c r="O608" s="2">
+        <v>7202000</v>
+      </c>
+      <c r="P608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A609" s="2">
+        <v>607</v>
+      </c>
+      <c r="B609" s="2">
+        <v>27</v>
+      </c>
+      <c r="C609" s="1">
+        <v>20</v>
+      </c>
+      <c r="D609" s="2">
+        <v>9</v>
+      </c>
+      <c r="E609" s="2">
+        <v>21</v>
+      </c>
+      <c r="F609" s="2">
+        <v>607</v>
+      </c>
+      <c r="G609" s="5">
+        <v>0</v>
+      </c>
+      <c r="H609" s="5">
+        <v>500</v>
+      </c>
+      <c r="I609" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J609" s="5">
+        <v>1</v>
+      </c>
+      <c r="K609" s="2">
+        <f t="shared" si="30"/>
+        <v>1224000</v>
+      </c>
+      <c r="L609" s="5">
+        <v>1</v>
+      </c>
+      <c r="M609" s="2">
+        <f t="shared" si="31"/>
+        <v>2448000</v>
+      </c>
+      <c r="N609">
+        <v>2</v>
+      </c>
+      <c r="O609" s="5">
+        <v>7210000</v>
+      </c>
+      <c r="P609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A610" s="2">
+        <v>608</v>
+      </c>
+      <c r="B610" s="2">
+        <v>27</v>
+      </c>
+      <c r="C610" s="1">
+        <v>20</v>
+      </c>
+      <c r="D610" s="2">
+        <v>9</v>
+      </c>
+      <c r="E610" s="2">
+        <v>21</v>
+      </c>
+      <c r="F610" s="2">
+        <v>608</v>
+      </c>
+      <c r="G610" s="5">
+        <v>0</v>
+      </c>
+      <c r="H610" s="5">
+        <v>500</v>
+      </c>
+      <c r="I610" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J610" s="5">
+        <v>1</v>
+      </c>
+      <c r="K610" s="2">
+        <f t="shared" si="30"/>
+        <v>1226000</v>
+      </c>
+      <c r="L610" s="5">
+        <v>1</v>
+      </c>
+      <c r="M610" s="2">
+        <f t="shared" si="31"/>
+        <v>2452000</v>
+      </c>
+      <c r="N610" s="5">
+        <v>2</v>
+      </c>
+      <c r="O610" s="2">
+        <v>7218000</v>
+      </c>
+      <c r="P610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A611" s="2">
+        <v>609</v>
+      </c>
+      <c r="B611" s="2">
+        <v>27</v>
+      </c>
+      <c r="C611" s="1">
+        <v>20</v>
+      </c>
+      <c r="D611" s="2">
+        <v>9</v>
+      </c>
+      <c r="E611" s="2">
+        <v>21</v>
+      </c>
+      <c r="F611" s="2">
+        <v>609</v>
+      </c>
+      <c r="G611" s="5">
+        <v>0</v>
+      </c>
+      <c r="H611" s="5">
+        <v>500</v>
+      </c>
+      <c r="I611" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J611" s="5">
+        <v>1</v>
+      </c>
+      <c r="K611" s="2">
+        <f t="shared" si="30"/>
+        <v>1228000</v>
+      </c>
+      <c r="L611" s="5">
+        <v>1</v>
+      </c>
+      <c r="M611" s="2">
+        <f t="shared" si="31"/>
+        <v>2456000</v>
+      </c>
+      <c r="N611">
+        <v>2</v>
+      </c>
+      <c r="O611" s="5">
+        <v>7226000</v>
+      </c>
+      <c r="P611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A612" s="2">
+        <v>610</v>
+      </c>
+      <c r="B612" s="2">
+        <v>27</v>
+      </c>
+      <c r="C612" s="1">
+        <v>20</v>
+      </c>
+      <c r="D612" s="2">
+        <v>9</v>
+      </c>
+      <c r="E612" s="2">
+        <v>21</v>
+      </c>
+      <c r="F612" s="2">
+        <v>610</v>
+      </c>
+      <c r="G612" s="5">
+        <v>0</v>
+      </c>
+      <c r="H612" s="5">
+        <v>500</v>
+      </c>
+      <c r="I612" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J612" s="5">
+        <v>1</v>
+      </c>
+      <c r="K612" s="2">
+        <f t="shared" si="30"/>
+        <v>1230000</v>
+      </c>
+      <c r="L612" s="5">
+        <v>1</v>
+      </c>
+      <c r="M612" s="2">
+        <f t="shared" si="31"/>
+        <v>2460000</v>
+      </c>
+      <c r="N612" s="5">
+        <v>2</v>
+      </c>
+      <c r="O612" s="2">
+        <v>7234000</v>
+      </c>
+      <c r="P612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A613" s="2">
+        <v>611</v>
+      </c>
+      <c r="B613" s="2">
+        <v>27</v>
+      </c>
+      <c r="C613" s="1">
+        <v>20</v>
+      </c>
+      <c r="D613" s="2">
+        <v>9</v>
+      </c>
+      <c r="E613" s="2">
+        <v>21</v>
+      </c>
+      <c r="F613" s="2">
+        <v>611</v>
+      </c>
+      <c r="G613" s="5">
+        <v>0</v>
+      </c>
+      <c r="H613" s="5">
+        <v>500</v>
+      </c>
+      <c r="I613" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J613" s="5">
+        <v>1</v>
+      </c>
+      <c r="K613" s="2">
+        <f t="shared" si="30"/>
+        <v>1232000</v>
+      </c>
+      <c r="L613" s="5">
+        <v>1</v>
+      </c>
+      <c r="M613" s="2">
+        <f t="shared" si="31"/>
+        <v>2464000</v>
+      </c>
+      <c r="N613">
+        <v>2</v>
+      </c>
+      <c r="O613" s="5">
+        <v>7242000</v>
+      </c>
+      <c r="P613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A614" s="2">
+        <v>612</v>
+      </c>
+      <c r="B614" s="2">
+        <v>27</v>
+      </c>
+      <c r="C614" s="1">
+        <v>20</v>
+      </c>
+      <c r="D614" s="2">
+        <v>9</v>
+      </c>
+      <c r="E614" s="2">
+        <v>21</v>
+      </c>
+      <c r="F614" s="2">
+        <v>612</v>
+      </c>
+      <c r="G614" s="5">
+        <v>0</v>
+      </c>
+      <c r="H614" s="5">
+        <v>500</v>
+      </c>
+      <c r="I614" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J614" s="5">
+        <v>1</v>
+      </c>
+      <c r="K614" s="2">
+        <f t="shared" si="30"/>
+        <v>1234000</v>
+      </c>
+      <c r="L614" s="5">
+        <v>1</v>
+      </c>
+      <c r="M614" s="2">
+        <f t="shared" si="31"/>
+        <v>2468000</v>
+      </c>
+      <c r="N614" s="5">
+        <v>2</v>
+      </c>
+      <c r="O614" s="2">
+        <v>7250000</v>
+      </c>
+      <c r="P614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A615" s="2">
+        <v>613</v>
+      </c>
+      <c r="B615" s="2">
+        <v>27</v>
+      </c>
+      <c r="C615" s="1">
+        <v>20</v>
+      </c>
+      <c r="D615" s="2">
+        <v>9</v>
+      </c>
+      <c r="E615" s="2">
+        <v>21</v>
+      </c>
+      <c r="F615" s="2">
+        <v>613</v>
+      </c>
+      <c r="G615" s="5">
+        <v>0</v>
+      </c>
+      <c r="H615" s="5">
+        <v>500</v>
+      </c>
+      <c r="I615" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J615" s="5">
+        <v>1</v>
+      </c>
+      <c r="K615" s="2">
+        <f t="shared" si="30"/>
+        <v>1236000</v>
+      </c>
+      <c r="L615" s="5">
+        <v>1</v>
+      </c>
+      <c r="M615" s="2">
+        <f t="shared" si="31"/>
+        <v>2472000</v>
+      </c>
+      <c r="N615">
+        <v>2</v>
+      </c>
+      <c r="O615" s="5">
+        <v>7258000</v>
+      </c>
+      <c r="P615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A616" s="2">
+        <v>614</v>
+      </c>
+      <c r="B616" s="2">
+        <v>27</v>
+      </c>
+      <c r="C616" s="1">
+        <v>20</v>
+      </c>
+      <c r="D616" s="2">
+        <v>9</v>
+      </c>
+      <c r="E616" s="2">
+        <v>21</v>
+      </c>
+      <c r="F616" s="2">
+        <v>614</v>
+      </c>
+      <c r="G616" s="5">
+        <v>0</v>
+      </c>
+      <c r="H616" s="5">
+        <v>500</v>
+      </c>
+      <c r="I616" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J616" s="5">
+        <v>1</v>
+      </c>
+      <c r="K616" s="2">
+        <f t="shared" si="30"/>
+        <v>1238000</v>
+      </c>
+      <c r="L616" s="5">
+        <v>1</v>
+      </c>
+      <c r="M616" s="2">
+        <f t="shared" si="31"/>
+        <v>2476000</v>
+      </c>
+      <c r="N616" s="5">
+        <v>2</v>
+      </c>
+      <c r="O616" s="2">
+        <v>7266000</v>
+      </c>
+      <c r="P616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A617" s="2">
+        <v>615</v>
+      </c>
+      <c r="B617" s="2">
+        <v>27</v>
+      </c>
+      <c r="C617" s="1">
+        <v>20</v>
+      </c>
+      <c r="D617" s="2">
+        <v>9</v>
+      </c>
+      <c r="E617" s="2">
+        <v>21</v>
+      </c>
+      <c r="F617" s="2">
+        <v>615</v>
+      </c>
+      <c r="G617" s="5">
+        <v>0</v>
+      </c>
+      <c r="H617" s="5">
+        <v>500</v>
+      </c>
+      <c r="I617" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J617" s="5">
+        <v>1</v>
+      </c>
+      <c r="K617" s="2">
+        <f t="shared" si="30"/>
+        <v>1240000</v>
+      </c>
+      <c r="L617" s="5">
+        <v>1</v>
+      </c>
+      <c r="M617" s="2">
+        <f t="shared" si="31"/>
+        <v>2480000</v>
+      </c>
+      <c r="N617">
+        <v>2</v>
+      </c>
+      <c r="O617" s="5">
+        <v>7274000</v>
+      </c>
+      <c r="P617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A618" s="2">
+        <v>616</v>
+      </c>
+      <c r="B618" s="2">
+        <v>27</v>
+      </c>
+      <c r="C618" s="1">
+        <v>20</v>
+      </c>
+      <c r="D618" s="2">
+        <v>9</v>
+      </c>
+      <c r="E618" s="2">
+        <v>21</v>
+      </c>
+      <c r="F618" s="2">
+        <v>616</v>
+      </c>
+      <c r="G618" s="5">
+        <v>0</v>
+      </c>
+      <c r="H618" s="5">
+        <v>500</v>
+      </c>
+      <c r="I618" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J618" s="5">
+        <v>1</v>
+      </c>
+      <c r="K618" s="2">
+        <f t="shared" si="30"/>
+        <v>1242000</v>
+      </c>
+      <c r="L618" s="5">
+        <v>1</v>
+      </c>
+      <c r="M618" s="2">
+        <f t="shared" si="31"/>
+        <v>2484000</v>
+      </c>
+      <c r="N618" s="5">
+        <v>2</v>
+      </c>
+      <c r="O618" s="2">
+        <v>7282000</v>
+      </c>
+      <c r="P618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A619" s="2">
+        <v>617</v>
+      </c>
+      <c r="B619" s="2">
+        <v>27</v>
+      </c>
+      <c r="C619" s="1">
+        <v>20</v>
+      </c>
+      <c r="D619" s="2">
+        <v>9</v>
+      </c>
+      <c r="E619" s="2">
+        <v>21</v>
+      </c>
+      <c r="F619" s="2">
+        <v>617</v>
+      </c>
+      <c r="G619" s="5">
+        <v>0</v>
+      </c>
+      <c r="H619" s="5">
+        <v>500</v>
+      </c>
+      <c r="I619" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J619" s="5">
+        <v>1</v>
+      </c>
+      <c r="K619" s="2">
+        <f t="shared" ref="K619:K650" si="32">10000+A619*2000</f>
+        <v>1244000</v>
+      </c>
+      <c r="L619" s="5">
+        <v>1</v>
+      </c>
+      <c r="M619" s="2">
+        <f t="shared" ref="M619:M650" si="33">K619*2</f>
+        <v>2488000</v>
+      </c>
+      <c r="N619">
+        <v>2</v>
+      </c>
+      <c r="O619" s="5">
+        <v>7290000</v>
+      </c>
+      <c r="P619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A620" s="2">
+        <v>618</v>
+      </c>
+      <c r="B620" s="2">
+        <v>27</v>
+      </c>
+      <c r="C620" s="1">
+        <v>20</v>
+      </c>
+      <c r="D620" s="2">
+        <v>9</v>
+      </c>
+      <c r="E620" s="2">
+        <v>21</v>
+      </c>
+      <c r="F620" s="2">
+        <v>618</v>
+      </c>
+      <c r="G620" s="5">
+        <v>0</v>
+      </c>
+      <c r="H620" s="5">
+        <v>500</v>
+      </c>
+      <c r="I620" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J620" s="5">
+        <v>1</v>
+      </c>
+      <c r="K620" s="2">
+        <f t="shared" si="32"/>
+        <v>1246000</v>
+      </c>
+      <c r="L620" s="5">
+        <v>1</v>
+      </c>
+      <c r="M620" s="2">
+        <f t="shared" si="33"/>
+        <v>2492000</v>
+      </c>
+      <c r="N620" s="5">
+        <v>2</v>
+      </c>
+      <c r="O620" s="2">
+        <v>7298000</v>
+      </c>
+      <c r="P620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A621" s="2">
+        <v>619</v>
+      </c>
+      <c r="B621" s="2">
+        <v>27</v>
+      </c>
+      <c r="C621" s="1">
+        <v>20</v>
+      </c>
+      <c r="D621" s="2">
+        <v>9</v>
+      </c>
+      <c r="E621" s="2">
+        <v>21</v>
+      </c>
+      <c r="F621" s="2">
+        <v>619</v>
+      </c>
+      <c r="G621" s="5">
+        <v>0</v>
+      </c>
+      <c r="H621" s="5">
+        <v>500</v>
+      </c>
+      <c r="I621" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J621" s="5">
+        <v>1</v>
+      </c>
+      <c r="K621" s="2">
+        <f t="shared" si="32"/>
+        <v>1248000</v>
+      </c>
+      <c r="L621" s="5">
+        <v>1</v>
+      </c>
+      <c r="M621" s="2">
+        <f t="shared" si="33"/>
+        <v>2496000</v>
+      </c>
+      <c r="N621">
+        <v>2</v>
+      </c>
+      <c r="O621" s="5">
+        <v>7306000</v>
+      </c>
+      <c r="P621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A622" s="2">
+        <v>620</v>
+      </c>
+      <c r="B622" s="2">
+        <v>27</v>
+      </c>
+      <c r="C622" s="1">
+        <v>20</v>
+      </c>
+      <c r="D622" s="2">
+        <v>9</v>
+      </c>
+      <c r="E622" s="2">
+        <v>21</v>
+      </c>
+      <c r="F622" s="2">
+        <v>620</v>
+      </c>
+      <c r="G622" s="5">
+        <v>0</v>
+      </c>
+      <c r="H622" s="5">
+        <v>500</v>
+      </c>
+      <c r="I622" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J622" s="5">
+        <v>1</v>
+      </c>
+      <c r="K622" s="2">
+        <f t="shared" si="32"/>
+        <v>1250000</v>
+      </c>
+      <c r="L622" s="5">
+        <v>1</v>
+      </c>
+      <c r="M622" s="2">
+        <f t="shared" si="33"/>
+        <v>2500000</v>
+      </c>
+      <c r="N622" s="5">
+        <v>2</v>
+      </c>
+      <c r="O622" s="2">
+        <v>7314000</v>
+      </c>
+      <c r="P622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A623" s="2">
+        <v>621</v>
+      </c>
+      <c r="B623" s="2">
+        <v>27</v>
+      </c>
+      <c r="C623" s="1">
+        <v>20</v>
+      </c>
+      <c r="D623" s="2">
+        <v>9</v>
+      </c>
+      <c r="E623" s="2">
+        <v>21</v>
+      </c>
+      <c r="F623" s="2">
+        <v>621</v>
+      </c>
+      <c r="G623" s="5">
+        <v>0</v>
+      </c>
+      <c r="H623" s="5">
+        <v>500</v>
+      </c>
+      <c r="I623" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J623" s="5">
+        <v>1</v>
+      </c>
+      <c r="K623" s="2">
+        <f t="shared" si="32"/>
+        <v>1252000</v>
+      </c>
+      <c r="L623" s="5">
+        <v>1</v>
+      </c>
+      <c r="M623" s="2">
+        <f t="shared" si="33"/>
+        <v>2504000</v>
+      </c>
+      <c r="N623">
+        <v>2</v>
+      </c>
+      <c r="O623" s="5">
+        <v>7322000</v>
+      </c>
+      <c r="P623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A624" s="2">
+        <v>622</v>
+      </c>
+      <c r="B624" s="2">
+        <v>27</v>
+      </c>
+      <c r="C624" s="1">
+        <v>20</v>
+      </c>
+      <c r="D624" s="2">
+        <v>9</v>
+      </c>
+      <c r="E624" s="2">
+        <v>21</v>
+      </c>
+      <c r="F624" s="2">
+        <v>622</v>
+      </c>
+      <c r="G624" s="5">
+        <v>0</v>
+      </c>
+      <c r="H624" s="5">
+        <v>500</v>
+      </c>
+      <c r="I624" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J624" s="5">
+        <v>1</v>
+      </c>
+      <c r="K624" s="2">
+        <f t="shared" si="32"/>
+        <v>1254000</v>
+      </c>
+      <c r="L624" s="5">
+        <v>1</v>
+      </c>
+      <c r="M624" s="2">
+        <f t="shared" si="33"/>
+        <v>2508000</v>
+      </c>
+      <c r="N624" s="5">
+        <v>2</v>
+      </c>
+      <c r="O624" s="2">
+        <v>7330000</v>
+      </c>
+      <c r="P624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A625" s="2">
+        <v>623</v>
+      </c>
+      <c r="B625" s="2">
+        <v>27</v>
+      </c>
+      <c r="C625" s="1">
+        <v>20</v>
+      </c>
+      <c r="D625" s="2">
+        <v>9</v>
+      </c>
+      <c r="E625" s="2">
+        <v>21</v>
+      </c>
+      <c r="F625" s="2">
+        <v>623</v>
+      </c>
+      <c r="G625" s="5">
+        <v>0</v>
+      </c>
+      <c r="H625" s="5">
+        <v>500</v>
+      </c>
+      <c r="I625" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J625" s="5">
+        <v>1</v>
+      </c>
+      <c r="K625" s="2">
+        <f t="shared" si="32"/>
+        <v>1256000</v>
+      </c>
+      <c r="L625" s="5">
+        <v>1</v>
+      </c>
+      <c r="M625" s="2">
+        <f t="shared" si="33"/>
+        <v>2512000</v>
+      </c>
+      <c r="N625">
+        <v>2</v>
+      </c>
+      <c r="O625" s="5">
+        <v>7338000</v>
+      </c>
+      <c r="P625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A626" s="2">
+        <v>624</v>
+      </c>
+      <c r="B626" s="2">
+        <v>27</v>
+      </c>
+      <c r="C626" s="1">
+        <v>20</v>
+      </c>
+      <c r="D626" s="2">
+        <v>9</v>
+      </c>
+      <c r="E626" s="2">
+        <v>21</v>
+      </c>
+      <c r="F626" s="2">
+        <v>624</v>
+      </c>
+      <c r="G626" s="5">
+        <v>0</v>
+      </c>
+      <c r="H626" s="5">
+        <v>500</v>
+      </c>
+      <c r="I626" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J626" s="5">
+        <v>1</v>
+      </c>
+      <c r="K626" s="2">
+        <f t="shared" si="32"/>
+        <v>1258000</v>
+      </c>
+      <c r="L626" s="5">
+        <v>1</v>
+      </c>
+      <c r="M626" s="2">
+        <f t="shared" si="33"/>
+        <v>2516000</v>
+      </c>
+      <c r="N626" s="5">
+        <v>2</v>
+      </c>
+      <c r="O626" s="2">
+        <v>7346000</v>
+      </c>
+      <c r="P626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A627" s="2">
+        <v>625</v>
+      </c>
+      <c r="B627" s="2">
+        <v>27</v>
+      </c>
+      <c r="C627" s="1">
+        <v>20</v>
+      </c>
+      <c r="D627" s="2">
+        <v>9</v>
+      </c>
+      <c r="E627" s="2">
+        <v>21</v>
+      </c>
+      <c r="F627" s="2">
+        <v>625</v>
+      </c>
+      <c r="G627" s="5">
+        <v>0</v>
+      </c>
+      <c r="H627" s="5">
+        <v>500</v>
+      </c>
+      <c r="I627" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J627" s="5">
+        <v>1</v>
+      </c>
+      <c r="K627" s="2">
+        <f t="shared" si="32"/>
+        <v>1260000</v>
+      </c>
+      <c r="L627" s="5">
+        <v>1</v>
+      </c>
+      <c r="M627" s="2">
+        <f t="shared" si="33"/>
+        <v>2520000</v>
+      </c>
+      <c r="N627">
+        <v>2</v>
+      </c>
+      <c r="O627" s="5">
+        <v>7354000</v>
+      </c>
+      <c r="P627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A628" s="2">
+        <v>626</v>
+      </c>
+      <c r="B628" s="2">
+        <v>27</v>
+      </c>
+      <c r="C628" s="1">
+        <v>20</v>
+      </c>
+      <c r="D628" s="2">
+        <v>9</v>
+      </c>
+      <c r="E628" s="2">
+        <v>21</v>
+      </c>
+      <c r="F628" s="2">
+        <v>626</v>
+      </c>
+      <c r="G628" s="5">
+        <v>0</v>
+      </c>
+      <c r="H628" s="5">
+        <v>500</v>
+      </c>
+      <c r="I628" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J628" s="5">
+        <v>1</v>
+      </c>
+      <c r="K628" s="2">
+        <f t="shared" si="32"/>
+        <v>1262000</v>
+      </c>
+      <c r="L628" s="5">
+        <v>1</v>
+      </c>
+      <c r="M628" s="2">
+        <f t="shared" si="33"/>
+        <v>2524000</v>
+      </c>
+      <c r="N628" s="5">
+        <v>2</v>
+      </c>
+      <c r="O628" s="2">
+        <v>7362000</v>
+      </c>
+      <c r="P628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A629" s="2">
+        <v>627</v>
+      </c>
+      <c r="B629" s="2">
+        <v>27</v>
+      </c>
+      <c r="C629" s="1">
+        <v>20</v>
+      </c>
+      <c r="D629" s="2">
+        <v>9</v>
+      </c>
+      <c r="E629" s="2">
+        <v>21</v>
+      </c>
+      <c r="F629" s="2">
+        <v>627</v>
+      </c>
+      <c r="G629" s="5">
+        <v>0</v>
+      </c>
+      <c r="H629" s="5">
+        <v>500</v>
+      </c>
+      <c r="I629" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J629" s="5">
+        <v>1</v>
+      </c>
+      <c r="K629" s="2">
+        <f t="shared" si="32"/>
+        <v>1264000</v>
+      </c>
+      <c r="L629" s="5">
+        <v>1</v>
+      </c>
+      <c r="M629" s="2">
+        <f t="shared" si="33"/>
+        <v>2528000</v>
+      </c>
+      <c r="N629">
+        <v>2</v>
+      </c>
+      <c r="O629" s="5">
+        <v>7370000</v>
+      </c>
+      <c r="P629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A630" s="2">
+        <v>628</v>
+      </c>
+      <c r="B630" s="2">
+        <v>27</v>
+      </c>
+      <c r="C630" s="1">
+        <v>20</v>
+      </c>
+      <c r="D630" s="2">
+        <v>9</v>
+      </c>
+      <c r="E630" s="2">
+        <v>21</v>
+      </c>
+      <c r="F630" s="2">
+        <v>628</v>
+      </c>
+      <c r="G630" s="5">
+        <v>0</v>
+      </c>
+      <c r="H630" s="5">
+        <v>500</v>
+      </c>
+      <c r="I630" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J630" s="5">
+        <v>1</v>
+      </c>
+      <c r="K630" s="2">
+        <f t="shared" si="32"/>
+        <v>1266000</v>
+      </c>
+      <c r="L630" s="5">
+        <v>1</v>
+      </c>
+      <c r="M630" s="2">
+        <f t="shared" si="33"/>
+        <v>2532000</v>
+      </c>
+      <c r="N630" s="5">
+        <v>2</v>
+      </c>
+      <c r="O630" s="2">
+        <v>7378000</v>
+      </c>
+      <c r="P630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A631" s="2">
+        <v>629</v>
+      </c>
+      <c r="B631" s="2">
+        <v>27</v>
+      </c>
+      <c r="C631" s="1">
+        <v>20</v>
+      </c>
+      <c r="D631" s="2">
+        <v>9</v>
+      </c>
+      <c r="E631" s="2">
+        <v>21</v>
+      </c>
+      <c r="F631" s="2">
+        <v>629</v>
+      </c>
+      <c r="G631" s="5">
+        <v>0</v>
+      </c>
+      <c r="H631" s="5">
+        <v>500</v>
+      </c>
+      <c r="I631" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J631" s="5">
+        <v>1</v>
+      </c>
+      <c r="K631" s="2">
+        <f t="shared" si="32"/>
+        <v>1268000</v>
+      </c>
+      <c r="L631" s="5">
+        <v>1</v>
+      </c>
+      <c r="M631" s="2">
+        <f t="shared" si="33"/>
+        <v>2536000</v>
+      </c>
+      <c r="N631">
+        <v>2</v>
+      </c>
+      <c r="O631" s="5">
+        <v>7386000</v>
+      </c>
+      <c r="P631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A632" s="2">
+        <v>630</v>
+      </c>
+      <c r="B632" s="2">
+        <v>27</v>
+      </c>
+      <c r="C632" s="1">
+        <v>20</v>
+      </c>
+      <c r="D632" s="2">
+        <v>9</v>
+      </c>
+      <c r="E632" s="2">
+        <v>21</v>
+      </c>
+      <c r="F632" s="2">
+        <v>630</v>
+      </c>
+      <c r="G632" s="5">
+        <v>0</v>
+      </c>
+      <c r="H632" s="5">
+        <v>500</v>
+      </c>
+      <c r="I632" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J632" s="5">
+        <v>1</v>
+      </c>
+      <c r="K632" s="2">
+        <f t="shared" si="32"/>
+        <v>1270000</v>
+      </c>
+      <c r="L632" s="5">
+        <v>1</v>
+      </c>
+      <c r="M632" s="2">
+        <f t="shared" si="33"/>
+        <v>2540000</v>
+      </c>
+      <c r="N632" s="5">
+        <v>2</v>
+      </c>
+      <c r="O632" s="2">
+        <v>7394000</v>
+      </c>
+      <c r="P632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A633" s="2">
+        <v>631</v>
+      </c>
+      <c r="B633" s="2">
+        <v>27</v>
+      </c>
+      <c r="C633" s="1">
+        <v>20</v>
+      </c>
+      <c r="D633" s="2">
+        <v>9</v>
+      </c>
+      <c r="E633" s="2">
+        <v>21</v>
+      </c>
+      <c r="F633" s="2">
+        <v>631</v>
+      </c>
+      <c r="G633" s="5">
+        <v>0</v>
+      </c>
+      <c r="H633" s="5">
+        <v>500</v>
+      </c>
+      <c r="I633" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J633" s="5">
+        <v>1</v>
+      </c>
+      <c r="K633" s="2">
+        <f t="shared" si="32"/>
+        <v>1272000</v>
+      </c>
+      <c r="L633" s="5">
+        <v>1</v>
+      </c>
+      <c r="M633" s="2">
+        <f t="shared" si="33"/>
+        <v>2544000</v>
+      </c>
+      <c r="N633">
+        <v>2</v>
+      </c>
+      <c r="O633" s="5">
+        <v>7402000</v>
+      </c>
+      <c r="P633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A634" s="2">
+        <v>632</v>
+      </c>
+      <c r="B634" s="2">
+        <v>27</v>
+      </c>
+      <c r="C634" s="1">
+        <v>20</v>
+      </c>
+      <c r="D634" s="2">
+        <v>9</v>
+      </c>
+      <c r="E634" s="2">
+        <v>21</v>
+      </c>
+      <c r="F634" s="2">
+        <v>632</v>
+      </c>
+      <c r="G634" s="5">
+        <v>0</v>
+      </c>
+      <c r="H634" s="5">
+        <v>500</v>
+      </c>
+      <c r="I634" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J634" s="5">
+        <v>1</v>
+      </c>
+      <c r="K634" s="2">
+        <f t="shared" si="32"/>
+        <v>1274000</v>
+      </c>
+      <c r="L634" s="5">
+        <v>1</v>
+      </c>
+      <c r="M634" s="2">
+        <f t="shared" si="33"/>
+        <v>2548000</v>
+      </c>
+      <c r="N634" s="5">
+        <v>2</v>
+      </c>
+      <c r="O634" s="2">
+        <v>7410000</v>
+      </c>
+      <c r="P634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A635" s="2">
+        <v>633</v>
+      </c>
+      <c r="B635" s="2">
+        <v>27</v>
+      </c>
+      <c r="C635" s="1">
+        <v>20</v>
+      </c>
+      <c r="D635" s="2">
+        <v>9</v>
+      </c>
+      <c r="E635" s="2">
+        <v>21</v>
+      </c>
+      <c r="F635" s="2">
+        <v>633</v>
+      </c>
+      <c r="G635" s="5">
+        <v>0</v>
+      </c>
+      <c r="H635" s="5">
+        <v>500</v>
+      </c>
+      <c r="I635" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J635" s="5">
+        <v>1</v>
+      </c>
+      <c r="K635" s="2">
+        <f t="shared" si="32"/>
+        <v>1276000</v>
+      </c>
+      <c r="L635" s="5">
+        <v>1</v>
+      </c>
+      <c r="M635" s="2">
+        <f t="shared" si="33"/>
+        <v>2552000</v>
+      </c>
+      <c r="N635">
+        <v>2</v>
+      </c>
+      <c r="O635" s="5">
+        <v>7418000</v>
+      </c>
+      <c r="P635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A636" s="2">
+        <v>634</v>
+      </c>
+      <c r="B636" s="2">
+        <v>27</v>
+      </c>
+      <c r="C636" s="1">
+        <v>20</v>
+      </c>
+      <c r="D636" s="2">
+        <v>9</v>
+      </c>
+      <c r="E636" s="2">
+        <v>21</v>
+      </c>
+      <c r="F636" s="2">
+        <v>634</v>
+      </c>
+      <c r="G636" s="5">
+        <v>0</v>
+      </c>
+      <c r="H636" s="5">
+        <v>500</v>
+      </c>
+      <c r="I636" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J636" s="5">
+        <v>1</v>
+      </c>
+      <c r="K636" s="2">
+        <f t="shared" si="32"/>
+        <v>1278000</v>
+      </c>
+      <c r="L636" s="5">
+        <v>1</v>
+      </c>
+      <c r="M636" s="2">
+        <f t="shared" si="33"/>
+        <v>2556000</v>
+      </c>
+      <c r="N636" s="5">
+        <v>2</v>
+      </c>
+      <c r="O636" s="2">
+        <v>7426000</v>
+      </c>
+      <c r="P636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A637" s="2">
+        <v>635</v>
+      </c>
+      <c r="B637" s="2">
+        <v>27</v>
+      </c>
+      <c r="C637" s="1">
+        <v>20</v>
+      </c>
+      <c r="D637" s="2">
+        <v>9</v>
+      </c>
+      <c r="E637" s="2">
+        <v>21</v>
+      </c>
+      <c r="F637" s="2">
+        <v>635</v>
+      </c>
+      <c r="G637" s="5">
+        <v>0</v>
+      </c>
+      <c r="H637" s="5">
+        <v>500</v>
+      </c>
+      <c r="I637" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J637" s="5">
+        <v>1</v>
+      </c>
+      <c r="K637" s="2">
+        <f t="shared" si="32"/>
+        <v>1280000</v>
+      </c>
+      <c r="L637" s="5">
+        <v>1</v>
+      </c>
+      <c r="M637" s="2">
+        <f t="shared" si="33"/>
+        <v>2560000</v>
+      </c>
+      <c r="N637">
+        <v>2</v>
+      </c>
+      <c r="O637" s="5">
+        <v>7434000</v>
+      </c>
+      <c r="P637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A638" s="2">
+        <v>636</v>
+      </c>
+      <c r="B638" s="2">
+        <v>27</v>
+      </c>
+      <c r="C638" s="1">
+        <v>20</v>
+      </c>
+      <c r="D638" s="2">
+        <v>9</v>
+      </c>
+      <c r="E638" s="2">
+        <v>21</v>
+      </c>
+      <c r="F638" s="2">
+        <v>636</v>
+      </c>
+      <c r="G638" s="5">
+        <v>0</v>
+      </c>
+      <c r="H638" s="5">
+        <v>500</v>
+      </c>
+      <c r="I638" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J638" s="5">
+        <v>1</v>
+      </c>
+      <c r="K638" s="2">
+        <f t="shared" si="32"/>
+        <v>1282000</v>
+      </c>
+      <c r="L638" s="5">
+        <v>1</v>
+      </c>
+      <c r="M638" s="2">
+        <f t="shared" si="33"/>
+        <v>2564000</v>
+      </c>
+      <c r="N638" s="5">
+        <v>2</v>
+      </c>
+      <c r="O638" s="2">
+        <v>7442000</v>
+      </c>
+      <c r="P638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A639" s="2">
+        <v>637</v>
+      </c>
+      <c r="B639" s="2">
+        <v>27</v>
+      </c>
+      <c r="C639" s="1">
+        <v>20</v>
+      </c>
+      <c r="D639" s="2">
+        <v>9</v>
+      </c>
+      <c r="E639" s="2">
+        <v>21</v>
+      </c>
+      <c r="F639" s="2">
+        <v>637</v>
+      </c>
+      <c r="G639" s="5">
+        <v>0</v>
+      </c>
+      <c r="H639" s="5">
+        <v>500</v>
+      </c>
+      <c r="I639" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J639" s="5">
+        <v>1</v>
+      </c>
+      <c r="K639" s="2">
+        <f t="shared" si="32"/>
+        <v>1284000</v>
+      </c>
+      <c r="L639" s="5">
+        <v>1</v>
+      </c>
+      <c r="M639" s="2">
+        <f t="shared" si="33"/>
+        <v>2568000</v>
+      </c>
+      <c r="N639">
+        <v>2</v>
+      </c>
+      <c r="O639" s="5">
+        <v>7450000</v>
+      </c>
+      <c r="P639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A640" s="2">
+        <v>638</v>
+      </c>
+      <c r="B640" s="2">
+        <v>27</v>
+      </c>
+      <c r="C640" s="1">
+        <v>20</v>
+      </c>
+      <c r="D640" s="2">
+        <v>9</v>
+      </c>
+      <c r="E640" s="2">
+        <v>21</v>
+      </c>
+      <c r="F640" s="2">
+        <v>638</v>
+      </c>
+      <c r="G640" s="5">
+        <v>0</v>
+      </c>
+      <c r="H640" s="5">
+        <v>500</v>
+      </c>
+      <c r="I640" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J640" s="5">
+        <v>1</v>
+      </c>
+      <c r="K640" s="2">
+        <f t="shared" si="32"/>
+        <v>1286000</v>
+      </c>
+      <c r="L640" s="5">
+        <v>1</v>
+      </c>
+      <c r="M640" s="2">
+        <f t="shared" si="33"/>
+        <v>2572000</v>
+      </c>
+      <c r="N640" s="5">
+        <v>2</v>
+      </c>
+      <c r="O640" s="2">
+        <v>7458000</v>
+      </c>
+      <c r="P640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A641" s="2">
+        <v>639</v>
+      </c>
+      <c r="B641" s="2">
+        <v>27</v>
+      </c>
+      <c r="C641" s="1">
+        <v>20</v>
+      </c>
+      <c r="D641" s="2">
+        <v>9</v>
+      </c>
+      <c r="E641" s="2">
+        <v>21</v>
+      </c>
+      <c r="F641" s="2">
+        <v>639</v>
+      </c>
+      <c r="G641" s="5">
+        <v>0</v>
+      </c>
+      <c r="H641" s="5">
+        <v>500</v>
+      </c>
+      <c r="I641" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J641" s="5">
+        <v>1</v>
+      </c>
+      <c r="K641" s="2">
+        <f t="shared" si="32"/>
+        <v>1288000</v>
+      </c>
+      <c r="L641" s="5">
+        <v>1</v>
+      </c>
+      <c r="M641" s="2">
+        <f t="shared" si="33"/>
+        <v>2576000</v>
+      </c>
+      <c r="N641">
+        <v>2</v>
+      </c>
+      <c r="O641" s="5">
+        <v>7466000</v>
+      </c>
+      <c r="P641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A642" s="2">
+        <v>640</v>
+      </c>
+      <c r="B642" s="2">
+        <v>27</v>
+      </c>
+      <c r="C642" s="1">
+        <v>20</v>
+      </c>
+      <c r="D642" s="2">
+        <v>9</v>
+      </c>
+      <c r="E642" s="2">
+        <v>21</v>
+      </c>
+      <c r="F642" s="2">
+        <v>640</v>
+      </c>
+      <c r="G642" s="5">
+        <v>0</v>
+      </c>
+      <c r="H642" s="5">
+        <v>500</v>
+      </c>
+      <c r="I642" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J642" s="5">
+        <v>1</v>
+      </c>
+      <c r="K642" s="2">
+        <f t="shared" si="32"/>
+        <v>1290000</v>
+      </c>
+      <c r="L642" s="5">
+        <v>1</v>
+      </c>
+      <c r="M642" s="2">
+        <f t="shared" si="33"/>
+        <v>2580000</v>
+      </c>
+      <c r="N642" s="5">
+        <v>2</v>
+      </c>
+      <c r="O642" s="2">
+        <v>7474000</v>
+      </c>
+      <c r="P642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A643" s="2">
+        <v>641</v>
+      </c>
+      <c r="B643" s="2">
+        <v>27</v>
+      </c>
+      <c r="C643" s="1">
+        <v>20</v>
+      </c>
+      <c r="D643" s="2">
+        <v>9</v>
+      </c>
+      <c r="E643" s="2">
+        <v>21</v>
+      </c>
+      <c r="F643" s="2">
+        <v>641</v>
+      </c>
+      <c r="G643" s="5">
+        <v>0</v>
+      </c>
+      <c r="H643" s="5">
+        <v>500</v>
+      </c>
+      <c r="I643" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J643" s="5">
+        <v>1</v>
+      </c>
+      <c r="K643" s="2">
+        <f t="shared" si="32"/>
+        <v>1292000</v>
+      </c>
+      <c r="L643" s="5">
+        <v>1</v>
+      </c>
+      <c r="M643" s="2">
+        <f t="shared" si="33"/>
+        <v>2584000</v>
+      </c>
+      <c r="N643">
+        <v>2</v>
+      </c>
+      <c r="O643" s="5">
+        <v>7482000</v>
+      </c>
+      <c r="P643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A644" s="2">
+        <v>642</v>
+      </c>
+      <c r="B644" s="2">
+        <v>27</v>
+      </c>
+      <c r="C644" s="1">
+        <v>20</v>
+      </c>
+      <c r="D644" s="2">
+        <v>9</v>
+      </c>
+      <c r="E644" s="2">
+        <v>21</v>
+      </c>
+      <c r="F644" s="2">
+        <v>642</v>
+      </c>
+      <c r="G644" s="5">
+        <v>0</v>
+      </c>
+      <c r="H644" s="5">
+        <v>500</v>
+      </c>
+      <c r="I644" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J644" s="5">
+        <v>1</v>
+      </c>
+      <c r="K644" s="2">
+        <f t="shared" si="32"/>
+        <v>1294000</v>
+      </c>
+      <c r="L644" s="5">
+        <v>1</v>
+      </c>
+      <c r="M644" s="2">
+        <f t="shared" si="33"/>
+        <v>2588000</v>
+      </c>
+      <c r="N644" s="5">
+        <v>2</v>
+      </c>
+      <c r="O644" s="2">
+        <v>7490000</v>
+      </c>
+      <c r="P644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A645" s="2">
+        <v>643</v>
+      </c>
+      <c r="B645" s="2">
+        <v>27</v>
+      </c>
+      <c r="C645" s="1">
+        <v>20</v>
+      </c>
+      <c r="D645" s="2">
+        <v>9</v>
+      </c>
+      <c r="E645" s="2">
+        <v>21</v>
+      </c>
+      <c r="F645" s="2">
+        <v>643</v>
+      </c>
+      <c r="G645" s="5">
+        <v>0</v>
+      </c>
+      <c r="H645" s="5">
+        <v>500</v>
+      </c>
+      <c r="I645" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J645" s="5">
+        <v>1</v>
+      </c>
+      <c r="K645" s="2">
+        <f t="shared" si="32"/>
+        <v>1296000</v>
+      </c>
+      <c r="L645" s="5">
+        <v>1</v>
+      </c>
+      <c r="M645" s="2">
+        <f t="shared" si="33"/>
+        <v>2592000</v>
+      </c>
+      <c r="N645">
+        <v>2</v>
+      </c>
+      <c r="O645" s="5">
+        <v>7498000</v>
+      </c>
+      <c r="P645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A646" s="2">
+        <v>644</v>
+      </c>
+      <c r="B646" s="2">
+        <v>27</v>
+      </c>
+      <c r="C646" s="1">
+        <v>20</v>
+      </c>
+      <c r="D646" s="2">
+        <v>9</v>
+      </c>
+      <c r="E646" s="2">
+        <v>21</v>
+      </c>
+      <c r="F646" s="2">
+        <v>644</v>
+      </c>
+      <c r="G646" s="5">
+        <v>0</v>
+      </c>
+      <c r="H646" s="5">
+        <v>500</v>
+      </c>
+      <c r="I646" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J646" s="5">
+        <v>1</v>
+      </c>
+      <c r="K646" s="2">
+        <f t="shared" si="32"/>
+        <v>1298000</v>
+      </c>
+      <c r="L646" s="5">
+        <v>1</v>
+      </c>
+      <c r="M646" s="2">
+        <f t="shared" si="33"/>
+        <v>2596000</v>
+      </c>
+      <c r="N646" s="5">
+        <v>2</v>
+      </c>
+      <c r="O646" s="2">
+        <v>7506000</v>
+      </c>
+      <c r="P646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A647" s="2">
+        <v>645</v>
+      </c>
+      <c r="B647" s="2">
+        <v>27</v>
+      </c>
+      <c r="C647" s="1">
+        <v>20</v>
+      </c>
+      <c r="D647" s="2">
+        <v>9</v>
+      </c>
+      <c r="E647" s="2">
+        <v>21</v>
+      </c>
+      <c r="F647" s="2">
+        <v>645</v>
+      </c>
+      <c r="G647" s="5">
+        <v>0</v>
+      </c>
+      <c r="H647" s="5">
+        <v>500</v>
+      </c>
+      <c r="I647" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J647" s="5">
+        <v>1</v>
+      </c>
+      <c r="K647" s="2">
+        <f t="shared" si="32"/>
+        <v>1300000</v>
+      </c>
+      <c r="L647" s="5">
+        <v>1</v>
+      </c>
+      <c r="M647" s="2">
+        <f t="shared" si="33"/>
+        <v>2600000</v>
+      </c>
+      <c r="N647">
+        <v>2</v>
+      </c>
+      <c r="O647" s="5">
+        <v>7514000</v>
+      </c>
+      <c r="P647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A648" s="2">
+        <v>646</v>
+      </c>
+      <c r="B648" s="2">
+        <v>27</v>
+      </c>
+      <c r="C648" s="1">
+        <v>20</v>
+      </c>
+      <c r="D648" s="2">
+        <v>9</v>
+      </c>
+      <c r="E648" s="2">
+        <v>21</v>
+      </c>
+      <c r="F648" s="2">
+        <v>646</v>
+      </c>
+      <c r="G648" s="5">
+        <v>0</v>
+      </c>
+      <c r="H648" s="5">
+        <v>500</v>
+      </c>
+      <c r="I648" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J648" s="5">
+        <v>1</v>
+      </c>
+      <c r="K648" s="2">
+        <f t="shared" si="32"/>
+        <v>1302000</v>
+      </c>
+      <c r="L648" s="5">
+        <v>1</v>
+      </c>
+      <c r="M648" s="2">
+        <f t="shared" si="33"/>
+        <v>2604000</v>
+      </c>
+      <c r="N648" s="5">
+        <v>2</v>
+      </c>
+      <c r="O648" s="2">
+        <v>7522000</v>
+      </c>
+      <c r="P648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A649" s="2">
+        <v>647</v>
+      </c>
+      <c r="B649" s="2">
+        <v>27</v>
+      </c>
+      <c r="C649" s="1">
+        <v>20</v>
+      </c>
+      <c r="D649" s="2">
+        <v>9</v>
+      </c>
+      <c r="E649" s="2">
+        <v>21</v>
+      </c>
+      <c r="F649" s="2">
+        <v>647</v>
+      </c>
+      <c r="G649" s="5">
+        <v>0</v>
+      </c>
+      <c r="H649" s="5">
+        <v>500</v>
+      </c>
+      <c r="I649" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J649" s="5">
+        <v>1</v>
+      </c>
+      <c r="K649" s="2">
+        <f t="shared" si="32"/>
+        <v>1304000</v>
+      </c>
+      <c r="L649" s="5">
+        <v>1</v>
+      </c>
+      <c r="M649" s="2">
+        <f t="shared" si="33"/>
+        <v>2608000</v>
+      </c>
+      <c r="N649">
+        <v>2</v>
+      </c>
+      <c r="O649" s="5">
+        <v>7530000</v>
+      </c>
+      <c r="P649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A650" s="2">
+        <v>648</v>
+      </c>
+      <c r="B650" s="2">
+        <v>27</v>
+      </c>
+      <c r="C650" s="1">
+        <v>20</v>
+      </c>
+      <c r="D650" s="2">
+        <v>9</v>
+      </c>
+      <c r="E650" s="2">
+        <v>21</v>
+      </c>
+      <c r="F650" s="2">
+        <v>648</v>
+      </c>
+      <c r="G650" s="5">
+        <v>0</v>
+      </c>
+      <c r="H650" s="5">
+        <v>500</v>
+      </c>
+      <c r="I650" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J650" s="5">
+        <v>1</v>
+      </c>
+      <c r="K650" s="2">
+        <f t="shared" si="32"/>
+        <v>1306000</v>
+      </c>
+      <c r="L650" s="5">
+        <v>1</v>
+      </c>
+      <c r="M650" s="2">
+        <f t="shared" si="33"/>
+        <v>2612000</v>
+      </c>
+      <c r="N650" s="5">
+        <v>2</v>
+      </c>
+      <c r="O650" s="2">
+        <v>7538000</v>
+      </c>
+      <c r="P650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A651" s="2">
+        <v>649</v>
+      </c>
+      <c r="B651" s="2">
+        <v>27</v>
+      </c>
+      <c r="C651" s="1">
+        <v>20</v>
+      </c>
+      <c r="D651" s="2">
+        <v>9</v>
+      </c>
+      <c r="E651" s="2">
+        <v>21</v>
+      </c>
+      <c r="F651" s="2">
+        <v>649</v>
+      </c>
+      <c r="G651" s="5">
+        <v>0</v>
+      </c>
+      <c r="H651" s="5">
+        <v>500</v>
+      </c>
+      <c r="I651" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J651" s="5">
+        <v>1</v>
+      </c>
+      <c r="K651" s="2">
+        <f t="shared" ref="K651" si="34">10000+A651*2000</f>
+        <v>1308000</v>
+      </c>
+      <c r="L651" s="5">
+        <v>1</v>
+      </c>
+      <c r="M651" s="2">
+        <f t="shared" ref="M651" si="35">K651*2</f>
+        <v>2616000</v>
+      </c>
+      <c r="N651">
+        <v>2</v>
+      </c>
+      <c r="O651" s="5">
+        <v>7546000</v>
+      </c>
+      <c r="P651">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86112210-C775-4242-905C-C7C48EA4B943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E080ECC2-7376-40FF-AA35-0A8A902DAC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4410" yWindow="1620" windowWidth="31890" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="20">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,11 +592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q852"/>
+  <dimension ref="A1:Q952"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2:Q852"/>
+      <pane ySplit="1" topLeftCell="A936" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A902" sqref="A902:XFD902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -48580,23 +48580,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="852" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A852" s="2">
+    <row r="852" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A852" s="5">
         <v>850</v>
       </c>
-      <c r="B852" s="2">
+      <c r="B852" s="5">
         <v>31</v>
       </c>
-      <c r="C852" s="1">
+      <c r="C852" s="5">
         <v>23</v>
       </c>
-      <c r="D852" s="2">
-        <v>9</v>
-      </c>
-      <c r="E852" s="2">
-        <v>21</v>
-      </c>
-      <c r="F852" s="2">
+      <c r="D852" s="5">
+        <v>9</v>
+      </c>
+      <c r="E852" s="5">
+        <v>21</v>
+      </c>
+      <c r="F852" s="5">
         <v>850</v>
       </c>
       <c r="G852" s="5">
@@ -48611,29 +48611,5529 @@
       <c r="J852" s="5">
         <v>1</v>
       </c>
-      <c r="K852" s="2">
+      <c r="K852" s="5">
         <f t="shared" si="55"/>
         <v>1710000</v>
       </c>
       <c r="L852" s="5">
         <v>1</v>
       </c>
-      <c r="M852" s="2">
+      <c r="M852" s="5">
         <f t="shared" si="56"/>
         <v>3420000</v>
       </c>
       <c r="N852" s="5">
         <v>2</v>
       </c>
-      <c r="O852" s="2">
+      <c r="O852" s="5">
         <v>9154000</v>
       </c>
-      <c r="P852">
-        <v>1</v>
-      </c>
-      <c r="Q852">
+      <c r="P852" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q852" s="5">
         <f t="shared" si="57"/>
         <v>11</v>
+      </c>
+    </row>
+    <row r="853" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A853" s="2">
+        <v>851</v>
+      </c>
+      <c r="B853" s="2">
+        <v>32</v>
+      </c>
+      <c r="C853" s="1">
+        <v>24</v>
+      </c>
+      <c r="D853" s="2">
+        <v>9</v>
+      </c>
+      <c r="E853" s="2">
+        <v>21</v>
+      </c>
+      <c r="F853" s="2">
+        <v>851</v>
+      </c>
+      <c r="G853" s="5">
+        <v>0</v>
+      </c>
+      <c r="H853" s="5">
+        <v>500</v>
+      </c>
+      <c r="I853" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J853" s="5">
+        <v>1</v>
+      </c>
+      <c r="K853" s="2">
+        <f t="shared" ref="K853:K916" si="58">10000+A853*2000</f>
+        <v>1712000</v>
+      </c>
+      <c r="L853" s="5">
+        <v>1</v>
+      </c>
+      <c r="M853" s="2">
+        <f t="shared" ref="M853:M916" si="59">K853*2</f>
+        <v>3424000</v>
+      </c>
+      <c r="N853" s="5">
+        <v>2</v>
+      </c>
+      <c r="O853" s="2">
+        <v>9162000</v>
+      </c>
+      <c r="P853">
+        <v>1</v>
+      </c>
+      <c r="Q853">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="854" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A854" s="2">
+        <v>852</v>
+      </c>
+      <c r="B854" s="2">
+        <v>32</v>
+      </c>
+      <c r="C854" s="1">
+        <v>24</v>
+      </c>
+      <c r="D854" s="2">
+        <v>9</v>
+      </c>
+      <c r="E854" s="2">
+        <v>21</v>
+      </c>
+      <c r="F854" s="2">
+        <v>852</v>
+      </c>
+      <c r="G854" s="5">
+        <v>0</v>
+      </c>
+      <c r="H854" s="5">
+        <v>500</v>
+      </c>
+      <c r="I854" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J854" s="5">
+        <v>1</v>
+      </c>
+      <c r="K854" s="2">
+        <f t="shared" si="58"/>
+        <v>1714000</v>
+      </c>
+      <c r="L854" s="5">
+        <v>1</v>
+      </c>
+      <c r="M854" s="2">
+        <f t="shared" si="59"/>
+        <v>3428000</v>
+      </c>
+      <c r="N854">
+        <v>2</v>
+      </c>
+      <c r="O854" s="5">
+        <v>9170000</v>
+      </c>
+      <c r="P854">
+        <v>1</v>
+      </c>
+      <c r="Q854">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="855" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A855" s="2">
+        <v>853</v>
+      </c>
+      <c r="B855" s="2">
+        <v>32</v>
+      </c>
+      <c r="C855" s="1">
+        <v>24</v>
+      </c>
+      <c r="D855" s="2">
+        <v>9</v>
+      </c>
+      <c r="E855" s="2">
+        <v>21</v>
+      </c>
+      <c r="F855" s="2">
+        <v>853</v>
+      </c>
+      <c r="G855" s="5">
+        <v>0</v>
+      </c>
+      <c r="H855" s="5">
+        <v>500</v>
+      </c>
+      <c r="I855" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J855" s="5">
+        <v>1</v>
+      </c>
+      <c r="K855" s="2">
+        <f t="shared" si="58"/>
+        <v>1716000</v>
+      </c>
+      <c r="L855" s="5">
+        <v>1</v>
+      </c>
+      <c r="M855" s="2">
+        <f t="shared" si="59"/>
+        <v>3432000</v>
+      </c>
+      <c r="N855" s="5">
+        <v>2</v>
+      </c>
+      <c r="O855" s="2">
+        <v>9178000</v>
+      </c>
+      <c r="P855">
+        <v>1</v>
+      </c>
+      <c r="Q855">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="856" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A856" s="2">
+        <v>854</v>
+      </c>
+      <c r="B856" s="2">
+        <v>32</v>
+      </c>
+      <c r="C856" s="1">
+        <v>24</v>
+      </c>
+      <c r="D856" s="2">
+        <v>9</v>
+      </c>
+      <c r="E856" s="2">
+        <v>21</v>
+      </c>
+      <c r="F856" s="2">
+        <v>854</v>
+      </c>
+      <c r="G856" s="5">
+        <v>0</v>
+      </c>
+      <c r="H856" s="5">
+        <v>500</v>
+      </c>
+      <c r="I856" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J856" s="5">
+        <v>1</v>
+      </c>
+      <c r="K856" s="2">
+        <f t="shared" si="58"/>
+        <v>1718000</v>
+      </c>
+      <c r="L856" s="5">
+        <v>1</v>
+      </c>
+      <c r="M856" s="2">
+        <f t="shared" si="59"/>
+        <v>3436000</v>
+      </c>
+      <c r="N856">
+        <v>2</v>
+      </c>
+      <c r="O856" s="5">
+        <v>9186000</v>
+      </c>
+      <c r="P856">
+        <v>1</v>
+      </c>
+      <c r="Q856">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="857" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A857" s="2">
+        <v>855</v>
+      </c>
+      <c r="B857" s="2">
+        <v>32</v>
+      </c>
+      <c r="C857" s="1">
+        <v>24</v>
+      </c>
+      <c r="D857" s="2">
+        <v>9</v>
+      </c>
+      <c r="E857" s="2">
+        <v>21</v>
+      </c>
+      <c r="F857" s="2">
+        <v>855</v>
+      </c>
+      <c r="G857" s="5">
+        <v>0</v>
+      </c>
+      <c r="H857" s="5">
+        <v>500</v>
+      </c>
+      <c r="I857" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J857" s="5">
+        <v>1</v>
+      </c>
+      <c r="K857" s="2">
+        <f t="shared" si="58"/>
+        <v>1720000</v>
+      </c>
+      <c r="L857" s="5">
+        <v>1</v>
+      </c>
+      <c r="M857" s="2">
+        <f t="shared" si="59"/>
+        <v>3440000</v>
+      </c>
+      <c r="N857" s="5">
+        <v>2</v>
+      </c>
+      <c r="O857" s="2">
+        <v>9194000</v>
+      </c>
+      <c r="P857">
+        <v>1</v>
+      </c>
+      <c r="Q857">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="858" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A858" s="2">
+        <v>856</v>
+      </c>
+      <c r="B858" s="2">
+        <v>32</v>
+      </c>
+      <c r="C858" s="1">
+        <v>24</v>
+      </c>
+      <c r="D858" s="2">
+        <v>9</v>
+      </c>
+      <c r="E858" s="2">
+        <v>21</v>
+      </c>
+      <c r="F858" s="2">
+        <v>856</v>
+      </c>
+      <c r="G858" s="5">
+        <v>0</v>
+      </c>
+      <c r="H858" s="5">
+        <v>500</v>
+      </c>
+      <c r="I858" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J858" s="5">
+        <v>1</v>
+      </c>
+      <c r="K858" s="2">
+        <f t="shared" si="58"/>
+        <v>1722000</v>
+      </c>
+      <c r="L858" s="5">
+        <v>1</v>
+      </c>
+      <c r="M858" s="2">
+        <f t="shared" si="59"/>
+        <v>3444000</v>
+      </c>
+      <c r="N858" s="5">
+        <v>2</v>
+      </c>
+      <c r="O858" s="2">
+        <v>9202000</v>
+      </c>
+      <c r="P858">
+        <v>1</v>
+      </c>
+      <c r="Q858">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="859" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A859" s="2">
+        <v>857</v>
+      </c>
+      <c r="B859" s="2">
+        <v>32</v>
+      </c>
+      <c r="C859" s="1">
+        <v>24</v>
+      </c>
+      <c r="D859" s="2">
+        <v>9</v>
+      </c>
+      <c r="E859" s="2">
+        <v>21</v>
+      </c>
+      <c r="F859" s="2">
+        <v>857</v>
+      </c>
+      <c r="G859" s="5">
+        <v>0</v>
+      </c>
+      <c r="H859" s="5">
+        <v>500</v>
+      </c>
+      <c r="I859" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J859" s="5">
+        <v>1</v>
+      </c>
+      <c r="K859" s="2">
+        <f t="shared" si="58"/>
+        <v>1724000</v>
+      </c>
+      <c r="L859" s="5">
+        <v>1</v>
+      </c>
+      <c r="M859" s="2">
+        <f t="shared" si="59"/>
+        <v>3448000</v>
+      </c>
+      <c r="N859">
+        <v>2</v>
+      </c>
+      <c r="O859" s="5">
+        <v>9210000</v>
+      </c>
+      <c r="P859">
+        <v>1</v>
+      </c>
+      <c r="Q859">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="860" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A860" s="2">
+        <v>858</v>
+      </c>
+      <c r="B860" s="2">
+        <v>32</v>
+      </c>
+      <c r="C860" s="1">
+        <v>24</v>
+      </c>
+      <c r="D860" s="2">
+        <v>9</v>
+      </c>
+      <c r="E860" s="2">
+        <v>21</v>
+      </c>
+      <c r="F860" s="2">
+        <v>858</v>
+      </c>
+      <c r="G860" s="5">
+        <v>0</v>
+      </c>
+      <c r="H860" s="5">
+        <v>500</v>
+      </c>
+      <c r="I860" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J860" s="5">
+        <v>1</v>
+      </c>
+      <c r="K860" s="2">
+        <f t="shared" si="58"/>
+        <v>1726000</v>
+      </c>
+      <c r="L860" s="5">
+        <v>1</v>
+      </c>
+      <c r="M860" s="2">
+        <f t="shared" si="59"/>
+        <v>3452000</v>
+      </c>
+      <c r="N860" s="5">
+        <v>2</v>
+      </c>
+      <c r="O860" s="2">
+        <v>9218000</v>
+      </c>
+      <c r="P860">
+        <v>1</v>
+      </c>
+      <c r="Q860">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="861" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A861" s="2">
+        <v>859</v>
+      </c>
+      <c r="B861" s="2">
+        <v>32</v>
+      </c>
+      <c r="C861" s="1">
+        <v>24</v>
+      </c>
+      <c r="D861" s="2">
+        <v>9</v>
+      </c>
+      <c r="E861" s="2">
+        <v>21</v>
+      </c>
+      <c r="F861" s="2">
+        <v>859</v>
+      </c>
+      <c r="G861" s="5">
+        <v>0</v>
+      </c>
+      <c r="H861" s="5">
+        <v>500</v>
+      </c>
+      <c r="I861" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J861" s="5">
+        <v>1</v>
+      </c>
+      <c r="K861" s="2">
+        <f t="shared" si="58"/>
+        <v>1728000</v>
+      </c>
+      <c r="L861" s="5">
+        <v>1</v>
+      </c>
+      <c r="M861" s="2">
+        <f t="shared" si="59"/>
+        <v>3456000</v>
+      </c>
+      <c r="N861">
+        <v>2</v>
+      </c>
+      <c r="O861" s="5">
+        <v>9226000</v>
+      </c>
+      <c r="P861">
+        <v>1</v>
+      </c>
+      <c r="Q861">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="862" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A862" s="2">
+        <v>860</v>
+      </c>
+      <c r="B862" s="2">
+        <v>32</v>
+      </c>
+      <c r="C862" s="1">
+        <v>24</v>
+      </c>
+      <c r="D862" s="2">
+        <v>9</v>
+      </c>
+      <c r="E862" s="2">
+        <v>21</v>
+      </c>
+      <c r="F862" s="2">
+        <v>860</v>
+      </c>
+      <c r="G862" s="5">
+        <v>0</v>
+      </c>
+      <c r="H862" s="5">
+        <v>500</v>
+      </c>
+      <c r="I862" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J862" s="5">
+        <v>1</v>
+      </c>
+      <c r="K862" s="2">
+        <f t="shared" si="58"/>
+        <v>1730000</v>
+      </c>
+      <c r="L862" s="5">
+        <v>1</v>
+      </c>
+      <c r="M862" s="2">
+        <f t="shared" si="59"/>
+        <v>3460000</v>
+      </c>
+      <c r="N862" s="5">
+        <v>2</v>
+      </c>
+      <c r="O862" s="2">
+        <v>9234000</v>
+      </c>
+      <c r="P862">
+        <v>1</v>
+      </c>
+      <c r="Q862">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="863" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A863" s="2">
+        <v>861</v>
+      </c>
+      <c r="B863" s="2">
+        <v>32</v>
+      </c>
+      <c r="C863" s="1">
+        <v>24</v>
+      </c>
+      <c r="D863" s="2">
+        <v>9</v>
+      </c>
+      <c r="E863" s="2">
+        <v>21</v>
+      </c>
+      <c r="F863" s="2">
+        <v>861</v>
+      </c>
+      <c r="G863" s="5">
+        <v>0</v>
+      </c>
+      <c r="H863" s="5">
+        <v>500</v>
+      </c>
+      <c r="I863" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J863" s="5">
+        <v>1</v>
+      </c>
+      <c r="K863" s="2">
+        <f t="shared" si="58"/>
+        <v>1732000</v>
+      </c>
+      <c r="L863" s="5">
+        <v>1</v>
+      </c>
+      <c r="M863" s="2">
+        <f t="shared" si="59"/>
+        <v>3464000</v>
+      </c>
+      <c r="N863" s="5">
+        <v>2</v>
+      </c>
+      <c r="O863" s="2">
+        <v>9242000</v>
+      </c>
+      <c r="P863">
+        <v>1</v>
+      </c>
+      <c r="Q863">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="864" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A864" s="2">
+        <v>862</v>
+      </c>
+      <c r="B864" s="2">
+        <v>32</v>
+      </c>
+      <c r="C864" s="1">
+        <v>24</v>
+      </c>
+      <c r="D864" s="2">
+        <v>9</v>
+      </c>
+      <c r="E864" s="2">
+        <v>21</v>
+      </c>
+      <c r="F864" s="2">
+        <v>862</v>
+      </c>
+      <c r="G864" s="5">
+        <v>0</v>
+      </c>
+      <c r="H864" s="5">
+        <v>500</v>
+      </c>
+      <c r="I864" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J864" s="5">
+        <v>1</v>
+      </c>
+      <c r="K864" s="2">
+        <f t="shared" si="58"/>
+        <v>1734000</v>
+      </c>
+      <c r="L864" s="5">
+        <v>1</v>
+      </c>
+      <c r="M864" s="2">
+        <f t="shared" si="59"/>
+        <v>3468000</v>
+      </c>
+      <c r="N864">
+        <v>2</v>
+      </c>
+      <c r="O864" s="5">
+        <v>9250000</v>
+      </c>
+      <c r="P864">
+        <v>1</v>
+      </c>
+      <c r="Q864">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="865" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A865" s="2">
+        <v>863</v>
+      </c>
+      <c r="B865" s="2">
+        <v>32</v>
+      </c>
+      <c r="C865" s="1">
+        <v>24</v>
+      </c>
+      <c r="D865" s="2">
+        <v>9</v>
+      </c>
+      <c r="E865" s="2">
+        <v>21</v>
+      </c>
+      <c r="F865" s="2">
+        <v>863</v>
+      </c>
+      <c r="G865" s="5">
+        <v>0</v>
+      </c>
+      <c r="H865" s="5">
+        <v>500</v>
+      </c>
+      <c r="I865" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J865" s="5">
+        <v>1</v>
+      </c>
+      <c r="K865" s="2">
+        <f t="shared" si="58"/>
+        <v>1736000</v>
+      </c>
+      <c r="L865" s="5">
+        <v>1</v>
+      </c>
+      <c r="M865" s="2">
+        <f t="shared" si="59"/>
+        <v>3472000</v>
+      </c>
+      <c r="N865" s="5">
+        <v>2</v>
+      </c>
+      <c r="O865" s="2">
+        <v>9258000</v>
+      </c>
+      <c r="P865">
+        <v>1</v>
+      </c>
+      <c r="Q865">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="866" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A866" s="2">
+        <v>864</v>
+      </c>
+      <c r="B866" s="2">
+        <v>32</v>
+      </c>
+      <c r="C866" s="1">
+        <v>24</v>
+      </c>
+      <c r="D866" s="2">
+        <v>9</v>
+      </c>
+      <c r="E866" s="2">
+        <v>21</v>
+      </c>
+      <c r="F866" s="2">
+        <v>864</v>
+      </c>
+      <c r="G866" s="5">
+        <v>0</v>
+      </c>
+      <c r="H866" s="5">
+        <v>500</v>
+      </c>
+      <c r="I866" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J866" s="5">
+        <v>1</v>
+      </c>
+      <c r="K866" s="2">
+        <f t="shared" si="58"/>
+        <v>1738000</v>
+      </c>
+      <c r="L866" s="5">
+        <v>1</v>
+      </c>
+      <c r="M866" s="2">
+        <f t="shared" si="59"/>
+        <v>3476000</v>
+      </c>
+      <c r="N866">
+        <v>2</v>
+      </c>
+      <c r="O866" s="5">
+        <v>9266000</v>
+      </c>
+      <c r="P866">
+        <v>1</v>
+      </c>
+      <c r="Q866">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="867" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A867" s="2">
+        <v>865</v>
+      </c>
+      <c r="B867" s="2">
+        <v>32</v>
+      </c>
+      <c r="C867" s="1">
+        <v>24</v>
+      </c>
+      <c r="D867" s="2">
+        <v>9</v>
+      </c>
+      <c r="E867" s="2">
+        <v>21</v>
+      </c>
+      <c r="F867" s="2">
+        <v>865</v>
+      </c>
+      <c r="G867" s="5">
+        <v>0</v>
+      </c>
+      <c r="H867" s="5">
+        <v>500</v>
+      </c>
+      <c r="I867" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J867" s="5">
+        <v>1</v>
+      </c>
+      <c r="K867" s="2">
+        <f t="shared" si="58"/>
+        <v>1740000</v>
+      </c>
+      <c r="L867" s="5">
+        <v>1</v>
+      </c>
+      <c r="M867" s="2">
+        <f t="shared" si="59"/>
+        <v>3480000</v>
+      </c>
+      <c r="N867" s="5">
+        <v>2</v>
+      </c>
+      <c r="O867" s="2">
+        <v>9274000</v>
+      </c>
+      <c r="P867">
+        <v>1</v>
+      </c>
+      <c r="Q867">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="868" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A868" s="2">
+        <v>866</v>
+      </c>
+      <c r="B868" s="2">
+        <v>32</v>
+      </c>
+      <c r="C868" s="1">
+        <v>24</v>
+      </c>
+      <c r="D868" s="2">
+        <v>9</v>
+      </c>
+      <c r="E868" s="2">
+        <v>21</v>
+      </c>
+      <c r="F868" s="2">
+        <v>866</v>
+      </c>
+      <c r="G868" s="5">
+        <v>0</v>
+      </c>
+      <c r="H868" s="5">
+        <v>500</v>
+      </c>
+      <c r="I868" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J868" s="5">
+        <v>1</v>
+      </c>
+      <c r="K868" s="2">
+        <f t="shared" si="58"/>
+        <v>1742000</v>
+      </c>
+      <c r="L868" s="5">
+        <v>1</v>
+      </c>
+      <c r="M868" s="2">
+        <f t="shared" si="59"/>
+        <v>3484000</v>
+      </c>
+      <c r="N868" s="5">
+        <v>2</v>
+      </c>
+      <c r="O868" s="2">
+        <v>9282000</v>
+      </c>
+      <c r="P868">
+        <v>1</v>
+      </c>
+      <c r="Q868">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="869" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A869" s="2">
+        <v>867</v>
+      </c>
+      <c r="B869" s="2">
+        <v>32</v>
+      </c>
+      <c r="C869" s="1">
+        <v>24</v>
+      </c>
+      <c r="D869" s="2">
+        <v>9</v>
+      </c>
+      <c r="E869" s="2">
+        <v>21</v>
+      </c>
+      <c r="F869" s="2">
+        <v>867</v>
+      </c>
+      <c r="G869" s="5">
+        <v>0</v>
+      </c>
+      <c r="H869" s="5">
+        <v>500</v>
+      </c>
+      <c r="I869" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J869" s="5">
+        <v>1</v>
+      </c>
+      <c r="K869" s="2">
+        <f t="shared" si="58"/>
+        <v>1744000</v>
+      </c>
+      <c r="L869" s="5">
+        <v>1</v>
+      </c>
+      <c r="M869" s="2">
+        <f t="shared" si="59"/>
+        <v>3488000</v>
+      </c>
+      <c r="N869">
+        <v>2</v>
+      </c>
+      <c r="O869" s="5">
+        <v>9290000</v>
+      </c>
+      <c r="P869">
+        <v>1</v>
+      </c>
+      <c r="Q869">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="870" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A870" s="2">
+        <v>868</v>
+      </c>
+      <c r="B870" s="2">
+        <v>32</v>
+      </c>
+      <c r="C870" s="1">
+        <v>24</v>
+      </c>
+      <c r="D870" s="2">
+        <v>9</v>
+      </c>
+      <c r="E870" s="2">
+        <v>21</v>
+      </c>
+      <c r="F870" s="2">
+        <v>868</v>
+      </c>
+      <c r="G870" s="5">
+        <v>0</v>
+      </c>
+      <c r="H870" s="5">
+        <v>500</v>
+      </c>
+      <c r="I870" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J870" s="5">
+        <v>1</v>
+      </c>
+      <c r="K870" s="2">
+        <f t="shared" si="58"/>
+        <v>1746000</v>
+      </c>
+      <c r="L870" s="5">
+        <v>1</v>
+      </c>
+      <c r="M870" s="2">
+        <f t="shared" si="59"/>
+        <v>3492000</v>
+      </c>
+      <c r="N870" s="5">
+        <v>2</v>
+      </c>
+      <c r="O870" s="2">
+        <v>9298000</v>
+      </c>
+      <c r="P870">
+        <v>1</v>
+      </c>
+      <c r="Q870">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="871" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A871" s="2">
+        <v>869</v>
+      </c>
+      <c r="B871" s="2">
+        <v>32</v>
+      </c>
+      <c r="C871" s="1">
+        <v>24</v>
+      </c>
+      <c r="D871" s="2">
+        <v>9</v>
+      </c>
+      <c r="E871" s="2">
+        <v>21</v>
+      </c>
+      <c r="F871" s="2">
+        <v>869</v>
+      </c>
+      <c r="G871" s="5">
+        <v>0</v>
+      </c>
+      <c r="H871" s="5">
+        <v>500</v>
+      </c>
+      <c r="I871" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J871" s="5">
+        <v>1</v>
+      </c>
+      <c r="K871" s="2">
+        <f t="shared" si="58"/>
+        <v>1748000</v>
+      </c>
+      <c r="L871" s="5">
+        <v>1</v>
+      </c>
+      <c r="M871" s="2">
+        <f t="shared" si="59"/>
+        <v>3496000</v>
+      </c>
+      <c r="N871">
+        <v>2</v>
+      </c>
+      <c r="O871" s="5">
+        <v>9306000</v>
+      </c>
+      <c r="P871">
+        <v>1</v>
+      </c>
+      <c r="Q871">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="872" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A872" s="2">
+        <v>870</v>
+      </c>
+      <c r="B872" s="2">
+        <v>32</v>
+      </c>
+      <c r="C872" s="1">
+        <v>24</v>
+      </c>
+      <c r="D872" s="2">
+        <v>9</v>
+      </c>
+      <c r="E872" s="2">
+        <v>21</v>
+      </c>
+      <c r="F872" s="2">
+        <v>870</v>
+      </c>
+      <c r="G872" s="5">
+        <v>0</v>
+      </c>
+      <c r="H872" s="5">
+        <v>500</v>
+      </c>
+      <c r="I872" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J872" s="5">
+        <v>1</v>
+      </c>
+      <c r="K872" s="2">
+        <f t="shared" si="58"/>
+        <v>1750000</v>
+      </c>
+      <c r="L872" s="5">
+        <v>1</v>
+      </c>
+      <c r="M872" s="2">
+        <f t="shared" si="59"/>
+        <v>3500000</v>
+      </c>
+      <c r="N872" s="5">
+        <v>2</v>
+      </c>
+      <c r="O872" s="2">
+        <v>9314000</v>
+      </c>
+      <c r="P872">
+        <v>1</v>
+      </c>
+      <c r="Q872">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="873" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A873" s="2">
+        <v>871</v>
+      </c>
+      <c r="B873" s="2">
+        <v>32</v>
+      </c>
+      <c r="C873" s="1">
+        <v>24</v>
+      </c>
+      <c r="D873" s="2">
+        <v>9</v>
+      </c>
+      <c r="E873" s="2">
+        <v>21</v>
+      </c>
+      <c r="F873" s="2">
+        <v>871</v>
+      </c>
+      <c r="G873" s="5">
+        <v>0</v>
+      </c>
+      <c r="H873" s="5">
+        <v>500</v>
+      </c>
+      <c r="I873" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J873" s="5">
+        <v>1</v>
+      </c>
+      <c r="K873" s="2">
+        <f t="shared" si="58"/>
+        <v>1752000</v>
+      </c>
+      <c r="L873" s="5">
+        <v>1</v>
+      </c>
+      <c r="M873" s="2">
+        <f t="shared" si="59"/>
+        <v>3504000</v>
+      </c>
+      <c r="N873" s="5">
+        <v>2</v>
+      </c>
+      <c r="O873" s="2">
+        <v>9322000</v>
+      </c>
+      <c r="P873">
+        <v>1</v>
+      </c>
+      <c r="Q873">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="874" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A874" s="2">
+        <v>872</v>
+      </c>
+      <c r="B874" s="2">
+        <v>32</v>
+      </c>
+      <c r="C874" s="1">
+        <v>24</v>
+      </c>
+      <c r="D874" s="2">
+        <v>9</v>
+      </c>
+      <c r="E874" s="2">
+        <v>21</v>
+      </c>
+      <c r="F874" s="2">
+        <v>872</v>
+      </c>
+      <c r="G874" s="5">
+        <v>0</v>
+      </c>
+      <c r="H874" s="5">
+        <v>500</v>
+      </c>
+      <c r="I874" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J874" s="5">
+        <v>1</v>
+      </c>
+      <c r="K874" s="2">
+        <f t="shared" si="58"/>
+        <v>1754000</v>
+      </c>
+      <c r="L874" s="5">
+        <v>1</v>
+      </c>
+      <c r="M874" s="2">
+        <f t="shared" si="59"/>
+        <v>3508000</v>
+      </c>
+      <c r="N874">
+        <v>2</v>
+      </c>
+      <c r="O874" s="5">
+        <v>9330000</v>
+      </c>
+      <c r="P874">
+        <v>1</v>
+      </c>
+      <c r="Q874">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="875" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A875" s="2">
+        <v>873</v>
+      </c>
+      <c r="B875" s="2">
+        <v>32</v>
+      </c>
+      <c r="C875" s="1">
+        <v>24</v>
+      </c>
+      <c r="D875" s="2">
+        <v>9</v>
+      </c>
+      <c r="E875" s="2">
+        <v>21</v>
+      </c>
+      <c r="F875" s="2">
+        <v>873</v>
+      </c>
+      <c r="G875" s="5">
+        <v>0</v>
+      </c>
+      <c r="H875" s="5">
+        <v>500</v>
+      </c>
+      <c r="I875" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J875" s="5">
+        <v>1</v>
+      </c>
+      <c r="K875" s="2">
+        <f t="shared" si="58"/>
+        <v>1756000</v>
+      </c>
+      <c r="L875" s="5">
+        <v>1</v>
+      </c>
+      <c r="M875" s="2">
+        <f t="shared" si="59"/>
+        <v>3512000</v>
+      </c>
+      <c r="N875" s="5">
+        <v>2</v>
+      </c>
+      <c r="O875" s="2">
+        <v>9338000</v>
+      </c>
+      <c r="P875">
+        <v>1</v>
+      </c>
+      <c r="Q875">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="876" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A876" s="2">
+        <v>874</v>
+      </c>
+      <c r="B876" s="2">
+        <v>32</v>
+      </c>
+      <c r="C876" s="1">
+        <v>24</v>
+      </c>
+      <c r="D876" s="2">
+        <v>9</v>
+      </c>
+      <c r="E876" s="2">
+        <v>21</v>
+      </c>
+      <c r="F876" s="2">
+        <v>874</v>
+      </c>
+      <c r="G876" s="5">
+        <v>0</v>
+      </c>
+      <c r="H876" s="5">
+        <v>500</v>
+      </c>
+      <c r="I876" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J876" s="5">
+        <v>1</v>
+      </c>
+      <c r="K876" s="2">
+        <f t="shared" si="58"/>
+        <v>1758000</v>
+      </c>
+      <c r="L876" s="5">
+        <v>1</v>
+      </c>
+      <c r="M876" s="2">
+        <f t="shared" si="59"/>
+        <v>3516000</v>
+      </c>
+      <c r="N876">
+        <v>2</v>
+      </c>
+      <c r="O876" s="5">
+        <v>9346000</v>
+      </c>
+      <c r="P876">
+        <v>1</v>
+      </c>
+      <c r="Q876">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="877" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A877" s="2">
+        <v>875</v>
+      </c>
+      <c r="B877" s="2">
+        <v>32</v>
+      </c>
+      <c r="C877" s="1">
+        <v>24</v>
+      </c>
+      <c r="D877" s="2">
+        <v>9</v>
+      </c>
+      <c r="E877" s="2">
+        <v>21</v>
+      </c>
+      <c r="F877" s="2">
+        <v>875</v>
+      </c>
+      <c r="G877" s="5">
+        <v>0</v>
+      </c>
+      <c r="H877" s="5">
+        <v>500</v>
+      </c>
+      <c r="I877" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J877" s="5">
+        <v>1</v>
+      </c>
+      <c r="K877" s="2">
+        <f t="shared" si="58"/>
+        <v>1760000</v>
+      </c>
+      <c r="L877" s="5">
+        <v>1</v>
+      </c>
+      <c r="M877" s="2">
+        <f t="shared" si="59"/>
+        <v>3520000</v>
+      </c>
+      <c r="N877" s="5">
+        <v>2</v>
+      </c>
+      <c r="O877" s="2">
+        <v>9354000</v>
+      </c>
+      <c r="P877">
+        <v>1</v>
+      </c>
+      <c r="Q877">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="878" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A878" s="2">
+        <v>876</v>
+      </c>
+      <c r="B878" s="2">
+        <v>32</v>
+      </c>
+      <c r="C878" s="1">
+        <v>24</v>
+      </c>
+      <c r="D878" s="2">
+        <v>9</v>
+      </c>
+      <c r="E878" s="2">
+        <v>21</v>
+      </c>
+      <c r="F878" s="2">
+        <v>876</v>
+      </c>
+      <c r="G878" s="5">
+        <v>0</v>
+      </c>
+      <c r="H878" s="5">
+        <v>500</v>
+      </c>
+      <c r="I878" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J878" s="5">
+        <v>1</v>
+      </c>
+      <c r="K878" s="2">
+        <f t="shared" si="58"/>
+        <v>1762000</v>
+      </c>
+      <c r="L878" s="5">
+        <v>1</v>
+      </c>
+      <c r="M878" s="2">
+        <f t="shared" si="59"/>
+        <v>3524000</v>
+      </c>
+      <c r="N878" s="5">
+        <v>2</v>
+      </c>
+      <c r="O878" s="2">
+        <v>9362000</v>
+      </c>
+      <c r="P878">
+        <v>1</v>
+      </c>
+      <c r="Q878">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="879" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A879" s="2">
+        <v>877</v>
+      </c>
+      <c r="B879" s="2">
+        <v>32</v>
+      </c>
+      <c r="C879" s="1">
+        <v>24</v>
+      </c>
+      <c r="D879" s="2">
+        <v>9</v>
+      </c>
+      <c r="E879" s="2">
+        <v>21</v>
+      </c>
+      <c r="F879" s="2">
+        <v>877</v>
+      </c>
+      <c r="G879" s="5">
+        <v>0</v>
+      </c>
+      <c r="H879" s="5">
+        <v>500</v>
+      </c>
+      <c r="I879" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J879" s="5">
+        <v>1</v>
+      </c>
+      <c r="K879" s="2">
+        <f t="shared" si="58"/>
+        <v>1764000</v>
+      </c>
+      <c r="L879" s="5">
+        <v>1</v>
+      </c>
+      <c r="M879" s="2">
+        <f t="shared" si="59"/>
+        <v>3528000</v>
+      </c>
+      <c r="N879">
+        <v>2</v>
+      </c>
+      <c r="O879" s="5">
+        <v>9370000</v>
+      </c>
+      <c r="P879">
+        <v>1</v>
+      </c>
+      <c r="Q879">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="880" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A880" s="2">
+        <v>878</v>
+      </c>
+      <c r="B880" s="2">
+        <v>32</v>
+      </c>
+      <c r="C880" s="1">
+        <v>24</v>
+      </c>
+      <c r="D880" s="2">
+        <v>9</v>
+      </c>
+      <c r="E880" s="2">
+        <v>21</v>
+      </c>
+      <c r="F880" s="2">
+        <v>878</v>
+      </c>
+      <c r="G880" s="5">
+        <v>0</v>
+      </c>
+      <c r="H880" s="5">
+        <v>500</v>
+      </c>
+      <c r="I880" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J880" s="5">
+        <v>1</v>
+      </c>
+      <c r="K880" s="2">
+        <f t="shared" si="58"/>
+        <v>1766000</v>
+      </c>
+      <c r="L880" s="5">
+        <v>1</v>
+      </c>
+      <c r="M880" s="2">
+        <f t="shared" si="59"/>
+        <v>3532000</v>
+      </c>
+      <c r="N880" s="5">
+        <v>2</v>
+      </c>
+      <c r="O880" s="2">
+        <v>9378000</v>
+      </c>
+      <c r="P880">
+        <v>1</v>
+      </c>
+      <c r="Q880">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="881" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A881" s="2">
+        <v>879</v>
+      </c>
+      <c r="B881" s="2">
+        <v>32</v>
+      </c>
+      <c r="C881" s="1">
+        <v>24</v>
+      </c>
+      <c r="D881" s="2">
+        <v>9</v>
+      </c>
+      <c r="E881" s="2">
+        <v>21</v>
+      </c>
+      <c r="F881" s="2">
+        <v>879</v>
+      </c>
+      <c r="G881" s="5">
+        <v>0</v>
+      </c>
+      <c r="H881" s="5">
+        <v>500</v>
+      </c>
+      <c r="I881" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J881" s="5">
+        <v>1</v>
+      </c>
+      <c r="K881" s="2">
+        <f t="shared" si="58"/>
+        <v>1768000</v>
+      </c>
+      <c r="L881" s="5">
+        <v>1</v>
+      </c>
+      <c r="M881" s="2">
+        <f t="shared" si="59"/>
+        <v>3536000</v>
+      </c>
+      <c r="N881">
+        <v>2</v>
+      </c>
+      <c r="O881" s="5">
+        <v>9386000</v>
+      </c>
+      <c r="P881">
+        <v>1</v>
+      </c>
+      <c r="Q881">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="882" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A882" s="2">
+        <v>880</v>
+      </c>
+      <c r="B882" s="2">
+        <v>32</v>
+      </c>
+      <c r="C882" s="1">
+        <v>24</v>
+      </c>
+      <c r="D882" s="2">
+        <v>9</v>
+      </c>
+      <c r="E882" s="2">
+        <v>21</v>
+      </c>
+      <c r="F882" s="2">
+        <v>880</v>
+      </c>
+      <c r="G882" s="5">
+        <v>0</v>
+      </c>
+      <c r="H882" s="5">
+        <v>500</v>
+      </c>
+      <c r="I882" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J882" s="5">
+        <v>1</v>
+      </c>
+      <c r="K882" s="2">
+        <f t="shared" si="58"/>
+        <v>1770000</v>
+      </c>
+      <c r="L882" s="5">
+        <v>1</v>
+      </c>
+      <c r="M882" s="2">
+        <f t="shared" si="59"/>
+        <v>3540000</v>
+      </c>
+      <c r="N882" s="5">
+        <v>2</v>
+      </c>
+      <c r="O882" s="2">
+        <v>9394000</v>
+      </c>
+      <c r="P882">
+        <v>1</v>
+      </c>
+      <c r="Q882">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="883" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A883" s="2">
+        <v>881</v>
+      </c>
+      <c r="B883" s="2">
+        <v>32</v>
+      </c>
+      <c r="C883" s="1">
+        <v>24</v>
+      </c>
+      <c r="D883" s="2">
+        <v>9</v>
+      </c>
+      <c r="E883" s="2">
+        <v>21</v>
+      </c>
+      <c r="F883" s="2">
+        <v>881</v>
+      </c>
+      <c r="G883" s="5">
+        <v>0</v>
+      </c>
+      <c r="H883" s="5">
+        <v>500</v>
+      </c>
+      <c r="I883" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J883" s="5">
+        <v>1</v>
+      </c>
+      <c r="K883" s="2">
+        <f t="shared" si="58"/>
+        <v>1772000</v>
+      </c>
+      <c r="L883" s="5">
+        <v>1</v>
+      </c>
+      <c r="M883" s="2">
+        <f t="shared" si="59"/>
+        <v>3544000</v>
+      </c>
+      <c r="N883" s="5">
+        <v>2</v>
+      </c>
+      <c r="O883" s="2">
+        <v>9402000</v>
+      </c>
+      <c r="P883">
+        <v>1</v>
+      </c>
+      <c r="Q883">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="884" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A884" s="2">
+        <v>882</v>
+      </c>
+      <c r="B884" s="2">
+        <v>32</v>
+      </c>
+      <c r="C884" s="1">
+        <v>24</v>
+      </c>
+      <c r="D884" s="2">
+        <v>9</v>
+      </c>
+      <c r="E884" s="2">
+        <v>21</v>
+      </c>
+      <c r="F884" s="2">
+        <v>882</v>
+      </c>
+      <c r="G884" s="5">
+        <v>0</v>
+      </c>
+      <c r="H884" s="5">
+        <v>500</v>
+      </c>
+      <c r="I884" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J884" s="5">
+        <v>1</v>
+      </c>
+      <c r="K884" s="2">
+        <f t="shared" si="58"/>
+        <v>1774000</v>
+      </c>
+      <c r="L884" s="5">
+        <v>1</v>
+      </c>
+      <c r="M884" s="2">
+        <f t="shared" si="59"/>
+        <v>3548000</v>
+      </c>
+      <c r="N884">
+        <v>2</v>
+      </c>
+      <c r="O884" s="5">
+        <v>9410000</v>
+      </c>
+      <c r="P884">
+        <v>1</v>
+      </c>
+      <c r="Q884">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="885" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A885" s="2">
+        <v>883</v>
+      </c>
+      <c r="B885" s="2">
+        <v>32</v>
+      </c>
+      <c r="C885" s="1">
+        <v>24</v>
+      </c>
+      <c r="D885" s="2">
+        <v>9</v>
+      </c>
+      <c r="E885" s="2">
+        <v>21</v>
+      </c>
+      <c r="F885" s="2">
+        <v>883</v>
+      </c>
+      <c r="G885" s="5">
+        <v>0</v>
+      </c>
+      <c r="H885" s="5">
+        <v>500</v>
+      </c>
+      <c r="I885" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J885" s="5">
+        <v>1</v>
+      </c>
+      <c r="K885" s="2">
+        <f t="shared" si="58"/>
+        <v>1776000</v>
+      </c>
+      <c r="L885" s="5">
+        <v>1</v>
+      </c>
+      <c r="M885" s="2">
+        <f t="shared" si="59"/>
+        <v>3552000</v>
+      </c>
+      <c r="N885" s="5">
+        <v>2</v>
+      </c>
+      <c r="O885" s="2">
+        <v>9418000</v>
+      </c>
+      <c r="P885">
+        <v>1</v>
+      </c>
+      <c r="Q885">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="886" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A886" s="2">
+        <v>884</v>
+      </c>
+      <c r="B886" s="2">
+        <v>32</v>
+      </c>
+      <c r="C886" s="1">
+        <v>24</v>
+      </c>
+      <c r="D886" s="2">
+        <v>9</v>
+      </c>
+      <c r="E886" s="2">
+        <v>21</v>
+      </c>
+      <c r="F886" s="2">
+        <v>884</v>
+      </c>
+      <c r="G886" s="5">
+        <v>0</v>
+      </c>
+      <c r="H886" s="5">
+        <v>500</v>
+      </c>
+      <c r="I886" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J886" s="5">
+        <v>1</v>
+      </c>
+      <c r="K886" s="2">
+        <f t="shared" si="58"/>
+        <v>1778000</v>
+      </c>
+      <c r="L886" s="5">
+        <v>1</v>
+      </c>
+      <c r="M886" s="2">
+        <f t="shared" si="59"/>
+        <v>3556000</v>
+      </c>
+      <c r="N886">
+        <v>2</v>
+      </c>
+      <c r="O886" s="5">
+        <v>9426000</v>
+      </c>
+      <c r="P886">
+        <v>1</v>
+      </c>
+      <c r="Q886">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="887" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A887" s="2">
+        <v>885</v>
+      </c>
+      <c r="B887" s="2">
+        <v>32</v>
+      </c>
+      <c r="C887" s="1">
+        <v>24</v>
+      </c>
+      <c r="D887" s="2">
+        <v>9</v>
+      </c>
+      <c r="E887" s="2">
+        <v>21</v>
+      </c>
+      <c r="F887" s="2">
+        <v>885</v>
+      </c>
+      <c r="G887" s="5">
+        <v>0</v>
+      </c>
+      <c r="H887" s="5">
+        <v>500</v>
+      </c>
+      <c r="I887" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J887" s="5">
+        <v>1</v>
+      </c>
+      <c r="K887" s="2">
+        <f t="shared" si="58"/>
+        <v>1780000</v>
+      </c>
+      <c r="L887" s="5">
+        <v>1</v>
+      </c>
+      <c r="M887" s="2">
+        <f t="shared" si="59"/>
+        <v>3560000</v>
+      </c>
+      <c r="N887" s="5">
+        <v>2</v>
+      </c>
+      <c r="O887" s="2">
+        <v>9434000</v>
+      </c>
+      <c r="P887">
+        <v>1</v>
+      </c>
+      <c r="Q887">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="888" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A888" s="2">
+        <v>886</v>
+      </c>
+      <c r="B888" s="2">
+        <v>32</v>
+      </c>
+      <c r="C888" s="1">
+        <v>24</v>
+      </c>
+      <c r="D888" s="2">
+        <v>9</v>
+      </c>
+      <c r="E888" s="2">
+        <v>21</v>
+      </c>
+      <c r="F888" s="2">
+        <v>886</v>
+      </c>
+      <c r="G888" s="5">
+        <v>0</v>
+      </c>
+      <c r="H888" s="5">
+        <v>500</v>
+      </c>
+      <c r="I888" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J888" s="5">
+        <v>1</v>
+      </c>
+      <c r="K888" s="2">
+        <f t="shared" si="58"/>
+        <v>1782000</v>
+      </c>
+      <c r="L888" s="5">
+        <v>1</v>
+      </c>
+      <c r="M888" s="2">
+        <f t="shared" si="59"/>
+        <v>3564000</v>
+      </c>
+      <c r="N888" s="5">
+        <v>2</v>
+      </c>
+      <c r="O888" s="2">
+        <v>9442000</v>
+      </c>
+      <c r="P888">
+        <v>1</v>
+      </c>
+      <c r="Q888">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="889" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A889" s="2">
+        <v>887</v>
+      </c>
+      <c r="B889" s="2">
+        <v>32</v>
+      </c>
+      <c r="C889" s="1">
+        <v>24</v>
+      </c>
+      <c r="D889" s="2">
+        <v>9</v>
+      </c>
+      <c r="E889" s="2">
+        <v>21</v>
+      </c>
+      <c r="F889" s="2">
+        <v>887</v>
+      </c>
+      <c r="G889" s="5">
+        <v>0</v>
+      </c>
+      <c r="H889" s="5">
+        <v>500</v>
+      </c>
+      <c r="I889" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J889" s="5">
+        <v>1</v>
+      </c>
+      <c r="K889" s="2">
+        <f t="shared" si="58"/>
+        <v>1784000</v>
+      </c>
+      <c r="L889" s="5">
+        <v>1</v>
+      </c>
+      <c r="M889" s="2">
+        <f t="shared" si="59"/>
+        <v>3568000</v>
+      </c>
+      <c r="N889">
+        <v>2</v>
+      </c>
+      <c r="O889" s="5">
+        <v>9450000</v>
+      </c>
+      <c r="P889">
+        <v>1</v>
+      </c>
+      <c r="Q889">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="890" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A890" s="2">
+        <v>888</v>
+      </c>
+      <c r="B890" s="2">
+        <v>32</v>
+      </c>
+      <c r="C890" s="1">
+        <v>24</v>
+      </c>
+      <c r="D890" s="2">
+        <v>9</v>
+      </c>
+      <c r="E890" s="2">
+        <v>21</v>
+      </c>
+      <c r="F890" s="2">
+        <v>888</v>
+      </c>
+      <c r="G890" s="5">
+        <v>0</v>
+      </c>
+      <c r="H890" s="5">
+        <v>500</v>
+      </c>
+      <c r="I890" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J890" s="5">
+        <v>1</v>
+      </c>
+      <c r="K890" s="2">
+        <f t="shared" si="58"/>
+        <v>1786000</v>
+      </c>
+      <c r="L890" s="5">
+        <v>1</v>
+      </c>
+      <c r="M890" s="2">
+        <f t="shared" si="59"/>
+        <v>3572000</v>
+      </c>
+      <c r="N890" s="5">
+        <v>2</v>
+      </c>
+      <c r="O890" s="2">
+        <v>9458000</v>
+      </c>
+      <c r="P890">
+        <v>1</v>
+      </c>
+      <c r="Q890">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="891" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A891" s="2">
+        <v>889</v>
+      </c>
+      <c r="B891" s="2">
+        <v>32</v>
+      </c>
+      <c r="C891" s="1">
+        <v>24</v>
+      </c>
+      <c r="D891" s="2">
+        <v>9</v>
+      </c>
+      <c r="E891" s="2">
+        <v>21</v>
+      </c>
+      <c r="F891" s="2">
+        <v>889</v>
+      </c>
+      <c r="G891" s="5">
+        <v>0</v>
+      </c>
+      <c r="H891" s="5">
+        <v>500</v>
+      </c>
+      <c r="I891" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J891" s="5">
+        <v>1</v>
+      </c>
+      <c r="K891" s="2">
+        <f t="shared" si="58"/>
+        <v>1788000</v>
+      </c>
+      <c r="L891" s="5">
+        <v>1</v>
+      </c>
+      <c r="M891" s="2">
+        <f t="shared" si="59"/>
+        <v>3576000</v>
+      </c>
+      <c r="N891">
+        <v>2</v>
+      </c>
+      <c r="O891" s="5">
+        <v>9466000</v>
+      </c>
+      <c r="P891">
+        <v>1</v>
+      </c>
+      <c r="Q891">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="892" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A892" s="2">
+        <v>890</v>
+      </c>
+      <c r="B892" s="2">
+        <v>32</v>
+      </c>
+      <c r="C892" s="1">
+        <v>24</v>
+      </c>
+      <c r="D892" s="2">
+        <v>9</v>
+      </c>
+      <c r="E892" s="2">
+        <v>21</v>
+      </c>
+      <c r="F892" s="2">
+        <v>890</v>
+      </c>
+      <c r="G892" s="5">
+        <v>0</v>
+      </c>
+      <c r="H892" s="5">
+        <v>500</v>
+      </c>
+      <c r="I892" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J892" s="5">
+        <v>1</v>
+      </c>
+      <c r="K892" s="2">
+        <f t="shared" si="58"/>
+        <v>1790000</v>
+      </c>
+      <c r="L892" s="5">
+        <v>1</v>
+      </c>
+      <c r="M892" s="2">
+        <f t="shared" si="59"/>
+        <v>3580000</v>
+      </c>
+      <c r="N892" s="5">
+        <v>2</v>
+      </c>
+      <c r="O892" s="2">
+        <v>9474000</v>
+      </c>
+      <c r="P892">
+        <v>1</v>
+      </c>
+      <c r="Q892">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="893" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A893" s="2">
+        <v>891</v>
+      </c>
+      <c r="B893" s="2">
+        <v>32</v>
+      </c>
+      <c r="C893" s="1">
+        <v>24</v>
+      </c>
+      <c r="D893" s="2">
+        <v>9</v>
+      </c>
+      <c r="E893" s="2">
+        <v>21</v>
+      </c>
+      <c r="F893" s="2">
+        <v>891</v>
+      </c>
+      <c r="G893" s="5">
+        <v>0</v>
+      </c>
+      <c r="H893" s="5">
+        <v>500</v>
+      </c>
+      <c r="I893" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J893" s="5">
+        <v>1</v>
+      </c>
+      <c r="K893" s="2">
+        <f t="shared" si="58"/>
+        <v>1792000</v>
+      </c>
+      <c r="L893" s="5">
+        <v>1</v>
+      </c>
+      <c r="M893" s="2">
+        <f t="shared" si="59"/>
+        <v>3584000</v>
+      </c>
+      <c r="N893" s="5">
+        <v>2</v>
+      </c>
+      <c r="O893" s="2">
+        <v>9482000</v>
+      </c>
+      <c r="P893">
+        <v>1</v>
+      </c>
+      <c r="Q893">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="894" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A894" s="2">
+        <v>892</v>
+      </c>
+      <c r="B894" s="2">
+        <v>32</v>
+      </c>
+      <c r="C894" s="1">
+        <v>24</v>
+      </c>
+      <c r="D894" s="2">
+        <v>9</v>
+      </c>
+      <c r="E894" s="2">
+        <v>21</v>
+      </c>
+      <c r="F894" s="2">
+        <v>892</v>
+      </c>
+      <c r="G894" s="5">
+        <v>0</v>
+      </c>
+      <c r="H894" s="5">
+        <v>500</v>
+      </c>
+      <c r="I894" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J894" s="5">
+        <v>1</v>
+      </c>
+      <c r="K894" s="2">
+        <f t="shared" si="58"/>
+        <v>1794000</v>
+      </c>
+      <c r="L894" s="5">
+        <v>1</v>
+      </c>
+      <c r="M894" s="2">
+        <f t="shared" si="59"/>
+        <v>3588000</v>
+      </c>
+      <c r="N894">
+        <v>2</v>
+      </c>
+      <c r="O894" s="5">
+        <v>9490000</v>
+      </c>
+      <c r="P894">
+        <v>1</v>
+      </c>
+      <c r="Q894">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="895" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A895" s="2">
+        <v>893</v>
+      </c>
+      <c r="B895" s="2">
+        <v>32</v>
+      </c>
+      <c r="C895" s="1">
+        <v>24</v>
+      </c>
+      <c r="D895" s="2">
+        <v>9</v>
+      </c>
+      <c r="E895" s="2">
+        <v>21</v>
+      </c>
+      <c r="F895" s="2">
+        <v>893</v>
+      </c>
+      <c r="G895" s="5">
+        <v>0</v>
+      </c>
+      <c r="H895" s="5">
+        <v>500</v>
+      </c>
+      <c r="I895" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J895" s="5">
+        <v>1</v>
+      </c>
+      <c r="K895" s="2">
+        <f t="shared" si="58"/>
+        <v>1796000</v>
+      </c>
+      <c r="L895" s="5">
+        <v>1</v>
+      </c>
+      <c r="M895" s="2">
+        <f t="shared" si="59"/>
+        <v>3592000</v>
+      </c>
+      <c r="N895" s="5">
+        <v>2</v>
+      </c>
+      <c r="O895" s="2">
+        <v>9498000</v>
+      </c>
+      <c r="P895">
+        <v>1</v>
+      </c>
+      <c r="Q895">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="896" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A896" s="2">
+        <v>894</v>
+      </c>
+      <c r="B896" s="2">
+        <v>32</v>
+      </c>
+      <c r="C896" s="1">
+        <v>24</v>
+      </c>
+      <c r="D896" s="2">
+        <v>9</v>
+      </c>
+      <c r="E896" s="2">
+        <v>21</v>
+      </c>
+      <c r="F896" s="2">
+        <v>894</v>
+      </c>
+      <c r="G896" s="5">
+        <v>0</v>
+      </c>
+      <c r="H896" s="5">
+        <v>500</v>
+      </c>
+      <c r="I896" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J896" s="5">
+        <v>1</v>
+      </c>
+      <c r="K896" s="2">
+        <f t="shared" si="58"/>
+        <v>1798000</v>
+      </c>
+      <c r="L896" s="5">
+        <v>1</v>
+      </c>
+      <c r="M896" s="2">
+        <f t="shared" si="59"/>
+        <v>3596000</v>
+      </c>
+      <c r="N896">
+        <v>2</v>
+      </c>
+      <c r="O896" s="5">
+        <v>9506000</v>
+      </c>
+      <c r="P896">
+        <v>1</v>
+      </c>
+      <c r="Q896">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="897" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A897" s="2">
+        <v>895</v>
+      </c>
+      <c r="B897" s="2">
+        <v>32</v>
+      </c>
+      <c r="C897" s="1">
+        <v>24</v>
+      </c>
+      <c r="D897" s="2">
+        <v>9</v>
+      </c>
+      <c r="E897" s="2">
+        <v>21</v>
+      </c>
+      <c r="F897" s="2">
+        <v>895</v>
+      </c>
+      <c r="G897" s="5">
+        <v>0</v>
+      </c>
+      <c r="H897" s="5">
+        <v>500</v>
+      </c>
+      <c r="I897" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J897" s="5">
+        <v>1</v>
+      </c>
+      <c r="K897" s="2">
+        <f t="shared" si="58"/>
+        <v>1800000</v>
+      </c>
+      <c r="L897" s="5">
+        <v>1</v>
+      </c>
+      <c r="M897" s="2">
+        <f t="shared" si="59"/>
+        <v>3600000</v>
+      </c>
+      <c r="N897" s="5">
+        <v>2</v>
+      </c>
+      <c r="O897" s="2">
+        <v>9514000</v>
+      </c>
+      <c r="P897">
+        <v>1</v>
+      </c>
+      <c r="Q897">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="898" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A898" s="2">
+        <v>896</v>
+      </c>
+      <c r="B898" s="2">
+        <v>32</v>
+      </c>
+      <c r="C898" s="1">
+        <v>24</v>
+      </c>
+      <c r="D898" s="2">
+        <v>9</v>
+      </c>
+      <c r="E898" s="2">
+        <v>21</v>
+      </c>
+      <c r="F898" s="2">
+        <v>896</v>
+      </c>
+      <c r="G898" s="5">
+        <v>0</v>
+      </c>
+      <c r="H898" s="5">
+        <v>500</v>
+      </c>
+      <c r="I898" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J898" s="5">
+        <v>1</v>
+      </c>
+      <c r="K898" s="2">
+        <f t="shared" si="58"/>
+        <v>1802000</v>
+      </c>
+      <c r="L898" s="5">
+        <v>1</v>
+      </c>
+      <c r="M898" s="2">
+        <f t="shared" si="59"/>
+        <v>3604000</v>
+      </c>
+      <c r="N898" s="5">
+        <v>2</v>
+      </c>
+      <c r="O898" s="2">
+        <v>9522000</v>
+      </c>
+      <c r="P898">
+        <v>1</v>
+      </c>
+      <c r="Q898">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="899" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A899" s="2">
+        <v>897</v>
+      </c>
+      <c r="B899" s="2">
+        <v>32</v>
+      </c>
+      <c r="C899" s="1">
+        <v>24</v>
+      </c>
+      <c r="D899" s="2">
+        <v>9</v>
+      </c>
+      <c r="E899" s="2">
+        <v>21</v>
+      </c>
+      <c r="F899" s="2">
+        <v>897</v>
+      </c>
+      <c r="G899" s="5">
+        <v>0</v>
+      </c>
+      <c r="H899" s="5">
+        <v>500</v>
+      </c>
+      <c r="I899" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J899" s="5">
+        <v>1</v>
+      </c>
+      <c r="K899" s="2">
+        <f t="shared" si="58"/>
+        <v>1804000</v>
+      </c>
+      <c r="L899" s="5">
+        <v>1</v>
+      </c>
+      <c r="M899" s="2">
+        <f t="shared" si="59"/>
+        <v>3608000</v>
+      </c>
+      <c r="N899">
+        <v>2</v>
+      </c>
+      <c r="O899" s="5">
+        <v>9530000</v>
+      </c>
+      <c r="P899">
+        <v>1</v>
+      </c>
+      <c r="Q899">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="900" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A900" s="2">
+        <v>898</v>
+      </c>
+      <c r="B900" s="2">
+        <v>32</v>
+      </c>
+      <c r="C900" s="1">
+        <v>24</v>
+      </c>
+      <c r="D900" s="2">
+        <v>9</v>
+      </c>
+      <c r="E900" s="2">
+        <v>21</v>
+      </c>
+      <c r="F900" s="2">
+        <v>898</v>
+      </c>
+      <c r="G900" s="5">
+        <v>0</v>
+      </c>
+      <c r="H900" s="5">
+        <v>500</v>
+      </c>
+      <c r="I900" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J900" s="5">
+        <v>1</v>
+      </c>
+      <c r="K900" s="2">
+        <f t="shared" si="58"/>
+        <v>1806000</v>
+      </c>
+      <c r="L900" s="5">
+        <v>1</v>
+      </c>
+      <c r="M900" s="2">
+        <f t="shared" si="59"/>
+        <v>3612000</v>
+      </c>
+      <c r="N900" s="5">
+        <v>2</v>
+      </c>
+      <c r="O900" s="2">
+        <v>9538000</v>
+      </c>
+      <c r="P900">
+        <v>1</v>
+      </c>
+      <c r="Q900">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="901" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A901" s="2">
+        <v>899</v>
+      </c>
+      <c r="B901" s="2">
+        <v>32</v>
+      </c>
+      <c r="C901" s="1">
+        <v>24</v>
+      </c>
+      <c r="D901" s="2">
+        <v>9</v>
+      </c>
+      <c r="E901" s="2">
+        <v>21</v>
+      </c>
+      <c r="F901" s="2">
+        <v>899</v>
+      </c>
+      <c r="G901" s="5">
+        <v>0</v>
+      </c>
+      <c r="H901" s="5">
+        <v>500</v>
+      </c>
+      <c r="I901" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J901" s="5">
+        <v>1</v>
+      </c>
+      <c r="K901" s="2">
+        <f t="shared" si="58"/>
+        <v>1808000</v>
+      </c>
+      <c r="L901" s="5">
+        <v>1</v>
+      </c>
+      <c r="M901" s="2">
+        <f t="shared" si="59"/>
+        <v>3616000</v>
+      </c>
+      <c r="N901">
+        <v>2</v>
+      </c>
+      <c r="O901" s="5">
+        <v>9546000</v>
+      </c>
+      <c r="P901">
+        <v>1</v>
+      </c>
+      <c r="Q901">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="902" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A902" s="5">
+        <v>900</v>
+      </c>
+      <c r="B902" s="5">
+        <v>32</v>
+      </c>
+      <c r="C902" s="5">
+        <v>25</v>
+      </c>
+      <c r="D902" s="5">
+        <v>9</v>
+      </c>
+      <c r="E902" s="5">
+        <v>21</v>
+      </c>
+      <c r="F902" s="5">
+        <v>900</v>
+      </c>
+      <c r="G902" s="5">
+        <v>0</v>
+      </c>
+      <c r="H902" s="5">
+        <v>500</v>
+      </c>
+      <c r="I902" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J902" s="5">
+        <v>1</v>
+      </c>
+      <c r="K902" s="5">
+        <f t="shared" si="58"/>
+        <v>1810000</v>
+      </c>
+      <c r="L902" s="5">
+        <v>1</v>
+      </c>
+      <c r="M902" s="5">
+        <f t="shared" si="59"/>
+        <v>3620000</v>
+      </c>
+      <c r="N902" s="5">
+        <v>2</v>
+      </c>
+      <c r="O902" s="5">
+        <v>9554000</v>
+      </c>
+      <c r="P902" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q902" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="903" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A903" s="2">
+        <v>901</v>
+      </c>
+      <c r="B903" s="2">
+        <v>33</v>
+      </c>
+      <c r="C903" s="1">
+        <v>25</v>
+      </c>
+      <c r="D903" s="2">
+        <v>9</v>
+      </c>
+      <c r="E903" s="2">
+        <v>21</v>
+      </c>
+      <c r="F903" s="2">
+        <v>901</v>
+      </c>
+      <c r="G903" s="5">
+        <v>0</v>
+      </c>
+      <c r="H903" s="5">
+        <v>500</v>
+      </c>
+      <c r="I903" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J903" s="5">
+        <v>1</v>
+      </c>
+      <c r="K903" s="2">
+        <f t="shared" si="58"/>
+        <v>1812000</v>
+      </c>
+      <c r="L903" s="5">
+        <v>1</v>
+      </c>
+      <c r="M903" s="2">
+        <f t="shared" si="59"/>
+        <v>3624000</v>
+      </c>
+      <c r="N903" s="5">
+        <v>2</v>
+      </c>
+      <c r="O903" s="2">
+        <v>9562000</v>
+      </c>
+      <c r="P903">
+        <v>1</v>
+      </c>
+      <c r="Q903">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="904" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A904" s="2">
+        <v>902</v>
+      </c>
+      <c r="B904" s="2">
+        <v>33</v>
+      </c>
+      <c r="C904" s="1">
+        <v>25</v>
+      </c>
+      <c r="D904" s="2">
+        <v>9</v>
+      </c>
+      <c r="E904" s="2">
+        <v>21</v>
+      </c>
+      <c r="F904" s="2">
+        <v>902</v>
+      </c>
+      <c r="G904" s="5">
+        <v>0</v>
+      </c>
+      <c r="H904" s="5">
+        <v>500</v>
+      </c>
+      <c r="I904" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J904" s="5">
+        <v>1</v>
+      </c>
+      <c r="K904" s="2">
+        <f t="shared" si="58"/>
+        <v>1814000</v>
+      </c>
+      <c r="L904" s="5">
+        <v>1</v>
+      </c>
+      <c r="M904" s="2">
+        <f t="shared" si="59"/>
+        <v>3628000</v>
+      </c>
+      <c r="N904">
+        <v>2</v>
+      </c>
+      <c r="O904" s="5">
+        <v>9570000</v>
+      </c>
+      <c r="P904">
+        <v>1</v>
+      </c>
+      <c r="Q904">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="905" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A905" s="2">
+        <v>903</v>
+      </c>
+      <c r="B905" s="2">
+        <v>33</v>
+      </c>
+      <c r="C905" s="1">
+        <v>25</v>
+      </c>
+      <c r="D905" s="2">
+        <v>9</v>
+      </c>
+      <c r="E905" s="2">
+        <v>21</v>
+      </c>
+      <c r="F905" s="2">
+        <v>903</v>
+      </c>
+      <c r="G905" s="5">
+        <v>0</v>
+      </c>
+      <c r="H905" s="5">
+        <v>500</v>
+      </c>
+      <c r="I905" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J905" s="5">
+        <v>1</v>
+      </c>
+      <c r="K905" s="2">
+        <f t="shared" si="58"/>
+        <v>1816000</v>
+      </c>
+      <c r="L905" s="5">
+        <v>1</v>
+      </c>
+      <c r="M905" s="2">
+        <f t="shared" si="59"/>
+        <v>3632000</v>
+      </c>
+      <c r="N905" s="5">
+        <v>2</v>
+      </c>
+      <c r="O905" s="2">
+        <v>9578000</v>
+      </c>
+      <c r="P905">
+        <v>1</v>
+      </c>
+      <c r="Q905">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="906" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A906" s="2">
+        <v>904</v>
+      </c>
+      <c r="B906" s="2">
+        <v>33</v>
+      </c>
+      <c r="C906" s="1">
+        <v>25</v>
+      </c>
+      <c r="D906" s="2">
+        <v>9</v>
+      </c>
+      <c r="E906" s="2">
+        <v>21</v>
+      </c>
+      <c r="F906" s="2">
+        <v>904</v>
+      </c>
+      <c r="G906" s="5">
+        <v>0</v>
+      </c>
+      <c r="H906" s="5">
+        <v>500</v>
+      </c>
+      <c r="I906" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J906" s="5">
+        <v>1</v>
+      </c>
+      <c r="K906" s="2">
+        <f t="shared" si="58"/>
+        <v>1818000</v>
+      </c>
+      <c r="L906" s="5">
+        <v>1</v>
+      </c>
+      <c r="M906" s="2">
+        <f t="shared" si="59"/>
+        <v>3636000</v>
+      </c>
+      <c r="N906">
+        <v>2</v>
+      </c>
+      <c r="O906" s="5">
+        <v>9586000</v>
+      </c>
+      <c r="P906">
+        <v>1</v>
+      </c>
+      <c r="Q906">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="907" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A907" s="2">
+        <v>905</v>
+      </c>
+      <c r="B907" s="2">
+        <v>33</v>
+      </c>
+      <c r="C907" s="1">
+        <v>25</v>
+      </c>
+      <c r="D907" s="2">
+        <v>9</v>
+      </c>
+      <c r="E907" s="2">
+        <v>21</v>
+      </c>
+      <c r="F907" s="2">
+        <v>905</v>
+      </c>
+      <c r="G907" s="5">
+        <v>0</v>
+      </c>
+      <c r="H907" s="5">
+        <v>500</v>
+      </c>
+      <c r="I907" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J907" s="5">
+        <v>1</v>
+      </c>
+      <c r="K907" s="2">
+        <f t="shared" si="58"/>
+        <v>1820000</v>
+      </c>
+      <c r="L907" s="5">
+        <v>1</v>
+      </c>
+      <c r="M907" s="2">
+        <f t="shared" si="59"/>
+        <v>3640000</v>
+      </c>
+      <c r="N907" s="5">
+        <v>2</v>
+      </c>
+      <c r="O907" s="2">
+        <v>9594000</v>
+      </c>
+      <c r="P907">
+        <v>1</v>
+      </c>
+      <c r="Q907">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="908" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A908" s="2">
+        <v>906</v>
+      </c>
+      <c r="B908" s="2">
+        <v>33</v>
+      </c>
+      <c r="C908" s="1">
+        <v>25</v>
+      </c>
+      <c r="D908" s="2">
+        <v>9</v>
+      </c>
+      <c r="E908" s="2">
+        <v>21</v>
+      </c>
+      <c r="F908" s="2">
+        <v>906</v>
+      </c>
+      <c r="G908" s="5">
+        <v>0</v>
+      </c>
+      <c r="H908" s="5">
+        <v>500</v>
+      </c>
+      <c r="I908" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J908" s="5">
+        <v>1</v>
+      </c>
+      <c r="K908" s="2">
+        <f t="shared" si="58"/>
+        <v>1822000</v>
+      </c>
+      <c r="L908" s="5">
+        <v>1</v>
+      </c>
+      <c r="M908" s="2">
+        <f t="shared" si="59"/>
+        <v>3644000</v>
+      </c>
+      <c r="N908" s="5">
+        <v>2</v>
+      </c>
+      <c r="O908" s="2">
+        <v>9602000</v>
+      </c>
+      <c r="P908">
+        <v>1</v>
+      </c>
+      <c r="Q908">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="909" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A909" s="2">
+        <v>907</v>
+      </c>
+      <c r="B909" s="2">
+        <v>33</v>
+      </c>
+      <c r="C909" s="1">
+        <v>25</v>
+      </c>
+      <c r="D909" s="2">
+        <v>9</v>
+      </c>
+      <c r="E909" s="2">
+        <v>21</v>
+      </c>
+      <c r="F909" s="2">
+        <v>907</v>
+      </c>
+      <c r="G909" s="5">
+        <v>0</v>
+      </c>
+      <c r="H909" s="5">
+        <v>500</v>
+      </c>
+      <c r="I909" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J909" s="5">
+        <v>1</v>
+      </c>
+      <c r="K909" s="2">
+        <f t="shared" si="58"/>
+        <v>1824000</v>
+      </c>
+      <c r="L909" s="5">
+        <v>1</v>
+      </c>
+      <c r="M909" s="2">
+        <f t="shared" si="59"/>
+        <v>3648000</v>
+      </c>
+      <c r="N909">
+        <v>2</v>
+      </c>
+      <c r="O909" s="5">
+        <v>9610000</v>
+      </c>
+      <c r="P909">
+        <v>1</v>
+      </c>
+      <c r="Q909">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="910" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A910" s="2">
+        <v>908</v>
+      </c>
+      <c r="B910" s="2">
+        <v>33</v>
+      </c>
+      <c r="C910" s="1">
+        <v>25</v>
+      </c>
+      <c r="D910" s="2">
+        <v>9</v>
+      </c>
+      <c r="E910" s="2">
+        <v>21</v>
+      </c>
+      <c r="F910" s="2">
+        <v>908</v>
+      </c>
+      <c r="G910" s="5">
+        <v>0</v>
+      </c>
+      <c r="H910" s="5">
+        <v>500</v>
+      </c>
+      <c r="I910" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J910" s="5">
+        <v>1</v>
+      </c>
+      <c r="K910" s="2">
+        <f t="shared" si="58"/>
+        <v>1826000</v>
+      </c>
+      <c r="L910" s="5">
+        <v>1</v>
+      </c>
+      <c r="M910" s="2">
+        <f t="shared" si="59"/>
+        <v>3652000</v>
+      </c>
+      <c r="N910" s="5">
+        <v>2</v>
+      </c>
+      <c r="O910" s="2">
+        <v>9618000</v>
+      </c>
+      <c r="P910">
+        <v>1</v>
+      </c>
+      <c r="Q910">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="911" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A911" s="2">
+        <v>909</v>
+      </c>
+      <c r="B911" s="2">
+        <v>33</v>
+      </c>
+      <c r="C911" s="1">
+        <v>25</v>
+      </c>
+      <c r="D911" s="2">
+        <v>9</v>
+      </c>
+      <c r="E911" s="2">
+        <v>21</v>
+      </c>
+      <c r="F911" s="2">
+        <v>909</v>
+      </c>
+      <c r="G911" s="5">
+        <v>0</v>
+      </c>
+      <c r="H911" s="5">
+        <v>500</v>
+      </c>
+      <c r="I911" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J911" s="5">
+        <v>1</v>
+      </c>
+      <c r="K911" s="2">
+        <f t="shared" si="58"/>
+        <v>1828000</v>
+      </c>
+      <c r="L911" s="5">
+        <v>1</v>
+      </c>
+      <c r="M911" s="2">
+        <f t="shared" si="59"/>
+        <v>3656000</v>
+      </c>
+      <c r="N911">
+        <v>2</v>
+      </c>
+      <c r="O911" s="5">
+        <v>9626000</v>
+      </c>
+      <c r="P911">
+        <v>1</v>
+      </c>
+      <c r="Q911">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="912" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A912" s="2">
+        <v>910</v>
+      </c>
+      <c r="B912" s="2">
+        <v>33</v>
+      </c>
+      <c r="C912" s="1">
+        <v>25</v>
+      </c>
+      <c r="D912" s="2">
+        <v>9</v>
+      </c>
+      <c r="E912" s="2">
+        <v>21</v>
+      </c>
+      <c r="F912" s="2">
+        <v>910</v>
+      </c>
+      <c r="G912" s="5">
+        <v>0</v>
+      </c>
+      <c r="H912" s="5">
+        <v>500</v>
+      </c>
+      <c r="I912" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J912" s="5">
+        <v>1</v>
+      </c>
+      <c r="K912" s="2">
+        <f t="shared" si="58"/>
+        <v>1830000</v>
+      </c>
+      <c r="L912" s="5">
+        <v>1</v>
+      </c>
+      <c r="M912" s="2">
+        <f t="shared" si="59"/>
+        <v>3660000</v>
+      </c>
+      <c r="N912" s="5">
+        <v>2</v>
+      </c>
+      <c r="O912" s="2">
+        <v>9634000</v>
+      </c>
+      <c r="P912">
+        <v>1</v>
+      </c>
+      <c r="Q912">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="913" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A913" s="2">
+        <v>911</v>
+      </c>
+      <c r="B913" s="2">
+        <v>33</v>
+      </c>
+      <c r="C913" s="1">
+        <v>25</v>
+      </c>
+      <c r="D913" s="2">
+        <v>9</v>
+      </c>
+      <c r="E913" s="2">
+        <v>21</v>
+      </c>
+      <c r="F913" s="2">
+        <v>911</v>
+      </c>
+      <c r="G913" s="5">
+        <v>0</v>
+      </c>
+      <c r="H913" s="5">
+        <v>500</v>
+      </c>
+      <c r="I913" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J913" s="5">
+        <v>1</v>
+      </c>
+      <c r="K913" s="2">
+        <f t="shared" si="58"/>
+        <v>1832000</v>
+      </c>
+      <c r="L913" s="5">
+        <v>1</v>
+      </c>
+      <c r="M913" s="2">
+        <f t="shared" si="59"/>
+        <v>3664000</v>
+      </c>
+      <c r="N913" s="5">
+        <v>2</v>
+      </c>
+      <c r="O913" s="2">
+        <v>9642000</v>
+      </c>
+      <c r="P913">
+        <v>1</v>
+      </c>
+      <c r="Q913">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="914" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A914" s="2">
+        <v>912</v>
+      </c>
+      <c r="B914" s="2">
+        <v>33</v>
+      </c>
+      <c r="C914" s="1">
+        <v>25</v>
+      </c>
+      <c r="D914" s="2">
+        <v>9</v>
+      </c>
+      <c r="E914" s="2">
+        <v>21</v>
+      </c>
+      <c r="F914" s="2">
+        <v>912</v>
+      </c>
+      <c r="G914" s="5">
+        <v>0</v>
+      </c>
+      <c r="H914" s="5">
+        <v>500</v>
+      </c>
+      <c r="I914" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J914" s="5">
+        <v>1</v>
+      </c>
+      <c r="K914" s="2">
+        <f t="shared" si="58"/>
+        <v>1834000</v>
+      </c>
+      <c r="L914" s="5">
+        <v>1</v>
+      </c>
+      <c r="M914" s="2">
+        <f t="shared" si="59"/>
+        <v>3668000</v>
+      </c>
+      <c r="N914">
+        <v>2</v>
+      </c>
+      <c r="O914" s="5">
+        <v>9650000</v>
+      </c>
+      <c r="P914">
+        <v>1</v>
+      </c>
+      <c r="Q914">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="915" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A915" s="2">
+        <v>913</v>
+      </c>
+      <c r="B915" s="2">
+        <v>33</v>
+      </c>
+      <c r="C915" s="1">
+        <v>25</v>
+      </c>
+      <c r="D915" s="2">
+        <v>9</v>
+      </c>
+      <c r="E915" s="2">
+        <v>21</v>
+      </c>
+      <c r="F915" s="2">
+        <v>913</v>
+      </c>
+      <c r="G915" s="5">
+        <v>0</v>
+      </c>
+      <c r="H915" s="5">
+        <v>500</v>
+      </c>
+      <c r="I915" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J915" s="5">
+        <v>1</v>
+      </c>
+      <c r="K915" s="2">
+        <f t="shared" si="58"/>
+        <v>1836000</v>
+      </c>
+      <c r="L915" s="5">
+        <v>1</v>
+      </c>
+      <c r="M915" s="2">
+        <f t="shared" si="59"/>
+        <v>3672000</v>
+      </c>
+      <c r="N915" s="5">
+        <v>2</v>
+      </c>
+      <c r="O915" s="2">
+        <v>9658000</v>
+      </c>
+      <c r="P915">
+        <v>1</v>
+      </c>
+      <c r="Q915">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="916" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A916" s="2">
+        <v>914</v>
+      </c>
+      <c r="B916" s="2">
+        <v>33</v>
+      </c>
+      <c r="C916" s="1">
+        <v>25</v>
+      </c>
+      <c r="D916" s="2">
+        <v>9</v>
+      </c>
+      <c r="E916" s="2">
+        <v>21</v>
+      </c>
+      <c r="F916" s="2">
+        <v>914</v>
+      </c>
+      <c r="G916" s="5">
+        <v>0</v>
+      </c>
+      <c r="H916" s="5">
+        <v>500</v>
+      </c>
+      <c r="I916" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J916" s="5">
+        <v>1</v>
+      </c>
+      <c r="K916" s="2">
+        <f t="shared" si="58"/>
+        <v>1838000</v>
+      </c>
+      <c r="L916" s="5">
+        <v>1</v>
+      </c>
+      <c r="M916" s="2">
+        <f t="shared" si="59"/>
+        <v>3676000</v>
+      </c>
+      <c r="N916">
+        <v>2</v>
+      </c>
+      <c r="O916" s="5">
+        <v>9666000</v>
+      </c>
+      <c r="P916">
+        <v>1</v>
+      </c>
+      <c r="Q916">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="917" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A917" s="2">
+        <v>915</v>
+      </c>
+      <c r="B917" s="2">
+        <v>33</v>
+      </c>
+      <c r="C917" s="1">
+        <v>25</v>
+      </c>
+      <c r="D917" s="2">
+        <v>9</v>
+      </c>
+      <c r="E917" s="2">
+        <v>21</v>
+      </c>
+      <c r="F917" s="2">
+        <v>915</v>
+      </c>
+      <c r="G917" s="5">
+        <v>0</v>
+      </c>
+      <c r="H917" s="5">
+        <v>500</v>
+      </c>
+      <c r="I917" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J917" s="5">
+        <v>1</v>
+      </c>
+      <c r="K917" s="2">
+        <f t="shared" ref="K917:K952" si="60">10000+A917*2000</f>
+        <v>1840000</v>
+      </c>
+      <c r="L917" s="5">
+        <v>1</v>
+      </c>
+      <c r="M917" s="2">
+        <f t="shared" ref="M917:M952" si="61">K917*2</f>
+        <v>3680000</v>
+      </c>
+      <c r="N917" s="5">
+        <v>2</v>
+      </c>
+      <c r="O917" s="2">
+        <v>9674000</v>
+      </c>
+      <c r="P917">
+        <v>1</v>
+      </c>
+      <c r="Q917">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="918" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A918" s="2">
+        <v>916</v>
+      </c>
+      <c r="B918" s="2">
+        <v>33</v>
+      </c>
+      <c r="C918" s="1">
+        <v>25</v>
+      </c>
+      <c r="D918" s="2">
+        <v>9</v>
+      </c>
+      <c r="E918" s="2">
+        <v>21</v>
+      </c>
+      <c r="F918" s="2">
+        <v>916</v>
+      </c>
+      <c r="G918" s="5">
+        <v>0</v>
+      </c>
+      <c r="H918" s="5">
+        <v>500</v>
+      </c>
+      <c r="I918" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J918" s="5">
+        <v>1</v>
+      </c>
+      <c r="K918" s="2">
+        <f t="shared" si="60"/>
+        <v>1842000</v>
+      </c>
+      <c r="L918" s="5">
+        <v>1</v>
+      </c>
+      <c r="M918" s="2">
+        <f t="shared" si="61"/>
+        <v>3684000</v>
+      </c>
+      <c r="N918" s="5">
+        <v>2</v>
+      </c>
+      <c r="O918" s="2">
+        <v>9682000</v>
+      </c>
+      <c r="P918">
+        <v>1</v>
+      </c>
+      <c r="Q918">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="919" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A919" s="2">
+        <v>917</v>
+      </c>
+      <c r="B919" s="2">
+        <v>33</v>
+      </c>
+      <c r="C919" s="1">
+        <v>25</v>
+      </c>
+      <c r="D919" s="2">
+        <v>9</v>
+      </c>
+      <c r="E919" s="2">
+        <v>21</v>
+      </c>
+      <c r="F919" s="2">
+        <v>917</v>
+      </c>
+      <c r="G919" s="5">
+        <v>0</v>
+      </c>
+      <c r="H919" s="5">
+        <v>500</v>
+      </c>
+      <c r="I919" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J919" s="5">
+        <v>1</v>
+      </c>
+      <c r="K919" s="2">
+        <f t="shared" si="60"/>
+        <v>1844000</v>
+      </c>
+      <c r="L919" s="5">
+        <v>1</v>
+      </c>
+      <c r="M919" s="2">
+        <f t="shared" si="61"/>
+        <v>3688000</v>
+      </c>
+      <c r="N919">
+        <v>2</v>
+      </c>
+      <c r="O919" s="5">
+        <v>9690000</v>
+      </c>
+      <c r="P919">
+        <v>1</v>
+      </c>
+      <c r="Q919">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="920" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A920" s="2">
+        <v>918</v>
+      </c>
+      <c r="B920" s="2">
+        <v>33</v>
+      </c>
+      <c r="C920" s="1">
+        <v>25</v>
+      </c>
+      <c r="D920" s="2">
+        <v>9</v>
+      </c>
+      <c r="E920" s="2">
+        <v>21</v>
+      </c>
+      <c r="F920" s="2">
+        <v>918</v>
+      </c>
+      <c r="G920" s="5">
+        <v>0</v>
+      </c>
+      <c r="H920" s="5">
+        <v>500</v>
+      </c>
+      <c r="I920" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J920" s="5">
+        <v>1</v>
+      </c>
+      <c r="K920" s="2">
+        <f t="shared" si="60"/>
+        <v>1846000</v>
+      </c>
+      <c r="L920" s="5">
+        <v>1</v>
+      </c>
+      <c r="M920" s="2">
+        <f t="shared" si="61"/>
+        <v>3692000</v>
+      </c>
+      <c r="N920" s="5">
+        <v>2</v>
+      </c>
+      <c r="O920" s="2">
+        <v>9698000</v>
+      </c>
+      <c r="P920">
+        <v>1</v>
+      </c>
+      <c r="Q920">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="921" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A921" s="2">
+        <v>919</v>
+      </c>
+      <c r="B921" s="2">
+        <v>33</v>
+      </c>
+      <c r="C921" s="1">
+        <v>25</v>
+      </c>
+      <c r="D921" s="2">
+        <v>9</v>
+      </c>
+      <c r="E921" s="2">
+        <v>21</v>
+      </c>
+      <c r="F921" s="2">
+        <v>919</v>
+      </c>
+      <c r="G921" s="5">
+        <v>0</v>
+      </c>
+      <c r="H921" s="5">
+        <v>500</v>
+      </c>
+      <c r="I921" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J921" s="5">
+        <v>1</v>
+      </c>
+      <c r="K921" s="2">
+        <f t="shared" si="60"/>
+        <v>1848000</v>
+      </c>
+      <c r="L921" s="5">
+        <v>1</v>
+      </c>
+      <c r="M921" s="2">
+        <f t="shared" si="61"/>
+        <v>3696000</v>
+      </c>
+      <c r="N921">
+        <v>2</v>
+      </c>
+      <c r="O921" s="5">
+        <v>9706000</v>
+      </c>
+      <c r="P921">
+        <v>1</v>
+      </c>
+      <c r="Q921">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="922" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A922" s="2">
+        <v>920</v>
+      </c>
+      <c r="B922" s="2">
+        <v>33</v>
+      </c>
+      <c r="C922" s="1">
+        <v>25</v>
+      </c>
+      <c r="D922" s="2">
+        <v>9</v>
+      </c>
+      <c r="E922" s="2">
+        <v>21</v>
+      </c>
+      <c r="F922" s="2">
+        <v>920</v>
+      </c>
+      <c r="G922" s="5">
+        <v>0</v>
+      </c>
+      <c r="H922" s="5">
+        <v>500</v>
+      </c>
+      <c r="I922" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J922" s="5">
+        <v>1</v>
+      </c>
+      <c r="K922" s="2">
+        <f t="shared" si="60"/>
+        <v>1850000</v>
+      </c>
+      <c r="L922" s="5">
+        <v>1</v>
+      </c>
+      <c r="M922" s="2">
+        <f t="shared" si="61"/>
+        <v>3700000</v>
+      </c>
+      <c r="N922" s="5">
+        <v>2</v>
+      </c>
+      <c r="O922" s="2">
+        <v>9714000</v>
+      </c>
+      <c r="P922">
+        <v>1</v>
+      </c>
+      <c r="Q922">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="923" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A923" s="2">
+        <v>921</v>
+      </c>
+      <c r="B923" s="2">
+        <v>33</v>
+      </c>
+      <c r="C923" s="1">
+        <v>25</v>
+      </c>
+      <c r="D923" s="2">
+        <v>9</v>
+      </c>
+      <c r="E923" s="2">
+        <v>21</v>
+      </c>
+      <c r="F923" s="2">
+        <v>921</v>
+      </c>
+      <c r="G923" s="5">
+        <v>0</v>
+      </c>
+      <c r="H923" s="5">
+        <v>500</v>
+      </c>
+      <c r="I923" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J923" s="5">
+        <v>1</v>
+      </c>
+      <c r="K923" s="2">
+        <f t="shared" si="60"/>
+        <v>1852000</v>
+      </c>
+      <c r="L923" s="5">
+        <v>1</v>
+      </c>
+      <c r="M923" s="2">
+        <f t="shared" si="61"/>
+        <v>3704000</v>
+      </c>
+      <c r="N923" s="5">
+        <v>2</v>
+      </c>
+      <c r="O923" s="2">
+        <v>9722000</v>
+      </c>
+      <c r="P923">
+        <v>1</v>
+      </c>
+      <c r="Q923">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="924" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A924" s="2">
+        <v>922</v>
+      </c>
+      <c r="B924" s="2">
+        <v>33</v>
+      </c>
+      <c r="C924" s="1">
+        <v>25</v>
+      </c>
+      <c r="D924" s="2">
+        <v>9</v>
+      </c>
+      <c r="E924" s="2">
+        <v>21</v>
+      </c>
+      <c r="F924" s="2">
+        <v>922</v>
+      </c>
+      <c r="G924" s="5">
+        <v>0</v>
+      </c>
+      <c r="H924" s="5">
+        <v>500</v>
+      </c>
+      <c r="I924" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J924" s="5">
+        <v>1</v>
+      </c>
+      <c r="K924" s="2">
+        <f t="shared" si="60"/>
+        <v>1854000</v>
+      </c>
+      <c r="L924" s="5">
+        <v>1</v>
+      </c>
+      <c r="M924" s="2">
+        <f t="shared" si="61"/>
+        <v>3708000</v>
+      </c>
+      <c r="N924">
+        <v>2</v>
+      </c>
+      <c r="O924" s="5">
+        <v>9730000</v>
+      </c>
+      <c r="P924">
+        <v>1</v>
+      </c>
+      <c r="Q924">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="925" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A925" s="2">
+        <v>923</v>
+      </c>
+      <c r="B925" s="2">
+        <v>33</v>
+      </c>
+      <c r="C925" s="1">
+        <v>25</v>
+      </c>
+      <c r="D925" s="2">
+        <v>9</v>
+      </c>
+      <c r="E925" s="2">
+        <v>21</v>
+      </c>
+      <c r="F925" s="2">
+        <v>923</v>
+      </c>
+      <c r="G925" s="5">
+        <v>0</v>
+      </c>
+      <c r="H925" s="5">
+        <v>500</v>
+      </c>
+      <c r="I925" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J925" s="5">
+        <v>1</v>
+      </c>
+      <c r="K925" s="2">
+        <f t="shared" si="60"/>
+        <v>1856000</v>
+      </c>
+      <c r="L925" s="5">
+        <v>1</v>
+      </c>
+      <c r="M925" s="2">
+        <f t="shared" si="61"/>
+        <v>3712000</v>
+      </c>
+      <c r="N925" s="5">
+        <v>2</v>
+      </c>
+      <c r="O925" s="2">
+        <v>9738000</v>
+      </c>
+      <c r="P925">
+        <v>1</v>
+      </c>
+      <c r="Q925">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="926" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A926" s="2">
+        <v>924</v>
+      </c>
+      <c r="B926" s="2">
+        <v>33</v>
+      </c>
+      <c r="C926" s="1">
+        <v>25</v>
+      </c>
+      <c r="D926" s="2">
+        <v>9</v>
+      </c>
+      <c r="E926" s="2">
+        <v>21</v>
+      </c>
+      <c r="F926" s="2">
+        <v>924</v>
+      </c>
+      <c r="G926" s="5">
+        <v>0</v>
+      </c>
+      <c r="H926" s="5">
+        <v>500</v>
+      </c>
+      <c r="I926" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J926" s="5">
+        <v>1</v>
+      </c>
+      <c r="K926" s="2">
+        <f t="shared" si="60"/>
+        <v>1858000</v>
+      </c>
+      <c r="L926" s="5">
+        <v>1</v>
+      </c>
+      <c r="M926" s="2">
+        <f t="shared" si="61"/>
+        <v>3716000</v>
+      </c>
+      <c r="N926">
+        <v>2</v>
+      </c>
+      <c r="O926" s="5">
+        <v>9746000</v>
+      </c>
+      <c r="P926">
+        <v>1</v>
+      </c>
+      <c r="Q926">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="927" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A927" s="2">
+        <v>925</v>
+      </c>
+      <c r="B927" s="2">
+        <v>33</v>
+      </c>
+      <c r="C927" s="1">
+        <v>25</v>
+      </c>
+      <c r="D927" s="2">
+        <v>9</v>
+      </c>
+      <c r="E927" s="2">
+        <v>21</v>
+      </c>
+      <c r="F927" s="2">
+        <v>925</v>
+      </c>
+      <c r="G927" s="5">
+        <v>0</v>
+      </c>
+      <c r="H927" s="5">
+        <v>500</v>
+      </c>
+      <c r="I927" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J927" s="5">
+        <v>1</v>
+      </c>
+      <c r="K927" s="2">
+        <f t="shared" si="60"/>
+        <v>1860000</v>
+      </c>
+      <c r="L927" s="5">
+        <v>1</v>
+      </c>
+      <c r="M927" s="2">
+        <f t="shared" si="61"/>
+        <v>3720000</v>
+      </c>
+      <c r="N927" s="5">
+        <v>2</v>
+      </c>
+      <c r="O927" s="2">
+        <v>9754000</v>
+      </c>
+      <c r="P927">
+        <v>1</v>
+      </c>
+      <c r="Q927">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="928" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A928" s="2">
+        <v>926</v>
+      </c>
+      <c r="B928" s="2">
+        <v>33</v>
+      </c>
+      <c r="C928" s="1">
+        <v>25</v>
+      </c>
+      <c r="D928" s="2">
+        <v>9</v>
+      </c>
+      <c r="E928" s="2">
+        <v>21</v>
+      </c>
+      <c r="F928" s="2">
+        <v>926</v>
+      </c>
+      <c r="G928" s="5">
+        <v>0</v>
+      </c>
+      <c r="H928" s="5">
+        <v>500</v>
+      </c>
+      <c r="I928" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J928" s="5">
+        <v>1</v>
+      </c>
+      <c r="K928" s="2">
+        <f t="shared" si="60"/>
+        <v>1862000</v>
+      </c>
+      <c r="L928" s="5">
+        <v>1</v>
+      </c>
+      <c r="M928" s="2">
+        <f t="shared" si="61"/>
+        <v>3724000</v>
+      </c>
+      <c r="N928" s="5">
+        <v>2</v>
+      </c>
+      <c r="O928" s="2">
+        <v>9762000</v>
+      </c>
+      <c r="P928">
+        <v>1</v>
+      </c>
+      <c r="Q928">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="929" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A929" s="2">
+        <v>927</v>
+      </c>
+      <c r="B929" s="2">
+        <v>33</v>
+      </c>
+      <c r="C929" s="1">
+        <v>25</v>
+      </c>
+      <c r="D929" s="2">
+        <v>9</v>
+      </c>
+      <c r="E929" s="2">
+        <v>21</v>
+      </c>
+      <c r="F929" s="2">
+        <v>927</v>
+      </c>
+      <c r="G929" s="5">
+        <v>0</v>
+      </c>
+      <c r="H929" s="5">
+        <v>500</v>
+      </c>
+      <c r="I929" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J929" s="5">
+        <v>1</v>
+      </c>
+      <c r="K929" s="2">
+        <f t="shared" si="60"/>
+        <v>1864000</v>
+      </c>
+      <c r="L929" s="5">
+        <v>1</v>
+      </c>
+      <c r="M929" s="2">
+        <f t="shared" si="61"/>
+        <v>3728000</v>
+      </c>
+      <c r="N929">
+        <v>2</v>
+      </c>
+      <c r="O929" s="5">
+        <v>9770000</v>
+      </c>
+      <c r="P929">
+        <v>1</v>
+      </c>
+      <c r="Q929">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="930" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A930" s="2">
+        <v>928</v>
+      </c>
+      <c r="B930" s="2">
+        <v>33</v>
+      </c>
+      <c r="C930" s="1">
+        <v>25</v>
+      </c>
+      <c r="D930" s="2">
+        <v>9</v>
+      </c>
+      <c r="E930" s="2">
+        <v>21</v>
+      </c>
+      <c r="F930" s="2">
+        <v>928</v>
+      </c>
+      <c r="G930" s="5">
+        <v>0</v>
+      </c>
+      <c r="H930" s="5">
+        <v>500</v>
+      </c>
+      <c r="I930" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J930" s="5">
+        <v>1</v>
+      </c>
+      <c r="K930" s="2">
+        <f t="shared" si="60"/>
+        <v>1866000</v>
+      </c>
+      <c r="L930" s="5">
+        <v>1</v>
+      </c>
+      <c r="M930" s="2">
+        <f t="shared" si="61"/>
+        <v>3732000</v>
+      </c>
+      <c r="N930" s="5">
+        <v>2</v>
+      </c>
+      <c r="O930" s="2">
+        <v>9778000</v>
+      </c>
+      <c r="P930">
+        <v>1</v>
+      </c>
+      <c r="Q930">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="931" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A931" s="2">
+        <v>929</v>
+      </c>
+      <c r="B931" s="2">
+        <v>33</v>
+      </c>
+      <c r="C931" s="1">
+        <v>25</v>
+      </c>
+      <c r="D931" s="2">
+        <v>9</v>
+      </c>
+      <c r="E931" s="2">
+        <v>21</v>
+      </c>
+      <c r="F931" s="2">
+        <v>929</v>
+      </c>
+      <c r="G931" s="5">
+        <v>0</v>
+      </c>
+      <c r="H931" s="5">
+        <v>500</v>
+      </c>
+      <c r="I931" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J931" s="5">
+        <v>1</v>
+      </c>
+      <c r="K931" s="2">
+        <f t="shared" si="60"/>
+        <v>1868000</v>
+      </c>
+      <c r="L931" s="5">
+        <v>1</v>
+      </c>
+      <c r="M931" s="2">
+        <f t="shared" si="61"/>
+        <v>3736000</v>
+      </c>
+      <c r="N931">
+        <v>2</v>
+      </c>
+      <c r="O931" s="5">
+        <v>9786000</v>
+      </c>
+      <c r="P931">
+        <v>1</v>
+      </c>
+      <c r="Q931">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="932" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A932" s="2">
+        <v>930</v>
+      </c>
+      <c r="B932" s="2">
+        <v>33</v>
+      </c>
+      <c r="C932" s="1">
+        <v>25</v>
+      </c>
+      <c r="D932" s="2">
+        <v>9</v>
+      </c>
+      <c r="E932" s="2">
+        <v>21</v>
+      </c>
+      <c r="F932" s="2">
+        <v>930</v>
+      </c>
+      <c r="G932" s="5">
+        <v>0</v>
+      </c>
+      <c r="H932" s="5">
+        <v>500</v>
+      </c>
+      <c r="I932" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J932" s="5">
+        <v>1</v>
+      </c>
+      <c r="K932" s="2">
+        <f t="shared" si="60"/>
+        <v>1870000</v>
+      </c>
+      <c r="L932" s="5">
+        <v>1</v>
+      </c>
+      <c r="M932" s="2">
+        <f t="shared" si="61"/>
+        <v>3740000</v>
+      </c>
+      <c r="N932" s="5">
+        <v>2</v>
+      </c>
+      <c r="O932" s="2">
+        <v>9794000</v>
+      </c>
+      <c r="P932">
+        <v>1</v>
+      </c>
+      <c r="Q932">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="933" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A933" s="2">
+        <v>931</v>
+      </c>
+      <c r="B933" s="2">
+        <v>33</v>
+      </c>
+      <c r="C933" s="1">
+        <v>25</v>
+      </c>
+      <c r="D933" s="2">
+        <v>9</v>
+      </c>
+      <c r="E933" s="2">
+        <v>21</v>
+      </c>
+      <c r="F933" s="2">
+        <v>931</v>
+      </c>
+      <c r="G933" s="5">
+        <v>0</v>
+      </c>
+      <c r="H933" s="5">
+        <v>500</v>
+      </c>
+      <c r="I933" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J933" s="5">
+        <v>1</v>
+      </c>
+      <c r="K933" s="2">
+        <f t="shared" si="60"/>
+        <v>1872000</v>
+      </c>
+      <c r="L933" s="5">
+        <v>1</v>
+      </c>
+      <c r="M933" s="2">
+        <f t="shared" si="61"/>
+        <v>3744000</v>
+      </c>
+      <c r="N933" s="5">
+        <v>2</v>
+      </c>
+      <c r="O933" s="2">
+        <v>9802000</v>
+      </c>
+      <c r="P933">
+        <v>1</v>
+      </c>
+      <c r="Q933">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="934" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A934" s="2">
+        <v>932</v>
+      </c>
+      <c r="B934" s="2">
+        <v>33</v>
+      </c>
+      <c r="C934" s="1">
+        <v>25</v>
+      </c>
+      <c r="D934" s="2">
+        <v>9</v>
+      </c>
+      <c r="E934" s="2">
+        <v>21</v>
+      </c>
+      <c r="F934" s="2">
+        <v>932</v>
+      </c>
+      <c r="G934" s="5">
+        <v>0</v>
+      </c>
+      <c r="H934" s="5">
+        <v>500</v>
+      </c>
+      <c r="I934" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J934" s="5">
+        <v>1</v>
+      </c>
+      <c r="K934" s="2">
+        <f t="shared" si="60"/>
+        <v>1874000</v>
+      </c>
+      <c r="L934" s="5">
+        <v>1</v>
+      </c>
+      <c r="M934" s="2">
+        <f t="shared" si="61"/>
+        <v>3748000</v>
+      </c>
+      <c r="N934">
+        <v>2</v>
+      </c>
+      <c r="O934" s="5">
+        <v>9810000</v>
+      </c>
+      <c r="P934">
+        <v>1</v>
+      </c>
+      <c r="Q934">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="935" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A935" s="2">
+        <v>933</v>
+      </c>
+      <c r="B935" s="2">
+        <v>33</v>
+      </c>
+      <c r="C935" s="1">
+        <v>25</v>
+      </c>
+      <c r="D935" s="2">
+        <v>9</v>
+      </c>
+      <c r="E935" s="2">
+        <v>21</v>
+      </c>
+      <c r="F935" s="2">
+        <v>933</v>
+      </c>
+      <c r="G935" s="5">
+        <v>0</v>
+      </c>
+      <c r="H935" s="5">
+        <v>500</v>
+      </c>
+      <c r="I935" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J935" s="5">
+        <v>1</v>
+      </c>
+      <c r="K935" s="2">
+        <f t="shared" si="60"/>
+        <v>1876000</v>
+      </c>
+      <c r="L935" s="5">
+        <v>1</v>
+      </c>
+      <c r="M935" s="2">
+        <f t="shared" si="61"/>
+        <v>3752000</v>
+      </c>
+      <c r="N935" s="5">
+        <v>2</v>
+      </c>
+      <c r="O935" s="2">
+        <v>9818000</v>
+      </c>
+      <c r="P935">
+        <v>1</v>
+      </c>
+      <c r="Q935">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="936" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A936" s="2">
+        <v>934</v>
+      </c>
+      <c r="B936" s="2">
+        <v>33</v>
+      </c>
+      <c r="C936" s="1">
+        <v>25</v>
+      </c>
+      <c r="D936" s="2">
+        <v>9</v>
+      </c>
+      <c r="E936" s="2">
+        <v>21</v>
+      </c>
+      <c r="F936" s="2">
+        <v>934</v>
+      </c>
+      <c r="G936" s="5">
+        <v>0</v>
+      </c>
+      <c r="H936" s="5">
+        <v>500</v>
+      </c>
+      <c r="I936" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J936" s="5">
+        <v>1</v>
+      </c>
+      <c r="K936" s="2">
+        <f t="shared" si="60"/>
+        <v>1878000</v>
+      </c>
+      <c r="L936" s="5">
+        <v>1</v>
+      </c>
+      <c r="M936" s="2">
+        <f t="shared" si="61"/>
+        <v>3756000</v>
+      </c>
+      <c r="N936">
+        <v>2</v>
+      </c>
+      <c r="O936" s="5">
+        <v>9826000</v>
+      </c>
+      <c r="P936">
+        <v>1</v>
+      </c>
+      <c r="Q936">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="937" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A937" s="2">
+        <v>935</v>
+      </c>
+      <c r="B937" s="2">
+        <v>33</v>
+      </c>
+      <c r="C937" s="1">
+        <v>25</v>
+      </c>
+      <c r="D937" s="2">
+        <v>9</v>
+      </c>
+      <c r="E937" s="2">
+        <v>21</v>
+      </c>
+      <c r="F937" s="2">
+        <v>935</v>
+      </c>
+      <c r="G937" s="5">
+        <v>0</v>
+      </c>
+      <c r="H937" s="5">
+        <v>500</v>
+      </c>
+      <c r="I937" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J937" s="5">
+        <v>1</v>
+      </c>
+      <c r="K937" s="2">
+        <f t="shared" si="60"/>
+        <v>1880000</v>
+      </c>
+      <c r="L937" s="5">
+        <v>1</v>
+      </c>
+      <c r="M937" s="2">
+        <f t="shared" si="61"/>
+        <v>3760000</v>
+      </c>
+      <c r="N937" s="5">
+        <v>2</v>
+      </c>
+      <c r="O937" s="2">
+        <v>9834000</v>
+      </c>
+      <c r="P937">
+        <v>1</v>
+      </c>
+      <c r="Q937">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="938" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A938" s="2">
+        <v>936</v>
+      </c>
+      <c r="B938" s="2">
+        <v>33</v>
+      </c>
+      <c r="C938" s="1">
+        <v>25</v>
+      </c>
+      <c r="D938" s="2">
+        <v>9</v>
+      </c>
+      <c r="E938" s="2">
+        <v>21</v>
+      </c>
+      <c r="F938" s="2">
+        <v>936</v>
+      </c>
+      <c r="G938" s="5">
+        <v>0</v>
+      </c>
+      <c r="H938" s="5">
+        <v>500</v>
+      </c>
+      <c r="I938" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J938" s="5">
+        <v>1</v>
+      </c>
+      <c r="K938" s="2">
+        <f t="shared" si="60"/>
+        <v>1882000</v>
+      </c>
+      <c r="L938" s="5">
+        <v>1</v>
+      </c>
+      <c r="M938" s="2">
+        <f t="shared" si="61"/>
+        <v>3764000</v>
+      </c>
+      <c r="N938" s="5">
+        <v>2</v>
+      </c>
+      <c r="O938" s="2">
+        <v>9842000</v>
+      </c>
+      <c r="P938">
+        <v>1</v>
+      </c>
+      <c r="Q938">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="939" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A939" s="2">
+        <v>937</v>
+      </c>
+      <c r="B939" s="2">
+        <v>33</v>
+      </c>
+      <c r="C939" s="1">
+        <v>25</v>
+      </c>
+      <c r="D939" s="2">
+        <v>9</v>
+      </c>
+      <c r="E939" s="2">
+        <v>21</v>
+      </c>
+      <c r="F939" s="2">
+        <v>937</v>
+      </c>
+      <c r="G939" s="5">
+        <v>0</v>
+      </c>
+      <c r="H939" s="5">
+        <v>500</v>
+      </c>
+      <c r="I939" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J939" s="5">
+        <v>1</v>
+      </c>
+      <c r="K939" s="2">
+        <f t="shared" si="60"/>
+        <v>1884000</v>
+      </c>
+      <c r="L939" s="5">
+        <v>1</v>
+      </c>
+      <c r="M939" s="2">
+        <f t="shared" si="61"/>
+        <v>3768000</v>
+      </c>
+      <c r="N939">
+        <v>2</v>
+      </c>
+      <c r="O939" s="5">
+        <v>9850000</v>
+      </c>
+      <c r="P939">
+        <v>1</v>
+      </c>
+      <c r="Q939">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="940" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A940" s="2">
+        <v>938</v>
+      </c>
+      <c r="B940" s="2">
+        <v>33</v>
+      </c>
+      <c r="C940" s="1">
+        <v>25</v>
+      </c>
+      <c r="D940" s="2">
+        <v>9</v>
+      </c>
+      <c r="E940" s="2">
+        <v>21</v>
+      </c>
+      <c r="F940" s="2">
+        <v>938</v>
+      </c>
+      <c r="G940" s="5">
+        <v>0</v>
+      </c>
+      <c r="H940" s="5">
+        <v>500</v>
+      </c>
+      <c r="I940" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J940" s="5">
+        <v>1</v>
+      </c>
+      <c r="K940" s="2">
+        <f t="shared" si="60"/>
+        <v>1886000</v>
+      </c>
+      <c r="L940" s="5">
+        <v>1</v>
+      </c>
+      <c r="M940" s="2">
+        <f t="shared" si="61"/>
+        <v>3772000</v>
+      </c>
+      <c r="N940" s="5">
+        <v>2</v>
+      </c>
+      <c r="O940" s="2">
+        <v>9858000</v>
+      </c>
+      <c r="P940">
+        <v>1</v>
+      </c>
+      <c r="Q940">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="941" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A941" s="2">
+        <v>939</v>
+      </c>
+      <c r="B941" s="2">
+        <v>33</v>
+      </c>
+      <c r="C941" s="1">
+        <v>25</v>
+      </c>
+      <c r="D941" s="2">
+        <v>9</v>
+      </c>
+      <c r="E941" s="2">
+        <v>21</v>
+      </c>
+      <c r="F941" s="2">
+        <v>939</v>
+      </c>
+      <c r="G941" s="5">
+        <v>0</v>
+      </c>
+      <c r="H941" s="5">
+        <v>500</v>
+      </c>
+      <c r="I941" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J941" s="5">
+        <v>1</v>
+      </c>
+      <c r="K941" s="2">
+        <f t="shared" si="60"/>
+        <v>1888000</v>
+      </c>
+      <c r="L941" s="5">
+        <v>1</v>
+      </c>
+      <c r="M941" s="2">
+        <f t="shared" si="61"/>
+        <v>3776000</v>
+      </c>
+      <c r="N941">
+        <v>2</v>
+      </c>
+      <c r="O941" s="5">
+        <v>9866000</v>
+      </c>
+      <c r="P941">
+        <v>1</v>
+      </c>
+      <c r="Q941">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="942" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A942" s="2">
+        <v>940</v>
+      </c>
+      <c r="B942" s="2">
+        <v>33</v>
+      </c>
+      <c r="C942" s="1">
+        <v>25</v>
+      </c>
+      <c r="D942" s="2">
+        <v>9</v>
+      </c>
+      <c r="E942" s="2">
+        <v>21</v>
+      </c>
+      <c r="F942" s="2">
+        <v>940</v>
+      </c>
+      <c r="G942" s="5">
+        <v>0</v>
+      </c>
+      <c r="H942" s="5">
+        <v>500</v>
+      </c>
+      <c r="I942" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J942" s="5">
+        <v>1</v>
+      </c>
+      <c r="K942" s="2">
+        <f t="shared" si="60"/>
+        <v>1890000</v>
+      </c>
+      <c r="L942" s="5">
+        <v>1</v>
+      </c>
+      <c r="M942" s="2">
+        <f t="shared" si="61"/>
+        <v>3780000</v>
+      </c>
+      <c r="N942" s="5">
+        <v>2</v>
+      </c>
+      <c r="O942" s="2">
+        <v>9874000</v>
+      </c>
+      <c r="P942">
+        <v>1</v>
+      </c>
+      <c r="Q942">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="943" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A943" s="2">
+        <v>941</v>
+      </c>
+      <c r="B943" s="2">
+        <v>33</v>
+      </c>
+      <c r="C943" s="1">
+        <v>25</v>
+      </c>
+      <c r="D943" s="2">
+        <v>9</v>
+      </c>
+      <c r="E943" s="2">
+        <v>21</v>
+      </c>
+      <c r="F943" s="2">
+        <v>941</v>
+      </c>
+      <c r="G943" s="5">
+        <v>0</v>
+      </c>
+      <c r="H943" s="5">
+        <v>500</v>
+      </c>
+      <c r="I943" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J943" s="5">
+        <v>1</v>
+      </c>
+      <c r="K943" s="2">
+        <f t="shared" si="60"/>
+        <v>1892000</v>
+      </c>
+      <c r="L943" s="5">
+        <v>1</v>
+      </c>
+      <c r="M943" s="2">
+        <f t="shared" si="61"/>
+        <v>3784000</v>
+      </c>
+      <c r="N943" s="5">
+        <v>2</v>
+      </c>
+      <c r="O943" s="2">
+        <v>9882000</v>
+      </c>
+      <c r="P943">
+        <v>1</v>
+      </c>
+      <c r="Q943">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="944" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A944" s="2">
+        <v>942</v>
+      </c>
+      <c r="B944" s="2">
+        <v>33</v>
+      </c>
+      <c r="C944" s="1">
+        <v>25</v>
+      </c>
+      <c r="D944" s="2">
+        <v>9</v>
+      </c>
+      <c r="E944" s="2">
+        <v>21</v>
+      </c>
+      <c r="F944" s="2">
+        <v>942</v>
+      </c>
+      <c r="G944" s="5">
+        <v>0</v>
+      </c>
+      <c r="H944" s="5">
+        <v>500</v>
+      </c>
+      <c r="I944" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J944" s="5">
+        <v>1</v>
+      </c>
+      <c r="K944" s="2">
+        <f t="shared" si="60"/>
+        <v>1894000</v>
+      </c>
+      <c r="L944" s="5">
+        <v>1</v>
+      </c>
+      <c r="M944" s="2">
+        <f t="shared" si="61"/>
+        <v>3788000</v>
+      </c>
+      <c r="N944">
+        <v>2</v>
+      </c>
+      <c r="O944" s="5">
+        <v>9890000</v>
+      </c>
+      <c r="P944">
+        <v>1</v>
+      </c>
+      <c r="Q944">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="945" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A945" s="2">
+        <v>943</v>
+      </c>
+      <c r="B945" s="2">
+        <v>33</v>
+      </c>
+      <c r="C945" s="1">
+        <v>25</v>
+      </c>
+      <c r="D945" s="2">
+        <v>9</v>
+      </c>
+      <c r="E945" s="2">
+        <v>21</v>
+      </c>
+      <c r="F945" s="2">
+        <v>943</v>
+      </c>
+      <c r="G945" s="5">
+        <v>0</v>
+      </c>
+      <c r="H945" s="5">
+        <v>500</v>
+      </c>
+      <c r="I945" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J945" s="5">
+        <v>1</v>
+      </c>
+      <c r="K945" s="2">
+        <f t="shared" si="60"/>
+        <v>1896000</v>
+      </c>
+      <c r="L945" s="5">
+        <v>1</v>
+      </c>
+      <c r="M945" s="2">
+        <f t="shared" si="61"/>
+        <v>3792000</v>
+      </c>
+      <c r="N945" s="5">
+        <v>2</v>
+      </c>
+      <c r="O945" s="2">
+        <v>9898000</v>
+      </c>
+      <c r="P945">
+        <v>1</v>
+      </c>
+      <c r="Q945">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="946" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A946" s="2">
+        <v>944</v>
+      </c>
+      <c r="B946" s="2">
+        <v>33</v>
+      </c>
+      <c r="C946" s="1">
+        <v>25</v>
+      </c>
+      <c r="D946" s="2">
+        <v>9</v>
+      </c>
+      <c r="E946" s="2">
+        <v>21</v>
+      </c>
+      <c r="F946" s="2">
+        <v>944</v>
+      </c>
+      <c r="G946" s="5">
+        <v>0</v>
+      </c>
+      <c r="H946" s="5">
+        <v>500</v>
+      </c>
+      <c r="I946" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J946" s="5">
+        <v>1</v>
+      </c>
+      <c r="K946" s="2">
+        <f t="shared" si="60"/>
+        <v>1898000</v>
+      </c>
+      <c r="L946" s="5">
+        <v>1</v>
+      </c>
+      <c r="M946" s="2">
+        <f t="shared" si="61"/>
+        <v>3796000</v>
+      </c>
+      <c r="N946">
+        <v>2</v>
+      </c>
+      <c r="O946" s="5">
+        <v>9906000</v>
+      </c>
+      <c r="P946">
+        <v>1</v>
+      </c>
+      <c r="Q946">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="947" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A947" s="2">
+        <v>945</v>
+      </c>
+      <c r="B947" s="2">
+        <v>33</v>
+      </c>
+      <c r="C947" s="1">
+        <v>25</v>
+      </c>
+      <c r="D947" s="2">
+        <v>9</v>
+      </c>
+      <c r="E947" s="2">
+        <v>21</v>
+      </c>
+      <c r="F947" s="2">
+        <v>945</v>
+      </c>
+      <c r="G947" s="5">
+        <v>0</v>
+      </c>
+      <c r="H947" s="5">
+        <v>500</v>
+      </c>
+      <c r="I947" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J947" s="5">
+        <v>1</v>
+      </c>
+      <c r="K947" s="2">
+        <f t="shared" si="60"/>
+        <v>1900000</v>
+      </c>
+      <c r="L947" s="5">
+        <v>1</v>
+      </c>
+      <c r="M947" s="2">
+        <f t="shared" si="61"/>
+        <v>3800000</v>
+      </c>
+      <c r="N947" s="5">
+        <v>2</v>
+      </c>
+      <c r="O947" s="2">
+        <v>9914000</v>
+      </c>
+      <c r="P947">
+        <v>1</v>
+      </c>
+      <c r="Q947">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="948" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A948" s="2">
+        <v>946</v>
+      </c>
+      <c r="B948" s="2">
+        <v>33</v>
+      </c>
+      <c r="C948" s="1">
+        <v>25</v>
+      </c>
+      <c r="D948" s="2">
+        <v>9</v>
+      </c>
+      <c r="E948" s="2">
+        <v>21</v>
+      </c>
+      <c r="F948" s="2">
+        <v>946</v>
+      </c>
+      <c r="G948" s="5">
+        <v>0</v>
+      </c>
+      <c r="H948" s="5">
+        <v>500</v>
+      </c>
+      <c r="I948" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J948" s="5">
+        <v>1</v>
+      </c>
+      <c r="K948" s="2">
+        <f t="shared" si="60"/>
+        <v>1902000</v>
+      </c>
+      <c r="L948" s="5">
+        <v>1</v>
+      </c>
+      <c r="M948" s="2">
+        <f t="shared" si="61"/>
+        <v>3804000</v>
+      </c>
+      <c r="N948" s="5">
+        <v>2</v>
+      </c>
+      <c r="O948" s="2">
+        <v>9922000</v>
+      </c>
+      <c r="P948">
+        <v>1</v>
+      </c>
+      <c r="Q948">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="949" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A949" s="2">
+        <v>947</v>
+      </c>
+      <c r="B949" s="2">
+        <v>33</v>
+      </c>
+      <c r="C949" s="1">
+        <v>25</v>
+      </c>
+      <c r="D949" s="2">
+        <v>9</v>
+      </c>
+      <c r="E949" s="2">
+        <v>21</v>
+      </c>
+      <c r="F949" s="2">
+        <v>947</v>
+      </c>
+      <c r="G949" s="5">
+        <v>0</v>
+      </c>
+      <c r="H949" s="5">
+        <v>500</v>
+      </c>
+      <c r="I949" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J949" s="5">
+        <v>1</v>
+      </c>
+      <c r="K949" s="2">
+        <f t="shared" si="60"/>
+        <v>1904000</v>
+      </c>
+      <c r="L949" s="5">
+        <v>1</v>
+      </c>
+      <c r="M949" s="2">
+        <f t="shared" si="61"/>
+        <v>3808000</v>
+      </c>
+      <c r="N949">
+        <v>2</v>
+      </c>
+      <c r="O949" s="5">
+        <v>9930000</v>
+      </c>
+      <c r="P949">
+        <v>1</v>
+      </c>
+      <c r="Q949">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="950" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A950" s="2">
+        <v>948</v>
+      </c>
+      <c r="B950" s="2">
+        <v>33</v>
+      </c>
+      <c r="C950" s="1">
+        <v>25</v>
+      </c>
+      <c r="D950" s="2">
+        <v>9</v>
+      </c>
+      <c r="E950" s="2">
+        <v>21</v>
+      </c>
+      <c r="F950" s="2">
+        <v>948</v>
+      </c>
+      <c r="G950" s="5">
+        <v>0</v>
+      </c>
+      <c r="H950" s="5">
+        <v>500</v>
+      </c>
+      <c r="I950" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J950" s="5">
+        <v>1</v>
+      </c>
+      <c r="K950" s="2">
+        <f t="shared" si="60"/>
+        <v>1906000</v>
+      </c>
+      <c r="L950" s="5">
+        <v>1</v>
+      </c>
+      <c r="M950" s="2">
+        <f t="shared" si="61"/>
+        <v>3812000</v>
+      </c>
+      <c r="N950" s="5">
+        <v>2</v>
+      </c>
+      <c r="O950" s="2">
+        <v>9938000</v>
+      </c>
+      <c r="P950">
+        <v>1</v>
+      </c>
+      <c r="Q950">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="951" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A951" s="2">
+        <v>949</v>
+      </c>
+      <c r="B951" s="2">
+        <v>33</v>
+      </c>
+      <c r="C951" s="1">
+        <v>25</v>
+      </c>
+      <c r="D951" s="2">
+        <v>9</v>
+      </c>
+      <c r="E951" s="2">
+        <v>21</v>
+      </c>
+      <c r="F951" s="2">
+        <v>949</v>
+      </c>
+      <c r="G951" s="5">
+        <v>0</v>
+      </c>
+      <c r="H951" s="5">
+        <v>500</v>
+      </c>
+      <c r="I951" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J951" s="5">
+        <v>1</v>
+      </c>
+      <c r="K951" s="2">
+        <f t="shared" si="60"/>
+        <v>1908000</v>
+      </c>
+      <c r="L951" s="5">
+        <v>1</v>
+      </c>
+      <c r="M951" s="2">
+        <f t="shared" si="61"/>
+        <v>3816000</v>
+      </c>
+      <c r="N951">
+        <v>2</v>
+      </c>
+      <c r="O951" s="5">
+        <v>9946000</v>
+      </c>
+      <c r="P951">
+        <v>1</v>
+      </c>
+      <c r="Q951">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="952" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A952" s="2">
+        <v>950</v>
+      </c>
+      <c r="B952" s="2">
+        <v>33</v>
+      </c>
+      <c r="C952" s="1">
+        <v>25</v>
+      </c>
+      <c r="D952" s="2">
+        <v>9</v>
+      </c>
+      <c r="E952" s="2">
+        <v>21</v>
+      </c>
+      <c r="F952" s="2">
+        <v>950</v>
+      </c>
+      <c r="G952" s="5">
+        <v>0</v>
+      </c>
+      <c r="H952" s="5">
+        <v>500</v>
+      </c>
+      <c r="I952" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J952" s="5">
+        <v>1</v>
+      </c>
+      <c r="K952" s="2">
+        <f t="shared" si="60"/>
+        <v>1910000</v>
+      </c>
+      <c r="L952" s="5">
+        <v>1</v>
+      </c>
+      <c r="M952" s="2">
+        <f t="shared" si="61"/>
+        <v>3820000</v>
+      </c>
+      <c r="N952" s="5">
+        <v>2</v>
+      </c>
+      <c r="O952" s="2">
+        <v>9954000</v>
+      </c>
+      <c r="P952">
+        <v>1</v>
+      </c>
+      <c r="Q952">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StageMap.xlsx
+++ b/Assets/06.Table/StageMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E080ECC2-7376-40FF-AA35-0A8A902DAC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB5597C-497B-48F1-BE5D-5D25FEC9E67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="1620" windowWidth="31890" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StageMap" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="20">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,11 +592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Q952"/>
+  <dimension ref="A1:Q1052"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A936" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A902" sqref="A902:XFD902"/>
+      <pane ySplit="1" topLeftCell="A990" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1007" sqref="H1007"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -53994,7 +53994,7 @@
         <v>0</v>
       </c>
       <c r="H950" s="5">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="I950" s="5" t="s">
         <v>13</v>
@@ -54049,7 +54049,7 @@
         <v>0</v>
       </c>
       <c r="H951" s="5">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="I951" s="5" t="s">
         <v>13</v>
@@ -54082,7 +54082,7 @@
       </c>
     </row>
     <row r="952" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A952" s="2">
+      <c r="A952" s="5">
         <v>950</v>
       </c>
       <c r="B952" s="2">
@@ -54104,7 +54104,7 @@
         <v>0</v>
       </c>
       <c r="H952" s="5">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="I952" s="5" t="s">
         <v>13</v>
@@ -54133,7 +54133,5507 @@
         <v>1</v>
       </c>
       <c r="Q952">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="953" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A953" s="2">
+        <v>951</v>
+      </c>
+      <c r="B953" s="2">
+        <v>34</v>
+      </c>
+      <c r="C953" s="1">
+        <v>26</v>
+      </c>
+      <c r="D953" s="2">
+        <v>9</v>
+      </c>
+      <c r="E953" s="2">
+        <v>21</v>
+      </c>
+      <c r="F953" s="2">
+        <v>951</v>
+      </c>
+      <c r="G953" s="5">
+        <v>0</v>
+      </c>
+      <c r="H953" s="5">
+        <v>510</v>
+      </c>
+      <c r="I953" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J953" s="5">
+        <v>1</v>
+      </c>
+      <c r="K953" s="2">
+        <f t="shared" ref="K953:K1016" si="62">10000+A953*2000</f>
+        <v>1912000</v>
+      </c>
+      <c r="L953" s="5">
+        <v>1</v>
+      </c>
+      <c r="M953" s="2">
+        <f t="shared" ref="M953:M1016" si="63">K953*2</f>
+        <v>3824000</v>
+      </c>
+      <c r="N953">
+        <v>2</v>
+      </c>
+      <c r="O953" s="5">
+        <v>9962000</v>
+      </c>
+      <c r="P953">
+        <v>1</v>
+      </c>
+      <c r="Q953">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="954" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A954" s="2">
+        <v>952</v>
+      </c>
+      <c r="B954" s="2">
+        <v>34</v>
+      </c>
+      <c r="C954" s="1">
+        <v>26</v>
+      </c>
+      <c r="D954" s="2">
+        <v>9</v>
+      </c>
+      <c r="E954" s="2">
+        <v>21</v>
+      </c>
+      <c r="F954" s="2">
+        <v>952</v>
+      </c>
+      <c r="G954" s="5">
+        <v>0</v>
+      </c>
+      <c r="H954" s="5">
+        <v>510</v>
+      </c>
+      <c r="I954" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J954" s="5">
+        <v>1</v>
+      </c>
+      <c r="K954" s="2">
+        <f t="shared" si="62"/>
+        <v>1914000</v>
+      </c>
+      <c r="L954" s="5">
+        <v>1</v>
+      </c>
+      <c r="M954" s="2">
+        <f t="shared" si="63"/>
+        <v>3828000</v>
+      </c>
+      <c r="N954" s="5">
+        <v>2</v>
+      </c>
+      <c r="O954" s="2">
+        <v>9970000</v>
+      </c>
+      <c r="P954">
+        <v>1</v>
+      </c>
+      <c r="Q954">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="955" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A955" s="2">
+        <v>953</v>
+      </c>
+      <c r="B955" s="2">
+        <v>34</v>
+      </c>
+      <c r="C955" s="1">
+        <v>26</v>
+      </c>
+      <c r="D955" s="2">
+        <v>9</v>
+      </c>
+      <c r="E955" s="2">
+        <v>21</v>
+      </c>
+      <c r="F955" s="2">
+        <v>953</v>
+      </c>
+      <c r="G955" s="5">
+        <v>0</v>
+      </c>
+      <c r="H955" s="5">
+        <v>510</v>
+      </c>
+      <c r="I955" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J955" s="5">
+        <v>1</v>
+      </c>
+      <c r="K955" s="2">
+        <f t="shared" si="62"/>
+        <v>1916000</v>
+      </c>
+      <c r="L955" s="5">
+        <v>1</v>
+      </c>
+      <c r="M955" s="2">
+        <f t="shared" si="63"/>
+        <v>3832000</v>
+      </c>
+      <c r="N955">
+        <v>2</v>
+      </c>
+      <c r="O955" s="5">
+        <v>9978000</v>
+      </c>
+      <c r="P955">
+        <v>1</v>
+      </c>
+      <c r="Q955">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="956" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A956" s="2">
+        <v>954</v>
+      </c>
+      <c r="B956" s="2">
+        <v>34</v>
+      </c>
+      <c r="C956" s="1">
+        <v>26</v>
+      </c>
+      <c r="D956" s="2">
+        <v>9</v>
+      </c>
+      <c r="E956" s="2">
+        <v>21</v>
+      </c>
+      <c r="F956" s="2">
+        <v>954</v>
+      </c>
+      <c r="G956" s="5">
+        <v>0</v>
+      </c>
+      <c r="H956" s="5">
+        <v>510</v>
+      </c>
+      <c r="I956" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J956" s="5">
+        <v>1</v>
+      </c>
+      <c r="K956" s="2">
+        <f t="shared" si="62"/>
+        <v>1918000</v>
+      </c>
+      <c r="L956" s="5">
+        <v>1</v>
+      </c>
+      <c r="M956" s="2">
+        <f t="shared" si="63"/>
+        <v>3836000</v>
+      </c>
+      <c r="N956" s="5">
+        <v>2</v>
+      </c>
+      <c r="O956" s="2">
+        <v>9986000</v>
+      </c>
+      <c r="P956">
+        <v>1</v>
+      </c>
+      <c r="Q956">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="957" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A957" s="2">
+        <v>955</v>
+      </c>
+      <c r="B957" s="2">
+        <v>34</v>
+      </c>
+      <c r="C957" s="1">
+        <v>26</v>
+      </c>
+      <c r="D957" s="2">
+        <v>9</v>
+      </c>
+      <c r="E957" s="2">
+        <v>21</v>
+      </c>
+      <c r="F957" s="2">
+        <v>955</v>
+      </c>
+      <c r="G957" s="5">
+        <v>0</v>
+      </c>
+      <c r="H957" s="5">
+        <v>510</v>
+      </c>
+      <c r="I957" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J957" s="5">
+        <v>1</v>
+      </c>
+      <c r="K957" s="2">
+        <f t="shared" si="62"/>
+        <v>1920000</v>
+      </c>
+      <c r="L957" s="5">
+        <v>1</v>
+      </c>
+      <c r="M957" s="2">
+        <f t="shared" si="63"/>
+        <v>3840000</v>
+      </c>
+      <c r="N957">
+        <v>2</v>
+      </c>
+      <c r="O957" s="5">
+        <v>9994000</v>
+      </c>
+      <c r="P957">
+        <v>1</v>
+      </c>
+      <c r="Q957">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="958" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A958" s="2">
+        <v>956</v>
+      </c>
+      <c r="B958" s="2">
+        <v>34</v>
+      </c>
+      <c r="C958" s="1">
+        <v>26</v>
+      </c>
+      <c r="D958" s="2">
+        <v>9</v>
+      </c>
+      <c r="E958" s="2">
+        <v>21</v>
+      </c>
+      <c r="F958" s="2">
+        <v>956</v>
+      </c>
+      <c r="G958" s="5">
+        <v>0</v>
+      </c>
+      <c r="H958" s="5">
+        <v>510</v>
+      </c>
+      <c r="I958" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J958" s="5">
+        <v>1</v>
+      </c>
+      <c r="K958" s="2">
+        <f t="shared" si="62"/>
+        <v>1922000</v>
+      </c>
+      <c r="L958" s="5">
+        <v>1</v>
+      </c>
+      <c r="M958" s="2">
+        <f t="shared" si="63"/>
+        <v>3844000</v>
+      </c>
+      <c r="N958" s="5">
+        <v>2</v>
+      </c>
+      <c r="O958" s="2">
+        <v>10002000</v>
+      </c>
+      <c r="P958">
+        <v>1</v>
+      </c>
+      <c r="Q958">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="959" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A959" s="2">
+        <v>957</v>
+      </c>
+      <c r="B959" s="2">
+        <v>34</v>
+      </c>
+      <c r="C959" s="1">
+        <v>26</v>
+      </c>
+      <c r="D959" s="2">
+        <v>9</v>
+      </c>
+      <c r="E959" s="2">
+        <v>21</v>
+      </c>
+      <c r="F959" s="2">
+        <v>957</v>
+      </c>
+      <c r="G959" s="5">
+        <v>0</v>
+      </c>
+      <c r="H959" s="5">
+        <v>510</v>
+      </c>
+      <c r="I959" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J959" s="5">
+        <v>1</v>
+      </c>
+      <c r="K959" s="2">
+        <f t="shared" si="62"/>
+        <v>1924000</v>
+      </c>
+      <c r="L959" s="5">
+        <v>1</v>
+      </c>
+      <c r="M959" s="2">
+        <f t="shared" si="63"/>
+        <v>3848000</v>
+      </c>
+      <c r="N959">
+        <v>2</v>
+      </c>
+      <c r="O959" s="5">
+        <v>10010000</v>
+      </c>
+      <c r="P959">
+        <v>1</v>
+      </c>
+      <c r="Q959">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="960" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A960" s="2">
+        <v>958</v>
+      </c>
+      <c r="B960" s="2">
+        <v>34</v>
+      </c>
+      <c r="C960" s="1">
+        <v>26</v>
+      </c>
+      <c r="D960" s="2">
+        <v>9</v>
+      </c>
+      <c r="E960" s="2">
+        <v>21</v>
+      </c>
+      <c r="F960" s="2">
+        <v>958</v>
+      </c>
+      <c r="G960" s="5">
+        <v>0</v>
+      </c>
+      <c r="H960" s="5">
+        <v>510</v>
+      </c>
+      <c r="I960" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J960" s="5">
+        <v>1</v>
+      </c>
+      <c r="K960" s="2">
+        <f t="shared" si="62"/>
+        <v>1926000</v>
+      </c>
+      <c r="L960" s="5">
+        <v>1</v>
+      </c>
+      <c r="M960" s="2">
+        <f t="shared" si="63"/>
+        <v>3852000</v>
+      </c>
+      <c r="N960" s="5">
+        <v>2</v>
+      </c>
+      <c r="O960" s="2">
+        <v>10018000</v>
+      </c>
+      <c r="P960">
+        <v>1</v>
+      </c>
+      <c r="Q960">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="961" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A961" s="2">
+        <v>959</v>
+      </c>
+      <c r="B961" s="2">
+        <v>34</v>
+      </c>
+      <c r="C961" s="1">
+        <v>26</v>
+      </c>
+      <c r="D961" s="2">
+        <v>9</v>
+      </c>
+      <c r="E961" s="2">
+        <v>21</v>
+      </c>
+      <c r="F961" s="2">
+        <v>959</v>
+      </c>
+      <c r="G961" s="5">
+        <v>0</v>
+      </c>
+      <c r="H961" s="5">
+        <v>510</v>
+      </c>
+      <c r="I961" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J961" s="5">
+        <v>1</v>
+      </c>
+      <c r="K961" s="2">
+        <f t="shared" si="62"/>
+        <v>1928000</v>
+      </c>
+      <c r="L961" s="5">
+        <v>1</v>
+      </c>
+      <c r="M961" s="2">
+        <f t="shared" si="63"/>
+        <v>3856000</v>
+      </c>
+      <c r="N961">
+        <v>2</v>
+      </c>
+      <c r="O961" s="5">
+        <v>10026000</v>
+      </c>
+      <c r="P961">
+        <v>1</v>
+      </c>
+      <c r="Q961">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="962" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A962" s="2">
+        <v>960</v>
+      </c>
+      <c r="B962" s="2">
+        <v>34</v>
+      </c>
+      <c r="C962" s="1">
+        <v>26</v>
+      </c>
+      <c r="D962" s="2">
+        <v>9</v>
+      </c>
+      <c r="E962" s="2">
+        <v>21</v>
+      </c>
+      <c r="F962" s="2">
+        <v>960</v>
+      </c>
+      <c r="G962" s="5">
+        <v>0</v>
+      </c>
+      <c r="H962" s="5">
+        <v>510</v>
+      </c>
+      <c r="I962" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J962" s="5">
+        <v>1</v>
+      </c>
+      <c r="K962" s="2">
+        <f t="shared" si="62"/>
+        <v>1930000</v>
+      </c>
+      <c r="L962" s="5">
+        <v>1</v>
+      </c>
+      <c r="M962" s="2">
+        <f t="shared" si="63"/>
+        <v>3860000</v>
+      </c>
+      <c r="N962" s="5">
+        <v>2</v>
+      </c>
+      <c r="O962" s="2">
+        <v>10034000</v>
+      </c>
+      <c r="P962">
+        <v>1</v>
+      </c>
+      <c r="Q962">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="963" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A963" s="2">
+        <v>961</v>
+      </c>
+      <c r="B963" s="2">
+        <v>34</v>
+      </c>
+      <c r="C963" s="1">
+        <v>26</v>
+      </c>
+      <c r="D963" s="2">
+        <v>9</v>
+      </c>
+      <c r="E963" s="2">
+        <v>21</v>
+      </c>
+      <c r="F963" s="2">
+        <v>961</v>
+      </c>
+      <c r="G963" s="5">
+        <v>0</v>
+      </c>
+      <c r="H963" s="5">
+        <v>510</v>
+      </c>
+      <c r="I963" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J963" s="5">
+        <v>1</v>
+      </c>
+      <c r="K963" s="2">
+        <f t="shared" si="62"/>
+        <v>1932000</v>
+      </c>
+      <c r="L963" s="5">
+        <v>1</v>
+      </c>
+      <c r="M963" s="2">
+        <f t="shared" si="63"/>
+        <v>3864000</v>
+      </c>
+      <c r="N963">
+        <v>2</v>
+      </c>
+      <c r="O963" s="5">
+        <v>10042000</v>
+      </c>
+      <c r="P963">
+        <v>1</v>
+      </c>
+      <c r="Q963">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="964" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A964" s="2">
+        <v>962</v>
+      </c>
+      <c r="B964" s="2">
+        <v>34</v>
+      </c>
+      <c r="C964" s="1">
+        <v>26</v>
+      </c>
+      <c r="D964" s="2">
+        <v>9</v>
+      </c>
+      <c r="E964" s="2">
+        <v>21</v>
+      </c>
+      <c r="F964" s="2">
+        <v>962</v>
+      </c>
+      <c r="G964" s="5">
+        <v>0</v>
+      </c>
+      <c r="H964" s="5">
+        <v>510</v>
+      </c>
+      <c r="I964" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J964" s="5">
+        <v>1</v>
+      </c>
+      <c r="K964" s="2">
+        <f t="shared" si="62"/>
+        <v>1934000</v>
+      </c>
+      <c r="L964" s="5">
+        <v>1</v>
+      </c>
+      <c r="M964" s="2">
+        <f t="shared" si="63"/>
+        <v>3868000</v>
+      </c>
+      <c r="N964" s="5">
+        <v>2</v>
+      </c>
+      <c r="O964" s="2">
+        <v>10050000</v>
+      </c>
+      <c r="P964">
+        <v>1</v>
+      </c>
+      <c r="Q964">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="965" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A965" s="2">
+        <v>963</v>
+      </c>
+      <c r="B965" s="2">
+        <v>34</v>
+      </c>
+      <c r="C965" s="1">
+        <v>26</v>
+      </c>
+      <c r="D965" s="2">
+        <v>9</v>
+      </c>
+      <c r="E965" s="2">
+        <v>21</v>
+      </c>
+      <c r="F965" s="2">
+        <v>963</v>
+      </c>
+      <c r="G965" s="5">
+        <v>0</v>
+      </c>
+      <c r="H965" s="5">
+        <v>510</v>
+      </c>
+      <c r="I965" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J965" s="5">
+        <v>1</v>
+      </c>
+      <c r="K965" s="2">
+        <f t="shared" si="62"/>
+        <v>1936000</v>
+      </c>
+      <c r="L965" s="5">
+        <v>1</v>
+      </c>
+      <c r="M965" s="2">
+        <f t="shared" si="63"/>
+        <v>3872000</v>
+      </c>
+      <c r="N965">
+        <v>2</v>
+      </c>
+      <c r="O965" s="5">
+        <v>10058000</v>
+      </c>
+      <c r="P965">
+        <v>1</v>
+      </c>
+      <c r="Q965">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="966" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A966" s="2">
+        <v>964</v>
+      </c>
+      <c r="B966" s="2">
+        <v>34</v>
+      </c>
+      <c r="C966" s="1">
+        <v>26</v>
+      </c>
+      <c r="D966" s="2">
+        <v>9</v>
+      </c>
+      <c r="E966" s="2">
+        <v>21</v>
+      </c>
+      <c r="F966" s="2">
+        <v>964</v>
+      </c>
+      <c r="G966" s="5">
+        <v>0</v>
+      </c>
+      <c r="H966" s="5">
+        <v>510</v>
+      </c>
+      <c r="I966" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J966" s="5">
+        <v>1</v>
+      </c>
+      <c r="K966" s="2">
+        <f t="shared" si="62"/>
+        <v>1938000</v>
+      </c>
+      <c r="L966" s="5">
+        <v>1</v>
+      </c>
+      <c r="M966" s="2">
+        <f t="shared" si="63"/>
+        <v>3876000</v>
+      </c>
+      <c r="N966" s="5">
+        <v>2</v>
+      </c>
+      <c r="O966" s="2">
+        <v>10066000</v>
+      </c>
+      <c r="P966">
+        <v>1</v>
+      </c>
+      <c r=